--- a/Dataset/Covid_SLR_Dataset.xlsx
+++ b/Dataset/Covid_SLR_Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\FASS-SLR\FASS-SLR\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B0FC56-28B3-46E0-987D-9F46BC836D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D3FA5-D25E-4A5D-AED8-AC86408C67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="935">
   <si>
     <t>SLR Name</t>
   </si>
@@ -3085,1762 +3085,7 @@
     <t>The COVID-19 pandemic has had far reaching implications for health, economics and society. One of the many areas affected has been the ability of healthcare professionals to stop the spread of the infection in health and care settings both in hospital and in the community such as a dental surgery. With research being published since the emergence of the outbreak we now have a much better understanding of how to help prevent the spread of the infection. This document was co-produced by a multiprofessional group that includes clinicians, nurses, academics, and a member of the public. It provides the current evidence with recommendations to help frontline health professionals and managers. The timing of this guidance is important, it is vital that people are aware what has been proven to work. We are aware that new evidence will come along which may contradict or add to some of our recommendations, however this is an important start in giving health providers and managers evidence-based recommendations for limiting the spread of infection. The document contains explanation, evidence and a glossary of terms (Appendix 1). If you simply want to look at the recommendations, please see the executive summary section. Along with this document we are publishing materials for patients, carers and members of the public because it is vital that we all have access to guidance and understand our individual role in reducing COVID-19 spread in hospitals and community.</t>
   </si>
   <si>
-    <t>[You%Li%you.li2@ed.ac.uk%1, Xin%Wang%xin.wang-2@ed.ac.uk%2, Xin%Wang%xin.wang-2@ed.ac.uk%0, Harish%Nair%NULL%2, Harish%Nair%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Dominika%Suchá%d.sucha@umcutrecht.nl%2, Robbert W.%van Hamersvelt%NULL%4, Robbert W.%van Hamersvelt%NULL%0, Andor F.%van den Hoven%NULL%4, Andor F.%van den Hoven%NULL%0, Pim A.%de Jong%NULL%4, Pim A.%de Jong%NULL%0, Helena M.%Verkooijen%NULL%4, Helena M.%Verkooijen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Mina%Ebrahimi%NULL%1, Amal Saki%Malehi%NULL%2, Amal Saki%Malehi%NULL%0, Fakher%Rahim%NULL%2, Fakher%Rahim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Thushara%Galbadage%NULL%1, Brent M.%Peterson%NULL%1, Joseph%Awada%NULL%1, Alison S.%Buck%NULL%1, Danny A.%Ramirez%NULL%1, Jason%Wilson%NULL%1, Richard S.%Gunasekera%NULL%1]</t>
-  </si>
-  <si>
-    <t>Woon Hean Chong, MD1 and Chee Keat Tan, MD</t>
-  </si>
-  <si>
-    <t>[Ranu%Baral%NULL%1, Vasiliki%Tsampasian%NULL%1, Maciej%Debski%NULL%1, Brendan%Moran%NULL%1, Pankaj%Garg%NULL%1, Allan%Clark%NULL%1, Vassilios S.%Vassiliou%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ambrish%Singh%NULL%1, Salman%Hussain%NULL%1, Benny%Antony%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Mohammad Rashidul%Hashan%NULL%1, Nicolas%Smoll%NULL%1, Catherine%King%NULL%1, Hannah%Ockenden-Muldoon%NULL%1, Jacina%Walker%NULL%1, Andre%Wattiaux%NULL%1, Julieanne%Graham%NULL%1, Robert%Booy%NULL%1, Gulam%Khandaker%gulam.khandaker@health.qld.gov.au%1]</t>
-  </si>
-  <si>
-    <t>[Ashraf%Roshdy%NULL%1, Shroque%Zaher%NULL%1, Hossam%Fayed%NULL%1, John Gerry%Coghlan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yaolin%Zhou%NULL%1, Timothy J.%O’Leary%NULL%1, Daniela Flavia%Hozbor%NULL%3, Daniela Flavia%Hozbor%NULL%0, Daniela Flavia%Hozbor%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Adithan%Ganesh%adithanganesh321@gmail.com%1, Michael D.%Randall%NULL%2, Michael D.%Randall%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Modesto M.%Maestre-Muñiz%NULL%1, Ángel%Arias%NULL%2, Ángel%Arias%NULL%0, Alfredo J.%Lucendo%NULL%2, Alfredo J.%Lucendo%NULL%0, Melchor Álvarez%de Mon%NULL%3, Melchor Álvarez%de Mon%NULL%0, Melchor Álvarez%de Mon%NULL%0, Miguel A.%Ortega%NULL%1, José-Antonio%Girón-González%NULL%1, Miguel A.%Alvarez-Mon%NULL%1, Jorge%Monserrat%NULL%1, Natalio%García-Honduvilla%NULL%1, Luis G%Guijarro%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Eleni%Papoutsi%NULL%1, Vassilis G.%Giannakoulis%NULL%1, Eleni%Xourgia%NULL%1, Christina%Routsi%NULL%1, Anastasia%Kotanidou%NULL%1, Ilias I.%Siempos%isiempos@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t>Qiuping Xie1 , Shuai Tang2 , Yining Li3</t>
-  </si>
-  <si>
-    <t>[Chi-Kuei%Hsu%NULL%1, Ching-Yi%Chen%NULL%1, Wang-Chun%Chen%NULL%1, Chih-Cheng%Lai%NULL%1, Shun-Hsing%Hung%NULL%1, Wei-Ting%Lin%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Judith%van Paassen%NULL%1, Jeroen S.%Vos%NULL%1, Eva M.%Hoekstra%NULL%1, Katinka M. I.%Neumann%NULL%1, Pauline C.%Boot%NULL%1, Sesmu M.%Arbous%marbous@lumc.nl%1]</t>
-  </si>
-  <si>
-    <t>Liu, Nanyanga | Sun, Jiahuib | Wang, Xiyuanb | Zhao, Mingb | Huang, Qianqianb | Li, Haoa; *</t>
-  </si>
-  <si>
-    <t>Shirley Sze a 1, Daniel Pan b c 1, Clareece R. Nevill d 1, Laura J. Gray d, Christopher A. Martin b c, Joshua Nazareth b c, Jatinder S. Minhas a, Pip Divall e, Kamlesh Khunti f, Keith R. Abrams d, Laura B. Nellums g 2, Manish Pareek</t>
-  </si>
-  <si>
-    <t>[Amika%Achom%NULL%1, Ranjita%Das%NULL%1, Partha%Pakray%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Alexander%Muacevic%NULL%1, John R%Adler%NULL%1, Sarah M%Elsayed%NULL%2, Sarah M%Elsayed%NULL%0, Mithun K%Reddy%NULL%1, Pooja M%Murthy%NULL%1, Ishita%Gupta%NULL%1, Monika%Valiuskyte%NULL%1, Diana F%Sánchez%NULL%1, Mark Anthony%Diaz%NULL%1]</t>
-  </si>
-  <si>
-    <t>View ORCID ProfileMohammed A. Almeshari, View ORCID ProfileNowaf Y. Alobaidi, View ORCID ProfileMansour Al Asmri, Eyas Alhuthail, Ziyad Alshehri, Farhan Alenezi, View ORCID ProfileElizabeth Sapey, View ORCID ProfileDhruv Parekh</t>
-  </si>
-  <si>
-    <t>[Holger J.%Schünemann%NULL%1, Joanne%Khabsa%NULL%1, Karla%Solo%NULL%1, Assem M.%Khamis%NULL%1, Romina%Brignardello-Petersen%NULL%1, Amena%El-Harakeh%NULL%1, Andrea%Darzi%NULL%1, Anisa%Hajizadeh%NULL%1, Antonio%Bognanni%NULL%1, Anna%Bak%NULL%1, Ariel%Izcovich%NULL%1, Carlos A.%Cuello-Garcia%NULL%1, Chen%Chen%NULL%1, Ewa%Borowiack%NULL%1, Fatimah%Chamseddine%NULL%1, Finn%Schünemann%NULL%1, Gian Paolo%Morgano%NULL%1, Giovanna E.U.%Muti-Schünemann%NULL%1, Guang%Chen%NULL%1, Hong%Zhao%NULL%1, Ignacio%Neumann%NULL%1, Jan%Brozek%NULL%1, Joel%Schmidt%NULL%1, Layal%Hneiny%NULL%1, Leila%Harrison%NULL%1, Marge%Reinap%NULL%1, Mats%Junek%NULL%1, Nancy%Santesso%NULL%1, Rayane%El-Khoury%NULL%1, Rebecca%Thomas%NULL%1, Robby%Nieuwlaat%NULL%1, Rosa%Stalteri%NULL%1, Sally%Yaacoub%NULL%1, Tamara%Lotfi%NULL%1, Tejan%Baldeh%NULL%1, Thomas%Piggott%NULL%1, Yuan%Zhang%NULL%1, Zahra%Saad%NULL%1, Bram%Rochwerg%NULL%2, Dan%Perri%NULL%1, Eddy%Fan%NULL%2, Florian%Stehling%NULL%1, Imad Bou%Akl%NULL%1, Mark%Loeb%NULL%1, Paul%Garner%NULL%1, Stephen%Aston%NULL%1, Waleed%Alhazzani%NULL%1, Wojciech%Szczeklik%NULL%1, Derek K.%Chu%NULL%1, Elie A.%Akl%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Keith%Couper%NULL%1, Sian%Taylor-Phillips%NULL%2, Amy%Grove%NULL%2, Karoline%Freeman%NULL%1, Osemeke%Osokogu%NULL%3, Rachel%Court%NULL%2, Amin%Mehrabian%NULL%2, Peter T.%Morley%NULL%1, Jerry P.%Nolan%NULL%1, Jasmeet%Soar%NULL%1, Gavin D.%Perkins%g.d.perkins@warwick.ac.uk%1]</t>
-  </si>
-  <si>
-    <t>[Shuai%Shao%NULL%1, Yishan%Wang%NULL%1, Hanyujie%Kang%NULL%1, Zhaohui%Tong%NULL%1]</t>
-  </si>
-  <si>
-    <t>Huntley, Benjamin J. F. MD; Huntley, Erin S. DO; Di Mascio, Daniele MD; Chen, Tracy MD; Berghella, Vincenzo MD; Chauhan, Suneet P. MD, Hon DSc</t>
-  </si>
-  <si>
-    <t>[Israel Júnior%Borges do Nascimento%NULL%1, Nensi%Cacic%NULL%2, Nensi%Cacic%NULL%0, Hebatullah Mohamed%Abdulazeem%NULL%1, Thilo Caspar%von Groote%NULL%2, Thilo Caspar%von Groote%NULL%0, Umesh%Jayarajah%NULL%1, Ishanka%Weerasekara%NULL%2, Ishanka%Weerasekara%NULL%0, Meisam Abdar%Esfahani%NULL%2, Meisam Abdar%Esfahani%NULL%0, Vinicius Tassoni%Civile%NULL%2, Vinicius Tassoni%Civile%NULL%0, Ana%Marusic%NULL%2, Ana%Marusic%NULL%0, Ana%Jeroncic%NULL%2, Ana%Jeroncic%NULL%0, Nelson%Carvas Junior%NULL%1, Tina Poklepovic%Pericic%NULL%1, Irena%Zakarija-Grkovic%NULL%2, Irena%Zakarija-Grkovic%NULL%0, Silvana Mangeon%Meirelles Guimarães%NULL%2, Silvana Mangeon%Meirelles Guimarães%NULL%0, Nicola%Luigi Bragazzi%NULL%1, Maria%Bjorklund%NULL%2, Maria%Bjorklund%NULL%0, Ahmad%Sofi-Mahmudi%NULL%2, Ahmad%Sofi-Mahmudi%NULL%0, Mohammad%Altujjar%NULL%2, Mohammad%Altujjar%NULL%0, Maoyi%Tian%NULL%1, Diana Maria Cespedes%Arcani%NULL%1, Dónal P.%O’Mathúna%NULL%2, Dónal P.%O’Mathúna%NULL%0, Milena Soriano%Marcolino%NULL%2, Milena Soriano%Marcolino%NULL%0]</t>
-  </si>
-  <si>
-    <t>[P. C.%Gronholm%NULL%1, M.%Nosé%NULL%2, M.%Nosé%NULL%0, W. H.%van Brakel%NULL%1, J.%Eaton%NULL%1, B.%Ebenso%NULL%2, B.%Ebenso%NULL%0, K.%Fiekert%NULL%1, M.%Milenova%NULL%1, C.%Sunkel%NULL%1, C.%Barbui%NULL%1, G.%Thornicroft%NULL%2, G.%Thornicroft%NULL%0]</t>
-  </si>
-  <si>
-    <t>Teresa Arora https://orcid.org/0000-0001-8360-7358, Ian Grey, Linda Östlundh, Kin Bong Hubert Lam, Omar M Omar, and Danilo Arnone</t>
-  </si>
-  <si>
-    <t>[Dominika%Suchá%d.sucha@umcutrecht.nl%0, Robbert W.%van Hamersvelt%NULL%0, Robbert W.%van Hamersvelt%NULL%0, Andor F.%van den Hoven%NULL%0, Andor F.%van den Hoven%NULL%0, Pim A.%de Jong%NULL%0, Pim A.%de Jong%NULL%0, Helena M.%Verkooijen%NULL%0, Helena M.%Verkooijen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Semagn Mekonnen%Abate%NULL%1, Siraj%Ahmed Ali%NULL%2, Siraj%Ahmed Ali%NULL%0, Bahiru%Mantfardo%NULL%1, Bivash%Basu%NULL%1, Chiara%Lazzeri%NULL%18, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yudan%Ding%NULL%1, Haohao%Yan%NULL%1, Wenbin%Guo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Noémi%Zádori%NULL%1, Szilárd%Váncsa%NULL%1, Nelli%Farkas%NULL%1, Péter%Hegyi%NULL%1, Bálint%Erőss%eross.balint@pte.hu%1, Lajos%Szakó%NULL%2, Lajos%Szakó%NULL%0, Nóra%Vörhendi%NULL%1, Levente%Frim%NULL%1, Zs. Réka%Dömötör%NULL%1, Zsolt%Szakács%NULL%1, Szabolcs%Kiss%NULL%1, Mária%Földi%NULL%1, Fanni%Dembrovszky%NULL%1, Marcell%Imrei%NULL%1, Zsolt%Molnár%NULL%1, Zoltán%Péterfi%NULL%1, Hussain%Alizadeh%NULL%1, László%Czopf%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Bing-Cheng%Zhao%NULL%1, Wei-Feng%Liu%NULL%1, Shao-Hui%Lei%NULL%1, Bo-Wei%Zhou%NULL%1, Xiao%Yang%NULL%1, Tong-Yi%Huang%NULL%1, Qi-Wen%Deng%NULL%1, Miao%Xu%NULL%1, Cai%Li%NULL%1, Ke-Xuan%Liu%liukexuan705@163.com%1]</t>
-  </si>
-  <si>
-    <t>Mehrbod Vakhshoori 1 , Maryam Heidarpour 2, Davood Shafie 1* , Marzieh Taheri 3, Nima Rezaei 4,5,6 , Nizal Sarrafzadegan 7</t>
-  </si>
-  <si>
-    <t>[Arthur Eumann%Mesas%NULL%2, Iván%Cavero-Redondo%NULL%2, Celia%Álvarez-Bueno%NULL%4, Celia%Álvarez-Bueno%NULL%0, Marcos Aparecido%Sarriá Cabrera%NULL%2, Selma%Maffei de Andrade%NULL%2, Irene%Sequí-Dominguez%NULL%2, Vicente%Martínez-Vizcaíno%NULL%2, Kristien%Verdonck%NULL%6, Kristien%Verdonck%NULL%0, Kristien%Verdonck%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rommy H.%Novoa%NULL%1, Willy%Quintana%NULL%1, Pedro%Llancarí%NULL%1, Katherine%Urbina-Quispe%NULL%1, Enrique%Guevara-Ríos%NULL%1, Walter%Ventura%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anne%Alnor%NULL%1, Maria B%Sandberg%NULL%1, Charlotte%Gils%NULL%1, Pernille J%Vinholt%pernille.vinholt@rsyd.dk%1]</t>
-  </si>
-  <si>
-    <t>[Ming%Liu%NULL%1, Ya%Gao%NULL%1, Yuan%Yuan%NULL%1, Kelu%Yang%NULL%1, Shuzhen%Shi%NULL%1, Jinhui%Tian%tianjh@lzu.edu.cn%1, Junhua%Zhang%zjhtcm@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>Ricky Vaja, Jeffrey Shi Kai Chan, Plinio Ferreira, Amer Harky, Luke J. Rogers, Hime H. Gashaw, Nicholas S. Kirkby, Jane A. Mitchell</t>
-  </si>
-  <si>
-    <t>[Askin%Gülsen%askin.guelsen@uksh.de%1, Inke R.%König%NULL%2, Inke R.%König%NULL%0, Uta%Jappe%NULL%1, Daniel%Drömann%NULL%1]</t>
-  </si>
-  <si>
-    <t>Case Fatality Rates for Patients with COVID-19 Requiring Invasive Mechanical Ventilation. A Meta-analysis
-Zheng Jie Lim 1*, Ashwin Subramaniam 2,3*, Mallikarjuna Ponnapa Reddy 2,4, Gabriel Blecher 5,6, Umesh Kadam 7,8, Afsana Afroz 9,10, Baki Billah 9, Sushma Ashwin 11, Mark Kubicki 1, Federico Bilotta 12, J. Randall Curtis 13,14, and Francesca Rubulotta</t>
-  </si>
-  <si>
-    <t>[Arthur Eumann%Mesas%NULL%0, Iván%Cavero-Redondo%NULL%0, Celia%Álvarez-Bueno%NULL%0, Celia%Álvarez-Bueno%NULL%0, Marcos Aparecido%Sarriá Cabrera%NULL%0, Selma%Maffei de Andrade%NULL%0, Irene%Sequí-Dominguez%NULL%0, Vicente%Martínez-Vizcaíno%NULL%0, Kristien%Verdonck%NULL%0, Kristien%Verdonck%NULL%0, Kristien%Verdonck%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Mili Roopchand%Sahay%NULL%1, Shubhankar%Dubey%NULL%1, Rakesh Kumar%Sahoo%NULL%1, Srikanta%Kanungo%NULL%1, Krushna Chandra%Sahoo%NULL%1, Sanghamitra%Pati%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Dan%Qiu%NULL%1, Yilu%Li%NULL%1, Ling%Li%NULL%1, Jun%He%NULL%1, Feiyun%Ouyang%NULL%1, Shuiyuan%Xiao%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Mohammad Mostafa%Ansari Ramandi%NULL%1, Hossein%Yarmohammadi%NULL%2, Hossein%Yarmohammadi%NULL%0, Somayeh%Beikmohammadi%NULL%1, Behzad Hassan%Hosseiny Fahimi%NULL%1, Farbod%Hatami%NULL%1, Hossein%Beydokhti%NULL%1, Hooman%Bakhshandeh%NULL%1, Nasim%Naderi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Rodrigo B.%Serafim%NULL%1, Pedro%Póvoa%NULL%1, Vicente%Souza-Dantas%NULL%1, André C.%Kalil%NULL%1, Jorge I.F.%Salluh%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Emilio%Di Maria%emilio.dimaria@unige.it%1, Andrea%Latini%NULL%2, Andrea%Latini%NULL%0, Paola%Borgiani%NULL%1, Giuseppe%Novelli%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Karine%Kahil%NULL%1, Mohamad Ali%Cheaito%NULL%1, Rawad%El Hayek%NULL%1, Marwa%Nofal%NULL%1, Sarah%El Halabi%NULL%1, Kundadak Ganesh%Kudva%NULL%1, Victor%Pereira-Sanchez%NULL%1, Samer%El Hayek%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Abhijit%Dutta%NULL%1, Avinash%Sharma%NULL%1, Rodrigo%Torres-Castro%NULL%1, Hariom%Pachori%NULL%1, SukhDev%Mishra%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Elia%Gabarron%NULL%1, Sunday Oluwafemi%Oyeyemi%NULL%1, Rolf%Wynn%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ramy Mohamed%Ghazy%NULL%1, Abdallah%Almaghraby%Dr.maghraby@gmail.com%1, Ramy%Shaaban%NULL%1, Ahmed%Kamal%NULL%1, Hatem%Beshir%NULL%1, Amr%Moursi%NULL%1, Ahmed%Ramadan%NULL%1, Sarah Hamed N.%Taha%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Amy%Grove%NULL%0, Osemeke%Osokogu%NULL%0, Osemeke%Osokogu%NULL%0, Lena%Al-Khudairy%NULL%1, Amin%Mehrabian%NULL%0, Mandana%Zanganeh%NULL%2, Mandana%Zanganeh%NULL%0, Anna%Brown%NULL%1, Rachel%Court%NULL%0, Sian%Taylor-Phillips%NULL%0, Olalekan A%Uthman%NULL%2, Olalekan A%Uthman%NULL%0, Noel%McCarthy%NULL%2, Noel%McCarthy%NULL%0, Sudhesh%Kumar%NULL%1, Aileen%Clarke%NULL%1]</t>
-  </si>
-  <si>
-    <t>Hua Zheng †
-Harry L. Hébert †
-Athanasia Chatziperi
-Weihua Meng
-Blair H. Smith
-Jing Yan
-Zhiqiang Zhou
-Xianwei Zhang
-Ailin Luo
-Liuming Wang
-Wentao Zhu
-Junbo Hu
-Lesley A. Colvin</t>
-  </si>
-  <si>
-    <t>[Alice%Tamara%NULL%1, Dicky L.%Tahapary%NULL%1]</t>
-  </si>
-  <si>
     <t>[Reena%Wadia%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wenwen%Cheng%NULL%2, Yufeng%Li%NULL%2, Liyan%Cui%NULL%2, Ying%Chen%NULL%2, Sharui%Shan%NULL%2, Duan%Xiao%NULL%2, Xiaoyun%Chen%NULL%2, Zhuoming%Chen%NULL%2, Anding%Xu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Wenwen%Cheng%NULL%0, Yufeng%Li%NULL%0, Liyan%Cui%NULL%0, Ying%Chen%NULL%0, Sharui%Shan%NULL%0, Duan%Xiao%NULL%0, Xiaoyun%Chen%NULL%0, Zhuoming%Chen%NULL%0, Anding%Xu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Mahalul%Azam%mahalul.azam@mail.unnes.ac.id%1, Rina%Sulistiana%NULL%1, Martha%Ratnawati%NULL%1, Arulita Ika%Fibriana%NULL%1, Udin%Bahrudin%NULL%1, Dian%Widyaningrum%NULL%1, Syed Mohamed%Aljunid%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Johanna%Signer%NULL%1, Hulda R.%Jonsdottir%hulda-run.jonsdottir@babs.admin.ch%1, Werner C.%Albrich%NULL%1, Marc%Strasser%NULL%1, Roland%Züst%NULL%1, Sarah%Ryter%NULL%1, Rahel%Ackermann-Gäumann%NULL%1, Nicole%Lenz%NULL%1, Denise%Siegrist%NULL%1, Andreas%Suter%NULL%1, Roland%Schoop%NULL%1, Olivier B.%Engler%olivier.engler@babs.admin.ch%1]</t>
-  </si>
-  <si>
-    <t>[C.R.%Foster%NULL%1, F.%Campbell%NULL%1, L.%Blank%NULL%1, A.J.%Cantrell%NULL%1, M.%Black%NULL%1, A.C.K.%Lee%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Daniel Martin%Simadibrata%NULL%1, Anna Mira%Lubis%NULL%2, Anna Mira%Lubis%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Roengrudee%Patanavanich%NULL%1, Stanton A%Glantz%Stanton.Glantz@ucsf.edu%1]</t>
-  </si>
-  <si>
-    <t>Suleman Bakhshi1, Harry Kyriazis2 and Meagan E Brennan1</t>
-  </si>
-  <si>
-    <t>[Amir%Mohsenpour%amir.mohsenpour@uni-bielefeld.de%1, Kayvan%Bozorgmehr%NULL%2, Sven%Rohleder%NULL%2, Jan%Stratil%NULL%1, Diogo%Costa%NULL%1]</t>
-  </si>
-  <si>
-    <t>[João Locke%Ferreira de Araújo%NULL%1, Diego%Menezes%NULL%2, Diego%Menezes%NULL%0, Julia Maria%Saraiva‐Duarte%NULL%2, Julia Maria%Saraiva‐Duarte%NULL%0, Luciana%de Lima Ferreira%NULL%2, Luciana%de Lima Ferreira%NULL%0, Renato%Santana de Aguiar%NULL%2, Renato%Santana de Aguiar%NULL%0, Renan%Pedra de Souza%renanrps@ufmg.br%2, Renan%Pedra de Souza%renanrps@ufmg.br%0]</t>
-  </si>
-  <si>
-    <t>[Yufei%Li%NULL%1, Nathaniel%Scherer%NULL%1, Lambert%Felix%NULL%2, Lambert%Felix%NULL%0, Hannah%Kuper%NULL%2, Hannah%Kuper%NULL%0, Jakob%Pietschnig%NULL%2, Jakob%Pietschnig%NULL%0]</t>
-  </si>
-  <si>
-    <t>[A.%Bak%NULL%1, M.A.%Mugglestone%NULL%1, N.V.%Ratnaraja%NULL%1, J.A.%Wilson%NULL%1, L.%Rivett%NULL%1, S.M.%Stoneham%NULL%1, J.%Bostock%NULL%1, S.E.%Moses%NULL%1, J.R.%Price%NULL%1, M.%Weinbren%NULL%1, H.P.%Loveday%NULL%1, J.%Islam%NULL%1, A.P.R.%Wilson%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Raymond%Chang%NULL%1, Khaled Mossad%Elhusseiny%NULL%2, Khaled Mossad%Elhusseiny%NULL%0, Yu-Chang%Yeh%NULL%1, Wei-Zen%Sun%NULL%1, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Omar Ariel%Espinosa%NULL%1, Andernice dos Santos%Zanetti%NULL%2, Andernice dos Santos%Zanetti%NULL%0, Ednardo Fornanciari%Antunes%NULL%2, Ednardo Fornanciari%Antunes%NULL%0, Fabiana Gulin%Longhi%NULL%2, Fabiana Gulin%Longhi%NULL%0, Tatiane Amorim%de Matos%NULL%2, Tatiane Amorim%de Matos%NULL%0, Paula Franciene%Battaglini%NULL%2, Paula Franciene%Battaglini%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Anastasios%Kollias%NULL%1, Konstantinos G.%Kyriakoulis%NULL%1, Ioannis G.%Kyriakoulis%NULL%1, Thomas%Nitsotolis%NULL%1, Garyphallia%Poulakou%NULL%1, George S.%Stergiou%NULL%1, Konstantinos%Syrigos%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jiawen%Deng%NULL%2, Fangwen%Zhou%NULL%3, Wenteng%Hou%NULL%3, Zachary%Silver%NULL%2, Chi Yi%Wong%NULL%3, Oswin%Chang%NULL%2, Anastasia%Drakos%NULL%1, Qi Kang%Zuo%NULL%2, Emma%Huang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Jiawen%Deng%dengj35@mcmaster.ca%0, Fangwen%Zhou%NULL%0, Fangwen%Zhou%NULL%0, Wenteng%Hou%NULL%0, Wenteng%Hou%NULL%0, Zachary%Silver%NULL%0, Chi Yi%Wong%NULL%0, Chi Yi%Wong%NULL%0, Oswin%Chang%NULL%0, Emma%Huang%NULL%0, Emma%Huang%NULL%0, Qi Kang%Zuo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[David Franciole Oliveira%Silva%NULL%1, Severina Carla Vieira Cunha%Lima%NULL%2, Severina Carla Vieira Cunha%Lima%NULL%0, Karine Cavalcanti Mauricio%Sena-Evangelista%NULL%1, Dirce Maria%Marchioni%NULL%1, Ricardo Ney%Cobucci%NULL%2, Ricardo Ney%Cobucci%NULL%0, Fábia Barbosa%de Andrade%NULL%2, Fábia Barbosa%de Andrade%NULL%0]</t>
-  </si>
-  <si>
-    <t>H Chaabene 1, O Prieske 2, M Herz 1, J Moran 3, J Höhne 1, R Kliegl 1, R Ramirez-Campillo 4, D G Behm 5, T Hortobágyi 6, U Granacher</t>
-  </si>
-  <si>
-    <t>[Ines%Lakbar%NULL%1, David%Luque-Paz%NULL%2, David%Luque-Paz%NULL%0, Jean-Louis%Mege%NULL%1, Sharon%Einav%NULL%1, Marc%Leone%NULL%1, Andrea%Cortegiani%NULL%8, Andrea%Cortegiani%NULL%0, Andrea%Cortegiani%NULL%0, Andrea%Cortegiani%NULL%0, Andrea%Cortegiani%NULL%0, Andrea%Cortegiani%NULL%0, Andrea%Cortegiani%NULL%0, Andrea%Cortegiani%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Diptanu%Paul%NULL%1, Ayush%Gupta%NULL%1, Anand Kumar%Maurya%NULL%2, Anand Kumar%Maurya%NULL%0, Amitava%Mukherjee%NULL%10, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ana Luísa%Areia%NULL%1, Anabela%Mota-Pinto%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ana Karla G.%Melo%NULL%1, Keilla M.%Milby%NULL%1, Ana Luiza M. A.%Caparroz%NULL%1, Ana Carolina P. N.%Pinto%NULL%1, Rodolfo R. P.%Santos%NULL%2, Rodolfo R. P.%Santos%NULL%0, Aline P.%Rocha%NULL%1, Gilda A.%Ferreira%NULL%1, Viviane A.%Souza%NULL%1, Lilian D. A.%Valadares%NULL%1, Rejane M. R. A.%Vieira%NULL%1, Gecilmara S.%Pileggi%NULL%2, Gecilmara S.%Pileggi%NULL%0, Virgínia F. M.%Trevisani%NULL%1, Jeffrey%Chalmers%NULL%2, Jeffrey%Chalmers%NULL%0]</t>
-  </si>
-  <si>
-    <t>Ji-Gan Wang1
-ORCID
-Email
-Hairong Cui2
-Huabo Tang1
-Xiu-li Deng1</t>
-  </si>
-  <si>
-    <t>[Hany Hasan%Elsayed%NULL%1, Aly Sherif%Hassaballa%NULL%2, Aly Sherif%Hassaballa%NULL%0, Taha Aly%Ahmed%NULL%1, Mohammed%Gumaa%NULL%1, Hazem Youssef%Sharkawy%NULL%1, Assem Adel%Moharram%NULL%1, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0, Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Laura%Pasin%NULL%1, Paolo%Navalesi%NULL%1, Alberto%Zangrillo%NULL%2, Artem%Kuzovlev%NULL%2, Valery%Likhvantsev%NULL%2, Ludhmila Abrahão%Hajjar%NULL%1, Stefano%Fresilli%NULL%1, Marcus Vinicius Guimaraes%Lacerda%NULL%1, Giovanni%Landoni%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Nadya%Johanna%NULL%1, Henrico%Citrawijaya%NULL%1, Grace%Wangge%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lara Marleen%Fricke%NULL%1, Stephan%Glöckner%NULL%1, Maren%Dreier%NULL%1, Berit%Lange%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sarah%Mitchell%NULL%1, Victoria%Maynard%NULL%2, Victoria%Maynard%NULL%0, Victoria%Lyons%NULL%1, Nicholas%Jones%NULL%1, Clare%Gardiner%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Vanessa%De Rubeis%NULL%1, Jinhee%Lee%NULL%2, Jinhee%Lee%NULL%0, Muhammad Saqib%Anwer%NULL%1, Yulika%Yoshida-Montezuma%NULL%1, Alessandra T%Andreacchi%NULL%1, Erica%Stone%NULL%2, Erica%Stone%NULL%0, Saman%Iftikhar%NULL%1, Jason D%Morgenstern%NULL%1, Reid%Rebinsky%NULL%1, Sarah E%Neil-Sztramko%NULL%1, Elizabeth%Alvarez%NULL%2, Elizabeth%Alvarez%NULL%0, Emma%Apatu%NULL%2, Emma%Apatu%NULL%0, Laura N%Anderson%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Finiki%Nearchou%NULL%1, Clodagh%Flinn%NULL%2, Clodagh%Flinn%NULL%0, Rachel%Niland%NULL%1, Sheena Siva%Subramaniam%NULL%1, Eilis%Hennessy%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michael Anthonius%Lim%lim.michael.a@gmail.com%1, Raymond%Pranata%raymond_pranata@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t>Yixuan Wang, Baixin Chen, Yun Li, Lei Zhang, Yuyi Wang, Shuaibing Yang, Xue Xiao, Qingsong Qin</t>
-  </si>
-  <si>
-    <t>[Sujit Kumar%Tripathy%sujitortho@aiimsbhubaneswar.edu.in%1, Paulson%Varghese%NULL%1, Sibasish%Panigrahi%NULL%1, Bijnya Birajita%Panda%NULL%1, Anand%Srinivasan%NULL%1, Ramesh Kumar%Sen%NULL%1]</t>
-  </si>
-  <si>
-    <t>Cristina González-MonroyORCID,Irene Gómez-Gómez,Cristian M. Olarte-SánchezORCID andEmma Motrico *ORCID</t>
-  </si>
-  <si>
-    <t>[Jianghui%Cai%NULL%1, Mi%Tang%NULL%1, Yu%Gao%NULL%1, Hongxi%Zhang%NULL%1, Yanfeng%Yang%NULL%1, Dan%Zhang%NULL%1, Han%Wang%NULL%1, Hua%Liang%NULL%1, Rui%Zhang%NULL%1, Bo%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Rina%La Distia Nora%NULL%1, Ikhwanuliman%Putera%NULL%2, Ikhwanuliman%Putera%NULL%0, Dhiya Farah%Khalisha%NULL%1, Indah%Septiana%NULL%1, Asri Salima%Ridwan%NULL%1, Ratna%Sitompul%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Maren%Hintermeier%NULL%1, Hande%Gencer%NULL%1, Katja%Kajikhina%NULL%1, Sven%Rohleder%NULL%0, Claudia%Hövener%NULL%1, Marie%Tallarek%NULL%1, Jacob%Spallek%NULL%1, Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%0]</t>
-  </si>
-  <si>
-    <t>[Gilbert Sterling%Octavius%Sterlinggilbert613@hotmail.com%1, Felicia Rusdi%Silviani%NULL%2, Felicia Rusdi%Silviani%NULL%0, Alicya%Lesmandjaja%NULL%1, NULL%Angelina%NULL%1, Andry%Juliansen%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Tommaso%Scquizzato%NULL%1, Giovanni%Landoni%NULL%0, Andrea%Paoli%NULL%1, Rosalba%Lembo%NULL%1, Evgeny%Fominskiy%NULL%1, Artem%Kuzovlev%NULL%0, Valery%Likhvantsev%NULL%0, Alberto%Zangrillo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Hozaifa Khalil%Elsawah%Hiph.hozaifa@alexu.edu.eg%1, Mohamed Ahmed%Elsokary%NULL%2, Mohamed Ahmed%Elsokary%NULL%0, Mahmoud Gamal%Elrazzaz%NULL%2, Mahmoud Gamal%Elrazzaz%NULL%0, Ahmed Hanei%Elshafie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shinya%Yamamoto%NULL%1, Makoto%Saito%NULL%2, Makoto%Saito%NULL%0, Azumi%Tamura%NULL%1, Diki%Prawisuda%NULL%1, Taketoshi%Mizutani%NULL%1, Hiroshi%Yotsuyanagi%NULL%1, Francois%Blachier%NULL%8, Francois%Blachier%NULL%0, Francois%Blachier%NULL%0, Francois%Blachier%NULL%0, Francois%Blachier%NULL%0, Francois%Blachier%NULL%0, Francois%Blachier%NULL%0, Francois%Blachier%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Imen%Ayouni%eman.layouni@gmail.com%1, Jihen%Maatoug%NULL%1, Wafa%Dhouib%NULL%1, Nawel%Zammit%NULL%1, Sihem Ben%Fredj%NULL%1, Rim%Ghammam%NULL%1, Hassen%Ghannem%NULL%1]</t>
-  </si>
-  <si>
-    <t>Karla Romero Starke 1,2,*ORCID,René Mauer 3,Ethel Karskens 1,Anna Pretzsch 1ORCID,David Reissig 1,Albert Nienhaus 4,5,Anna Lene Seidler 6ORCID andAndreas Seidler 1ORCID</t>
-  </si>
-  <si>
-    <t>[Bradley J.%Langford%NULL%1, Miranda%So%NULL%1, Sumit%Raybardhan%NULL%1, Valerie%Leung%NULL%1, Jean-Paul R.%Soucy%NULL%1, Duncan%Westwood%NULL%1, Nick%Daneman%NULL%1, Derek R.%MacFadden%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Kollengode%Ramanathan%ram_ramanathan@nuhs.edu.sg%1, Kiran%Shekar%NULL%2, Kiran%Shekar%NULL%0, Ryan Ruiyang%Ling%NULL%1, Ryan P.%Barbaro%NULL%1, Suei Nee%Wong%NULL%1, Chuen Seng%Tan%NULL%1, Bram%Rochwerg%NULL%0, Shannon M.%Fernando%NULL%1, Shinhiro%Takeda%NULL%1, Graeme%MacLaren%NULL%1, Eddy%Fan%NULL%0, Daniel%Brodie%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Stephanie%Stockwell%NULL%1, Mike%Trott%NULL%1, Mark%Tully%NULL%2, Mark%Tully%NULL%0, Jae%Shin%NULL%1, Yvonne%Barnett%NULL%1, Laurie%Butler%NULL%1, Daragh%McDermott%NULL%1, Felipe%Schuch%NULL%1, Lee%Smith%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Audrey%Lebrasseur%NULL%1, Noémie%Fortin-Bédard%NULL%1, Josiane%Lettre%NULL%1, Eve-Line%Bussières%NULL%1, Krista%Best%NULL%1, Normand%Boucher%NULL%1, Mathieu%Hotton%NULL%1, Simon%Beaulieu-Bonneau%NULL%1, Catherine%Mercier%NULL%1, Marie-Eve%Lamontagne%NULL%1, François%Routhier%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ji-gan%Wang%NULL%1, Yu-fang%Mo%NULL%1, Yu-heng%Su%NULL%1, Li-chuan%Wang%NULL%1, Guang-bing%Liu%NULL%1, Meng%Li%NULL%1, Qian-qiu%Qin%NULL%1, Vasile Valeriu%Lupu.%NULL%2, Vasile Valeriu%Lupu.%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Young Joo%Suh%yshoka@gmail.com%1, Hyunsook%Hong%NULL%2, Hyunsook%Hong%NULL%0, Mickaël%Ohana%NULL%2, Mickaël%Ohana%NULL%0, Florian%Bompard%NULL%2, Florian%Bompard%NULL%0, Marie-Pierre%Revel%NULL%2, Marie-Pierre%Revel%NULL%0, Clarissa%Valle%NULL%2, Clarissa%Valle%NULL%0, Alban%Gervaise%NULL%1, Julien%Poissy%NULL%2, Julien%Poissy%NULL%0, Sophie%Susen%NULL%2, Sophie%Susen%NULL%0, Guillaume%Hékimian%NULL%1, Mathieu%Artifoni%NULL%1, Daniel%Periard%NULL%2, Daniel%Periard%NULL%0, Damien%Contou%NULL%2, Damien%Contou%NULL%0, Julie%Delaloye%NULL%2, Julie%Delaloye%NULL%0, Bienvenido%Sanchez%NULL%1, Cheng%Fang%NULL%2, Cheng%Fang%NULL%0, Giorgio%Garzillo%NULL%2, Giorgio%Garzillo%NULL%0, Hasti%Robbie%NULL%2, Hasti%Robbie%NULL%0, Soon Ho%Yoon%NULL%2, Soon Ho%Yoon%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ashley Elizabeth%Muller%aemu@fhi.no%1, Jan Peter William%Himmels%NULL%2, Jan Peter William%Himmels%NULL%0, Stijn%Van de Velde%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Debjyoti%Dhar%NULL%1, Treshita%Dey%NULL%1, M. M.%Samim%msmondal788@gmail.com%1, Hansashree%Padmanabha%NULL%1, Aritra%Chatterjee%NULL%1, Parvin%Naznin%NULL%1, S. R.%Chandra%NULL%1, K.%Mallesh%NULL%1, Rutul%Shah%NULL%1, Shahyan%Siddiqui%NULL%1, K.%Pratik%NULL%1, P.%Ameya%NULL%1, G.%Abhishek%NULL%1]</t>
-  </si>
-  <si>
-    <t>########</t>
-  </si>
-  <si>
-    <t>(("Seasonal variation" OR "Seasonal patterns") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Epidemiology" OR "Prevalence" OR "Incidence") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Temporal distribution" OR "Temporal patterns" OR "Temporal trends") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Climate factors" OR "Weather conditions" OR "Meteorological parameters") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Transmission dynamics" OR "Spread patterns" OR "Seasonal outbreaks") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Geographic distribution" OR "Geographical variation" OR "Regional differences") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Longitudinal study" OR "Long-term analysis" OR "Time series analysis") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Seasonal patterns" OR "Seasonal trends") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") AND ("Meta-analysis" OR "Systematic review") 
-(("Surveillance data" OR "Epidemiological records" OR "Public health databases") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Climatic factors" OR "Environmental conditions") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") AND ("Multivariate analysis" OR "Regression analysis")</t>
-  </si>
-  <si>
-    <t>("Human Coronaviruses"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Seasonal Variation"[Mesh] OR "Seasonal Epidemiology"[Mesh] OR "Seasonal Outbreaks"[Mesh]) AND ("Global Health"[Mesh] OR "Internationality"[Mesh])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Seasonal Pattern"[Mesh] OR "Seasonal Occurrence"[Mesh] OR "Seasonal Prevalence"[Mesh]) AND ("Respiratory Syncytial Viruses"[Mesh] OR "Influenza, Human"[Mesh])
-("Human Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Climate"[Mesh] OR "Weather"[Mesh] OR "Temperature"[Mesh] OR "Humidity"[Mesh]) AND ("Epidemiology"[Mesh] OR "Disease Outbreaks"[Mesh])
-("Seasonality"[Mesh] OR "Seasonal Variations"[Mesh] OR "Seasonal Patterns"[Mesh]) AND ("Human Coronaviruses"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Global Distribution"[Mesh] OR "Geographic Locations"[Mesh])
-("Coronaviruses, Human"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Postpandemic Period"[Mesh] OR "Recurrent Infections"[Mesh]) AND ("Epidemiology"[Mesh] OR "Public Health Preparedness"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("Clinical features" OR "Symptoms" OR "Manifestations") AND "COVID-19") AND ("Severe" OR "Critical" OR "Severe disease course") 
-(("Risk factors" OR "Predictors" OR "Determinants") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19" 
-(("Prognostic factors" OR "Outcome predictors" OR "Clinical markers") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
-(("Clinical characteristics" OR "Clinical presentation" OR "Clinical profile") AND "COVID-19") AND ("Severe course" OR "Severe illness") 
-(("Disease severity" OR "Clinical progression" OR "Clinical deterioration") AND "COVID-19") AND ("Risk factors" OR "Predictive factors") 
-(("Complications" OR "Adverse outcomes" OR "Mortality") AND "COVID-19") AND ("Severe clinical course" OR "Severe disease course") 
-(("Demographic factors" OR "Patient characteristics" OR "Host factors") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
-(("Comorbidities" OR "Underlying conditions" OR "Coexisting diseases") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19" 
-(("Immunological factors" OR "Inflammatory markers" OR "Cytokine profile") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
-(("Treatment response" OR "Therapeutic interventions" OR "Clinical management") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19"</t>
-  </si>
-  <si>
-    <t>(("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation") AND ("Chest radiography" OR "Chest X-ray" OR "CT scan")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Quality assessment" OR "Risk of bias" OR "Methodological quality") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Systematic review" OR "Literature review" OR "Meta-analysis") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Bias assessment" OR "Risk of bias tool" OR "Study quality evaluation") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Suboptimal quality" OR "Low methodological quality" OR "Quality limitations") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Bias sources" OR "Study design limitations" OR "Methodological shortcomings") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Critical appraisal" OR "Methodological flaws" OR "Quality shortcomings") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Methodological challenges" OR "Limitations and biases" OR "Quality issues") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Critical analysis" OR "Study selection criteria" OR "Quality criteria") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Study methodology" OR "Methodological assessment" OR "Quality evaluation") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department")</t>
-  </si>
-  <si>
-    <t>("Diagnostic Imaging"[Mesh] OR "Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh] OR "Ultrasonography"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Diagnostic Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh])
-("Reverse Transcriptase Polymerase Chain Reaction"[Mesh] OR "Clinical Consensus"[Mesh]) AND ("Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh] OR "Ultrasonography"[Mesh]) AND ("Diagnostic Test Accuracy"[Mesh] OR "Predictive Values"[Mesh])
-("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "STARD"[Mesh]) AND ("Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh] OR "QUADAS-2"[Mesh]) AND ("Reporting Quality"[Mesh] OR "Risk of Bias"[Mesh])
-("Diagnostic Test Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh] OR "Predictive Values"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019 Diagnosis"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("Reporting Guidelines"[Mesh] OR "Publication Bias"[Mesh]) AND ("Diagnostic Imaging"[Mesh] OR "Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh]) AND ("COVID-19 Pandemic"[Mesh] OR "Public Health Emergency"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") AND ("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND ("General population" OR "Non-medical population" OR "Community population") 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "COVID-19") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") AND ("General population" OR "Non-medical population" OR "Community population") AND ("Systematic review" OR "Meta-analysis") 
-(("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "COVID-19") AND ("General population" OR "Non-medical population" OR "Community population") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
-(("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND ("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND ("General population" OR "Non-medical population" OR "Community population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Laboratory Findings"[Mesh] OR "Biomarkers"[Mesh]) AND ("Comorbidity"[Mesh] OR "Medical Staff"[Mesh] OR "Health Personnel"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Prognosis"[Mesh])
-("White Blood Cell Count"[Mesh] OR "Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh] OR "Procalcitonin"[Mesh] OR "Lactate Dehydrogenase"[Mesh] OR "Creatinine"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Disease Progression"[Mesh])
-("Mortality Rate"[Mesh] OR "Death Rate"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh]) AND ("Meta-Analysis as Topic"[Mesh] OR "Systematic Review"[Publication Type])
-("C-Reactive Protein"[Mesh] OR "Erythrocyte Sedimentation Rate"[Mesh] OR "Lactate Dehydrogenase"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Symptomatic Stage"[Mesh] OR "Early Stage"[Mesh]) AND ("Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh])
-("D-Dimer"[Mesh] OR "Fibrin Degradation Products"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Prognosis"[Mesh] OR "Clinical Outcome"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Clinical outcomes" OR "Disease outcomes" OR "Patient outcomes") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Clinical outcomes" OR "Disease outcomes" OR "Patient outcomes") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex Factors"[Mesh] OR "Gender"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh] OR "Mortality"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex"[Mesh] OR "Gender"[Mesh]) AND ("Clinical Prognosis"[Mesh] OR "Patient Outcome Assessment"[Mesh]) AND ("Risk Factors"[Mesh] OR "Epidemiology"[Mesh])
-("Male"[Mesh] OR "Female"[Mesh]) AND ("COVID-19 Severity"[Mesh] OR "Clinical Outcome"[Mesh]) AND ("Meta-Analysis"[Publication Type] OR "Systematic Review"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex Characteristics"[Mesh] OR "Sex Distribution"[Mesh]) AND ("Disease Progression"[Mesh] OR "Mortality Rate"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Male"[Mesh] OR "Female"[Mesh]) AND ("Clinical Management"[Mesh] OR "Preventive Medicine"[Mesh]) AND ("Sex-Specific Differences"[Mesh] OR "Gender Disparities"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("Tracheostomy" OR "Tracheotomy") AND ("Early" OR "Late")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Early tracheostomy" OR "Early tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Late tracheostomy" OR "Late tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Early versus late tracheostomy" OR "Early versus late tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Timing of tracheostomy" OR "Tracheostomy timing") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Tracheostomy" OR "Tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Early versus late" OR "Timing") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Tracheostomy complications" OR "Tracheostomy adverse events") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Early versus late" OR "Timing") 
-(("Mechanical ventilation duration" OR "Ventilator days") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy")) 
-(("ICU length of stay" OR "Intensive care unit length of stay") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy")) 
-(("Mortality" OR "Survival rate" OR "Fatalities") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy"))</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Treatment Outcome"[Mesh]) AND ("Early Medical Intervention"[Mesh] OR "Delayed Diagnosis"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("Intensive Care Units"[Mesh] OR "Critical Care"[Mesh]) AND ("Mechanical Ventilation"[Mesh] OR "Respiratory Insufficiency"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh])
-("ICU Length of Stay"[Mesh] OR "Hospital Mortality"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("Resource Utilization"[Mesh] OR "Health Resources"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Treatment Outcome"[Mesh])
-("Intubation, Intratracheal"[Mesh] OR "Mechanical Ventilation"[Mesh]) AND ("Early Versus Late Tracheostomy"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Mortality" OR "Death rate" OR "Fatalities")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Mortality" OR "Death rate" OR "Fatalities")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events")
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system" OR "RAAS") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") OR ("angiotensin receptor blockers" OR "ARBs"))
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") OR ("angiotensin receptor blockers" OR "ARBs"))
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events")
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("systematic review" OR "meta-analysis") OR ("observational study" OR "cohort study"))</t>
-  </si>
-  <si>
-    <t>(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Liver injury" OR "Hepatic dysfunction" OR "Liver function tests") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Co-morbidities" OR "Underlying conditions" OR "Metabolic syndrome") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Prognosis" OR "Survival" OR "Outcomes") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Therapeutic management" OR "Treatment outcomes" OR "Drug interactions")</t>
-  </si>
-  <si>
-    <t>("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND ("clinical outcomes" OR "disease severity") AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-("COVID-19" OR "SARS-CoV-2") AND ("Non-alcoholic fatty liver disease" OR NAFLD) AND ("clinical outcomes" OR "disease progression") AND epidemiological studies[Publication Type]
-("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND ("clinical outcomes" OR "severe COVID-19") AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-("COVID-19" OR "SARS-CoV-2") AND ("Non-alcoholic fatty liver disease" OR NAFLD) AND ("ICU admission" OR "intensive care unit") AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND mortality[Title/Abstract] AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])</t>
-  </si>
-  <si>
-    <t>(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Assisted living facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Long-term care facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Assisted living facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Long-term care facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Risk factors" OR "Vulnerability" OR "Factors associated") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Risk factors" OR "Vulnerability" OR "Factors associated")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("epidemiology" OR "outbreak investigations")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("attack rates" OR "case fatality rates")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("asymptomatic cases" OR "hospitalization rates")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("index case" OR "staff member")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("clinical presentation" OR "vaccination priority")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Post-mortem findings" OR "Pathological insights" OR "Diagnostic clues") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinical implications" OR "Medical knowledge" OR "Therapeutic implications") AND ("Post-mortem examination" OR "Pathological examination") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Lessons from the deceased" OR "Insights from post-mortem studies" OR "Learnings from autopsies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Disease mechanisms" OR "Pathophysiology" OR "Organ involvement") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Complications" OR "Co-morbidities" OR "Treatment implications") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Post-mortem analysis" OR "Pathological examination") AND ("Clinical correlations" OR "Association with clinical features" OR "Correlation with disease progression") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Diagnostic accuracy" OR "Diagnostic challenges" OR "Accuracy of clinical diagnosis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Therapeutic insights" OR "Treatment strategies" OR "Management implications") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Clinical decision-making" OR "Guidance for clinical practice" OR "Evidence-based medicine") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Educational value" OR "Teaching tool" OR "Medical education")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("cardiac injury" OR "myocardial injury")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("tissue diagnosis" OR "pathological findings")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("postmortem studies" OR "postmortem findings")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("clinical implications" OR "management implications")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("mechanisms" OR "pathogenesis")</t>
-  </si>
-  <si>
-    <t>(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Relative sensitivity" OR "Comparative sensitivity" OR "Diagnostic accuracy") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sensitivity comparison" OR "Swab performance" OR "Sampling method") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Diagnostic testing" OR "Viral detection" OR "PCR testing") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sampling site" OR "Swab location" OR "Nasal sampling") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Testing sensitivity" OR "Detection rate" OR "Sensitivity comparison") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Swab-based diagnostics" OR "Specimen collection" OR "Sampling technique") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Point-of-care testing" OR "Rapid diagnostic tests" OR "Pooled testing") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Diagnostic sensitivity" OR "Viral load" OR "False-negative rate") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Comparative performance" OR "Diagnostic accuracy" OR "Swab sensitivity") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sample collection" OR "Specimen type" OR "Testing methodology")</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2" OR "COVID-19") AND ("nasopharyngeal swabs" OR "NP swabs") AND sensitivity
-("SARS-CoV-2" OR "COVID-19") AND ("anterior nares swabs" OR "nasal swabs") AND sensitivity
-("SARS-CoV-2" OR "COVID-19") AND ("mid-turbinate swabs" OR "nasal swabs") AND sensitivity
-("SARS-CoV-2" OR "COVID-19") AND ("nasopharyngeal swabs" OR "NP swabs") AND sensitivity AND ("diagnosis" OR "detection")
-("SARS-CoV-2" OR "COVID-19") AND ("nasal swabs" OR "anterior nares swabs") AND sensitivity AND ("diagnosis" OR "detection")</t>
-  </si>
-  <si>
-    <t>(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("New-onset diabetes" OR "Newly diagnosed diabetes") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Pre-existing diabetes" OR "Known diabetes") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Therapeutic management" OR "Treatment outcomes" OR "Drug interactions") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors")</t>
-  </si>
-  <si>
-    <t>("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("systematic review" OR "meta-analysis")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("mortality" OR "outcomes")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("glycemic control" OR "blood glucose") AND ("immune response")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("randomized controlled trials" OR "RCTs")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("drug repurposing" OR "therapeutic potential")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Systematic review" OR "Literature review") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical prediction rules" OR "Scoring systems" OR "Risk stratification") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("External validation" OR "Validation study" OR "Model validation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Prognostic factors" OR "Predictive markers" OR "Risk factors") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical outcomes" OR "Patient outcomes" OR "Fatalities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Machine learning" OR "Artificial intelligence" OR "Predictive modeling") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Prognostic accuracy" OR "Discrimination" OR "Calibration") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical variables" OR "Laboratory markers" OR "Radiological findings") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical decision support" OR "Risk assessment tools" OR "Clinical guidelines") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("External validation" OR "Generalizability" OR "Model performance")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("external validation")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("risk of bias" OR "applicability assessment")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("nomograms" OR "variables")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("external validation" OR "performance evaluation")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Intubation timing" OR "Early intubation" OR "Late intubation") AND ("Non-randomized cohort studies" OR "Observational studies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Intubation strategy" OR "Ventilation management" OR "Respiratory support") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Ventilator-associated complications" OR "Pneumonia" OR "Ventilator-induced lung injury") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Length of stay" OR "Hospitalization duration" OR "ICU stay") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Respiratory failure" OR "Acute respiratory distress syndrome" OR "Hypoxemia") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Mechanical ventilation" OR "Ventilator-free days" OR "Weaning success") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Complications" OR "Adverse events" OR "Morbidities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Clinical guidelines" OR "Treatment recommendations" OR "Intubation protocols")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("non-randomized cohort studies" OR "observational studies")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("systematic review" OR "meta-analysis") AND ("ICU admission" OR "intensive care unit")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("sensitivity analysis" OR "alternate definition")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("wait-and-see approach" OR "update guidelines")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Clinical outcomes" OR "Patient outcomes") AND ("Protective effects" OR "Beneficial effects") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Complications" OR "Morbidity" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Cardiovascular outcomes" OR "Cardiac complications") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Renal outcomes" OR "Kidney function") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Risk stratification" OR "Treatment implications") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Mechanisms of action" OR "Biological effects" OR "Pathophysiology")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("safety" OR "efficacy") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("pooled analysis" OR "meta-analysis") AND ("China" OR "Asia")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("treatment interruption" OR "therapy discontinuation") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("systematic review" OR "meta-analysis") AND ("risk reduction" OR "severity" OR "death outcomes")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Efficacy" OR "Effectiveness" OR "Therapeutic effect") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Mortality" OR "Survival" OR "Death rate") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Disease severity" OR "Severe cases" OR "Critical cases") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Hospitalization" OR "Admission rate" OR "Critical care") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Complications" OR "Morbidity" OR "Adverse events") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Viral clearance" OR "Time to viral clearance") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Safety" OR "Side effects" OR "Adverse reactions") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Mechanisms of action" OR "Antiviral activity") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Treatment guidelines" OR "Clinical recommendations") AND ("Randomized controlled trials" OR "RCTs")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("randomized controlled trials" OR "RCTs") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical efficacy" OR "clinical recovery" OR "mechanical ventilation" OR "intensive care unit admission" OR "hospital length of stay" OR "recovery time") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND "antiviral treatment" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("efficacy" OR "safety") AND ("systematic review" OR "meta-analysis")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Complications" OR "Morbidity" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Respiratory support" OR "Ventilator use") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Length of hospital stay" OR "Time to recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Mechanisms of action" OR "Anti-inflammatory effects") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Side effects" OR "Adverse reactions" OR "Safety") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Treatment guidelines" OR "Clinical recommendations")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("clinical outcomes" OR "mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("effectiveness" OR "safety") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("effectiveness" OR "safety" OR "clinical outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("clinical outcomes" OR "mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("evidence" OR "benefit" OR "harm") AND ("systematic review" OR "meta-analysis")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Complications" OR "Morbidity" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Respiratory support" OR "Ventilator use") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Delirium" OR "Cognitive decline" OR "Neurological symptoms") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Care setting" OR "Long-term care facilities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Treatment outcomes" OR "Response to therapy") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Risk factors" OR "Prognostic factors")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("impact" OR "risk factor" OR "comorbidity") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("incidence" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Clinical outcomes" OR "Patient outcomes")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Mortality" OR "Survival" OR "Death rate")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Complications" OR "Morbidity" OR "Adverse events")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Health disparities" OR "Inequalities")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Healthcare access" OR "Barriers to care")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Risk factors" OR "Vulnerability")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Biological factors" OR "Genetic factors")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Public health interventions" OR "Health policies")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnic minority" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnic minority" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Effects" OR "Impact" OR "Involvement") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Acute kidney injury" OR "AKI") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal dysfunction" OR "Renal impairment") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Proteinuria" OR "Hematuria" OR "Urinary abnormalities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Nephropathy" OR "Glomerulopathy" OR "Tubular injury") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal replacement therapy" OR "Dialysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal complications" OR "Renal manifestations") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal function" OR "GFR" OR "Creatinine") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal imaging" OR "Ultrasound" OR "CT scan") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal inflammation" OR "Cytokine storm" OR "Immunopathology")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND "renal system" AND ("effect" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "kidney" AND ("effect" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "nephropathy" AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "renal complications" AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "acute kidney injury" AND ("systematic review" OR "meta-analysis")</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Recovered" OR "Previous recovery") AND ("Possibility" OR "Risk") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Causes" OR "Factors") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Reinfection" OR "Reactivation") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Immune response" OR "Immunity") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Viral persistence" OR "Viral reservoir") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Antibody response" OR "Neutralizing antibodies") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Viral mutation" OR "Variants") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Treatment failure" OR "Inadequate treatment") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Post-acute sequelae" OR "Long COVID") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Clinical surveillance" OR "Follow-up") AND ("Recovered" OR "Previous recovery")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Disease Susceptibility"[Mesh] OR "Disease Progression"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Virus Shedding"[Mesh] OR "Viral Load"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Convalescence"[Mesh] OR "Remission, Spontaneous"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Immunity"[Mesh] OR "Immunologic Memory"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Risk Factors"[Mesh] OR "Epidemiologic Factors"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator support" OR "Respiratory support") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Mechanical ventilation" OR "Intubation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator-associated pneumonia" OR "VAP") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator-induced lung injury" OR "VILI") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilatory parameters" OR "Ventilation strategies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("ARDS" OR "Acute respiratory distress syndrome") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Complications" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Weaning" OR "Extubation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Outcome predictors" OR "Prognostic factors")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Positive-Pressure Respiration"[Mesh] OR "Ventilators, Mechanical"[Mesh])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Invasive Mechanical Ventilation"[Title/Abstract] OR "IMV"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Positive-Pressure Respiration"[Mesh]) AND ("Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Invasive Mechanical Ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Title/Abstract] OR "Positive-Pressure Respiration"[Title/Abstract]) AND ("Systematic Review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Respiratory support" OR "Ventilatory support") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("CPAP" OR "Continuous positive airway pressure") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("BiPAP" OR "Bilevel positive airway pressure") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("High-flow nasal cannula" OR "HFNC") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Respiratory failure" OR "Hypoxemia") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Complications" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Weaning" OR "Decannulation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Trials" OR "Clinical studies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Guidelines" OR "Best practices")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Noninvasive Ventilation"[Mesh] OR "Respiration, Artificial"[Mesh])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Positive-Pressure Respiration"[Mesh]) AND ("Benefits and Harms"[Title/Abstract] OR "Mortality"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Transmission"[Mesh] OR "Health Personnel"[Mesh])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Transmission"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Infection risk" OR "Transmission risk") AND ("Rescuers" OR "First responders") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Personal protective equipment" OR "PPE") AND ("Rescuer safety" OR "Protection") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Aerosol-generating procedures" OR "AGPs") AND ("Rescuer exposure" OR "Viral particles") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Airway management" OR "CPR") AND ("Infection control" OR "Precautions") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Resuscitation guidelines" OR "Protocols") AND ("Risk mitigation" OR "Safety measures") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Disinfection" OR "Decontamination") AND ("Rescue equipment" OR "Ambulance") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Healthcare worker" OR "Rescuer") AND ("Infection prevention" OR "Safety training") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Viral load" OR "Infectiousness") AND ("Rescuer exposure" OR "Contamination") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Telemedicine" OR "Remote guidance") AND ("Rescuer protection" OR "Minimizing contact") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Risk assessment" OR "Mitigation strategies") AND ("Rescuer well-being" OR "Occupational health")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Risk"[Title/Abstract] OR "Transmission"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Aerosol Generation"[Title/Abstract] OR "Airborne Infection Transmission"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Personal Protective Equipment"[Mesh]) AND ("Effectiveness"[Title/Abstract] OR "Strategies"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Chest Compressions"[Mesh] OR "Defibrillation"[Mesh]) AND ("Risk of Bias"[Mesh] OR "Evidence Certainty"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Evidence"[Mesh] OR "Studies"[Mesh])</t>
-  </si>
-  <si>
-    <t>(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Clinical outcomes" OR "Patient outcomes") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Antiviral effects" OR "Immunomodulatory effects") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Safety" OR "Adverse events") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Meta-analysis" OR "Systematic review") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Randomized controlled trial" OR "RCT") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Antibody levels" OR "Neutralizing antibodies") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Mechanisms of action" OR "Biological effects") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Dosage" OR "Administration" OR "Infusion") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Patient selection" OR "Criteria") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Long-term effects" OR "Follow-up")</t>
-  </si>
-  <si>
-    <t>("Convalescent Blood Products"[Mesh] OR "Blood Transfusion"[Mesh]) AND ("Respiratory Tract Infections"[Mesh]) AND ("Survival"[Mesh] OR "Mortality"[Mesh])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Randomized Controlled Trials as Topic"[Mesh]) AND ("Mortality"[Mesh])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Adverse Events"[Mesh]) AND ("Risk"[Mesh])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Time Factors"[Mesh]) AND ("Mortality"[Mesh])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Clinical outcomes" OR "Maternal outcomes" OR "Fetal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vertical transmission" OR "Perinatal transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Maternal morbidity" OR "Maternal complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Neonatal outcomes" OR "Newborn outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Management guidelines" OR "Clinical recommendations") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Preterm birth" OR "Preterm delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Mode of delivery" OR "Cesarean section" OR "Vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vertical transmission" OR "Breastfeeding") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Maternal mortality" OR "Maternal death") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vaccination" OR "Vaccine safety" OR "Vaccine efficacy")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Pregnancy"[Mesh]) AND ("Systematic Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Maternal Complications"[Mesh] OR "Neonatal Complications"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Maternal Severity"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Mortality"[Mesh])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Preterm Birth"[Mesh] OR "Cesarean Section"[Mesh]) AND ("Rate"[Mesh])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Vertical Transmission"[Mesh] OR "Neonatal Death"[Mesh]) AND ("Rate"[Mesh])</t>
-  </si>
-  <si>
-    <t>("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Human infection" AND "Epidemiology" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Clinical manifestations" AND "Symptoms" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Transmission" AND "Modes of spread" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Pathogenesis" AND "Immune response" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Diagnosis" AND "Diagnostic methods" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Treatment" AND "Therapeutic options" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Prevention" AND "Public health measures" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Vaccination" AND "Vaccine development" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Risk factors" AND "Susceptibility" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Outbreak investigations" AND "Containment strategies"</t>
-  </si>
-  <si>
-    <t>("Coronavirus, Human"[Mesh] OR "COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Clinical"[Mesh] OR "Epidemiological"[Mesh] OR "Laboratory"[Mesh] OR "Chest Imaging"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Clinical"[Mesh] OR "Epidemiological"[Mesh] OR "Laboratory"[Mesh] OR "Chest Imaging"[Mesh]) AND ("Scoping Review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Public health messaging" OR "Communication strategies") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Community engagement" OR "Social mobilization") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Education" OR "Awareness programs") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Media" OR "Social media") AND ("Role" OR "Influence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Healthcare settings" OR "Healthcare workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Policy" OR "Legal frameworks") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Mental health" OR "Psychosocial support") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Intersectionality" OR "Vulnerable populations") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Resilience" OR "Empowerment") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Research" OR "Evaluation") AND ("Interventions" OR "Programs")</t>
-  </si>
-  <si>
-    <t>("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("discrimination"[MeSH Terms] OR "discrimination"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("reducing stigma"[All Fields] OR "stigma reduction"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("interventions"[Subheading] OR "interventions"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("recommendations"[Subheading] OR "recommendations"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("public health interventions"[MeSH Terms] OR "public health interventions"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("Affected individuals" OR "Patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("Healthcare workers" OR "Frontline workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("General population" OR "Community") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("Affected individuals" OR "Patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("Healthcare workers" OR "Frontline workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("General population" OR "Community") 
-("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Affected individuals" OR "Patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Healthcare workers" OR "Frontline workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("General population" OR "Community") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychosocial support" OR "Interventions") AND ("Affected individuals" OR "Patients" OR "Healthcare workers" OR "General population")</t>
-  </si>
-  <si>
-    <t>("psychological consequences"[MeSH Terms] OR "psychological consequences"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("affected individuals"[All Fields] OR "healthcare workers"[MeSH Terms] OR "general population"[MeSH Terms])
-("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields]) AND ("psychological health outcomes"[MeSH Terms] OR "psychological health outcomes"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("psychological health outcomes"[MeSH Terms] OR "psychological health outcomes"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("PTSD"[MeSH Terms] OR "PTSD"[All Fields] OR "post-traumatic stress disorder"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress"[MeSH Terms] OR "stress"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("mental health resources"[MeSH Terms] OR "mental health resources"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospital setting") AND ("Diagnostic performance" OR "Accuracy") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic sensitivity" OR "Diagnostic specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospitalized patients") AND ("Diagnostic utility" OR "Performance evaluation") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Accuracy assessment" OR "Diagnostic value") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Inpatient setting") AND ("Diagnostic sensitivity" OR "Diagnostic specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Accuracy comparison" OR "Diagnostic performance") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospital-based study") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic validity" OR "Performance characteristics") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospitalized population") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity")</t>
-  </si>
-  <si>
-    <t>("diagnostic test accuracy"[MeSH Terms] OR "diagnostic test accuracy"[All Fields]) AND ("chest X-ray"[MeSH Terms] OR "chest X-ray"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields]) AND ("chest radiography"[MeSH Terms] OR "chest radiography"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("reverse-transcription polymerase chain reaction test"[MeSH Terms] OR "reverse-transcription polymerase chain reaction test"[All Fields]) AND ("clinical consensus"[MeSH Terms] OR "clinical consensus"[All Fields]) AND ("chest radiographic"[MeSH Terms] OR "chest radiographic"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("Standards for Reporting of Diagnostic Accuracy Studies"[MeSH Terms] OR "Standards for Reporting of Diagnostic Accuracy Studies"[All Fields]) AND ("Quality Assessment of Diagnostic Accuracy Studies-2"[MeSH Terms] OR "Quality Assessment of Diagnostic Accuracy Studies-2"[All Fields]) AND ("CT sensitivity"[All Fields] OR "CT specificity"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("adherence"[MeSH Terms] OR "adherence"[All Fields]) AND ("reporting guidelines"[MeSH Terms] OR "reporting guidelines"[All Fields]) AND ("high risk of bias"[MeSH Terms] OR "high risk of bias"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])</t>
-  </si>
-  <si>
-    <t>("Coronavirus" OR "Coronaviridae") AND ("Intensive care unit" OR "ICU") AND ("Admission rate" OR "Rate of admission") 
-("Coronavirus" OR "Coronaviridae") AND ("Intensive care unit" OR "ICU") AND ("Clinical outcomes" OR "Patient outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("Severe cases" OR "Critical cases") AND ("Intensive care unit" OR "ICU") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU admission" OR "Intensive care unit admission") AND ("Mortality rate" OR "Survival rate") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU utilization" OR "ICU occupancy") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("Intensive care" OR "Critical care") AND ("Hospitalized patients" OR "Inpatients") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU management" OR "ICU treatment") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU admission criteria" OR "ICU triage") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU length of stay" OR "ICU duration") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU resource allocation" OR "ICU capacity") AND ("Patient outcomes" OR "Clinical outcomes")</t>
-  </si>
-  <si>
-    <t>("rate of intensive care unit admission"[MeSH Terms] OR "rate of intensive care unit admission"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("morbidity"[MeSH Terms] OR "morbidity"[All Fields]) AND ("complications"[MeSH Terms] OR "complications"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("observational studies"[MeSH Terms] OR "observational studies"[All Fields]) AND ("ICU admission"[All Fields] OR "intensive care unit admission"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields])
-("intensive care unit"[MeSH Terms] OR "intensive care unit"[All Fields]) AND ("severe coronavirus disease"[All Fields] OR "severe COVID-19"[All Fields]) AND ("Meta-Analysis"[Publication Type] OR "Meta-Analysis"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Clinical characteristics" OR "Symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Laboratory findings" OR "Biomarkers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Imaging characteristics" OR "Radiological findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Epidemiology" OR "Prevalence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Disease severity" OR "Clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Laboratory markers" OR "Inflammatory markers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Chest X-ray" OR "CT scan") AND ("Findings" OR "Abnormalities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Clinical management" OR "Treatment guidelines") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Risk factors" OR "Comorbidities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Long-term effects" OR "Follow-up studies")</t>
-  </si>
-  <si>
-    <t>("clinical characteristics"[MeSH Terms] OR "clinical characteristics"[All Fields]) AND ("laboratory characteristics"[MeSH Terms] OR "laboratory characteristics"[All Fields]) AND ("imaging characteristics"[MeSH Terms] OR "imaging characteristics"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("novel coronavirus disease 2019"[MeSH Terms] OR "novel coronavirus disease 2019"[All Fields]) AND ("health care systems"[MeSH Terms] OR "health care systems"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("studies"[MeSH Terms] OR "studies"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Underlying conditions") AND ("Disease course" OR "Clinical outcomes")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Medical conditions") AND ("Severity" OR "Complications")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Pre-existing conditions") AND ("Mortality" OR "Fatality rate")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Chronic diseases") AND ("Hospitalization" OR "Admission rate")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Risk factors") AND ("Intensive care" OR "Critical care")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Underlying conditions") AND ("Clinical course" OR "Prognosis")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Medical conditions") AND ("Recovery" OR "Outcome")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Pre-existing conditions") AND ("Disease severity" OR "Progression")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Chronic diseases") AND ("Complication rate" OR "Clinical manifestations")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Risk factors") AND ("Disease course" OR "Treatment response")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Incidence" OR "Prevalence")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Prognostic associations" OR "Predictors")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Clinical outcomes" OR "Mortality")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Risk factors" OR "Comorbidities")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Biomarkers" OR "Troponin levels")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Cardiovascular complications" OR "Heart involvement")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Long-term outcomes" OR "Follow-up studies")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Echocardiography" OR "Cardiac imaging")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Intensive care unit" OR "ICU admission")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Mechanisms" OR "Pathophysiology")</t>
-  </si>
-  <si>
-    <t>("myocardial injury"[MeSH Terms] OR "myocardial injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("hospitalized"[MeSH Terms] OR "hospitalized"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("risk stratification"[MeSH Terms] OR "risk stratification"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("admission"[MeSH Terms] OR "admission"[All Fields]) AND ("prognostic value"[MeSH Terms] OR "prognostic value"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Incidence" OR "Prevalence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Biomarkers" OR "Troponin levels") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Risk factors" OR "Comorbidities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Echocardiography" OR "Cardiac imaging") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Mechanisms" OR "Pathophysiology") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Intensive care unit" OR "ICU admission") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute myocardial injury" OR "Cardiac complications") AND ("Mortality" OR "Fatality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Treatment strategies" OR "Interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Long-term outcomes" OR "Follow-up studies")</t>
-  </si>
-  <si>
-    <t>("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("brain natriuretic peptide"[MeSH Terms] OR "brain natriuretic peptide"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("myocardial injury"[MeSH Terms] OR "myocardial injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("clinical status"[MeSH Terms] OR "clinical status"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("brain natriuretic peptide"[MeSH Terms] OR "brain natriuretic peptide"[All Fields]) AND ("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Sociodemographic factors" OR "Demographic characteristics") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical risk factors" OR "Comorbidities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory parameters" OR "Biomarkers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Treatment outcomes" OR "Therapeutic interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Age" OR "Elderly population") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Sex" OR "Gender differences") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Ethnicity" OR "Race") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical severity" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Immunosuppression" OR "Immune status") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Critical care" OR "Intensive care")</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("age factors"[MeSH Terms] OR "age factors"[All Fields]) OR ("sex factors"[MeSH Terms] OR "sex factors"[All Fields]) OR ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]) OR ("treatment outcome"[MeSH Terms] OR "treatment outcome"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("dyspnea"[MeSH Terms] OR "dyspnea"[All Fields]) OR ("smoking"[MeSH Terms] OR "smoking"[All Fields]) OR ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]) OR ("treatment outcome"[MeSH Terms] OR "treatment outcome"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("age factors"[MeSH Terms] OR "age factors"[All Fields]) AND ("sex factors"[MeSH Terms] OR "sex factors"[All Fields]) AND ("health status"[MeSH Terms] OR "health status"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("kidney diseases"[MeSH Terms] OR "kidney diseases"[All Fields]) OR ("hypertension"[MeSH Terms] OR "hypertension"[All Fields]) OR ("diabetes mellitus"[MeSH Terms] OR "diabetes mellitus"[All Fields]) OR ("pulmonary disease, chronic obstructive"[MeSH Terms] OR "pulmonary disease, chronic obstructive"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("albumins"[MeSH Terms] OR "albumins"[All Fields]) OR ("bilirubin"[MeSH Terms] OR "bilirubin"[All Fields]) OR ("AST"[MeSH Terms] OR "AST"[All Fields]) OR ("ALT"[MeSH Terms] OR "ALT"[All Fields]) OR ("ferritins"[MeSH Terms] OR "ferritins"[All Fields]))</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Clinical characteristics" OR "Symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Perinatal outcomes" OR "Birth outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Maternal mortality" OR "Maternal complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Vertical transmission" OR "Fetal transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Neonatal outcomes" OR "Infant outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Preterm birth" OR "Preterm delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Fetal distress" OR "Intrauterine fetal death") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Mode of delivery" OR "Cesarean section") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Maternal morbidity" OR "Maternal hospitalization") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Antenatal care" OR "Prenatal management")</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("maternal characteristics"[MeSH Terms] OR "maternal characteristics"[All Fields]) OR ("perinatal outcomes"[MeSH Terms] OR "perinatal outcomes"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("symptoms"[MeSH Terms] OR "symptoms"[All Fields]) OR ("fever"[MeSH Terms] OR "fever"[All Fields]) OR ("cough"[MeSH Terms] OR "cough"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("delivery, obstetric"[MeSH Terms] OR "delivery, obstetric"[All Fields]) OR ("premature birth"[MeSH Terms] OR "premature birth"[All Fields]) OR ("cesarean section"[MeSH Terms] OR "cesarean section"[All Fields]) OR ("vaginal delivery"[MeSH Terms] OR "vaginal delivery"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("vertical transmission"[MeSH Terms] OR "vertical transmission"[All Fields]) OR ("breast milk"[MeSH Terms] OR "breast milk"[All Fields]) OR ("amniotic fluid"[MeSH Terms] OR "amniotic fluid"[All Fields]) OR ("placenta"[MeSH Terms] OR "placenta"[All Fields]) OR ("umbilical cord blood"[MeSH Terms] OR "umbilical cord blood"[All Fields]))</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory parameters" OR "Biomarkers") AND ("Disease severity" OR "Clinical progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory findings" OR "Laboratory abnormalities") AND ("Mortality" OR "Death") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Risk factors" OR "Predictors") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory markers" OR "Laboratory investigations") AND ("Treatment outcomes" OR "Therapeutic response") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Coagulation abnormalities" OR "Thrombotic events") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory parameters" OR "Biomarkers") AND ("Inflammatory response" OR "Cytokine storm") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Organ dysfunction" OR "Multiorgan failure") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory markers" OR "Laboratory investigations") AND ("Viral load" OR "RNA detection") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Immune response" OR "Antibody levels")</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND ("disease severity"[MeSH Terms] OR "disease severity"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("severe disease"[MeSH Terms] OR "severe disease"[All Fields])) AND (("white blood cell count"[MeSH Terms] OR "white blood cell count"[All Fields]) OR ("neutrophil count"[MeSH Terms] OR "neutrophil count"[All Fields]) OR ("C-reactive protein"[MeSH Terms] OR "C-reactive protein"[All Fields]) OR ("lactate dehydrogenase"[MeSH Terms] OR "lactate dehydrogenase"[All Fields]) OR ("D-dimer"[MeSH Terms] OR "D-dimer"[All Fields]) OR ("aspartate aminotransferase"[MeSH Terms] OR "aspartate aminotransferase"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("severe disease"[MeSH Terms] OR "severe disease"[All Fields])) AND (("lymphocyte count"[MeSH Terms] OR "lymphocyte count"[All Fields]) OR ("platelet count"[MeSH Terms] OR "platelet count"[All Fields]) OR ("haemoglobin"[MeSH Terms] OR "haemoglobin"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND (("disease severity"[MeSH Terms] OR "disease severity"[All Fields]) OR ("biomarkers"[MeSH Terms] OR "biomarkers"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND (("mean difference"[MeSH Terms] OR "mean difference"[All Fields]) OR ("standard mean difference"[MeSH Terms] OR "standard mean difference"[All Fields]) OR ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields]))</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Efficacy" OR "Effectiveness") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Safety" OR "Adverse effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Clinical trials" OR "Randomized controlled trials") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Antiviral activity" OR "Viral load") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Symptom relief" OR "Clinical improvement") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Mechanisms of action" OR "Mode of action") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Combination therapy" OR "Adjunctive treatment") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Immune response" OR "Immunomodulatory effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Long-term outcomes" OR "Follow-up studies")</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("efficacy"[MeSH Terms] OR "efficacy"[All Fields]) AND ("safety"[MeSH Terms] OR "safety"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("randomized controlled trials"[MeSH Terms] OR "randomized controlled trials"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("case control studies"[MeSH Terms] OR "case control studies"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Controversy" OR "Debate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Adults" OR "Adult population") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Lower respiratory tract infections" OR "LRTIs") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Safety" OR "Adverse effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Efficacy" OR "Effectiveness") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Guidelines" OR "Recommendations") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Inflammation" OR "Immunomodulation") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Mechanism of action" OR "Pharmacology") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Meta-analysis" OR "Systematic review")</t>
-  </si>
-  <si>
-    <t>(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("cardiovascular complications"[MeSH Terms] OR "cardiovascular complications"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("respiratory complications"[MeSH Terms] OR "respiratory complications"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Comorbid pulmonary diseases" OR "Respiratory comorbidities") AND ("Disease severity" OR "Clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Comorbidities" OR "Underlying lung conditions") AND ("COVID-19 severity" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary comorbidities" OR "Respiratory disorders") AND ("Mortality" OR "Hospitalization") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chronic obstructive pulmonary disease" OR "COPD") AND ("COVID-19 severity" OR "Clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Asthma" OR "Bronchial asthma") AND ("Disease severity" OR "Complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Interstitial lung disease" OR "ILD") AND ("COVID-19 severity" OR "Mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary hypertension" OR "PH") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary fibrosis" OR "PF") AND ("Disease severity" OR "Long-term outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Cystic fibrosis" OR "CF") AND ("COVID-19 severity" OR "Complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary comorbidities" OR "Respiratory diseases") AND ("Intensive care" OR "Ventilator support")</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("pulmonary diseases, chronic obstructive"[MeSH Terms] OR "pulmonary diseases, chronic obstructive"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("asthma"[MeSH Terms] OR "asthma"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("chronic respiratory diseases"[MeSH Terms] OR "chronic respiratory diseases"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("pulmonary diseases, chronic obstructive"[MeSH Terms] OR "pulmonary diseases, chronic obstructive"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("chronic respiratory diseases"[MeSH Terms] OR "chronic respiratory diseases"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Invasive mechanical ventilation" OR "IMV") AND ("Case fatality rate" OR "Mortality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Ventilator support" OR "Mechanical ventilation") AND ("Death rate" OR "Survival rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Intensive care unit" OR "ICU") AND ("Mortality" OR "Fatal outcomes") AND ("Mechanical ventilation" OR "Ventilator therapy") 
-("COVID-19" OR "SARS-CoV-2") AND ("Ventilated patients" OR "Ventilated COVID-19 cases") AND ("Case fatality rate" OR "Mortality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Critical illness" OR "Severe disease") AND ("Mechanical ventilation" OR "Invasive ventilation") AND ("Fatality rate" OR "Survival rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Respiratory failure" OR "Acute respiratory distress syndrome") AND ("Mortality rate" OR "Death rate") AND ("Invasive mechanical ventilation" OR "IMV") 
-("COVID-19" OR "SARS-CoV-2") AND ("Ventilator-associated pneumonia" OR "VAP") AND ("Case fatality rate" OR "Mortality rate") AND ("Mechanical ventilation" OR "Ventilator support") 
-("COVID-19" OR "SARS-CoV-2") AND ("Intubated patients" OR "Intubation") AND ("Fatality rate" OR "Survival rate") AND ("Invasive mechanical ventilation" OR "IMV") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU mortality" OR "ICU death") AND ("Mechanical ventilation" OR "Ventilator therapy") AND ("Case fatality rate" OR "Mortality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Severe respiratory failure" OR "Hypoxemic respiratory failure") AND ("Death rate" OR "Survival rate") AND ("Invasive mechanical ventilation" OR "IMV")</t>
-  </si>
-  <si>
-    <t>((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract]) AND ("mechanical ventilation"[Title/Abstract]) AND ("meta-analysis"[Publication Type]) AND ("age factors"[MeSH Terms]) AND ("geographic locations"[MeSH Terms]) AND ("Newcastle-Ottawa Scale"[Title/Abstract]) AND ("hospital outcomes"[Title/Abstract]) AND ("reported CFR"[Title/Abstract]) AND ("outcome assessment"[Title/Abstract]))
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("age factors"[MeSH Terms])) AND ("geographic locations"[MeSH Terms])
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("meta-analysis"[Publication Type])) AND ("Newcastle-Ottawa Scale"[Title/Abstract])
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("hospital outcomes"[Title/Abstract])) AND ("reported CFR"[Title/Abstract])
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("outcome assessment"[Title/Abstract])) AND ("reported CFR"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Risk factors" OR "Predictors") AND ("Sociodemographic" OR "Demographic") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical risk factors" OR "Prognostic factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory parameters" OR "Biomarkers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Comorbidities" OR "Underlying conditions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Treatment outcomes" OR "Therapeutic interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Age" OR "Gender" OR "Race" OR "Ethnicity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical severity" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory tests" OR "Blood markers" OR "Serum parameters") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Intensive care" OR "ICU admission") AND ("Ventilator support") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Antiviral treatment" OR "Immunomodulatory therapy")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Risk Factors"[Mesh] OR "Risk Factors"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Aged"[Mesh] OR "Aged"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Sex Factors"[Mesh] OR "Sex Factors"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Comorbidity"[Mesh] OR "Comorbidity"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women" OR "Females") AND ("Health challenges" OR "Health issues") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women" OR "Females") AND ("Coping strategies" OR "Adaptation") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's health" OR "Gender-specific health") AND ("Challenges" OR "Concerns") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's mental health" OR "Psychological well-being") AND ("Coping mechanisms" OR "Resilience") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's healthcare access" OR "Healthcare disparities") AND ("Health-related challenges" OR "Obstacles") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's reproductive health" OR "Maternal health") AND ("Adverse outcomes" OR "Pregnancy concerns") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Gender roles" OR "Sociocultural factors") AND ("Health challenges" OR "Coping strategies") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's employment" OR "Workforce impact") AND ("Work-life balance" OR "Job stress") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's social support" OR "Community resources") AND ("Coping strategies" OR "Psychosocial well-being") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's empowerment" OR "Gender equality") AND ("Health challenges" OR "Resilience")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
-("Challenges"[Mesh] OR "Challenges"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-("Psychosocial Factors"[Mesh] OR "Psychosocial Factors"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-("Gender-Based Violence"[Mesh] OR "Gender-Based Violence"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-("Reproductive Health"[Mesh] OR "Reproductive Health"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Prevalence" OR "Incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mental health" OR "Psychological impact") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Emotional trauma") AND ("PTSD prevalence" OR "PTSD symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Traumatic events" OR "Stressful experiences") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Psychiatric disorders") AND ("PTSD prevalence" OR "PTSD incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mental health outcomes" OR "Psychological sequelae") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Trauma exposure" OR "Critical illness") AND ("PTSD prevalence" OR "PTSD symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Healthcare workers" OR "Frontline workers") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Community impact" OR "Population-based study") AND ("Prevalence of PTSD" OR "PTSD rates") 
-("COVID-19" OR "SARS-CoV-2") AND ("Long-term effects" OR "Chronic PTSD") AND ("PTSD prevalence" OR "PTSD incidence")</t>
-  </si>
-  <si>
-    <t>("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
-("Prevalence"[Mesh] OR "Prevalence"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Age Factors"[Mesh] OR "Age Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Sex Factors"[Mesh] OR "Sex Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Risk Factors"[Mesh] OR "Risk Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])</t>
-  </si>
-  <si>
-    <t>("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular presentations" OR "Cardiac manifestations") AND ("Complications" OR "Cardiovascular complications") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular outcomes" OR "Cardiac outcomes") AND ("Comparison" OR "Differences") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular involvement" OR "Cardiac involvement") AND ("Comparative analysis" OR "Contrast") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular diseases" OR "Heart diseases") AND ("Comparative study" OR "Differential analysis") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular complications" OR "Cardiac complications") AND ("Comparison between viruses" OR "Contrasting outcomes") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular manifestations" OR "Cardiac symptoms") AND ("Comparative evaluation" OR "Comparison of outcomes") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular comorbidities" OR "Heart-related conditions") AND ("Differences in outcomes" OR "Contrasting presentations") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular complications" OR "Cardiac complications") AND ("Comparative analysis" OR "Contrast between viruses") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular sequelae" OR "Heart-related outcomes") AND ("Comparison of infections" OR "Differential outcomes") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular morbidity" OR "Cardiac morbidity") AND ("Comparative study" OR "Comparison of viruses")</t>
-  </si>
-  <si>
-    <t>("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("Cardiovascular Diseases"[Mesh] OR "Cardiovascular Diseases"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("SARS Virus"[Mesh] OR "SARS Virus"[All Fields]) AND ("MERS Virus"[Mesh] OR "MERS Virus"[All Fields]) AND ("Cardiovascular Diseases"[Mesh] OR "Cardiovascular Diseases"[All Fields])
-("Cardiac Injuries"[Mesh] OR "Cardiac Injuries"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Thrombosis"[Mesh] OR "Thrombosis"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("SARS Virus"[Mesh] OR "SARS Virus"[All Fields])
-("Disease Progression"[Mesh] OR "Disease Progression"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia" OR "Respiratory infection") AND ("ICU admission" OR "Intensive care unit") AND ("Clinical course" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia" OR "Respiratory infection") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Severe pneumonia" OR "Critical illness") AND ("ICU management" OR "Intensive care unit management") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia severity" OR "Disease severity") AND ("ICU mortality" OR "Intensive care unit mortality") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Clinical characteristics" OR "Patient characteristics") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia complications" OR "Respiratory complications") AND ("ICU admission" OR "Intensive care unit admission") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU interventions" OR "Intensive care unit interventions") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia management" OR "Respiratory management") AND ("ICU length of stay" OR "Intensive care unit length of stay") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia mortality" OR "Respiratory mortality") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia prognosis" OR "Respiratory prognosis") AND ("ICU admission" OR "Intensive care unit admission") AND ("Systematic review" OR "Meta-analysis")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Patient Admission"[Mesh] OR "Patient Admission"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Treatment Outcome"[Mesh] OR "Treatment Outcome"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Mechanical Ventilators"[Mesh] OR "Mechanical Ventilators"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Length of Stay"[Mesh] OR "Length of Stay"[All Fields])</t>
-  </si>
-  <si>
-    <t>("SARS-CoV" OR "SARS coronavirus") AND ("genetic variants" OR "polymorphisms" OR "mutations") AND ("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "host factors" OR "host variation") AND ("phenotype" OR "clinical outcomes" OR "disease severity" OR "susceptibility") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("host genetic variants" OR "host polymorphisms" OR "host mutations") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotype" OR "clinical outcomes" OR "disease severity" OR "susceptibility") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("genetic variations" OR "polymorphic variants" OR "mutation profiles") AND ("COVID-19" OR "SARS-CoV-2") AND ("host genotype" OR "host variation" OR "host genetics") AND ("phenotypic expression" OR "clinical manifestations" OR "disease course") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("host genome variations" OR "host genomic polymorphisms" OR "host mutation profiles") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotypic outcomes" OR "clinical characteristics" OR "disease progression") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("host genetic diversity" OR "host genomic variability" OR "host mutation patterns") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotypic variations" OR "clinical features" OR "disease outcomes") AND ("SaGe-HP")</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2"[Mesh] OR "COVID-19"[Mesh]) AND ("Host Genetics"[Mesh] OR "Genetic Variation"[Mesh]) AND ("Phenotype"[Mesh] OR "Disease Susceptibility"[Mesh])
-("Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh] OR "COVID-19"[Mesh]) AND ("Host-Pathogen Interactions"[Mesh] OR "Host-Pathogen Interaction"[Mesh]) AND ("Genetic Predisposition to Disease"[Mesh] OR "Genetic Background"[Mesh])
-("Coronavirus Infections"[Mesh] OR "SARS Virus"[Mesh]) AND ("Host Genetics"[Mesh] OR "Host Genetic Factors"[Mesh]) AND ("Disease Progression"[Mesh] OR "Clinical Manifestations"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Human Genome"[Mesh] OR "Genetic Variation"[Mesh]) AND ("Disease Severity"[Mesh] OR "Phenotypic Variation"[Mesh])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Genome-Wide Association Study"[Mesh] OR "Genetic Markers"[Mesh]) AND ("Clinical Phenotype"[Mesh] OR "Disease Outcome"[Mesh])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide" OR "suicidal behavior" OR "self-harm") AND ("psychological impact" OR "mental health" OR "psychiatric disorders") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide rate" OR "suicidality") AND ("psychosocial factors" OR "psychological distress" OR "psychiatric morbidity") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide risk" OR "suicidal ideation" OR "self-inflicted harm") AND ("mental health consequences" OR "psychological outcomes" OR "emotional well-being") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide prevention" OR "suicide intervention" OR "suicide mitigation") AND ("psychosocial support" OR "mental health services" OR "crisis helplines") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide epidemiology" OR "suicide patterns" OR "suicide trends") AND ("mental health impact" OR "psychological consequences" OR "emotional distress")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Suicide"[Mesh] OR "Suicidal Ideation"[Mesh]) AND ("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Suicide"[Mesh] OR "Suicidal Behavior"[Mesh])
-("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh]) AND ("Suicidal Ideation"[Mesh] OR "Suicidal Behavior"[Mesh]) AND ("Literature Review"[Publication Type] OR "Systematic Review"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Suicide Rate"[Mesh] OR "Suicidal Outcome"[Mesh]) AND ("Global Health"[Mesh] OR "Internationality"[Mesh])
-("Suicidal Behavior"[Mesh] OR "Suicidal Ideation"[Mesh]) AND ("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh]) AND ("Literature"[Mesh] OR "Systematic Review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("clinical outcomes" OR "disease severity" OR "complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("immunosuppression" OR "immunocompromised") AND ("risk factors" OR "susceptibility") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("graft rejection" OR "graft dysfunction") AND ("treatment outcomes" OR "management strategies") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("transplant recipients" OR "donor-recipient interaction") AND ("infection control" OR "prevention measures") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("long-term effects" OR "recovery" OR "quality of life")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("healthcare professionals" OR "medical personnel" OR "health workers") AND ("mental health" OR "psychological well-being" OR "emotional distress") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare providers" OR "medical staff" OR "clinicians") AND ("mental health disorders" OR "psychiatric symptoms" OR "psychological impact") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "hospital staff" OR "nurses" OR "doctors") AND ("burnout" OR "stress" OR "anxiety" OR "depression") 
-("COVID-19" OR "SARS-CoV-2") AND ("health professionals" OR "medical personnel" OR "caregivers") AND ("psychological consequences" OR "mental health challenges" OR "psychosocial support") 
-("COVID-19" OR "SARS-CoV-2") AND ("frontline healthcare workers" OR "emergency responders" OR "pandemic response teams") AND ("occupational stress" OR "work-related stress" OR "compassion fatigue")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis"[Publication Type])
-("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Depression"[Mesh] OR "Anxiety"[Mesh] OR "Insomnia"[Mesh] OR "Stress, Psychological"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Meta-Analysis as Topic"[Mesh] OR "Systematic Review as Topic"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh])
-("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Psychological Distress"[Mesh] OR "Sleep Initiation and Maintenance Disorders"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("misinformation" OR "false information" OR "rumors") AND ("social media" OR "online platforms") AND ("effects" OR "consequences" OR "impacts") 
-("COVID-19" OR "SARS-CoV-2") AND ("misinformation" OR "fake news" OR "disinformation") AND ("social networking" OR "online communities" OR "virtual platforms") AND ("public perception" OR "belief systems" OR "attitude change") 
-("COVID-19" OR "SARS-CoV-2") AND ("misinformation dissemination" OR "infodemic" OR "misinformation campaigns") AND ("social media platforms" OR "online information sharing") AND ("knowledge gaps" OR "misperceptions" OR "health behavior") 
-("COVID-19" OR "SARS-CoV-2") AND ("misinformation on social media" OR "spread of false information" OR "rumor propagation") AND ("public health communication" OR "health literacy" OR "risk perception") 
-("COVID-19" OR "SARS-CoV-2") AND ("infodemic management" OR "misinformation control" OR "fact-checking") AND ("social media impact" OR "information credibility" OR "media literacy")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Rapid Review"[Publication Type])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Effects"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Risk Factors"[Mesh] OR "Bias (Epidemiology)"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Qualitative Research"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("treatment effectiveness" OR "clinical outcomes" OR "therapeutic efficacy") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("safety" OR "adverse effects" OR "toxicity") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("randomized controlled trial" OR "clinical trial" OR "observational study") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("mortality" OR "hospitalization" OR "intensive care unit admission") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("virological clearance" OR "viral load" OR "antiviral activity")</t>
-  </si>
-  <si>
-    <t>("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Mortality"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Hospitalization"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Mechanical Ventilation"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Adverse Effects"[Mesh]) AND ("Systematic Review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("supplementation" OR "intake" OR "levels") AND ("susceptibility" OR "infection risk" OR "viral transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("clinical outcomes" OR "disease severity" OR "morbidity" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D supplementation" OR "vitamin D levels" OR "vitamin D status") AND ("clinical course" OR "progression" OR "complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("mortality" OR "fatality" OR "survival") AND ("outcomes" OR "prognosis" OR "survival rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D supplementation" OR "vitamin D levels" OR "vitamin D status") AND ("immune response" OR "inflammatory markers" OR "cytokine storm")</t>
-  </si>
-  <si>
-    <t>("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2"[Mesh] OR "COVID-19"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Clinical Course"[Mesh]) AND ("Morbidity"[Mesh]) AND ("Mortality"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Vitamin D Supplementation"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Vitamin D Levels"[Mesh]) AND ("Severity of Illness Index"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Randomized Controlled Trials as Topic"[Mesh]) AND ("Systematic Review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("perioperative management" OR "surgical procedures" OR "surgical care") AND ("confirmed cases" OR "suspected cases" OR "diagnosed patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative protocols" OR "surgical guidelines" OR "surgical pathways") AND ("patient safety" OR "infection control" OR "risk assessment") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative complications" OR "surgical outcomes" OR "postoperative morbidity") AND ("COVID-19 positive" OR "COVID-19 negative" OR "COVID-19 status") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative anesthesia" OR "anesthetic management" OR "anesthesia considerations") AND ("respiratory support" OR "ventilation strategies" OR "intubation") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative testing" OR "preoperative screening" OR "diagnostic methods") AND ("operating room" OR "surgical environment" OR "personal protective equipment")</t>
-  </si>
-  <si>
-    <t>("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("clinical outcomes"[Title/Abstract] OR "mortality"[Title/Abstract] OR "neonatal outcomes"[Title/Abstract]) OR "duration of surgery"[Title/Abstract])
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND "personal protective equipment"[Title/Abstract]
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("testing"[Title/Abstract] OR "diagnosis"[Title/Abstract]) AND "non-urgent surgery"[Title/Abstract])
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("HCWs"[Title/Abstract] OR "healthcare workers"[Title/Abstract]) AND ("level 3 PPE"[Title/Abstract] OR "personal protective equipment"[Title/Abstract]))
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("long-term outcomes"[Title/Abstract] OR "follow-up"[Title/Abstract]) OR "prognosis"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "body mass index" OR "adiposity") AND ("prognosis" OR "clinical outcomes" OR "disease severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "overweight" OR "obese patients") AND ("mortality" OR "hospitalization" OR "intensive care unit admission") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "obese individuals" OR "adipose tissue") AND ("complications" OR "co-morbidities" OR "cardiovascular diseases") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "body mass index" OR "adiposity") AND ("inflammatory response" OR "cytokine storm" OR "immune dysregulation") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "overweight" OR "obese patients") AND ("respiratory failure" OR "ventilatory support" OR "oxygen requirements")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "prognosis"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND ("disease severity"[Title/Abstract] OR "medical care"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "mortality rate"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND ("treatment aggression"[Title/Abstract] OR "disease prevention"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("clinical presentation" OR "disease manifestation" OR "oral findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral health" OR "oral hygiene" OR "oral care") AND ("complications" OR "oral complications" OR "oral sequelae") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral cavity" OR "mouth" OR "oral mucosa") AND ("inflammation" OR "ulceration" OR "mucosal changes") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("diagnostic criteria" OR "clinical diagnosis" OR "differential diagnosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("prevalence" OR "incidence" OR "epidemiology")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("efficacy" OR "effectiveness" OR "therapeutic outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("safety" OR "adverse events" OR "side effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("clinical trials" OR "randomized controlled trials" OR "systematic review") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("mortality" OR "hospitalization" OR "disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("respiratory support" OR "oxygenation" OR "ventilatory management")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND ("efficacy"[Title/Abstract] OR "effectiveness"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND ("safety"[Title/Abstract] OR "adverse events"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "clinical improvement"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "ICU hospitalization"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "mortality"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("gustatory dysfunction" OR "ageusia" OR "hypogeusia") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory disorders" OR "gustatory disorders" OR "smell and taste disorders") AND ("prevalence" OR "incidence" OR "epidemiology") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("clinical presentation" OR "symptoms" OR "manifestations") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("recovery" OR "duration" OR "long-term effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("diagnosis" OR "assessment" OR "evaluation")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "prevalence"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "clinical characteristics"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "COVID-19 severity"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("recurrence" OR "reinfection" OR "relapse") AND ("prevalence" OR "incidence" OR "frequency") 
-("COVID-19" OR "SARS-CoV-2") AND ("recurrent infection" OR "persistent infection" OR "chronic infection") AND ("clinical characteristics" OR "demographic characteristics" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("reinfection" OR "relapse" OR "recurrence") AND ("viral dynamics" OR "viral shedding" OR "viral load") 
-("COVID-19" OR "SARS-CoV-2") AND ("positive PCR after recovery" OR "positive test after clearance" OR "positive test after discharge") 
-("COVID-19" OR "SARS-CoV-2") AND ("recurrence" OR "reinfection" OR "relapse") AND ("long-term effects" OR "complications" OR "clinical outcomes")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("recurrence"[Title/Abstract] OR "reinfection"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("recurrent positivity"[Title/Abstract] OR "recurrent RNA positivity"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("incidence"[Title/Abstract] OR "prevalence"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND "factors associated with recurrent positivity"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND "risk factors for recurrent positivity"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("prevention" OR "treatment" OR "prophylaxis") 
-("respiratory tract infections" OR "common cold" OR "influenza") AND ("Echinacea" OR "Echinacea purpurea") AND ("efficacy" OR "effectiveness" OR "clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("immunomodulatory effects" OR "immune response" OR "antiviral activity") 
-("Echinacea" OR "Echinacea purpurea") AND ("respiratory tract infections" OR "common cold" OR "influenza") AND ("systematic review" OR "meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("safety" OR "adverse events" OR "side effects")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("population testing" OR "mass testing" OR "community testing") AND ("implementation" OR "rollout" OR "execution") 
-("COVID-19" OR "SARS-CoV-2") AND ("population screening" OR "mass screening" OR "community screening") AND ("experiences" OR "lessons learned" OR "challenges") 
-("COVID-19" OR "SARS-CoV-2") AND ("testing strategy" OR "testing program" OR "testing campaign") AND ("implementation" OR "execution" OR "feasibility") 
-("COVID-19" OR "SARS-CoV-2") AND ("population-based testing" OR "large-scale testing" OR "surveillance testing") AND ("implementation" OR "process" OR "logistics") 
-("COVID-19" OR "SARS-CoV-2") AND ("testing initiatives" OR "testing interventions" OR "testing programs") AND ("experiences" OR "lessons learned" OR "best practices")</t>
-  </si>
-  <si>
-    <t>("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract])
-("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("implementation experiences"[Title/Abstract] OR "implementation challenges"[Title/Abstract]) AND ("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("drive-through testing"[Title/Abstract] OR "walk-through testing"[Title/Abstract] OR "mobile testing"[Title/Abstract] OR "home visiting testing"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("population testing outcomes"[Title/Abstract] OR "population testing evaluation"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("admission" OR "baseline" OR "initial") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("in-hospital" OR "hospitalized") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("prognosis" OR "outcome") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("risk factors" OR "predictors") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("severity" OR "complications") AND ("mortality" OR "death" OR "fatal outcomes")</t>
-  </si>
-  <si>
-    <t>("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("admission"[Title/Abstract] OR "in-hospital"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract]) AND ("meta-analysis"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("on-admission"[Title/Abstract] OR "baseline"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("prognosis"[Title/Abstract] OR "predictive value"[Title/Abstract]) AND ("all-cause mortality"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("disease progression" OR "clinical outcomes" OR "severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("mortality" OR "hospitalization" OR "intensive care") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("complications" OR "respiratory failure" OR "organ dysfunction") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("viral load" OR "immune response" OR "inflammation") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("risk factors" OR "prognosis" OR "outcomes")</t>
-  </si>
-  <si>
-    <t>("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("progression"[Title/Abstract] OR "severity"[Title/Abstract] OR "outcomes"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("disease progression"[Title/Abstract] OR "disease severity"[Title/Abstract] OR "clinical outcomes"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("meta-analysis"[Title/Abstract] OR "systematic review"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("association"[Title/Abstract] OR "relationship"[Title/Abstract]) AND ("disease progression"[Title/Abstract] OR "severity"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("risk factor"[Title/Abstract] OR "predictor"[Title/Abstract]) AND ("progression"[Title/Abstract] OR "severity"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("prevalence" OR "incidence") AND ("risk factors" OR "predictors") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "psychological well-being") AND ("anxiety" OR "depression" OR "fear") AND ("pandemic" OR "outbreak") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "psychological well-being") AND ("prevalence" OR "incidence") AND ("anxiety" OR "depression" OR "fear") 
-("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("interventions" OR "strategies" OR "interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("prevention" OR "management" OR "treatment") AND ("strategies" OR "interventions")</t>
-  </si>
-  <si>
-    <t>("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("risk factors"[MeSH Terms] OR "risk factors"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("strategies"[Subheading] OR "strategies"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("psychological well-being"[MeSH Terms] OR "psychological well-being"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("psychological morbidity"[MeSH Terms] OR "psychological morbidity"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2" OR "COVID-19") AND ("prevalence" OR "incidence") AND ("homeless" OR "shelter") AND ("transmission" OR "spread") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("health outcomes" OR "morbidity" OR "mortality") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("control strategies" OR "prevention measures" OR "interventions") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("transmission dynamics" OR "outbreak investigation") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("vulnerable populations" OR "health disparities")</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("transmission"[MeSH Terms] OR "transmission"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health outcomes"[MeSH Terms] OR "health outcomes"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
-("non-pharmaceutical interventions"[MeSH Terms] OR "non-pharmaceutical interventions"[All Fields]) AND ("infection prevention and control"[MeSH Terms] OR "infection prevention and control"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("homeless shelters"[MeSH Terms] OR "homeless shelters"[All Fields]) AND ("outbreaks"[MeSH Terms] OR "outbreaks"[All Fields])
-("qualitative studies"[MeSH Terms] OR "qualitative studies"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields]) AND ("shelter staff"[MeSH Terms] OR "shelter staff"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "genetic variants") AND ("prognosis" OR "clinical outcomes" OR "severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "genetic variants") AND ("susceptibility" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("host genetic polymorphisms" OR "genetic markers") AND ("prognosis" OR "clinical outcomes" OR "severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("host genetic variants" OR "genetic determinants") AND ("susceptibility" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("genetic association studies" OR "genetic profiling") AND ("prognosis" OR "clinical outcomes" OR "severity")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prognosis"[MeSH Terms] OR "prognosis"[All Fields]) AND ("susceptibility"[MeSH Terms] OR "susceptibility"[All Fields]) AND ("genetic variation"[MeSH Terms] OR "genetic variation"[All Fields])
-("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("genetic association studies"[MeSH Terms] OR "genetic association studies"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
-("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("genetic association studies"[MeSH Terms] OR "genetic association studies"[All Fields]) AND ("COVID-19 susceptibility"[All Fields])
-("3p21.31 region"[MeSH Terms] OR "3p21.31 region"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
-("ABO locus"[MeSH Terms] OR "ABO locus"[All Fields]) AND ("COVID-19 prognosis"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("prevalence" OR "incidence") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health" OR "psychological well-being") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("psychological distress" OR "emotional well-being") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health" OR "psychological well-being") AND ("prevalence" OR "incidence") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health impact" OR "psychological impact") AND ("depression" OR "anxiety" OR "PTSD")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress disorders, post-traumatic"[MeSH Terms] OR "stress disorders, post-traumatic"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress disorders, post-traumatic"[MeSH Terms] OR "stress disorders, post-traumatic"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields]) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("post-traumatic stress disorders"[MeSH Terms] OR "post-traumatic stress disorders"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])</t>
-  </si>
-  <si>
-    <t>("betacoronaviruses" OR "beta-coronaviruses") AND ("human-to-human transmission" OR "interhuman transmission") 
-("MERS-CoV" OR "Middle East respiratory syndrome coronavirus") AND ("human transmission" OR "person-to-person transmission") 
-("SARS-CoV" OR "severe acute respiratory syndrome coronavirus") AND ("human transmission" OR "person-to-person transmission") 
-("SARS-CoV-2" OR "COVID-19" OR "novel coronavirus") AND ("human transmission" OR "person-to-person transmission") 
-("betacoronaviruses" OR "beta-coronaviruses") AND ("transmission dynamics" OR "epidemiology" OR "spread")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("clinical epidemiology" OR "clinical characteristics") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("outcomes" OR "prognosis" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("systematic review" OR "meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("clinical outcomes" OR "complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("rapid review" OR "meta-analysis")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("outcome assessment (health care)"[MeSH Terms] OR "outcome assessment (health care)"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("epidemiology"[Subheading] OR "epidemiology"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("fatal cases" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("patient outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("risk factors" OR "associations") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("mortality" OR "fatalities") AND ("patients")</t>
-  </si>
-  <si>
-    <t>("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("intensive care units" [Title/Abstract]) AND ("geographical distribution" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("mortality rate" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("intensive care unit admission" [Title/Abstract]) AND ("association" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("odds ratio of death" [Title/Abstract]) AND ("meta-analysis" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("prevalence" OR "incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("risk factors" OR "associations") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("diagnosis" OR "screening") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("treatment" OR "management") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("outcomes" OR "complications")</t>
-  </si>
-  <si>
-    <t>("COVID-19" [Title/Abstract]) AND ("venous thromboembolism" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("COVID-19-related mortality" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("adjusted hazard ratio" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("continuation of therapy" [Title/Abstract]) AND ("hospitalization" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("adjusted odds ratio" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("anxiety" OR "depression") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("stress" OR "psychological distress") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") AND ("pandemic") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") AND ("impact" OR "effects")</t>
-  </si>
-  <si>
-    <t>("COVID-19" [Title/Abstract]) AND ("mental health disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("university students" [Title/Abstract]) AND ("college students" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("depressive symptoms" [Title/Abstract]) AND ("anxiety symptoms" [Title/Abstract]) AND ("sleep disturbances" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("mental health" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("mental illness" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("university students" [Title/Abstract]) AND ("college students" [Title/Abstract]) AND ("mental health screening" [Title/Abstract]) AND ("intervention" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("prevalence" OR "incidence") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("mental health" OR "psychological symptoms") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("psychiatric comorbidities") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("mental health outcomes") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("prevalence" OR "incidence") AND ("psychological impact")</t>
-  </si>
-  <si>
-    <t>("COVID-19" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("psychiatric disorders" [Title/Abstract]) AND ("mental health" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("mental health disorders" [Title/Abstract]) AND ("depressive disorder" [Title/Abstract]) AND ("anxiety disorders" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("mental disorders" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("psychological disorders" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disturbances" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutritional screening tools" OR "nutritional assessment tools") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition screening" OR "malnutrition screening") AND ("tools" OR "instruments") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition assessment" OR "malnutrition assessment") AND ("tools" OR "instruments") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutritional screening tools" OR "nutritional assessment tools") AND ("validation" OR "reliability") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition screening" OR "malnutrition screening") AND ("tools" OR "instruments") AND ("sensitivity" OR "specificity")</t>
-  </si>
-  <si>
-    <t>("COVID-19" [Title/Abstract]) AND ("nutritional screening" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("older patients" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("nutritional assessment" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("measurement properties" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("malnutrition" [Title/Abstract]) AND ("nutritional risk screening" [Title/Abstract]) AND ("older individuals" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("nutritional risk assessment" [Title/Abstract]) AND ("nutrition screening tools" [Title/Abstract]) AND ("older patients" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("nutritional screening tools" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("narrative synthesis" [Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("intervention" OR "intervention study") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("randomized controlled trial" OR "RCT") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("systematic review" OR "meta-analysis") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("effectiveness" OR "efficacy")</t>
-  </si>
-  <si>
-    <t>("older adults" [Title/Abstract]) AND ("home-based exercise" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("healthy older adults" [Title/Abstract]) AND ("home-based exercise programmes" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("home-based exercise" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("older adults" [Title/Abstract]) AND ("home-based training" [Title/Abstract]) AND ("muscle strength" [Title/Abstract]) AND ("balance" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("home-based exercise programmes" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("meta-analysis" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("gender differences" OR "sex differences") AND ("susceptibility" OR "vulnerability") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender" OR "sex") AND ("outcomes" OR "clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender disparities" OR "sex disparities") AND ("mortality" OR "hospitalization" OR "severe illness") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender" OR "sex") AND ("prognosis" OR "survival") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender differences" OR "sex differences") AND ("COVID-19 severity" OR "COVID-19 outcomes")</t>
-  </si>
-  <si>
-    <t>("COVID-19" [Title/Abstract]) AND ("gender susceptibility" [Title/Abstract]) AND ("outcomes" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("SARS-CoV-2" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("disease characteristics" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("severe disease" [Title/Abstract]) AND ("intensive care unit" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("men vs women" [Title/Abstract]) AND ("mortality rates" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("SARS-CoV-2" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("intensive care unit admission" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("pandemic") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("options" OR "methods") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("pandemic") AND ("efficacy" OR "effectiveness") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("safety" OR "health risk") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("guidelines" OR "recommendations")</t>
-  </si>
-  <si>
-    <t>("N95 filtering facepiece respirators" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("N95-FFRs" [Title/Abstract]) AND ("reprocessing" [Title/Abstract]) AND ("decontamination methods" [Title/Abstract]) AND ("original research" [Publication Type])
-("N95 respirators" [Title/Abstract]) AND ("reprocessing" [Title/Abstract]) AND ("decontamination methods" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("N95-FFRs" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("Ultraviolet irradiation" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("N95-FFRs" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("Microwave generated steam" [Title/Abstract]) AND ("Hydrogen peroxide vapor" [Title/Abstract]) AND ("systematic review" [Publication Type])</t>
-  </si>
-  <si>
-    <t>("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("immunity" OR "immune response") AND ("infection" OR "transmission") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("immunity" OR "immune system") AND ("viral clearance" OR "viral load") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("maternal antibodies" OR "placental transfer") AND ("infection risk" OR "protection") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("adaptive immunity" OR "cellular immunity") AND ("clinical outcomes" OR "severity") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("innate immunity" OR "antiviral response") AND ("immunopathology" OR "complications")</t>
-  </si>
-  <si>
-    <t>("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("Immunity" [MeSH Terms] OR "immunity" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("Immunological Factors" [MeSH Terms] OR "Immunological Factors" [All Fields])
-("Maternal-Fetal Exchange" [MeSH Terms] OR "Maternal-Fetal Exchange" [All Fields]) AND ("Immune System" [MeSH Terms] OR "Immune System" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("Immune Tolerance" [MeSH Terms] OR "Immune Tolerance" [All Fields]) AND ("Pregnancy Complications, Infectious" [MeSH Terms] OR "Pregnancy Complications, Infectious" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("Adaptive Immunity" [MeSH Terms] OR "Adaptive Immunity" [All Fields]) AND ("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("Innate Immunity" [MeSH Terms] OR "Innate Immunity" [All Fields]) AND ("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])</t>
-  </si>
-  <si>
-    <t>("cytokine storm" OR "cytokine release syndrome") AND ("biomarkers" OR "serum markers") AND ("severe COVID-19" OR "fatal COVID-19") 
-("inflammatory markers" OR "cytokine markers") AND ("severe COVID-19" OR "fatal COVID-19") AND ("prognosis" OR "outcomes") 
-("cytokine storm" OR "cytokine release syndrome") AND ("severe COVID-19" OR "fatal COVID-19") AND ("biomarker panel" OR "signature") 
-("interleukin-6" OR "IL-6") AND ("severe COVID-19" OR "fatal COVID-19") AND ("prognostic value" OR "predictive value") 
-("TNF-alpha" OR "tumor necrosis factor-alpha") AND ("cytokine storm" OR "severe COVID-19" OR "fatal COVID-19")</t>
-  </si>
-  <si>
-    <t>("Cytokine Release Syndrome" [MeSH Terms] OR "Cytokine Release Syndrome" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Severity of Illness Index" [MeSH Terms] OR "Severity of Illness Index" [All Fields])
-("Interleukin-6" [MeSH Terms] OR "Interleukin-6" [All Fields]) AND ("Ferritins" [MeSH Terms] OR "Ferritins" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Prognosis" [MeSH Terms] OR "Prognosis" [All Fields])
-("Lymphopenia" [MeSH Terms] OR "Lymphopenia" [All Fields]) AND ("Thrombocytopenia" [MeSH Terms] OR "Thrombocytopenia" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields])
-("D-Dimer" [MeSH Terms] OR "D-Dimer" [All Fields]) AND ("Aspartate Aminotransferases" [MeSH Terms] OR "Aspartate Aminotransferases" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Systemic Inflammatory Response Syndrome" [MeSH Terms] OR "Systemic Inflammatory Response Syndrome" [All Fields])
-("C-Reactive Protein" [MeSH Terms] OR "C-Reactive Protein" [All Fields]) AND ("Procalcitonin" [MeSH Terms] OR "Procalcitonin" [All Fields]) AND ("Lactate Dehydrogenase" [MeSH Terms] OR "Lactate Dehydrogenase" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields])</t>
-  </si>
-  <si>
-    <t>("gastrointestinal symptoms" OR "digestive symptoms") AND ("fecal nucleic acid testing" OR "stool testing") AND ("children" OR "pediatric patients") AND ("2019 coronavirus disease" OR "COVID-19") 
-("gastrointestinal manifestations" OR "digestive symptoms") AND ("fecal viral shedding" OR "viral RNA in stool") AND ("pediatric COVID-19" OR "COVID-19 in children") 
-("fecal-oral transmission" OR "enteric transmission") AND ("gastrointestinal symptoms" OR "digestive symptoms") AND ("2019 coronavirus disease" OR "COVID-19") AND ("pediatric patients" OR "children") 
-("gastrointestinal manifestations" OR "digestive symptoms") AND ("fecal nucleic acid testing" OR "stool testing") AND ("SARS-CoV-2" OR "novel coronavirus") AND ("children" OR "pediatric patients") 
-("gastrointestinal symptoms" OR "digestive symptoms") AND ("stool viral load" OR "fecal viral shedding") AND ("pediatric COVID-19" OR "COVID-19 in children")</t>
-  </si>
-  <si>
-    <t>("Gastrointestinal Diseases" [MeSH Terms] OR "Gastrointestinal Diseases" [All Fields]) AND ("Feces" [MeSH Terms] OR "Feces" [All Fields]) AND ("Polymerase Chain Reaction" [MeSH Terms] OR "Polymerase Chain Reaction" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Child" [MeSH Terms] OR "Child" [All Fields])
-("Vomiting" [MeSH Terms] OR "Vomiting" [All Fields]) AND ("Diarrhea" [MeSH Terms] OR "Diarrhea" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Epidemiology" [MeSH Terms] OR "Epidemiology" [All Fields])
-("Feces" [MeSH Terms] OR "Feces" [All Fields]) AND ("Nucleic Acids" [MeSH Terms] OR "Nucleic Acids" [All Fields]) AND ("Reverse Transcriptase Polymerase Chain Reaction" [MeSH Terms] OR "Reverse Transcriptase Polymerase Chain Reaction" [All Fields]) AND ("Child" [MeSH Terms] OR "Child" [All Fields])
-("Epidemiologic Studies" [MeSH Terms] OR "Epidemiologic Studies" [All Fields]) AND ("China" [MeSH Terms] OR "China" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Prevalence" [MeSH Terms] OR "Prevalence" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Pediatrics" [MeSH Terms] OR "Pediatrics" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields]) AND ("Gastrointestinal Diseases" [MeSH Terms] OR "Gastrointestinal Diseases" [All Fields])</t>
-  </si>
-  <si>
-    <t>("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("acute respiratory distress syndrome" OR "ARDS") AND ("outcomes" OR "mortality" OR "survival") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("adult respiratory distress syndrome" OR "ARDS") AND ("clinical outcomes" OR "treatment outcomes") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("ARDS severity" OR "severity of respiratory failure") AND ("mortality" OR "survival" OR "prognosis") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("acute respiratory distress syndrome" OR "ARDS") AND ("ventilator-associated complications" OR "ventilator-associated pneumonia") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("adult respiratory distress syndrome" OR "ARDS") AND ("long-term outcomes" OR "functional outcomes")</t>
-  </si>
-  <si>
-    <t>("Respiratory Distress Syndrome, Adult" [MeSH Terms] OR "Respiratory Distress Syndrome, Adult" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Respiratory Distress Syndrome, Adult" [MeSH Terms] OR "Respiratory Distress Syndrome, Adult" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Intensive Care Units" [MeSH Terms] OR "Intensive Care Units" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Regression Analysis" [MeSH Terms] OR "Meta-Regression Analysis" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Intensive Care Units" [MeSH Terms] OR "Intensive Care Units" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])</t>
-  </si>
-  <si>
-    <t>("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("methylprednisolone" [MeSH Terms] OR "methylprednisolone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("prednisone" [MeSH Terms] OR "prednisone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("coronavirus" [MeSH Terms] OR "coronavirus" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("Randomized Controlled Trials as Topic" [MeSH Terms] OR "Randomized Controlled Trials as Topic" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Oxygen Inhalation Therapy" [MeSH Terms] OR "Oxygen Inhalation Therapy" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Oxygen Inhalation Therapy" [MeSH Terms] OR "Oxygen Inhalation Therapy" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])</t>
-  </si>
-  <si>
-    <t>("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) 
-("community containment" [MeSH Terms] OR "community containment" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) 
-("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("community containment" [MeSH Terms] OR "community containment" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Incidence" [MeSH Terms] OR "Incidence" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Resource Allocation" [MeSH Terms] OR "Resource Allocation" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Transmission, Infectious" [MeSH Terms] OR "Transmission, Infectious" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])</t>
-  </si>
-  <si>
-    <t>("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("prevalence" [MeSH Terms] OR "prevalence" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("morbidity" [MeSH Terms] OR "morbidity" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("public health" [MeSH Terms] OR "public health" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Incidence" [MeSH Terms] OR "Incidence" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Epidemiological Monitoring" [MeSH Terms] OR "Epidemiological Monitoring" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Disease Outbreaks" [MeSH Terms] OR "Disease Outbreaks" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Public Health" [MeSH Terms] OR "Public Health" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("tele-eyecare" OR "tele-ophthalmology" OR "remote ophthalmic care") 
-("coronavirus" OR "pandemic") AND ("telemedicine" OR "teleophthalmology" OR "tele-eye care") AND ("impact" OR "effect") 
-("COVID-19" OR "SARS-CoV-2") AND ("telehealth" OR "virtual care") AND ("ophthalmology" OR "eye care") AND ("practice" OR "implementation") 
-("tele-ophthalmology" OR "tele-eye care") AND ("COVID-19" OR "coronavirus") AND ("challenges" OR "barriers") AND ("adoption" OR "uptake") 
-("tele-eyecare" OR "teleophthalmology") AND ("COVID-19" OR "pandemic") AND ("outcomes" OR "efficacy") AND ("patient satisfaction" OR "quality of care")</t>
-  </si>
-  <si>
-    <t>("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("role" OR "responsibility") 
-("palliative care" OR "end-of-life care") AND ("primary care" OR "community nursing") AND ("epidemics" OR "pandemics") AND ("delivery" OR "provision") 
-("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("response" OR "preparedness") 
-("palliative care" OR "end-of-life care") AND ("primary care" OR "community nursing") AND ("epidemics" OR "pandemics") AND ("challenges" OR "barriers") 
-("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("best practices" OR "innovations")</t>
-  </si>
-  <si>
-    <t>("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("end of life care"[MeSH Terms] OR ("end"[All Fields] AND "life"[All Fields] AND "care"[All Fields])) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("rapid systematic review"[MeSH Terms] OR ("rapid"[All Fields] AND "systematic"[All Fields] AND "review"[All Fields])) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("observational study"[MeSH Terms] OR ("observational"[All Fields] AND "study"[All Fields])) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("research"[MeSH Terms] OR "research"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("hospices"[MeSH Terms] OR "hospices"[All Fields]) AND ("specialist palliative care"[MeSH Terms] OR ("specialist"[All Fields] AND "palliative"[All Fields] AND "care"[All Fields]))</t>
-  </si>
-  <si>
-    <t>("disasters" OR "pandemics") AND ("cardiometabolic outcomes" OR "cardiovascular outcomes") AND ("life-course" OR "lifespan") 
-("COVID-19" OR "coronavirus pandemic") AND ("cardiometabolic outcomes" OR "cardiovascular outcomes") AND ("life-course" OR "lifespan") 
-("disasters" OR "pandemics") AND ("cardiometabolic diseases" OR "cardiovascular diseases") AND ("long-term effects" OR "chronic conditions") 
-("COVID-19" OR "coronavirus pandemic") AND ("cardiometabolic health" OR "cardiovascular health") AND ("life-course" OR "lifespan") 
-("disasters" OR "pandemics") AND ("metabolic syndrome" OR "diabetes" OR "hypertension") AND ("life-course" OR "lifespan")</t>
-  </si>
-  <si>
-    <t>"disasters"[MeSH Terms] AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields]))
-("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("pregnancy"[MeSH Terms] OR "pregnancy"[All Fields] OR "childhood"[MeSH Terms] OR "childhood"[All Fields])
-("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("adulthood"[MeSH Terms] OR "adulthood"[All Fields])
-("biological mechanisms"[MeSH Terms] OR ("biological"[All Fields] AND "mechanisms"[All Fields]) OR "biological mechanisms"[All Fields]) AND ("high-risk"[All Fields] AND "subgroups"[All Fields]) AND ("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields]))
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("prevention and control"[Subheading] OR ("prevention"[All Fields] AND "control"[All Fields]))</t>
   </si>
   <si>
     <t>Background
@@ -4855,321 +3100,6 @@
 This was the first meta-analysis exploring the prevalence and impact of cardiac injury on COVID-19. Cardiac injury is common in hospitalized patients and advanced age and severe COVID-19 patients prone to experience more risk of cardiac injury. Furthermore, cardiac injury is associated with increased risk of all-cause mortality.</t>
   </si>
   <si>
-    <t>("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("prevalence" OR "incidence") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("impact" OR "outcomes") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("prognosis" OR "mortality") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("complications" OR "adverse events") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("risk factors" OR "predictors")</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("children" OR "adolescents") 
-("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("pediatric" OR "youth") 
-("COVID-19" OR "coronavirus") AND ("mental health outcomes" OR "psychosocial impact") AND ("children" OR "adolescents") 
-("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("school-age" OR "teenagers") 
-("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("childhood" OR "youth")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-("mixed methods"[MeSH Terms] OR ("mixed"[All Fields] AND "methods"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("methodological quality"[MeSH Terms] OR ("methodological"[All Fields] AND "quality"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality" OR "death") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality risk" OR "mortality rate") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("outcome" OR "survival") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("COVID-19 impact" OR "COVID-19 association") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality increase" OR "mortality risk")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("risk"[MeSH Terms] OR "risk"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))</t>
-  </si>
-  <si>
-    <t>("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality" OR "death") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality risk" OR "mortality rate") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("outcome" OR "survival") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality association" OR "mortality effect") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality impact" OR "mortality risk")</t>
-  </si>
-  <si>
-    <t>("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("odds ratio"[MeSH Terms] OR ("odds"[All Fields] AND "ratio"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields]) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("ventilatory support"[MeSH Terms] OR ("ventilatory"[All Fields] AND "support"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])</t>
-  </si>
-  <si>
-    <t>("hip fractures" OR "femoral fractures") AND ("COVID-19" OR "coronavirus") AND ("perioperative mortality" OR "perioperative morbidity") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative outcomes" OR "surgical outcomes") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("COVID positive" OR "COVID-negative") AND ("perioperative mortality" OR "perioperative morbidity") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative complications" OR "surgical complications") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative risk" OR "surgical risk")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative complications"[MeSH Terms] OR "perioperative complications"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("postoperative complications"[MeSH Terms] OR "postoperative complications"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative care"[MeSH Terms] OR "perioperative care"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative outcomes"[MeSH Terms] OR "perioperative outcomes"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("nutrition" OR "diet") AND ("behavior change" OR "eating behavior") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("psychological impact" OR "mental health") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("nutrition" OR "diet") AND ("changes" OR "impact") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("emotional eating" OR "stress eating") AND ("pandemic" OR "lockdown")</t>
-  </si>
-  <si>
-    <t>("Eating behavior changes during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review"[Publication Type])
-("Eating behavior modifications"[Title/Abstract]) AND ("coronavirus disease 2019"[MeSH Terms] OR "pandemic"[MeSH Terms])
-("Longitudinal studies"[MeSH Terms]) AND ("changes in eating behavior"[Title/Abstract]) AND ("COVID-19 pandemic"[Title/Abstract])
-("Impact of COVID-19 pandemic on eating behavior"[Title/Abstract]) AND ("systematic review"[Publication Type])
-("Restrictive measures"[Title/Abstract]) AND ("disrupted lifestyles"[Title/Abstract]) AND ("eating behavior changes"[Title/Abstract]) AND ("COVID-19 pandemic"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("pregnancy" OR "pregnant women") AND ("vertical transmission" OR "perinatal transmission") AND ("mode of delivery" OR "cesarean section" OR "vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("pregnant women" OR "maternal") AND ("neonate" OR "infant") AND ("vertical transmission" OR "perinatal transmission") AND ("cesarean section" OR "vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("pregnancy complications" OR "maternal-fetal transmission") AND ("delivery mode" OR "mode of delivery") AND ("cesarean section" OR "vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("vertical transmission" OR "perinatal transmission") AND ("mode of delivery" OR "cesarean section" OR "vaginal delivery") AND ("neonatal outcomes" OR "infant outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("pregnant women" OR "maternal") AND ("neonate" OR "infant") AND ("delivery mode" OR "mode of delivery") AND ("vertical transmission" OR "perinatal transmission")</t>
-  </si>
-  <si>
-    <t>("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("delivery, Obstetric"[MeSH Terms]) AND ("cesarean section"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnant women"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vaginal birth"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("delivery, Obstetric"[MeSH Terms]) AND ("cesarean section"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnant women"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("cesarean section"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vaginal birth"[MeSH Terms])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("ocular manifestations" OR "eye symptoms" OR "conjunctivitis")
-("COVID-19" OR "SARS-CoV-2") AND ("ocular involvement" OR "eye complications" OR "ocular manifestations")
-("COVID-19" OR "SARS-CoV-2") AND ("ocular symptoms" OR "conjunctival involvement" OR "eye signs")
-("COVID-19" OR "SARS-CoV-2") AND ("ophthalmologic findings" OR "eye abnormalities" OR "ocular manifestations")
-("COVID-19" OR "SARS-CoV-2") AND ("ocular transmission" OR "conjunctival shedding" OR "viral presence in eyes")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("prevalence"[MeSH Terms])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("time association"[MeSH Terms]) AND ("systemic disease"[MeSH Terms])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("severity"[MeSH Terms]) AND ("association"[MeSH Terms])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("prevalence" OR "incidence" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("healthcare access" OR "health disparities" OR "barriers to care") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("mental health" OR "psychosocial impact" OR "stress") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("public health response" OR "policies" OR "interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("vaccination" OR "immunization" OR "vaccine hesitancy")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("rapid systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("risk of infection"[MeSH Terms] OR "transmission"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("lockdown measures"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("incidence risk"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("psychological impact" OR "mental health") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("anxiety" OR "depression" OR "stress") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("psychosocial well-being" OR "emotional well-being") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("mental health interventions" OR "supportive services" OR "counseling") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("social isolation" OR "loneliness" OR "peer relationships")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("psychological state"[MeSH Terms] OR "mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("impact"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("lockdown"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("risk factor"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("management"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("mortality" OR "survival") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("resuscitation" OR "CPR") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("response time" OR "emergency medical services") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("pre-hospital care" OR "ambulance") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("public access defibrillation" OR "PAD")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("direct effects"[MeSH Terms] OR "indirect effects"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("return of spontaneous circulation"[MeSH Terms] OR "bystander-initiated cardiopulmonary resuscitation"[MeSH Terms] OR "survival to hospital discharge"[MeSH Terms] OR "survival with favourable neurological outcome"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("bystander-witnessed"[MeSH Terms] OR "bystander-initiated cardiopulmonary resuscitation"[MeSH Terms] OR "resuscitation attempted by emergency medical services"[MeSH Terms] OR "ambulance response times"[MeSH Terms] OR "patients presenting with non-shockable rhythms"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("SARS-CoV-2 positive"[MeSH Terms] OR "symptoms"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("treatment" OR "therapy") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("efficacy" OR "effectiveness") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("safety" OR "adverse events") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("randomized controlled trial" OR "RCT") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("clinical outcomes" OR "mortality" OR "hospitalization") AND ("nonsevere" OR "mild" OR "moderate")</t>
-  </si>
-  <si>
-    <t>("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("efficacy"[MeSH Terms] OR "efficacy"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("evidence strength"[MeSH Terms] OR "evidence strength"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("clinical evidence"[MeSH Terms] OR "clinical evidence"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("clinical trials"[MeSH Terms] OR "clinical trials"[All Fields]) AND ("reliable"[MeSH Terms] OR "reliable"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("microbiome" OR "microbial") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("gut microbiome" OR "intestinal microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory microbiome" OR "lung microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral microbiome" OR "saliva microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("skin microbiome" OR "cutaneous microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host")</t>
-  </si>
-  <si>
-    <t>("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("association"[MeSH Terms] OR "association"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("microbiome dysbiosis"[MeSH Terms] OR "microbiome dysbiosis"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("opportunistic pathogens"[MeSH Terms] OR "opportunistic pathogens"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("fecal microbiome"[MeSH Terms] OR "fecal microbiome"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("respiratory tract microbiome"[MeSH Terms] OR "respiratory tract microbiome"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("public health measures" OR "interventions") AND ("mitigate" OR "prevent" OR "control" OR "reduce" OR "curb") AND ("spread" OR "transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic response" OR "public health strategies") AND ("preventive measures" OR "interventions") AND ("spread" OR "transmission" OR "containment") 
-("COVID-19" OR "SARS-CoV-2") AND ("public health guidelines" OR "prevention measures") AND ("reducing transmission" OR "controlling the spread" OR "curbing the pandemic") 
-("COVID-19" OR "SARS-CoV-2") AND ("community interventions" OR "population-based measures") AND ("preventive actions" OR "control strategies") AND ("virus transmission" OR "spread prevention") 
-("COVID-19" OR "SARS-CoV-2") AND ("public health response" OR "pandemic control") AND ("preventive measures" OR "interventions") AND ("limiting transmission" OR "reducing spread" OR "containment strategies")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("travel restrictions"[MeSH Terms] OR "travel restrictions"[All Fields])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("quarantine"[MeSH Terms] OR "quarantine"[All Fields])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("social distancing"[MeSH Terms] OR "social distancing"[All Fields])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("mask wearing"[MeSH Terms] OR "mask wearing"[All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("weather" OR "climate" OR "meteorological factors") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather conditions" OR "seasonality" OR "temperature" OR "humidity") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather impact" OR "climate influence" OR "meteorological variables") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather patterns" OR "environmental factors" OR "seasonal variation") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather-related effects" OR "climate-related impact" OR "meteorological conditions") AND ("mortality" OR "death rate" OR "fatal outcomes")</t>
-  </si>
-  <si>
-    <t>(("effect of weather"[Title/Abstract]) OR ("impact of temperature and humidity"[Title/Abstract])) AND "COVID-19 mortality"[Title/Abstract]
-(("weather conditions"[Title/Abstract] OR temperature[Title/Abstract] OR humidity[Title/Abstract]) AND "SARS-CoV-2 transmission"[Title/Abstract]) AND "seasonal influenza"[Title/Abstract]
-(("observational epidemiological studies"[Title/Abstract] OR "observational study"[Title/Abstract] OR "observational research"[Title/Abstract]) AND "effect of weather"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract]
-("temperature and humidity"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "systematic review"[Title/Abstract]
-(("temperature"[Title/Abstract] OR "humidity"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "observational study"[Title/Abstract]) AND (("weather conditions"[Title/Abstract]) OR ("virus transmission"[Title/Abstract]))</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("antibiotic prescribing" OR "antibiotic use" OR "antibiotic treatment") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotics" OR "antimicrobials") AND ("prescription patterns" OR "prescribing practices" OR "utilization") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotic therapy" OR "antibiotic administration" OR "antibiotic regimens") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotic treatment outcomes" OR "antibiotic effectiveness") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotic resistance" OR "resistant bacteria") AND ("antibiotic prescribing" OR "antibiotic use") AND ("patients" OR "individuals" OR "population")</t>
-  </si>
-  <si>
-    <t>(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "patients with COVID-19"[Title/Abstract]) AND ("rapid review"[Title/Abstract] OR "meta-analysis"[Title/Abstract])
-(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "SARS-CoV-2 infection"[Title/Abstract]) AND ("prevalence"[Title/Abstract] OR "proportion"[Title/Abstract])
-(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("age groups"[Title/Abstract] OR "severity of illness"[Title/Abstract])
-(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("geographical region"[Title/Abstract] OR "country"[Title/Abstract])
-(("bacterial co-infection"[Title/Abstract]) OR ("co-occurring bacterial infection"[Title/Abstract])) AND ("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("severe acute respiratory distress syndrome" OR "ARDS") AND ("extracorporeal membrane oxygenation" OR "ECMO") AND ("venovenous" OR "VV-ECMO") 
-("COVID-19" OR "SARS-CoV-2") AND ("severe respiratory failure" OR "respiratory distress") AND ("venovenous extracorporeal membrane oxygenation" OR "VV-ECMO") AND ("clinical outcomes" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("severe ARDS" OR "acute respiratory failure") AND ("extracorporeal support" OR "ECMO therapy") AND ("venovenous" OR "VV-ECMO") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory support" OR "lung support") AND ("extracorporeal life support" OR "ECLS") AND ("venovenous" OR "VV-ECMO") 
-("COVID-19" OR "SARS-CoV-2") AND ("severe lung injury" OR "respiratory dysfunction") AND ("extracorporeal oxygenation" OR "ECMO therapy") AND ("venovenous" OR "VV-ECMO")</t>
-  </si>
-  <si>
-    <t>(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("severe acute respiratory distress syndrome"[Title/Abstract] OR "ARDS"[Title/Abstract]) AND ("systematic review"[Title/Abstract] OR "meta-analysis"[Title/Abstract])
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract]
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "ECMO duration"[Title/Abstract]
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "weaning rate from ECMO"[Title/Abstract]
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "ECMO complications"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("comparative study" OR "before-after study")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("prevalence" OR "survey")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("longitudinal study" OR "follow-up study")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("behavior change" OR "behavioral response")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("self-reported" OR "questionnaire")</t>
-  </si>
-  <si>
-    <t>(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "COVID-19 pandemic lockdown"[Title/Abstract]
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND ("lockdown"[Title/Abstract] OR "stay-at-home"[Title/Abstract])
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract]) AND ("before and during lockdown"[Title/Abstract] OR "pre and post-lockdown"[Title/Abstract])
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "changes during COVID-19 lockdown"[Title/Abstract]
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "impact of COVID-19 lockdown on activity levels"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("impact" OR "effects") AND ("health outcomes" OR "access to healthcare") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("mental health" OR "psychological well-being") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("social isolation" OR "loneliness") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("accessibility" OR "barriers") AND ("remote work" OR "telecommuting") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("rehabilitation" OR "therapy") AND ("service delivery" OR "access to services")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
-"impact of COVID-19 pandemic on people with physical disabilities"[Title/Abstract]
-("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("people with physical disabilities"[Title/Abstract] OR "disabled individuals"[Title/Abstract])
-("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("impact on daily functioning"[Title/Abstract] OR "access to healthcare"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
-("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("social impact"[Title/Abstract] OR "lifestyle changes"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT" OR "computed tomography") AND ("chest" OR "lung") AND ("features" OR "findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("pediatric" OR "child" OR "children") AND ("computed tomography" OR "CT scan") AND ("pulmonary" OR "chest") AND ("radiological findings" OR "imaging characteristics") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT scan" OR "chest CT") AND ("radiological features" OR "pulmonary findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("pediatric" OR "child" OR "children") AND ("chest CT" OR "computed tomography") AND ("imaging manifestations" OR "radiographic features") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT imaging" OR "chest CT scan") AND ("pulmonary involvement" OR "radiological presentation")</t>
-  </si>
-  <si>
-    <t>("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest computed tomography"[Title/Abstract] OR "CT imaging"[Title/Abstract]) AND "children"[Title/Abstract]
-"chest CT imaging features of children with COVID-19"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest CT findings"[Title/Abstract] OR "lung CT results"[Title/Abstract]) AND "children"[Title/Abstract]
-"meta-analysis of chest CT imaging features of children with COVID-19"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest CT abnormalities"[Title/Abstract] OR "lung lesions"[Title/Abstract]) AND "pediatric patients"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("venous thromboembolism" OR "VTE") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("pulmonary embolism" OR "PE") AND ("venous thromboembolism" OR "VTE") 
-("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("deep vein thrombosis" OR "DVT") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("pulmonary embolism" OR "PE") AND ("deep vein thrombosis" OR "DVT") 
-("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("venous thrombosis" OR "thromboembolism")</t>
-  </si>
-  <si>
-    <t>("pulmonary embolism"[Title/Abstract] OR "PE"[Title/Abstract]) AND ("venous thromboembolism"[Title/Abstract] OR "VTE"[Title/Abstract]) AND "COVID-19"[Title/Abstract]
-"systematic review and meta-analysis of pulmonary embolism and venous thromboembolism in COVID-19"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("incidence of pulmonary embolism"[Title/Abstract] OR "deep vein thrombosis"[Title/Abstract]) AND "systematic review"[Title/Abstract]
-"diagnostic accuracy of D-dimer tests for pulmonary embolism in COVID-19: a systematic review and meta-analysis"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("pulmonary embolism incidence"[Title/Abstract] OR "DVT incidence"[Title/Abstract]) AND "meta-analysis"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("fear of COVID-19" OR "COVID-19 fear") AND ("diagnostic test accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value" OR "accuracy") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("rapid diagnostic test" OR "point-of-care test") AND ("accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("scale" OR "measurement tool") AND ("diagnostic accuracy" OR "test performance" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("rapid test" OR "POCT" OR "point-of-care test") AND ("evaluation" OR "assessment" OR "accuracy" OR "performance") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("screening tool" OR "questionnaire") AND ("diagnostic test" OR "test accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value")</t>
-  </si>
-  <si>
-    <t>("fear of COVID-19 scales"[Title/Abstract] OR "COVID-19-related fear scales"[Title/Abstract]) AND "rapid diagnostic test accuracy review"[Title/Abstract]
-"systematic review of fear of COVID-19 scales: diagnostic test accuracy and validation studies"[Title/Abstract]
-("COVID-19 fear scale"[Title/Abstract] OR "fear of COVID-19 instrument"[Title/Abstract]) AND "systematic review and meta-analysis"[Title/Abstract]
-"validation and diagnostic accuracy of fear of COVID-19 scales: a rapid review"[Title/Abstract]
-("COVID-19-related fear"[Title/Abstract] OR "fear of COVID-19 measurement"[Title/Abstract]) AND "systematic review of diagnostic test accuracy"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("SARS-CoV-2" OR "COVID-19") AND ("children" OR "pediatric" OR "paediatric") 
-("MIS-C" OR "multisystem inflammatory syndrome in children") AND ("SARS-CoV-2" OR "COVID-19") AND ("pediatric" OR "paediatric") AND ("clinical features" OR "presentation" OR "symptoms") 
-("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("COVID-19" OR "SARS-CoV-2") AND ("diagnosis" OR "management" OR "treatment") AND ("pediatric" OR "paediatric") 
-("MIS-C" OR "multisystem inflammatory syndrome in children") AND ("SARS-CoV-2" OR "COVID-19") AND ("cardiac involvement" OR "myocardial dysfunction" OR "heart failure") AND ("pediatric" OR "paediatric") 
-("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("SARS-CoV-2" OR "COVID-19") AND ("complications" OR "outcomes" OR "prognosis") AND ("pediatric" OR "paediatric")</t>
-  </si>
-  <si>
-    <t>("multisystem inflammatory syndrome in children"[Title/Abstract] OR "MIS-C"[Title/Abstract]) AND "systematic review and meta-analysis"[Title/Abstract]
-"SISCoV study: systematic review and meta-analysis of multisystem inflammatory syndrome in children with SARS-CoV-2 infection"[Title/Abstract]
-("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children associated with COVID-19"[Title/Abstract]) AND "systematic review of demographic profile, clinical characteristics, and prognosis"[Title/Abstract]
-"systematic review and meta-analysis of multisystem inflammatory syndrome in children with COVID-19"[Title/Abstract]
-("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children caused by SARS-CoV-2"[Title/Abstract]) AND "systematic review on clinical features and management"[Title/Abstract]</t>
-  </si>
-  <si>
     <t>[You%Li%you.li2@ed.ac.uk%1,  Xin%Wang%xin.wang-2@ed.ac.uk%2,  Xin%Wang%xin.wang-2@ed.ac.uk%0,  Harish%Nair%NULL%2,  Harish%Nair%NULL%0]</t>
   </si>
   <si>
@@ -7393,8 +5323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7439,27 +5368,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1E75AF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1C1D1E"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7533,7 +5441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7556,19 +5464,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -7576,6 +5475,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7990,15 +5892,15 @@
   <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="9.109375" collapsed="true"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8039,23 +5941,23 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="12">
+        <v>44075</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>335</v>
       </c>
       <c r="G2" s="2">
@@ -8065,38 +5967,38 @@
         <v>529</v>
       </c>
       <c r="I2" t="s">
-        <v>951</v>
+        <v>630</v>
       </c>
       <c r="J2" t="s">
         <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>952</v>
+        <v>631</v>
       </c>
       <c r="L2" t="s">
         <v>617</v>
       </c>
       <c r="M2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12">
+        <v>43942</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>336</v>
       </c>
       <c r="G3" s="2">
@@ -8109,35 +6011,35 @@
         <v>442</v>
       </c>
       <c r="J3" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K3" t="s">
-        <v>955</v>
+        <v>634</v>
       </c>
       <c r="L3" t="s">
         <v>617</v>
       </c>
       <c r="M3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12">
+        <v>44042</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>337</v>
       </c>
       <c r="G4" s="2">
@@ -8147,38 +6049,38 @@
         <v>530</v>
       </c>
       <c r="I4" t="s">
-        <v>957</v>
+        <v>636</v>
       </c>
       <c r="J4" t="s">
         <v>460</v>
       </c>
       <c r="K4" t="s">
-        <v>958</v>
+        <v>637</v>
       </c>
       <c r="L4" t="s">
         <v>617</v>
       </c>
       <c r="M4" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="12">
+        <v>44105</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>338</v>
       </c>
       <c r="G5" s="2">
@@ -8188,38 +6090,38 @@
         <v>531</v>
       </c>
       <c r="I5" t="s">
-        <v>960</v>
+        <v>639</v>
       </c>
       <c r="J5" t="s">
         <v>461</v>
       </c>
       <c r="K5" t="s">
-        <v>961</v>
+        <v>640</v>
       </c>
       <c r="L5" t="s">
         <v>617</v>
       </c>
       <c r="M5" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12">
+        <v>44005</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>339</v>
       </c>
       <c r="G6" s="2">
@@ -8229,38 +6131,38 @@
         <v>532</v>
       </c>
       <c r="I6" t="s">
-        <v>963</v>
+        <v>642</v>
       </c>
       <c r="J6" t="s">
         <v>462</v>
       </c>
       <c r="K6" t="s">
-        <v>964</v>
+        <v>643</v>
       </c>
       <c r="L6" t="s">
         <v>617</v>
       </c>
       <c r="M6" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="12">
+        <v>44102</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>340</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -8273,35 +6175,35 @@
         <v>442</v>
       </c>
       <c r="J7" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K7" t="s">
-        <v>966</v>
+        <v>645</v>
       </c>
       <c r="L7" t="s">
         <v>617</v>
       </c>
       <c r="M7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="12">
+        <v>44286</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>341</v>
       </c>
       <c r="G8" s="2">
@@ -8311,38 +6213,38 @@
         <v>619</v>
       </c>
       <c r="I8" t="s">
-        <v>968</v>
+        <v>647</v>
       </c>
       <c r="J8" t="s">
         <v>463</v>
       </c>
       <c r="K8" t="s">
-        <v>969</v>
+        <v>648</v>
       </c>
       <c r="L8" t="s">
         <v>617</v>
       </c>
       <c r="M8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="12">
+        <v>44286</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>342</v>
       </c>
       <c r="G9" s="2">
@@ -8352,38 +6254,38 @@
         <v>533</v>
       </c>
       <c r="I9" t="s">
-        <v>971</v>
+        <v>650</v>
       </c>
       <c r="J9" t="s">
         <v>464</v>
       </c>
       <c r="K9" t="s">
-        <v>972</v>
+        <v>651</v>
       </c>
       <c r="L9" t="s">
         <v>617</v>
       </c>
       <c r="M9" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="12">
+        <v>44256</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>343</v>
       </c>
       <c r="G10" s="2">
@@ -8393,38 +6295,38 @@
         <v>534</v>
       </c>
       <c r="I10" t="s">
-        <v>974</v>
+        <v>653</v>
       </c>
       <c r="J10" t="s">
         <v>465</v>
       </c>
       <c r="K10" t="s">
-        <v>975</v>
+        <v>654</v>
       </c>
       <c r="L10" t="s">
         <v>617</v>
       </c>
       <c r="M10" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="12">
+        <v>44224</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>344</v>
       </c>
       <c r="G11" s="2">
@@ -8434,38 +6336,38 @@
         <v>535</v>
       </c>
       <c r="I11" t="s">
-        <v>977</v>
+        <v>656</v>
       </c>
       <c r="J11" t="s">
         <v>466</v>
       </c>
       <c r="K11" t="s">
-        <v>978</v>
+        <v>657</v>
       </c>
       <c r="L11" t="s">
         <v>617</v>
       </c>
       <c r="M11" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="12">
+        <v>44397</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>345</v>
       </c>
       <c r="G12" s="2">
@@ -8475,38 +6377,38 @@
         <v>536</v>
       </c>
       <c r="I12" t="s">
-        <v>980</v>
+        <v>659</v>
       </c>
       <c r="J12" t="s">
         <v>467</v>
       </c>
       <c r="K12" t="s">
-        <v>981</v>
+        <v>660</v>
       </c>
       <c r="L12" t="s">
         <v>617</v>
       </c>
       <c r="M12" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="12">
+        <v>44615</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>346</v>
       </c>
       <c r="G13" s="2">
@@ -8516,38 +6418,38 @@
         <v>537</v>
       </c>
       <c r="I13" t="s">
-        <v>983</v>
+        <v>662</v>
       </c>
       <c r="J13" t="s">
         <v>468</v>
       </c>
       <c r="K13" t="s">
-        <v>984</v>
+        <v>663</v>
       </c>
       <c r="L13" t="s">
         <v>617</v>
       </c>
       <c r="M13" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="12">
+        <v>44809</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>347</v>
       </c>
       <c r="G14" s="2">
@@ -8557,38 +6459,38 @@
         <v>538</v>
       </c>
       <c r="I14" t="s">
-        <v>986</v>
+        <v>665</v>
       </c>
       <c r="J14" t="s">
         <v>469</v>
       </c>
       <c r="K14" t="s">
-        <v>987</v>
+        <v>666</v>
       </c>
       <c r="L14" t="s">
         <v>617</v>
       </c>
       <c r="M14" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="12">
+        <v>44280</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>348</v>
       </c>
       <c r="G15" s="2">
@@ -8598,38 +6500,38 @@
         <v>539</v>
       </c>
       <c r="I15" t="s">
-        <v>989</v>
+        <v>668</v>
       </c>
       <c r="J15" t="s">
         <v>470</v>
       </c>
       <c r="K15" t="s">
-        <v>990</v>
+        <v>669</v>
       </c>
       <c r="L15" t="s">
         <v>617</v>
       </c>
       <c r="M15" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="12">
+        <v>44469</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>349</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -8642,35 +6544,35 @@
         <v>442</v>
       </c>
       <c r="J16" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K16" t="s">
-        <v>992</v>
+        <v>671</v>
       </c>
       <c r="L16" t="s">
         <v>617</v>
       </c>
       <c r="M16" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="12">
+        <v>44621</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>350</v>
       </c>
       <c r="G17" s="2">
@@ -8680,38 +6582,38 @@
         <v>540</v>
       </c>
       <c r="I17" t="s">
-        <v>994</v>
+        <v>673</v>
       </c>
       <c r="J17" t="s">
         <v>471</v>
       </c>
       <c r="K17" t="s">
-        <v>995</v>
+        <v>674</v>
       </c>
       <c r="L17" t="s">
         <v>617</v>
       </c>
       <c r="M17" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="12">
+        <v>44179</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>351</v>
       </c>
       <c r="G18" s="2">
@@ -8721,38 +6623,38 @@
         <v>541</v>
       </c>
       <c r="I18" t="s">
-        <v>997</v>
+        <v>676</v>
       </c>
       <c r="J18" t="s">
         <v>470</v>
       </c>
       <c r="K18" t="s">
-        <v>998</v>
+        <v>677</v>
       </c>
       <c r="L18" t="s">
         <v>617</v>
       </c>
       <c r="M18" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="12">
+        <v>44125</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>352</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -8765,35 +6667,35 @@
         <v>442</v>
       </c>
       <c r="J19" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K19" t="s">
-        <v>1000</v>
+        <v>679</v>
       </c>
       <c r="L19" t="s">
         <v>617</v>
       </c>
       <c r="M19" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="12">
+        <v>44166</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="1" t="s">
         <v>438</v>
       </c>
@@ -8804,32 +6706,32 @@
         <v>442</v>
       </c>
       <c r="J20" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K20" t="s">
-        <v>1002</v>
+        <v>681</v>
       </c>
       <c r="L20" t="s">
         <v>617</v>
       </c>
       <c r="M20" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="12">
+        <v>44166</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -8842,38 +6744,38 @@
         <v>543</v>
       </c>
       <c r="I21" t="s">
-        <v>1004</v>
+        <v>683</v>
       </c>
       <c r="J21" t="s">
         <v>472</v>
       </c>
       <c r="K21" t="s">
-        <v>1005</v>
+        <v>684</v>
       </c>
       <c r="L21" t="s">
         <v>617</v>
       </c>
       <c r="M21" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="12">
+        <v>44079</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>353</v>
       </c>
       <c r="G22" s="2">
@@ -8883,35 +6785,35 @@
         <v>544</v>
       </c>
       <c r="I22" t="s">
-        <v>1007</v>
+        <v>686</v>
       </c>
       <c r="J22" t="s">
         <v>473</v>
       </c>
       <c r="K22" t="s">
-        <v>1008</v>
+        <v>687</v>
       </c>
       <c r="L22" t="s">
         <v>617</v>
       </c>
       <c r="M22" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="12">
+        <v>43996</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -8927,35 +6829,35 @@
         <v>442</v>
       </c>
       <c r="J23" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K23" t="s">
-        <v>1010</v>
+        <v>689</v>
       </c>
       <c r="L23" t="s">
         <v>617</v>
       </c>
       <c r="M23" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="2">
         <v>21</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="12">
+        <v>43973</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>355</v>
       </c>
       <c r="G24" s="2">
@@ -8965,38 +6867,38 @@
         <v>545</v>
       </c>
       <c r="I24" t="s">
-        <v>1012</v>
+        <v>691</v>
       </c>
       <c r="J24" t="s">
         <v>474</v>
       </c>
       <c r="K24" t="s">
-        <v>1013</v>
+        <v>692</v>
       </c>
       <c r="L24" t="s">
         <v>617</v>
       </c>
       <c r="M24" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="12">
+        <v>43983</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>356</v>
       </c>
       <c r="G25" s="2">
@@ -9006,38 +6908,38 @@
         <v>546</v>
       </c>
       <c r="I25" t="s">
-        <v>1015</v>
+        <v>694</v>
       </c>
       <c r="J25" t="s">
         <v>475</v>
       </c>
       <c r="K25" t="s">
-        <v>1016</v>
+        <v>695</v>
       </c>
       <c r="L25" t="s">
         <v>617</v>
       </c>
       <c r="M25" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="12">
+        <v>44102</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>357</v>
       </c>
       <c r="G26" s="2">
@@ -9047,35 +6949,35 @@
         <v>547</v>
       </c>
       <c r="I26" t="s">
-        <v>1018</v>
+        <v>697</v>
       </c>
       <c r="J26" t="s">
         <v>476</v>
       </c>
       <c r="K26" t="s">
-        <v>1019</v>
+        <v>698</v>
       </c>
       <c r="L26" t="s">
         <v>617</v>
       </c>
       <c r="M26" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="12">
+        <v>44044</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -9091,35 +6993,35 @@
         <v>442</v>
       </c>
       <c r="J27" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K27" t="s">
-        <v>1021</v>
+        <v>700</v>
       </c>
       <c r="L27" t="s">
         <v>617</v>
       </c>
       <c r="M27" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="12">
+        <v>43920</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>359</v>
       </c>
       <c r="G28" s="2">
@@ -9129,35 +7031,35 @@
         <v>548</v>
       </c>
       <c r="I28" t="s">
-        <v>1023</v>
+        <v>702</v>
       </c>
       <c r="J28" t="s">
         <v>477</v>
       </c>
       <c r="K28" t="s">
-        <v>1024</v>
+        <v>703</v>
       </c>
       <c r="L28" t="s">
         <v>617</v>
       </c>
       <c r="M28" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="12">
+        <v>44224</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -9170,38 +7072,38 @@
         <v>549</v>
       </c>
       <c r="I29" t="s">
-        <v>1026</v>
+        <v>705</v>
       </c>
       <c r="J29" t="s">
         <v>478</v>
       </c>
       <c r="K29" t="s">
-        <v>1027</v>
+        <v>706</v>
       </c>
       <c r="L29" t="s">
         <v>617</v>
       </c>
       <c r="M29" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="2">
         <v>7</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="12">
+        <v>44133</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>361</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -9214,35 +7116,35 @@
         <v>442</v>
       </c>
       <c r="J30" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K30" t="s">
-        <v>1029</v>
+        <v>708</v>
       </c>
       <c r="L30" t="s">
         <v>617</v>
       </c>
       <c r="M30" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="12">
+        <v>44042</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>337</v>
       </c>
       <c r="G31" s="2">
@@ -9252,38 +7154,38 @@
         <v>530</v>
       </c>
       <c r="I31" t="s">
-        <v>1031</v>
+        <v>710</v>
       </c>
       <c r="J31" t="s">
         <v>460</v>
       </c>
       <c r="K31" t="s">
-        <v>1032</v>
+        <v>711</v>
       </c>
       <c r="L31" t="s">
         <v>617</v>
       </c>
       <c r="M31" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="12">
+        <v>44022</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>362</v>
       </c>
       <c r="G32" s="2">
@@ -9293,38 +7195,38 @@
         <v>550</v>
       </c>
       <c r="I32" t="s">
-        <v>1034</v>
+        <v>713</v>
       </c>
       <c r="J32" t="s">
         <v>467</v>
       </c>
       <c r="K32" t="s">
-        <v>1035</v>
+        <v>714</v>
       </c>
       <c r="L32" t="s">
         <v>617</v>
       </c>
       <c r="M32" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="2">
         <v>4</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="12">
+        <v>44015</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>363</v>
       </c>
       <c r="G33" s="2">
@@ -9334,35 +7236,35 @@
         <v>551</v>
       </c>
       <c r="I33" t="s">
-        <v>1037</v>
+        <v>716</v>
       </c>
       <c r="J33" t="s">
         <v>479</v>
       </c>
       <c r="K33" t="s">
-        <v>1038</v>
+        <v>717</v>
       </c>
       <c r="L33" t="s">
         <v>617</v>
       </c>
       <c r="M33" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="2">
         <v>5</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="12">
+        <v>44011</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -9375,35 +7277,35 @@
         <v>621</v>
       </c>
       <c r="I34" t="s">
-        <v>1040</v>
+        <v>719</v>
       </c>
       <c r="J34" t="s">
         <v>480</v>
       </c>
       <c r="K34" t="s">
-        <v>1041</v>
+        <v>720</v>
       </c>
       <c r="L34" t="s">
         <v>617</v>
       </c>
       <c r="M34" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="12">
+        <v>44158</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -9416,38 +7318,38 @@
         <v>552</v>
       </c>
       <c r="I35" t="s">
-        <v>1042</v>
+        <v>721</v>
       </c>
       <c r="J35" t="s">
         <v>481</v>
       </c>
       <c r="K35" t="s">
-        <v>1043</v>
+        <v>722</v>
       </c>
       <c r="L35" t="s">
         <v>617</v>
       </c>
       <c r="M35" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="12">
+        <v>44136</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>366</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -9460,35 +7362,35 @@
         <v>442</v>
       </c>
       <c r="J36" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K36" t="s">
-        <v>1045</v>
+        <v>724</v>
       </c>
       <c r="L36" t="s">
         <v>617</v>
       </c>
       <c r="M36" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="12">
+        <v>44138</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>367</v>
       </c>
       <c r="G37" s="2">
@@ -9498,38 +7400,38 @@
         <v>553</v>
       </c>
       <c r="I37" t="s">
-        <v>1047</v>
+        <v>726</v>
       </c>
       <c r="J37" t="s">
         <v>467</v>
       </c>
       <c r="K37" t="s">
-        <v>1048</v>
+        <v>727</v>
       </c>
       <c r="L37" t="s">
         <v>617</v>
       </c>
       <c r="M37" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="12">
+        <v>44154</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>368</v>
       </c>
       <c r="G38" s="2">
@@ -9539,38 +7441,38 @@
         <v>554</v>
       </c>
       <c r="I38" t="s">
-        <v>1050</v>
+        <v>729</v>
       </c>
       <c r="J38" t="s">
         <v>482</v>
       </c>
       <c r="K38" t="s">
-        <v>1051</v>
+        <v>730</v>
       </c>
       <c r="L38" t="s">
         <v>617</v>
       </c>
       <c r="M38" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="12">
+        <v>44075</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>369</v>
       </c>
       <c r="G39" s="2">
@@ -9580,38 +7482,38 @@
         <v>555</v>
       </c>
       <c r="I39" t="s">
-        <v>1053</v>
+        <v>732</v>
       </c>
       <c r="J39" t="s">
         <v>483</v>
       </c>
       <c r="K39" t="s">
-        <v>1054</v>
+        <v>733</v>
       </c>
       <c r="L39" t="s">
         <v>617</v>
       </c>
       <c r="M39" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="D40" s="12">
+        <v>44064</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>370</v>
       </c>
       <c r="G40" s="2">
@@ -9621,38 +7523,38 @@
         <v>556</v>
       </c>
       <c r="I40" t="s">
-        <v>1056</v>
+        <v>735</v>
       </c>
       <c r="J40" t="s">
         <v>484</v>
       </c>
       <c r="K40" t="s">
-        <v>1057</v>
+        <v>736</v>
       </c>
       <c r="L40" t="s">
         <v>617</v>
       </c>
       <c r="M40" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="2">
         <v>4</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="D41" s="12">
+        <v>44060</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>371</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -9665,35 +7567,35 @@
         <v>442</v>
       </c>
       <c r="J41" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K41" t="s">
-        <v>1059</v>
+        <v>738</v>
       </c>
       <c r="L41" t="s">
         <v>617</v>
       </c>
       <c r="M41" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C42" s="2">
         <v>5</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="12">
+        <v>44322</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>372</v>
       </c>
       <c r="G42" s="2">
@@ -9703,38 +7605,38 @@
         <v>558</v>
       </c>
       <c r="I42" t="s">
-        <v>1061</v>
+        <v>740</v>
       </c>
       <c r="J42" t="s">
         <v>485</v>
       </c>
       <c r="K42" t="s">
-        <v>1062</v>
+        <v>741</v>
       </c>
       <c r="L42" t="s">
         <v>617</v>
       </c>
       <c r="M42" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C43" s="2">
         <v>4</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="12">
+        <v>43999</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -9747,35 +7649,35 @@
         <v>442</v>
       </c>
       <c r="J43" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K43" t="s">
-        <v>1064</v>
+        <v>743</v>
       </c>
       <c r="L43" t="s">
         <v>617</v>
       </c>
       <c r="M43" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="12">
+        <v>44138</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>367</v>
       </c>
       <c r="G44" s="2">
@@ -9785,38 +7687,38 @@
         <v>553</v>
       </c>
       <c r="I44" t="s">
-        <v>1066</v>
+        <v>745</v>
       </c>
       <c r="J44" t="s">
         <v>467</v>
       </c>
       <c r="K44" t="s">
-        <v>1067</v>
+        <v>746</v>
       </c>
       <c r="L44" t="s">
         <v>617</v>
       </c>
       <c r="M44" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="12">
+        <v>44652</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>373</v>
       </c>
       <c r="G45" s="2">
@@ -9826,35 +7728,35 @@
         <v>560</v>
       </c>
       <c r="I45" t="s">
-        <v>1069</v>
+        <v>748</v>
       </c>
       <c r="J45" t="s">
         <v>486</v>
       </c>
       <c r="K45" t="s">
-        <v>1070</v>
+        <v>749</v>
       </c>
       <c r="L45" t="s">
         <v>617</v>
       </c>
       <c r="M45" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="12">
+        <v>44298</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -9867,38 +7769,38 @@
         <v>561</v>
       </c>
       <c r="I46" t="s">
-        <v>1072</v>
+        <v>751</v>
       </c>
       <c r="J46" t="s">
         <v>487</v>
       </c>
       <c r="K46" t="s">
-        <v>1073</v>
+        <v>752</v>
       </c>
       <c r="L46" t="s">
         <v>617</v>
       </c>
       <c r="M46" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C47" s="2">
         <v>6</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="12">
+        <v>44025</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="8" t="s">
         <v>375</v>
       </c>
       <c r="G47" s="2">
@@ -9908,38 +7810,38 @@
         <v>562</v>
       </c>
       <c r="I47" t="s">
-        <v>1075</v>
+        <v>754</v>
       </c>
       <c r="J47" t="s">
         <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>1076</v>
+        <v>755</v>
       </c>
       <c r="L47" t="s">
         <v>617</v>
       </c>
       <c r="M47" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="12">
+        <v>44126</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G48" s="2">
@@ -9949,35 +7851,35 @@
         <v>563</v>
       </c>
       <c r="I48" t="s">
-        <v>1078</v>
+        <v>757</v>
       </c>
       <c r="J48" t="s">
         <v>489</v>
       </c>
       <c r="K48" t="s">
-        <v>1079</v>
+        <v>758</v>
       </c>
       <c r="L48" t="s">
         <v>617</v>
       </c>
       <c r="M48" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="12">
+        <v>43983</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -9990,38 +7892,38 @@
         <v>564</v>
       </c>
       <c r="I49" t="s">
-        <v>1081</v>
+        <v>760</v>
       </c>
       <c r="J49" t="s">
         <v>490</v>
       </c>
       <c r="K49" t="s">
-        <v>1082</v>
+        <v>761</v>
       </c>
       <c r="L49" t="s">
         <v>617</v>
       </c>
       <c r="M49" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="12">
+        <v>44228</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="8" t="s">
         <v>380</v>
       </c>
       <c r="G50" s="2">
@@ -10031,35 +7933,35 @@
         <v>565</v>
       </c>
       <c r="I50" t="s">
-        <v>1084</v>
+        <v>763</v>
       </c>
       <c r="J50" t="s">
         <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>1085</v>
+        <v>764</v>
       </c>
       <c r="L50" t="s">
         <v>617</v>
       </c>
       <c r="M50" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C51" s="2">
         <v>4</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="12">
+        <v>44487</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>149</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -10078,32 +7980,32 @@
         <v>624</v>
       </c>
       <c r="K51" t="s">
-        <v>1087</v>
+        <v>766</v>
       </c>
       <c r="L51" t="s">
         <v>617</v>
       </c>
       <c r="M51" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="12">
+        <v>44415</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="8" t="s">
         <v>382</v>
       </c>
       <c r="G52" s="2">
@@ -10113,38 +8015,38 @@
         <v>566</v>
       </c>
       <c r="I52" t="s">
-        <v>1088</v>
+        <v>767</v>
       </c>
       <c r="J52" t="s">
         <v>492</v>
       </c>
       <c r="K52" t="s">
-        <v>1089</v>
+        <v>768</v>
       </c>
       <c r="L52" t="s">
         <v>617</v>
       </c>
       <c r="M52" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="2">
         <v>5</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="12">
+        <v>44348</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>383</v>
       </c>
       <c r="G53" s="2">
@@ -10154,35 +8056,35 @@
         <v>567</v>
       </c>
       <c r="I53" t="s">
-        <v>1091</v>
+        <v>770</v>
       </c>
       <c r="J53" t="s">
         <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>1092</v>
+        <v>771</v>
       </c>
       <c r="L53" t="s">
         <v>617</v>
       </c>
       <c r="M53" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="12">
+        <v>44182</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -10195,38 +8097,38 @@
         <v>568</v>
       </c>
       <c r="I54" t="s">
-        <v>1094</v>
+        <v>773</v>
       </c>
       <c r="J54" t="s">
         <v>494</v>
       </c>
       <c r="K54" t="s">
-        <v>1095</v>
+        <v>774</v>
       </c>
       <c r="L54" t="s">
         <v>617</v>
       </c>
       <c r="M54" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C55" s="2">
         <v>5</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="D55" s="12">
+        <v>44344</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="8" t="s">
         <v>385</v>
       </c>
       <c r="G55" s="2">
@@ -10236,38 +8138,38 @@
         <v>569</v>
       </c>
       <c r="I55" t="s">
-        <v>1097</v>
+        <v>776</v>
       </c>
       <c r="J55" t="s">
         <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>1098</v>
+        <v>777</v>
       </c>
       <c r="L55" t="s">
         <v>617</v>
       </c>
       <c r="M55" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="12">
+        <v>44078</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>386</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -10280,35 +8182,35 @@
         <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K56" t="s">
-        <v>1100</v>
+        <v>779</v>
       </c>
       <c r="L56" t="s">
         <v>617</v>
       </c>
       <c r="M56" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="12">
+        <v>43963</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="8" t="s">
         <v>387</v>
       </c>
       <c r="G57" s="2">
@@ -10318,38 +8220,38 @@
         <v>570</v>
       </c>
       <c r="I57" t="s">
-        <v>1102</v>
+        <v>781</v>
       </c>
       <c r="J57" t="s">
         <v>464</v>
       </c>
       <c r="K57" t="s">
-        <v>1103</v>
+        <v>782</v>
       </c>
       <c r="L57" t="s">
         <v>617</v>
       </c>
       <c r="M57" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C58" s="2">
         <v>6</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="12">
+        <v>44085</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>378</v>
       </c>
       <c r="G58" s="2">
@@ -10359,38 +8261,38 @@
         <v>625</v>
       </c>
       <c r="I58" t="s">
-        <v>682</v>
+        <v>628</v>
       </c>
       <c r="J58" t="s">
         <v>496</v>
       </c>
       <c r="K58" t="s">
-        <v>1105</v>
+        <v>784</v>
       </c>
       <c r="L58" t="s">
         <v>617</v>
       </c>
       <c r="M58" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="2">
         <v>7</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="12">
+        <v>44083</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>388</v>
       </c>
       <c r="G59" s="2">
@@ -10400,38 +8302,38 @@
         <v>571</v>
       </c>
       <c r="I59" t="s">
-        <v>1106</v>
+        <v>785</v>
       </c>
       <c r="J59" t="s">
         <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>1107</v>
+        <v>786</v>
       </c>
       <c r="L59" t="s">
         <v>617</v>
       </c>
       <c r="M59" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E60" s="10" t="s">
+      <c r="D60" s="12">
+        <v>44075</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>388</v>
       </c>
       <c r="G60" s="2">
@@ -10441,35 +8343,35 @@
         <v>571</v>
       </c>
       <c r="I60" t="s">
-        <v>1109</v>
+        <v>788</v>
       </c>
       <c r="J60" t="s">
         <v>497</v>
       </c>
       <c r="K60" t="s">
-        <v>1110</v>
+        <v>789</v>
       </c>
       <c r="L60" t="s">
         <v>617</v>
       </c>
       <c r="M60" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C61" s="2">
         <v>6</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="12">
+        <v>44161</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>179</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -10482,38 +8384,38 @@
         <v>572</v>
       </c>
       <c r="I61" t="s">
-        <v>1112</v>
+        <v>791</v>
       </c>
       <c r="J61" t="s">
         <v>494</v>
       </c>
       <c r="K61" t="s">
-        <v>1113</v>
+        <v>792</v>
       </c>
       <c r="L61" t="s">
         <v>617</v>
       </c>
       <c r="M61" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="D62" s="12">
+        <v>44044</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="8" t="s">
         <v>390</v>
       </c>
       <c r="G62" s="2">
@@ -10523,38 +8425,38 @@
         <v>626</v>
       </c>
       <c r="I62" t="s">
-        <v>1115</v>
+        <v>794</v>
       </c>
       <c r="J62" t="s">
         <v>498</v>
       </c>
       <c r="K62" t="s">
-        <v>1116</v>
+        <v>795</v>
       </c>
       <c r="L62" t="s">
         <v>617</v>
       </c>
       <c r="M62" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="12">
+        <v>44440</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="8" t="s">
         <v>391</v>
       </c>
       <c r="G63" s="2">
@@ -10564,35 +8466,35 @@
         <v>573</v>
       </c>
       <c r="I63" t="s">
-        <v>1117</v>
+        <v>796</v>
       </c>
       <c r="J63" t="s">
         <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>1118</v>
+        <v>797</v>
       </c>
       <c r="L63" t="s">
         <v>617</v>
       </c>
       <c r="M63" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C64" s="2">
         <v>8</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="D64" s="12">
+        <v>44081</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>188</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -10605,38 +8507,38 @@
         <v>574</v>
       </c>
       <c r="I64" t="s">
-        <v>1120</v>
+        <v>799</v>
       </c>
       <c r="J64" t="s">
         <v>500</v>
       </c>
       <c r="K64" t="s">
-        <v>1121</v>
+        <v>800</v>
       </c>
       <c r="L64" t="s">
         <v>617</v>
       </c>
       <c r="M64" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="12">
+        <v>44075</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="8" t="s">
         <v>393</v>
       </c>
       <c r="G65" s="2">
@@ -10646,35 +8548,35 @@
         <v>575</v>
       </c>
       <c r="I65" t="s">
-        <v>1123</v>
+        <v>802</v>
       </c>
       <c r="J65" t="s">
         <v>501</v>
       </c>
       <c r="K65" t="s">
-        <v>1124</v>
+        <v>803</v>
       </c>
       <c r="L65" t="s">
         <v>617</v>
       </c>
       <c r="M65" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C66" s="2">
         <v>3</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E66" s="10" t="s">
+      <c r="D66" s="12">
+        <v>44250</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>194</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -10690,35 +8592,35 @@
         <v>442</v>
       </c>
       <c r="J66" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K66" t="s">
-        <v>1126</v>
+        <v>805</v>
       </c>
       <c r="L66" t="s">
         <v>617</v>
       </c>
       <c r="M66" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="12">
+        <v>44409</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>395</v>
       </c>
       <c r="G67" s="2">
@@ -10728,38 +8630,38 @@
         <v>576</v>
       </c>
       <c r="I67" t="s">
-        <v>1128</v>
+        <v>807</v>
       </c>
       <c r="J67" t="s">
         <v>465</v>
       </c>
       <c r="K67" t="s">
-        <v>1129</v>
+        <v>808</v>
       </c>
       <c r="L67" t="s">
         <v>617</v>
       </c>
       <c r="M67" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="12">
+        <v>44410</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="8" t="s">
         <v>379</v>
       </c>
       <c r="G68" s="2">
@@ -10769,38 +8671,38 @@
         <v>577</v>
       </c>
       <c r="I68" t="s">
-        <v>1131</v>
+        <v>810</v>
       </c>
       <c r="J68" t="s">
         <v>502</v>
       </c>
       <c r="K68" t="s">
-        <v>1132</v>
+        <v>811</v>
       </c>
       <c r="L68" t="s">
         <v>617</v>
       </c>
       <c r="M68" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C69" s="2">
         <v>11</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="12">
+        <v>44265</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="8" t="s">
         <v>396</v>
       </c>
       <c r="G69" s="2">
@@ -10810,38 +8712,38 @@
         <v>578</v>
       </c>
       <c r="I69" t="s">
-        <v>1134</v>
+        <v>813</v>
       </c>
       <c r="J69" t="s">
         <v>467</v>
       </c>
       <c r="K69" t="s">
-        <v>1135</v>
+        <v>814</v>
       </c>
       <c r="L69" t="s">
         <v>617</v>
       </c>
       <c r="M69" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C70" s="2">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="D70" s="12">
+        <v>44409</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="8" t="s">
         <v>397</v>
       </c>
       <c r="G70" s="2">
@@ -10851,35 +8753,35 @@
         <v>627</v>
       </c>
       <c r="I70" t="s">
-        <v>1137</v>
+        <v>816</v>
       </c>
       <c r="J70" t="s">
         <v>503</v>
       </c>
       <c r="K70" t="s">
-        <v>1138</v>
+        <v>817</v>
       </c>
       <c r="L70" t="s">
         <v>617</v>
       </c>
       <c r="M70" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C71" s="2">
         <v>10</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="12">
+        <v>44238</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>209</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -10892,38 +8794,38 @@
         <v>579</v>
       </c>
       <c r="I71" t="s">
-        <v>1139</v>
+        <v>818</v>
       </c>
       <c r="J71" t="s">
         <v>467</v>
       </c>
       <c r="K71" t="s">
-        <v>1140</v>
+        <v>819</v>
       </c>
       <c r="L71" t="s">
         <v>617</v>
       </c>
       <c r="M71" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C72" s="2">
         <v>5</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="D72" s="12">
+        <v>44004</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="8" t="s">
         <v>402</v>
       </c>
       <c r="G72" s="2">
@@ -10933,38 +8835,38 @@
         <v>580</v>
       </c>
       <c r="I72" t="s">
-        <v>1142</v>
+        <v>821</v>
       </c>
       <c r="J72" t="s">
         <v>504</v>
       </c>
       <c r="K72" t="s">
-        <v>1143</v>
+        <v>822</v>
       </c>
       <c r="L72" t="s">
         <v>617</v>
       </c>
       <c r="M72" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="D73" s="12">
+        <v>44372</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="8" t="s">
         <v>403</v>
       </c>
       <c r="G73" s="2">
@@ -10974,38 +8876,38 @@
         <v>581</v>
       </c>
       <c r="I73" t="s">
-        <v>1145</v>
+        <v>824</v>
       </c>
       <c r="J73" t="s">
         <v>505</v>
       </c>
       <c r="K73" t="s">
-        <v>1146</v>
+        <v>825</v>
       </c>
       <c r="L73" t="s">
         <v>617</v>
       </c>
       <c r="M73" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C74" s="2">
         <v>10</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="D74" s="12">
+        <v>44378</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="8" t="s">
         <v>404</v>
       </c>
       <c r="G74" s="2">
@@ -11015,38 +8917,38 @@
         <v>582</v>
       </c>
       <c r="I74" t="s">
-        <v>1148</v>
+        <v>827</v>
       </c>
       <c r="J74" t="s">
         <v>506</v>
       </c>
       <c r="K74" t="s">
-        <v>1149</v>
+        <v>828</v>
       </c>
       <c r="L74" t="s">
         <v>617</v>
       </c>
       <c r="M74" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C75" s="2">
         <v>9</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E75" s="10" t="s">
+      <c r="D75" s="12">
+        <v>44106</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="8" t="s">
         <v>405</v>
       </c>
       <c r="G75" s="2">
@@ -11056,38 +8958,38 @@
         <v>583</v>
       </c>
       <c r="I75" t="s">
-        <v>1151</v>
+        <v>830</v>
       </c>
       <c r="J75" t="s">
         <v>507</v>
       </c>
       <c r="K75" t="s">
-        <v>1152</v>
+        <v>831</v>
       </c>
       <c r="L75" t="s">
         <v>617</v>
       </c>
       <c r="M75" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C76" s="2">
         <v>3</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E76" s="10" t="s">
+      <c r="D76" s="12">
+        <v>44101</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="8" t="s">
         <v>406</v>
       </c>
       <c r="G76" s="2">
@@ -11097,38 +8999,38 @@
         <v>584</v>
       </c>
       <c r="I76" t="s">
-        <v>1154</v>
+        <v>833</v>
       </c>
       <c r="J76" t="s">
         <v>508</v>
       </c>
       <c r="K76" t="s">
-        <v>1155</v>
+        <v>834</v>
       </c>
       <c r="L76" t="s">
         <v>617</v>
       </c>
       <c r="M76" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C77" s="2">
         <v>3</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="12">
+        <v>44235</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="8" t="s">
         <v>407</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -11141,35 +9043,35 @@
         <v>442</v>
       </c>
       <c r="J77" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K77" t="s">
-        <v>1157</v>
+        <v>836</v>
       </c>
       <c r="L77" t="s">
         <v>617</v>
       </c>
       <c r="M77" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C78" s="2">
         <v>4</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="D78" s="12">
+        <v>44138</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="8" t="s">
         <v>399</v>
       </c>
       <c r="G78" s="2">
@@ -11179,38 +9081,38 @@
         <v>585</v>
       </c>
       <c r="I78" t="s">
-        <v>1159</v>
+        <v>838</v>
       </c>
       <c r="J78" t="s">
         <v>467</v>
       </c>
       <c r="K78" t="s">
-        <v>1160</v>
+        <v>839</v>
       </c>
       <c r="L78" t="s">
         <v>617</v>
       </c>
       <c r="M78" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C79" s="2">
         <v>6</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="D79" s="12">
+        <v>44155</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="8" t="s">
         <v>400</v>
       </c>
       <c r="G79" s="2">
@@ -11220,38 +9122,38 @@
         <v>586</v>
       </c>
       <c r="I79" t="s">
-        <v>1162</v>
+        <v>841</v>
       </c>
       <c r="J79" t="s">
         <v>467</v>
       </c>
       <c r="K79" t="s">
-        <v>1163</v>
+        <v>842</v>
       </c>
       <c r="L79" t="s">
         <v>617</v>
       </c>
       <c r="M79" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="2">
         <v>6</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E80" s="10" t="s">
+      <c r="D80" s="12">
+        <v>44120</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="8" t="s">
         <v>409</v>
       </c>
       <c r="G80" s="2">
@@ -11261,38 +9163,38 @@
         <v>587</v>
       </c>
       <c r="I80" t="s">
-        <v>1165</v>
+        <v>844</v>
       </c>
       <c r="J80" t="s">
         <v>509</v>
       </c>
       <c r="K80" t="s">
-        <v>1166</v>
+        <v>845</v>
       </c>
       <c r="L80" t="s">
         <v>617</v>
       </c>
       <c r="M80" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C81" s="2">
         <v>8</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E81" s="10" t="s">
+      <c r="D81" s="12">
+        <v>44376</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="8" t="s">
         <v>401</v>
       </c>
       <c r="G81" s="2">
@@ -11302,35 +9204,35 @@
         <v>588</v>
       </c>
       <c r="I81" t="s">
-        <v>1168</v>
+        <v>847</v>
       </c>
       <c r="J81" t="s">
         <v>467</v>
       </c>
       <c r="K81" t="s">
-        <v>1169</v>
+        <v>848</v>
       </c>
       <c r="L81" t="s">
         <v>617</v>
       </c>
       <c r="M81" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C82" s="2">
         <v>6</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E82" s="10" t="s">
+      <c r="D82" s="12">
+        <v>44090</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>242</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -11346,35 +9248,35 @@
         <v>442</v>
       </c>
       <c r="J82" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K82" t="s">
-        <v>1171</v>
+        <v>850</v>
       </c>
       <c r="L82" t="s">
         <v>617</v>
       </c>
       <c r="M82" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C83" s="2">
         <v>3</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="12">
+        <v>44351</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="8" t="s">
         <v>408</v>
       </c>
       <c r="G83" s="2">
@@ -11384,38 +9286,38 @@
         <v>589</v>
       </c>
       <c r="I83" t="s">
-        <v>1173</v>
+        <v>852</v>
       </c>
       <c r="J83" t="s">
         <v>467</v>
       </c>
       <c r="K83" t="s">
-        <v>1174</v>
+        <v>853</v>
       </c>
       <c r="L83" t="s">
         <v>617</v>
       </c>
       <c r="M83" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C84" s="2">
         <v>4</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="12">
+        <v>44163</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="8" t="s">
         <v>411</v>
       </c>
       <c r="G84" s="2">
@@ -11425,38 +9327,38 @@
         <v>590</v>
       </c>
       <c r="I84" t="s">
-        <v>1176</v>
+        <v>855</v>
       </c>
       <c r="J84" t="s">
         <v>510</v>
       </c>
       <c r="K84" t="s">
-        <v>1177</v>
+        <v>856</v>
       </c>
       <c r="L84" t="s">
         <v>617</v>
       </c>
       <c r="M84" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C85" s="2">
         <v>14</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="12">
+        <v>44678</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="8" t="s">
         <v>412</v>
       </c>
       <c r="G85" s="2">
@@ -11466,38 +9368,38 @@
         <v>591</v>
       </c>
       <c r="I85" t="s">
-        <v>1179</v>
+        <v>858</v>
       </c>
       <c r="J85" t="s">
         <v>511</v>
       </c>
       <c r="K85" t="s">
-        <v>1180</v>
+        <v>859</v>
       </c>
       <c r="L85" t="s">
         <v>617</v>
       </c>
       <c r="M85" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="2">
         <v>5</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="12">
+        <v>44197</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="8" t="s">
         <v>413</v>
       </c>
       <c r="G86" s="2">
@@ -11507,35 +9409,35 @@
         <v>592</v>
       </c>
       <c r="I86" t="s">
-        <v>1182</v>
+        <v>861</v>
       </c>
       <c r="J86" t="s">
         <v>512</v>
       </c>
       <c r="K86" t="s">
-        <v>1183</v>
+        <v>862</v>
       </c>
       <c r="L86" t="s">
         <v>617</v>
       </c>
       <c r="M86" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C87" s="2">
         <v>6</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="12">
+        <v>45030</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>257</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -11545,41 +9447,41 @@
         <v>438</v>
       </c>
       <c r="H87" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="I87" t="s">
         <v>442</v>
       </c>
       <c r="J87" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K87" t="s">
-        <v>1185</v>
+        <v>864</v>
       </c>
       <c r="L87" t="s">
         <v>617</v>
       </c>
       <c r="M87" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C88" s="2">
         <v>5</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="12">
+        <v>44043</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="8" t="s">
         <v>414</v>
       </c>
       <c r="G88" s="2">
@@ -11589,38 +9491,38 @@
         <v>593</v>
       </c>
       <c r="I88" t="s">
-        <v>1186</v>
+        <v>865</v>
       </c>
       <c r="J88" t="s">
         <v>513</v>
       </c>
       <c r="K88" t="s">
-        <v>1187</v>
+        <v>866</v>
       </c>
       <c r="L88" t="s">
         <v>617</v>
       </c>
       <c r="M88" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C89" s="2">
         <v>2</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="12">
+        <v>44319</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="8" t="s">
         <v>415</v>
       </c>
       <c r="G89" s="2">
@@ -11630,79 +9532,79 @@
         <v>594</v>
       </c>
       <c r="I89" t="s">
-        <v>1189</v>
+        <v>868</v>
       </c>
       <c r="J89" t="s">
         <v>495</v>
       </c>
       <c r="K89" t="s">
-        <v>1190</v>
+        <v>869</v>
       </c>
       <c r="L89" t="s">
         <v>617</v>
       </c>
       <c r="M89" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C90" s="2">
         <v>4</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="D90" s="12">
+        <v>44196</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="8" t="s">
         <v>416</v>
       </c>
       <c r="G90" s="2">
         <v>8078349</v>
       </c>
       <c r="H90" t="s">
-        <v>905</v>
+        <v>629</v>
       </c>
       <c r="I90" t="s">
         <v>442</v>
       </c>
       <c r="J90" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K90" t="s">
-        <v>1192</v>
+        <v>871</v>
       </c>
       <c r="L90" t="s">
         <v>617</v>
       </c>
       <c r="M90" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C91" s="2">
         <v>8</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E91" s="10" t="s">
+      <c r="D91" s="12">
+        <v>44128</v>
+      </c>
+      <c r="E91" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="8" t="s">
         <v>417</v>
       </c>
       <c r="G91" s="2">
@@ -11712,38 +9614,38 @@
         <v>595</v>
       </c>
       <c r="I91" t="s">
-        <v>1193</v>
+        <v>872</v>
       </c>
       <c r="J91" t="s">
         <v>514</v>
       </c>
       <c r="K91" t="s">
-        <v>1194</v>
+        <v>873</v>
       </c>
       <c r="L91" t="s">
         <v>617</v>
       </c>
       <c r="M91" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C92" s="2">
         <v>3</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E92" s="10" t="s">
+      <c r="D92" s="12">
+        <v>44197</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="8" t="s">
         <v>418</v>
       </c>
       <c r="G92" s="2">
@@ -11753,38 +9655,38 @@
         <v>596</v>
       </c>
       <c r="I92" t="s">
-        <v>1196</v>
+        <v>875</v>
       </c>
       <c r="J92" t="s">
         <v>515</v>
       </c>
       <c r="K92" t="s">
-        <v>1197</v>
+        <v>876</v>
       </c>
       <c r="L92" t="s">
         <v>617</v>
       </c>
       <c r="M92" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C93" s="2">
         <v>3</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E93" s="10" t="s">
+      <c r="D93" s="12">
+        <v>44127</v>
+      </c>
+      <c r="E93" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="8" t="s">
         <v>419</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -11797,35 +9699,35 @@
         <v>442</v>
       </c>
       <c r="J93" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K93" t="s">
-        <v>1199</v>
+        <v>878</v>
       </c>
       <c r="L93" t="s">
         <v>617</v>
       </c>
       <c r="M93" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C94" s="2">
         <v>3</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E94" s="10" t="s">
+      <c r="D94" s="12">
+        <v>44336</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="8" t="s">
         <v>420</v>
       </c>
       <c r="G94" s="2">
@@ -11835,38 +9737,38 @@
         <v>598</v>
       </c>
       <c r="I94" t="s">
-        <v>1201</v>
+        <v>880</v>
       </c>
       <c r="J94" t="s">
         <v>516</v>
       </c>
       <c r="K94" t="s">
-        <v>1202</v>
+        <v>881</v>
       </c>
       <c r="L94" t="s">
         <v>617</v>
       </c>
       <c r="M94" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C95" s="2">
         <v>6</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E95" s="10" t="s">
+      <c r="D95" s="12">
+        <v>44365</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="8" t="s">
         <v>421</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -11879,35 +9781,35 @@
         <v>442</v>
       </c>
       <c r="J95" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K95" t="s">
-        <v>1204</v>
+        <v>883</v>
       </c>
       <c r="L95" t="s">
         <v>617</v>
       </c>
       <c r="M95" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C96" s="2">
         <v>6</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="10" t="s">
+      <c r="D96" s="12">
+        <v>44244</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="8" t="s">
         <v>422</v>
       </c>
       <c r="G96" s="2">
@@ -11917,38 +9819,38 @@
         <v>599</v>
       </c>
       <c r="I96" t="s">
-        <v>1206</v>
+        <v>885</v>
       </c>
       <c r="J96" t="s">
         <v>462</v>
       </c>
       <c r="K96" t="s">
-        <v>1207</v>
+        <v>886</v>
       </c>
       <c r="L96" t="s">
         <v>617</v>
       </c>
       <c r="M96" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E97" s="10" t="s">
+      <c r="D97" s="12">
+        <v>44080</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="8" t="s">
         <v>423</v>
       </c>
       <c r="G97" s="2">
@@ -11958,38 +9860,38 @@
         <v>600</v>
       </c>
       <c r="I97" t="s">
-        <v>1209</v>
+        <v>888</v>
       </c>
       <c r="J97" t="s">
         <v>517</v>
       </c>
       <c r="K97" t="s">
-        <v>1210</v>
+        <v>889</v>
       </c>
       <c r="L97" t="s">
         <v>617</v>
       </c>
       <c r="M97" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C98" s="2">
         <v>4</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E98" s="10" t="s">
+      <c r="D98" s="12">
+        <v>44363</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="8" t="s">
         <v>424</v>
       </c>
       <c r="G98" s="2">
@@ -11999,35 +9901,35 @@
         <v>601</v>
       </c>
       <c r="I98" t="s">
-        <v>1212</v>
+        <v>891</v>
       </c>
       <c r="J98" t="s">
         <v>518</v>
       </c>
       <c r="K98" t="s">
-        <v>1213</v>
+        <v>892</v>
       </c>
       <c r="L98" t="s">
         <v>617</v>
       </c>
       <c r="M98" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C99" s="2">
         <v>3</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="10" t="s">
+      <c r="D99" s="12">
+        <v>44187</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>293</v>
       </c>
       <c r="F99" s="7" t="s">
@@ -12040,38 +9942,38 @@
         <v>602</v>
       </c>
       <c r="I99" t="s">
-        <v>1215</v>
+        <v>894</v>
       </c>
       <c r="J99" t="s">
         <v>519</v>
       </c>
       <c r="K99" t="s">
-        <v>1216</v>
+        <v>895</v>
       </c>
       <c r="L99" t="s">
         <v>617</v>
       </c>
       <c r="M99" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C100" s="2">
         <v>4</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E100" s="10" t="s">
+      <c r="D100" s="12">
+        <v>44132</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="8" t="s">
         <v>426</v>
       </c>
       <c r="G100" s="2">
@@ -12081,38 +9983,38 @@
         <v>603</v>
       </c>
       <c r="I100" t="s">
-        <v>1218</v>
+        <v>897</v>
       </c>
       <c r="J100" t="s">
         <v>475</v>
       </c>
       <c r="K100" t="s">
-        <v>1219</v>
+        <v>898</v>
       </c>
       <c r="L100" t="s">
         <v>617</v>
       </c>
       <c r="M100" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C101" s="2">
         <v>8</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E101" s="10" t="s">
+      <c r="D101" s="12">
+        <v>44061</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="8" t="s">
         <v>427</v>
       </c>
       <c r="G101" s="2">
@@ -12122,38 +10024,38 @@
         <v>604</v>
       </c>
       <c r="I101" t="s">
-        <v>1221</v>
+        <v>900</v>
       </c>
       <c r="J101" t="s">
         <v>520</v>
       </c>
       <c r="K101" t="s">
-        <v>1222</v>
+        <v>901</v>
       </c>
       <c r="L101" t="s">
         <v>617</v>
       </c>
       <c r="M101" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C102" s="2">
         <v>5</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E102" s="10" t="s">
+      <c r="D102" s="12">
+        <v>44370</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="8" t="s">
         <v>428</v>
       </c>
       <c r="G102" s="2">
@@ -12163,35 +10065,35 @@
         <v>605</v>
       </c>
       <c r="I102" t="s">
-        <v>1224</v>
+        <v>903</v>
       </c>
       <c r="J102" t="s">
         <v>467</v>
       </c>
       <c r="K102" t="s">
-        <v>1225</v>
+        <v>904</v>
       </c>
       <c r="L102" t="s">
         <v>617</v>
       </c>
       <c r="M102" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C103" s="2">
         <v>2</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E103" s="10" t="s">
+      <c r="D103" s="12">
+        <v>44345</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>305</v>
       </c>
       <c r="F103" s="7" t="s">
@@ -12204,38 +10106,38 @@
         <v>606</v>
       </c>
       <c r="I103" t="s">
-        <v>1227</v>
+        <v>906</v>
       </c>
       <c r="J103" t="s">
         <v>521</v>
       </c>
       <c r="K103" t="s">
-        <v>1228</v>
+        <v>907</v>
       </c>
       <c r="L103" t="s">
         <v>617</v>
       </c>
       <c r="M103" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C104" s="2">
         <v>3</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E104" s="10" t="s">
+      <c r="D104" s="12">
+        <v>44368</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="8" t="s">
         <v>607</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -12248,35 +10150,35 @@
         <v>442</v>
       </c>
       <c r="J104" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K104" t="s">
-        <v>1230</v>
+        <v>909</v>
       </c>
       <c r="L104" t="s">
         <v>617</v>
       </c>
       <c r="M104" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C105" s="2">
         <v>3</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="12">
+        <v>44201</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="8" t="s">
         <v>430</v>
       </c>
       <c r="G105" s="2">
@@ -12286,35 +10188,35 @@
         <v>608</v>
       </c>
       <c r="I105" t="s">
-        <v>1232</v>
+        <v>911</v>
       </c>
       <c r="J105" t="s">
         <v>489</v>
       </c>
       <c r="K105" t="s">
-        <v>1233</v>
+        <v>912</v>
       </c>
       <c r="L105" t="s">
         <v>617</v>
       </c>
       <c r="M105" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C106" s="2">
         <v>3</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E106" s="10" t="s">
+      <c r="D106" s="12">
+        <v>44361</v>
+      </c>
+      <c r="E106" s="8" t="s">
         <v>314</v>
       </c>
       <c r="F106" s="7" t="s">
@@ -12327,38 +10229,38 @@
         <v>609</v>
       </c>
       <c r="I106" t="s">
-        <v>1235</v>
+        <v>914</v>
       </c>
       <c r="J106" t="s">
         <v>470</v>
       </c>
       <c r="K106" t="s">
-        <v>1236</v>
+        <v>915</v>
       </c>
       <c r="L106" t="s">
         <v>617</v>
       </c>
       <c r="M106" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C107" s="2">
         <v>9</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="12">
+        <v>44228</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="8" t="s">
         <v>432</v>
       </c>
       <c r="G107" s="2">
@@ -12368,38 +10270,38 @@
         <v>610</v>
       </c>
       <c r="I107" t="s">
-        <v>1238</v>
+        <v>917</v>
       </c>
       <c r="J107" t="s">
         <v>522</v>
       </c>
       <c r="K107" t="s">
-        <v>1239</v>
+        <v>918</v>
       </c>
       <c r="L107" t="s">
         <v>617</v>
       </c>
       <c r="M107" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>319</v>
       </c>
       <c r="C108" s="2">
         <v>6</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E108" s="10" t="s">
+      <c r="D108" s="12">
+        <v>44136</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="8" t="s">
         <v>433</v>
       </c>
       <c r="G108" s="2">
@@ -12409,35 +10311,35 @@
         <v>611</v>
       </c>
       <c r="I108" t="s">
-        <v>1241</v>
+        <v>920</v>
       </c>
       <c r="J108" t="s">
         <v>523</v>
       </c>
       <c r="K108" t="s">
-        <v>1242</v>
+        <v>921</v>
       </c>
       <c r="L108" t="s">
         <v>617</v>
       </c>
       <c r="M108" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="8" t="s">
         <v>322</v>
       </c>
       <c r="C109" s="2">
         <v>5</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E109" s="10" t="s">
+      <c r="D109" s="12">
+        <v>44463</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>323</v>
       </c>
       <c r="F109" s="5" t="s">
@@ -12450,38 +10352,38 @@
         <v>612</v>
       </c>
       <c r="I109" t="s">
-        <v>1244</v>
+        <v>923</v>
       </c>
       <c r="J109" t="s">
         <v>524</v>
       </c>
       <c r="K109" t="s">
-        <v>1245</v>
+        <v>924</v>
       </c>
       <c r="L109" t="s">
         <v>617</v>
       </c>
       <c r="M109" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C110" s="2">
         <v>4</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E110" s="10" t="s">
+      <c r="D110" s="12">
+        <v>44180</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="F110" s="8" t="s">
         <v>435</v>
       </c>
       <c r="G110" s="2">
@@ -12491,35 +10393,35 @@
         <v>613</v>
       </c>
       <c r="I110" t="s">
-        <v>1247</v>
+        <v>926</v>
       </c>
       <c r="J110" t="s">
         <v>525</v>
       </c>
       <c r="K110" t="s">
-        <v>1248</v>
+        <v>927</v>
       </c>
       <c r="L110" t="s">
         <v>617</v>
       </c>
       <c r="M110" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>328</v>
       </c>
       <c r="C111" s="2">
         <v>1</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E111" s="10" t="s">
+      <c r="D111" s="12">
+        <v>44309</v>
+      </c>
+      <c r="E111" s="8" t="s">
         <v>329</v>
       </c>
       <c r="F111" s="7" t="s">
@@ -12532,35 +10434,35 @@
         <v>614</v>
       </c>
       <c r="I111" t="s">
-        <v>1250</v>
+        <v>929</v>
       </c>
       <c r="J111" t="s">
         <v>526</v>
       </c>
       <c r="K111" t="s">
-        <v>1251</v>
+        <v>930</v>
       </c>
       <c r="L111" t="s">
         <v>617</v>
       </c>
       <c r="M111" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C112" s="2">
         <v>6</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E112" s="10" t="s">
+      <c r="D112" s="12">
+        <v>44334</v>
+      </c>
+      <c r="E112" s="8" t="s">
         <v>332</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -12573,22 +10475,22 @@
         <v>615</v>
       </c>
       <c r="I112" t="s">
-        <v>1253</v>
+        <v>932</v>
       </c>
       <c r="J112" t="s">
         <v>527</v>
       </c>
       <c r="K112" t="s">
-        <v>1254</v>
+        <v>933</v>
       </c>
       <c r="L112" t="s">
         <v>617</v>
       </c>
       <c r="M112" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -12597,22 +10499,22 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="I113" t="s">
         <v>442</v>
       </c>
       <c r="J113" t="s">
-        <v>954</v>
+        <v>633</v>
       </c>
       <c r="K113" t="s">
-        <v>956</v>
+        <v>635</v>
       </c>
       <c r="L113" t="s">
         <v>617</v>
       </c>
       <c r="M113" t="s">
-        <v>956</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Covid_SLR_Dataset.xlsx
+++ b/Dataset/Covid_SLR_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\FASS-SLR\FASS-SLR\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D3FA5-D25E-4A5D-AED8-AC86408C67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31597757-B82F-4F4B-AB68-5A198C10A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5323,6 +5323,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -5476,7 +5479,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/Dataset/Covid_SLR_Dataset.xlsx
+++ b/Dataset/Covid_SLR_Dataset.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\FASS-SLR\FASS-SLR\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31597757-B82F-4F4B-AB68-5A198C10A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20532A48-B614-4CD5-8EE9-14AF150B71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1454">
   <si>
     <t>SLR Name</t>
   </si>
@@ -5318,13 +5318,4949 @@
 ("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children caused by SARS-CoV-2"[Title/Abstract]) AND "systematic review on clinical features and management"[Title/Abstract]
 </t>
   </si>
+  <si>
+    <t>ChatGPT +Related works</t>
+  </si>
+  <si>
+    <t>("Global Seasonality of Human Seasonal Coronaviruses" OR "sCoV seasonality") AND ("Severe Acute Respiratory Syndrome Coronavirus 2" OR "SARS-CoV-2" OR "COVID-19")
+("Viral aetiology of acute respiratory infections" OR "respiratory syncytial virus" OR "human seasonal coronaviruses") AND ("southern China" OR "Shantou")
+("Clinical and Etiological Characteristics of Influenza-Like Illness" OR "ILI outpatients") AND ("Shanghai" OR "southern temperate region" OR "influenza A virus")
+("Prevalence and Seasonal Distribution of Respiratory Viruses" OR "ARTI in Istanbul" OR "respiratory syncytial virus A/B") AND ("children" OR "adults" OR "nasopharyngeal swab")
+("The Role of Human Coronaviruses in Children Hospitalized" OR "acute bronchiolitis" OR "acute gastroenteritis") AND ("febrile seizures" OR "HCoV associations" OR "prospective study")
+("Respiratory syncytial virus epidemics in 15 European countries" OR "RSV seasonality" OR "lower respiratory tract infections") AND ("infants" OR "young children" OR "sentinel RSV laboratory diagnoses")
+("Influenza virus" OR "respiratory syncytial virus" OR "human metapneumovirus") AND ("temperature" OR "humidity" OR "wind velocity")
+("Coronavirus disease 2019" OR "COVID-19" OR "postpandemic preparedness") AND ("seasonal outbreaks" OR "circulating pattern" OR "knowledge pool")
+("Acute respiratory infections" OR "respiratory viruses" OR "multiplex real-time PCR") AND ("children" OR "nasal/throat-flocked swabs" OR "meteorological factors")
+("Seasonality and geographical spread of respiratory syncytial virus" OR "RSV infection" OR "lower respiratory tract infections") AND ("European Union" OR "European Economic Area" OR "surveillance systems")</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("clinical features"[Title/Abstract] OR "manifestations"[Title/Abstract])
+("severe clinical course"[Title/Abstract] OR "critical illness"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("risk factors"[Title/Abstract] OR "associated factors"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("demographic characteristics"[Title/Abstract] OR "patient characteristics"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("laboratory findings"[Title/Abstract] OR "biomarkers"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("comorbidities"[Title/Abstract] OR "underlying diseases"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("clinical outcomes"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("meta-analysis"[Publication Type] OR "systematic review"[Publication Type]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("pandemic"[Title/Abstract] OR "global outbreak"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("healthcare resource allocation"[Title/Abstract] OR "resource management"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])</t>
+  </si>
+  <si>
+    <t>("Diagnostic Test Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Tomography, X-Ray Computed"[Mesh] OR "Ultrasonography"[Mesh])
+("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract])
+("Suboptimal Reporting"[Mesh] OR "Bias"[Mesh]) AND ("Chest Radiography"[Mesh] OR "Tomography, X-Ray Computed"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract])
+("Radiologists"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tomography, X-Ray Computed"[Mesh] OR "Sensitivity and Specificity"[Mesh])
+("Reverse-Transcription Polymerase Chain Reaction"[Mesh] OR "Clinical Consensus"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Ultrasonography"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Diagnostic Accuracy"[Mesh] OR "Chest CT"[Title/Abstract] OR "CT Scans"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Radiological Features"[Mesh] OR "Clinical Manifestations"[Mesh])
+("Sensitivity and Specificity"[Mesh]) AND ("Viral Pneumonia"[Mesh] OR "Respiratory Pathogen Panel"[Title/Abstract]) AND ("Radiologists"[Mesh])
+("Chest CT"[Mesh] OR "Radiological Semantics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Features"[Mesh])
+("Quantitative CT"[Mesh] OR "Opacity Visibility"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Radiographs"[Mesh])</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Comorbidity"[Mesh] OR "Clinical Outcomes"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+("White Blood Cell Count"[Mesh] OR "Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh] OR "Procalcitonin"[Mesh] OR "Lactate Dehydrogenase"[Mesh] OR "Creatinine"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+("Mortality"[Mesh] OR "Death"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+("C-Reactive Protein"[Mesh] OR "Erythrocyte Sedimentation Rate"[Mesh] OR "Lactate Dehydrogenase"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Symptomatic"[Mesh])
+("Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Symptomatic Stage"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Comorbidity"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Medical Staff"[Mesh])
+("D-Dimer"[Mesh] OR "Fibrin Degradation Products"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prognosis"[Mesh] OR "Poor Prognosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intrauterine Infection"[Mesh] OR "Vertical Transmission"[Mesh]) AND ("Pregnancy"[Mesh] OR "Pregnant Women"[Mesh])
+("ICU Admission"[Mesh] OR "Mortality"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Spectrum of Disease"[Mesh] OR "Clinical Outcomes"[Mesh])
+("SARS-CoV-2"[Mesh] OR "COVID-19"[Title/Abstract]) AND ("Symptoms"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Zhejiang Province"[Mesh] OR "China"[Mesh])</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Sex"[Mesh] OR "Sex-Specific"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh] OR "Mortality"[Mesh])
+("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Title/Abstract]) AND ("Survival"[Mesh] OR "Mortality"[Mesh]) AND ("Spain"[Mesh])
+("Covid-19"[Title/Abstract]) AND ("Critically Ill Patients"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Seattle"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Progression"[Mesh] OR "Disease Course"[Mesh]) AND ("Shanghai"[Mesh] OR "China"[Mesh])
+("2019-nCoV"[Mesh] OR "Novel Coronavirus"[Mesh] OR "COVID-19"[Title/Abstract]) AND ("Epidemiological Characteristics"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Pneumonia"[Mesh] OR "Respiratory Diseases"[Mesh]) AND ("Wuhan"[Mesh] OR "China"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Deceased Patients"[Mesh] OR "Mortality"[Mesh]) AND ("Clinical Characteristics"[Mesh] OR "Laboratory Findings"[Mesh]) AND ("Wuhan"[Mesh] OR "China"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Hypoxemic Respiratory Failure"[Mesh]) AND ("Vasopressors"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Male Sex"[Mesh] OR "Gender Differences"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh]) AND ("Meta-Analysis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Older Patients"[Mesh] OR "Elderly"[Mesh] OR "Comorbidities"[Mesh]) AND ("Mortality"[Mesh] OR "Life-Saving"[Title/Abstract]) AND ("Seattle"[Mesh])
+("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Cardiovascular Complications"[Mesh] OR "Multi-Organ Dysfunction"[Mesh]) AND ("Acute Respiratory Distress Syndrome"[Mesh] OR "Sepsis"[Mesh]) AND ("Risk Factors"[Mesh] OR "High-Risk Patients"[Mesh])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Resource Utilization"[Mesh]) AND ("Early Versus Late"[Title/Abstract] OR "Timing"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh]) AND ("Meta-Analysis"[Mesh] OR "Systematic Review"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Mortality Rate"[Mesh] OR "ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Timing"[Mesh] OR "Optimal Timing"[Mesh]) AND ("Outcomes"[Mesh] OR "Complications"[Mesh]) AND ("European Intensive Care Units"[Mesh] OR "European Countries"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Survival Rate"[Mesh] OR "ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("APACHE-II Score"[Mesh]) AND ("Prospective Observational Study"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Ventilation Duration"[Mesh] OR "ICU Length of Stay"[Mesh]) AND ("Timing"[Mesh] OR "Prospective Cohort Study"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Complications"[Mesh] OR "Infection Risk"[Mesh]) AND ("Dedicated Airway Team"[Title/Abstract] OR "Education Programme"[Title/Abstract]) AND ("Outcomes"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Timing of Tracheostomy"[Mesh] OR "Effect on Survival"[Mesh]) AND ("Multicenter Study"[Mesh] OR "Retrospective Study"[Mesh]) AND ("Percutaneous Tracheostomy"[Mesh] OR "Surgical Tracheostomy"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Safety"[Mesh] OR "30-day Outcomes"[Mesh]) AND ("Prospective Observational Cohort Study"[Mesh] OR "Mechanical Ventilation"[Mesh]) AND ("Birmingham"[Mesh] OR "UK"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Renin-Angiotensin-Aldosterone System Inhibitors"[Mesh] OR "RAAS Inhibitors"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Meta-analysis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Ramipril"[Mesh] OR "ACE Inhibitors"[Mesh]) AND ("High-Risk Patients"[Mesh] OR "Cardiovascular Disease"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Outpatients"[Mesh] OR "Hospital Admission"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Severe Infection"[Mesh] OR "Mortality"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("UK"[Mesh] OR "United Kingdom"[Mesh]) AND ("Acute Hospital Trust"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Epidemiological Features"[Mesh] OR "Demographic Characteristics"[Mesh]) AND ("Treatment Outcome"[Mesh] OR "Blood Pressure Control"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("ACE Inhibitors"[Mesh] OR "ARB"[Mesh]) AND ("Continuation"[Mesh] OR "Discontinuation"[Mesh]) AND ("Blood Pressure Control"[Mesh] OR "Mortality"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Severe Cases"[Mesh] OR "Severe Infection"[Mesh]) AND ("Epidemiological Features"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Therapeutic Features"[Mesh] OR "Treatment Outcome"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Severe Cases"[Mesh] OR "Severe Infection"[Mesh]) AND ("Predictors of Mortality"[Mesh] OR "Survival Prediction"[Mesh]) AND ("Cardiovascular Disease"[Mesh] OR "NLR"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Beneficial Effect"[Mesh] OR "Cardiovascular Disease"[Mesh]) AND ("Arbidol"[Mesh] OR "Ribavirin"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Non-alcoholic Fatty Liver Disease"[Mesh] OR "NAFLD"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Meta-analysis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chronic Liver Disease"[Mesh] OR "CLD"[Title/Abstract]) AND ("Hospitalized Patients"[Mesh] OR "United States"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Hepatic Steatosis"[Mesh] OR "Liver Injury"[Mesh]) AND ("Disease Severity"[Mesh] OR "Michigan Medicine"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD/NASH"[Title/Abstract] OR "Non-alcoholic Steatohepatitis"[Mesh]) AND ("Hospitalization Risk"[Mesh] OR "Logistic Regression"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Features"[Mesh] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Jiangsu Province"[Mesh] OR "China"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Liver Injury"[Mesh] OR "Hepatic Steatosis Index"[Mesh]) AND ("Obesity"[Mesh] OR "Disease Severity"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Risk of Hospitalization"[Mesh] OR "Abnormal Liver Function"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chronic Liver Diseases"[Mesh] OR "Liver Function"[Mesh]) AND ("HSI"[Title/Abstract] OR "Hepatic Steatosis Index"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Age"[Mesh] OR "Risk Factors"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Liver Injury"[Mesh] OR "ALT Elevation"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Epidemiology"[Mesh] OR "Meta-Analysis"[Publication Type])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Devastating Consequences"[Title/Abstract] OR "Case Fatality Rates"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Distinct Vulnerable Population"[Title/Abstract] OR "Single-Facility Attack Rates"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Asymptomatic Cases"[Mesh] OR "Rate of Hospitalization"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Index Case"[Mesh] OR "Staff Member"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Temperature Screening"[Mesh] OR "Fever Threshold"[Title/Abstract])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Universal Testing"[Mesh] OR "Infection Control Measures"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Risk Factors"[Mesh] OR "Clinical Characteristics"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Frailty"[Mesh] OR "Staff Residence"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Case Investigation"[Mesh] OR "Infection Prevention and Control"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Autopsy"[Mesh] OR "Postmortem Studies"[Mesh]) AND ("Cardiac Injury"[Title/Abstract] OR "Tissue Diagnosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Ultrasound-Guided Minimally Invasive Autopsy"[Title/Abstract] OR "Systemic Involvement"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Autopsy Findings"[Mesh] OR "Cardiopulmonary Pathology"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Examiner"[Mesh] OR "Coroner Offices"[Mesh]) AND ("Autopsy Protocol"[Mesh] OR "Biosafety Guidance"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Diffuse Alveolar Damage"[Mesh] OR "Microthrombotic Vascular Phenomena"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("In-Corpore Technique"[Title/Abstract] OR "Postmortem Findings"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Respiratory Failure"[Mesh] OR "Diffuse Alveolar Damage"[Mesh]) AND ("Massive Capillary Congestion"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Bronchopneumonia"[Mesh] OR "Pulmonary Embolism"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Pulmonary Thrombotic Microangiopathy"[Mesh] OR "Cardiac Amyloidosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Hypertensive Patients"[Mesh] OR "Severe Cardiovascular Comorbidities"[Mesh]) AND ("Blood Group A"[Mesh] OR "Mortality Rates"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Mid-Turbinate Swabs"[Mesh]) AND ("Sensitivity and Specificity"[Mesh] OR "Meta-Analysis"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "MRSA Swabs"[Mesh]) AND ("SARS-CoV-2"[Title/Abstract] OR "PCR Testing"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swab Sampling"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "Viral Loads"[Mesh]) AND ("Sensitivity and Specificity"[Mesh] OR "Concordance"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NP Swabs"[Mesh] OR "Nasal Swab Collection"[Title/Abstract]) AND ("Viral Transport Media"[Mesh] OR "Dry Swabs"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swabs"[Mesh]) AND ("Abbott SARS-CoV-2 RealTime EUA"[Title/Abstract] OR "RT-PCR"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NP Swabs"[Mesh] OR "Nasal Testing"[Title/Abstract]) AND ("Screening"[Mesh] OR "Low-Prevalence Populations"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "NP Swabs"[Mesh]) AND ("Specimen Types"[Mesh] OR "Saliva Stabilization Solutions"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "Viral Swabs"[Mesh]) AND ("SARS-CoV-2 PCR Testing"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("SARS-CoV-2 Detection"[Mesh] OR "Diagnostic Testing"[Mesh]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swabs"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Diabetes Mellitus"[Mesh] OR "Type 2 Diabetes Mellitus"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Susceptibility"[Mesh] OR "Outcomes"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Inflammatory Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Prognosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Mortality"[Mesh] OR "ARDS Incidence"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Cohort Studies"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Mortality"[Mesh] OR "ARDS Incidence"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Retrospective Studies"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Safety and Efficacy"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Acidosis"[Mesh] OR "Kidney Function"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Incidence"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Heart Failure"[Mesh] OR "Inflammation"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Clinical Evidence"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("COVID-19-Related Mortality"[Mesh] OR "Prognosis"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Gender"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Severe COVID-19"[Mesh] OR "Acidosis"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Incidence"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Mortality Prediction"[Title/Abstract] OR "Clinical Prediction Rules"[Mesh]) AND ("Severe COVID-19"[Title/Abstract] OR "Severe SARS-CoV-2 Infection"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality Prediction"[Title/Abstract] OR "Prognostic Model"[Title/Abstract]) AND ("Nomogram"[Mesh] OR "Risk Factors"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality Prediction"[Title/Abstract] OR "Clinical Prediction Model"[Title/Abstract]) AND ("Machine Learning"[Mesh] OR "Artificial Intelligence"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Survival Probability"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Clinical Features"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prediction Model"[Title/Abstract] OR "Outcome Prediction"[Title/Abstract]) AND ("Multicenter Study"[Mesh] OR "Retrospective Cohort Study"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prognostic Nutritional Index"[Mesh] OR "PNI"[Title/Abstract]) AND ("Wuhan, China"[Title/Abstract] OR "Prognostic Nomogram"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("De Ritis Ratio"[Mesh] OR "AST/ALT Ratio"[Title/Abstract]) AND ("In-Hospital Mortality"[Mesh] OR "Predictive Biomarker"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Prediction Model"[Title/Abstract] OR "Cox Regression Analysis"[Mesh]) AND ("Age"[Mesh] AND "Oxygen Saturation"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Biomarkers"[Mesh]) AND ("Prognostic Model"[Title/Abstract] OR "Survival Probability"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Risk Factors"[Mesh] OR "Prognostication"[Title/Abstract]) AND ("Machine Learning"[Mesh] OR "Predictive Modeling"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intubation, intratracheal"[MeSH Terms] OR "intubation, intratracheal"[All Fields]) AND ("Time Factors"[MeSH Terms] OR "Time Factors"[All Fields]))
+(("Severe Acute Respiratory Syndrome Coronavirus 2"[MeSH Terms] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[All Fields] OR "SARS-CoV-2"[All Fields] OR "COVID-19"[All Fields]) AND ("Intensive Care Units"[MeSH Terms] OR "Intensive Care Units"[All Fields] OR "Critical Illness"[MeSH Terms] OR "Critical Illness"[All Fields]) AND ("Italy"[MeSH Terms] OR "Italy"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Respiratory Insufficiency"[MeSH Terms] OR "Respiratory Insufficiency"[All Fields]) AND ("Patient Admission"[MeSH Terms] OR "Patient Admission"[All Fields]) AND ("Tomography, X-Ray Computed"[MeSH Terms] OR "Tomography, X-Ray Computed"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Intensive Care Units"[MeSH Terms] OR "Intensive Care Units"[All Fields]) AND ("Tunisia"[MeSH Terms] OR "Tunisia"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Observational Study"[Publication Type] OR "Observational Study"[All Fields]) AND ("Intubation, Intratracheal"[MeSH Terms] OR "Intubation, Intratracheal"[All Fields]) AND ("Disease Outbreaks"[MeSH Terms] OR "Disease Outbreaks"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Ventilators, Mechanical"[MeSH Terms] OR "Ventilators, Mechanical"[All Fields]) AND ("Germany"[MeSH Terms] OR "Germany"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Acute Respiratory Distress Syndrome"[MeSH Terms] OR "Acute Respiratory Distress Syndrome"[All Fields]) AND ("Prospective Studies"[MeSH Terms] OR "Prospective Studies"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("ICU Length of Stay"[MeSH Terms] OR "ICU Length of Stay"[All Fields]) AND ("France"[MeSH Terms] OR "France"[All Fields] OR "Belgium"[MeSH Terms] OR "Belgium"[All Fields] OR "Switzerland"[MeSH Terms] OR "Switzerland"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("ARDS"[MeSH Terms] OR "ARDS"[All Fields]) AND ("Mechanical Ventilation"[MeSH Terms] OR "Mechanical Ventilation"[All Fields]) AND ("Predictive Factors"[MeSH Terms] OR "Predictive Factors"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("Clinical Decision-Making"[MeSH Terms] OR "Clinical Decision-Making"[All Fields]) AND ("Resource Planning"[MeSH Terms] OR "Resource Planning"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t>(("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND ("clinical outcomes"[Title/Abstract] OR "severe outcome"[Title/Abstract]))
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND ("safety"[Title/Abstract] OR "efficacy"[Title/Abstract]))
+(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "COVID-19"[Title/Abstract])
+(("renin-angiotensin-aldosterone system inhibitors"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "Covid-19"[Title/Abstract])
+(("angiotensin receptor blockers"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract]) AND "risk of Covid-19"[Title/Abstract])
+(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "coronavirus disease 2019"[Title/Abstract])
+(("renin-angiotensin-aldosterone system blockers"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "Covid-19"[Title/Abstract] AND "meta-analysis"[Title/Abstract])
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ACE inhibitors"[Title/Abstract] AND "severe outcome"[Title/Abstract])
+(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "clinical outcomes"[Title/Abstract] AND "systematic review"[Title/Abstract])
+(("renin-angiotensin-aldosterone system inhibitors"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "sofosbuvir-based treatment"[Title/Abstract] AND "randomized controlled trials"[Publication Type])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract] OR "ribavirin"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "hospitalized patients"[Title/Abstract] AND "moderate disease"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract] OR "SOF/LDP"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract]) AND "COVID-19 outpatients"[Title/Abstract] AND "double-blind"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract]) AND "COVID-19 severe cases"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "ledipasvir"[Title/Abstract]) AND "treatment of patients with COVID-19"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "velpatasvir"[Title/Abstract]) AND "hospitalized with COVID-19"[Title/Abstract] AND "randomized controlled trial"[Publication Type])
+(("SOF/LDP"[Title/Abstract] OR "sofosbuvir"[Title/Abstract]) AND "mild to moderate COVID-19"[Title/Abstract])
+(("SOF/VEL"[Title/Abstract] OR "sofosbuvir"[Title/Abstract]) AND "moderate to severe COVID-19"[Title/Abstract])
+(("SOF/VEL"[Title/Abstract] OR "sofosbuvir"[Title/Abstract] OR "velpatasvir"[Title/Abstract]) AND "national standard of care"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroid use"[Title/Abstract] AND "systematic review"[Publication Type])
+(("corticosteroids"[Title/Abstract] OR "dexamethasone"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "mortality"[Title/Abstract])
+(("corticosteroid treatment"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "viral clearance"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract])
+(("corticosteroids"[Title/Abstract] OR "methylprednisolone"[Title/Abstract]) AND "severe COVID-19 pneumonia"[Title/Abstract])
+(("corticosteroid therapy"[Title/Abstract] OR "COVID-19 outcomes"[Title/Abstract]) AND "acute respiratory distress syndrome"[Title/Abstract])
+(("corticosteroid treatment"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "hospital length of stay"[Title/Abstract] AND "duration of symptoms"[Title/Abstract])
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroids"[Title/Abstract] AND "observational studies"[Publication Type])
+(("corticosteroid use"[Title/Abstract] OR "dexamethasone"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "viral clearance time"[Title/Abstract])
+(("prolonged low-dose methylprednisolone"[Title/Abstract] OR "severe COVID-19 pneumonia"[Title/Abstract]) AND "ICU referral"[Title/Abstract] AND "intubation"[Title/Abstract])
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroids"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "dementia comorbidities"[Title/Abstract] AND "meta-analysis"[Publication Type])
+(("preexisting dementia"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "incidence"[Title/Abstract] AND "mortality"[Title/Abstract])
+(("dementia comorbidities"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "fixed-effect model"[Title/Abstract] AND "forest plots"[Title/Abstract])
+(("COVID-19 mortality"[Title/Abstract] OR "dementia comorbidities"[Title/Abstract]) AND "statistical data"[Title/Abstract] AND "prevalence"[Title/Abstract])
+(("preexisting dementia"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "risk factors"[Title/Abstract] AND "mortality rate"[Title/Abstract])
+(("COVID-19 clinical presentation"[Title/Abstract] OR "dementia patients"[Title/Abstract]) AND "outcomes"[Title/Abstract] AND "hospitalization"[Title/Abstract])
+(("clinical symptoms of COVID-19"[Title/Abstract] OR "dementia comorbidities"[Title/Abstract]) AND "retrospective study"[Publication Type])
+(("COVID-19 prognosis in dementia patients"[Title/Abstract] OR "mortality risk factors"[Title/Abstract]) AND "single-center study"[Publication Type])
+(("preexisting comorbidities"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "frailty"[Title/Abstract] AND "short-term mortality"[Title/Abstract])
+(("COVID-19 risk stratification"[Title/Abstract] OR "prognostic factors"[Title/Abstract]) AND "older adults aged 80 years and above"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ethnicity"[Title/Abstract] AND "clinical outcomes"[Title/Abstract])
+(("COVID-19 infection risk"[Title/Abstract] OR "ethnicity"[Title/Abstract]) AND "meta-analysis"[Publication Type])
+(("COVID-19 infection risk"[Title/Abstract] OR "ethnicity"[Title/Abstract]) AND "peer-reviewed studies"[Publication Type])
+(("Asian ethnicity"[Title/Abstract] OR "Black ethnicity"[Title/Abstract]) AND "COVID-19 infection risk"[Title/Abstract])
+(("ethnicity and COVID-19 mortality"[Title/Abstract] OR "clinical outcomes in COVID-19"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
+(("COVID-19 hospitalization risk"[Title/Abstract] OR "intensive therapy unit admission"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
+(("ethnicity and COVID-19 death risk"[Title/Abstract] OR "COVID-19 meta-analysis"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
+(("COVID-19 clinical outcomes"[Title/Abstract] OR "ethnicity and COVID-19 risk factors"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
+(("COVID-19 prevalence in ethnicity"[Title/Abstract] OR "ethnic disparities in COVID-19"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
+(("ethnicity and COVID-19 morbidity"[Title/Abstract] OR "COVID-19 mortality risk factors"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Kidney"[Mesh] OR "Renal System"[tiab])
+("SARS-CoV-2 spike protein"[tiab] OR "Angiotensin-converting enzyme 2"[tiab] OR "TMPRSS2 protein, human"[tiab]) AND ("Viral Receptors"[Mesh] OR "Membrane Proteins"[Mesh])
+("Grey wolf optimizer"[tiab] OR "GWO algorithm"[tiab]) AND ("Viral Receptors"[Mesh] OR "Membrane Proteins"[Mesh])
+("ACE2 protein"[tiab] OR "TMPRSS2 protein, human"[tiab]) AND ("Single-Cell Analysis"[Mesh] OR "Mass Spectrometry"[Mesh] OR "Immunohistochemistry"[Mesh])
+("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Acute Kidney Injury"[Mesh] OR "Kidney Proximal Tubule Cells"[Mesh])
+("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mortality"[Mesh] OR "Intensive Care Units"[Mesh])
+("Severe acute respiratory syndrome coronavirus"[tiab] OR "SARS-CoV"[tiab]) AND ("ICU admission"[tiab] OR "High mortality"[tiab])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Blood Urea Nitrogen"[Mesh] OR "Creatinine"[Mesh] OR "Albuminuria"[Mesh])
+("2019 novel coronavirus"[tiab] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Acute Kidney Injury"[Mesh] OR "Renal Function"[Mesh])
+("Clinical Characteristics"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("SARS-CoV-2 RNA"[Mesh] OR "Renal Function"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Relapse"[Mesh] OR "Disease Recurrence"[Mesh])
+("Severe acute respiratory syndrome coronavirus 2"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Reactivation"[Mesh] OR "Virus Activation"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Medical Staff"[Mesh] OR "Recovered Patients"[Mesh]) AND ("Surveillance"[Mesh] OR "Virus Detection"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Viral Load"[Mesh] OR "Serum Antibodies"[Mesh]) AND ("Observational Cohort Study"[Mesh] OR "Cohort Analysis"[Mesh])
+("SARS-CoV-2 spike glycoprotein"[tiab] OR "COVID-19 Convalescent Patients"[Mesh]) AND ("Immunodominant Regions"[Mesh] OR "Neutralising Antibodies"[Mesh])
+("2019-nCoV"[tiab] OR "COVID-19"[tiab]) AND ("Shedding Routes"[Mesh] OR "Transmission Routes"[Mesh]) AND ("Oral Swabs"[Mesh] OR "Anal Swabs"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Respiratory Viral Load"[Mesh] OR "Serial Viral Load"[Mesh]) AND ("Posterior Oropharyngeal Saliva"[Mesh] OR "Throat Swabs"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Seropositivity"[Mesh] OR "Antibody Levels"[Mesh]) AND ("Virus Neutralisation"[Mesh] OR "Antiviral Agents"[Mesh])
+("COVID-19 Convalescent Patients"[Mesh] OR "COVID-19 Vaccines"[Mesh]) AND ("Immunogenic Targets"[Mesh] OR "B-Cell Epitopes"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Multiple Shedding Routes"[Mesh] OR "Oral-Fecal Route"[Mesh]) AND ("Virus Detection"[Mesh] OR "Serology Test"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Invasive Mechanical Ventilation"[Mesh] OR "Mechanical Ventilation"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Elderly Patients"[Mesh] OR "Aged Patients"[Mesh] OR "Older Patients"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cardiovascular Disease"[Mesh] OR "Myocardial Injury"[Mesh] OR "Fatal Outcomes"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cluster of Severe Respiratory Illness"[Mesh] OR "ICU Admission"[Mesh] OR "Mortality"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Epidemiological Characteristics"[Mesh] OR "Clinical Characteristics"[Mesh] OR "2019-nCoV Pneumonia"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Viral Infection"[Mesh] OR "Respiratory Symptoms"[Mesh] OR "Pneumonitis"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Practices"[Mesh] OR "IMV Devices"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("NIH Quality Assessment Tool"[Mesh] OR "Cohort Studies"[Mesh] OR "Cross-Sectional Studies"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Symptoms Onset"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Hypoxemic Respiratory Failure"[Mesh] OR "Hypotension"[Mesh] OR "Vasopressor Treatment"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Non-Invasive Ventilation"[Mesh] OR "Oxygenation Approaches"[Mesh] OR "Respiratory Failure"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Benefits"[Mesh] OR "Mechanical Ventilation Harms"[Mesh] OR "Ventilation Techniques"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Mortality"[Mesh] OR "COVID-19 Transmission"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Severe Acute Respiratory Syndrome Mortality"[Mesh] OR "Middle East Respiratory Syndrome Mortality"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Noninvasive Ventilation Mortality"[Mesh] OR "Invasive Mechanical Ventilation Mortality"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Risk of Transmission"[Mesh] OR "Aerosol-Generating Procedures"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Healthcare Worker Infection Risk"[Mesh] OR "Transmission to Healthcare Workers"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Non-Invasive Ventilation vs. Invasive Mechanical Ventilation"[Mesh] OR "NIV vs. IMV"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mortality Reduction with Noninvasive Ventilation"[Mesh] OR "COVID-19 Healthcare Worker Transmission"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Systematic Reviews"[Mesh] OR "COVID-19 Certainty of Evidence"[Mesh] OR "GRADE Assessment"[Mesh])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Transmission"[Mesh] OR "Infection Risk"[Mesh] OR "Healthcare Worker Infection"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Aerosol Generation in CPR"[Mesh] OR "Aerosol Transmission"[Mesh] OR "Airborne Infection Transmission"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Personal Protective Equipment Strategies"[Mesh] OR "PPE for Rescuers"[Mesh] OR "PPE Delay in Treatment Delivery"[Mesh])
+("Middle East Respiratory Syndrome"[tiab] OR "MERS"[tiab]) AND ("Healthcare Worker Infections"[Mesh] OR "MERS Transmission during CPR"[Mesh])
+("Severe Acute Respiratory Syndrome"[tiab] OR "SARS"[tiab]) AND ("SARS-CoV Infection Transmission"[Mesh] OR "SARS Transmission during Resuscitation"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("Infection Risk in Healthcare Workers"[Mesh] OR "SARS Transmission Routes"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("Healthcare Worker Infections"[Mesh] OR "SARS Transmission during Intubation"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("SARS-CoV Infection Prevention"[Mesh] OR "Healthcare Worker PPE Use"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("SARS-CoV Transmission Factors"[Mesh] OR "SARS-CoV Transmission Control"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Convalescent Blood Products"[Mesh] OR "Convalescent Plasma"[Mesh]) AND ("Severe Acute Respiratory Infections"[Mesh] OR "Viral Infections"[Mesh])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Survival Advantage"[Mesh] OR "All-Cause Mortality"[Mesh])
+("Convalescent Blood Products"[tiab] OR "Convalescent Plasma"[tiab]) AND ("Randomized Controlled Trials as Topic"[Mesh] OR "RCTs on Viral Infections"[Mesh])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Adverse Events"[Mesh] OR "Safety of CBPs"[Mesh])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Early Initiation of Therapy"[Mesh] OR "Mortality Reduction"[Mesh])
+("Influenza, Human"[Mesh] OR "Severe Influenza"[Mesh]) AND ("Immune Plasma Treatment"[Mesh] OR "Neutralizing Antibodies"[Mesh])
+("Severe Influenza"[tiab] OR "Severe SARS-CoV-2 Infection"[tiab]) AND ("Convalescent Plasma"[tiab] OR "Neutralizing Antibodies"[tiab])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Moderate COVID-19"[Mesh] OR "COVID-19 Treatment in Adults"[Mesh])
+("Severe Influenza"[tiab] OR "Pandemic Influenza A(H1N1) 2009"[tiab]) AND ("Convalescent Plasma Treatment"[Mesh] OR "Viral Load Suppression"[Mesh])
+("Severe Acute Respiratory Syndrome"[Mesh] OR "SARS-CoV-2"[tiab]) AND ("Convalescent Plasma"[tiab] OR "Methylprednisolone Treatment"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Pregnancy Complications"[Mesh] OR "Maternal Complications"[Mesh])
+("Anesthesia, Epidural"[Mesh] OR "General Anesthesia"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Parturients with SARS-CoV-2 Infection"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Pregnancy Outcomes"[Mesh] OR "Healthcare Workers"[Mesh])
+("COVID-19 Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("Pregnant Patients"[Mesh] OR "Chest CT"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Clinical Characteristics"[Mesh] OR "Outcomes in Pregnancy"[Mesh])
+("COVID-19 Pneumonia"[Mesh] OR "COVID-19 Clinical Characteristics"[Mesh]) AND ("CT Absorption"[Mesh] OR "Symptomatic Pregnant Patients"[Mesh])
+("COVID-19 Pneumonia"[Mesh] OR "COVID-19 in Pregnant Women"[Mesh]) AND ("Vertical Transmission"[Mesh] OR "SARS-CoV-2 in Neonates"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Clinical Characteristics"[Mesh] OR "Pregnant Women in Wuhan"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Clinical Characteristics"[Mesh] OR "Outcomes in Pregnancy"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Vertical Transmission"[Mesh] OR "Outcomes in Pregnant Women"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Novel Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Coagulation Parameters"[Mesh] OR "Prognosis"[Mesh])
+("Novel Coronavirus Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("CT Findings"[Mesh] OR "Temporal Changes"[Mesh])
+("Epidemiological Data"[Mesh] OR "Population-level Study"[Mesh]) AND ("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh])
+("Clinical Indexes"[Mesh] OR "Biochemical Parameters"[Mesh]) AND ("2019-nCoV Infection"[Mesh] OR "Viral Loads"[Mesh] OR "Lung Injury"[Mesh])
+("Chest CT"[Mesh] OR "CT Findings"[Mesh]) AND ("Duration of Infection"[Mesh] OR "Time Between Symptom Onset and CT Scan"[Mesh])
+("Novel Coronavirus Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("Characteristics of Pneumonia"[Mesh] OR "Imaging Features"[Mesh])
+("News Media"[Mesh] OR "Social Networks"[Mesh]) AND ("Epidemiological Data"[Mesh] OR "Patient-level Data"[Mesh])
+("Novel Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Clinical Symptoms"[Mesh] OR "Laboratory Findings"[Mesh])
+("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND ("Patient Mortality"[Mesh] OR "Mortality Rate"[Mesh])
+("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND ("Epidemiology"[Mesh] OR "Outbreak Progression"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>("COVID-19 Stigma"[Mesh] OR "COVID-19 Discrimination"[Mesh]) AND ("Stigma Reduction Interventions"[Mesh] OR "Discrimination Reduction Strategies"[Mesh])
+("HIV-related Stigma"[Mesh] OR "HIV Discrimination"[Mesh]) AND ("Healthcare Settings"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("Quantitative Evidence"[Mesh] OR "Randomized Controlled Trials"[Mesh])
+("Self-stigma in Mental Illness"[Mesh] OR "Self-stigmatization"[Mesh]) AND ("Workplace Interventions"[Mesh] OR "Mental Health Stigma Reduction"[Mesh])
+("Mental Illness Stigma"[Mesh] OR "Stigma Reduction Interventions"[Mesh]) AND ("Primary Health Care in LMICs"[Mesh] OR "Low and Middle-Income Countries"[Mesh])
+("Self-stigma in People Living with HIV"[Mesh] OR "Internalized Stigma"[Mesh]) AND ("Interventions to Address Self-stigma"[Mesh] OR "Self-stigma Reduction"[Mesh])
+("Stigma Reduction Strategies"[Mesh] OR "Discrimination Prevention"[Mesh]) AND ("Mental Health Interventions"[Mesh] OR "Mental Health Promotion"[Mesh])
+("HIV Stigma Interventions"[Mesh] OR "Stigma Reduction Programs"[Mesh]) AND ("Low and Middle-Income Countries"[Mesh] OR "Global Public Health"[Mesh])
+("HIV/AIDS Stigma"[Mesh] OR "Internalized Stigma"[Mesh]) AND ("Stigma Reduction in Key Populations"[Mesh] OR "Stigma Reduction in Pregnant Women"[Mesh])
+("HIV-related Discrimination"[Mesh] OR "HIV and Health Services"[Mesh]) AND ("Structural Interventions"[Mesh] OR "Scale-up of Antiretroviral Treatment"[Mesh])
+("Structural Interventions for Self-stigma"[Mesh] OR "Social Empowerment Programs"[Mesh]) AND ("Economic Strengthening Initiatives"[Mesh] OR "Reduction of Medication Stockouts"[Mesh])</t>
+  </si>
+  <si>
+    <t>("Posttraumatic Stress Disorder"[Mesh] OR "PTSD Symptoms"[Mesh]) AND ("Crisis Mental Health Services"[Mesh] OR "Psychological Services"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Clinically Stable COVID-19 Individuals"[Mesh]) AND "China"[Mesh]
+("Psychological Impact"[Mesh] OR "Coping Strategies"[Mesh]) AND ("Frontline Medical Staff"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19 Outbreak"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hubei"[Mesh] AND "Hunan"[Mesh]
+("Basic Needs"[Mesh] OR "Psychological Wellbeing"[Mesh]) AND ("Medical Workers"[Mesh] OR "Healthcare Professionals"[Mesh]) AND ("Fever Clinic"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND "Beijing"[Mesh]
+("Psychological Impact"[Mesh] OR "Mental Health Impact"[Mesh]) AND ("College Students"[Mesh] OR "University Students"[Mesh]) AND "China"[Mesh] AND "COVID-19 Epidemic"[Mesh]
+("Mental Health Problems"[Mesh] OR "Depression"[Mesh] OR "Anxiety"[Mesh]) AND ("Social Media Exposure"[Mesh] OR "Online Media Exposure"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Wuhan"[Mesh] AND "China"[Mesh]
+("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Affected Individuals"[Mesh]
+("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Healthcare Workers"[Mesh]
+("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "General Population"[Mesh]
+("Symptoms of PTSD"[Mesh] OR "Posttraumatic Stress Disorder"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Healthcare Workers"[Mesh]
+("Depression"[Mesh] OR "Anxiety"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "College Students"[Mesh] AND "China"[Mesh]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Intensive Care Units"[Mesh] OR "ICU Admission"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Systematic Review"[Publication Type]
+("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Systematic Review"[Publication Type]
+("PubMed"[Mesh] OR "MEDLINE"[Mesh]) AND ("Science Direct"[Mesh] OR "LILACS"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Observational Study"[Publication Type] AND ("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh])
+("Meta-Analysis"[Publication Type]) AND ("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "ICU Admission"[Mesh]
+("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Meta-Analysis"[Publication Type]
+("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh]) AND "Mortality"[Mesh] AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Meta-Analysis"[Publication Type]
+("Systematic Review"[Publication Type]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Coronavirus Infections"[Mesh]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Meta-Analysis"[Publication Type]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Systematic Review"[Publication Type]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Meta-Analysis"[Publication Type] AND "Morbidity"[Mesh]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Children"[Mesh] OR "Pediatrics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Children"[Mesh]
+("Clinical Characteristics"[Mesh] OR "Laboratory Characteristics"[Mesh] OR "Imaging Characteristics"[Mesh]) AND ("Children"[Mesh] OR "Pediatrics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Observational Study"[Publication Type]
+("Clinical Features"[Mesh] OR "Demographic Data"[Mesh] OR "Symptoms"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+("Cytokine Storm"[Mesh] OR "Immunologic Factors"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+("Epidemiologic Factors"[Mesh] OR "Transmission"[Mesh] OR "Spread"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Undocumented Infections"[Mesh]
+("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Mesh]) AND "COVID-19"[Mesh]
+("Clinical Outcomes"[Mesh] OR "Prognosis"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+("Clinical Features"[Mesh] OR "Symptoms"[Mesh] OR "Imaging"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Comorbidity"[Mesh] OR "Comorbidities"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidity"[Mesh]
+("Hypertension"[Mesh] OR "Obesity"[Mesh] OR "Diabetes Mellitus"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Cancer"[Mesh] OR "Chronic Kidney Disease"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
+("Obesity"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
+("Global Health"[Mesh] OR "Epidemics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidity"[Mesh]
+("Cox Regression Analysis"[Mesh] OR "Nomogram Model"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Fatal Outcome"[Mesh]
+("Clinical Features"[Mesh] OR "Laboratory Findings"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Multivariate Analysis"[Mesh]
+("Kaplan-Meier Analysis"[Mesh] OR "Cox Proportional Hazards Model"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Risk Factors"[Mesh]
+("Prognosis"[Mesh] OR "High-Risk Groups"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidities"[Mesh]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Troponin"[Mesh] OR "Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Myocardial Injury"[Mesh]
+("Troponin"[Mesh] OR "Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
+("Hospital Admission"[Mesh] OR "Critical Illness"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Risk Factors"[Mesh]
+("Black Patients"[Mesh] OR "White Patients"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Hospitalization"[Mesh]
+("Cardiac Injury"[Mesh] OR "High-Sensitivity Troponin-I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Morbidity and Mortality"[Mesh]
+("Outcomes"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Louisiana"[Mesh]
+("Multivariate Analysis"[Mesh] OR "Logistic Regression"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Clinical Outcomes"[Mesh]
+("Cardiac Troponin I"[Mesh] OR "Clinical Outcomes"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Elevated Troponin"[Mesh]
+("Myocardial Injury"[Mesh] OR "Cardiac Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Hospitalized Patients"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>("Acute cardiac injury"[Title/Abstract] OR "troponin"[Title/Abstract] OR "brain natriuretic peptide"[Title/Abstract]) AND "COVID-19"[Title/Abstract]
+("Severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "2019 novel coronavirus"[Title/Abstract]) AND "clinical features"[Title/Abstract]
+("2019 novel coronavirus"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "predictors of mortality"[Title/Abstract]
+("Critically ill patients"[Title/Abstract] OR "SARS-CoV-2 pneumonia"[Title/Abstract]) AND "clinical outcomes"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "intensive care unit"[Title/Abstract]
+("Troponin"[Mesh] OR "Brain Natriuretic Peptide"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Troponin"[Mesh] OR "COVID-19"[Mesh]) AND "Incidence"[Mesh]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Myocardial Injury"[Mesh]
+("Troponin"[Mesh] OR "Brain Natriuretic Peptide"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Clinical Status"[Mesh]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Cardiac Biomarkers"[Mesh]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("risk factors"[Title/Abstract] OR "clinical risk factors"[Title/Abstract]) AND "mortality"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "age"[Title/Abstract] AND "sex"[Title/Abstract] AND "health conditions"[Title/Abstract] AND "mortality"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "systematic review"[Publication Type]
+("dyspnoea"[Title/Abstract] OR "smoking"[Title/Abstract] OR "comorbidities"[Title/Abstract] OR "laboratory parameters"[Title/Abstract]) AND "mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("age"[Title/Abstract] OR "sex"[Title/Abstract] OR "health conditions"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract] AND "COVID-19"[Title/Abstract]
+("clinical features"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract] AND "case-control study"[Publication Type]
+("hospitalized patients"[Title/Abstract] OR "baseline characteristics"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "observational study"[Publication Type]
+("severe COVID-19"[Title/Abstract] OR "in-hospital deaths"[Title/Abstract]) AND "risk factors"[Title/Abstract] AND "scoring system"[Title/Abstract]
+("age"[Title/Abstract] OR "diabetes mellitus"[Title/Abstract] OR "SatO2/FiO2 ratio"[Title/Abstract]) AND "inpatient death"[Title/Abstract] AND "COVID-19"[Title/Abstract]
+("older age"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract] OR "continuous renal replacement therapy"[Title/Abstract]) AND "inpatient mortality"[Title/Abstract] AND "COVID-19"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "maternal clinical characteristics"[Title/Abstract] AND "perinatal outcomes"[Title/Abstract] AND "pregnant women"[Title/Abstract]
+("SARS-CoV-2"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "infection in pregnant women"[Title/Abstract] AND "perinatal outcomes"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "asymptomatic pregnant women"[Title/Abstract] AND "symptomatic pregnant women"[Title/Abstract] AND "New York City hospitals"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "cardiomyopathy in pregnancy"[Title/Abstract] AND "viral myocarditis"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "labor and delivery screening"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "severe acute respiratory distress syndrome"[Title/Abstract] AND "pregnancy"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "uncomplicated delivery"[Title/Abstract] AND "patient with Covid-19"[Title/Abstract]
+("pregnant women"[Title/Abstract] OR "maternal-fetal surveillance"[Title/Abstract]) AND "coronavirus disease 2019"[Title/Abstract] AND "intensive care procedures"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "perinatal outcomes"[Title/Abstract] AND "echocardiogram in pregnancy"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "laboratory analysis"[Title/Abstract] AND "outcome"[Title/Abstract] AND "systematic review"[Publication Type]
+("severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "routine laboratory tests"[Title/Abstract] AND "disease severity"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "meta-analysis"[Publication Type] AND "laboratory tests"[Title/Abstract] AND "outcome"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "coagulation parameters"[Title/Abstract] AND "prognosis"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "platelet-to-lymphocyte ratio"[Title/Abstract] AND "prognosis"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "clinical course"[Title/Abstract] AND "mortality"[Title/Abstract] AND "Wuhan, China"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "abnormal coagulation parameters"[Title/Abstract] AND "novel coronavirus pneumonia"[Title/Abstract]
+("2019 novel coronavirus"[Title/Abstract] OR "2019-nCoV"[Title/Abstract]) AND "clinical features"[Title/Abstract] AND "Wuhan, China"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "viral shedding"[Title/Abstract] AND "disease severity"[Title/Abstract]
+("severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "clinical and biochemical indexes"[Title/Abstract] AND "lung injury"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "non-steroidal anti-inflammatory drugs"[Title/Abstract] AND "acute lower respiratory tract infections"[Title/Abstract] AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "respiratory complications"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "all-cause mortality"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "pleuro-pulmonary complications"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular outcomes"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract] AND "organ failure"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("acute bronchitis"[Title/Abstract] OR "lower respiratory tract infections"[Title/Abstract]) AND "anti-inflammatory treatment"[Title/Abstract] AND "antibiotic therapy"[Title/Abstract] AND "placebo"[Title/Abstract] AND "clinical effectiveness"[Title/Abstract]
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "respiratory complications"[Title/Abstract] AND "acute lower respiratory tract infections"[Title/Abstract]
+("acute bronchitis"[Title/Abstract] OR "lower respiratory tract infections"[Title/Abstract]) AND "anti-inflammatory treatment"[Title/Abstract] AND "antibiotic therapy"[Title/Abstract] AND "placebo"[Title/Abstract] AND "clinical trial"[Publication Type]
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "acute lower respiratory tract infections"[Title/Abstract] AND "meta-analysis"[Publication Type]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("comorbid pulmonary diseases"[Title/Abstract] OR "chronic obstructive pulmonary diseases"[Title/Abstract] OR "COPD"[Title/Abstract] OR "asthma"[Title/Abstract] OR "chronic respiratory diseases"[Title/Abstract] OR "CRD"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("severe COVID-19"[Title/Abstract] OR "severe coronavirus disease 2019"[Title/Abstract]) AND ("comorbid COPD"[Title/Abstract] OR "comorbid chronic obstructive pulmonary diseases"[Title/Abstract] OR "comorbid asthma"[Title/Abstract] OR "comorbid chronic respiratory diseases"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("chronic obstructive pulmonary diseases"[Title/Abstract] OR "COPD"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("chronic respiratory diseases"[Title/Abstract] OR "CRD"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND "asthma"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid COPD"[Title/Abstract] OR "comorbid chronic obstructive pulmonary diseases"[Title/Abstract]) AND "systematic review"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid asthma"[Title/Abstract] OR "asthma patients"[Title/Abstract]) AND "systematic review"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid chronic respiratory diseases"[Title/Abstract] OR "chronic respiratory disease patients"[Title/Abstract]) AND "systematic review"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ICU mortality"[Title/Abstract] AND ("critically ill adults"[Title/Abstract] OR "severe COVID-19 patients"[Title/Abstract])
+("COVID-19 mortality"[Title/Abstract] OR "coronavirus disease 2019 mortality"[Title/Abstract]) AND ("hospitalized patients"[Title/Abstract] OR "COVID-19 hospital admissions"[Title/Abstract]) AND "Seattle"[Affiliation]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("case fatality rates"[Title/Abstract] OR "CFR"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "case fatality rates"[Title/Abstract] AND ("age-stratified CFR"[Title/Abstract] OR "age-specific CFR"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "definitive hospital CFR"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND ("CFR by patient age"[Title/Abstract] OR "CFR in different age groups"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "CFR by geographic region"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "CFR by study quality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "heterogeneity of CFR"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract] AND "mechanical ventilation support"[Title/Abstract] AND "ICU resources"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ECMO for COVID-19"[Title/Abstract] AND "mortality rate"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "hospital-related transmission"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "sociodemographic"[Title/Abstract] AND "clinical risk factors"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "age-specific mortality"[Title/Abstract] AND "sex-specific mortality"[Title/Abstract] AND "health condition-specific mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "dyspnoea"[Title/Abstract] AND "smoking"[Title/Abstract] AND "comorbidities"[Title/Abstract] AND "laboratory parameters"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "age-stratified mortality"[Title/Abstract] AND "sex-stratified mortality"[Title/Abstract] AND "health condition-stratified mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "prognostic effect"[Title/Abstract] AND "clinical conditions"[Title/Abstract] AND "mortality predictors"[Title/Abstract] AND "mean age of patients"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "predictors of COVID-19 mortality"[Title/Abstract] AND "age, sex, and health conditions"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "mortality risk factors"[Title/Abstract] AND "odds ratio"[Title/Abstract] AND "effect size"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract] AND "age-specific predictors"[Title/Abstract] AND "sex-specific predictors"[Title/Abstract] AND "health condition-specific predictors"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "clinical features of severe COVID-19"[Title/Abstract] AND "mortality predictors"[Title/Abstract] AND "prognostic effect"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "age-stratified mortality predictors"[Title/Abstract] AND "sex-stratified mortality predictors"[Title/Abstract] AND "health condition-stratified mortality predictors"[Title/Abstract] AND "meta-analysis"[Publication Type]</t>
+  </si>
+  <si>
+    <t>("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "health-related challenges"[Title/Abstract] AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "systematic review"[Publication Type]
+("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "health challenges"[Title/Abstract] AND "pandemic provisions"[Title/Abstract] AND "anxiety"[Title/Abstract] AND "fear"[Title/Abstract] AND "stress"[Title/Abstract]
+("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "healthcare access"[Title/Abstract] AND "information"[Title/Abstract] AND "government response"[Title/Abstract]
+("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "SDGs 5"[Title/Abstract] AND "equal rights"[Title/Abstract] AND "women empowerment"[Title/Abstract]
+("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "women engagement"[Title/Abstract] AND "pandemic-related services"[Title/Abstract]
+("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "women"[Title/Abstract] AND "public health response"[Title/Abstract] AND "epidemiological surveillance"[Title/Abstract] AND "social-ecological framework"[Title/Abstract]
+("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "contraception"[Title/Abstract] AND "post-abortion care"[Title/Abstract] AND "Honduras"[Title/Abstract] AND "Zika outbreak"[Title/Abstract]
+("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "accessing healthcare services"[Title/Abstract] AND "Colombia"[Title/Abstract] AND "Zika epidemic"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "privately practising midwives"[Title/Abstract] AND "healthcare services planning"[Title/Abstract] AND "health system integration"[Title/Abstract] AND "midwifery care"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("post-traumatic stress disorder"[Title/Abstract] OR "PTSD"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "prevalence"[Title/Abstract] AND "systematic review"[Publication Type]
+("post-traumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "meta-analysis"[Publication Type] AND "risk factors"[Title/Abstract]
+("mental illness"[Title/Abstract] OR "depression"[Title/Abstract] OR "anxiety"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "hospital discharged patients"[Title/Abstract] AND "Wuhan"[Title/Abstract] AND "China"[Title/Abstract]
+("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "trauma survivors"[Title/Abstract]
+("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "early convalescence"[Title/Abstract] AND "Shenzhen"[Title/Abstract] AND "China"[Title/Abstract]
+("posttraumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "crisis mental health services"[Title/Abstract] AND "clinically stable patients"[Title/Abstract] AND "China"[Title/Abstract]
+("psychological impact"[Title/Abstract] OR "mental health impact"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract] AND "Philippines"[Title/Abstract]
+("post-traumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19 outbreak"[Title/Abstract] AND "pooled prevalence"[Title/Abstract] AND "meta-regression"[Title/Abstract]
+("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "predictor factors"[Title/Abstract] AND "early recovery stage"[Title/Abstract] AND "Shenzhen"[Title/Abstract] AND "China"[Title/Abstract]
+("posttraumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "clinically stable patients"[Title/Abstract] AND "China"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("cardiovascular presentations"[Title/Abstract] OR "cardiovascular manifestations"[Title/Abstract]) AND "coronavirus"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "fatal outcomes"[Title/Abstract] AND "case series"[Publication Type]
+("clinical features"[Title/Abstract] OR "treatment"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract] AND "Chongqing"[Title/Abstract]
+("risk factors"[Title/Abstract] OR "mortality"[Title/Abstract]) AND "COVID-19 inpatients"[Title/Abstract] AND "Wuhan"[Title/Abstract] AND "retrospective cohort study"[Publication Type]
+("cardiac injury"[Title/Abstract] OR "myocardial injury"[Title/Abstract]) AND "fatal outcomes"[Title/Abstract] AND "COVID-19 patients"[Title/Abstract] AND "case series"[Publication Type]
+("viral shedding"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "duration"[Title/Abstract]
+("SARS-CoV-2"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "ACE2 expression"[Title/Abstract] AND "heart injury"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiac injury"[Title/Abstract] AND "severe cases"[Title/Abstract] AND "pericytes"[Title/Abstract]
+("coronavirus family"[Title/Abstract] OR "coronavirus"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "acute cardiac injury"[Title/Abstract] AND "arrhythmias"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "outcomes"[Title/Abstract] AND "meta-analysis"[Publication Type]</t>
+  </si>
+  <si>
+    <t>("COVID-19 pneumonia"[Title/Abstract] OR "COVID-19 infection"[Title/Abstract]) AND "ICU admission"[Title/Abstract] AND "systematic review"[Publication Type]
+("ICU mortality"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 pneumonia"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("clinical course"[Title/Abstract] OR "outcomes"[Title/Abstract]) AND "critically ill patients"[Title/Abstract] AND "COVID-19 pneumonia"[Title/Abstract] AND "systematic review"[Publication Type]
+("intensive care unit"[Title/Abstract] OR "ICU stay"[Title/Abstract]) AND "COVID-19 infection"[Title/Abstract] AND "mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("mechanical ventilation duration"[Title/Abstract] OR "ICU stay length"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("vasopressors"[Title/Abstract] OR "renal replacement therapy"[Title/Abstract]) AND "COVID-19 ICU admission"[Title/Abstract] AND "systematic review"[Publication Type]
+("ICU mortality"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "case series"[Publication Type]
+("COVID-19 pneumonia"[Title/Abstract] OR "COVID-19 infection"[Title/Abstract]) AND "ICU outcomes"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("ICU stay duration"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 pneumonia outcomes"[Title/Abstract] AND "systematic review"[Publication Type]
+("vasopressors"[Title/Abstract] OR "renal replacement therapy"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "case series"[Publication Type]</t>
+  </si>
+  <si>
+    <t>("SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "genetic variants"[Title/Abstract] AND "host genetics"[Title/Abstract] AND "rapid review"[Publication Type]
+("COVID-19 phenotype"[Title/Abstract] OR "SARS-CoV-2 infection outcomes"[Title/Abstract]) AND "host genetic background"[Title/Abstract] AND "rapid review"[Publication Type]
+("HLA class I"[Title/Abstract] OR "HLA class II"[Title/Abstract]) AND "severe acute respiratory syndrome coronavirus infection"[Title/Abstract] AND "genetic association"[Title/Abstract]
+("ACE1 polymorphism"[Title/Abstract] OR "ACE insertion/deletion polymorphism"[Title/Abstract]) AND "SARS progression"[Title/Abstract] AND "genetic predisposition"[Title/Abstract]
+("angiotensin converting enzyme polymorphism"[Title/Abstract] OR "ACE I/D polymorphism"[Title/Abstract]) AND "adult respiratory distress syndrome"[Title/Abstract] AND "SARS coronavirus infection"[Title/Abstract]
+("OAS-1 gene polymorphism"[Title/Abstract] OR "MxA gene polymorphism"[Title/Abstract]) AND "Vietnamese SARS patients"[Title/Abstract] AND "IFN-inducible genes"[Title/Abstract]
+("mannose-binding lectin"[Title/Abstract] OR "MBL gene polymorphism"[Title/Abstract]) AND "severe acute respiratory syndrome coronavirus infection"[Title/Abstract] AND "innate immunity"[Title/Abstract]
+("serum levels of MBL"[Title/Abstract] OR "MBL deficiency"[Title/Abstract]) AND "SARS-CoV infection"[Title/Abstract] AND "host defense mechanisms"[Title/Abstract]
+("genetic susceptibility to SARS"[Title/Abstract] OR "SARS-CoV-2 genetic background"[Title/Abstract]) AND "MxA gene polymorphism"[Title/Abstract] AND "host immune response"[Title/Abstract]
+("OAS-1 gene SNP"[Title/Abstract] OR "MxA gene SNP"[Title/Abstract]) AND "SARS-CoV infection susceptibility"[Title/Abstract] AND "IFN-inducible genes polymorphism"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19 pandemic"[Title/Abstract] OR "respiratory outbreaks"[Title/Abstract]) AND "suicidal outcomes"[Title/Abstract] AND "systematic review"[Publication Type]
+("suicide during COVID-19"[Title/Abstract] OR "COVID-19 and mental health"[Title/Abstract]) AND "major respiratory outbreaks"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19 fear"[Title/Abstract] OR "COVID-19 xenophobia"[Title/Abstract]) AND "suicide case in India"[Title/Abstract]
+("COVID-19 suicide case"[Title/Abstract] OR "suicide prevention strategies"[Title/Abstract]) AND "Bangladesh"[Title/Abstract]
+("self-harm"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "suicidal cases in India"[Title/Abstract]
+("severe acute respiratory syndrome"[Title/Abstract] OR "SARS outbreak impact"[Title/Abstract]) AND "emergency department medical resources"[Title/Abstract]
+("SARS epidemic demographic characteristics"[Title/Abstract] OR "SARS outbreak clinical characteristics"[Title/Abstract]) AND "emergency department attendances"[Title/Abstract]
+("influenza seropositivity"[Title/Abstract] OR "coronavirus seropositivity"[Title/Abstract]) AND "mood disorders history"[Title/Abstract] AND "suicide attempts"[Title/Abstract]
+("influenza A seropositivity"[Title/Abstract] OR "influenza B seropositivity"[Title/Abstract]) AND "history of recurrent mood disorders"[Title/Abstract] AND "psychotic symptoms"[Title/Abstract]
+("coronaviruses seropositivity"[Title/Abstract] OR "mood disorders association"[Title/Abstract]) AND "bipolarity"[Title/Abstract] AND "suicidal behavior"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "solid organ transplantation"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19 infection"[Title/Abstract] OR "SARS-CoV-2 infection"[Title/Abstract]) AND "solid organ transplant recipients"[Title/Abstract] AND "clinical characteristics"[Title/Abstract]
+("COVID-19 pneumonia"[Title/Abstract] OR "SARS-CoV-2 pneumonia"[Title/Abstract]) AND "kidney transplant recipient"[Title/Abstract] AND "drug interaction"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "renal transplant recipient"[Title/Abstract] AND "clinical course"[Title/Abstract]
+("SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 case report"[Title/Abstract]) AND "renai transplant recipient outcome"[Title/Abstract] AND "immunosuppressive therapy"[Title/Abstract]
+("COVID-19 clinical characteristics"[Title/Abstract] OR "SARS-CoV-2 management in transplant recipients"[Title/Abstract]) AND "solid organ transplantation recipients"[Title/Abstract] AND "clinical presentation"[Title/Abstract]
+("SARS-CoV-2 outbreak"[Title/Abstract] OR "COVID-19 pharmacological therapies"[Title/Abstract]) AND "renal transplant recipient prognosis"[Title/Abstract] AND "corticosteroid therapy"[Title/Abstract]
+("COVID-19 in solid organ transplantation"[Title/Abstract] OR "SARS-CoV-2 in transplant recipients"[Title/Abstract]) AND "patient outcome"[Title/Abstract] AND "cyclosporine monitoring"[Title/Abstract]
+("COVID-19 clinical course"[Title/Abstract] OR "SARS-CoV-2 outcome"[Title/Abstract]) AND "kidney transplant recipient therapy"[Title/Abstract] AND "tacrolimus levels"[Title/Abstract]
+("COVID-19 kidney transplant"[Title/Abstract] OR "SARS-CoV-2 renal transplant patient"[Title/Abstract]) AND "clinical management"[Title/Abstract] AND "immunosuppressive therapy impact"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "healthcare professionals"[Title/Abstract] AND "mental health conditions"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19 pandemic"[Title/Abstract] OR "SARS-CoV-2 outbreak"[Title/Abstract]) AND "psychological impact"[Title/Abstract] AND "health-care workers"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("mental health problems"[Title/Abstract] OR "psychological symptoms"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "healthcare workers"[Title/Abstract] AND "prevalence"[Title/Abstract]
+("depression prevalence"[Title/Abstract] OR "anxiety prevalence"[Title/Abstract]) AND "frontline healthcare workers"[Title/Abstract] AND "COVID-19 outbreak"[Title/Abstract] AND "cross-sectional study"[Publication Type]
+("sleep disturbances"[Title/Abstract] OR "insomnia prevalence"[Title/Abstract]) AND "Chinese frontline medical workers"[Title/Abstract] AND "coronavirus disease 2019"[Title/Abstract] AND "comparison study"[Publication Type]
+("psychological status"[Title/Abstract] OR "mental health state"[Title/Abstract]) AND "medical workforce during COVID-19"[Title/Abstract] AND "cross-sectional study"[Publication Type]
+("anxiety factors"[Title/Abstract] OR "depression risk factors"[Title/Abstract]) AND "health care workers in Wuhan"[Title/Abstract] AND "COVID-19 treatment"[Title/Abstract] AND "cross-sectional study"[Publication Type]
+("sleep quality assessment"[Title/Abstract] OR "sleep disturbances in healthcare workers"[Title/Abstract]) AND "coronavirus disease 2019 outbreak"[Title/Abstract] AND "Pittsburgh Sleep Quality Index"[Title/Abstract]
+("anxiety prevalence"[Title/Abstract] OR "depression prevalence"[Title/Abstract]) AND "medical staff in Hubei Province"[Title/Abstract] AND "COVID-19 pandemic"[Title/Abstract] AND "Zung Self-rating Anxiety Scale"[Title/Abstract]
+("mental health interventions"[Title/Abstract] OR "psychological support for healthcare workers"[Title/Abstract]) AND "COVID-19 mental health consequences"[Title/Abstract] AND "systematic review"[Publication Type]</t>
+  </si>
+  <si>
+    <t>("misinformation"[Title/Abstract] OR "false information"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "social media"[Title/Abstract] AND "rapid review"[Publication Type]
+("countering misinformation"[Title/Abstract] OR "combatting COVID-19 myths"[Title/Abstract]) AND "social media"[Title/Abstract] AND "health communication"[Title/Abstract] AND "empirical study"[Publication Type]
+("COVID-19 misinformation prevalence"[Title/Abstract] OR "inaccurate information on social media"[Title/Abstract]) AND "first phase of pandemic"[Title/Abstract] AND "qualitative synthesis"[Publication Type]
+("misinformation effects on public health"[Title/Abstract] OR "infodemic impact"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract] AND "social media analysis"[Title/Abstract] AND "risk of bias assessment"[Title/Abstract]
+("information dissemination in pandemic"[Title/Abstract] OR "rapid communication on COVID-19"[Title/Abstract]) AND "Twitter"[Title/Abstract] AND "public health measures"[Title/Abstract] AND "content analysis"[Publication Type]
+("opinions of medical professionals on COVID-19"[Title/Abstract] OR "healthcare workers discussions on coronavirus"[Title/Abstract]) AND "Twitter social medial platform"[Title/Abstract] AND "mixed methods analysis"[Publication Type]
+("informational problems in healthcare sector"[Title/Abstract] OR "misleading data on COVID-19"[Title/Abstract]) AND "Russian healthcare system"[Title/Abstract] AND "informational crisis"[Title/Abstract] AND "content analysis of social networks"[Title/Abstract]
+("COVID-19 misinformation impact on healthcare workers"[Title/Abstract] OR "misinformation-induced fear in medical personnel"[Title/Abstract]) AND "healthcare system sustainability"[Title/Abstract] AND "Russian medical personnel survey"[Title/Abstract]
+("rapid information dissemination during pandemic"[Title/Abstract] OR "COVID-19-related queries on WhatsApp"[Title/Abstract]) AND "oncology patients"[Title/Abstract] AND "fears and actions taken"[Title/Abstract] AND "descriptive investigation"[Publication Type]
+("patients with cancer during COVID-19 pandemic"[Title/Abstract] OR "COVID-19 queries from cancer patients"[Title/Abstract]) AND "WhatsApp messenger-based survey"[Title/Abstract] AND "treatment delays"[Title/Abstract] AND "communication with oncology units"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("Chloroquine"[Title/Abstract] OR "Hydroxychloroquine"[Title/Abstract]) AND "COVID-19 treatment"[Title/Abstract] AND "mono-therapy"[Title/Abstract] AND "Azithromycin"[Title/Abstract] AND "Systematic Review"[Publication Type]
+("effectiveness of Chloroquine in COVID-19"[Title/Abstract] OR "Hydroxychloroquine safety in COVID-19"[Title/Abstract]) AND "meta-analysis of observational studies"[Title/Abstract]
+("mortality rate in COVID-19 patients"[Title/Abstract] OR "duration of hospital stay in coronavirus patients"[Title/Abstract]) AND "Chloroquine vs. Hydroxychloroquine"[Title/Abstract] AND "Azithromycin combination"[Title/Abstract]
+("virologic cure rate in COVID-19 patients"[Title/Abstract] OR "time to negative viral PCR in coronavirus patients"[Title/Abstract]) AND "Hydroxychloroquine vs. Standard care"[Title/Abstract] AND "meta-regression analysis"[Title/Abstract]
+("radiological progression in COVID-19 patients"[Title/Abstract] OR "drug side effects in coronavirus patients"[Title/Abstract]) AND "Hydroxychloroquine + Azithromycin group"[Title/Abstract] AND "clinical worsening in COVID-19 patients"[Title/Abstract]
+("observational comparative study of Hydroxychloroquine"[Title/Abstract] OR "effectiveness of Hydroxychloroquine in COVID-19 pneumonia"[Title/Abstract]) AND "routine care data analysis"[Title/Abstract]
+("hydroxychloroquine use in COVID-19 patients"[Title/Abstract] OR "mortality risk with hydroxychloroquine"[Title/Abstract]) AND "propensity score adjustment"[Title/Abstract] AND "mechanical ventilation in coronavirus patients"[Title/Abstract]
+("hydroxychloroquine and azithromycin in COVID-19 treatment"[Title/Abstract] OR "HCQ combination safety in COVID-19 patients"[Title/Abstract]) AND "retrospective study of electronic health records"[Title/Abstract]
+("chloroquine treatment in COVID-19 patients"[Title/Abstract] OR "effectiveness of HCQ+AZM in COVID-19 therapy"[Title/Abstract]) AND "follow-up of positive cases in LTCFs"[Title/Abstract] AND "SARS-CoV-2 PCR-based screening campaigns"[Title/Abstract]
+("elderly residents with SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 in long-term care facilities"[Title/Abstract]) AND "staff vs. residents comparison"[Title/Abstract] AND "results of PCR-based screening"[Title/Abstract]</t>
+  </si>
+  <si>
+    <t>("Vitamin D supplementation"[Title/Abstract] OR "serum vitamin D level"[Title/Abstract]) AND ("SARS-CoV-2 infection susceptibility"[Title/Abstract] OR "COVID-19 clinical course"[Title/Abstract])
+("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D and COVID-19 mortality"[Title/Abstract]) AND ("systematic review of vitamin D"[Title/Abstract] OR "vitamin D levels in COVID-19 patients"[Title/Abstract])
+("association between vitamin D and COVID-19 severity"[Title/Abstract] OR "vitamin D supplementation efficacy in COVID-19"[Title/Abstract]) AND ("serum vitamin D level and SARS-CoV-2 infection"[Title/Abstract])
+("vitamin D levels in patients with COVID-19"[Title/Abstract] OR "vitamin D deficiency in COVID-19 patients"[Title/Abstract]) AND ("vitamin D and COVID-19 mortality"[Title/Abstract] OR "vitamin D supplementation and COVID-19 clinical course"[Title/Abstract])
+("vitamin D and susceptibility to SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 morbidity"[Title/Abstract]) AND ("vitamin D levels in COVID-19 patients"[Title/Abstract] OR "vitamin D and COVID-19 severity"[Title/Abstract])
+("vitamin D supplementation in COVID-19"[Title/Abstract] OR "vitamin D level and COVID-19 clinical course"[Title/Abstract]) AND ("systematic review of vitamin D and SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 mortality outcomes"[Title/Abstract])
+("vitamin D and COVID-19 infection risk"[Title/Abstract] OR "vitamin D levels in COVID-19 patients"[Title/Abstract]) AND ("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D supplementation efficacy in COVID-19"[Title/Abstract])
+("association between vitamin D and SARS-CoV-2 infection"[Title/Abstract] OR "vitamin D and COVID-19 clinical course"[Title/Abstract]) AND ("vitamin D level and COVID-19 mortality"[Title/Abstract] OR "vitamin D deficiency in COVID-19 patients"[Title/Abstract])
+("vitamin D supplementation efficacy in COVID-19 patients"[Title/Abstract] OR "vitamin D and COVID-19 severity"[Title/Abstract]) AND ("systematic review of vitamin D levels and SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 mortality outcomes"[Title/Abstract])
+("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D and susceptibility to SARS-CoV-2"[Title/Abstract]) AND ("serum vitamin D level in COVID-19 patients"[Title/Abstract] OR "vitamin D supplementation and COVID-19 clinical course"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("perioperative management"[Title/Abstract] OR "perioperative care"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])
+("perioperative management guidelines"[Title/Abstract] OR "perioperative clinical outcomes"[Title/Abstract]) AND ("COVID-19 rapid review"[Title/Abstract] OR "COVID-19 literature review"[Title/Abstract])
+("perioperative management in COVID-19 patients"[Title/Abstract] OR "COVID-19 impact on surgery"[Title/Abstract]) AND ("retrospective cohort analysis"[Title/Abstract] OR "COVID-19 pandemic cohort study"[Title/Abstract])
+("perioperative care recommendations in COVID-19"[Title/Abstract] OR "COVID-19 effect on surgery outcomes"[Title/Abstract]) AND ("case reports of COVID-19 patients"[Title/Abstract] OR "COVID-19 case series"[Title/Abstract])
+("perioperative management evidence-based guidelines"[Title/Abstract] OR "COVID-19 perioperative protocols"[Title/Abstract]) AND ("Caesarean section during COVID-19 pandemic"[Title/Abstract] OR "COVID-19 maternal and neonatal outcomes"[Title/Abstract])
+("regional anesthesia in COVID-19 patients"[Title/Abstract] OR "personal protective equipment use in healthcare workers"[Title/Abstract]) AND ("COVID-19 perioperative precautions"[Title/Abstract] OR "perioperative PPE for COVID-19"[Title/Abstract])
+("perioperative management of suspected COVID-19 patients"[Title/Abstract] OR "emergency surgery in COVID-19"[Title/Abstract]) AND ("perioperative hypotension in COVID-19"[Title/Abstract] OR "COVID-19 and regional anesthesia"[Title/Abstract])
+("perioperative oxygen therapy in COVID-19 patients"[Title/Abstract] OR "COVID-19 hospital stay duration"[Title/Abstract]) AND ("neonatal outcomes in COVID-19"[Title/Abstract] OR "COVID-19 neonatal testing"[Title/Abstract])
+("level 3 PPE use perioperatively in COVID-19"[Title/Abstract] OR "COVID-19 infection in healthcare workers"[Title/Abstract]) AND ("perioperative COVID-19 transmission risk"[Title/Abstract] OR "COVID-19 perioperative safety"[Title/Abstract])
+("perioperative COVID-19 testing guidelines"[Title/Abstract] OR "COVID-19 testing before surgery"[Title/Abstract]) AND ("perioperative outcomes in COVID-19 patients"[Title/Abstract] OR "perioperative management of suspected COVID-19"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("oral manifestations in COVID-19 patients"[Title/Abstract] OR "oral signs and symptoms in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of oral manifestations in COVID-19"[Title/Abstract] OR "living systematic review of oral signs in COVID-19"[Title/Abstract])
+("oral symptoms in COVID-19 patients"[Title/Abstract] OR "oral manifestations of coronavirus infection"[Title/Abstract]) AND ("PRISMA checklist for living systematic reviews"[Title/Abstract] OR "GRADE assessment of evidence in COVID-19"[Title/Abstract])
+("Gustatory impairment in COVID-19 patients"[Title/Abstract] OR "taste disorders in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of gustatory impairment in COVID-19"[Title/Abstract] OR "oral taste disorders in COVID-19 patients"[Title/Abstract])
+("dysgeusia in COVID-19 patients"[Title/Abstract] OR "hypogeusia in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of dysgeusia in COVID-19"[Title/Abstract] OR "taste disorders association with COVID-19"[Title/Abstract])
+("ageusia in COVID-19 patients"[Title/Abstract] OR "loss of taste in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of ageusia in COVID-19"[Title/Abstract] OR "taste disorders and COVID-19 severity"[Title/Abstract])
+("oral mucosal lesions in COVID-19"[Title/Abstract] OR "mucosal involvement in coronavirus disease 2019"[Title/Abstract]) AND ("clinical aspects of oral mucosal lesions in COVID-19"[Title/Abstract] OR "oral lesions and COVID-19 progression"[Title/Abstract])
+("oral mucosal lesions in mild COVID-19 cases"[Title/Abstract] OR "oral manifestations in severe COVID-19"[Title/Abstract]) AND ("oral mucosal lesions timing in COVID-19"[Title/Abstract] OR "COVID-19 and oral health complications"[Title/Abstract])
+("COVID-19 taste disorders and gender"[Title/Abstract] OR "female patients and gustatory impairment in COVID-19"[Title/Abstract]) AND ("COVID-19 taste disorders and severity"[Title/Abstract] OR "oral manifestations in COVID-19 female patients"[Title/Abstract])
+("acute onset smell disorders in COVID-19"[Title/Abstract] OR "COVID-19 and taste disorders"[Title/Abstract]) AND ("COVID-19 smell and taste disorders prevalence"[Title/Abstract] OR "self-reported smell and taste disorders in COVID-19"[Title/Abstract])
+("recovery from COVID-19 taste disorders"[Title/Abstract] OR "taste disorders duration in COVID-19"[Title/Abstract]) AND ("COVID-19 taste disorders recovery time"[Title/Abstract] OR "taste disorders assessment in COVID-19 patients"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("efficacy of corticosteroid therapy in COVID-19 patients"[Title/Abstract] OR "corticosteroid treatment of SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review and meta-analysis of corticosteroids in COVID-19"[Title/Abstract] OR "corticosteroid therapy and COVID-19 outcome"[Title/Abstract])
+("corticosteroid therapy in severe COVID-19 patients"[Title/Abstract] OR "clinical improvement with corticosteroids in coronavirus disease 2019"[Title/Abstract]) AND ("mortality and corticosteroid treatment in COVID-19"[Title/Abstract] OR "ICU hospitalization and corticosteroid therapy in COVID-19"[Title/Abstract])
+("adverse events of corticosteroid therapy in COVID-19"[Title/Abstract] OR "safety of corticosteroids in coronavirus disease 2019"[Title/Abstract]) AND ("virus clearance time and corticosteroids in COVID-19"[Title/Abstract] OR "mechanical ventilation and corticosteroid treatment in COVID-19"[Title/Abstract])
+("duration of symptoms and corticosteroids in COVID-19"[Title/Abstract] OR "effectiveness of corticosteroid therapy in COVID-19 patients"[Title/Abstract]) AND ("low quality of evidence for corticosteroid treatment in COVID-19"[Title/Abstract] OR "GRADE approach for corticosteroid efficacy in COVID-19"[Title/Abstract])
+("early corticosteroid therapy in moderate to severe COVID-19 patients"[Title/Abstract] OR "methylprednisolone treatment for coronavirus disease 2019"[Title/Abstract]) AND ("clinical outcomes with early corticosteroid in COVID-19"[Title/Abstract] OR "mechanical ventilation reduction with early corticosteroids"[Title/Abstract])
+("viral clearance and corticosteroid therapy in COVID-19"[Title/Abstract] OR "effect of corticosteroids on viral RNA in SARS-CoV-2 patients"[Title/Abstract]) AND ("glucocorticoid treatment and viral clearance in COVID-19 patients"[Title/Abstract] OR "CD4+ T lymphocytes and viral RNA clearance in COVID-19"[Title/Abstract])
+("corticosteroid treatment in convalescent COVID-19 patients"[Title/Abstract] OR "viral RNA clearance in post-recovery COVID-19 patients"[Title/Abstract]) AND ("viral RNA detection in feces during COVID-19 convalescence"[Title/Abstract] OR "glucocorticoid therapy and COVID-19 treatment outcome"[Title/Abstract])
+("efficacy of low-dose corticosteroid therapy in COVID-19"[Title/Abstract] OR "viral clearance and low-dose corticosteroids in COVID-19 patients"[Title/Abstract]) AND ("host cell immunity and duration of RNA detection in COVID-19"[Title/Abstract] OR "inflammatory indicators and viral RNA clearance in COVID-19 patients"[Title/Abstract])
+("retrospective cohort study on corticosteroid therapy in COVID-19"[Title/Abstract] OR "case studies on corticosteroid treatment and COVID-19"[Title/Abstract]) AND ("clinical recovery and corticosteroid therapy in COVID-19"[Title/Abstract] OR "length of ICU hospitalization with corticosteroids in COVID-19"[Title/Abstract])
+("adjuvant corticosteroid therapy in critically ill COVID-19 patients"[Title/Abstract] OR "use of corticosteroids in severe coronavirus disease 2019"[Title/Abstract]) AND ("effect of corticosteroid treatment on COVID-19 outcome"[Title/Abstract] OR "corticosteroids and critically ill COVID-19 patients"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("olfactory and gustatory dysfunctions in COVID-19"[Title/Abstract] OR "anosmia and ageusia in coronavirus disease 2019"[Title/Abstract]) AND ("systematic review and meta-analysis of olfactory and gustatory impairments"[Title/Abstract] OR "olfactory and gustatory symptoms in SARS-CoV-2 infection"[Title/Abstract])
+("self-reported olfactory loss in COVID-19"[Title/Abstract] OR "outpatient clinical course and anosmia in coronavirus disease 2019"[Title/Abstract]) AND ("clinical outcomes with olfactory impairment in COVID-19"[Title/Abstract] OR "predictors of hospital admission in anosmic COVID-19 patients"[Title/Abstract])
+("new-onset smell and taste disorders in COVID-19 patients"[Title/Abstract] OR "COVID-19 and influenza patients with smell and taste impairments"[Title/Abstract]) AND ("acute onset olfactory and gustatory dysfunctions"[Title/Abstract] OR "initial manifestation of anosmia and ageusia in COVID-19"[Title/Abstract])
+("hyposmia and hypogeusia for COVID-19 diagnosis"[Title/Abstract] OR "olfactory and gustatory tests as diagnostic indicators in SARS-CoV-2 infection"[Title/Abstract]) AND ("utility of anosmia and ageusia in COVID-19 detection"[Title/Abstract] OR "olfactory and gustatory symptoms as COVID-19 markers"[Title/Abstract])
+("self-reported olfactory and taste disorders in severe COVID-19 patients"[Title/Abstract] OR "olfactory impairment and clinical course in severe coronavirus disease 2019"[Title/Abstract]) AND ("respiratory failure and anosmia in COVID-19"[Title/Abstract] OR "chest radiograph findings and hospital admission in anosmic patients"[Title/Abstract])
+("prevalence and features of anosmia in COVID-19 patients"[Title/Abstract] OR "anosmia and ageusia in patients with SARS-CoV-2 infection"[Title/Abstract]) AND ("COVID-19 and olfactory impairment characteristics"[Title/Abstract] OR "duration of anosmia and gustatory dysfunction in coronavirus disease 2019"[Title/Abstract])
+("olfactory and taste disorders in COVID-19 patients: a cross-sectional study"[Title/Abstract] OR "features of anosmia in patients with SARS-CoV-2 infection"[Title/Abstract]) AND ("COVID-19 and prevalence of anosmia and ageusia"[Title/Abstract] OR "characteristics of anosmia in European COVID-19 patients"[Title/Abstract])
+("anosmia prevalence in confirmed COVID-19 cases"[Title/Abstract] OR "olfactory and gustatory symptoms in SARS-CoV-2 positive patients"[Title/Abstract]) AND ("COVID-19 and dysgeusia association"[Title/Abstract] OR "anosmia duration and recovery in coronavirus disease 2019 patients"[Title/Abstract])
+("self-reported smell and taste impairments in COVID-19 patients"[Title/Abstract] OR "COVID-19 and anosmia characteristics"[Title/Abstract]) AND ("European COVID-19 patients with anosmia and dysgeusia"[Title/Abstract] OR "pneumonia and olfactory impairment in coronavirus disease 2019"[Title/Abstract])
+("COVID-19 and smell and taste disorders"[Title/Abstract] OR "olfactory and gustatory dysfunctions in SARS-CoV-2 patients"[Title/Abstract]) AND ("duration of anosmia and taste dysfunction in COVID-19"[Title/Abstract] OR "COVID-19 and recovery from anosmia and ageusia"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("prevalence of positive SARS-CoV-2 recurrence in COVID-19 patients"[Title/Abstract] OR "incidence of re-detectable SARS-CoV-2 RNA after COVID-19 recovery"[Title/Abstract]) AND ("systematic review and meta-analysis of recurrent COVID-19"[Title/Abstract] OR "factors associated with SARS-CoV-2 RNA positivity after COVID-19 discharge"[Title/Abstract])
+("clinical characteristics of recovered COVID-19 patients with positive RNA test"[Title/Abstract] OR "re-detectable positive SARS-CoV-2 in discharged COVID-19 patients"[Title/Abstract]) AND ("characterization at re-admission of patients with recurrent SARS-CoV-2"[Title/Abstract] OR "potential cause of positive COVID-19 diagnoses in recovered patients"[Title/Abstract])
+("clinical course and risk factors for recurrence of positive SARS-CoV-2 RNA"[Title/Abstract] OR "recurrent SARS-CoV-2 positivity in COVID-19 patients from Wuhan"[Title/Abstract]) AND ("retrospective cohort study on re-detectable SARS-CoV-2 RNA"[Title/Abstract] OR "risk factors for SARS-CoV-2 RNA positivity after COVID-19 recovery"[Title/Abstract])
+("impact of COVID-19 nonpharmaceutical interventions on influenza"[Title/Abstract] OR "reduction of respiratory viral infections during COVID-19 pandemic"[Title/Abstract]) AND ("surveillance of influenza and respiratory viral infections in New Zealand"[Title/Abstract] OR "parallel reduction of respiratory viral infections during pandemic"[Title/Abstract])
+("predictive diagnosis of chronic obstructive pulmonary disease using serum metabolic biomarkers"[Title/Abstract] OR "serum metabolic features in COPD patients"[Title/Abstract]) AND ("biofluid-based biomarkers for COPD diagnosis"[Title/Abstract] OR "least-squares support vector machine for COPD prediction"[Title/Abstract])
+("incidence and characteristics of recurrent SARS-CoV-2 RNA in COVID-19 patients"[Title/Abstract] OR "prevalence of re-detectable SARS-CoV-2 in COVID-19 recovery"[Title/Abstract]) AND ("meta-analysis of SARS-CoV-2 RNA positivity after COVID-19"[Title/Abstract] OR "factors associated with recurrent SARS-CoV-2 in discharged patients"[Title/Abstract])
+("characterization of patients with re-detectable positive SARS-CoV-2"[Title/Abstract] OR "mild and moderate COVID-19 patients with recurrent RNA positivity"[Title/Abstract]) AND ("plasma antibody levels and symptoms in COVID-19 recovery"[Title/Abstract] OR "no severe cases among patients with re-detectable SARS-CoV-2"[Title/Abstract])
+("risk factors for SARS-CoV-2 RNA recurrence in discharged COVID-19 patients"[Title/Abstract] OR "duration from illness onset to recurrent SARS-CoV-2 RNA"[Title/Abstract]) AND ("multivariate regression analysis of COVID-19 recurrence risk factors"[Title/Abstract] OR "immune response and virus toxicity in recurrent SARS-CoV-2"[Title/Abstract])
+("potential carriers of SARS-CoV-2 after recovery from COVID-19"[Title/Abstract] OR "viral RNA detection in recovered COVID-19 patients"[Title/Abstract]) AND ("asymptomatic COVID-19 carriers post-discharge"[Title/Abstract] OR "close contacts of patients with re-detectable SARS-CoV-2"[Title/Abstract])
+("monitoring re-detectable SARS-CoV-2 RNA in convalescent COVID-19 patients"[Title/Abstract] OR "management of COVID-19 patients with recurrent RNA positivity"[Title/Abstract]) AND ("more sensitive RNA detection methods for COVID-19 patients"[Title/Abstract] OR "observational measures for patients with recurrent SARS-CoV-2"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("Echinacea for prevention of COVID-19"[Title/Abstract] OR "Echinacea for treatment of respiratory tract infections"[Title/Abstract]) AND ("rapid review of Echinacea in humans"[Title/Abstract] OR "meta-analysis of Echinacea in respiratory infections"[Title/Abstract])
+("effectiveness of Echinacea supplementation in respiratory tract infections"[Title/Abstract] OR "efficacy and safety of Echinacea in COVID-19 prevention"[Title/Abstract]) AND ("double-blind placebo-controlled trial of Echinacea"[Title/Abstract] OR "randomized clinical trial of Echinacea for respiratory symptoms"[Title/Abstract])
+("Echinacea supplementation and duration of acute respiratory infections"[Title/Abstract] OR "Echinacea for common cold symptoms in humans"[Title/Abstract]) AND ("preventive efficacy of Echinacea in respiratory infections"[Title/Abstract] OR "Echinacea supplementation for acute respiratory tract infections"[Title/Abstract])
+("safety profile of Echinacea purpurea in respiratory infections"[Title/Abstract] OR "adverse events from Echinacea supplementation in humans"[Title/Abstract]) AND ("risk-benefit analysis of Echinacea in COVID-19"[Title/Abstract] OR "Echinacea in the prevention of common cold episodes"[Title/Abstract])
+("Echinacea for COVID-19 treatment and immune function"[Title/Abstract] OR "effects of Echinacea on immune system activation"[Title/Abstract]) AND ("cytokine storm and Echinacea supplementation in humans"[Title/Abstract] OR "Echinacea and immune molecules in respiratory infections"[Title/Abstract])
+("therapeutic effects of Echinacea in cytokine storm"[Title/Abstract] OR "Echinacea for management of cytokine storm in COVID-19"[Title/Abstract]) AND ("human trials of Echinacea on cytokine levels"[Title/Abstract] OR "Echinacea and cytokine storm in acute respiratory distress syndrome"[Title/Abstract])
+("prophylactic treatment with Echinacea purpurea in upper respiratory tract infections"[Title/Abstract] OR "Echinacea for prevention of cold episodes in humans"[Title/Abstract]) AND ("randomized clinical trial of Echinacea in respiratory symptoms"[Title/Abstract] OR "preventive efficacy of Echinacea in common cold"[Title/Abstract])
+("efficacy of Echinacea purpurea extract in common cold prevention"[Title/Abstract] OR "Echinacea for reducing cold episodes and pain-medication use"[Title/Abstract]) AND ("preventive effects of Echinacea on virally confirmed colds"[Title/Abstract] OR "Echinacea and recurrent infections in respiratory tract"[Title/Abstract])
+("risk to benefit ratio of Echinacea supplementation in humans"[Title/Abstract] OR "prophylactic intake of Echinacea in respiratory infections"[Title/Abstract]) AND ("positive effects of Echinacea on preventive therapy compliance"[Title/Abstract] OR "compliant prophylactic intake of Echinacea for 4-month period"[Title/Abstract])
+("Echinacea for prevention of respiratory symptoms during travel"[Title/Abstract] OR "efficacy of Echinacea tablets on long-haul flight-related symptoms"[Title/Abstract]) AND ("standardized Echinacea formulation and upper respiratory symptoms"[Title/Abstract] OR "Echinacea and prevention of long-haul flight respiratory issues"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("population testing for SARS-CoV-2 implementation experiences"[Title/Abstract] OR "implementing drive-through, walk-through, and home visiting testing programs for COVID-19"[Title/Abstract]) AND ("scoping review of population testing for SARS-CoV-2"[Title/Abstract] OR "literature overview of COVID-19 testing modalities"[Title/Abstract])
+("early experiences of off-site COVID-19 testing centers"[Title/Abstract] OR "considerations for off-site COVID-19 testing centers"[Title/Abstract]) AND ("challenges in setting up off-site COVID-19 testing centers"[Title/Abstract] OR "guidance for healthcare organizations on off-site testing"[Title/Abstract])
+("feasibility of high-throughput SARS-CoV-2 testing"[Title/Abstract] OR "PCR and antibody testing for entire rural community"[Title/Abstract]) AND ("high-volume comprehensive testing in non-urban areas"[Title/Abstract] OR "efficiency of community-led drive-through testing"[Title/Abstract])
+("drive-through system and conventional screening for SARS-CoV-2"[Title/Abstract] OR "efficiency of drive-through screening during COVID-19 outbreak"[Title/Abstract]) AND ("comparison of DT and conventional screening systems"[Title/Abstract] OR "number of tests using drive-through system"[Title/Abstract])
+("drive-through COVID-19 testing for pediatric patients"[Title/Abstract] OR "safe and efficient model for pediatric COVID-19 testing"[Title/Abstract]) AND ("scalable drive-through testing for health care workers"[Title/Abstract] OR "efficiency of drive-through testing during pandemic"[Title/Abstract])
+("efficacy of population testing for COVID-19"[Title/Abstract] OR "experience of drive-through testing for SARS-CoV-2"[Title/Abstract]) AND ("evaluation of testing modalities for COVID-19"[Title/Abstract] OR "advantages and limitations of population testing"[Title/Abstract])
+("implementation of population testing for COVID-19"[Title/Abstract] OR "COVID-19 testing modalities and resource outcomes"[Title/Abstract]) AND ("high quality studies on population testing for SARS-CoV-2"[Title/Abstract] OR "evidence base for COVID-19 testing strategies"[Title/Abstract])
+("literature review of COVID-19 testing experiences"[Title/Abstract] OR "process indicators for SARS-CoV-2 testing modalities"[Title/Abstract]) AND ("quality outcomes of population testing for COVID-19"[Title/Abstract] OR "resource outcomes of drive-through testing"[Title/Abstract])
+("COVID-19 pandemic and drive-through testing programs"[Title/Abstract] OR "home visiting programs for SARS-CoV-2 testing"[Title/Abstract]) AND ("overview of testing modalities for COVID-19"[Title/Abstract] OR "literature on population testing implementation"[Title/Abstract])
+("grey literature search on population testing for SARS-CoV-2"[Title/Abstract] OR "indicators of process, quality, and resource outcomes in population testing"[Title/Abstract]) AND ("evaluation of different testing modalities for COVID-19"[Title/Abstract] OR "literature on implementing drive-through testing for COVID-19"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("D-dimer levels on admission"[Title/Abstract] OR "on-admission D-dimer levels and COVID-19 mortality"[Title/Abstract]) AND ("systematic review of D-dimer levels and COVID-19 mortality"[Title/Abstract] OR "association between D-dimer levels and all-cause mortality in COVID-19 patients"[Title/Abstract])
+("COVID-19 in-hospital mortality risk"[Title/Abstract] OR "predictors of mortality in COVID-19 patients"[Title/Abstract]) AND ("meta-analysis of D-dimer levels and mortality in COVID-19"[Title/Abstract] OR "pooled risk ratio for all-cause mortality in COVID-19 patients"[Title/Abstract])
+("elevated D-dimer levels and COVID-19 mortality"[Title/Abstract] OR "D-dimer cutoff value for predicting COVID-19 mortality"[Title/Abstract]) AND ("retrospective cohort study on D-dimer and COVID-19 in-hospital death"[Title/Abstract] OR "predictive value of D-dimer level in COVID-19 patients"[Title/Abstract])
+("COVID-19 mortality and D-dimer levels on admission"[Title/Abstract] OR "prognostic role of on-admission D-dimer levels in COVID-19"[Title/Abstract]) AND ("D-dimer as a biomarker for COVID-19 mortality"[Title/Abstract] OR "risk factors for COVID-19 death and D-dimer level"[Title/Abstract])
+("D-dimer levels on admission and COVID-19 patient outcomes"[Title/Abstract] OR "association between D-dimer and all-cause mortality in COVID-19"[Title/Abstract]) AND ("multivariable analysis of D-dimer and COVID-19 mortality risk"[Title/Abstract] OR "Chinese and non-Chinese studies on D-dimer and COVID-19 mortality"[Title/Abstract])
+("clinical course and risk factors for COVID-19 mortality"[Title/Abstract] OR "predictors of in-hospital death in COVID-19 patients"[Title/Abstract]) AND ("detailed clinical course of COVID-19 patients"[Title/Abstract] OR "risk factors associated with COVID-19 death"[Title/Abstract])
+("D-dimer levels as predictor of COVID-19 in-hospital mortality"[Title/Abstract] OR "early and effective predictors of COVID-19 outcomes"[Title/Abstract]) AND ("prospective cohort study on predictors of COVID-19 mortality"[Title/Abstract] OR "retrospective analysis of COVID-19 patients and death events"[Title/Abstract])
+("D-dimer level cutoff for predicting COVID-19 mortality"[Title/Abstract] OR "in-hospital mortality risk in patients with elevated D-dimer"[Title/Abstract]) AND ("sensitivity and specificity of D-dimer in predicting COVID-19 death"[Title/Abstract] OR "hazard ratio for in-hospital death and D-dimer level"[Title/Abstract])
+("COVID-19 and D-dimer levels on admission"[Title/Abstract] OR "prognostic value of elevated D-dimer in COVID-19"[Title/Abstract]) AND ("early and helpful marker for COVID-19 management"[Title/Abstract] OR "early identification of poor prognosis in COVID-19 patients"[Title/Abstract])
+("d-dimer greater than 2.0 µg/mL and COVID-19 mortality"[Title/Abstract] OR "fourfold increase in D-dimer and in-hospital mortality in COVID-19"[Title/Abstract]) AND ("predictive value of D-dimer in COVID-19 patients"[Title/Abstract] OR "early marker to improve COVID-19 patient management"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("smoking and COVID-19 disease progression"[Title/Abstract] OR "association between smoking and COVID-19 progression"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 disease progression"[Title/Abstract] OR "risk factors for COVID-19 progression in smokers"[Title/Abstract])
+("smoking behavior of COVID-19 patients"[Title/Abstract] OR "history of smoking and COVID-19 progression"[Title/Abstract]) AND ("progression of COVID-19 in smokers"[Title/Abstract] OR "relationship between smoking and COVID-19 severity"[Title/Abstract])
+("association between smoking and severe COVID-19 disease"[Title/Abstract] OR "odds of COVID-19 progression in smokers"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 severity"[Title/Abstract] OR "effect of smoking on COVID-19 outcomes"[Title/Abstract])
+("COVID-19 disease progression in smokers"[Title/Abstract] OR "risk of COVID-19 progression in smokers"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 risk"[Title/Abstract] OR "association between smoking and COVID-19 outcome"[Title/Abstract])
+("history of smoking and COVID-19 disease progression"[Title/Abstract] OR "smoking as a risk factor for COVID-19 progression"[Title/Abstract]) AND ("association between smoking and COVID-19 prognosis"[Title/Abstract] OR "meta-analysis of smoking and COVID-19 prognosis"[Title/Abstract])
+("smoking and COVID-19 outcome"[Title/Abstract] OR "risk of COVID-19 progression in smokers"[Title/Abstract]) AND ("smoking behavior and COVID-19 severity"[Title/Abstract] OR "association between smoking and COVID-19 complications"[Title/Abstract])
+("COVID-19 progression in smokers"[Title/Abstract] OR "relationship between smoking and severe COVID-19 outcomes"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 complications"[Title/Abstract] OR "smoking as a risk factor for severe COVID-19"[Title/Abstract])
+("smoking and COVID-19 prognosis"[Title/Abstract] OR "progression of COVID-19 in smokers"[Title/Abstract]) AND ("effect of smoking on COVID-19 outcomes"[Title/Abstract] OR "association between smoking and COVID-19 mortality"[Title/Abstract])
+("history of smoking and COVID-19 risk"[Title/Abstract] OR "smoking behavior and COVID-19 severity"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 mortality risk"[Title/Abstract] OR "relationship between smoking and COVID-19 mortality"[Title/Abstract])
+("COVID-19 disease progression and smoking history"[Title/Abstract] OR "association between smoking and COVID-19 patient outcomes"[Title/Abstract]) AND ("effect of smoking on COVID-19 progression"[Title/Abstract] OR "meta-analysis of smoking and COVID-19 patient outcomes"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("prevalence of anxiety and depression during COVID-19 pandemic"[Title/Abstract] OR "psychological morbidity during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for anxiety and depression during COVID-19 pandemic"[Title/Abstract] OR "strategies to address anxiety and depression during COVID-19 pandemic"[Title/Abstract])
+("COVID-related fear prevalence during pandemic"[Title/Abstract] OR "fear of disease during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for COVID-related fear"[Title/Abstract] OR "strategies to address fear during COVID-19 pandemic"[Title/Abstract])
+("psychological well-being during COVID-19 pandemic"[Title/Abstract] OR "impact of COVID-19 on mental health"[Title/Abstract]) AND ("risk factors for psychological morbidity during COVID-19 pandemic"[Title/Abstract] OR "protective factors for mental health during COVID-19 pandemic"[Title/Abstract])
+("anxiety prevalence during COVID-19 pandemic"[Title/Abstract] OR "depression prevalence during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for anxiety and depression in specific populations"[Title/Abstract] OR "interventions for anxiety and depression during COVID-19 pandemic"[Title/Abstract])
+("COVID-19 pandemic" AND "psychological well-being" AND "PRISMA systematic review"[Title/Abstract])
+("psychological morbidity in health professionals during COVID-19 pandemic"[Title/Abstract] OR "burnout frequency in healthcare workers during COVID-19 pandemic"[Title/Abstract]) AND ("impact of COVID-19 on health professionals"[Title/Abstract] OR "strategies to address burnout in healthcare workers during COVID-19 pandemic"[Title/Abstract])
+("prevalence of psychological distress during COVID-19 pandemic"[Title/Abstract] OR "coping styles during COVID-19 pandemic"[Title/Abstract]) AND ("factors associated with psychological distress in COVID-19 pandemic"[Title/Abstract] OR "strategies to cope with mental health issues during COVID-19 pandemic"[Title/Abstract])
+("impact of COVID-19 on mental health in Chinese population"[Title/Abstract] OR "mental health consequences in China during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for mental health issues in Chinese population during COVID-19 pandemic"[Title/Abstract] OR "interventions for mental health in Chinese population during COVID-19 pandemic"[Title/Abstract])
+("comparison of burnout in frontline and usual ward healthcare workers during COVID-19 pandemic"[Title/Abstract] OR "burnout frequency in Wuhan healthcare workers during COVID-19 pandemic"[Title/Abstract]) AND ("impact of COVID-19 on frontline healthcare workers"[Title/Abstract] OR "strategies to support mental health of healthcare workers during COVID-19 pandemic"[Title/Abstract])
+("COVID-19 impact on mental health and quality of life"[Title/Abstract] OR "psychological impact of COVID-19 in Liaoning Province, China"[Title/Abstract]) AND ("factors influencing mental health in Chinese residents during COVID-19 pandemic"[Title/Abstract] OR "strategies to improve mental health in Chinese population during COVID-19 pandemic"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("SARS-CoV-2 prevalence in homeless shelters"[Title/Abstract] OR "COVID-19 transmission in homeless shelters"[Title/Abstract]) AND ("health-related outcomes in homeless shelters during COVID-19 pandemic"[Title/Abstract] OR "non-pharmaceutical interventions in homeless shelters"[Title/Abstract])
+("effectiveness of infection prevention and control strategies in homeless shelters"[Title/Abstract] OR "COVID-19 control measures in homeless shelters"[Title/Abstract]) AND ("meta-analysis of SARS-CoV-2 prevalence in homeless shelters"[Title/Abstract] OR "systematic review of COVID-19 transmission in homeless shelters"[Title/Abstract])
+("risk factors for SARS-CoV-2 infection in homeless shelters"[Title/Abstract] OR "COVID-19 risk factors in homeless populations"[Title/Abstract]) AND ("health outcomes of COVID-19 in homeless shelters' staff"[Title/Abstract] OR "non-pharmaceutical interventions' impact in homeless shelters during COVID-19 pandemic"[Title/Abstract])
+("prevalence of SARS-CoV-2 in people experiencing homelessness"[Title/Abstract] OR "COVID-19 transmission risk in homeless shelters"[Title/Abstract]) AND ("effectiveness of infection prevention measures in shelters for homeless individuals"[Title/Abstract] OR "health-related consequences of COVID-19 in homeless populations"[Title/Abstract])
+("systematic review and meta-analysis of COVID-19 prevalence in homeless shelters"[Title/Abstract] OR "SARS-CoV-2 transmission in shelters for people experiencing homelessness"[Title/Abstract]) AND ("control strategies for COVID-19 in homeless populations"[Title/Abstract] OR "non-pharmaceutical interventions' effectiveness in homeless shelters"[Title/Abstract])
+("risk factors for COVID-19 infection in homeless individuals"[Title/Abstract] OR "prevalence of SARS-CoV-2 in shelters for homeless people"[Title/Abstract]) AND ("health outcomes of COVID-19 in homeless populations"[Title/Abstract] OR "impact of non-pharmaceutical interventions in shelters for people experiencing homelessness"[Title/Abstract])
+("COVID-19 in homeless shelters: systematic review and meta-analysis"[Title/Abstract] OR "prevalence of SARS-CoV-2 in shelters for homeless populations"[Title/Abstract]) AND ("effectiveness of infection control strategies in homeless shelters"[Title/Abstract] OR "non-pharmaceutical interventions' outcomes in homeless populations during COVID-19 pandemic"[Title/Abstract])
+("transmission of SARS-CoV-2 in homeless shelters"[Title/Abstract] OR "COVID-19 prevalence in shelters for people experiencing homelessness"[Title/Abstract]) AND ("health-related consequences of COVID-19 in homeless individuals"[Title/Abstract] OR "non-pharmaceutical interventions in shelters for homeless during COVID-19 pandemic"[Title/Abstract])
+("health outcomes of COVID-19 in homeless shelters' staff"[Title/Abstract] OR "COVID-19 risk factors in homeless individuals"[Title/Abstract]) AND ("effectiveness of infection prevention and control measures in shelters for homeless people"[Title/Abstract] OR "impact of non-pharmaceutical interventions on COVID-19 transmission in homeless shelters"[Title/Abstract])
+("meta-analysis of SARS-CoV-2 prevalence in homeless shelters during COVID-19 pandemic"[Title/Abstract] OR "systematic review of COVID-19 transmission in shelters for homeless individuals"[Title/Abstract]) AND ("health-related outcomes in homeless populations"[Title/Abstract] OR "effectiveness of infection control strategies in homeless shelters during COVID-19 pandemic"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("Host genetic variants associated with COVID-19 prognosis"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review and meta-analysis of COVID-19 host genetic variants"[Title/Abstract] OR "genetic association studies in COVID-19 patients"[Title/Abstract])
+("genetic factors influencing COVID-19 severity"[Title/Abstract] OR "host genetic markers for COVID-19 prognosis"[Title/Abstract]) AND ("meta-analysis of genetic association studies in COVID-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
+("genetic association studies in Covid-19 outcome"[Title/Abstract] OR "host genetic variants and Covid-19 prognosis"[Title/Abstract]) AND ("meta-analysis of genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "systematic review of genetic markers in Covid-19"[Title/Abstract])
+("host genetic factors affecting Covid-19 severity"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19"[Title/Abstract] OR "meta-analysis of Covid-19 host genetic variants"[Title/Abstract])
+("genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "host genetic markers for Covid-19 prognosis"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19 patients"[Title/Abstract] OR "meta-analysis of Covid-19 genetic variants"[Title/Abstract])
+("genetic association studies in Covid-19 susceptibility"[Title/Abstract] OR "host genetic factors affecting Covid-19 outcome"[Title/Abstract]) AND ("meta-analysis of host genetic variants in Covid-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract])
+("genetic markers for Covid-19 prognosis"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("meta-analysis of genetic association studies in Covid-19 patients"[Title/Abstract] OR "systematic review of Covid-19 host genetic variants"[Title/Abstract])
+("genetic association studies in Covid-19 outcome"[Title/Abstract] OR "host genetic factors influencing Covid-19 severity"[Title/Abstract]) AND ("systematic review of Covid-19 genetic variants"[Title/Abstract] OR "meta-analysis of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
+("genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "host genetic markers for Covid-19 prognosis"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19 outcome"[Title/Abstract] OR "meta-analysis of Covid-19 genetic variants"[Title/Abstract])
+("genetic association studies in Covid-19 susceptibility"[Title/Abstract] OR "host genetic factors affecting Covid-19 prognosis"[Title/Abstract]) AND ("meta-analysis of host genetic variants in Covid-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("prevalence of depression in health care workers"[Title/Abstract] OR "meta-analysis of anxiety among health care workers during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review of mental health in health care professionals during COVID-19"[Title/Abstract] OR "prevalence of PTSD in health care workers during pandemic"[Title/Abstract])
+("mental health outcomes in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of depression, anxiety, and PTSD in health care professionals"[Title/Abstract]) AND ("systematic review of mental health prevalence among health care workers"[Title/Abstract] OR "prevalence of mental disorders in COVID-19 health care workers"[Title/Abstract])
+("depression, anxiety, and PTSD in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of mental health prevalence in health care professionals"[Title/Abstract]) AND ("systematic review of mental health outcomes among health care workers"[Title/Abstract] OR "prevalence of mental disorders in COVID-19 frontline workers"[Title/Abstract])
+("prevalence of depression among health care workers during COVID-19"[Title/Abstract] OR "meta-analysis of anxiety in health care professionals during pandemic"[Title/Abstract]) AND ("systematic review of PTSD in health care workers during COVID-19"[Title/Abstract] OR "mental health outcomes in COVID-19 health care workers"[Title/Abstract])
+("systematic review and meta-analysis of mental health in health care workers during COVID-19"[Title/Abstract] OR "prevalence of anxiety and PTSD in health care professionals"[Title/Abstract]) AND ("depression prevalence in COVID-19 health care workers"[Title/Abstract] OR "mental health outcomes during pandemic in health care workers"[Title/Abstract])
+("prevalence of depression and anxiety in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of PTSD in COVID-19 health care workers"[Title/Abstract]) AND ("systematic review of mental health outcomes in health care professionals"[Title/Abstract] OR "prevalence of mental disorders in frontline health care workers"[Title/Abstract])
+("prevalence of depression, anxiety, and PTSD in health care workers during COVID-19"[Title/Abstract] OR "meta-analysis of mental health outcomes in health care professionals"[Title/Abstract]) AND ("systematic review of mental health prevalence during COVID-19 pandemic"[Title/Abstract] OR "prevalence of mental disorders in health care workers"[Title/Abstract])
+("meta-analysis of depression, anxiety, and PTSD prevalence in health care workers"[Title/Abstract] OR "prevalence of mental health outcomes in health care professionals during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review of mental disorders in COVID-19 health care workers"[Title/Abstract] OR "prevalence of depression among frontline health care workers"[Title/Abstract])
+("prevalence of depression, anxiety, and PTSD in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of mental health outcomes in health care professionals"[Title/Abstract]) AND ("systematic review of mental disorders in health care workers during pandemic"[Title/Abstract] OR "prevalence of mental health conditions in COVID-19 health care workers"[Title/Abstract])
+("prevalence of depression and anxiety in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of PTSD in health care professionals during pandemic"[Title/Abstract]) AND ("systematic review of mental health outcomes in health care workers during COVID-19"[Title/Abstract] OR "prevalence of mental disorders in frontline health care workers"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("betacoronaviruses transmission in humans"[Title/Abstract] OR "rapid systematic review of COVID-19 transmission"[Title/Abstract]) AND ("evidence-based recommendations for infection spread prevention"[Title/Abstract] OR "healthcare settings transmission prevention strategies"[Title/Abstract])
+("COVID-19 vertical transmission in pregnant women"[Title/Abstract] OR "in utero infection risk for neonates"[Title/Abstract]) AND ("severe COVID-19 cases during pregnancy"[Title/Abstract] OR "coronavirus infection in pregnancy outcomes"[Title/Abstract])
+("cluster of COVID-19 cases associated with shopping mall"[Title/Abstract] OR "indirect virus transmission in Wenzhou, China"[Title/Abstract]) AND ("coronavirus transmission from common objects"[Title/Abstract] OR "asymptomatic carriers virus spread"[Title/Abstract])
+("family cluster of pneumonia caused by novel coronavirus"[Title/Abstract] OR "person-to-person transmission of COVID-19 in families"[Title/Abstract]) AND ("coronavirus infection in family settings"[Title/Abstract] OR "nosocomial transmission of SARS-CoV-2"[Title/Abstract])
+("clinical characteristics of COVID-19 in pregnancy"[Title/Abstract] OR "intrauterine transmission potential of COVID-19"[Title/Abstract]) AND ("laboratory-confirmed COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "vertical transmission risk in pregnant COVID-19 patients"[Title/Abstract])
+("COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "retrospective review of COVID-19 medical records"[Title/Abstract]) AND ("intrauterine vertical transmission of SARS-CoV-2"[Title/Abstract] OR "infection potential in amniotic fluid and cord blood"[Title/Abstract])
+("clinical characteristics of COVID-19 in pregnancy"[Title/Abstract] OR "intrauterine transmission potential of COVID-19"[Title/Abstract]) AND ("amniotic fluid and cord blood testing for SARS-CoV-2"[Title/Abstract] OR "breastmilk samples testing in COVID-19 patients"[Title/Abstract])
+("vertical transmission risk in COVID-19 pregnant women"[Title/Abstract] OR "absence of intrauterine COVID-19 infection"[Title/Abstract]) AND ("pneumonia outcomes in late pregnancy"[Title/Abstract] OR "Apgar score in newborns with COVID-19 mothers"[Title/Abstract])
+("non-severe COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "clinical characteristics of COVID-19 pneumonia"[Title/Abstract]) AND ("absence of intrauterine vertical transmission"[Title/Abstract] OR "vertical transmission potential in COVID-19 pregnancies"[Title/Abstract])
+("coronavirus transmission prevention strategies"[Title/Abstract] OR "COVID-19 infection control measures"[Title/Abstract]) AND ("rapid systematic review of transmission in humans"[Title/Abstract] OR "betacoronaviruses transmission literature review"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("COVID-19 ICU patient characteristics"[Title/Abstract] OR "mechanical ventilation rates in COVID-19 patients"[Title/Abstract]) AND ("clinical outcomes and regional differences"[Title/Abstract] OR "ICU resource planning and mortality risk"[Title/Abstract])
+("average length of stay in COVID-19 ICU patients"[Title/Abstract] OR "ICU_ALOS estimation methods for COVID-19"[Title/Abstract]) AND ("parametric method for time-to-event data"[Title/Abstract] OR "reliable estimates for critical bed occupancy"[Title/Abstract])
+("clinical outcomes of severe COVID-19 patients"[Title/Abstract] OR "prognostic risk factors for critically ill patients"[Title/Abstract]) AND ("short-term outcomes and clinical characteristics"[Title/Abstract] OR "COVID-19 patients in Wuhan ICU"[Title/Abstract])
+("clinical course and risk factors for COVID-19 mortality"[Title/Abstract] OR "viral shedding and length of stay in ICU"[Title/Abstract]) AND ("prognostic factors and in-hospital death"[Title/Abstract] OR "ICU outcomes in adult COVID-19 patients"[Title/Abstract])
+("ICU outcomes of COVID-19 patients in Guangdong Province"[Title/Abstract] OR "clinical features and treatment of ICU-admitted patients"[Title/Abstract]) AND ("critically ill COVID-19 patients outside Wuhan"[Title/Abstract] OR "multicenter observational study in China"[Title/Abstract])
+("clinical and laboratory characteristics of COVID-19 ICU patients"[Title/Abstract] OR "comparison of NIV and IMV outcomes"[Title/Abstract]) AND ("complications and ICU treatment for COVID-19"[Title/Abstract] OR "extracorporeal membrane oxygenation in COVID-19 patients"[Title/Abstract])
+("lymphocytopenia dynamics in COVID-19 ICU patients"[Title/Abstract] OR "plasma interleukin-6 levels in NIV and IMV cases"[Title/Abstract]) AND ("acute cardiac and kidney complications in IMV cases"[Title/Abstract] OR "ICU patient characteristics and clinical features"[Title/Abstract])
+("COVID-19 ICU outcomes and platelet levels"[Title/Abstract] OR "hemoglobin and D-dimer in NIV and IMV cases"[Title/Abstract]) AND ("prothrombin time and IL-6 in critically ill patients"[Title/Abstract] OR "blood urea nitrogen and lactate dehydrogenase in ICU patients"[Title/Abstract])
+("ICU_ALOS estimates and COVID-19 forecasting models"[Title/Abstract] OR "unbiased parameterization for critical bed occupancy"[Title/Abstract]) AND ("early estimation of ICU_ALOS in pandemic"[Title/Abstract] OR "simulation study for reliable estimates"[Title/Abstract])
+("ventilation strategies for COVID-19 ICU patients"[Title/Abstract] OR "ICU resource planning and mortality risk"[Title/Abstract]) AND ("region-specific protocols for ventilatory support"[Title/Abstract] OR "treatment outcomes and region discrepancies"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t>("prevalence of comorbidities in COVID-19 patients"[Title/Abstract] OR "geographical distribution of comorbidities in COVID-19 patients"[Title/Abstract]) AND ("mortality rate of COVID-19"[Title/Abstract] OR "odds ratio of death and comorbidities in COVID-19"[Title/Abstract])
+("clinical course and outcomes of critically ill patients with SARS-CoV-2 pneumonia"[Title/Abstract] OR "mortality in critically ill COVID-19 patients"[Title/Abstract]) AND ("retrospective observational study in Wuhan"[Title/Abstract] OR "characteristics of severe COVID-19 cases"[Title/Abstract])
+("clinical characteristics of laboratory-confirmed SARS-CoV-2 cases in Wuhan"[Title/Abstract] OR "imaging and clinical features of COVID-19 patients"[Title/Abstract]) AND ("radiological evolution and disease severity"[Title/Abstract] OR "CT manifestations in COVID-19 pneumonia"[Title/Abstract])
+("clinical and CT features associated with severe COVID-19 pneumonia"[Title/Abstract] OR "risk factors for severe and critical COVID-19"[Title/Abstract]) AND ("radiological findings and clinical symptoms in COVID-19 patients"[Title/Abstract] OR "CT score for disease severity in COVID-19"[Title/Abstract])
+("clinical course and imaging manifestations of COVID-19 in Wenzhou city"[Title/Abstract] OR "characteristics of hospitalized COVID-19 patients in Zhejiang, China"[Title/Abstract]) AND ("outcomes and symptoms in RT-PCR confirmed COVID-19 patients"[Title/Abstract] OR "chest CT imaging in COVID-19 pneumonia"[Title/Abstract])
+("clinical descriptions and mortality of COVID-19 patients"[Title/Abstract] OR "prevalence of comorbidities in fatal COVID-19 cases"[Title/Abstract]) AND ("pooled prevalence of comorbidities in COVID-19 patients"[Title/Abstract] OR "geographical distribution of COVID-19 comorbidities"[Title/Abstract])
+("imaging characteristics and laboratory tests in SARS-CoV-2 infection"[Title/Abstract] OR "diagnosis of COVID-19 based on chest CT examination"[Title/Abstract]) AND ("chest CT features and clinical manifestations in COVID-19 patients"[Title/Abstract] OR "typical CT imaging features of COVID-19 pneumonia"[Title/Abstract])
+("CT manifestations and clinical symptoms in COVID-19 patients outside Hubei"[Title/Abstract] OR "characteristics of hospitalized COVID-19 patients in Zhejiang"[Title/Abstract]) AND ("imaging pattern and disease onset in COVID-19"[Title/Abstract] OR "normal chest findings and positive COVID-19 test"[Title/Abstract])
+("clinical characteristics of critically ill COVID-19 patients in Wuhan"[Title/Abstract] OR "retrospective single-center analysis of COVID-19 cases"[Title/Abstract]) AND ("mortality and risk factors in severe/critical COVID-19 pneumonia"[Title/Abstract] OR "CT manifestations and severity of COVID-19 pneumonia"[Title/Abstract])
+("clinical course and outcomes of COVID-19 patients with comorbidities"[Title/Abstract] OR "odds ratio of death and comorbidities in critically ill COVID-19 patients"[Title/Abstract]) AND ("prevalence and mortality of COVID-19 in ICU patients"[Title/Abstract] OR "comorbidity rates in COVID-19 ICU admissions"[Title/Abstract])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("statin therapy" OR "statin treatment" OR "statin users" OR "statin therapy and COVID-19 mortality" OR "statins and COVID-19 outcomes") AND ("systematic review and meta-analysis" OR "COVID-19 mortality meta-analysis" OR "COVID-19 mortality systematic review")
+("retrospective cohort study" OR "Iranian COVID-19 patients" OR "statins in COVID-19" OR "statin use and COVID-19 mortality") AND ("beneficial effect of statins in COVID-19" OR "statin therapy and COVID-19 morbidity" OR "statins and mechanical ventilation in COVID-19")
+("association of statin use with COVID-19 outcomes" OR "statin use and in-hospital outcomes of COVID-19" OR "statin use and severe COVID-19 infection") AND ("retrospective study" OR "association between statins and COVID-19 mortality" OR "in-hospital outcomes of COVID-19 patients on statins")
+("statins and severe COVID-19 infection" OR "statin exposure and COVID-19 mortality" OR "statin use and COVID-19 all-cause mortality") AND ("nationwide cohort study" OR "statin use and COVID-19 outcomes in Denmark" OR "statins and severe COVID-19 infection in Denmark")
+("statin use in patients with diabetes and COVID-19" OR "statin therapy and in-hospital mortality in COVID-19 patients with diabetes") AND ("observational study" OR "statin use and COVID-19 mortality in Bronx, New York" OR "statins and in-hospital mortality in COVID-19 patients with diabetes")
+("COVID-19 related mortality" OR "COVID-19 death rate" OR "mortality risk in COVID-19 patients") AND ("statin users versus non-users" OR "statin therapy effect on COVID-19 mortality" OR "meta-analysis of statin therapy and COVID-19 outcomes")
+("statins and COVID-19 severity" OR "COVID-19 severity in statin users" OR "statin therapy and severe COVID-19 cases") AND ("statin therapy during hospitalization" OR "statin use and COVID-19 prognosis" OR "continuation of statins in hospitalized COVID-19 patients")
+("COVID-19 mortality risk factors" OR "factors associated with COVID-19 death" OR "predictors of mortality in COVID-19") AND ("adjusted hazard ratios for mortality" OR "odds ratios for COVID-19 mortality" OR "statins and COVID-19 death risk")
+("COVID-19 comorbidities and mortality" OR "impact of comorbidities on COVID-19 outcomes" OR "comorbidity-associated mortality in COVID-19") AND ("meta-regression analysis of COVID-19 mortality" OR "association of anthropometric characteristics with COVID-19 mortality" OR "comorbidities and COVID-19 death risk")
+("benefits of statin therapy in COVID-19 patients" OR "effect of statins on COVID-19 prognosis" OR "meta-analysis of statins and COVID-19 mortality") AND ("retrospective evidence of statin therapy in COVID-19" OR "statins and survival in hospitalized COVID-19 patients" OR "statin therapy and mortality risk in COVID-19")
+</t>
+  </si>
+  <si>
+    <t>("mental health disorders" OR "depressive symptoms" OR "anxiety symptoms" OR "sleep disturbances") AND ("university students" OR "college students" OR "higher education students" OR "students during COVID-19 pandemic") AND ("systematic review and meta-analysis" OR "prevalence of mental health disorders in students" OR "mental health in higher education during COVID-19")
+("mood states" OR "physical exercise" OR "nutrition choices" OR "nutritional habits") AND ("Italian college students" OR "students during COVID-19 home isolation" OR "impact of exercise on nutrition during lockdown") AND ("longitudinal observational study" OR "dietary habits and psychological states during COVID-19" OR "mood, exercise, and nutrition in college students")
+("perceived stress" OR "mental health problems" OR "students during COVID-19 pandemic" OR "psychological impact of COVID-19 on students") AND ("prevalence of perceived stress in students" OR "predictors of stress levels in students" OR "mental health in French students during COVID-19")
+("depressive symptoms" OR "mental health status" OR "change in living rhythms" OR "college students in China") AND ("prevalence of depressive symptoms in Chinese college students" OR "impact of COVID-19 on mental health of students" OR "large-scale survey on mental health in students during pandemic")
+("psychosocial correlates" OR "mental health outcomes" OR "Chinese college students" OR "COVID-19 pandemic") AND ("prevalence of mental health outcomes in Chinese students" OR "risk factors for poor mental health in students during COVID-19" OR "cross-sectional survey on mental health in university students")
+("anxiety symptoms" OR "French university students" OR "anxiety in COVID-19 affected area" OR "PIMS-CoV 19 study") AND ("higher prevalence of anxiety in French students during COVID-19" OR "anxiety levels in students in severely affected region" OR "psychological impact of COVID-19 on French students")
+("clinically-relevant posttraumatic stress disorder symptoms" OR "anxiety symptoms" OR "depressive symptoms" OR "posttraumatic growth" OR "Chinese university students" OR "COVID-19 pandemic") AND ("prevalence of mental health symptoms in Chinese students during COVID-19" OR "risk factors for poor mental health in Chinese university students" OR "nation-wide survey on mental health in Chinese students")
+("prevalence of depressive symptoms in college students" OR "impact of COVID-19 on mental health in college students" OR "prevalence of anxiety symptoms in students during pandemic") AND ("large-scale survey on mental health in Chinese students" OR "changes in mental health status during COVID-19 in students" OR "depressive symptoms and COVID-19 pandemic in college students")
+("prevalence of mental health disorders in college students" OR "sleep disturbances in university students during COVID-19" OR "impact of COVID-19 on mental health in higher education") AND ("systematic review on mental health disorders in students" OR "meta-analysis on mental health in college students during pandemic" OR "COVID-19 impact on sleep quality in university students")
+("psychological impact of COVID-19 on college students" OR "mental health status during pandemic" OR "depressive symptoms in higher education students" OR "anxiety symptoms in students during COVID-19") AND ("prevalence of mental health disorders in university students" OR "COVID-19 pandemic and mental health in college students" OR "systematic review on mental health in higher education during pandemic")</t>
+  </si>
+  <si>
+    <t>("depression" OR "anxiety" OR "sleep disorder" OR "mental health disorders") AND ("COVID-19 patients" OR "patients with confirmed COVID-19" OR "patients during disease outbreak") AND ("systematic review and meta-analysis" OR "prevalence of mental health disorders in COVID-19 patients" OR "psychiatric disorders in COVID-19")
+("psychological morbidities" OR "fatigue" OR "mental health" OR "psychometric questionnaires") AND ("patients with confirmed COVID-19 infection" OR "COVID-19 patients with psychological symptoms" OR "biopsychosocial risk factors in COVID-19 patients") AND ("prevalence and risk factors for psychological morbidities in COVID-19 patients" OR "psychological impact of COVID-19 on patients" OR "mental health status in patients during COVID-19")
+("detailed neurological manifestations" OR "neurological symptoms" OR "neurological findings" OR "neurological examination") AND ("patients with COVID-19" OR "COVID-19 inpatients" OR "neurological symptoms in COVID-19 patients") AND ("prospective clinical study on neurological manifestations in COVID-19 patients" OR "neurological complications of COVID-19" OR "neurological examination in patients with COVID-19")
+("headache" OR "dizziness" OR "impaired consciousness" OR "smell and gustation impairments" OR "cerebrovascular disorders" OR "epileptic seizures" OR "myalgia") AND ("neurological symptoms in COVID-19 patients" OR "neurological findings in patients with COVID-19" OR "neurological manifestations of SARS-CoV2 infection") AND ("prevalence of neurological symptoms in COVID-19 patients" OR "subjective neurological symptoms in SARS-CoV2 infection" OR "headache and COVID-19")
+("psychological distress" OR "quarantined patients" OR "COVID-19 patients" OR "immediate psychological symptoms") AND ("association with peripheral inflammation" OR "mixed-method study on psychological distress in COVID-19 patients" OR "psychological impact of quarantine on COVID-19 patients") AND ("depression and anxiety symptoms in quarantined COVID-19 patients" OR "psychological effects of COVID-19 quarantine" OR "mental health in COVID-19 quarantine")
+("psychological morbidities" OR "mental health disorders" OR "fatigue" OR "COVID-19 patients") AND ("prevalence of mental health disorders in patients with confirmed COVID-19" OR "psychiatric symptoms in COVID-19 patients" OR "psychological impact of COVID-19 on patients") AND ("systematic review and meta-analysis on mental health in COVID-19 patients" OR "prevalence of depression and anxiety in COVID-19 patients" OR "sleep disturbances in patients with COVID-19")
+("neurological symptoms" OR "psychological morbidities" OR "COVID-19 patients") AND ("prevalence of neurological symptoms in patients with confirmed COVID-19" OR "psychiatric disorders in COVID-19 patients" OR "mental health status in COVID-19 patients") AND ("systematic review and meta-analysis on neurological manifestations in COVID-19 patients" OR "neurological impact of COVID-19 on patients" OR "neurological disorders in patients with COVID-19")
+("COVID-19 pandemic" OR "mental health status" OR "psychological morbidities" OR "patients with COVID-19") AND ("prevalence of depression and anxiety in COVID-19 patients" OR "psychiatric symptoms in patients with confirmed COVID-19" OR "psychological impact of COVID-19 on mental health") AND ("systematic review and meta-analysis on mental health in COVID-19 pandemic" OR "prevalence of sleep disorders in COVID-19 patients" OR "psychological implications of COVID-19 infections")
+("psychological impact" OR "mental health status" OR "COVID-19 patients") AND ("prevalence of psychological morbidities in patients with confirmed COVID-19" OR "psychiatric symptoms in COVID-19 patients" OR "psychological well-being during COVID-19 pandemic") AND ("systematic review and meta-analysis on psychological symptoms in COVID-19 patients" OR "prevalence of depression and anxiety in COVID-19 patients" OR "sleep disturbances and COVID-19")
+("prevalence of depression" OR "anxiety" OR "sleep disturbances" OR "mental health disorders") AND ("COVID-19 patients" OR "patients with confirmed COVID-19 infection" OR "psychological impact of COVID-19 on patients") AND ("systematic review and meta-analysis on mental health in COVID-19 patients" OR "psychiatric disorders in patients during disease outbreak" OR "prevalence of mental health disorders in COVID-19 pandemic")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("nutritional screening tools" OR "nutritional risk assessment" OR "malnutrition risk" OR "COVID-19 patients") AND ("older patients with COVID-19" OR "elderly patients with COVID-19" OR "nutrition assessment in COVID-19" OR "malnutrition in older adults with COVID-19") AND ("systematic review with narrative synthesis on nutritional screening tools" OR "measurement properties of nutritional screening tools in COVID-19" OR "nutritional risk assessment in older adults with COVID-19")
+("mNUTRIC score" OR "modified Nutrition Risk in the Critically ill score" OR "critical illness in COVID-19" OR "prognosis prediction in critically ill COVID-19 patients") AND ("nutritional risk assessment" OR "mortality prediction in COVID-19 patients" OR "critical care nutrition in COVID-19" OR "nutrition support in ICU COVID-19 patients") AND ("prospective study on mNUTRIC score in critically ill COVID-19 patients" OR "nutritional risk assessment in ICU COVID-19 patients" OR "prognostic value of mNUTRIC score in COVID-19 ICU patients")
+("Mini Nutritional Assessment" OR "MNA" OR "nutritional status assessment" OR "malnutrition risk assessment") AND ("elderly patients with COVID-19" OR "older patients with COVID-19" OR "nutrition assessment in COVID-19" OR "MNA in geriatric COVID-19 patients") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition prevalence in older adults with COVID-19" OR "related factors of malnutrition in COVID-19 patients")
+("malnutrition" OR "malnutrition risk" OR "nutritional status" OR "elderly patients with COVID-19") AND ("Mini Nutritional Assessment" OR "MNA" OR "malnutrition prevalence in COVID-19 patients" OR "nutritional risk assessment in geriatric COVID-19 patients") AND ("retrospective study on MNA in elderly COVID-19 patients" OR "nutritional status evaluation in older adults with COVID-19" OR "association between malnutrition and COVID-19 outcomes")
+("nutritional screening tools" OR "nutritional risk assessment" OR "malnutrition risk" OR "COVID-19 patients") AND ("modified Nutrition Risk in the Critically ill score" OR "mNUTRIC score" OR "critical care nutrition in COVID-19" OR "ICU nutrition support in COVID-19") AND ("systematic review with narrative synthesis on mNUTRIC score in critically ill COVID-19 patients" OR "measurement properties of mNUTRIC score in COVID-19" OR "mNUTRIC score applicability in ICU COVID-19 patients")
+("Mini Nutritional Assessment" OR "MNA" OR "nutrition assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in COVID-19 patients" OR "nutritional risk assessment in geriatric COVID-19 patients" OR "nutrition screening in older adults with COVID-19") AND ("cross-sectional study on MNA in elderly COVID-19 patients" OR "nutrition status evaluation in older patients with COVID-19" OR "association between malnutrition and COVID-19 outcomes")
+("modified Nutrition Risk in the Critically ill score" OR "mNUTRIC score" OR "nutrition risk assessment" OR "COVID-19 ICU patients") AND ("critical care nutrition in COVID-19" OR "prognosis prediction in critically ill COVID-19 patients" OR "mNUTRIC score and mortality in COVID-19") AND ("retrospective study on mNUTRIC score in COVID-19 ICU patients" OR "nutrition risk assessment in critically ill COVID-19 patients" OR "prognostic value of mNUTRIC score in ICU COVID-19 patients")
+("nutritional status" OR "malnutrition risk" OR "Mini Nutritional Assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in geriatric COVID-19 patients" OR "nutritional screening in older adults with COVID-19" OR "nutrition risk assessment in COVID-19") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition and COVID-19 outcomes" OR "related factors of malnutrition in COVID-19 patients")
+("mNUTRIC score" OR "modified Nutrition Risk in the Critically ill score" OR "nutrition risk assessment" OR "critical care nutrition in COVID-19") AND ("ICU nutrition support in COVID-19" OR "mortality prediction in critically ill COVID-19 patients" OR "mNUTRIC score and outcomes in COVID-19") AND ("retrospective study on mNUTRIC score in critically ill COVID-19 patients" OR "nutrition risk assessment in ICU COVID-19 patients" OR "prognostic value of mNUTRIC score in COVID-19 ICU patients")
+("malnutrition risk" OR "nutritional status assessment" OR "Mini Nutritional Assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in geriatric COVID-19 patients" OR "nutrition assessment in older adults with COVID-19" OR "MNA in COVID-19") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition and COVID-19 outcomes" OR "association between malnutrition and COVID-19 severity")
+</t>
+  </si>
+  <si>
+    <t>("home-based exercise programs" OR "home-based training" OR "home exercises" OR "home-based exercise intervention") AND ("physical fitness" OR "muscle strength" OR "muscle power" OR "muscular endurance" OR "balance") AND ("older adults" OR "elderly adults" OR "senior citizens" OR "healthy older adults")
+("Otago exercise program" OR "OEP" OR "fall prevention programs" OR "home-based exercise training program") AND ("elderly community dwellers" OR "fall prevention in elderly" OR "effectiveness of OEP in falls reduction") AND ("randomized control trial" OR "RCT" OR "effect of OEP on fall incidence in elderly")
+("calf-raise training" OR "explosive plantar flexion force" OR "neuromuscular adaptations" OR "balance performance") AND ("home-based calf-raise exercise" OR "home exercise program" OR "functional neuromuscular capacity" OR "mobility in elderly men") AND ("effect of calf-raise training on rapid force production" OR "balance ability in elderly men")
+("individualized home-based exercise" OR "nutrition interventions" OR "frailty in older adults" OR "reducing frailty in older adults") AND ("randomized controlled trial" OR "RCT" OR "effective interventions for frailty in elderly" OR "home-based interventions for frailty") AND ("frailty scores improvement" OR "physical performance improvement" OR "mental health improvement in frail older adults")
+("home exercise program" OR "home-based exercise" OR "physical function improvement in elderly" OR "sarcopenia prevention") AND ("community dwelling elderly" OR "pre-sarcopenia" OR "sarcopenia" OR "muscle function improvement in elderly") AND ("effect of home exercise on physical function" OR "effect of home-based exercise on sarcopenia")
+("exercise snacks" OR "unsupervised home-based exercise" OR "leg strength improvement in elderly" OR "muscle size improvement in healthy older adults") AND ("healthy older adults" OR "elderly participants" OR "home-based exercise intervention" OR "leg muscle function improvement") AND ("effect of exercise snacking on muscle size" OR "effect of home-based exercise on leg strength")
+("home-based training" OR "home exercises" OR "physical fitness" OR "muscle strength" OR "balance") AND ("healthy older adults" OR "elderly adults" OR "senior citizens" OR "home-based exercise interventions") AND ("systematic review on home-based exercise programs" OR "meta-analysis on home-based training in older adults" OR "effectiveness of home exercises in improving physical fitness")
+("Otago exercise program" OR "OEP" OR "fall prevention programs" OR "home-based exercise training program") AND ("elderly community dwellers" OR "fall prevention in elderly" OR "effectiveness of OEP in falls reduction") AND ("systematic review on Otago exercise program" OR "meta-analysis on fall prevention in elderly using OEP" OR "effectiveness of home-based exercise programs in falls reduction")
+("calf-raise training" OR "explosive plantar flexion force" OR "balance performance") AND ("home-based calf-raise exercise" OR "home exercise program" OR "functional neuromuscular capacity" OR "mobility in elderly men") AND ("systematic review on calf-raise training in elderly" OR "meta-analysis on home-based calf-raise exercise in older adults" OR "effect of calf-raise training on balance ability in elderly")
+("individualized home-based exercise" OR "nutrition interventions" OR "frailty in older adults" OR "reducing frailty in older adults") AND ("randomized controlled trial" OR "RCT" OR "effective interventions for frailty in elderly" OR "home-based interventions for frailty") AND ("systematic review on home-based exercise and nutrition interventions in older adults" OR "meta-analysis on reducing frailty in elderly using home-based interventions" OR "effect of individualized home-based exercise on physical frailty")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("N95 filtering facepiece respirators" OR "N95-FFRs" OR "N95 respirators" OR "N95 masks") AND ("decontamination methods" OR "reprocessing methods" OR "respirator disinfection" OR "respirator reuse") AND ("UVGI" OR "Ultraviolet germicidal irradiation" OR "Ultraviolet light" OR "UV irradiation")
+("respirator decontamination" OR "FFR disinfection" OR "respirator integrity" OR "FFR performance") AND ("ethylene oxide" OR "vaporized hydrogen peroxide" OR "microwave oven irradiation" OR "bleach" OR "chemical decontamination methods") AND ("NIOSH-certified N95 FFRs" OR "filtering facepiece respirators" OR "disposable respirators")
+("microwave steam bags" OR "steam decontamination" OR "microwave generated steam" OR "FFR decontamination protocol") AND ("water absorption of FFR" OR "FFR filtration efficiency" OR "FFR hydrophobicity" OR "bacteriophage MS2 decontamination") AND ("commercial steam bags for FFR decontamination" OR "steam decontamination efficacy")
+("UVGI on N95 respirators" OR "ultraviolet germicidal irradiation on N95 masks" OR "UV light effect on N95 FFRs" OR "influenza-contaminated N95 respirators") AND ("viable influenza reduction on FFRs" OR "influenza inactivation by UV light")
+("N95-FFRs reprocessing methods" OR "respirator reuse techniques" OR "decontamination of N95 respirators" OR "COVID-19 pandemic and N95-FFRs") AND ("evaluation of decontamination methods" OR "research on FFR reprocessing" OR "prior research on N95-FFR decontamination") AND ("UVGI for N95 respirators" OR "Microwave steam for FFRs" OR "Hydrogen peroxide vapor for respirators")
+("Ultraviolet germicidal irradiation" OR "UVGI" OR "UV light" OR "UV irradiation") AND ("filtration performance of N95 respirators" OR "structural integrity of N95 FFRs" OR "UV effects on respirator materials") AND ("degradation of disposable respirators by UVGI" OR "UVGI on N95 FFRs")
+("decontamination of FFRs" OR "filtering facepiece respirator reuse" OR "respirator disinfection methods" OR "N95-FFR reprocessing techniques") AND ("effect of decontamination on respirator performance" OR "respirator material integrity after decontamination" OR "respirator safety after reprocessing") AND ("evaluation of respirator decontamination methods" OR "study on FFR reuse during pandemic")
+("FFR decontamination efficacy" OR "effectiveness of N95 respirator disinfection" OR "biological decontamination of respirators" OR "respirator inactivation of pathogens") AND ("UVGI vs. Ethylene oxide" OR "comparison of different decontamination methods for FFRs" OR "effect of steam decontamination on N95-FFRs")
+("microwave oven irradiation on respirators" OR "microwave steam bags for FFR decontamination" OR "microwave-generated steam efficacy" OR "FFR integrity after microwave steam exposure") AND ("filtration efficiency of decontaminated FFRs" OR "bacteriophage inactivation by steam bags" OR "respirator disinfection using microwave steam") AND ("steam decontamination for N95 FFRs" OR "respirator reprocessing by microwave-generated steam")
+("respirator reprocessing during pandemic" OR "decontamination methods for N95 masks" OR "reuse of filtering facepiece respirators" OR "respirator decontamination to tackle PPE shortage") AND ("prior research on FFR decontamination" OR "systematic review of respirator reprocessing" OR "literature review on N95-FFR reuse") AND ("evaluation of N95-FFR decontamination methods" OR "efficacy of UVGI and Microwave steam on FFRs" OR "Hydrogen peroxide vapor as N95 respirator decontamination technique")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("immunity during pregnancy" OR "pregnancy-related immunity" OR "immune response in pregnant women") AND ("SARS-CoV-2 infection" OR "COVID-19 in pregnant women" OR "coronavirus infection during pregnancy")
+("COVID-19 and pregnancy" OR "maternal outcomes of COVID-19" OR "COVID-19 during childbirth" OR "pregnancy affected by COVID-19") AND ("clinical presentation of COVID-19 in pregnant women" OR "maternal outcomes in COVID-19" OR "perinatal outcomes in COVID-19" OR "neonatal outcomes of COVID-19")
+("COVID-19 infection in pregnant women" OR "severity of COVID-19 during pregnancy" OR "critical COVID-19 in pregnancy" OR "COVID-19 and maternal mortality") AND ("vaginal birth during COVID-19" OR "cesarean section in COVID-19" OR "COVID-19 and perinatal outcomes" OR "COVID-19 and neonatal outcomes")
+("effect of COVID-19 on pregnancy" OR "impact of coronavirus on pregnancy" OR "COVID-19 and pregnant women outcomes" OR "SARS-CoV-2 transmission during pregnancy") AND ("systematic review on COVID-19 in pregnancy" OR "published literature on COVID-19 and pregnancy" OR "maternal complications of COVID-19" OR "COVID-19 and vertical transmission")
+("pregnancy during COVID-19 pandemic" OR "neonatal outcome in COVID-19" OR "COVID-19 effect on perinatal health" OR "pregnancy outcomes in coronavirus disease") AND ("COVID-19 and maternal age" OR "gestational age and COVID-19" OR "COVID-19 symptoms in pregnant women" OR "severe pneumonia in COVID-19 pregnancy")
+("COVID-19 and maternal intensive care" OR "mechanical ventilation in pregnant women with COVID-19" OR "COVID-19 and maternal mortality" OR "COVID-19 and maternal critical cases") AND ("computed tomography chest findings in COVID-19 pregnancy" OR "SARS-CoV-2 detection in vaginal mucus during pregnancy" OR "breast milk and COVID-19 transmission" OR "spontaneous miscarriage and COVID-19")
+("COVID-19 and neonatal intensive care unit" OR "COVID-19 and neonatal asphyxia" OR "COVID-19 and neonatal deaths" OR "SARS-CoV-2 infection in neonates") AND ("COVID-19 and Cesarean section" OR "birth weight and COVID-19" OR "Apgar scores in COVID-19-affected neonates" OR "COVID-19 and neonatal outcomes")
+("systematic review on COVID-19 and pregnancy" OR "impact of COVID-19 on maternal outcomes" OR "COVID-19 and perinatal health" OR "neonatal complications of COVID-19") AND ("COVID-19 and fetal outcomes" OR "COVID-19 and maternal morbidity" OR "good-quality data on COVID-19 in pregnant women" OR "COVID-19 in pregnancies")
+("vertical transmission of SARS-CoV-2" OR "intrauterine transmission of coronavirus" OR "maternal-fetal transmission of COVID-19" OR "COVID-19 transmission to neonates") AND ("complications of COVID-19 in pregnant women" OR "COVID-19 in pregnancy systematic review" OR "coronavirus impact on neonatal health" OR "neonatal complications of COVID-19 infection")
+("COVID-19 and pregnancy case reports" OR "maternal deaths in severe COVID-19 cases" OR "COVID-19 infection in pregnant women case series" OR "impact of COVID-19 on pregnant women outcomes") AND ("incomplete outcome data on COVID-19 in pregnancy" OR "COVID-19 in pregnancy registry data" OR "research on COVID-19 impact in pregnant women" OR "COVID-19 and maternal outcomes reporting")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("gastrointestinal symptoms" OR "COVID-19 in children" OR "pediatric COVID-19") AND ("fecal nucleic acid testing" OR "importance of fecal nucleic acid testing" OR "incidence of gastrointestinal symptoms in COVID-19 children")
+("vomiting in pediatric COVID-19" OR "diarrhea in COVID-19 children" OR "prevalence of gastrointestinal symptoms in COVID-19 children") AND ("gastrointestinal symptoms in children outside Wuhan" OR "incidence of COVID-19 gastrointestinal symptoms in different countries" OR "COVID-19 gastrointestinal symptoms meta-analysis")
+("fecal nucleic acid testing in pediatric COVID-19" OR "positive rate of fecal nucleic acid testing in COVID-19 children") AND ("respiratory tract specimens and fecal nucleic acid testing correlation" OR "duration of fecal nucleic acid positivity in COVID-19 children" OR "fecal nucleic acid detection in children with COVID-19")
+("clinical and CT features in pediatric patients with COVID-19" OR "chest CT findings in pediatric COVID-19" OR "procalcitonin elevation in pediatric COVID-19") AND ("clinical and laboratory characteristics of pediatric COVID-19" OR "COVID-19 in pediatric inpatients" OR "COVID-19 characteristics in children")
+("unilateral pulmonary lesions in pediatric COVID-19" OR "bilateral pulmonary lesions in children with COVID-19" OR "chest CT abnormalities in pediatric COVID-19") AND ("ground-glass opacities in pediatric COVID-19" OR "consolidation with surrounding halo sign in pediatric COVID-19" OR "chest CT findings in COVID-19 pediatric inpatients")
+("prospective case-control study on post-vaccination SARS-CoV-2 infection" OR "risk factors for post-vaccination COVID-19 infection" OR "disease profile of post-vaccination COVID-19") AND ("COVID-19 infection in vaccinated individuals" OR "vaccination and infection control measures" OR "post-vaccination era precautions")
+("frailty and post-vaccination SARS-CoV-2 infection" OR "risk factors for COVID-19 in older vaccinated adults" OR "deprivation and post-vaccination infection in adults") AND ("obesity and COVID-19 vaccination" OR "impact of BMI on post-vaccination infection" OR "post-vaccination infection in different age groups")
+("clinical characteristics of post-vaccination COVID-19" OR "symptoms and disease duration in vaccinated COVID-19 cases" OR "hospitalization and vaccination status in COVID-19 cases") AND ("asymptomatic vaccinated COVID-19 individuals" OR "vaccination impact on COVID-19 symptoms" OR "COVID-19 disease severity in vaccinated individuals")
+("children with COVID-19 in Changsha, China" OR "pediatric patients with 2019-nCoV infection" OR "clinical features of COVID-19 in children") AND ("family exposure and COVID-19 in children" OR "symptoms of COVID-19 in pediatric patients" OR "chest CT findings in children with COVID-19")
+("clinical course of COVID-19 in children" OR "SARS-CoV-2 infection in children" OR "COVID-19 in pediatric population") AND ("morbidity in pediatric COVID-19" OR "chest CT scans in COVID-19 children" OR "symptoms and signs in pediatric COVID-19")
+</t>
+  </si>
+  <si>
+    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("respiratory distress syndrome, adult"[MeSH Terms] OR "respiratory distress syndrome, adult"[Title/Abstract]) AND "mechanical ventilation"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("respiratory distress syndrome, adult"[MeSH Terms] OR "respiratory distress syndrome, adult"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("adult respiratory distress syndrome"[MeSH Terms] OR "adult respiratory distress syndrome"[Title/Abstract]) AND "mortality"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation"[MeSH Terms] AND "mortality"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "ICU discharge"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "mechanical ventilation outcomes"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation mortality"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "adult respiratory distress syndrome outcome"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "respiratory failure"[MeSH Terms] AND "mechanical ventilation"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "mechanical ventilation mortality"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])</t>
+  </si>
+  <si>
+    <t>("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields])
+("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields]) AND ("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("acute hypoxemic failure" [MeSH Terms] OR "acute hypoxemic failure" [All Fields]) AND ("2019-nCoV" [MeSH Terms] OR "2019-nCoV" [All Fields]) AND ("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields])
+("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("hospitalized patients" [MeSH Terms] OR "hospitalized patients" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("glucocorticoids" [MeSH Terms] OR "glucocorticoids" [All Fields]) AND ("lung injury" [MeSH Terms] OR "lung injury" [All Fields]) AND ("respiratory failure" [MeSH Terms] OR "respiratory failure" [All Fields])
+("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("respiratory support" [MeSH Terms] OR "respiratory support" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields]) AND ("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("respiratory support" [MeSH Terms] OR "respiratory support" [All Fields])
+("invasive mechanical ventilation" [MeSH Terms] OR "invasive mechanical ventilation" [All Fields]) AND ("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])</t>
+  </si>
+  <si>
+    <t>("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
+("non-pharmacological interventions" [MeSH Terms] OR "non-pharmacological interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("control measures" [MeSH Terms] OR "control measures" [All Fields])
+("mass testing" [MeSH Terms] OR "mass testing" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("modeling studies" [MeSH Terms] OR "modeling studies" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("resource use" [MeSH Terms] OR "resource use" [All Fields])
+("mass testing" [MeSH Terms] OR "mass testing" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields])</t>
+  </si>
+  <si>
+    <t>("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("influenza incidence" [MeSH Terms] OR "influenza incidence" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
+("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("comparative study" [Publication Type] OR "comparative study" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("public health measures" [MeSH Terms] OR "public health measures" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("influenza virus infection" [MeSH Terms] OR "influenza virus infection" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
+("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("epidemic curve" [MeSH Terms] OR "epidemic curve" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("population behaviour" [MeSH Terms] OR "population behaviour" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])</t>
+  </si>
+  <si>
+    <t>("tele-eyecare" [MeSH Terms] OR "tele-eyecare" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("remote patient care" [MeSH Terms] OR "remote patient care" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("India" [MeSH Terms] OR "India" [All Fields])
+("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
+("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("India" [MeSH Terms] OR "India" [All Fields])
+("remote patient care" [MeSH Terms] OR "remote patient care" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields])
+("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
+("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])</t>
+  </si>
+  <si>
+    <t>("disasters" [MeSH Terms] OR "disasters" [All Fields]) AND ("pandemics" [MeSH Terms] OR "pandemics" [All Fields]) AND ("cardiometabolic diseases" [MeSH Terms] OR "cardiometabolic diseases" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("floods" [MeSH Terms] OR "floods" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("cohort studies" [MeSH Terms] OR "cohort studies" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("African Americans" [MeSH Terms] OR "African Americans" [All Fields])
+("World Trade Center Disaster" [MeSH Terms] OR "World Trade Center Disaster" [All Fields]) AND ("posttraumatic stress disorder" [MeSH Terms] OR "posttraumatic stress disorder" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("diabetes mellitus" [MeSH Terms] OR "diabetes mellitus" [All Fields]) AND ("health care costs" [MeSH Terms] OR "health care costs" [All Fields])
+("floods" [MeSH Terms] OR "floods" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("Vietnam" [MeSH Terms] OR "Vietnam" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("health care disparities" [MeSH Terms] OR "health care disparities" [All Fields]) AND ("disaster preparation" [MeSH Terms] OR "disaster preparation" [All Fields])
+("September 11 Terrorist Attacks" [MeSH Terms] OR "September 11 Terrorist Attacks" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("natural disasters" [MeSH Terms] OR "natural disasters" [All Fields]) AND ("diabetes mellitus" [MeSH Terms] OR "diabetes mellitus" [All Fields]) AND ("disaster recovery" [MeSH Terms] OR "disaster recovery" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("disaster management" [MeSH Terms] OR "disaster management" [All Fields]) AND ("vulnerable populations" [MeSH Terms] OR "vulnerable populations" [All Fields])</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields]) AND ("prevalence" [MeSH Terms] OR "prevalence" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields]) AND ("outcomes" [MeSH Terms] OR "outcomes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("in-hospital death" [All Fields] OR "in-hospital mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("viral shedding" [MeSH Terms] OR "viral shedding" [All Fields]) AND ("non-survivors" [All Fields] OR "deceased" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intensive care unit" [MeSH Terms] OR "intensive care unit" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ARDS" [MeSH Terms] OR "ARDS" [All Fields]) AND ("acute myocardial injury" [MeSH Terms] OR "acute myocardial injury" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("d-dimer" [MeSH Terms] OR "d-dimer" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields]) AND ("myocardial injury" [MeSH Terms] OR "myocardial injury" [All Fields])</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("children" [MeSH Terms] OR "children" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields]) AND ("adolescent" [MeSH Terms] OR "adolescent" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("youth" [MeSH Terms] OR "youth" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("autism spectrum disorder" [MeSH Terms] OR "autism spectrum disorder" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological distress" [MeSH Terms] OR "psychological distress" [All Fields]) AND ("behavior problems" [MeSH Terms] OR "behavior problems" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("parent survey" [All Fields] OR "parent questionnaire" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("behavioral disorders" [MeSH Terms] OR "behavioral disorders" [All Fields]) AND ("children" [MeSH Terms] OR "children" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological health" [MeSH Terms] OR "psychological health" [All Fields]) AND ("Chinese adolescents" [All Fields] OR "youth" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("motivations" [MeSH Terms] OR "motivations" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("meta-analysis" [Publication Type] OR "systematic review" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("mortality rate" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture surgery" [All Fields] OR "surgical treatment" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("prognostic factors" [MeSH Terms] OR "prognostic factors" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("New York City" [MeSH Terms] OR "New York City" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("oxygen demands" [MeSH Terms] OR "oxygen demands" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("early postoperative outcomes" [MeSH Terms] OR "early postoperative outcomes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields])</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields]) AND ("hypertension" [MeSH Terms] OR "hypertension" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE2" [MeSH Terms] OR "ACE2" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hypertension" [MeSH Terms] OR "hypertension" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical outcomes" [MeSH Terms] OR "clinical outcomes" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("CD3" [MeSH Terms] OR "CD3" [All Fields]) AND ("CD8" [MeSH Terms] OR "CD8" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("IL-6" [MeSH Terms] OR "IL-6" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("renal injury" [MeSH Terms] OR "renal injury" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospital admission" [MeSH Terms] OR "hospital admission" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("critical care" [MeSH Terms] OR "critical care" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("readmission" [MeSH Terms] OR "readmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("pneumonia" [MeSH Terms] OR "pneumonia" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("acute respiratory distress syndrome" [MeSH Terms] OR "acute respiratory distress syndrome" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("inpatient mortality" [MeSH Terms] OR "inpatient mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("critical care" [MeSH Terms] OR "critical care" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("pneumonia" [MeSH Terms] OR "pneumonia" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("longitudinal studies" [MeSH Terms] OR "longitudinal studies" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("changes" [MeSH Terms] OR "changes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("dietary behavior" [MeSH Terms] OR "dietary behavior" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("lifestyle" [MeSH Terms] OR "lifestyle" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("well-being" [MeSH Terms] OR "well-being" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("longitudinal studies" [MeSH Terms] OR "longitudinal studies" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("neonate" [MeSH Terms] OR "neonate" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("infant, newborn" [MeSH Terms] OR "infant, newborn" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields]) AND ("neonate" [MeSH Terms] OR "neonate" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestations" [MeSH Terms] OR "ocular manifestations" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("ocular samples" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("systemic disease" [MeSH Terms] OR "systemic disease" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("PCR" [MeSH Terms] OR "PCR" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("severity" [MeSH Terms] OR "severity" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("PCR" [MeSH Terms] OR "PCR" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("time association" [MeSH Terms] OR "time association" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("time association" [MeSH Terms] OR "time association" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("conjunctival viral prevalence" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("conjunctival viral prevalence" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("forcibly displaced populations" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("infection risk" [MeSH Terms] OR "infection risk" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("infection risk" [MeSH Terms] OR "infection risk" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("transmission risk" [MeSH Terms] OR "transmission risk" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("transmission risk" [MeSH Terms] OR "transmission risk" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("lockdown measures" [MeSH Terms] OR "lockdown measures" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("lockdown measures" [MeSH Terms] OR "lockdown measures" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact on mental health" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("psychological state" [All Fields] OR "mental health" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("risk factors" [MeSH Terms] OR "risk factors" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("social distancing" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("OCD" [MeSH Terms] OR "OCD" [All Fields]) AND ("youth" [MeSH Terms] OR "youth" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("emotional reactivity" [MeSH Terms] OR "emotional reactivity" [All Fields]) AND ("experiential avoidance" [MeSH Terms] OR "experiential avoidance" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("social health" [MeSH Terms] OR "social health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("Europe" [MeSH Terms] OR "Europe" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("ambulance response times" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("survival to hospital discharge" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("bystander-initiated cardiopulmonary resuscitation" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("emergency medical services" [MeSH Terms] OR "emergency medical services" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("healthcare systems" [MeSH Terms] OR "healthcare systems" [All Fields])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical trials as topic" [MeSH Terms] OR "clinical trials as topic" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment outcome" [MeSH Terms] OR "treatment outcome" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("safety" [MeSH Terms] OR "safety" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("efficacy" [MeSH Terms] OR "efficacy" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("adverse events" [MeSH Terms] OR "adverse events" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mild to moderate disease" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospital admission" [MeSH Terms] OR "hospital admission" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intention to treat analysis" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("symbiosis" [MeSH Terms] OR "symbiosis" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("respiratory viral infection" [MeSH Terms] OR "respiratory viral infection" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("association" [MeSH Terms] OR "association" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
+("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("disease severity" [MeSH Terms] OR "disease severity" [All Fields])
+("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("fecal shedding" [MeSH Terms] OR "fecal shedding" [All Fields])
+("fecal mycobiome" [MeSH Terms] OR "fecal mycobiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("fecal mycobiome" [MeSH Terms] OR "fecal mycobiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("disease progression" [MeSH Terms] OR "disease progression" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("public health measures" [MeSH Terms] OR "public health measures" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("public health interventions" [MeSH Terms] OR "public health interventions" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("outbreak control" [MeSH Terms] OR "outbreak control" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("quarantine" [MeSH Terms] OR "quarantine" [All Fields]) AND ("effectiveness" [MeSH Terms] OR "effectiveness" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("travel restrictions" [MeSH Terms] OR "travel restrictions" [All Fields]) AND ("pandemic response" [MeSH Terms] OR "pandemic response" [All Fields])
+("digital tools" [MeSH Terms] OR "digital tools" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pandemic containment" [MeSH Terms] OR "pandemic containment" [All Fields])
+("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact assessment" [MeSH Terms] OR "impact assessment" [All Fields])
+("epidemiological characteristics" [MeSH Terms] OR "epidemiological characteristics" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("wartime control measures" [MeSH Terms] OR "wartime control measures" [All Fields])
+("population-level retrospective study" [MeSH Terms] OR "population-level retrospective study" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("transmission dynamics" [MeSH Terms] OR "transmission dynamics" [All Fields])
+("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("comparison study" [MeSH Terms] OR "comparison study" [All Fields])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("weather" [MeSH Terms] OR "weather" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature" [MeSH Terms] OR "temperature" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("seasonal influenza" [MeSH Terms] OR "seasonal influenza" [All Fields]) AND ("virus transmission" [MeSH Terms] OR "virus transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature variation" [MeSH Terms] OR "temperature variation" [All Fields]) AND ("diurnal temperature range" [MeSH Terms] OR "diurnal temperature range" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meteorological parameters" [MeSH Terms] OR "meteorological parameters" [All Fields]) AND ("air pollutant" [MeSH Terms] OR "air pollutant" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("climate variables" [MeSH Terms] OR "climate variables" [All Fields]) AND ("SARS-CoV-2 transmission" [MeSH Terms] OR "SARS-CoV-2 transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("COVID-19 deaths" [MeSH Terms] OR "COVID-19 deaths" [All Fields]) AND ("meteorological conditions" [MeSH Terms] OR "meteorological conditions" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature" [MeSH Terms] OR "temperature" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("environmental factors" [MeSH Terms] OR "environmental factors" [All Fields]) AND ("COVID-19 transmission" [MeSH Terms] OR "COVID-19 transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields]) AND ("sun exposure" [MeSH Terms] OR "sun exposure" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("meta-analysis" [MeSH Terms] OR "meta-analysis" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("patient harm" [MeSH Terms] OR "patient harm" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("associated factors" [MeSH Terms] OR "associated factors" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("geographical region" [MeSH Terms] OR "geographical region" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("severity of illness" [MeSH Terms] OR "severity of illness" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("patient age" [MeSH Terms] OR "patient age" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("bacterial co-infection" [MeSH Terms] OR "bacterial co-infection" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("unnecessary antibiotic use" [MeSH Terms] OR "unnecessary antibiotic use" [All Fields]) AND ("patients with COVID-19" [MeSH Terms] OR "patients with COVID-19" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("global antibiotic resistance" [MeSH Terms] OR "global antibiotic resistance" [All Fields])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("severe acute respiratory distress syndrome" [MeSH Terms] OR "severe acute respiratory distress syndrome" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("systematic review" [Publication Type] OR "meta-analysis" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("in-hospital mortality" [MeSH Terms] OR "in-hospital mortality" [All Fields]) AND ("observational study" [Publication Type] OR "randomized clinical trial" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("ECMO complications" [MeSH Terms] OR "ECMO complications" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("venovenous ECMO" [MeSH Terms] OR "venovenous ECMO" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("duration of ECMO therapy" [MeSH Terms] OR "duration of ECMO therapy" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("ECMO weaning rate" [MeSH Terms] OR "ECMO weaning rate" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("ECMO complications" [MeSH Terms] OR "ECMO complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("hospital course" [MeSH Terms] OR "hospital course" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("ECMO decision-making" [MeSH Terms] OR "ECMO decision-making" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("anticoagulation" [MeSH Terms] OR "anticoagulation" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("lockdown" [All Fields] OR "confinement" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("before and during" [All Fields] OR "pre and post" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("lockdown" [All Fields] OR "confinement" [All Fields]) AND ("changes" [MeSH Terms] OR "differences" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("device-based measures" [MeSH Terms] OR "self-report tools" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("health outcomes" [MeSH Terms] OR "mental benefits" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("populations" [MeSH Terms] OR "groups" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("children" [MeSH Terms] OR "patients" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("public health strategies" [MeSH Terms] OR "interventions" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("device-based measures" [MeSH Terms] OR "self-report tools" [All Fields]) AND ("risk of bias" [MeSH Terms] OR "Newcastle-Ottawa Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("interventions" [MeSH Terms] OR "public health strategies" [MeSH Terms]) AND ("lockdown" [All Fields] OR "confinement" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("isolation" [MeSH Terms] OR "protective measures" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("people with disabilities" [MeSH Terms] OR "people with physical disabilities" [All Fields]) AND ("literature review" [Publication Type] OR "rapid review" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("daily functioning" [MeSH Terms] OR "access to healthcare" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("changes in lifestyle" [MeSH Terms] OR "mood changes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("healthcare services" [MeSH Terms] OR "access to healthcare" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("social and lifestyle habits" [MeSH Terms] OR "physical activity" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("people with physical disabilities" [All Fields] OR "people with disabilities" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("public health recommendations" [MeSH Terms] OR "policy makers" [MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("meta-analysis" [Publication Type] OR "systematic review" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("lung lesions" [MeSH Terms] OR "ground-glass opacities" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "symptoms" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("patchy shadows" [All Fields] OR "ground-glass opacities" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("consolidation" [MeSH Terms] OR "lung lobe lesions" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("bilateral lung lesions" [MeSH Terms] OR "pleural effusion" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("pulmonary lesions" [MeSH Terms] OR "subpleural lamellar dense shadows" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("bronchial pneumonia-like changes" [All Fields] OR "patchy opacities" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("parenchymal bands" [All Fields] OR "pleural thickening" [MeSH Terms])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pulmonary embolism" [MeSH Terms] OR "PE" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("deep vein thrombosis" [MeSH Terms] OR "DVT" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("D-dimer" [MeSH Terms] OR "diagnostic accuracy" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("incidence" [MeSH Terms] OR "meta-analysis" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intensive care unit" [MeSH Terms] OR "ICU" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("CT pulmonary angiography" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("D-dimer levels" [MeSH Terms] OR "diagnostic accuracy" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("bleeding" [MeSH Terms] OR "thrombotic manifestations" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hemostatic complications" [MeSH Terms] OR "thrombotic complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("anticoagulated patients" [MeSH Terms] OR "severe COVID-19 patients" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("diagnostic test accuracy" [All Fields] OR "rapid diagnostic test" [All Fields] OR "fear of COVID-19 scales" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("fear" [MeSH Terms] OR "phobia" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("instrument validation" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychometric properties" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological health" [MeSH Terms] OR "fear assessment" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("FCV-19S" [All Fields] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("US college students" [All Fields] OR "FCV-19S validation" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Fear of COVID-19 Scale" [All Fields] OR "psychometric testing" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental illness" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("assessment scale development" [MeSH Terms] OR "psychological distress" [MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "SARS-CoV-2" [MeSH Terms])
+("Kawasaki disease" [MeSH Terms] OR "Kawasaki-like disease" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "SARS-CoV-2" [MeSH Terms])
+("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("pregnancy" [MeSH Terms] OR "obstetricians" [All Fields])
+("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric intensive care units" [MeSH Terms])
+("gastrointestinal symptoms" [MeSH Terms] OR "gastrointestinal manifestations" [All Fields]) AND ("multisystem inflammatory syndrome" [All Fields] OR "MIS-C" [All Fields])
+("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields])
+("C-reactive protein" [MeSH Terms] OR "d-dimer" [MeSH Terms] OR "troponin" [MeSH Terms]) AND ("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields])
+("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields]) AND ("outbreak" [MeSH Terms] OR "incidence" [MeSH Terms])
+("immune response" [MeSH Terms] OR "immune response to virus" [All Fields]) AND ("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields])
+("left ventricular ejection fraction" [MeSH Terms] OR "cardiac involvement" [All Fields]) AND ("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Gender"[MeSH Terms] OR "Sex"[MeSH Terms]) AND ("Outcomes"[MeSH Terms] OR "Mortality"[MeSH Terms]) AND ("Meta-Analysis as Topic"[MeSH Terms] OR "Systematic Reviews as Topic"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Gender"[MeSH Terms] OR "Sex"[MeSH Terms]) AND ("Severity of Illness Index"[MeSH Terms] OR "Disease Characteristics"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Risk Factors"[MeSH Terms] OR "Fatal Outcome"[MeSH Terms]) AND ("Multivariate Cox Regression Analysis"[MeSH Terms] OR "Nomogram"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("IL-2R"[MeSH Terms] OR "Lymphocytes"[MeSH Terms]) AND ("Clinical Progression"[MeSH Terms] OR "Disease Severity"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Interleukin-6"[MeSH Terms] OR "C-Reactive Protein"[MeSH Terms] OR "Procalcitonin"[MeSH Terms]) AND ("Prognostic Value"[MeSH Terms] OR "Patient Outcomes"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Clinical Characteristics"[MeSH Terms] OR "Laboratory Findings"[MeSH Terms]) AND ("Deceased Patients"[MeSH Terms] OR "Survival Analysis"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Epidemiological Differences"[MeSH Terms] OR "SARS-CoV-2"[MeSH Terms]) AND ("Infectivity"[MeSH Terms] OR "Disease Severity"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Age"[MeSH Terms] OR "Chronic Illness"[MeSH Terms]) AND ("Dyspnea"[MeSH Terms] OR "Laboratory Abnormalities"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Leukocytosis"[MeSH Terms] OR "Lymphopenia"[MeSH Terms]) AND ("Aspartate Aminotransferase"[MeSH Terms] OR "Cardiac Troponin I"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Acute Respiratory Distress Syndrome"[MeSH Terms] OR "Multi-Organ Dysfunction Syndrome"[MeSH Terms]) AND ("Critical Complications"[MeSH Terms] OR "Exacerbation"[MeSH Terms]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
+("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
+("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "STARD Guidelines"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh] OR "QUADAS-2"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "CT Scan"[Mesh] AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "Ultrasound"[Mesh] AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Receiver Operating Characteristic"[Mesh] OR "ROC Curve"[Mesh]) AND "Chest CT"[Mesh] AND "RT-PCR"[Mesh] AND "COVID-19 Diagnosis"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[You%Li%you.li2@ed.ac.uk%1,   Xin%Wang%xin.wang-2@ed.ac.uk%2,   Xin%Wang%xin.wang-2@ed.ac.uk%0,   Harish%Nair%NULL%2,   Harish%Nair%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Seasonal variation" OR "Seasonal patterns") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Epidemiology" OR "Prevalence" OR "Incidence") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Temporal distribution" OR "Temporal patterns" OR "Temporal trends") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Climate factors" OR "Weather conditions" OR "Meteorological parameters") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Transmission dynamics" OR "Spread patterns" OR "Seasonal outbreaks") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Geographic distribution" OR "Geographical variation" OR "Regional differences") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Longitudinal study" OR "Long-term analysis" OR "Time series analysis") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Seasonal patterns" OR "Seasonal trends") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") AND ("Meta-analysis" OR "Systematic review") 
+(("Surveillance data" OR "Epidemiological records" OR "Public health databases") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
+(("Climatic factors" OR "Environmental conditions") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") AND ("Multivariate analysis" OR "Regression analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Human Coronaviruses"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Seasonal Variation"[Mesh] OR "Seasonal Epidemiology"[Mesh] OR "Seasonal Outbreaks"[Mesh]) AND ("Global Health"[Mesh] OR "Internationality"[Mesh])
+("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Seasonal Pattern"[Mesh] OR "Seasonal Occurrence"[Mesh] OR "Seasonal Prevalence"[Mesh]) AND ("Respiratory Syncytial Viruses"[Mesh] OR "Influenza, Human"[Mesh])
+("Human Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Climate"[Mesh] OR "Weather"[Mesh] OR "Temperature"[Mesh] OR "Humidity"[Mesh]) AND ("Epidemiology"[Mesh] OR "Disease Outbreaks"[Mesh])
+("Seasonality"[Mesh] OR "Seasonal Variations"[Mesh] OR "Seasonal Patterns"[Mesh]) AND ("Human Coronaviruses"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Global Distribution"[Mesh] OR "Geographic Locations"[Mesh])
+("Coronaviruses, Human"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Postpandemic Period"[Mesh] OR "Recurrent Infections"[Mesh]) AND ("Epidemiology"[Mesh] OR "Public Health Preparedness"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Global Seasonality of Human Seasonal Coronaviruses" OR "sCoV seasonality") AND ("Severe Acute Respiratory Syndrome Coronavirus 2" OR "SARS-CoV-2" OR "COVID-19")
+("Viral aetiology of acute respiratory infections" OR "respiratory syncytial virus" OR "human seasonal coronaviruses") AND ("southern China" OR "Shantou")
+("Clinical and Etiological Characteristics of Influenza-Like Illness" OR "ILI outpatients") AND ("Shanghai" OR "southern temperate region" OR "influenza A virus")
+("Prevalence and Seasonal Distribution of Respiratory Viruses" OR "ARTI in Istanbul" OR "respiratory syncytial virus A/B") AND ("children" OR "adults" OR "nasopharyngeal swab")
+("The Role of Human Coronaviruses in Children Hospitalized" OR "acute bronchiolitis" OR "acute gastroenteritis") AND ("febrile seizures" OR "HCoV associations" OR "prospective study")
+("Respiratory syncytial virus epidemics in 15 European countries" OR "RSV seasonality" OR "lower respiratory tract infections") AND ("infants" OR "young children" OR "sentinel RSV laboratory diagnoses")
+("Influenza virus" OR "respiratory syncytial virus" OR "human metapneumovirus") AND ("temperature" OR "humidity" OR "wind velocity")
+("Coronavirus disease 2019" OR "COVID-19" OR "postpandemic preparedness") AND ("seasonal outbreaks" OR "circulating pattern" OR "knowledge pool")
+("Acute respiratory infections" OR "respiratory viruses" OR "multiplex real-time PCR") AND ("children" OR "nasal/throat-flocked swabs" OR "meteorological factors")
+("Seasonality and geographical spread of respiratory syncytial virus" OR "RSV infection" OR "lower respiratory tract infections") AND ("European Union" OR "European Economic Area" OR "surveillance systems")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Clinical features" OR "Symptoms" OR "Manifestations") AND "COVID-19") AND ("Severe" OR "Critical" OR "Severe disease course") 
+(("Risk factors" OR "Predictors" OR "Determinants") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19" 
+(("Prognostic factors" OR "Outcome predictors" OR "Clinical markers") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
+(("Clinical characteristics" OR "Clinical presentation" OR "Clinical profile") AND "COVID-19") AND ("Severe course" OR "Severe illness") 
+(("Disease severity" OR "Clinical progression" OR "Clinical deterioration") AND "COVID-19") AND ("Risk factors" OR "Predictive factors") 
+(("Complications" OR "Adverse outcomes" OR "Mortality") AND "COVID-19") AND ("Severe clinical course" OR "Severe disease course") 
+(("Demographic factors" OR "Patient characteristics" OR "Host factors") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
+(("Comorbidities" OR "Underlying conditions" OR "Coexisting diseases") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19" 
+(("Immunological factors" OR "Inflammatory markers" OR "Cytokine profile") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
+(("Treatment response" OR "Therapeutic interventions" OR "Clinical management") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("clinical features"[Title/Abstract] OR "manifestations"[Title/Abstract])
+("severe clinical course"[Title/Abstract] OR "critical illness"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("risk factors"[Title/Abstract] OR "associated factors"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("demographic characteristics"[Title/Abstract] OR "patient characteristics"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("laboratory findings"[Title/Abstract] OR "biomarkers"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("comorbidities"[Title/Abstract] OR "underlying diseases"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("clinical outcomes"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("meta-analysis"[Publication Type] OR "systematic review"[Publication Type]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("pandemic"[Title/Abstract] OR "global outbreak"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+("healthcare resource allocation"[Title/Abstract] OR "resource management"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Dominika%Suchá%d.sucha@umcutrecht.nl%2,   Robbert W.%van Hamersvelt%NULL%4,   Robbert W.%van Hamersvelt%NULL%0,   Andor F.%van den Hoven%NULL%4,   Andor F.%van den Hoven%NULL%0,   Pim A.%de Jong%NULL%4,   Pim A.%de Jong%NULL%0,   Helena M.%Verkooijen%NULL%4,   Helena M.%Verkooijen%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation") AND ("Chest radiography" OR "Chest X-ray" OR "CT scan")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Quality assessment" OR "Risk of bias" OR "Methodological quality") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Systematic review" OR "Literature review" OR "Meta-analysis") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Bias assessment" OR "Risk of bias tool" OR "Study quality evaluation") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Suboptimal quality" OR "Low methodological quality" OR "Quality limitations") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Bias sources" OR "Study design limitations" OR "Methodological shortcomings") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Critical appraisal" OR "Methodological flaws" OR "Quality shortcomings") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Methodological challenges" OR "Limitations and biases" OR "Quality issues") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Critical analysis" OR "Study selection criteria" OR "Quality criteria") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
+(("Study methodology" OR "Methodological assessment" OR "Quality evaluation") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Diagnostic Imaging"[Mesh] OR "Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh] OR "Ultrasonography"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Diagnostic Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh])
+("Reverse Transcriptase Polymerase Chain Reaction"[Mesh] OR "Clinical Consensus"[Mesh]) AND ("Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh] OR "Ultrasonography"[Mesh]) AND ("Diagnostic Test Accuracy"[Mesh] OR "Predictive Values"[Mesh])
+("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "STARD"[Mesh]) AND ("Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh] OR "QUADAS-2"[Mesh]) AND ("Reporting Quality"[Mesh] OR "Risk of Bias"[Mesh])
+("Diagnostic Test Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh] OR "Predictive Values"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019 Diagnosis"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
+("Reporting Guidelines"[Mesh] OR "Publication Bias"[Mesh]) AND ("Diagnostic Imaging"[Mesh] OR "Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh]) AND ("COVID-19 Pandemic"[Mesh] OR "Public Health Emergency"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Diagnostic Test Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Tomography, X-Ray Computed"[Mesh] OR "Ultrasonography"[Mesh])
+("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract])
+("Suboptimal Reporting"[Mesh] OR "Bias"[Mesh]) AND ("Chest Radiography"[Mesh] OR "Tomography, X-Ray Computed"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract])
+("Radiologists"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tomography, X-Ray Computed"[Mesh] OR "Sensitivity and Specificity"[Mesh])
+("Reverse-Transcription Polymerase Chain Reaction"[Mesh] OR "Clinical Consensus"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Ultrasonography"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Diagnostic Accuracy"[Mesh] OR "Chest CT"[Title/Abstract] OR "CT Scans"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Radiological Features"[Mesh] OR "Clinical Manifestations"[Mesh])
+("Sensitivity and Specificity"[Mesh]) AND ("Viral Pneumonia"[Mesh] OR "Respiratory Pathogen Panel"[Title/Abstract]) AND ("Radiologists"[Mesh])
+("Chest CT"[Mesh] OR "Radiological Semantics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Features"[Mesh])
+("Quantitative CT"[Mesh] OR "Opacity Visibility"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Radiographs"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Mina%Ebrahimi%NULL%1,   Amal Saki%Malehi%NULL%2,   Amal Saki%Malehi%NULL%0,   Fakher%Rahim%NULL%2,   Fakher%Rahim%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") AND ("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND ("General population" OR "Non-medical population" OR "Community population") 
+(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "COVID-19") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") AND ("General population" OR "Non-medical population" OR "Community population") AND ("Systematic review" OR "Meta-analysis") 
+(("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "COVID-19") AND ("General population" OR "Non-medical population" OR "Community population") AND ("Systematic review" OR "Meta-analysis") 
+(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") 
+(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
+(("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
+(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") 
+(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
+(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND ("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND ("General population" OR "Non-medical population" OR "Community population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) 
+(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Laboratory Findings"[Mesh] OR "Biomarkers"[Mesh]) AND ("Comorbidity"[Mesh] OR "Medical Staff"[Mesh] OR "Health Personnel"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Prognosis"[Mesh])
+("White Blood Cell Count"[Mesh] OR "Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh] OR "Procalcitonin"[Mesh] OR "Lactate Dehydrogenase"[Mesh] OR "Creatinine"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Disease Progression"[Mesh])
+("Mortality Rate"[Mesh] OR "Death Rate"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh]) AND ("Meta-Analysis as Topic"[Mesh] OR "Systematic Review"[Publication Type])
+("C-Reactive Protein"[Mesh] OR "Erythrocyte Sedimentation Rate"[Mesh] OR "Lactate Dehydrogenase"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Symptomatic Stage"[Mesh] OR "Early Stage"[Mesh]) AND ("Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh])
+("D-Dimer"[Mesh] OR "Fibrin Degradation Products"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Prognosis"[Mesh] OR "Clinical Outcome"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Comorbidity"[Mesh] OR "Clinical Outcomes"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+("White Blood Cell Count"[Mesh] OR "Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh] OR "Procalcitonin"[Mesh] OR "Lactate Dehydrogenase"[Mesh] OR "Creatinine"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+("Mortality"[Mesh] OR "Death"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
+("C-Reactive Protein"[Mesh] OR "Erythrocyte Sedimentation Rate"[Mesh] OR "Lactate Dehydrogenase"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Symptomatic"[Mesh])
+("Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Symptomatic Stage"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Comorbidity"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Medical Staff"[Mesh])
+("D-Dimer"[Mesh] OR "Fibrin Degradation Products"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prognosis"[Mesh] OR "Poor Prognosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intrauterine Infection"[Mesh] OR "Vertical Transmission"[Mesh]) AND ("Pregnancy"[Mesh] OR "Pregnant Women"[Mesh])
+("ICU Admission"[Mesh] OR "Mortality"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Spectrum of Disease"[Mesh] OR "Clinical Outcomes"[Mesh])
+("SARS-CoV-2"[Mesh] OR "COVID-19"[Title/Abstract]) AND ("Symptoms"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Zhejiang Province"[Mesh] OR "China"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Thushara%Galbadage%NULL%1,   Brent M.%Peterson%NULL%1,   Joseph%Awada%NULL%1,   Alison S.%Buck%NULL%1,   Danny A.%Ramirez%NULL%1,   Jason%Wilson%NULL%1,   Richard S.%Gunasekera%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Clinical outcomes" OR "Disease outcomes" OR "Patient outcomes") 
+(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Clinical outcomes" OR "Disease outcomes" OR "Patient outcomes") 
+(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
+(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
+(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
+(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex Factors"[Mesh] OR "Gender"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh] OR "Mortality"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex"[Mesh] OR "Gender"[Mesh]) AND ("Clinical Prognosis"[Mesh] OR "Patient Outcome Assessment"[Mesh]) AND ("Risk Factors"[Mesh] OR "Epidemiology"[Mesh])
+("Male"[Mesh] OR "Female"[Mesh]) AND ("COVID-19 Severity"[Mesh] OR "Clinical Outcome"[Mesh]) AND ("Meta-Analysis"[Publication Type] OR "Systematic Review"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex Characteristics"[Mesh] OR "Sex Distribution"[Mesh]) AND ("Disease Progression"[Mesh] OR "Mortality Rate"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Male"[Mesh] OR "Female"[Mesh]) AND ("Clinical Management"[Mesh] OR "Preventive Medicine"[Mesh]) AND ("Sex-Specific Differences"[Mesh] OR "Gender Disparities"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Sex"[Mesh] OR "Sex-Specific"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh] OR "Mortality"[Mesh])
+("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Title/Abstract]) AND ("Survival"[Mesh] OR "Mortality"[Mesh]) AND ("Spain"[Mesh])
+("Covid-19"[Title/Abstract]) AND ("Critically Ill Patients"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Seattle"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Progression"[Mesh] OR "Disease Course"[Mesh]) AND ("Shanghai"[Mesh] OR "China"[Mesh])
+("2019-nCoV"[Mesh] OR "Novel Coronavirus"[Mesh] OR "COVID-19"[Title/Abstract]) AND ("Epidemiological Characteristics"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Pneumonia"[Mesh] OR "Respiratory Diseases"[Mesh]) AND ("Wuhan"[Mesh] OR "China"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Deceased Patients"[Mesh] OR "Mortality"[Mesh]) AND ("Clinical Characteristics"[Mesh] OR "Laboratory Findings"[Mesh]) AND ("Wuhan"[Mesh] OR "China"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Hypoxemic Respiratory Failure"[Mesh]) AND ("Vasopressors"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Male Sex"[Mesh] OR "Gender Differences"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh]) AND ("Meta-Analysis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Older Patients"[Mesh] OR "Elderly"[Mesh] OR "Comorbidities"[Mesh]) AND ("Mortality"[Mesh] OR "Life-Saving"[Title/Abstract]) AND ("Seattle"[Mesh])
+("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Cardiovascular Complications"[Mesh] OR "Multi-Organ Dysfunction"[Mesh]) AND ("Acute Respiratory Distress Syndrome"[Mesh] OR "Sepsis"[Mesh]) AND ("Risk Factors"[Mesh] OR "High-Risk Patients"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Tracheostomy" OR "Tracheotomy") AND ("Early" OR "Late")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("Early tracheostomy" OR "Early tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("Late tracheostomy" OR "Late tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("Early versus late tracheostomy" OR "Early versus late tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("Timing of tracheostomy" OR "Tracheostomy timing") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("Tracheostomy" OR "Tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Early versus late" OR "Timing") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("Tracheostomy complications" OR "Tracheostomy adverse events") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Early versus late" OR "Timing") 
+(("Mechanical ventilation duration" OR "Ventilator days") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy")) 
+(("ICU length of stay" OR "Intensive care unit length of stay") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy")) 
+(("Mortality" OR "Survival rate" OR "Fatalities") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy"))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Treatment Outcome"[Mesh]) AND ("Early Medical Intervention"[Mesh] OR "Delayed Diagnosis"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
+("Intensive Care Units"[Mesh] OR "Critical Care"[Mesh]) AND ("Mechanical Ventilation"[Mesh] OR "Respiratory Insufficiency"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh])
+("ICU Length of Stay"[Mesh] OR "Hospital Mortality"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
+("Resource Utilization"[Mesh] OR "Health Resources"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Treatment Outcome"[Mesh])
+("Intubation, Intratracheal"[Mesh] OR "Mechanical Ventilation"[Mesh]) AND ("Early Versus Late Tracheostomy"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Resource Utilization"[Mesh]) AND ("Early Versus Late"[Title/Abstract] OR "Timing"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh]) AND ("Meta-Analysis"[Mesh] OR "Systematic Review"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Mortality Rate"[Mesh] OR "ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Timing"[Mesh] OR "Optimal Timing"[Mesh]) AND ("Outcomes"[Mesh] OR "Complications"[Mesh]) AND ("European Intensive Care Units"[Mesh] OR "European Countries"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Survival Rate"[Mesh] OR "ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("APACHE-II Score"[Mesh]) AND ("Prospective Observational Study"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Ventilation Duration"[Mesh] OR "ICU Length of Stay"[Mesh]) AND ("Timing"[Mesh] OR "Prospective Cohort Study"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Complications"[Mesh] OR "Infection Risk"[Mesh]) AND ("Dedicated Airway Team"[Title/Abstract] OR "Education Programme"[Title/Abstract]) AND ("Outcomes"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Timing of Tracheostomy"[Mesh] OR "Effect on Survival"[Mesh]) AND ("Multicenter Study"[Mesh] OR "Retrospective Study"[Mesh]) AND ("Percutaneous Tracheostomy"[Mesh] OR "Surgical Tracheostomy"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Safety"[Mesh] OR "30-day Outcomes"[Mesh]) AND ("Prospective Observational Cohort Study"[Mesh] OR "Mechanical Ventilation"[Mesh]) AND ("Birmingham"[Mesh] OR "UK"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Ranu%Baral%NULL%1,   Vasiliki%Tsampasian%NULL%1,   Maciej%Debski%NULL%1,   Brendan%Moran%NULL%1,   Pankaj%Garg%NULL%1,   Allan%Clark%NULL%1,   Vassilios S.%Vassiliou%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes")
+(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes")
+(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Mortality" OR "Death rate" OR "Fatalities")
+(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Mortality" OR "Death rate" OR "Fatalities")
+(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
+(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
+(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
+(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
+(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
+(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events")
+("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system" OR "RAAS") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") OR ("angiotensin receptor blockers" OR "ARBs"))
+("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") OR ("angiotensin receptor blockers" OR "ARBs"))
+("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events")
+("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("systematic review" OR "meta-analysis") OR ("observational study" OR "cohort study"))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Renin-Angiotensin-Aldosterone System Inhibitors"[Mesh] OR "RAAS Inhibitors"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Meta-analysis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Ramipril"[Mesh] OR "ACE Inhibitors"[Mesh]) AND ("High-Risk Patients"[Mesh] OR "Cardiovascular Disease"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Outpatients"[Mesh] OR "Hospital Admission"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Severe Infection"[Mesh] OR "Mortality"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("UK"[Mesh] OR "United Kingdom"[Mesh]) AND ("Acute Hospital Trust"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Epidemiological Features"[Mesh] OR "Demographic Characteristics"[Mesh]) AND ("Treatment Outcome"[Mesh] OR "Blood Pressure Control"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("ACE Inhibitors"[Mesh] OR "ARB"[Mesh]) AND ("Continuation"[Mesh] OR "Discontinuation"[Mesh]) AND ("Blood Pressure Control"[Mesh] OR "Mortality"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Severe Cases"[Mesh] OR "Severe Infection"[Mesh]) AND ("Epidemiological Features"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Therapeutic Features"[Mesh] OR "Treatment Outcome"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Severe Cases"[Mesh] OR "Severe Infection"[Mesh]) AND ("Predictors of Mortality"[Mesh] OR "Survival Prediction"[Mesh]) AND ("Cardiovascular Disease"[Mesh] OR "NLR"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Beneficial Effect"[Mesh] OR "Cardiovascular Disease"[Mesh]) AND ("Arbidol"[Mesh] OR "Ribavirin"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Ambrish%Singh%NULL%1,   Salman%Hussain%NULL%1,   Benny%Antony%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
+(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
+(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
+(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Liver injury" OR "Hepatic dysfunction" OR "Liver function tests") 
+(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Co-morbidities" OR "Underlying conditions" OR "Metabolic syndrome") 
+(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Prognosis" OR "Survival" OR "Outcomes") 
+(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
+(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Therapeutic management" OR "Treatment outcomes" OR "Drug interactions")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND ("clinical outcomes" OR "disease severity") AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
+("COVID-19" OR "SARS-CoV-2") AND ("Non-alcoholic fatty liver disease" OR NAFLD) AND ("clinical outcomes" OR "disease progression") AND epidemiological studies[Publication Type]
+("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND ("clinical outcomes" OR "severe COVID-19") AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
+("COVID-19" OR "SARS-CoV-2") AND ("Non-alcoholic fatty liver disease" OR NAFLD) AND ("ICU admission" OR "intensive care unit") AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
+("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND mortality[Title/Abstract] AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Non-alcoholic Fatty Liver Disease"[Mesh] OR "NAFLD"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Meta-analysis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chronic Liver Disease"[Mesh] OR "CLD"[Title/Abstract]) AND ("Hospitalized Patients"[Mesh] OR "United States"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Hepatic Steatosis"[Mesh] OR "Liver Injury"[Mesh]) AND ("Disease Severity"[Mesh] OR "Michigan Medicine"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD/NASH"[Title/Abstract] OR "Non-alcoholic Steatohepatitis"[Mesh]) AND ("Hospitalization Risk"[Mesh] OR "Logistic Regression"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Features"[Mesh] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Jiangsu Province"[Mesh] OR "China"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Liver Injury"[Mesh] OR "Hepatic Steatosis Index"[Mesh]) AND ("Obesity"[Mesh] OR "Disease Severity"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Risk of Hospitalization"[Mesh] OR "Abnormal Liver Function"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chronic Liver Diseases"[Mesh] OR "Liver Function"[Mesh]) AND ("HSI"[Title/Abstract] OR "Hepatic Steatosis Index"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Age"[Mesh] OR "Risk Factors"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Liver Injury"[Mesh] OR "ALT Elevation"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Mohammad Rashidul%Hashan%NULL%1,   Nicolas%Smoll%NULL%1,   Catherine%King%NULL%1,   Hannah%Ockenden-Muldoon%NULL%1,   Jacina%Walker%NULL%1,   Andre%Wattiaux%NULL%1,   Julieanne%Graham%NULL%1,   Robert%Booy%NULL%1,   Gulam%Khandaker%gulam.khandaker@health.qld.gov.au%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Assisted living facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Long-term care facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Assisted living facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Long-term care facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Risk factors" OR "Vulnerability" OR "Factors associated") 
+(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Risk factors" OR "Vulnerability" OR "Factors associated")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("epidemiology" OR "outbreak investigations")
+("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("attack rates" OR "case fatality rates")
+("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("asymptomatic cases" OR "hospitalization rates")
+("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("index case" OR "staff member")
+("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("clinical presentation" OR "vaccination priority")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Epidemiology"[Mesh] OR "Meta-Analysis"[Publication Type])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Devastating Consequences"[Title/Abstract] OR "Case Fatality Rates"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Distinct Vulnerable Population"[Title/Abstract] OR "Single-Facility Attack Rates"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Asymptomatic Cases"[Mesh] OR "Rate of Hospitalization"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Index Case"[Mesh] OR "Staff Member"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Temperature Screening"[Mesh] OR "Fever Threshold"[Title/Abstract])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Universal Testing"[Mesh] OR "Infection Control Measures"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Risk Factors"[Mesh] OR "Clinical Characteristics"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Frailty"[Mesh] OR "Staff Residence"[Mesh])
+("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Case Investigation"[Mesh] OR "Infection Prevention and Control"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Ashraf%Roshdy%NULL%1,   Shroque%Zaher%NULL%1,   Hossam%Fayed%NULL%1,   John Gerry%Coghlan%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Post-mortem findings" OR "Pathological insights" OR "Diagnostic clues") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinical implications" OR "Medical knowledge" OR "Therapeutic implications") AND ("Post-mortem examination" OR "Pathological examination") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Lessons from the deceased" OR "Insights from post-mortem studies" OR "Learnings from autopsies") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Disease mechanisms" OR "Pathophysiology" OR "Organ involvement") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Complications" OR "Co-morbidities" OR "Treatment implications") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Post-mortem analysis" OR "Pathological examination") AND ("Clinical correlations" OR "Association with clinical features" OR "Correlation with disease progression") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Diagnostic accuracy" OR "Diagnostic challenges" OR "Accuracy of clinical diagnosis") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Therapeutic insights" OR "Treatment strategies" OR "Management implications") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Clinical decision-making" OR "Guidance for clinical practice" OR "Evidence-based medicine") 
+(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Educational value" OR "Teaching tool" OR "Medical education")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("cardiac injury" OR "myocardial injury")
+("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("tissue diagnosis" OR "pathological findings")
+("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("postmortem studies" OR "postmortem findings")
+("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("clinical implications" OR "management implications")
+("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("mechanisms" OR "pathogenesis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Autopsy"[Mesh] OR "Postmortem Studies"[Mesh]) AND ("Cardiac Injury"[Title/Abstract] OR "Tissue Diagnosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Ultrasound-Guided Minimally Invasive Autopsy"[Title/Abstract] OR "Systemic Involvement"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Autopsy Findings"[Mesh] OR "Cardiopulmonary Pathology"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Examiner"[Mesh] OR "Coroner Offices"[Mesh]) AND ("Autopsy Protocol"[Mesh] OR "Biosafety Guidance"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Diffuse Alveolar Damage"[Mesh] OR "Microthrombotic Vascular Phenomena"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("In-Corpore Technique"[Title/Abstract] OR "Postmortem Findings"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Respiratory Failure"[Mesh] OR "Diffuse Alveolar Damage"[Mesh]) AND ("Massive Capillary Congestion"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Bronchopneumonia"[Mesh] OR "Pulmonary Embolism"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Pulmonary Thrombotic Microangiopathy"[Mesh] OR "Cardiac Amyloidosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Hypertensive Patients"[Mesh] OR "Severe Cardiovascular Comorbidities"[Mesh]) AND ("Blood Group A"[Mesh] OR "Mortality Rates"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Yaolin%Zhou%NULL%1,   Timothy J.%O’Leary%NULL%1,   Daniela Flavia%Hozbor%NULL%3,   Daniela Flavia%Hozbor%NULL%0,   Daniela Flavia%Hozbor%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Relative sensitivity" OR "Comparative sensitivity" OR "Diagnostic accuracy") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sensitivity comparison" OR "Swab performance" OR "Sampling method") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Diagnostic testing" OR "Viral detection" OR "PCR testing") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sampling site" OR "Swab location" OR "Nasal sampling") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Testing sensitivity" OR "Detection rate" OR "Sensitivity comparison") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Swab-based diagnostics" OR "Specimen collection" OR "Sampling technique") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Point-of-care testing" OR "Rapid diagnostic tests" OR "Pooled testing") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Diagnostic sensitivity" OR "Viral load" OR "False-negative rate") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Comparative performance" OR "Diagnostic accuracy" OR "Swab sensitivity") 
+(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sample collection" OR "Specimen type" OR "Testing methodology")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2" OR "COVID-19") AND ("nasopharyngeal swabs" OR "NP swabs") AND sensitivity
+("SARS-CoV-2" OR "COVID-19") AND ("anterior nares swabs" OR "nasal swabs") AND sensitivity
+("SARS-CoV-2" OR "COVID-19") AND ("mid-turbinate swabs" OR "nasal swabs") AND sensitivity
+("SARS-CoV-2" OR "COVID-19") AND ("nasopharyngeal swabs" OR "NP swabs") AND sensitivity AND ("diagnosis" OR "detection")
+("SARS-CoV-2" OR "COVID-19") AND ("nasal swabs" OR "anterior nares swabs") AND sensitivity AND ("diagnosis" OR "detection")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Mid-Turbinate Swabs"[Mesh]) AND ("Sensitivity and Specificity"[Mesh] OR "Meta-Analysis"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "MRSA Swabs"[Mesh]) AND ("SARS-CoV-2"[Title/Abstract] OR "PCR Testing"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swab Sampling"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "Viral Loads"[Mesh]) AND ("Sensitivity and Specificity"[Mesh] OR "Concordance"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NP Swabs"[Mesh] OR "Nasal Swab Collection"[Title/Abstract]) AND ("Viral Transport Media"[Mesh] OR "Dry Swabs"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swabs"[Mesh]) AND ("Abbott SARS-CoV-2 RealTime EUA"[Title/Abstract] OR "RT-PCR"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NP Swabs"[Mesh] OR "Nasal Testing"[Title/Abstract]) AND ("Screening"[Mesh] OR "Low-Prevalence Populations"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "NP Swabs"[Mesh]) AND ("Specimen Types"[Mesh] OR "Saliva Stabilization Solutions"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "Viral Swabs"[Mesh]) AND ("SARS-CoV-2 PCR Testing"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("SARS-CoV-2 Detection"[Mesh] OR "Diagnostic Testing"[Mesh]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swabs"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Adithan%Ganesh%adithanganesh321@gmail.com%1,   Michael D.%Randall%NULL%2,   Michael D.%Randall%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Mortality" OR "Death rate" OR "Fatalities") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("New-onset diabetes" OR "Newly diagnosed diabetes") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Pre-existing diabetes" OR "Known diabetes") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Therapeutic management" OR "Treatment outcomes" OR "Drug interactions") 
+(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("systematic review" OR "meta-analysis")
+("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("mortality" OR "outcomes")
+("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("glycemic control" OR "blood glucose") AND ("immune response")
+("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("randomized controlled trials" OR "RCTs")
+("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("drug repurposing" OR "therapeutic potential")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Diabetes Mellitus"[Mesh] OR "Type 2 Diabetes Mellitus"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Susceptibility"[Mesh] OR "Outcomes"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Inflammatory Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Prognosis"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Mortality"[Mesh] OR "ARDS Incidence"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Cohort Studies"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Mortality"[Mesh] OR "ARDS Incidence"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Retrospective Studies"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Safety and Efficacy"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Acidosis"[Mesh] OR "Kidney Function"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Incidence"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Heart Failure"[Mesh] OR "Inflammation"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Clinical Evidence"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("COVID-19-Related Mortality"[Mesh] OR "Prognosis"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Gender"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Severe COVID-19"[Mesh] OR "Acidosis"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Incidence"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Modesto M.%Maestre-Muñiz%NULL%1,   Ángel%Arias%NULL%2,   Ángel%Arias%NULL%0,   Alfredo J.%Lucendo%NULL%2,   Alfredo J.%Lucendo%NULL%0,   Melchor Álvarez%de Mon%NULL%3,   Melchor Álvarez%de Mon%NULL%0,   Melchor Álvarez%de Mon%NULL%0,   Miguel A.%Ortega%NULL%1,   José-Antonio%Girón-González%NULL%1,   Miguel A.%Alvarez-Mon%NULL%1,   Jorge%Monserrat%NULL%1,   Natalio%García-Honduvilla%NULL%1,   Luis G%Guijarro%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Systematic review" OR "Literature review") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical prediction rules" OR "Scoring systems" OR "Risk stratification") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("External validation" OR "Validation study" OR "Model validation") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Prognostic factors" OR "Predictive markers" OR "Risk factors") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical outcomes" OR "Patient outcomes" OR "Fatalities") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Machine learning" OR "Artificial intelligence" OR "Predictive modeling") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Prognostic accuracy" OR "Discrimination" OR "Calibration") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical variables" OR "Laboratory markers" OR "Radiological findings") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical decision support" OR "Risk assessment tools" OR "Clinical guidelines") 
+(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("External validation" OR "Generalizability" OR "Model performance")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("external validation")
+("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("risk of bias" OR "applicability assessment")
+("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("nomograms" OR "variables")
+("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("external validation" OR "performance evaluation")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Mortality Prediction"[Title/Abstract] OR "Clinical Prediction Rules"[Mesh]) AND ("Severe COVID-19"[Title/Abstract] OR "Severe SARS-CoV-2 Infection"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality Prediction"[Title/Abstract] OR "Prognostic Model"[Title/Abstract]) AND ("Nomogram"[Mesh] OR "Risk Factors"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality Prediction"[Title/Abstract] OR "Clinical Prediction Model"[Title/Abstract]) AND ("Machine Learning"[Mesh] OR "Artificial Intelligence"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Survival Probability"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Clinical Features"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prediction Model"[Title/Abstract] OR "Outcome Prediction"[Title/Abstract]) AND ("Multicenter Study"[Mesh] OR "Retrospective Cohort Study"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prognostic Nutritional Index"[Mesh] OR "PNI"[Title/Abstract]) AND ("Wuhan, China"[Title/Abstract] OR "Prognostic Nomogram"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("De Ritis Ratio"[Mesh] OR "AST/ALT Ratio"[Title/Abstract]) AND ("In-Hospital Mortality"[Mesh] OR "Predictive Biomarker"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Prediction Model"[Title/Abstract] OR "Cox Regression Analysis"[Mesh]) AND ("Age"[Mesh] AND "Oxygen Saturation"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Biomarkers"[Mesh]) AND ("Prognostic Model"[Title/Abstract] OR "Survival Probability"[Title/Abstract])
+("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Risk Factors"[Mesh] OR "Prognostication"[Title/Abstract]) AND ("Machine Learning"[Mesh] OR "Predictive Modeling"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Eleni%Papoutsi%NULL%1,   Vassilis G.%Giannakoulis%NULL%1,   Eleni%Xourgia%NULL%1,   Christina%Routsi%NULL%1,   Anastasia%Kotanidou%NULL%1,   Ilias I.%Siempos%isiempos@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Systematic review" OR "Meta-analysis") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Intubation timing" OR "Early intubation" OR "Late intubation") AND ("Non-randomized cohort studies" OR "Observational studies") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Intubation strategy" OR "Ventilation management" OR "Respiratory support") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Mortality" OR "Survival" OR "Death rate") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Ventilator-associated complications" OR "Pneumonia" OR "Ventilator-induced lung injury") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Length of stay" OR "Hospitalization duration" OR "ICU stay") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Respiratory failure" OR "Acute respiratory distress syndrome" OR "Hypoxemia") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Mechanical ventilation" OR "Ventilator-free days" OR "Weaning success") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Complications" OR "Adverse events" OR "Morbidities") 
+(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Clinical guidelines" OR "Treatment recommendations" OR "Intubation protocols")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("non-randomized cohort studies" OR "observational studies")
+("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("systematic review" OR "meta-analysis") AND ("ICU admission" OR "intensive care unit")
+("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("sensitivity analysis" OR "alternate definition")
+("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("wait-and-see approach" OR "update guidelines")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intubation, intratracheal"[MeSH Terms] OR "intubation, intratracheal"[All Fields]) AND ("Time Factors"[MeSH Terms] OR "Time Factors"[All Fields]))
+(("Severe Acute Respiratory Syndrome Coronavirus 2"[MeSH Terms] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[All Fields] OR "SARS-CoV-2"[All Fields] OR "COVID-19"[All Fields]) AND ("Intensive Care Units"[MeSH Terms] OR "Intensive Care Units"[All Fields] OR "Critical Illness"[MeSH Terms] OR "Critical Illness"[All Fields]) AND ("Italy"[MeSH Terms] OR "Italy"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Respiratory Insufficiency"[MeSH Terms] OR "Respiratory Insufficiency"[All Fields]) AND ("Patient Admission"[MeSH Terms] OR "Patient Admission"[All Fields]) AND ("Tomography, X-Ray Computed"[MeSH Terms] OR "Tomography, X-Ray Computed"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Intensive Care Units"[MeSH Terms] OR "Intensive Care Units"[All Fields]) AND ("Tunisia"[MeSH Terms] OR "Tunisia"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Observational Study"[Publication Type] OR "Observational Study"[All Fields]) AND ("Intubation, Intratracheal"[MeSH Terms] OR "Intubation, Intratracheal"[All Fields]) AND ("Disease Outbreaks"[MeSH Terms] OR "Disease Outbreaks"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Ventilators, Mechanical"[MeSH Terms] OR "Ventilators, Mechanical"[All Fields]) AND ("Germany"[MeSH Terms] OR "Germany"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Acute Respiratory Distress Syndrome"[MeSH Terms] OR "Acute Respiratory Distress Syndrome"[All Fields]) AND ("Prospective Studies"[MeSH Terms] OR "Prospective Studies"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("ICU Length of Stay"[MeSH Terms] OR "ICU Length of Stay"[All Fields]) AND ("France"[MeSH Terms] OR "France"[All Fields] OR "Belgium"[MeSH Terms] OR "Belgium"[All Fields] OR "Switzerland"[MeSH Terms] OR "Switzerland"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("ARDS"[MeSH Terms] OR "ARDS"[All Fields]) AND ("Mechanical Ventilation"[MeSH Terms] OR "Mechanical Ventilation"[All Fields]) AND ("Predictive Factors"[MeSH Terms] OR "Predictive Factors"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("Clinical Decision-Making"[MeSH Terms] OR "Clinical Decision-Making"[All Fields]) AND ("Resource Planning"[MeSH Terms] OR "Resource Planning"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Clinical outcomes" OR "Patient outcomes") AND ("Protective effects" OR "Beneficial effects") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Mortality" OR "Survival" OR "Death rate") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Complications" OR "Morbidity" OR "Adverse events") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Cardiovascular outcomes" OR "Cardiac complications") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Renal outcomes" OR "Kidney function") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Risk stratification" OR "Treatment implications") 
+(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Mechanisms of action" OR "Biological effects" OR "Pathophysiology")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("safety" OR "efficacy") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("pooled analysis" OR "meta-analysis") AND ("China" OR "Asia")
+("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("treatment interruption" OR "therapy discontinuation") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes")
+("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("systematic review" OR "meta-analysis") AND ("risk reduction" OR "severity" OR "death outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND ("clinical outcomes"[Title/Abstract] OR "severe outcome"[Title/Abstract]))
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND ("safety"[Title/Abstract] OR "efficacy"[Title/Abstract]))
+(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "COVID-19"[Title/Abstract])
+(("renin-angiotensin-aldosterone system inhibitors"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "Covid-19"[Title/Abstract])
+(("angiotensin receptor blockers"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract]) AND "risk of Covid-19"[Title/Abstract])
+(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "coronavirus disease 2019"[Title/Abstract])
+(("renin-angiotensin-aldosterone system blockers"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "Covid-19"[Title/Abstract] AND "meta-analysis"[Title/Abstract])
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ACE inhibitors"[Title/Abstract] AND "severe outcome"[Title/Abstract])
+(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "clinical outcomes"[Title/Abstract] AND "systematic review"[Title/Abstract])
+(("renin-angiotensin-aldosterone system inhibitors"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Chi-Kuei%Hsu%NULL%1,   Ching-Yi%Chen%NULL%1,   Wang-Chun%Chen%NULL%1,   Chih-Cheng%Lai%NULL%1,   Shun-Hsing%Hung%NULL%1,   Wei-Ting%Lin%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Efficacy" OR "Effectiveness" OR "Therapeutic effect") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Mortality" OR "Survival" OR "Death rate") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Disease severity" OR "Severe cases" OR "Critical cases") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Hospitalization" OR "Admission rate" OR "Critical care") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Complications" OR "Morbidity" OR "Adverse events") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Viral clearance" OR "Time to viral clearance") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Safety" OR "Side effects" OR "Adverse reactions") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Mechanisms of action" OR "Antiviral activity") AND ("Randomized controlled trials" OR "RCTs") 
+(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Treatment guidelines" OR "Clinical recommendations") AND ("Randomized controlled trials" OR "RCTs")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("randomized controlled trials" OR "RCTs") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical efficacy" OR "clinical recovery" OR "mechanical ventilation" OR "intensive care unit admission" OR "hospital length of stay" OR "recovery time") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND "antiviral treatment" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("efficacy" OR "safety") AND ("systematic review" OR "meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "sofosbuvir-based treatment"[Title/Abstract] AND "randomized controlled trials"[Publication Type])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract] OR "ribavirin"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "hospitalized patients"[Title/Abstract] AND "moderate disease"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract] OR "SOF/LDP"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract]) AND "COVID-19 outpatients"[Title/Abstract] AND "double-blind"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract]) AND "COVID-19 severe cases"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "ledipasvir"[Title/Abstract]) AND "treatment of patients with COVID-19"[Title/Abstract])
+(("sofosbuvir"[Title/Abstract] OR "velpatasvir"[Title/Abstract]) AND "hospitalized with COVID-19"[Title/Abstract] AND "randomized controlled trial"[Publication Type])
+(("SOF/LDP"[Title/Abstract] OR "sofosbuvir"[Title/Abstract]) AND "mild to moderate COVID-19"[Title/Abstract])
+(("SOF/VEL"[Title/Abstract] OR "sofosbuvir"[Title/Abstract]) AND "moderate to severe COVID-19"[Title/Abstract])
+(("SOF/VEL"[Title/Abstract] OR "sofosbuvir"[Title/Abstract] OR "velpatasvir"[Title/Abstract]) AND "national standard of care"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Judith%van Paassen%NULL%1,   Jeroen S.%Vos%NULL%1,   Eva M.%Hoekstra%NULL%1,   Katinka M. I.%Neumann%NULL%1,   Pauline C.%Boot%NULL%1,   Sesmu M.%Arbous%marbous@lumc.nl%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Clinical outcomes" OR "Patient outcomes") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Mortality" OR "Survival" OR "Death rate") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Complications" OR "Morbidity" OR "Adverse events") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Respiratory support" OR "Ventilator use") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Length of hospital stay" OR "Time to recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Mechanisms of action" OR "Anti-inflammatory effects") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Side effects" OR "Adverse reactions" OR "Safety") 
+(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Treatment guidelines" OR "Clinical recommendations")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("clinical outcomes" OR "mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("effectiveness" OR "safety") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("effectiveness" OR "safety" OR "clinical outcomes") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("clinical outcomes" OR "mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("evidence" OR "benefit" OR "harm") AND ("systematic review" OR "meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroid use"[Title/Abstract] AND "systematic review"[Publication Type])
+(("corticosteroids"[Title/Abstract] OR "dexamethasone"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "mortality"[Title/Abstract])
+(("corticosteroid treatment"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "viral clearance"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract])
+(("corticosteroids"[Title/Abstract] OR "methylprednisolone"[Title/Abstract]) AND "severe COVID-19 pneumonia"[Title/Abstract])
+(("corticosteroid therapy"[Title/Abstract] OR "COVID-19 outcomes"[Title/Abstract]) AND "acute respiratory distress syndrome"[Title/Abstract])
+(("corticosteroid treatment"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "hospital length of stay"[Title/Abstract] AND "duration of symptoms"[Title/Abstract])
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroids"[Title/Abstract] AND "observational studies"[Publication Type])
+(("corticosteroid use"[Title/Abstract] OR "dexamethasone"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "viral clearance time"[Title/Abstract])
+(("prolonged low-dose methylprednisolone"[Title/Abstract] OR "severe COVID-19 pneumonia"[Title/Abstract]) AND "ICU referral"[Title/Abstract] AND "intubation"[Title/Abstract])
+(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroids"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Clinical outcomes" OR "Patient outcomes") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Mortality" OR "Survival" OR "Death rate") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Complications" OR "Morbidity" OR "Adverse events") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Respiratory support" OR "Ventilator use") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Delirium" OR "Cognitive decline" OR "Neurological symptoms") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Care setting" OR "Long-term care facilities") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Treatment outcomes" OR "Response to therapy") 
+(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Risk factors" OR "Prognostic factors")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("impact" OR "risk factor" OR "comorbidity") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("incidence" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "dementia comorbidities"[Title/Abstract] AND "meta-analysis"[Publication Type])
+(("preexisting dementia"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "incidence"[Title/Abstract] AND "mortality"[Title/Abstract])
+(("dementia comorbidities"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "fixed-effect model"[Title/Abstract] AND "forest plots"[Title/Abstract])
+(("COVID-19 mortality"[Title/Abstract] OR "dementia comorbidities"[Title/Abstract]) AND "statistical data"[Title/Abstract] AND "prevalence"[Title/Abstract])
+(("preexisting dementia"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "risk factors"[Title/Abstract] AND "mortality rate"[Title/Abstract])
+(("COVID-19 clinical presentation"[Title/Abstract] OR "dementia patients"[Title/Abstract]) AND "outcomes"[Title/Abstract] AND "hospitalization"[Title/Abstract])
+(("clinical symptoms of COVID-19"[Title/Abstract] OR "dementia comorbidities"[Title/Abstract]) AND "retrospective study"[Publication Type])
+(("COVID-19 prognosis in dementia patients"[Title/Abstract] OR "mortality risk factors"[Title/Abstract]) AND "single-center study"[Publication Type])
+(("preexisting comorbidities"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "frailty"[Title/Abstract] AND "short-term mortality"[Title/Abstract])
+(("COVID-19 risk stratification"[Title/Abstract] OR "prognostic factors"[Title/Abstract]) AND "older adults aged 80 years and above"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Clinical outcomes" OR "Patient outcomes")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Mortality" OR "Survival" OR "Death rate")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Complications" OR "Morbidity" OR "Adverse events")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Health disparities" OR "Inequalities")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Healthcare access" OR "Barriers to care")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Risk factors" OR "Vulnerability")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Biological factors" OR "Genetic factors")
+(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Public health interventions" OR "Health policies")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "ethnic minority" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "ethnic minority" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ethnicity"[Title/Abstract] AND "clinical outcomes"[Title/Abstract])
+(("COVID-19 infection risk"[Title/Abstract] OR "ethnicity"[Title/Abstract]) AND "meta-analysis"[Publication Type])
+(("COVID-19 infection risk"[Title/Abstract] OR "ethnicity"[Title/Abstract]) AND "peer-reviewed studies"[Publication Type])
+(("Asian ethnicity"[Title/Abstract] OR "Black ethnicity"[Title/Abstract]) AND "COVID-19 infection risk"[Title/Abstract])
+(("ethnicity and COVID-19 mortality"[Title/Abstract] OR "clinical outcomes in COVID-19"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
+(("COVID-19 hospitalization risk"[Title/Abstract] OR "intensive therapy unit admission"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
+(("ethnicity and COVID-19 death risk"[Title/Abstract] OR "COVID-19 meta-analysis"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
+(("COVID-19 clinical outcomes"[Title/Abstract] OR "ethnicity and COVID-19 risk factors"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
+(("COVID-19 prevalence in ethnicity"[Title/Abstract] OR "ethnic disparities in COVID-19"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
+(("ethnicity and COVID-19 morbidity"[Title/Abstract] OR "COVID-19 mortality risk factors"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Amika%Achom%NULL%1,   Ranjita%Das%NULL%1,   Partha%Pakray%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Effects" OR "Impact" OR "Involvement") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Acute kidney injury" OR "AKI") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal dysfunction" OR "Renal impairment") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Proteinuria" OR "Hematuria" OR "Urinary abnormalities") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Nephropathy" OR "Glomerulopathy" OR "Tubular injury") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal replacement therapy" OR "Dialysis") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal complications" OR "Renal manifestations") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal function" OR "GFR" OR "Creatinine") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal imaging" OR "Ultrasound" OR "CT scan") 
+(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal inflammation" OR "Cytokine storm" OR "Immunopathology")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "renal system" AND ("effect" OR "impact") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "kidney" AND ("effect" OR "impact") AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "nephropathy" AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "renal complications" AND ("systematic review" OR "meta-analysis")
+("COVID-19" OR "SARS-CoV-2") AND "acute kidney injury" AND ("systematic review" OR "meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Kidney"[Mesh] OR "Renal System"[tiab])
+("SARS-CoV-2 spike protein"[tiab] OR "Angiotensin-converting enzyme 2"[tiab] OR "TMPRSS2 protein, human"[tiab]) AND ("Viral Receptors"[Mesh] OR "Membrane Proteins"[Mesh])
+("Grey wolf optimizer"[tiab] OR "GWO algorithm"[tiab]) AND ("Viral Receptors"[Mesh] OR "Membrane Proteins"[Mesh])
+("ACE2 protein"[tiab] OR "TMPRSS2 protein, human"[tiab]) AND ("Single-Cell Analysis"[Mesh] OR "Mass Spectrometry"[Mesh] OR "Immunohistochemistry"[Mesh])
+("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Acute Kidney Injury"[Mesh] OR "Kidney Proximal Tubule Cells"[Mesh])
+("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mortality"[Mesh] OR "Intensive Care Units"[Mesh])
+("Severe acute respiratory syndrome coronavirus"[tiab] OR "SARS-CoV"[tiab]) AND ("ICU admission"[tiab] OR "High mortality"[tiab])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Blood Urea Nitrogen"[Mesh] OR "Creatinine"[Mesh] OR "Albuminuria"[Mesh])
+("2019 novel coronavirus"[tiab] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Acute Kidney Injury"[Mesh] OR "Renal Function"[Mesh])
+("Clinical Characteristics"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("SARS-CoV-2 RNA"[Mesh] OR "Renal Function"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%6,   John R%Adler%NULL%1,   Sarah M%Elsayed%NULL%2,   Sarah M%Elsayed%NULL%0,   Mithun K%Reddy%NULL%1,   Pooja M%Murthy%NULL%1,   Ishita%Gupta%NULL%1,   Monika%Valiuskyte%NULL%1,   Diana F%Sánchez%NULL%1,   Mark Anthony%Diaz%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Recovered" OR "Previous recovery") AND ("Possibility" OR "Risk") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Causes" OR "Factors") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Reinfection" OR "Reactivation") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Immune response" OR "Immunity") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Viral persistence" OR "Viral reservoir") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Antibody response" OR "Neutralizing antibodies") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Viral mutation" OR "Variants") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Treatment failure" OR "Inadequate treatment") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Post-acute sequelae" OR "Long COVID") AND ("Recovered" OR "Previous recovery") 
+(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Clinical surveillance" OR "Follow-up") AND ("Recovered" OR "Previous recovery")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Disease Susceptibility"[Mesh] OR "Disease Progression"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
+("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Virus Shedding"[Mesh] OR "Viral Load"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
+("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Convalescence"[Mesh] OR "Remission, Spontaneous"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
+("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Immunity"[Mesh] OR "Immunologic Memory"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
+("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Risk Factors"[Mesh] OR "Epidemiologic Factors"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Relapse"[Mesh] OR "Disease Recurrence"[Mesh])
+("Severe acute respiratory syndrome coronavirus 2"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Reactivation"[Mesh] OR "Virus Activation"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Medical Staff"[Mesh] OR "Recovered Patients"[Mesh]) AND ("Surveillance"[Mesh] OR "Virus Detection"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Viral Load"[Mesh] OR "Serum Antibodies"[Mesh]) AND ("Observational Cohort Study"[Mesh] OR "Cohort Analysis"[Mesh])
+("SARS-CoV-2 spike glycoprotein"[tiab] OR "COVID-19 Convalescent Patients"[Mesh]) AND ("Immunodominant Regions"[Mesh] OR "Neutralising Antibodies"[Mesh])
+("2019-nCoV"[tiab] OR "COVID-19"[tiab]) AND ("Shedding Routes"[Mesh] OR "Transmission Routes"[Mesh]) AND ("Oral Swabs"[Mesh] OR "Anal Swabs"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Respiratory Viral Load"[Mesh] OR "Serial Viral Load"[Mesh]) AND ("Posterior Oropharyngeal Saliva"[Mesh] OR "Throat Swabs"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Seropositivity"[Mesh] OR "Antibody Levels"[Mesh]) AND ("Virus Neutralisation"[Mesh] OR "Antiviral Agents"[Mesh])
+("COVID-19 Convalescent Patients"[Mesh] OR "COVID-19 Vaccines"[Mesh]) AND ("Immunogenic Targets"[Mesh] OR "B-Cell Epitopes"[Mesh])
+("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Multiple Shedding Routes"[Mesh] OR "Oral-Fecal Route"[Mesh]) AND ("Virus Detection"[Mesh] OR "Serology Test"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Clinical outcomes" OR "Patient outcomes") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator support" OR "Respiratory support") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Mechanical ventilation" OR "Intubation") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator-associated pneumonia" OR "VAP") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator-induced lung injury" OR "VILI") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilatory parameters" OR "Ventilation strategies") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("ARDS" OR "Acute respiratory distress syndrome") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Complications" OR "Adverse events") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Weaning" OR "Extubation") 
+(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Outcome predictors" OR "Prognostic factors")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Positive-Pressure Respiration"[Mesh] OR "Ventilators, Mechanical"[Mesh])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Invasive Mechanical Ventilation"[Title/Abstract] OR "IMV"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Positive-Pressure Respiration"[Mesh]) AND ("Review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Invasive Mechanical Ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Title/Abstract] OR "Positive-Pressure Respiration"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Invasive Mechanical Ventilation"[Mesh] OR "Mechanical Ventilation"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Elderly Patients"[Mesh] OR "Aged Patients"[Mesh] OR "Older Patients"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cardiovascular Disease"[Mesh] OR "Myocardial Injury"[Mesh] OR "Fatal Outcomes"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cluster of Severe Respiratory Illness"[Mesh] OR "ICU Admission"[Mesh] OR "Mortality"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Epidemiological Characteristics"[Mesh] OR "Clinical Characteristics"[Mesh] OR "2019-nCoV Pneumonia"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Viral Infection"[Mesh] OR "Respiratory Symptoms"[Mesh] OR "Pneumonitis"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Practices"[Mesh] OR "IMV Devices"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("NIH Quality Assessment Tool"[Mesh] OR "Cohort Studies"[Mesh] OR "Cross-Sectional Studies"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Symptoms Onset"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Hypoxemic Respiratory Failure"[Mesh] OR "Hypotension"[Mesh] OR "Vasopressor Treatment"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Holger J.%Schünemann%NULL%1,   Joanne%Khabsa%NULL%1,   Karla%Solo%NULL%1,   Assem M.%Khamis%NULL%1,   Romina%Brignardello-Petersen%NULL%1,   Amena%El-Harakeh%NULL%1,   Andrea%Darzi%NULL%1,   Anisa%Hajizadeh%NULL%1,   Antonio%Bognanni%NULL%1,   Anna%Bak%NULL%1,   Ariel%Izcovich%NULL%1,   Carlos A.%Cuello-Garcia%NULL%1,   Chen%Chen%NULL%1,   Ewa%Borowiack%NULL%1,   Fatimah%Chamseddine%NULL%1,   Finn%Schünemann%NULL%1,   Gian Paolo%Morgano%NULL%1,   Giovanna E.U.%Muti-Schünemann%NULL%1,   Guang%Chen%NULL%1,   Hong%Zhao%NULL%1,   Ignacio%Neumann%NULL%1,   Jan%Brozek%NULL%1,   Joel%Schmidt%NULL%1,   Layal%Hneiny%NULL%1,   Leila%Harrison%NULL%1,   Marge%Reinap%NULL%1,   Mats%Junek%NULL%1,   Nancy%Santesso%NULL%1,   Rayane%El-Khoury%NULL%1,   Rebecca%Thomas%NULL%1,   Robby%Nieuwlaat%NULL%1,   Rosa%Stalteri%NULL%1,   Sally%Yaacoub%NULL%1,   Tamara%Lotfi%NULL%1,   Tejan%Baldeh%NULL%1,   Thomas%Piggott%NULL%1,   Yuan%Zhang%NULL%1,   Zahra%Saad%NULL%1,   Bram%Rochwerg%NULL%2,   Dan%Perri%NULL%1,   Eddy%Fan%NULL%2,   Florian%Stehling%NULL%1,   Imad Bou%Akl%NULL%1,   Mark%Loeb%NULL%1,   Paul%Garner%NULL%1,   Stephen%Aston%NULL%1,   Waleed%Alhazzani%NULL%1,   Wojciech%Szczeklik%NULL%1,   Derek K.%Chu%NULL%1,   Elie A.%Akl%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Clinical outcomes" OR "Patient outcomes") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Respiratory support" OR "Ventilatory support") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("CPAP" OR "Continuous positive airway pressure") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("BiPAP" OR "Bilevel positive airway pressure") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("High-flow nasal cannula" OR "HFNC") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Respiratory failure" OR "Hypoxemia") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Complications" OR "Adverse events") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Weaning" OR "Decannulation") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Trials" OR "Clinical studies") 
+(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Guidelines" OR "Best practices")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Noninvasive Ventilation"[Mesh] OR "Respiration, Artificial"[Mesh])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Positive-Pressure Respiration"[Mesh]) AND ("Benefits and Harms"[Title/Abstract] OR "Mortality"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Transmission"[Mesh] OR "Health Personnel"[Mesh])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Transmission"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Non-Invasive Ventilation"[Mesh] OR "Oxygenation Approaches"[Mesh] OR "Respiratory Failure"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Benefits"[Mesh] OR "Mechanical Ventilation Harms"[Mesh] OR "Ventilation Techniques"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Mortality"[Mesh] OR "COVID-19 Transmission"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Severe Acute Respiratory Syndrome Mortality"[Mesh] OR "Middle East Respiratory Syndrome Mortality"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Noninvasive Ventilation Mortality"[Mesh] OR "Invasive Mechanical Ventilation Mortality"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Risk of Transmission"[Mesh] OR "Aerosol-Generating Procedures"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Healthcare Worker Infection Risk"[Mesh] OR "Transmission to Healthcare Workers"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Non-Invasive Ventilation vs. Invasive Mechanical Ventilation"[Mesh] OR "NIV vs. IMV"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mortality Reduction with Noninvasive Ventilation"[Mesh] OR "COVID-19 Healthcare Worker Transmission"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Systematic Reviews"[Mesh] OR "COVID-19 Certainty of Evidence"[Mesh] OR "GRADE Assessment"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Keith%Couper%NULL%1,   Sian%Taylor-Phillips%NULL%2,   Amy%Grove%NULL%1,   Karoline%Freeman%NULL%1,   Osemeke%Osokogu%NULL%3,   Rachel%Court%NULL%2,   Amin%Mehrabian%NULL%2,   Peter T.%Morley%NULL%1,   Jerry P.%Nolan%NULL%1,   Jasmeet%Soar%NULL%1,   Gavin D.%Perkins%g.d.perkins@warwick.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Infection risk" OR "Transmission risk") AND ("Rescuers" OR "First responders") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Personal protective equipment" OR "PPE") AND ("Rescuer safety" OR "Protection") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Aerosol-generating procedures" OR "AGPs") AND ("Rescuer exposure" OR "Viral particles") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Airway management" OR "CPR") AND ("Infection control" OR "Precautions") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Resuscitation guidelines" OR "Protocols") AND ("Risk mitigation" OR "Safety measures") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Disinfection" OR "Decontamination") AND ("Rescue equipment" OR "Ambulance") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Healthcare worker" OR "Rescuer") AND ("Infection prevention" OR "Safety training") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Viral load" OR "Infectiousness") AND ("Rescuer exposure" OR "Contamination") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Telemedicine" OR "Remote guidance") AND ("Rescuer protection" OR "Minimizing contact") 
+(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Risk assessment" OR "Mitigation strategies") AND ("Rescuer well-being" OR "Occupational health")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Risk"[Title/Abstract] OR "Transmission"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Aerosol Generation"[Title/Abstract] OR "Airborne Infection Transmission"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Personal Protective Equipment"[Mesh]) AND ("Effectiveness"[Title/Abstract] OR "Strategies"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Chest Compressions"[Mesh] OR "Defibrillation"[Mesh]) AND ("Risk of Bias"[Mesh] OR "Evidence Certainty"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Evidence"[Mesh] OR "Studies"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Transmission"[Mesh] OR "Infection Risk"[Mesh] OR "Healthcare Worker Infection"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Aerosol Generation in CPR"[Mesh] OR "Aerosol Transmission"[Mesh] OR "Airborne Infection Transmission"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Personal Protective Equipment Strategies"[Mesh] OR "PPE for Rescuers"[Mesh] OR "PPE Delay in Treatment Delivery"[Mesh])
+("Middle East Respiratory Syndrome"[tiab] OR "MERS"[tiab]) AND ("Healthcare Worker Infections"[Mesh] OR "MERS Transmission during CPR"[Mesh])
+("Severe Acute Respiratory Syndrome"[tiab] OR "SARS"[tiab]) AND ("SARS-CoV Infection Transmission"[Mesh] OR "SARS Transmission during Resuscitation"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("Infection Risk in Healthcare Workers"[Mesh] OR "SARS Transmission Routes"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("Healthcare Worker Infections"[Mesh] OR "SARS Transmission during Intubation"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("SARS-CoV Infection Prevention"[Mesh] OR "Healthcare Worker PPE Use"[Mesh])
+("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("SARS-CoV Transmission Factors"[Mesh] OR "SARS-CoV Transmission Control"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Shuai%Shao%NULL%1,   Yishan%Wang%NULL%1,   Hanyujie%Kang%NULL%1,   Zhaohui%Tong%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Clinical outcomes" OR "Patient outcomes") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Antiviral effects" OR "Immunomodulatory effects") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Safety" OR "Adverse events") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Meta-analysis" OR "Systematic review") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Randomized controlled trial" OR "RCT") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Antibody levels" OR "Neutralizing antibodies") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Mechanisms of action" OR "Biological effects") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Dosage" OR "Administration" OR "Infusion") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Patient selection" OR "Criteria") 
+(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Long-term effects" OR "Follow-up")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Convalescent Blood Products"[Mesh] OR "Blood Transfusion"[Mesh]) AND ("Respiratory Tract Infections"[Mesh]) AND ("Survival"[Mesh] OR "Mortality"[Mesh])
+("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Randomized Controlled Trials as Topic"[Mesh]) AND ("Mortality"[Mesh])
+("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Adverse Events"[Mesh]) AND ("Risk"[Mesh])
+("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Time Factors"[Mesh]) AND ("Mortality"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Convalescent Blood Products"[Mesh] OR "Convalescent Plasma"[Mesh]) AND ("Severe Acute Respiratory Infections"[Mesh] OR "Viral Infections"[Mesh])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Survival Advantage"[Mesh] OR "All-Cause Mortality"[Mesh])
+("Convalescent Blood Products"[tiab] OR "Convalescent Plasma"[tiab]) AND ("Randomized Controlled Trials as Topic"[Mesh] OR "RCTs on Viral Infections"[Mesh])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Adverse Events"[Mesh] OR "Safety of CBPs"[Mesh])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Early Initiation of Therapy"[Mesh] OR "Mortality Reduction"[Mesh])
+("Influenza, Human"[Mesh] OR "Severe Influenza"[Mesh]) AND ("Immune Plasma Treatment"[Mesh] OR "Neutralizing Antibodies"[Mesh])
+("Severe Influenza"[tiab] OR "Severe SARS-CoV-2 Infection"[tiab]) AND ("Convalescent Plasma"[tiab] OR "Neutralizing Antibodies"[tiab])
+("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Moderate COVID-19"[Mesh] OR "COVID-19 Treatment in Adults"[Mesh])
+("Severe Influenza"[tiab] OR "Pandemic Influenza A(H1N1) 2009"[tiab]) AND ("Convalescent Plasma Treatment"[Mesh] OR "Viral Load Suppression"[Mesh])
+("Severe Acute Respiratory Syndrome"[Mesh] OR "SARS-CoV-2"[tiab]) AND ("Convalescent Plasma"[tiab] OR "Methylprednisolone Treatment"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Clinical outcomes" OR "Maternal outcomes" OR "Fetal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vertical transmission" OR "Perinatal transmission") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Maternal morbidity" OR "Maternal complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Neonatal outcomes" OR "Newborn outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Management guidelines" OR "Clinical recommendations") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Preterm birth" OR "Preterm delivery") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Mode of delivery" OR "Cesarean section" OR "Vaginal delivery") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vertical transmission" OR "Breastfeeding") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Maternal mortality" OR "Maternal death") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vaccination" OR "Vaccine safety" OR "Vaccine efficacy")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Pregnancy"[Mesh]) AND ("Systematic Review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Maternal Complications"[Mesh] OR "Neonatal Complications"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Maternal Severity"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Mortality"[Mesh])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Preterm Birth"[Mesh] OR "Cesarean Section"[Mesh]) AND ("Rate"[Mesh])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Vertical Transmission"[Mesh] OR "Neonatal Death"[Mesh]) AND ("Rate"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Pregnancy Complications"[Mesh] OR "Maternal Complications"[Mesh])
+("Anesthesia, Epidural"[Mesh] OR "General Anesthesia"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Parturients with SARS-CoV-2 Infection"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Pregnancy Outcomes"[Mesh] OR "Healthcare Workers"[Mesh])
+("COVID-19 Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("Pregnant Patients"[Mesh] OR "Chest CT"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Clinical Characteristics"[Mesh] OR "Outcomes in Pregnancy"[Mesh])
+("COVID-19 Pneumonia"[Mesh] OR "COVID-19 Clinical Characteristics"[Mesh]) AND ("CT Absorption"[Mesh] OR "Symptomatic Pregnant Patients"[Mesh])
+("COVID-19 Pneumonia"[Mesh] OR "COVID-19 in Pregnant Women"[Mesh]) AND ("Vertical Transmission"[Mesh] OR "SARS-CoV-2 in Neonates"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Clinical Characteristics"[Mesh] OR "Pregnant Women in Wuhan"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Clinical Characteristics"[Mesh] OR "Outcomes in Pregnancy"[Mesh])
+("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Vertical Transmission"[Mesh] OR "Outcomes in Pregnant Women"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[Israel Júnior%Borges do Nascimento%NULL%1,   Nensi%Cacic%NULL%2,   Nensi%Cacic%NULL%0,   Hebatullah Mohamed%Abdulazeem%NULL%1,   Thilo Caspar%von Groote%NULL%2,   Thilo Caspar%von Groote%NULL%0,   Umesh%Jayarajah%NULL%1,   Ishanka%Weerasekara%NULL%2,   Ishanka%Weerasekara%NULL%0,   Meisam Abdar%Esfahani%NULL%2,   Meisam Abdar%Esfahani%NULL%0,   Vinicius Tassoni%Civile%NULL%2,   Vinicius Tassoni%Civile%NULL%0,   Ana%Marusic%NULL%2,   Ana%Marusic%NULL%0,   Ana%Jeroncic%NULL%2,   Ana%Jeroncic%NULL%0,   Nelson%Carvas Junior%NULL%1,   Tina Poklepovic%Pericic%NULL%1,   Irena%Zakarija-Grkovic%NULL%2,   Irena%Zakarija-Grkovic%NULL%0,   Silvana Mangeon%Meirelles Guimarães%NULL%2,   Silvana Mangeon%Meirelles Guimarães%NULL%0,   Nicola%Luigi Bragazzi%NULL%1,   Maria%Bjorklund%NULL%2,   Maria%Bjorklund%NULL%0,   Ahmad%Sofi-Mahmudi%NULL%2,   Ahmad%Sofi-Mahmudi%NULL%0,   Mohammad%Altujjar%NULL%2,   Mohammad%Altujjar%NULL%0,   Maoyi%Tian%NULL%1,   Diana Maria Cespedes%Arcani%NULL%1,   Dónal P.%O’Mathúna%NULL%2,   Dónal P.%O’Mathúna%NULL%0,   Milena Soriano%Marcolino%NULL%2,   Milena Soriano%Marcolino%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Human infection" AND "Epidemiology" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Clinical manifestations" AND "Symptoms" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Transmission" AND "Modes of spread" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Pathogenesis" AND "Immune response" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Diagnosis" AND "Diagnostic methods" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Treatment" AND "Therapeutic options" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Prevention" AND "Public health measures" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Vaccination" AND "Vaccine development" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Risk factors" AND "Susceptibility" 
+("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Outbreak investigations" AND "Containment strategies"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus, Human"[Mesh] OR "COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Clinical"[Mesh] OR "Epidemiological"[Mesh] OR "Laboratory"[Mesh] OR "Chest Imaging"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Clinical"[Mesh] OR "Epidemiological"[Mesh] OR "Laboratory"[Mesh] OR "Chest Imaging"[Mesh]) AND ("Scoping Review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Novel Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Coagulation Parameters"[Mesh] OR "Prognosis"[Mesh])
+("Novel Coronavirus Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("CT Findings"[Mesh] OR "Temporal Changes"[Mesh])
+("Epidemiological Data"[Mesh] OR "Population-level Study"[Mesh]) AND ("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh])
+("Clinical Indexes"[Mesh] OR "Biochemical Parameters"[Mesh]) AND ("2019-nCoV Infection"[Mesh] OR "Viral Loads"[Mesh] OR "Lung Injury"[Mesh])
+("Chest CT"[Mesh] OR "CT Findings"[Mesh]) AND ("Duration of Infection"[Mesh] OR "Time Between Symptom Onset and CT Scan"[Mesh])
+("Novel Coronavirus Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("Characteristics of Pneumonia"[Mesh] OR "Imaging Features"[Mesh])
+("News Media"[Mesh] OR "Social Networks"[Mesh]) AND ("Epidemiological Data"[Mesh] OR "Patient-level Data"[Mesh])
+("Novel Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Clinical Symptoms"[Mesh] OR "Laboratory Findings"[Mesh])
+("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND ("Patient Mortality"[Mesh] OR "Mortality Rate"[Mesh])
+("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND ("Epidemiology"[Mesh] OR "Outbreak Progression"[Mesh])
+</t>
+  </si>
+  <si>
+    <t>[P. C.%Gronholm%NULL%1,   M.%Nosé%NULL%2,   M.%Nosé%NULL%0,   W. H.%van Brakel%NULL%1,   J.%Eaton%NULL%1,   B.%Ebenso%NULL%2,   B.%Ebenso%NULL%0,   K.%Fiekert%NULL%1,   M.%Milenova%NULL%1,   C.%Sunkel%NULL%1,   C.%Barbui%NULL%1,   G.%Thornicroft%NULL%2,   G.%Thornicroft%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Public health messaging" OR "Communication strategies") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Community engagement" OR "Social mobilization") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Education" OR "Awareness programs") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Media" OR "Social media") AND ("Role" OR "Influence") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Healthcare settings" OR "Healthcare workers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Policy" OR "Legal frameworks") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Mental health" OR "Psychosocial support") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Intersectionality" OR "Vulnerable populations") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Resilience" OR "Empowerment") 
+("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Research" OR "Evaluation") AND ("Interventions" OR "Programs")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("discrimination"[MeSH Terms] OR "discrimination"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("reducing stigma"[All Fields] OR "stigma reduction"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("interventions"[Subheading] OR "interventions"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("recommendations"[Subheading] OR "recommendations"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("public health interventions"[MeSH Terms] OR "public health interventions"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19 Stigma"[Mesh] OR "COVID-19 Discrimination"[Mesh]) AND ("Stigma Reduction Interventions"[Mesh] OR "Discrimination Reduction Strategies"[Mesh])
+("HIV-related Stigma"[Mesh] OR "HIV Discrimination"[Mesh]) AND ("Healthcare Settings"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("Quantitative Evidence"[Mesh] OR "Randomized Controlled Trials"[Mesh])
+("Self-stigma in Mental Illness"[Mesh] OR "Self-stigmatization"[Mesh]) AND ("Workplace Interventions"[Mesh] OR "Mental Health Stigma Reduction"[Mesh])
+("Mental Illness Stigma"[Mesh] OR "Stigma Reduction Interventions"[Mesh]) AND ("Primary Health Care in LMICs"[Mesh] OR "Low and Middle-Income Countries"[Mesh])
+("Self-stigma in People Living with HIV"[Mesh] OR "Internalized Stigma"[Mesh]) AND ("Interventions to Address Self-stigma"[Mesh] OR "Self-stigma Reduction"[Mesh])
+("Stigma Reduction Strategies"[Mesh] OR "Discrimination Prevention"[Mesh]) AND ("Mental Health Interventions"[Mesh] OR "Mental Health Promotion"[Mesh])
+("HIV Stigma Interventions"[Mesh] OR "Stigma Reduction Programs"[Mesh]) AND ("Low and Middle-Income Countries"[Mesh] OR "Global Public Health"[Mesh])
+("HIV/AIDS Stigma"[Mesh] OR "Internalized Stigma"[Mesh]) AND ("Stigma Reduction in Key Populations"[Mesh] OR "Stigma Reduction in Pregnant Women"[Mesh])
+("HIV-related Discrimination"[Mesh] OR "HIV and Health Services"[Mesh]) AND ("Structural Interventions"[Mesh] OR "Scale-up of Antiretroviral Treatment"[Mesh])
+("Structural Interventions for Self-stigma"[Mesh] OR "Social Empowerment Programs"[Mesh]) AND ("Economic Strengthening Initiatives"[Mesh] OR "Reduction of Medication Stockouts"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("Affected individuals" OR "Patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("Healthcare workers" OR "Frontline workers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("General population" OR "Community") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("Affected individuals" OR "Patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("Healthcare workers" OR "Frontline workers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("General population" OR "Community") 
+("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Affected individuals" OR "Patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Healthcare workers" OR "Frontline workers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("General population" OR "Community") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychosocial support" OR "Interventions") AND ("Affected individuals" OR "Patients" OR "Healthcare workers" OR "General population")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("psychological consequences"[MeSH Terms] OR "psychological consequences"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("affected individuals"[All Fields] OR "healthcare workers"[MeSH Terms] OR "general population"[MeSH Terms])
+("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields]) AND ("psychological health outcomes"[MeSH Terms] OR "psychological health outcomes"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("psychological health outcomes"[MeSH Terms] OR "psychological health outcomes"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("PTSD"[MeSH Terms] OR "PTSD"[All Fields] OR "post-traumatic stress disorder"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress"[MeSH Terms] OR "stress"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("mental health resources"[MeSH Terms] OR "mental health resources"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Posttraumatic Stress Disorder"[Mesh] OR "PTSD Symptoms"[Mesh]) AND ("Crisis Mental Health Services"[Mesh] OR "Psychological Services"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Clinically Stable COVID-19 Individuals"[Mesh]) AND "China"[Mesh]
+("Psychological Impact"[Mesh] OR "Coping Strategies"[Mesh]) AND ("Frontline Medical Staff"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19 Outbreak"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hubei"[Mesh] AND "Hunan"[Mesh]
+("Basic Needs"[Mesh] OR "Psychological Wellbeing"[Mesh]) AND ("Medical Workers"[Mesh] OR "Healthcare Professionals"[Mesh]) AND ("Fever Clinic"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND "Beijing"[Mesh]
+("Psychological Impact"[Mesh] OR "Mental Health Impact"[Mesh]) AND ("College Students"[Mesh] OR "University Students"[Mesh]) AND "China"[Mesh] AND "COVID-19 Epidemic"[Mesh]
+("Mental Health Problems"[Mesh] OR "Depression"[Mesh] OR "Anxiety"[Mesh]) AND ("Social Media Exposure"[Mesh] OR "Online Media Exposure"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Wuhan"[Mesh] AND "China"[Mesh]
+("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Affected Individuals"[Mesh]
+("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Healthcare Workers"[Mesh]
+("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "General Population"[Mesh]
+("Symptoms of PTSD"[Mesh] OR "Posttraumatic Stress Disorder"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Healthcare Workers"[Mesh]
+("Depression"[Mesh] OR "Anxiety"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "College Students"[Mesh] AND "China"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[Dominika%Suchá%d.sucha@umcutrecht.nl%0,   Robbert W.%van Hamersvelt%NULL%0,   Robbert W.%van Hamersvelt%NULL%0,   Andor F.%van den Hoven%NULL%0,   Andor F.%van den Hoven%NULL%0,   Pim A.%de Jong%NULL%0,   Pim A.%de Jong%NULL%0,   Helena M.%Verkooijen%NULL%0,   Helena M.%Verkooijen%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospital setting") AND ("Diagnostic performance" OR "Accuracy") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic sensitivity" OR "Diagnostic specificity") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospitalized patients") AND ("Diagnostic utility" OR "Performance evaluation") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Accuracy assessment" OR "Diagnostic value") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Inpatient setting") AND ("Diagnostic sensitivity" OR "Diagnostic specificity") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Accuracy comparison" OR "Diagnostic performance") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospital-based study") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic validity" OR "Performance characteristics") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospitalized population") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("diagnostic test accuracy"[MeSH Terms] OR "diagnostic test accuracy"[All Fields]) AND ("chest X-ray"[MeSH Terms] OR "chest X-ray"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields]) AND ("chest radiography"[MeSH Terms] OR "chest radiography"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("reverse-transcription polymerase chain reaction test"[MeSH Terms] OR "reverse-transcription polymerase chain reaction test"[All Fields]) AND ("clinical consensus"[MeSH Terms] OR "clinical consensus"[All Fields]) AND ("chest radiographic"[MeSH Terms] OR "chest radiographic"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("Standards for Reporting of Diagnostic Accuracy Studies"[MeSH Terms] OR "Standards for Reporting of Diagnostic Accuracy Studies"[All Fields]) AND ("Quality Assessment of Diagnostic Accuracy Studies-2"[MeSH Terms] OR "Quality Assessment of Diagnostic Accuracy Studies-2"[All Fields]) AND ("CT sensitivity"[All Fields] OR "CT specificity"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("adherence"[MeSH Terms] OR "adherence"[All Fields]) AND ("reporting guidelines"[MeSH Terms] OR "reporting guidelines"[All Fields]) AND ("high risk of bias"[MeSH Terms] OR "high risk of bias"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
+("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
+("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "STARD Guidelines"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh] OR "QUADAS-2"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "CT Scan"[Mesh] AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "Ultrasound"[Mesh] AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
+("Receiver Operating Characteristic"[Mesh] OR "ROC Curve"[Mesh]) AND "Chest CT"[Mesh] AND "RT-PCR"[Mesh] AND "COVID-19 Diagnosis"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[Semagn Mekonnen%Abate%NULL%1,   Siraj%Ahmed Ali%NULL%2,   Siraj%Ahmed Ali%NULL%0,   Bahiru%Mantfardo%NULL%1,   Bivash%Basu%NULL%1,   Chiara%Lazzeri%NULL%18,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus" OR "Coronaviridae") AND ("Intensive care unit" OR "ICU") AND ("Admission rate" OR "Rate of admission") 
+("Coronavirus" OR "Coronaviridae") AND ("Intensive care unit" OR "ICU") AND ("Clinical outcomes" OR "Patient outcomes") 
+("Coronavirus" OR "Coronaviridae") AND ("Severe cases" OR "Critical cases") AND ("Intensive care unit" OR "ICU") 
+("Coronavirus" OR "Coronaviridae") AND ("ICU admission" OR "Intensive care unit admission") AND ("Mortality rate" OR "Survival rate") 
+("Coronavirus" OR "Coronaviridae") AND ("ICU utilization" OR "ICU occupancy") AND ("Patient outcomes" OR "Clinical outcomes") 
+("Coronavirus" OR "Coronaviridae") AND ("Intensive care" OR "Critical care") AND ("Hospitalized patients" OR "Inpatients") 
+("Coronavirus" OR "Coronaviridae") AND ("ICU management" OR "ICU treatment") AND ("Patient outcomes" OR "Clinical outcomes") 
+("Coronavirus" OR "Coronaviridae") AND ("ICU admission criteria" OR "ICU triage") AND ("Patient outcomes" OR "Clinical outcomes") 
+("Coronavirus" OR "Coronaviridae") AND ("ICU length of stay" OR "ICU duration") AND ("Patient outcomes" OR "Clinical outcomes") 
+("Coronavirus" OR "Coronaviridae") AND ("ICU resource allocation" OR "ICU capacity") AND ("Patient outcomes" OR "Clinical outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("rate of intensive care unit admission"[MeSH Terms] OR "rate of intensive care unit admission"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("morbidity"[MeSH Terms] OR "morbidity"[All Fields]) AND ("complications"[MeSH Terms] OR "complications"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("observational studies"[MeSH Terms] OR "observational studies"[All Fields]) AND ("ICU admission"[All Fields] OR "intensive care unit admission"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields])
+("intensive care unit"[MeSH Terms] OR "intensive care unit"[All Fields]) AND ("severe coronavirus disease"[All Fields] OR "severe COVID-19"[All Fields]) AND ("Meta-Analysis"[Publication Type] OR "Meta-Analysis"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Intensive Care Units"[Mesh] OR "ICU Admission"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Systematic Review"[Publication Type]
+("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Systematic Review"[Publication Type]
+("PubMed"[Mesh] OR "MEDLINE"[Mesh]) AND ("Science Direct"[Mesh] OR "LILACS"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Observational Study"[Publication Type] AND ("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh])
+("Meta-Analysis"[Publication Type]) AND ("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "ICU Admission"[Mesh]
+("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Meta-Analysis"[Publication Type]
+("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh]) AND "Mortality"[Mesh] AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Meta-Analysis"[Publication Type]
+("Systematic Review"[Publication Type]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Coronavirus Infections"[Mesh]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Meta-Analysis"[Publication Type]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Systematic Review"[Publication Type]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Meta-Analysis"[Publication Type] AND "Morbidity"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[Yudan%Ding%NULL%1,   Haohao%Yan%NULL%1,   Wenbin%Guo%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Clinical characteristics" OR "Symptoms") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Laboratory findings" OR "Biomarkers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Imaging characteristics" OR "Radiological findings") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Epidemiology" OR "Prevalence") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Disease severity" OR "Clinical outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Laboratory markers" OR "Inflammatory markers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Chest X-ray" OR "CT scan") AND ("Findings" OR "Abnormalities") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Clinical management" OR "Treatment guidelines") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Risk factors" OR "Comorbidities") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Long-term effects" OR "Follow-up studies")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("clinical characteristics"[MeSH Terms] OR "clinical characteristics"[All Fields]) AND ("laboratory characteristics"[MeSH Terms] OR "laboratory characteristics"[All Fields]) AND ("imaging characteristics"[MeSH Terms] OR "imaging characteristics"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("novel coronavirus disease 2019"[MeSH Terms] OR "novel coronavirus disease 2019"[All Fields]) AND ("health care systems"[MeSH Terms] OR "health care systems"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("studies"[MeSH Terms] OR "studies"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Children"[Mesh] OR "Pediatrics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Children"[Mesh]
+("Clinical Characteristics"[Mesh] OR "Laboratory Characteristics"[Mesh] OR "Imaging Characteristics"[Mesh]) AND ("Children"[Mesh] OR "Pediatrics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Observational Study"[Publication Type]
+("Clinical Features"[Mesh] OR "Demographic Data"[Mesh] OR "Symptoms"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+("Cytokine Storm"[Mesh] OR "Immunologic Factors"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+("Epidemiologic Factors"[Mesh] OR "Transmission"[Mesh] OR "Spread"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Undocumented Infections"[Mesh]
+("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Mesh]) AND "COVID-19"[Mesh]
+("Clinical Outcomes"[Mesh] OR "Prognosis"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+("Clinical Features"[Mesh] OR "Symptoms"[Mesh] OR "Imaging"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[Noémi%Zádori%NULL%1,   Szilárd%Váncsa%NULL%1,   Nelli%Farkas%NULL%1,   Péter%Hegyi%NULL%1,   Bálint%Erőss%eross.balint@pte.hu%1,   Lajos%Szakó%NULL%2,   Lajos%Szakó%NULL%0,   Nóra%Vörhendi%NULL%1,   Levente%Frim%NULL%1,   Zs. Réka%Dömötör%NULL%1,   Zsolt%Szakács%NULL%1,   Szabolcs%Kiss%NULL%1,   Mária%Földi%NULL%1,   Fanni%Dembrovszky%NULL%1,   Marcell%Imrei%NULL%1,   Zsolt%Molnár%NULL%1,   Zoltán%Péterfi%NULL%1,   Hussain%Alizadeh%NULL%1,   László%Czopf%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Underlying conditions") AND ("Disease course" OR "Clinical outcomes")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Medical conditions") AND ("Severity" OR "Complications")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Pre-existing conditions") AND ("Mortality" OR "Fatality rate")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Chronic diseases") AND ("Hospitalization" OR "Admission rate")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Risk factors") AND ("Intensive care" OR "Critical care")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Underlying conditions") AND ("Clinical course" OR "Prognosis")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Medical conditions") AND ("Recovery" OR "Outcome")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Pre-existing conditions") AND ("Disease severity" OR "Progression")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Chronic diseases") AND ("Complication rate" OR "Clinical manifestations")
+("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Risk factors") AND ("Disease course" OR "Treatment response")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Comorbidity"[Mesh] OR "Comorbidities"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidity"[Mesh]
+("Hypertension"[Mesh] OR "Obesity"[Mesh] OR "Diabetes Mellitus"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Cancer"[Mesh] OR "Chronic Kidney Disease"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
+("Obesity"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
+("Global Health"[Mesh] OR "Epidemics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidity"[Mesh]
+("Cox Regression Analysis"[Mesh] OR "Nomogram Model"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Fatal Outcome"[Mesh]
+("Clinical Features"[Mesh] OR "Laboratory Findings"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Multivariate Analysis"[Mesh]
+("Kaplan-Meier Analysis"[Mesh] OR "Cox Proportional Hazards Model"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Risk Factors"[Mesh]
+("Prognosis"[Mesh] OR "High-Risk Groups"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidities"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[Bing-Cheng%Zhao%NULL%1,   Wei-Feng%Liu%NULL%1,   Shao-Hui%Lei%NULL%1,   Bo-Wei%Zhou%NULL%1,   Xiao%Yang%NULL%1,   Tong-Yi%Huang%NULL%1,   Qi-Wen%Deng%NULL%1,   Miao%Xu%NULL%1,   Cai%Li%NULL%1,   Ke-Xuan%Liu%liukexuan705@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Incidence" OR "Prevalence")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Prognostic associations" OR "Predictors")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Clinical outcomes" OR "Mortality")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Risk factors" OR "Comorbidities")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Biomarkers" OR "Troponin levels")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Cardiovascular complications" OR "Heart involvement")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Long-term outcomes" OR "Follow-up studies")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Echocardiography" OR "Cardiac imaging")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Intensive care unit" OR "ICU admission")
+("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Mechanisms" OR "Pathophysiology")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("myocardial injury"[MeSH Terms] OR "myocardial injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("hospitalized"[MeSH Terms] OR "hospitalized"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("risk stratification"[MeSH Terms] OR "risk stratification"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("admission"[MeSH Terms] OR "admission"[All Fields]) AND ("prognostic value"[MeSH Terms] OR "prognostic value"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Troponin"[Mesh] OR "Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Myocardial Injury"[Mesh]
+("Troponin"[Mesh] OR "Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
+("Hospital Admission"[Mesh] OR "Critical Illness"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Risk Factors"[Mesh]
+("Black Patients"[Mesh] OR "White Patients"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Hospitalization"[Mesh]
+("Cardiac Injury"[Mesh] OR "High-Sensitivity Troponin-I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Morbidity and Mortality"[Mesh]
+("Outcomes"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Louisiana"[Mesh]
+("Multivariate Analysis"[Mesh] OR "Logistic Regression"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Clinical Outcomes"[Mesh]
+("Cardiac Troponin I"[Mesh] OR "Clinical Outcomes"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Elevated Troponin"[Mesh]
+("Myocardial Injury"[Mesh] OR "Cardiac Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Hospitalized Patients"[Mesh]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Incidence" OR "Prevalence") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Clinical outcomes" OR "Prognosis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Biomarkers" OR "Troponin levels") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Risk factors" OR "Comorbidities") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Echocardiography" OR "Cardiac imaging") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Mechanisms" OR "Pathophysiology") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Intensive care unit" OR "ICU admission") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute myocardial injury" OR "Cardiac complications") AND ("Mortality" OR "Fatality rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Treatment strategies" OR "Interventions") 
+("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Long-term outcomes" OR "Follow-up studies")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("brain natriuretic peptide"[MeSH Terms] OR "brain natriuretic peptide"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("myocardial injury"[MeSH Terms] OR "myocardial injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("clinical status"[MeSH Terms] OR "clinical status"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("brain natriuretic peptide"[MeSH Terms] OR "brain natriuretic peptide"[All Fields]) AND ("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Acute cardiac injury"[Title/Abstract] OR "troponin"[Title/Abstract] OR "brain natriuretic peptide"[Title/Abstract]) AND "COVID-19"[Title/Abstract]
+("Severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "2019 novel coronavirus"[Title/Abstract]) AND "clinical features"[Title/Abstract]
+("2019 novel coronavirus"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "predictors of mortality"[Title/Abstract]
+("Critically ill patients"[Title/Abstract] OR "SARS-CoV-2 pneumonia"[Title/Abstract]) AND "clinical outcomes"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "intensive care unit"[Title/Abstract]
+("Troponin"[Mesh] OR "Brain Natriuretic Peptide"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
+("Troponin"[Mesh] OR "COVID-19"[Mesh]) AND "Incidence"[Mesh]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Myocardial Injury"[Mesh]
+("Troponin"[Mesh] OR "Brain Natriuretic Peptide"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Clinical Status"[Mesh]
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Cardiac Biomarkers"[Mesh]
+</t>
+  </si>
+  <si>
+    <t>[Arthur Eumann%Mesas%NULL%2,   Iván%Cavero-Redondo%NULL%2,   Celia%Álvarez-Bueno%NULL%4,   Celia%Álvarez-Bueno%NULL%0,   Marcos Aparecido%Sarriá Cabrera%NULL%2,   Selma%Maffei de Andrade%NULL%2,   Irene%Sequí-Dominguez%NULL%2,   Vicente%Martínez-Vizcaíno%NULL%2,   Kristien%Verdonck%NULL%6,   Kristien%Verdonck%NULL%0,   Kristien%Verdonck%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Sociodemographic factors" OR "Demographic characteristics") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical risk factors" OR "Comorbidities") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory parameters" OR "Biomarkers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Treatment outcomes" OR "Therapeutic interventions") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Age" OR "Elderly population") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Sex" OR "Gender differences") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Ethnicity" OR "Race") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical severity" OR "Disease progression") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Immunosuppression" OR "Immune status") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Critical care" OR "Intensive care")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("age factors"[MeSH Terms] OR "age factors"[All Fields]) OR ("sex factors"[MeSH Terms] OR "sex factors"[All Fields]) OR ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]) OR ("treatment outcome"[MeSH Terms] OR "treatment outcome"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("dyspnea"[MeSH Terms] OR "dyspnea"[All Fields]) OR ("smoking"[MeSH Terms] OR "smoking"[All Fields]) OR ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]) OR ("treatment outcome"[MeSH Terms] OR "treatment outcome"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("age factors"[MeSH Terms] OR "age factors"[All Fields]) AND ("sex factors"[MeSH Terms] OR "sex factors"[All Fields]) AND ("health status"[MeSH Terms] OR "health status"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("kidney diseases"[MeSH Terms] OR "kidney diseases"[All Fields]) OR ("hypertension"[MeSH Terms] OR "hypertension"[All Fields]) OR ("diabetes mellitus"[MeSH Terms] OR "diabetes mellitus"[All Fields]) OR ("pulmonary disease, chronic obstructive"[MeSH Terms] OR "pulmonary disease, chronic obstructive"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("albumins"[MeSH Terms] OR "albumins"[All Fields]) OR ("bilirubin"[MeSH Terms] OR "bilirubin"[All Fields]) OR ("AST"[MeSH Terms] OR "AST"[All Fields]) OR ("ALT"[MeSH Terms] OR "ALT"[All Fields]) OR ("ferritins"[MeSH Terms] OR "ferritins"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("risk factors"[Title/Abstract] OR "clinical risk factors"[Title/Abstract]) AND "mortality"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "age"[Title/Abstract] AND "sex"[Title/Abstract] AND "health conditions"[Title/Abstract] AND "mortality"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "systematic review"[Publication Type]
+("dyspnoea"[Title/Abstract] OR "smoking"[Title/Abstract] OR "comorbidities"[Title/Abstract] OR "laboratory parameters"[Title/Abstract]) AND "mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("age"[Title/Abstract] OR "sex"[Title/Abstract] OR "health conditions"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract] AND "COVID-19"[Title/Abstract]
+("clinical features"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract] AND "case-control study"[Publication Type]
+("hospitalized patients"[Title/Abstract] OR "baseline characteristics"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "observational study"[Publication Type]
+("severe COVID-19"[Title/Abstract] OR "in-hospital deaths"[Title/Abstract]) AND "risk factors"[Title/Abstract] AND "scoring system"[Title/Abstract]
+("age"[Title/Abstract] OR "diabetes mellitus"[Title/Abstract] OR "SatO2/FiO2 ratio"[Title/Abstract]) AND "inpatient death"[Title/Abstract] AND "COVID-19"[Title/Abstract]
+("older age"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract] OR "continuous renal replacement therapy"[Title/Abstract]) AND "inpatient mortality"[Title/Abstract] AND "COVID-19"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Rommy H.%Novoa%NULL%1,   Willy%Quintana%NULL%1,   Pedro%Llancarí%NULL%1,   Katherine%Urbina-Quispe%NULL%1,   Enrique%Guevara-Ríos%NULL%1,   Walter%Ventura%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Clinical characteristics" OR "Symptoms") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Perinatal outcomes" OR "Birth outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Maternal mortality" OR "Maternal complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Vertical transmission" OR "Fetal transmission") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Neonatal outcomes" OR "Infant outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Preterm birth" OR "Preterm delivery") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Fetal distress" OR "Intrauterine fetal death") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Mode of delivery" OR "Cesarean section") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Maternal morbidity" OR "Maternal hospitalization") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Antenatal care" OR "Prenatal management")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("maternal characteristics"[MeSH Terms] OR "maternal characteristics"[All Fields]) OR ("perinatal outcomes"[MeSH Terms] OR "perinatal outcomes"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("symptoms"[MeSH Terms] OR "symptoms"[All Fields]) OR ("fever"[MeSH Terms] OR "fever"[All Fields]) OR ("cough"[MeSH Terms] OR "cough"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("delivery, obstetric"[MeSH Terms] OR "delivery, obstetric"[All Fields]) OR ("premature birth"[MeSH Terms] OR "premature birth"[All Fields]) OR ("cesarean section"[MeSH Terms] OR "cesarean section"[All Fields]) OR ("vaginal delivery"[MeSH Terms] OR "vaginal delivery"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("vertical transmission"[MeSH Terms] OR "vertical transmission"[All Fields]) OR ("breast milk"[MeSH Terms] OR "breast milk"[All Fields]) OR ("amniotic fluid"[MeSH Terms] OR "amniotic fluid"[All Fields]) OR ("placenta"[MeSH Terms] OR "placenta"[All Fields]) OR ("umbilical cord blood"[MeSH Terms] OR "umbilical cord blood"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "maternal clinical characteristics"[Title/Abstract] AND "perinatal outcomes"[Title/Abstract] AND "pregnant women"[Title/Abstract]
+("SARS-CoV-2"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "infection in pregnant women"[Title/Abstract] AND "perinatal outcomes"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "asymptomatic pregnant women"[Title/Abstract] AND "symptomatic pregnant women"[Title/Abstract] AND "New York City hospitals"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "cardiomyopathy in pregnancy"[Title/Abstract] AND "viral myocarditis"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "labor and delivery screening"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "severe acute respiratory distress syndrome"[Title/Abstract] AND "pregnancy"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "uncomplicated delivery"[Title/Abstract] AND "patient with Covid-19"[Title/Abstract]
+("pregnant women"[Title/Abstract] OR "maternal-fetal surveillance"[Title/Abstract]) AND "coronavirus disease 2019"[Title/Abstract] AND "intensive care procedures"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "perinatal outcomes"[Title/Abstract] AND "echocardiogram in pregnancy"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Anne%Alnor%NULL%1,   Maria B%Sandberg%NULL%1,   Charlotte%Gils%NULL%1,   Pernille J%Vinholt%pernille.vinholt@rsyd.dk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Clinical outcomes" OR "Prognosis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory parameters" OR "Biomarkers") AND ("Disease severity" OR "Clinical progression") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory findings" OR "Laboratory abnormalities") AND ("Mortality" OR "Death") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Risk factors" OR "Predictors") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory markers" OR "Laboratory investigations") AND ("Treatment outcomes" OR "Therapeutic response") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Coagulation abnormalities" OR "Thrombotic events") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory parameters" OR "Biomarkers") AND ("Inflammatory response" OR "Cytokine storm") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Organ dysfunction" OR "Multiorgan failure") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory markers" OR "Laboratory investigations") AND ("Viral load" OR "RNA detection") 
+("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Immune response" OR "Antibody levels")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND ("disease severity"[MeSH Terms] OR "disease severity"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("severe disease"[MeSH Terms] OR "severe disease"[All Fields])) AND (("white blood cell count"[MeSH Terms] OR "white blood cell count"[All Fields]) OR ("neutrophil count"[MeSH Terms] OR "neutrophil count"[All Fields]) OR ("C-reactive protein"[MeSH Terms] OR "C-reactive protein"[All Fields]) OR ("lactate dehydrogenase"[MeSH Terms] OR "lactate dehydrogenase"[All Fields]) OR ("D-dimer"[MeSH Terms] OR "D-dimer"[All Fields]) OR ("aspartate aminotransferase"[MeSH Terms] OR "aspartate aminotransferase"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("severe disease"[MeSH Terms] OR "severe disease"[All Fields])) AND (("lymphocyte count"[MeSH Terms] OR "lymphocyte count"[All Fields]) OR ("platelet count"[MeSH Terms] OR "platelet count"[All Fields]) OR ("haemoglobin"[MeSH Terms] OR "haemoglobin"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND (("disease severity"[MeSH Terms] OR "disease severity"[All Fields]) OR ("biomarkers"[MeSH Terms] OR "biomarkers"[All Fields]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND (("mean difference"[MeSH Terms] OR "mean difference"[All Fields]) OR ("standard mean difference"[MeSH Terms] OR "standard mean difference"[All Fields]) OR ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "laboratory analysis"[Title/Abstract] AND "outcome"[Title/Abstract] AND "systematic review"[Publication Type]
+("severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "routine laboratory tests"[Title/Abstract] AND "disease severity"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "meta-analysis"[Publication Type] AND "laboratory tests"[Title/Abstract] AND "outcome"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "coagulation parameters"[Title/Abstract] AND "prognosis"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "platelet-to-lymphocyte ratio"[Title/Abstract] AND "prognosis"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "clinical course"[Title/Abstract] AND "mortality"[Title/Abstract] AND "Wuhan, China"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "abnormal coagulation parameters"[Title/Abstract] AND "novel coronavirus pneumonia"[Title/Abstract]
+("2019 novel coronavirus"[Title/Abstract] OR "2019-nCoV"[Title/Abstract]) AND "clinical features"[Title/Abstract] AND "Wuhan, China"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "viral shedding"[Title/Abstract] AND "disease severity"[Title/Abstract]
+("severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "clinical and biochemical indexes"[Title/Abstract] AND "lung injury"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Ming%Liu%NULL%1,   Ya%Gao%NULL%1,   Yuan%Yuan%NULL%1,   Kelu%Yang%NULL%1,   Shuzhen%Shi%NULL%1,   Jinhui%Tian%tianjh@lzu.edu.cn%1,   Junhua%Zhang%zjhtcm@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Efficacy" OR "Effectiveness") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Safety" OR "Adverse effects") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Clinical trials" OR "Randomized controlled trials") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Antiviral activity" OR "Viral load") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Symptom relief" OR "Clinical improvement") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Mechanisms of action" OR "Mode of action") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Combination therapy" OR "Adjunctive treatment") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Immune response" OR "Immunomodulatory effects") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Long-term outcomes" OR "Follow-up studies")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("efficacy"[MeSH Terms] OR "efficacy"[All Fields]) AND ("safety"[MeSH Terms] OR "safety"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("randomized controlled trials"[MeSH Terms] OR "randomized controlled trials"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("case control studies"[MeSH Terms] OR "case control studies"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Controversy" OR "Debate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Adults" OR "Adult population") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Lower respiratory tract infections" OR "LRTIs") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Safety" OR "Adverse effects") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Efficacy" OR "Effectiveness") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Guidelines" OR "Recommendations") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Inflammation" OR "Immunomodulation") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Mechanism of action" OR "Pharmacology") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Clinical outcomes" OR "Prognosis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Meta-analysis" OR "Systematic review")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
+(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
+(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("cardiovascular complications"[MeSH Terms] OR "cardiovascular complications"[All Fields])
+(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("respiratory complications"[MeSH Terms] OR "respiratory complications"[All Fields])
+(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "non-steroidal anti-inflammatory drugs"[Title/Abstract] AND "acute lower respiratory tract infections"[Title/Abstract] AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "respiratory complications"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "all-cause mortality"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "pleuro-pulmonary complications"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular outcomes"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract] AND "organ failure"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
+("acute bronchitis"[Title/Abstract] OR "lower respiratory tract infections"[Title/Abstract]) AND "anti-inflammatory treatment"[Title/Abstract] AND "antibiotic therapy"[Title/Abstract] AND "placebo"[Title/Abstract] AND "clinical effectiveness"[Title/Abstract]
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "respiratory complications"[Title/Abstract] AND "acute lower respiratory tract infections"[Title/Abstract]
+("acute bronchitis"[Title/Abstract] OR "lower respiratory tract infections"[Title/Abstract]) AND "anti-inflammatory treatment"[Title/Abstract] AND "antibiotic therapy"[Title/Abstract] AND "placebo"[Title/Abstract] AND "clinical trial"[Publication Type]
+("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "acute lower respiratory tract infections"[Title/Abstract] AND "meta-analysis"[Publication Type]
+</t>
+  </si>
+  <si>
+    <t>[Askin%Gülsen%askin.guelsen@uksh.de%1,   Inke R.%König%NULL%2,   Inke R.%König%NULL%0,   Uta%Jappe%NULL%1,   Daniel%Drömann%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Comorbid pulmonary diseases" OR "Respiratory comorbidities") AND ("Disease severity" OR "Clinical outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Comorbidities" OR "Underlying lung conditions") AND ("COVID-19 severity" OR "Disease progression") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary comorbidities" OR "Respiratory disorders") AND ("Mortality" OR "Hospitalization") 
+("COVID-19" OR "SARS-CoV-2") AND ("Chronic obstructive pulmonary disease" OR "COPD") AND ("COVID-19 severity" OR "Clinical outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Asthma" OR "Bronchial asthma") AND ("Disease severity" OR "Complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("Interstitial lung disease" OR "ILD") AND ("COVID-19 severity" OR "Mortality") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary hypertension" OR "PH") AND ("Clinical outcomes" OR "Prognosis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary fibrosis" OR "PF") AND ("Disease severity" OR "Long-term outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Cystic fibrosis" OR "CF") AND ("COVID-19 severity" OR "Complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary comorbidities" OR "Respiratory diseases") AND ("Intensive care" OR "Ventilator support")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("pulmonary diseases, chronic obstructive"[MeSH Terms] OR "pulmonary diseases, chronic obstructive"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("asthma"[MeSH Terms] OR "asthma"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("chronic respiratory diseases"[MeSH Terms] OR "chronic respiratory diseases"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("pulmonary diseases, chronic obstructive"[MeSH Terms] OR "pulmonary diseases, chronic obstructive"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("chronic respiratory diseases"[MeSH Terms] OR "chronic respiratory diseases"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("comorbid pulmonary diseases"[Title/Abstract] OR "chronic obstructive pulmonary diseases"[Title/Abstract] OR "COPD"[Title/Abstract] OR "asthma"[Title/Abstract] OR "chronic respiratory diseases"[Title/Abstract] OR "CRD"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("severe COVID-19"[Title/Abstract] OR "severe coronavirus disease 2019"[Title/Abstract]) AND ("comorbid COPD"[Title/Abstract] OR "comorbid chronic obstructive pulmonary diseases"[Title/Abstract] OR "comorbid asthma"[Title/Abstract] OR "comorbid chronic respiratory diseases"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("chronic obstructive pulmonary diseases"[Title/Abstract] OR "COPD"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("chronic respiratory diseases"[Title/Abstract] OR "CRD"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND "asthma"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid COPD"[Title/Abstract] OR "comorbid chronic obstructive pulmonary diseases"[Title/Abstract]) AND "systematic review"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid asthma"[Title/Abstract] OR "asthma patients"[Title/Abstract]) AND "systematic review"[Publication Type]
+("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid chronic respiratory diseases"[Title/Abstract] OR "chronic respiratory disease patients"[Title/Abstract]) AND "systematic review"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ICU mortality"[Title/Abstract] AND ("critically ill adults"[Title/Abstract] OR "severe COVID-19 patients"[Title/Abstract])
+("COVID-19 mortality"[Title/Abstract] OR "coronavirus disease 2019 mortality"[Title/Abstract]) AND ("hospitalized patients"[Title/Abstract] OR "COVID-19 hospital admissions"[Title/Abstract]) AND "Seattle"[Affiliation]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Invasive mechanical ventilation" OR "IMV") AND ("Case fatality rate" OR "Mortality rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Ventilator support" OR "Mechanical ventilation") AND ("Death rate" OR "Survival rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Intensive care unit" OR "ICU") AND ("Mortality" OR "Fatal outcomes") AND ("Mechanical ventilation" OR "Ventilator therapy") 
+("COVID-19" OR "SARS-CoV-2") AND ("Ventilated patients" OR "Ventilated COVID-19 cases") AND ("Case fatality rate" OR "Mortality rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Critical illness" OR "Severe disease") AND ("Mechanical ventilation" OR "Invasive ventilation") AND ("Fatality rate" OR "Survival rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Respiratory failure" OR "Acute respiratory distress syndrome") AND ("Mortality rate" OR "Death rate") AND ("Invasive mechanical ventilation" OR "IMV") 
+("COVID-19" OR "SARS-CoV-2") AND ("Ventilator-associated pneumonia" OR "VAP") AND ("Case fatality rate" OR "Mortality rate") AND ("Mechanical ventilation" OR "Ventilator support") 
+("COVID-19" OR "SARS-CoV-2") AND ("Intubated patients" OR "Intubation") AND ("Fatality rate" OR "Survival rate") AND ("Invasive mechanical ventilation" OR "IMV") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU mortality" OR "ICU death") AND ("Mechanical ventilation" OR "Ventilator therapy") AND ("Case fatality rate" OR "Mortality rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("Severe respiratory failure" OR "Hypoxemic respiratory failure") AND ("Death rate" OR "Survival rate") AND ("Invasive mechanical ventilation" OR "IMV")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract]) AND ("mechanical ventilation"[Title/Abstract]) AND ("meta-analysis"[Publication Type]) AND ("age factors"[MeSH Terms]) AND ("geographic locations"[MeSH Terms]) AND ("Newcastle-Ottawa Scale"[Title/Abstract]) AND ("hospital outcomes"[Title/Abstract]) AND ("reported CFR"[Title/Abstract]) AND ("outcome assessment"[Title/Abstract]))
+((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("age factors"[MeSH Terms])) AND ("geographic locations"[MeSH Terms])
+((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("meta-analysis"[Publication Type])) AND ("Newcastle-Ottawa Scale"[Title/Abstract])
+((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("hospital outcomes"[Title/Abstract])) AND ("reported CFR"[Title/Abstract])
+((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("outcome assessment"[Title/Abstract])) AND ("reported CFR"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("case fatality rates"[Title/Abstract] OR "CFR"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "case fatality rates"[Title/Abstract] AND ("age-stratified CFR"[Title/Abstract] OR "age-specific CFR"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "definitive hospital CFR"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND ("CFR by patient age"[Title/Abstract] OR "CFR in different age groups"[Title/Abstract]) AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "CFR by geographic region"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "CFR by study quality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "heterogeneity of CFR"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract] AND "mechanical ventilation support"[Title/Abstract] AND "ICU resources"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ECMO for COVID-19"[Title/Abstract] AND "mortality rate"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "hospital-related transmission"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Arthur Eumann%Mesas%NULL%0,   Iván%Cavero-Redondo%NULL%0,   Celia%Álvarez-Bueno%NULL%0,   Celia%Álvarez-Bueno%NULL%0,   Marcos Aparecido%Sarriá Cabrera%NULL%0,   Selma%Maffei de Andrade%NULL%0,   Irene%Sequí-Dominguez%NULL%0,   Vicente%Martínez-Vizcaíno%NULL%0,   Kristien%Verdonck%NULL%0,   Kristien%Verdonck%NULL%0,   Kristien%Verdonck%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Risk factors" OR "Predictors") AND ("Sociodemographic" OR "Demographic") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical risk factors" OR "Prognostic factors") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory parameters" OR "Biomarkers") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Comorbidities" OR "Underlying conditions") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Treatment outcomes" OR "Therapeutic interventions") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Age" OR "Gender" OR "Race" OR "Ethnicity") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical severity" OR "Disease progression") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory tests" OR "Blood markers" OR "Serum parameters") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Intensive care" OR "ICU admission") AND ("Ventilator support") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Antiviral treatment" OR "Immunomodulatory therapy")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
+("Risk Factors"[Mesh] OR "Risk Factors"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
+("Aged"[Mesh] OR "Aged"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
+("Sex Factors"[Mesh] OR "Sex Factors"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
+("Comorbidity"[Mesh] OR "Comorbidity"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "sociodemographic"[Title/Abstract] AND "clinical risk factors"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "age-specific mortality"[Title/Abstract] AND "sex-specific mortality"[Title/Abstract] AND "health condition-specific mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "dyspnoea"[Title/Abstract] AND "smoking"[Title/Abstract] AND "comorbidities"[Title/Abstract] AND "laboratory parameters"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "age-stratified mortality"[Title/Abstract] AND "sex-stratified mortality"[Title/Abstract] AND "health condition-stratified mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "prognostic effect"[Title/Abstract] AND "clinical conditions"[Title/Abstract] AND "mortality predictors"[Title/Abstract] AND "mean age of patients"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "predictors of COVID-19 mortality"[Title/Abstract] AND "age, sex, and health conditions"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "mortality risk factors"[Title/Abstract] AND "odds ratio"[Title/Abstract] AND "effect size"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract] AND "age-specific predictors"[Title/Abstract] AND "sex-specific predictors"[Title/Abstract] AND "health condition-specific predictors"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "clinical features of severe COVID-19"[Title/Abstract] AND "mortality predictors"[Title/Abstract] AND "prognostic effect"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "age-stratified mortality predictors"[Title/Abstract] AND "sex-stratified mortality predictors"[Title/Abstract] AND "health condition-stratified mortality predictors"[Title/Abstract] AND "meta-analysis"[Publication Type]
+</t>
+  </si>
+  <si>
+    <t>[Mili Roopchand%Sahay%NULL%1,   Shubhankar%Dubey%NULL%1,   Rakesh Kumar%Sahoo%NULL%1,   Srikanta%Kanungo%NULL%1,   Krushna Chandra%Sahoo%NULL%1,   Sanghamitra%Pati%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women" OR "Females") AND ("Health challenges" OR "Health issues") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women" OR "Females") AND ("Coping strategies" OR "Adaptation") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's health" OR "Gender-specific health") AND ("Challenges" OR "Concerns") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's mental health" OR "Psychological well-being") AND ("Coping mechanisms" OR "Resilience") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's healthcare access" OR "Healthcare disparities") AND ("Health-related challenges" OR "Obstacles") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's reproductive health" OR "Maternal health") AND ("Adverse outcomes" OR "Pregnancy concerns") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Gender roles" OR "Sociocultural factors") AND ("Health challenges" OR "Coping strategies") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's employment" OR "Workforce impact") AND ("Work-life balance" OR "Job stress") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's social support" OR "Community resources") AND ("Coping strategies" OR "Psychosocial well-being") 
+("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's empowerment" OR "Gender equality") AND ("Health challenges" OR "Resilience")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
+("Challenges"[Mesh] OR "Challenges"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
+("Psychosocial Factors"[Mesh] OR "Psychosocial Factors"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
+("Gender-Based Violence"[Mesh] OR "Gender-Based Violence"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
+("Reproductive Health"[Mesh] OR "Reproductive Health"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "health-related challenges"[Title/Abstract] AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "systematic review"[Publication Type]
+("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "health challenges"[Title/Abstract] AND "pandemic provisions"[Title/Abstract] AND "anxiety"[Title/Abstract] AND "fear"[Title/Abstract] AND "stress"[Title/Abstract]
+("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "healthcare access"[Title/Abstract] AND "information"[Title/Abstract] AND "government response"[Title/Abstract]
+("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "SDGs 5"[Title/Abstract] AND "equal rights"[Title/Abstract] AND "women empowerment"[Title/Abstract]
+("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "women engagement"[Title/Abstract] AND "pandemic-related services"[Title/Abstract]
+("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "women"[Title/Abstract] AND "public health response"[Title/Abstract] AND "epidemiological surveillance"[Title/Abstract] AND "social-ecological framework"[Title/Abstract]
+("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "contraception"[Title/Abstract] AND "post-abortion care"[Title/Abstract] AND "Honduras"[Title/Abstract] AND "Zika outbreak"[Title/Abstract]
+("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "accessing healthcare services"[Title/Abstract] AND "Colombia"[Title/Abstract] AND "Zika epidemic"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "privately practising midwives"[Title/Abstract] AND "healthcare services planning"[Title/Abstract] AND "health system integration"[Title/Abstract] AND "midwifery care"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Dan%Qiu%NULL%1,   Yilu%Li%NULL%1,   Ling%Li%NULL%1,   Jun%He%NULL%1,   Feiyun%Ouyang%NULL%1,   Shuiyuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Prevalence" OR "Incidence") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mental health" OR "Psychological impact") AND ("Post-traumatic stress disorder" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Emotional trauma") AND ("PTSD prevalence" OR "PTSD symptoms") 
+("COVID-19" OR "SARS-CoV-2") AND ("Traumatic events" OR "Stressful experiences") AND ("Post-traumatic stress disorder" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Psychiatric disorders") AND ("PTSD prevalence" OR "PTSD incidence") 
+("COVID-19" OR "SARS-CoV-2") AND ("Mental health outcomes" OR "Psychological sequelae") AND ("Post-traumatic stress disorder" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("Trauma exposure" OR "Critical illness") AND ("PTSD prevalence" OR "PTSD symptoms") 
+("COVID-19" OR "SARS-CoV-2") AND ("Healthcare workers" OR "Frontline workers") AND ("Post-traumatic stress disorder" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("Community impact" OR "Population-based study") AND ("Prevalence of PTSD" OR "PTSD rates") 
+("COVID-19" OR "SARS-CoV-2") AND ("Long-term effects" OR "Chronic PTSD") AND ("PTSD prevalence" OR "PTSD incidence")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
+("Prevalence"[Mesh] OR "Prevalence"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
+("Age Factors"[Mesh] OR "Age Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
+("Sex Factors"[Mesh] OR "Sex Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
+("Risk Factors"[Mesh] OR "Risk Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("post-traumatic stress disorder"[Title/Abstract] OR "PTSD"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "prevalence"[Title/Abstract] AND "systematic review"[Publication Type]
+("post-traumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "meta-analysis"[Publication Type] AND "risk factors"[Title/Abstract]
+("mental illness"[Title/Abstract] OR "depression"[Title/Abstract] OR "anxiety"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "hospital discharged patients"[Title/Abstract] AND "Wuhan"[Title/Abstract] AND "China"[Title/Abstract]
+("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "trauma survivors"[Title/Abstract]
+("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "early convalescence"[Title/Abstract] AND "Shenzhen"[Title/Abstract] AND "China"[Title/Abstract]
+("posttraumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "crisis mental health services"[Title/Abstract] AND "clinically stable patients"[Title/Abstract] AND "China"[Title/Abstract]
+("psychological impact"[Title/Abstract] OR "mental health impact"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract] AND "Philippines"[Title/Abstract]
+("post-traumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19 outbreak"[Title/Abstract] AND "pooled prevalence"[Title/Abstract] AND "meta-regression"[Title/Abstract]
+("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "predictor factors"[Title/Abstract] AND "early recovery stage"[Title/Abstract] AND "Shenzhen"[Title/Abstract] AND "China"[Title/Abstract]
+("posttraumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "clinically stable patients"[Title/Abstract] AND "China"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Mohammad Mostafa%Ansari Ramandi%NULL%1,   Hossein%Yarmohammadi%NULL%2,   Hossein%Yarmohammadi%NULL%0,   Somayeh%Beikmohammadi%NULL%1,   Behzad Hassan%Hosseiny Fahimi%NULL%1,   Farbod%Hatami%NULL%1,   Hossein%Beydokhti%NULL%1,   Hooman%Bakhshandeh%NULL%1,   Nasim%Naderi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular presentations" OR "Cardiac manifestations") AND ("Complications" OR "Cardiovascular complications") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular outcomes" OR "Cardiac outcomes") AND ("Comparison" OR "Differences") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular involvement" OR "Cardiac involvement") AND ("Comparative analysis" OR "Contrast") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular diseases" OR "Heart diseases") AND ("Comparative study" OR "Differential analysis") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular complications" OR "Cardiac complications") AND ("Comparison between viruses" OR "Contrasting outcomes") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular manifestations" OR "Cardiac symptoms") AND ("Comparative evaluation" OR "Comparison of outcomes") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular comorbidities" OR "Heart-related conditions") AND ("Differences in outcomes" OR "Contrasting presentations") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular complications" OR "Cardiac complications") AND ("Comparative analysis" OR "Contrast between viruses") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular sequelae" OR "Heart-related outcomes") AND ("Comparison of infections" OR "Differential outcomes") 
+("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular morbidity" OR "Cardiac morbidity") AND ("Comparative study" OR "Comparison of viruses")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("Cardiovascular Diseases"[Mesh] OR "Cardiovascular Diseases"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
+("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("SARS Virus"[Mesh] OR "SARS Virus"[All Fields]) AND ("MERS Virus"[Mesh] OR "MERS Virus"[All Fields]) AND ("Cardiovascular Diseases"[Mesh] OR "Cardiovascular Diseases"[All Fields])
+("Cardiac Injuries"[Mesh] OR "Cardiac Injuries"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
+("Thrombosis"[Mesh] OR "Thrombosis"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("SARS Virus"[Mesh] OR "SARS Virus"[All Fields])
+("Disease Progression"[Mesh] OR "Disease Progression"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("cardiovascular presentations"[Title/Abstract] OR "cardiovascular manifestations"[Title/Abstract]) AND "coronavirus"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "fatal outcomes"[Title/Abstract] AND "case series"[Publication Type]
+("clinical features"[Title/Abstract] OR "treatment"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract] AND "Chongqing"[Title/Abstract]
+("risk factors"[Title/Abstract] OR "mortality"[Title/Abstract]) AND "COVID-19 inpatients"[Title/Abstract] AND "Wuhan"[Title/Abstract] AND "retrospective cohort study"[Publication Type]
+("cardiac injury"[Title/Abstract] OR "myocardial injury"[Title/Abstract]) AND "fatal outcomes"[Title/Abstract] AND "COVID-19 patients"[Title/Abstract] AND "case series"[Publication Type]
+("viral shedding"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "duration"[Title/Abstract]
+("SARS-CoV-2"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "ACE2 expression"[Title/Abstract] AND "heart injury"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiac injury"[Title/Abstract] AND "severe cases"[Title/Abstract] AND "pericytes"[Title/Abstract]
+("coronavirus family"[Title/Abstract] OR "coronavirus"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "acute cardiac injury"[Title/Abstract] AND "arrhythmias"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "outcomes"[Title/Abstract] AND "meta-analysis"[Publication Type]
+</t>
+  </si>
+  <si>
+    <t>[Rodrigo B.%Serafim%NULL%2,   Pedro%Póvoa%NULL%1,   Vicente%Souza-Dantas%NULL%1,   André C.%Kalil%NULL%1,   Jorge I.F.%Salluh%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia" OR "Respiratory infection") AND ("ICU admission" OR "Intensive care unit") AND ("Clinical course" OR "Disease progression") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia" OR "Respiratory infection") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Severe pneumonia" OR "Critical illness") AND ("ICU management" OR "Intensive care unit management") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia severity" OR "Disease severity") AND ("ICU mortality" OR "Intensive care unit mortality") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Clinical characteristics" OR "Patient characteristics") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia complications" OR "Respiratory complications") AND ("ICU admission" OR "Intensive care unit admission") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU interventions" OR "Intensive care unit interventions") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia management" OR "Respiratory management") AND ("ICU length of stay" OR "Intensive care unit length of stay") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia mortality" OR "Respiratory mortality") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Systematic review" OR "Meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia prognosis" OR "Respiratory prognosis") AND ("ICU admission" OR "Intensive care unit admission") AND ("Systematic review" OR "Meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields])
+("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Patient Admission"[Mesh] OR "Patient Admission"[All Fields])
+("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Treatment Outcome"[Mesh] OR "Treatment Outcome"[All Fields])
+("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields])
+("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Mechanical Ventilators"[Mesh] OR "Mechanical Ventilators"[All Fields])
+("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Length of Stay"[Mesh] OR "Length of Stay"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19 pneumonia"[Title/Abstract] OR "COVID-19 infection"[Title/Abstract]) AND "ICU admission"[Title/Abstract] AND "systematic review"[Publication Type]
+("ICU mortality"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 pneumonia"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("clinical course"[Title/Abstract] OR "outcomes"[Title/Abstract]) AND "critically ill patients"[Title/Abstract] AND "COVID-19 pneumonia"[Title/Abstract] AND "systematic review"[Publication Type]
+("intensive care unit"[Title/Abstract] OR "ICU stay"[Title/Abstract]) AND "COVID-19 infection"[Title/Abstract] AND "mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("mechanical ventilation duration"[Title/Abstract] OR "ICU stay length"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("vasopressors"[Title/Abstract] OR "renal replacement therapy"[Title/Abstract]) AND "COVID-19 ICU admission"[Title/Abstract] AND "systematic review"[Publication Type]
+("ICU mortality"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "case series"[Publication Type]
+("COVID-19 pneumonia"[Title/Abstract] OR "COVID-19 infection"[Title/Abstract]) AND "ICU outcomes"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("ICU stay duration"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 pneumonia outcomes"[Title/Abstract] AND "systematic review"[Publication Type]
+("vasopressors"[Title/Abstract] OR "renal replacement therapy"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "case series"[Publication Type]
+</t>
+  </si>
+  <si>
+    <t>[Emilio%Di Maria%emilio.dimaria@unige.it%1,   Andrea%Latini%NULL%2,   Andrea%Latini%NULL%0,   Paola%Borgiani%NULL%1,   Giuseppe%Novelli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV" OR "SARS coronavirus") AND ("genetic variants" OR "polymorphisms" OR "mutations") AND ("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "host factors" OR "host variation") AND ("phenotype" OR "clinical outcomes" OR "disease severity" OR "susceptibility") AND ("SaGe-HP") 
+("SARS-CoV" OR "SARS coronavirus") AND ("host genetic variants" OR "host polymorphisms" OR "host mutations") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotype" OR "clinical outcomes" OR "disease severity" OR "susceptibility") AND ("SaGe-HP") 
+("SARS-CoV" OR "SARS coronavirus") AND ("genetic variations" OR "polymorphic variants" OR "mutation profiles") AND ("COVID-19" OR "SARS-CoV-2") AND ("host genotype" OR "host variation" OR "host genetics") AND ("phenotypic expression" OR "clinical manifestations" OR "disease course") AND ("SaGe-HP") 
+("SARS-CoV" OR "SARS coronavirus") AND ("host genome variations" OR "host genomic polymorphisms" OR "host mutation profiles") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotypic outcomes" OR "clinical characteristics" OR "disease progression") AND ("SaGe-HP") 
+("SARS-CoV" OR "SARS coronavirus") AND ("host genetic diversity" OR "host genomic variability" OR "host mutation patterns") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotypic variations" OR "clinical features" OR "disease outcomes") AND ("SaGe-HP")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2"[Mesh] OR "COVID-19"[Mesh]) AND ("Host Genetics"[Mesh] OR "Genetic Variation"[Mesh]) AND ("Phenotype"[Mesh] OR "Disease Susceptibility"[Mesh])
+("Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh] OR "COVID-19"[Mesh]) AND ("Host-Pathogen Interactions"[Mesh] OR "Host-Pathogen Interaction"[Mesh]) AND ("Genetic Predisposition to Disease"[Mesh] OR "Genetic Background"[Mesh])
+("Coronavirus Infections"[Mesh] OR "SARS Virus"[Mesh]) AND ("Host Genetics"[Mesh] OR "Host Genetic Factors"[Mesh]) AND ("Disease Progression"[Mesh] OR "Clinical Manifestations"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Human Genome"[Mesh] OR "Genetic Variation"[Mesh]) AND ("Disease Severity"[Mesh] OR "Phenotypic Variation"[Mesh])
+("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Genome-Wide Association Study"[Mesh] OR "Genetic Markers"[Mesh]) AND ("Clinical Phenotype"[Mesh] OR "Disease Outcome"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "genetic variants"[Title/Abstract] AND "host genetics"[Title/Abstract] AND "rapid review"[Publication Type]
+("COVID-19 phenotype"[Title/Abstract] OR "SARS-CoV-2 infection outcomes"[Title/Abstract]) AND "host genetic background"[Title/Abstract] AND "rapid review"[Publication Type]
+("HLA class I"[Title/Abstract] OR "HLA class II"[Title/Abstract]) AND "severe acute respiratory syndrome coronavirus infection"[Title/Abstract] AND "genetic association"[Title/Abstract]
+("ACE1 polymorphism"[Title/Abstract] OR "ACE insertion/deletion polymorphism"[Title/Abstract]) AND "SARS progression"[Title/Abstract] AND "genetic predisposition"[Title/Abstract]
+("angiotensin converting enzyme polymorphism"[Title/Abstract] OR "ACE I/D polymorphism"[Title/Abstract]) AND "adult respiratory distress syndrome"[Title/Abstract] AND "SARS coronavirus infection"[Title/Abstract]
+("OAS-1 gene polymorphism"[Title/Abstract] OR "MxA gene polymorphism"[Title/Abstract]) AND "Vietnamese SARS patients"[Title/Abstract] AND "IFN-inducible genes"[Title/Abstract]
+("mannose-binding lectin"[Title/Abstract] OR "MBL gene polymorphism"[Title/Abstract]) AND "severe acute respiratory syndrome coronavirus infection"[Title/Abstract] AND "innate immunity"[Title/Abstract]
+("serum levels of MBL"[Title/Abstract] OR "MBL deficiency"[Title/Abstract]) AND "SARS-CoV infection"[Title/Abstract] AND "host defense mechanisms"[Title/Abstract]
+("genetic susceptibility to SARS"[Title/Abstract] OR "SARS-CoV-2 genetic background"[Title/Abstract]) AND "MxA gene polymorphism"[Title/Abstract] AND "host immune response"[Title/Abstract]
+("OAS-1 gene SNP"[Title/Abstract] OR "MxA gene SNP"[Title/Abstract]) AND "SARS-CoV infection susceptibility"[Title/Abstract] AND "IFN-inducible genes polymorphism"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%2,   Mohamad Ali%Cheaito%NULL%1,   Rawad%El Hayek%NULL%1,   Marwa%Nofal%NULL%1,   Sarah%El Halabi%NULL%1,   Kundadak Ganesh%Kudva%NULL%1,   Victor%Pereira-Sanchez%NULL%1,   Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide" OR "suicidal behavior" OR "self-harm") AND ("psychological impact" OR "mental health" OR "psychiatric disorders") 
+("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide rate" OR "suicidality") AND ("psychosocial factors" OR "psychological distress" OR "psychiatric morbidity") 
+("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide risk" OR "suicidal ideation" OR "self-inflicted harm") AND ("mental health consequences" OR "psychological outcomes" OR "emotional well-being") 
+("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide prevention" OR "suicide intervention" OR "suicide mitigation") AND ("psychosocial support" OR "mental health services" OR "crisis helplines") 
+("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide epidemiology" OR "suicide patterns" OR "suicide trends") AND ("mental health impact" OR "psychological consequences" OR "emotional distress")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Suicide"[Mesh] OR "Suicidal Ideation"[Mesh]) AND ("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh])
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Suicide"[Mesh] OR "Suicidal Behavior"[Mesh])
+("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh]) AND ("Suicidal Ideation"[Mesh] OR "Suicidal Behavior"[Mesh]) AND ("Literature Review"[Publication Type] OR "Systematic Review"[Publication Type])
+("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Suicide Rate"[Mesh] OR "Suicidal Outcome"[Mesh]) AND ("Global Health"[Mesh] OR "Internationality"[Mesh])
+("Suicidal Behavior"[Mesh] OR "Suicidal Ideation"[Mesh]) AND ("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh]) AND ("Literature"[Mesh] OR "Systematic Review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19 pandemic"[Title/Abstract] OR "respiratory outbreaks"[Title/Abstract]) AND "suicidal outcomes"[Title/Abstract] AND "systematic review"[Publication Type]
+("suicide during COVID-19"[Title/Abstract] OR "COVID-19 and mental health"[Title/Abstract]) AND "major respiratory outbreaks"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19 fear"[Title/Abstract] OR "COVID-19 xenophobia"[Title/Abstract]) AND "suicide case in India"[Title/Abstract]
+("COVID-19 suicide case"[Title/Abstract] OR "suicide prevention strategies"[Title/Abstract]) AND "Bangladesh"[Title/Abstract]
+("self-harm"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "suicidal cases in India"[Title/Abstract]
+("severe acute respiratory syndrome"[Title/Abstract] OR "SARS outbreak impact"[Title/Abstract]) AND "emergency department medical resources"[Title/Abstract]
+("SARS epidemic demographic characteristics"[Title/Abstract] OR "SARS outbreak clinical characteristics"[Title/Abstract]) AND "emergency department attendances"[Title/Abstract]
+("influenza seropositivity"[Title/Abstract] OR "coronavirus seropositivity"[Title/Abstract]) AND "mood disorders history"[Title/Abstract] AND "suicide attempts"[Title/Abstract]
+("influenza A seropositivity"[Title/Abstract] OR "influenza B seropositivity"[Title/Abstract]) AND "history of recurrent mood disorders"[Title/Abstract] AND "psychotic symptoms"[Title/Abstract]
+("coronaviruses seropositivity"[Title/Abstract] OR "mood disorders association"[Title/Abstract]) AND "bipolarity"[Title/Abstract] AND "suicidal behavior"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("clinical outcomes" OR "disease severity" OR "complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("immunosuppression" OR "immunocompromised") AND ("risk factors" OR "susceptibility") 
+("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("graft rejection" OR "graft dysfunction") AND ("treatment outcomes" OR "management strategies") 
+("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("transplant recipients" OR "donor-recipient interaction") AND ("infection control" OR "prevention measures") 
+("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("long-term effects" OR "recovery" OR "quality of life")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "solid organ transplantation"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19 infection"[Title/Abstract] OR "SARS-CoV-2 infection"[Title/Abstract]) AND "solid organ transplant recipients"[Title/Abstract] AND "clinical characteristics"[Title/Abstract]
+("COVID-19 pneumonia"[Title/Abstract] OR "SARS-CoV-2 pneumonia"[Title/Abstract]) AND "kidney transplant recipient"[Title/Abstract] AND "drug interaction"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "renal transplant recipient"[Title/Abstract] AND "clinical course"[Title/Abstract]
+("SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 case report"[Title/Abstract]) AND "renai transplant recipient outcome"[Title/Abstract] AND "immunosuppressive therapy"[Title/Abstract]
+("COVID-19 clinical characteristics"[Title/Abstract] OR "SARS-CoV-2 management in transplant recipients"[Title/Abstract]) AND "solid organ transplantation recipients"[Title/Abstract] AND "clinical presentation"[Title/Abstract]
+("SARS-CoV-2 outbreak"[Title/Abstract] OR "COVID-19 pharmacological therapies"[Title/Abstract]) AND "renal transplant recipient prognosis"[Title/Abstract] AND "corticosteroid therapy"[Title/Abstract]
+("COVID-19 in solid organ transplantation"[Title/Abstract] OR "SARS-CoV-2 in transplant recipients"[Title/Abstract]) AND "patient outcome"[Title/Abstract] AND "cyclosporine monitoring"[Title/Abstract]
+("COVID-19 clinical course"[Title/Abstract] OR "SARS-CoV-2 outcome"[Title/Abstract]) AND "kidney transplant recipient therapy"[Title/Abstract] AND "tacrolimus levels"[Title/Abstract]
+("COVID-19 kidney transplant"[Title/Abstract] OR "SARS-CoV-2 renal transplant patient"[Title/Abstract]) AND "clinical management"[Title/Abstract] AND "immunosuppressive therapy impact"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Abhijit%Dutta%NULL%1,   Avinash%Sharma%NULL%1,   Rodrigo%Torres-Castro%NULL%1,   Hariom%Pachori%NULL%1,   SukhDev%Mishra%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("healthcare professionals" OR "medical personnel" OR "health workers") AND ("mental health" OR "psychological well-being" OR "emotional distress") 
+("COVID-19" OR "SARS-CoV-2") AND ("healthcare providers" OR "medical staff" OR "clinicians") AND ("mental health disorders" OR "psychiatric symptoms" OR "psychological impact") 
+("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "hospital staff" OR "nurses" OR "doctors") AND ("burnout" OR "stress" OR "anxiety" OR "depression") 
+("COVID-19" OR "SARS-CoV-2") AND ("health professionals" OR "medical personnel" OR "caregivers") AND ("psychological consequences" OR "mental health challenges" OR "psychosocial support") 
+("COVID-19" OR "SARS-CoV-2") AND ("frontline healthcare workers" OR "emergency responders" OR "pandemic response teams") AND ("occupational stress" OR "work-related stress" OR "compassion fatigue")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis"[Publication Type])
+("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Depression"[Mesh] OR "Anxiety"[Mesh] OR "Insomnia"[Mesh] OR "Stress, Psychological"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Meta-Analysis as Topic"[Mesh] OR "Systematic Review as Topic"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh])
+("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Psychological Distress"[Mesh] OR "Sleep Initiation and Maintenance Disorders"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "healthcare professionals"[Title/Abstract] AND "mental health conditions"[Title/Abstract] AND "systematic review"[Publication Type]
+("COVID-19 pandemic"[Title/Abstract] OR "SARS-CoV-2 outbreak"[Title/Abstract]) AND "psychological impact"[Title/Abstract] AND "health-care workers"[Title/Abstract] AND "meta-analysis"[Publication Type]
+("mental health problems"[Title/Abstract] OR "psychological symptoms"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "healthcare workers"[Title/Abstract] AND "prevalence"[Title/Abstract]
+("depression prevalence"[Title/Abstract] OR "anxiety prevalence"[Title/Abstract]) AND "frontline healthcare workers"[Title/Abstract] AND "COVID-19 outbreak"[Title/Abstract] AND "cross-sectional study"[Publication Type]
+("sleep disturbances"[Title/Abstract] OR "insomnia prevalence"[Title/Abstract]) AND "Chinese frontline medical workers"[Title/Abstract] AND "coronavirus disease 2019"[Title/Abstract] AND "comparison study"[Publication Type]
+("psychological status"[Title/Abstract] OR "mental health state"[Title/Abstract]) AND "medical workforce during COVID-19"[Title/Abstract] AND "cross-sectional study"[Publication Type]
+("anxiety factors"[Title/Abstract] OR "depression risk factors"[Title/Abstract]) AND "health care workers in Wuhan"[Title/Abstract] AND "COVID-19 treatment"[Title/Abstract] AND "cross-sectional study"[Publication Type]
+("sleep quality assessment"[Title/Abstract] OR "sleep disturbances in healthcare workers"[Title/Abstract]) AND "coronavirus disease 2019 outbreak"[Title/Abstract] AND "Pittsburgh Sleep Quality Index"[Title/Abstract]
+("anxiety prevalence"[Title/Abstract] OR "depression prevalence"[Title/Abstract]) AND "medical staff in Hubei Province"[Title/Abstract] AND "COVID-19 pandemic"[Title/Abstract] AND "Zung Self-rating Anxiety Scale"[Title/Abstract]
+("mental health interventions"[Title/Abstract] OR "psychological support for healthcare workers"[Title/Abstract]) AND "COVID-19 mental health consequences"[Title/Abstract] AND "systematic review"[Publication Type]
+</t>
+  </si>
+  <si>
+    <t>[Elia%Gabarron%NULL%1,   Sunday Oluwafemi%Oyeyemi%NULL%1,   Rolf%Wynn%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("misinformation" OR "false information" OR "rumors") AND ("social media" OR "online platforms") AND ("effects" OR "consequences" OR "impacts") 
+("COVID-19" OR "SARS-CoV-2") AND ("misinformation" OR "fake news" OR "disinformation") AND ("social networking" OR "online communities" OR "virtual platforms") AND ("public perception" OR "belief systems" OR "attitude change") 
+("COVID-19" OR "SARS-CoV-2") AND ("misinformation dissemination" OR "infodemic" OR "misinformation campaigns") AND ("social media platforms" OR "online information sharing") AND ("knowledge gaps" OR "misperceptions" OR "health behavior") 
+("COVID-19" OR "SARS-CoV-2") AND ("misinformation on social media" OR "spread of false information" OR "rumor propagation") AND ("public health communication" OR "health literacy" OR "risk perception") 
+("COVID-19" OR "SARS-CoV-2") AND ("infodemic management" OR "misinformation control" OR "fact-checking") AND ("social media impact" OR "information credibility" OR "media literacy")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Rapid Review"[Publication Type])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Effects"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Risk Factors"[Mesh] OR "Bias (Epidemiology)"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
+("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Qualitative Research"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("misinformation"[Title/Abstract] OR "false information"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "social media"[Title/Abstract] AND "rapid review"[Publication Type]
+("countering misinformation"[Title/Abstract] OR "combatting COVID-19 myths"[Title/Abstract]) AND "social media"[Title/Abstract] AND "health communication"[Title/Abstract] AND "empirical study"[Publication Type]
+("COVID-19 misinformation prevalence"[Title/Abstract] OR "inaccurate information on social media"[Title/Abstract]) AND "first phase of pandemic"[Title/Abstract] AND "qualitative synthesis"[Publication Type]
+("misinformation effects on public health"[Title/Abstract] OR "infodemic impact"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract] AND "social media analysis"[Title/Abstract] AND "risk of bias assessment"[Title/Abstract]
+("information dissemination in pandemic"[Title/Abstract] OR "rapid communication on COVID-19"[Title/Abstract]) AND "Twitter"[Title/Abstract] AND "public health measures"[Title/Abstract] AND "content analysis"[Publication Type]
+("opinions of medical professionals on COVID-19"[Title/Abstract] OR "healthcare workers discussions on coronavirus"[Title/Abstract]) AND "Twitter social medial platform"[Title/Abstract] AND "mixed methods analysis"[Publication Type]
+("informational problems in healthcare sector"[Title/Abstract] OR "misleading data on COVID-19"[Title/Abstract]) AND "Russian healthcare system"[Title/Abstract] AND "informational crisis"[Title/Abstract] AND "content analysis of social networks"[Title/Abstract]
+("COVID-19 misinformation impact on healthcare workers"[Title/Abstract] OR "misinformation-induced fear in medical personnel"[Title/Abstract]) AND "healthcare system sustainability"[Title/Abstract] AND "Russian medical personnel survey"[Title/Abstract]
+("rapid information dissemination during pandemic"[Title/Abstract] OR "COVID-19-related queries on WhatsApp"[Title/Abstract]) AND "oncology patients"[Title/Abstract] AND "fears and actions taken"[Title/Abstract] AND "descriptive investigation"[Publication Type]
+("patients with cancer during COVID-19 pandemic"[Title/Abstract] OR "COVID-19 queries from cancer patients"[Title/Abstract]) AND "WhatsApp messenger-based survey"[Title/Abstract] AND "treatment delays"[Title/Abstract] AND "communication with oncology units"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Ramy Mohamed%Ghazy%NULL%1,   Abdallah%Almaghraby%Dr.maghraby@gmail.com%1,   Ramy%Shaaban%NULL%1,   Ahmed%Kamal%NULL%1,   Hatem%Beshir%NULL%1,   Amr%Moursi%NULL%1,   Ahmed%Ramadan%NULL%1,   Sarah Hamed N.%Taha%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("treatment effectiveness" OR "clinical outcomes" OR "therapeutic efficacy") 
+("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("safety" OR "adverse effects" OR "toxicity") 
+("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("randomized controlled trial" OR "clinical trial" OR "observational study") 
+("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("mortality" OR "hospitalization" OR "intensive care unit admission") 
+("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("virological clearance" OR "viral load" OR "antiviral activity")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Mortality"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Hospitalization"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Mechanical Ventilation"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Adverse Effects"[Mesh]) AND ("Systematic Review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Chloroquine"[Title/Abstract] OR "Hydroxychloroquine"[Title/Abstract]) AND "COVID-19 treatment"[Title/Abstract] AND "mono-therapy"[Title/Abstract] AND "Azithromycin"[Title/Abstract] AND "Systematic Review"[Publication Type]
+("effectiveness of Chloroquine in COVID-19"[Title/Abstract] OR "Hydroxychloroquine safety in COVID-19"[Title/Abstract]) AND "meta-analysis of observational studies"[Title/Abstract]
+("mortality rate in COVID-19 patients"[Title/Abstract] OR "duration of hospital stay in coronavirus patients"[Title/Abstract]) AND "Chloroquine vs. Hydroxychloroquine"[Title/Abstract] AND "Azithromycin combination"[Title/Abstract]
+("virologic cure rate in COVID-19 patients"[Title/Abstract] OR "time to negative viral PCR in coronavirus patients"[Title/Abstract]) AND "Hydroxychloroquine vs. Standard care"[Title/Abstract] AND "meta-regression analysis"[Title/Abstract]
+("radiological progression in COVID-19 patients"[Title/Abstract] OR "drug side effects in coronavirus patients"[Title/Abstract]) AND "Hydroxychloroquine + Azithromycin group"[Title/Abstract] AND "clinical worsening in COVID-19 patients"[Title/Abstract]
+("observational comparative study of Hydroxychloroquine"[Title/Abstract] OR "effectiveness of Hydroxychloroquine in COVID-19 pneumonia"[Title/Abstract]) AND "routine care data analysis"[Title/Abstract]
+("hydroxychloroquine use in COVID-19 patients"[Title/Abstract] OR "mortality risk with hydroxychloroquine"[Title/Abstract]) AND "propensity score adjustment"[Title/Abstract] AND "mechanical ventilation in coronavirus patients"[Title/Abstract]
+("hydroxychloroquine and azithromycin in COVID-19 treatment"[Title/Abstract] OR "HCQ combination safety in COVID-19 patients"[Title/Abstract]) AND "retrospective study of electronic health records"[Title/Abstract]
+("chloroquine treatment in COVID-19 patients"[Title/Abstract] OR "effectiveness of HCQ+AZM in COVID-19 therapy"[Title/Abstract]) AND "follow-up of positive cases in LTCFs"[Title/Abstract] AND "SARS-CoV-2 PCR-based screening campaigns"[Title/Abstract]
+("elderly residents with SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 in long-term care facilities"[Title/Abstract]) AND "staff vs. residents comparison"[Title/Abstract] AND "results of PCR-based screening"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t>[Amy%Grove%NULL%1,   Osemeke%Osokogu%NULL%0,   Osemeke%Osokogu%NULL%0,   Lena%Al-Khudairy%NULL%1,   Amin%Mehrabian%NULL%0,   Mandana%Zanganeh%NULL%2,   Mandana%Zanganeh%NULL%0,   Anna%Brown%NULL%1,   Rachel%Court%NULL%0,   Sian%Taylor-Phillips%NULL%0,   Olalekan A%Uthman%NULL%2,   Olalekan A%Uthman%NULL%0,   Noel%McCarthy%NULL%2,   Noel%McCarthy%NULL%0,   Sudhesh%Kumar%NULL%1,   Aileen%Clarke%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("supplementation" OR "intake" OR "levels") AND ("susceptibility" OR "infection risk" OR "viral transmission") 
+("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("clinical outcomes" OR "disease severity" OR "morbidity" OR "mortality") 
+("COVID-19" OR "SARS-CoV-2") AND ("vitamin D supplementation" OR "vitamin D levels" OR "vitamin D status") AND ("clinical course" OR "progression" OR "complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("mortality" OR "fatality" OR "survival") AND ("outcomes" OR "prognosis" OR "survival rate") 
+("COVID-19" OR "SARS-CoV-2") AND ("vitamin D supplementation" OR "vitamin D levels" OR "vitamin D status") AND ("immune response" OR "inflammatory markers" OR "cytokine storm")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2"[Mesh] OR "COVID-19"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Clinical Course"[Mesh]) AND ("Morbidity"[Mesh]) AND ("Mortality"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Vitamin D Supplementation"[Mesh]) AND ("Systematic Review"[Publication Type])
+("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Vitamin D Levels"[Mesh]) AND ("Severity of Illness Index"[Mesh]) AND ("Meta-Analysis"[Publication Type])
+("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Randomized Controlled Trials as Topic"[Mesh]) AND ("Systematic Review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Vitamin D supplementation"[Title/Abstract] OR "serum vitamin D level"[Title/Abstract]) AND ("SARS-CoV-2 infection susceptibility"[Title/Abstract] OR "COVID-19 clinical course"[Title/Abstract])
+("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D and COVID-19 mortality"[Title/Abstract]) AND ("systematic review of vitamin D"[Title/Abstract] OR "vitamin D levels in COVID-19 patients"[Title/Abstract])
+("association between vitamin D and COVID-19 severity"[Title/Abstract] OR "vitamin D supplementation efficacy in COVID-19"[Title/Abstract]) AND ("serum vitamin D level and SARS-CoV-2 infection"[Title/Abstract])
+("vitamin D levels in patients with COVID-19"[Title/Abstract] OR "vitamin D deficiency in COVID-19 patients"[Title/Abstract]) AND ("vitamin D and COVID-19 mortality"[Title/Abstract] OR "vitamin D supplementation and COVID-19 clinical course"[Title/Abstract])
+("vitamin D and susceptibility to SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 morbidity"[Title/Abstract]) AND ("vitamin D levels in COVID-19 patients"[Title/Abstract] OR "vitamin D and COVID-19 severity"[Title/Abstract])
+("vitamin D supplementation in COVID-19"[Title/Abstract] OR "vitamin D level and COVID-19 clinical course"[Title/Abstract]) AND ("systematic review of vitamin D and SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 mortality outcomes"[Title/Abstract])
+("vitamin D and COVID-19 infection risk"[Title/Abstract] OR "vitamin D levels in COVID-19 patients"[Title/Abstract]) AND ("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D supplementation efficacy in COVID-19"[Title/Abstract])
+("association between vitamin D and SARS-CoV-2 infection"[Title/Abstract] OR "vitamin D and COVID-19 clinical course"[Title/Abstract]) AND ("vitamin D level and COVID-19 mortality"[Title/Abstract] OR "vitamin D deficiency in COVID-19 patients"[Title/Abstract])
+("vitamin D supplementation efficacy in COVID-19 patients"[Title/Abstract] OR "vitamin D and COVID-19 severity"[Title/Abstract]) AND ("systematic review of vitamin D levels and SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 mortality outcomes"[Title/Abstract])
+("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D and susceptibility to SARS-CoV-2"[Title/Abstract]) AND ("serum vitamin D level in COVID-19 patients"[Title/Abstract] OR "vitamin D supplementation and COVID-19 clinical course"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("perioperative management" OR "surgical procedures" OR "surgical care") AND ("confirmed cases" OR "suspected cases" OR "diagnosed patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("perioperative protocols" OR "surgical guidelines" OR "surgical pathways") AND ("patient safety" OR "infection control" OR "risk assessment") 
+("COVID-19" OR "SARS-CoV-2") AND ("perioperative complications" OR "surgical outcomes" OR "postoperative morbidity") AND ("COVID-19 positive" OR "COVID-19 negative" OR "COVID-19 status") 
+("COVID-19" OR "SARS-CoV-2") AND ("perioperative anesthesia" OR "anesthetic management" OR "anesthesia considerations") AND ("respiratory support" OR "ventilation strategies" OR "intubation") 
+("COVID-19" OR "SARS-CoV-2") AND ("perioperative testing" OR "preoperative screening" OR "diagnostic methods") AND ("operating room" OR "surgical environment" OR "personal protective equipment")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("clinical outcomes"[Title/Abstract] OR "mortality"[Title/Abstract] OR "neonatal outcomes"[Title/Abstract]) OR "duration of surgery"[Title/Abstract])
+("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND "personal protective equipment"[Title/Abstract]
+("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("testing"[Title/Abstract] OR "diagnosis"[Title/Abstract]) AND "non-urgent surgery"[Title/Abstract])
+("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("HCWs"[Title/Abstract] OR "healthcare workers"[Title/Abstract]) AND ("level 3 PPE"[Title/Abstract] OR "personal protective equipment"[Title/Abstract]))
+("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("long-term outcomes"[Title/Abstract] OR "follow-up"[Title/Abstract]) OR "prognosis"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("perioperative management"[Title/Abstract] OR "perioperative care"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])
+("perioperative management guidelines"[Title/Abstract] OR "perioperative clinical outcomes"[Title/Abstract]) AND ("COVID-19 rapid review"[Title/Abstract] OR "COVID-19 literature review"[Title/Abstract])
+("perioperative management in COVID-19 patients"[Title/Abstract] OR "COVID-19 impact on surgery"[Title/Abstract]) AND ("retrospective cohort analysis"[Title/Abstract] OR "COVID-19 pandemic cohort study"[Title/Abstract])
+("perioperative care recommendations in COVID-19"[Title/Abstract] OR "COVID-19 effect on surgery outcomes"[Title/Abstract]) AND ("case reports of COVID-19 patients"[Title/Abstract] OR "COVID-19 case series"[Title/Abstract])
+("perioperative management evidence-based guidelines"[Title/Abstract] OR "COVID-19 perioperative protocols"[Title/Abstract]) AND ("Caesarean section during COVID-19 pandemic"[Title/Abstract] OR "COVID-19 maternal and neonatal outcomes"[Title/Abstract])
+("regional anesthesia in COVID-19 patients"[Title/Abstract] OR "personal protective equipment use in healthcare workers"[Title/Abstract]) AND ("COVID-19 perioperative precautions"[Title/Abstract] OR "perioperative PPE for COVID-19"[Title/Abstract])
+("perioperative management of suspected COVID-19 patients"[Title/Abstract] OR "emergency surgery in COVID-19"[Title/Abstract]) AND ("perioperative hypotension in COVID-19"[Title/Abstract] OR "COVID-19 and regional anesthesia"[Title/Abstract])
+("perioperative oxygen therapy in COVID-19 patients"[Title/Abstract] OR "COVID-19 hospital stay duration"[Title/Abstract]) AND ("neonatal outcomes in COVID-19"[Title/Abstract] OR "COVID-19 neonatal testing"[Title/Abstract])
+("level 3 PPE use perioperatively in COVID-19"[Title/Abstract] OR "COVID-19 infection in healthcare workers"[Title/Abstract]) AND ("perioperative COVID-19 transmission risk"[Title/Abstract] OR "COVID-19 perioperative safety"[Title/Abstract])
+("perioperative COVID-19 testing guidelines"[Title/Abstract] OR "COVID-19 testing before surgery"[Title/Abstract]) AND ("perioperative outcomes in COVID-19 patients"[Title/Abstract] OR "perioperative management of suspected COVID-19"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Alice%Tamara%NULL%1,   Dicky L.%Tahapary%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "body mass index" OR "adiposity") AND ("prognosis" OR "clinical outcomes" OR "disease severity") 
+("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "overweight" OR "obese patients") AND ("mortality" OR "hospitalization" OR "intensive care unit admission") 
+("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "obese individuals" OR "adipose tissue") AND ("complications" OR "co-morbidities" OR "cardiovascular diseases") 
+("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "body mass index" OR "adiposity") AND ("inflammatory response" OR "cytokine storm" OR "immune dysregulation") 
+("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "overweight" OR "obese patients") AND ("respiratory failure" OR "ventilatory support" OR "oxygen requirements")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "prognosis"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND ("disease severity"[Title/Abstract] OR "medical care"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "mortality rate"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND ("treatment aggression"[Title/Abstract] OR "disease prevention"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("clinical presentation" OR "disease manifestation" OR "oral findings") 
+("COVID-19" OR "SARS-CoV-2") AND ("oral health" OR "oral hygiene" OR "oral care") AND ("complications" OR "oral complications" OR "oral sequelae") 
+("COVID-19" OR "SARS-CoV-2") AND ("oral cavity" OR "mouth" OR "oral mucosa") AND ("inflammation" OR "ulceration" OR "mucosal changes") 
+("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("diagnostic criteria" OR "clinical diagnosis" OR "differential diagnosis") 
+("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("prevalence" OR "incidence" OR "epidemiology")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("oral manifestations in COVID-19 patients"[Title/Abstract] OR "oral signs and symptoms in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of oral manifestations in COVID-19"[Title/Abstract] OR "living systematic review of oral signs in COVID-19"[Title/Abstract])
+("oral symptoms in COVID-19 patients"[Title/Abstract] OR "oral manifestations of coronavirus infection"[Title/Abstract]) AND ("PRISMA checklist for living systematic reviews"[Title/Abstract] OR "GRADE assessment of evidence in COVID-19"[Title/Abstract])
+("Gustatory impairment in COVID-19 patients"[Title/Abstract] OR "taste disorders in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of gustatory impairment in COVID-19"[Title/Abstract] OR "oral taste disorders in COVID-19 patients"[Title/Abstract])
+("dysgeusia in COVID-19 patients"[Title/Abstract] OR "hypogeusia in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of dysgeusia in COVID-19"[Title/Abstract] OR "taste disorders association with COVID-19"[Title/Abstract])
+("ageusia in COVID-19 patients"[Title/Abstract] OR "loss of taste in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of ageusia in COVID-19"[Title/Abstract] OR "taste disorders and COVID-19 severity"[Title/Abstract])
+("oral mucosal lesions in COVID-19"[Title/Abstract] OR "mucosal involvement in coronavirus disease 2019"[Title/Abstract]) AND ("clinical aspects of oral mucosal lesions in COVID-19"[Title/Abstract] OR "oral lesions and COVID-19 progression"[Title/Abstract])
+("oral mucosal lesions in mild COVID-19 cases"[Title/Abstract] OR "oral manifestations in severe COVID-19"[Title/Abstract]) AND ("oral mucosal lesions timing in COVID-19"[Title/Abstract] OR "COVID-19 and oral health complications"[Title/Abstract])
+("COVID-19 taste disorders and gender"[Title/Abstract] OR "female patients and gustatory impairment in COVID-19"[Title/Abstract]) AND ("COVID-19 taste disorders and severity"[Title/Abstract] OR "oral manifestations in COVID-19 female patients"[Title/Abstract])
+("acute onset smell disorders in COVID-19"[Title/Abstract] OR "COVID-19 and taste disorders"[Title/Abstract]) AND ("COVID-19 smell and taste disorders prevalence"[Title/Abstract] OR "self-reported smell and taste disorders in COVID-19"[Title/Abstract])
+("recovery from COVID-19 taste disorders"[Title/Abstract] OR "taste disorders duration in COVID-19"[Title/Abstract]) AND ("COVID-19 taste disorders recovery time"[Title/Abstract] OR "taste disorders assessment in COVID-19 patients"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Wenwen%Cheng%NULL%2,   Yufeng%Li%NULL%2,   Liyan%Cui%NULL%2,   Ying%Chen%NULL%2,   Sharui%Shan%NULL%2,   Duan%Xiao%NULL%2,   Xiaoyun%Chen%NULL%2,   Zhuoming%Chen%NULL%2,   Anding%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("efficacy" OR "effectiveness" OR "therapeutic outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("safety" OR "adverse events" OR "side effects") 
+("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("clinical trials" OR "randomized controlled trials" OR "systematic review") 
+("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("mortality" OR "hospitalization" OR "disease progression") 
+("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("respiratory support" OR "oxygenation" OR "ventilatory management")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND ("efficacy"[Title/Abstract] OR "effectiveness"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND ("safety"[Title/Abstract] OR "adverse events"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "clinical improvement"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "ICU hospitalization"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "mortality"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("efficacy of corticosteroid therapy in COVID-19 patients"[Title/Abstract] OR "corticosteroid treatment of SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review and meta-analysis of corticosteroids in COVID-19"[Title/Abstract] OR "corticosteroid therapy and COVID-19 outcome"[Title/Abstract])
+("corticosteroid therapy in severe COVID-19 patients"[Title/Abstract] OR "clinical improvement with corticosteroids in coronavirus disease 2019"[Title/Abstract]) AND ("mortality and corticosteroid treatment in COVID-19"[Title/Abstract] OR "ICU hospitalization and corticosteroid therapy in COVID-19"[Title/Abstract])
+("adverse events of corticosteroid therapy in COVID-19"[Title/Abstract] OR "safety of corticosteroids in coronavirus disease 2019"[Title/Abstract]) AND ("virus clearance time and corticosteroids in COVID-19"[Title/Abstract] OR "mechanical ventilation and corticosteroid treatment in COVID-19"[Title/Abstract])
+("duration of symptoms and corticosteroids in COVID-19"[Title/Abstract] OR "effectiveness of corticosteroid therapy in COVID-19 patients"[Title/Abstract]) AND ("low quality of evidence for corticosteroid treatment in COVID-19"[Title/Abstract] OR "GRADE approach for corticosteroid efficacy in COVID-19"[Title/Abstract])
+("early corticosteroid therapy in moderate to severe COVID-19 patients"[Title/Abstract] OR "methylprednisolone treatment for coronavirus disease 2019"[Title/Abstract]) AND ("clinical outcomes with early corticosteroid in COVID-19"[Title/Abstract] OR "mechanical ventilation reduction with early corticosteroids"[Title/Abstract])
+("viral clearance and corticosteroid therapy in COVID-19"[Title/Abstract] OR "effect of corticosteroids on viral RNA in SARS-CoV-2 patients"[Title/Abstract]) AND ("glucocorticoid treatment and viral clearance in COVID-19 patients"[Title/Abstract] OR "CD4+ T lymphocytes and viral RNA clearance in COVID-19"[Title/Abstract])
+("corticosteroid treatment in convalescent COVID-19 patients"[Title/Abstract] OR "viral RNA clearance in post-recovery COVID-19 patients"[Title/Abstract]) AND ("viral RNA detection in feces during COVID-19 convalescence"[Title/Abstract] OR "glucocorticoid therapy and COVID-19 treatment outcome"[Title/Abstract])
+("efficacy of low-dose corticosteroid therapy in COVID-19"[Title/Abstract] OR "viral clearance and low-dose corticosteroids in COVID-19 patients"[Title/Abstract]) AND ("host cell immunity and duration of RNA detection in COVID-19"[Title/Abstract] OR "inflammatory indicators and viral RNA clearance in COVID-19 patients"[Title/Abstract])
+("retrospective cohort study on corticosteroid therapy in COVID-19"[Title/Abstract] OR "case studies on corticosteroid treatment and COVID-19"[Title/Abstract]) AND ("clinical recovery and corticosteroid therapy in COVID-19"[Title/Abstract] OR "length of ICU hospitalization with corticosteroids in COVID-19"[Title/Abstract])
+("adjuvant corticosteroid therapy in critically ill COVID-19 patients"[Title/Abstract] OR "use of corticosteroids in severe coronavirus disease 2019"[Title/Abstract]) AND ("effect of corticosteroid treatment on COVID-19 outcome"[Title/Abstract] OR "corticosteroids and critically ill COVID-19 patients"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Wenwen%Cheng%NULL%0,   Yufeng%Li%NULL%0,   Liyan%Cui%NULL%0,   Ying%Chen%NULL%0,   Sharui%Shan%NULL%0,   Duan%Xiao%NULL%0,   Xiaoyun%Chen%NULL%0,   Zhuoming%Chen%NULL%0,   Anding%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("gustatory dysfunction" OR "ageusia" OR "hypogeusia") 
+("COVID-19" OR "SARS-CoV-2") AND ("olfactory disorders" OR "gustatory disorders" OR "smell and taste disorders") AND ("prevalence" OR "incidence" OR "epidemiology") 
+("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("clinical presentation" OR "symptoms" OR "manifestations") 
+("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("recovery" OR "duration" OR "long-term effects") 
+("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("diagnosis" OR "assessment" OR "evaluation")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "prevalence"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "clinical characteristics"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "COVID-19 severity"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("olfactory and gustatory dysfunctions in COVID-19"[Title/Abstract] OR "anosmia and ageusia in coronavirus disease 2019"[Title/Abstract]) AND ("systematic review and meta-analysis of olfactory and gustatory impairments"[Title/Abstract] OR "olfactory and gustatory symptoms in SARS-CoV-2 infection"[Title/Abstract])
+("self-reported olfactory loss in COVID-19"[Title/Abstract] OR "outpatient clinical course and anosmia in coronavirus disease 2019"[Title/Abstract]) AND ("clinical outcomes with olfactory impairment in COVID-19"[Title/Abstract] OR "predictors of hospital admission in anosmic COVID-19 patients"[Title/Abstract])
+("new-onset smell and taste disorders in COVID-19 patients"[Title/Abstract] OR "COVID-19 and influenza patients with smell and taste impairments"[Title/Abstract]) AND ("acute onset olfactory and gustatory dysfunctions"[Title/Abstract] OR "initial manifestation of anosmia and ageusia in COVID-19"[Title/Abstract])
+("hyposmia and hypogeusia for COVID-19 diagnosis"[Title/Abstract] OR "olfactory and gustatory tests as diagnostic indicators in SARS-CoV-2 infection"[Title/Abstract]) AND ("utility of anosmia and ageusia in COVID-19 detection"[Title/Abstract] OR "olfactory and gustatory symptoms as COVID-19 markers"[Title/Abstract])
+("self-reported olfactory and taste disorders in severe COVID-19 patients"[Title/Abstract] OR "olfactory impairment and clinical course in severe coronavirus disease 2019"[Title/Abstract]) AND ("respiratory failure and anosmia in COVID-19"[Title/Abstract] OR "chest radiograph findings and hospital admission in anosmic patients"[Title/Abstract])
+("prevalence and features of anosmia in COVID-19 patients"[Title/Abstract] OR "anosmia and ageusia in patients with SARS-CoV-2 infection"[Title/Abstract]) AND ("COVID-19 and olfactory impairment characteristics"[Title/Abstract] OR "duration of anosmia and gustatory dysfunction in coronavirus disease 2019"[Title/Abstract])
+("olfactory and taste disorders in COVID-19 patients: a cross-sectional study"[Title/Abstract] OR "features of anosmia in patients with SARS-CoV-2 infection"[Title/Abstract]) AND ("COVID-19 and prevalence of anosmia and ageusia"[Title/Abstract] OR "characteristics of anosmia in European COVID-19 patients"[Title/Abstract])
+("anosmia prevalence in confirmed COVID-19 cases"[Title/Abstract] OR "olfactory and gustatory symptoms in SARS-CoV-2 positive patients"[Title/Abstract]) AND ("COVID-19 and dysgeusia association"[Title/Abstract] OR "anosmia duration and recovery in coronavirus disease 2019 patients"[Title/Abstract])
+("self-reported smell and taste impairments in COVID-19 patients"[Title/Abstract] OR "COVID-19 and anosmia characteristics"[Title/Abstract]) AND ("European COVID-19 patients with anosmia and dysgeusia"[Title/Abstract] OR "pneumonia and olfactory impairment in coronavirus disease 2019"[Title/Abstract])
+("COVID-19 and smell and taste disorders"[Title/Abstract] OR "olfactory and gustatory dysfunctions in SARS-CoV-2 patients"[Title/Abstract]) AND ("duration of anosmia and taste dysfunction in COVID-19"[Title/Abstract] OR "COVID-19 and recovery from anosmia and ageusia"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Mahalul%Azam%mahalul.azam@mail.unnes.ac.id%1,   Rina%Sulistiana%NULL%1,   Martha%Ratnawati%NULL%1,   Arulita Ika%Fibriana%NULL%1,   Udin%Bahrudin%NULL%1,   Dian%Widyaningrum%NULL%1,   Syed Mohamed%Aljunid%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("recurrence" OR "reinfection" OR "relapse") AND ("prevalence" OR "incidence" OR "frequency") 
+("COVID-19" OR "SARS-CoV-2") AND ("recurrent infection" OR "persistent infection" OR "chronic infection") AND ("clinical characteristics" OR "demographic characteristics" OR "risk factors") 
+("COVID-19" OR "SARS-CoV-2") AND ("reinfection" OR "relapse" OR "recurrence") AND ("viral dynamics" OR "viral shedding" OR "viral load") 
+("COVID-19" OR "SARS-CoV-2") AND ("positive PCR after recovery" OR "positive test after clearance" OR "positive test after discharge") 
+("COVID-19" OR "SARS-CoV-2") AND ("recurrence" OR "reinfection" OR "relapse") AND ("long-term effects" OR "complications" OR "clinical outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("recurrence"[Title/Abstract] OR "reinfection"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("recurrent positivity"[Title/Abstract] OR "recurrent RNA positivity"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("incidence"[Title/Abstract] OR "prevalence"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND "factors associated with recurrent positivity"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND "risk factors for recurrent positivity"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("prevalence of positive SARS-CoV-2 recurrence in COVID-19 patients"[Title/Abstract] OR "incidence of re-detectable SARS-CoV-2 RNA after COVID-19 recovery"[Title/Abstract]) AND ("systematic review and meta-analysis of recurrent COVID-19"[Title/Abstract] OR "factors associated with SARS-CoV-2 RNA positivity after COVID-19 discharge"[Title/Abstract])
+("clinical characteristics of recovered COVID-19 patients with positive RNA test"[Title/Abstract] OR "re-detectable positive SARS-CoV-2 in discharged COVID-19 patients"[Title/Abstract]) AND ("characterization at re-admission of patients with recurrent SARS-CoV-2"[Title/Abstract] OR "potential cause of positive COVID-19 diagnoses in recovered patients"[Title/Abstract])
+("clinical course and risk factors for recurrence of positive SARS-CoV-2 RNA"[Title/Abstract] OR "recurrent SARS-CoV-2 positivity in COVID-19 patients from Wuhan"[Title/Abstract]) AND ("retrospective cohort study on re-detectable SARS-CoV-2 RNA"[Title/Abstract] OR "risk factors for SARS-CoV-2 RNA positivity after COVID-19 recovery"[Title/Abstract])
+("impact of COVID-19 nonpharmaceutical interventions on influenza"[Title/Abstract] OR "reduction of respiratory viral infections during COVID-19 pandemic"[Title/Abstract]) AND ("surveillance of influenza and respiratory viral infections in New Zealand"[Title/Abstract] OR "parallel reduction of respiratory viral infections during pandemic"[Title/Abstract])
+("predictive diagnosis of chronic obstructive pulmonary disease using serum metabolic biomarkers"[Title/Abstract] OR "serum metabolic features in COPD patients"[Title/Abstract]) AND ("biofluid-based biomarkers for COPD diagnosis"[Title/Abstract] OR "least-squares support vector machine for COPD prediction"[Title/Abstract])
+("incidence and characteristics of recurrent SARS-CoV-2 RNA in COVID-19 patients"[Title/Abstract] OR "prevalence of re-detectable SARS-CoV-2 in COVID-19 recovery"[Title/Abstract]) AND ("meta-analysis of SARS-CoV-2 RNA positivity after COVID-19"[Title/Abstract] OR "factors associated with recurrent SARS-CoV-2 in discharged patients"[Title/Abstract])
+("characterization of patients with re-detectable positive SARS-CoV-2"[Title/Abstract] OR "mild and moderate COVID-19 patients with recurrent RNA positivity"[Title/Abstract]) AND ("plasma antibody levels and symptoms in COVID-19 recovery"[Title/Abstract] OR "no severe cases among patients with re-detectable SARS-CoV-2"[Title/Abstract])
+("risk factors for SARS-CoV-2 RNA recurrence in discharged COVID-19 patients"[Title/Abstract] OR "duration from illness onset to recurrent SARS-CoV-2 RNA"[Title/Abstract]) AND ("multivariate regression analysis of COVID-19 recurrence risk factors"[Title/Abstract] OR "immune response and virus toxicity in recurrent SARS-CoV-2"[Title/Abstract])
+("potential carriers of SARS-CoV-2 after recovery from COVID-19"[Title/Abstract] OR "viral RNA detection in recovered COVID-19 patients"[Title/Abstract]) AND ("asymptomatic COVID-19 carriers post-discharge"[Title/Abstract] OR "close contacts of patients with re-detectable SARS-CoV-2"[Title/Abstract])
+("monitoring re-detectable SARS-CoV-2 RNA in convalescent COVID-19 patients"[Title/Abstract] OR "management of COVID-19 patients with recurrent RNA positivity"[Title/Abstract]) AND ("more sensitive RNA detection methods for COVID-19 patients"[Title/Abstract] OR "observational measures for patients with recurrent SARS-CoV-2"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Johanna%Signer%NULL%1,   Hulda R.%Jonsdottir%hulda-run.jonsdottir@babs.admin.ch%1,   Werner C.%Albrich%NULL%1,   Marc%Strasser%NULL%1,   Roland%Züst%NULL%1,   Sarah%Ryter%NULL%1,   Rahel%Ackermann-Gäumann%NULL%1,   Nicole%Lenz%NULL%1,   Denise%Siegrist%NULL%1,   Andreas%Suter%NULL%1,   Roland%Schoop%NULL%1,   Olivier B.%Engler%olivier.engler@babs.admin.ch%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("prevention" OR "treatment" OR "prophylaxis") 
+("respiratory tract infections" OR "common cold" OR "influenza") AND ("Echinacea" OR "Echinacea purpurea") AND ("efficacy" OR "effectiveness" OR "clinical outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("immunomodulatory effects" OR "immune response" OR "antiviral activity") 
+("Echinacea" OR "Echinacea purpurea") AND ("respiratory tract infections" OR "common cold" OR "influenza") AND ("systematic review" OR "meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("safety" OR "adverse events" OR "side effects")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Echinacea for prevention of COVID-19"[Title/Abstract] OR "Echinacea for treatment of respiratory tract infections"[Title/Abstract]) AND ("rapid review of Echinacea in humans"[Title/Abstract] OR "meta-analysis of Echinacea in respiratory infections"[Title/Abstract])
+("effectiveness of Echinacea supplementation in respiratory tract infections"[Title/Abstract] OR "efficacy and safety of Echinacea in COVID-19 prevention"[Title/Abstract]) AND ("double-blind placebo-controlled trial of Echinacea"[Title/Abstract] OR "randomized clinical trial of Echinacea for respiratory symptoms"[Title/Abstract])
+("Echinacea supplementation and duration of acute respiratory infections"[Title/Abstract] OR "Echinacea for common cold symptoms in humans"[Title/Abstract]) AND ("preventive efficacy of Echinacea in respiratory infections"[Title/Abstract] OR "Echinacea supplementation for acute respiratory tract infections"[Title/Abstract])
+("safety profile of Echinacea purpurea in respiratory infections"[Title/Abstract] OR "adverse events from Echinacea supplementation in humans"[Title/Abstract]) AND ("risk-benefit analysis of Echinacea in COVID-19"[Title/Abstract] OR "Echinacea in the prevention of common cold episodes"[Title/Abstract])
+("Echinacea for COVID-19 treatment and immune function"[Title/Abstract] OR "effects of Echinacea on immune system activation"[Title/Abstract]) AND ("cytokine storm and Echinacea supplementation in humans"[Title/Abstract] OR "Echinacea and immune molecules in respiratory infections"[Title/Abstract])
+("therapeutic effects of Echinacea in cytokine storm"[Title/Abstract] OR "Echinacea for management of cytokine storm in COVID-19"[Title/Abstract]) AND ("human trials of Echinacea on cytokine levels"[Title/Abstract] OR "Echinacea and cytokine storm in acute respiratory distress syndrome"[Title/Abstract])
+("prophylactic treatment with Echinacea purpurea in upper respiratory tract infections"[Title/Abstract] OR "Echinacea for prevention of cold episodes in humans"[Title/Abstract]) AND ("randomized clinical trial of Echinacea in respiratory symptoms"[Title/Abstract] OR "preventive efficacy of Echinacea in common cold"[Title/Abstract])
+("efficacy of Echinacea purpurea extract in common cold prevention"[Title/Abstract] OR "Echinacea for reducing cold episodes and pain-medication use"[Title/Abstract]) AND ("preventive effects of Echinacea on virally confirmed colds"[Title/Abstract] OR "Echinacea and recurrent infections in respiratory tract"[Title/Abstract])
+("risk to benefit ratio of Echinacea supplementation in humans"[Title/Abstract] OR "prophylactic intake of Echinacea in respiratory infections"[Title/Abstract]) AND ("positive effects of Echinacea on preventive therapy compliance"[Title/Abstract] OR "compliant prophylactic intake of Echinacea for 4-month period"[Title/Abstract])
+("Echinacea for prevention of respiratory symptoms during travel"[Title/Abstract] OR "efficacy of Echinacea tablets on long-haul flight-related symptoms"[Title/Abstract]) AND ("standardized Echinacea formulation and upper respiratory symptoms"[Title/Abstract] OR "Echinacea and prevention of long-haul flight respiratory issues"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[C.R.%Foster%NULL%1,   F.%Campbell%NULL%1,   L.%Blank%NULL%1,   A.J.%Cantrell%NULL%1,   M.%Black%NULL%1,   A.C.K.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("population testing" OR "mass testing" OR "community testing") AND ("implementation" OR "rollout" OR "execution") 
+("COVID-19" OR "SARS-CoV-2") AND ("population screening" OR "mass screening" OR "community screening") AND ("experiences" OR "lessons learned" OR "challenges") 
+("COVID-19" OR "SARS-CoV-2") AND ("testing strategy" OR "testing program" OR "testing campaign") AND ("implementation" OR "execution" OR "feasibility") 
+("COVID-19" OR "SARS-CoV-2") AND ("population-based testing" OR "large-scale testing" OR "surveillance testing") AND ("implementation" OR "process" OR "logistics") 
+("COVID-19" OR "SARS-CoV-2") AND ("testing initiatives" OR "testing interventions" OR "testing programs") AND ("experiences" OR "lessons learned" OR "best practices")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract])
+("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("implementation experiences"[Title/Abstract] OR "implementation challenges"[Title/Abstract]) AND ("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("drive-through testing"[Title/Abstract] OR "walk-through testing"[Title/Abstract] OR "mobile testing"[Title/Abstract] OR "home visiting testing"[Title/Abstract])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("population testing outcomes"[Title/Abstract] OR "population testing evaluation"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("population testing for SARS-CoV-2 implementation experiences"[Title/Abstract] OR "implementing drive-through, walk-through, and home visiting testing programs for COVID-19"[Title/Abstract]) AND ("scoping review of population testing for SARS-CoV-2"[Title/Abstract] OR "literature overview of COVID-19 testing modalities"[Title/Abstract])
+("early experiences of off-site COVID-19 testing centers"[Title/Abstract] OR "considerations for off-site COVID-19 testing centers"[Title/Abstract]) AND ("challenges in setting up off-site COVID-19 testing centers"[Title/Abstract] OR "guidance for healthcare organizations on off-site testing"[Title/Abstract])
+("feasibility of high-throughput SARS-CoV-2 testing"[Title/Abstract] OR "PCR and antibody testing for entire rural community"[Title/Abstract]) AND ("high-volume comprehensive testing in non-urban areas"[Title/Abstract] OR "efficiency of community-led drive-through testing"[Title/Abstract])
+("drive-through system and conventional screening for SARS-CoV-2"[Title/Abstract] OR "efficiency of drive-through screening during COVID-19 outbreak"[Title/Abstract]) AND ("comparison of DT and conventional screening systems"[Title/Abstract] OR "number of tests using drive-through system"[Title/Abstract])
+("drive-through COVID-19 testing for pediatric patients"[Title/Abstract] OR "safe and efficient model for pediatric COVID-19 testing"[Title/Abstract]) AND ("scalable drive-through testing for health care workers"[Title/Abstract] OR "efficiency of drive-through testing during pandemic"[Title/Abstract])
+("efficacy of population testing for COVID-19"[Title/Abstract] OR "experience of drive-through testing for SARS-CoV-2"[Title/Abstract]) AND ("evaluation of testing modalities for COVID-19"[Title/Abstract] OR "advantages and limitations of population testing"[Title/Abstract])
+("implementation of population testing for COVID-19"[Title/Abstract] OR "COVID-19 testing modalities and resource outcomes"[Title/Abstract]) AND ("high quality studies on population testing for SARS-CoV-2"[Title/Abstract] OR "evidence base for COVID-19 testing strategies"[Title/Abstract])
+("literature review of COVID-19 testing experiences"[Title/Abstract] OR "process indicators for SARS-CoV-2 testing modalities"[Title/Abstract]) AND ("quality outcomes of population testing for COVID-19"[Title/Abstract] OR "resource outcomes of drive-through testing"[Title/Abstract])
+("COVID-19 pandemic and drive-through testing programs"[Title/Abstract] OR "home visiting programs for SARS-CoV-2 testing"[Title/Abstract]) AND ("overview of testing modalities for COVID-19"[Title/Abstract] OR "literature on population testing implementation"[Title/Abstract])
+("grey literature search on population testing for SARS-CoV-2"[Title/Abstract] OR "indicators of process, quality, and resource outcomes in population testing"[Title/Abstract]) AND ("evaluation of different testing modalities for COVID-19"[Title/Abstract] OR "literature on implementing drive-through testing for COVID-19"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Daniel Martin%Simadibrata%NULL%1,   Anna Mira%Lubis%NULL%2,   Anna Mira%Lubis%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("admission" OR "baseline" OR "initial") AND ("mortality" OR "death" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("in-hospital" OR "hospitalized") AND ("mortality" OR "death" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("prognosis" OR "outcome") AND ("mortality" OR "death" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("risk factors" OR "predictors") AND ("mortality" OR "death" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("severity" OR "complications") AND ("mortality" OR "death" OR "fatal outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract])
+("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("admission"[Title/Abstract] OR "in-hospital"[Title/Abstract])
+("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract]) AND ("meta-analysis"[Title/Abstract])
+("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("on-admission"[Title/Abstract] OR "baseline"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract])
+("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("prognosis"[Title/Abstract] OR "predictive value"[Title/Abstract]) AND ("all-cause mortality"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("D-dimer levels on admission"[Title/Abstract] OR "on-admission D-dimer levels and COVID-19 mortality"[Title/Abstract]) AND ("systematic review of D-dimer levels and COVID-19 mortality"[Title/Abstract] OR "association between D-dimer levels and all-cause mortality in COVID-19 patients"[Title/Abstract])
+("COVID-19 in-hospital mortality risk"[Title/Abstract] OR "predictors of mortality in COVID-19 patients"[Title/Abstract]) AND ("meta-analysis of D-dimer levels and mortality in COVID-19"[Title/Abstract] OR "pooled risk ratio for all-cause mortality in COVID-19 patients"[Title/Abstract])
+("elevated D-dimer levels and COVID-19 mortality"[Title/Abstract] OR "D-dimer cutoff value for predicting COVID-19 mortality"[Title/Abstract]) AND ("retrospective cohort study on D-dimer and COVID-19 in-hospital death"[Title/Abstract] OR "predictive value of D-dimer level in COVID-19 patients"[Title/Abstract])
+("COVID-19 mortality and D-dimer levels on admission"[Title/Abstract] OR "prognostic role of on-admission D-dimer levels in COVID-19"[Title/Abstract]) AND ("D-dimer as a biomarker for COVID-19 mortality"[Title/Abstract] OR "risk factors for COVID-19 death and D-dimer level"[Title/Abstract])
+("D-dimer levels on admission and COVID-19 patient outcomes"[Title/Abstract] OR "association between D-dimer and all-cause mortality in COVID-19"[Title/Abstract]) AND ("multivariable analysis of D-dimer and COVID-19 mortality risk"[Title/Abstract] OR "Chinese and non-Chinese studies on D-dimer and COVID-19 mortality"[Title/Abstract])
+("clinical course and risk factors for COVID-19 mortality"[Title/Abstract] OR "predictors of in-hospital death in COVID-19 patients"[Title/Abstract]) AND ("detailed clinical course of COVID-19 patients"[Title/Abstract] OR "risk factors associated with COVID-19 death"[Title/Abstract])
+("D-dimer levels as predictor of COVID-19 in-hospital mortality"[Title/Abstract] OR "early and effective predictors of COVID-19 outcomes"[Title/Abstract]) AND ("prospective cohort study on predictors of COVID-19 mortality"[Title/Abstract] OR "retrospective analysis of COVID-19 patients and death events"[Title/Abstract])
+("D-dimer level cutoff for predicting COVID-19 mortality"[Title/Abstract] OR "in-hospital mortality risk in patients with elevated D-dimer"[Title/Abstract]) AND ("sensitivity and specificity of D-dimer in predicting COVID-19 death"[Title/Abstract] OR "hazard ratio for in-hospital death and D-dimer level"[Title/Abstract])
+("COVID-19 and D-dimer levels on admission"[Title/Abstract] OR "prognostic value of elevated D-dimer in COVID-19"[Title/Abstract]) AND ("early and helpful marker for COVID-19 management"[Title/Abstract] OR "early identification of poor prognosis in COVID-19 patients"[Title/Abstract])
+("d-dimer greater than 2.0 µg/mL and COVID-19 mortality"[Title/Abstract] OR "fourfold increase in D-dimer and in-hospital mortality in COVID-19"[Title/Abstract]) AND ("predictive value of D-dimer in COVID-19 patients"[Title/Abstract] OR "early marker to improve COVID-19 patient management"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Roengrudee%Patanavanich%NULL%1,   Stanton A%Glantz%Stanton.Glantz@ucsf.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("disease progression" OR "clinical outcomes" OR "severity") 
+("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("mortality" OR "hospitalization" OR "intensive care") 
+("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("complications" OR "respiratory failure" OR "organ dysfunction") 
+("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("viral load" OR "immune response" OR "inflammation") 
+("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("risk factors" OR "prognosis" OR "outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("progression"[Title/Abstract] OR "severity"[Title/Abstract] OR "outcomes"[Title/Abstract])
+("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("disease progression"[Title/Abstract] OR "disease severity"[Title/Abstract] OR "clinical outcomes"[Title/Abstract])
+("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("meta-analysis"[Title/Abstract] OR "systematic review"[Title/Abstract])
+("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("association"[Title/Abstract] OR "relationship"[Title/Abstract]) AND ("disease progression"[Title/Abstract] OR "severity"[Title/Abstract])
+("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("risk factor"[Title/Abstract] OR "predictor"[Title/Abstract]) AND ("progression"[Title/Abstract] OR "severity"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("smoking and COVID-19 disease progression"[Title/Abstract] OR "association between smoking and COVID-19 progression"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 disease progression"[Title/Abstract] OR "risk factors for COVID-19 progression in smokers"[Title/Abstract])
+("smoking behavior of COVID-19 patients"[Title/Abstract] OR "history of smoking and COVID-19 progression"[Title/Abstract]) AND ("progression of COVID-19 in smokers"[Title/Abstract] OR "relationship between smoking and COVID-19 severity"[Title/Abstract])
+("association between smoking and severe COVID-19 disease"[Title/Abstract] OR "odds of COVID-19 progression in smokers"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 severity"[Title/Abstract] OR "effect of smoking on COVID-19 outcomes"[Title/Abstract])
+("COVID-19 disease progression in smokers"[Title/Abstract] OR "risk of COVID-19 progression in smokers"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 risk"[Title/Abstract] OR "association between smoking and COVID-19 outcome"[Title/Abstract])
+("history of smoking and COVID-19 disease progression"[Title/Abstract] OR "smoking as a risk factor for COVID-19 progression"[Title/Abstract]) AND ("association between smoking and COVID-19 prognosis"[Title/Abstract] OR "meta-analysis of smoking and COVID-19 prognosis"[Title/Abstract])
+("smoking and COVID-19 outcome"[Title/Abstract] OR "risk of COVID-19 progression in smokers"[Title/Abstract]) AND ("smoking behavior and COVID-19 severity"[Title/Abstract] OR "association between smoking and COVID-19 complications"[Title/Abstract])
+("COVID-19 progression in smokers"[Title/Abstract] OR "relationship between smoking and severe COVID-19 outcomes"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 complications"[Title/Abstract] OR "smoking as a risk factor for severe COVID-19"[Title/Abstract])
+("smoking and COVID-19 prognosis"[Title/Abstract] OR "progression of COVID-19 in smokers"[Title/Abstract]) AND ("effect of smoking on COVID-19 outcomes"[Title/Abstract] OR "association between smoking and COVID-19 mortality"[Title/Abstract])
+("history of smoking and COVID-19 risk"[Title/Abstract] OR "smoking behavior and COVID-19 severity"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 mortality risk"[Title/Abstract] OR "relationship between smoking and COVID-19 mortality"[Title/Abstract])
+("COVID-19 disease progression and smoking history"[Title/Abstract] OR "association between smoking and COVID-19 patient outcomes"[Title/Abstract]) AND ("effect of smoking on COVID-19 progression"[Title/Abstract] OR "meta-analysis of smoking and COVID-19 patient outcomes"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("prevalence" OR "incidence") AND ("risk factors" OR "predictors") 
+("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "psychological well-being") AND ("anxiety" OR "depression" OR "fear") AND ("pandemic" OR "outbreak") 
+("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "psychological well-being") AND ("prevalence" OR "incidence") AND ("anxiety" OR "depression" OR "fear") 
+("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("interventions" OR "strategies" OR "interventions") 
+("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("prevention" OR "management" OR "treatment") AND ("strategies" OR "interventions")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("risk factors"[MeSH Terms] OR "risk factors"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("strategies"[Subheading] OR "strategies"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("psychological well-being"[MeSH Terms] OR "psychological well-being"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("psychological morbidity"[MeSH Terms] OR "psychological morbidity"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("prevalence of anxiety and depression during COVID-19 pandemic"[Title/Abstract] OR "psychological morbidity during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for anxiety and depression during COVID-19 pandemic"[Title/Abstract] OR "strategies to address anxiety and depression during COVID-19 pandemic"[Title/Abstract])
+("COVID-related fear prevalence during pandemic"[Title/Abstract] OR "fear of disease during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for COVID-related fear"[Title/Abstract] OR "strategies to address fear during COVID-19 pandemic"[Title/Abstract])
+("psychological well-being during COVID-19 pandemic"[Title/Abstract] OR "impact of COVID-19 on mental health"[Title/Abstract]) AND ("risk factors for psychological morbidity during COVID-19 pandemic"[Title/Abstract] OR "protective factors for mental health during COVID-19 pandemic"[Title/Abstract])
+("anxiety prevalence during COVID-19 pandemic"[Title/Abstract] OR "depression prevalence during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for anxiety and depression in specific populations"[Title/Abstract] OR "interventions for anxiety and depression during COVID-19 pandemic"[Title/Abstract])
+("COVID-19 pandemic" AND "psychological well-being" AND "PRISMA systematic review"[Title/Abstract])
+("psychological morbidity in health professionals during COVID-19 pandemic"[Title/Abstract] OR "burnout frequency in healthcare workers during COVID-19 pandemic"[Title/Abstract]) AND ("impact of COVID-19 on health professionals"[Title/Abstract] OR "strategies to address burnout in healthcare workers during COVID-19 pandemic"[Title/Abstract])
+("prevalence of psychological distress during COVID-19 pandemic"[Title/Abstract] OR "coping styles during COVID-19 pandemic"[Title/Abstract]) AND ("factors associated with psychological distress in COVID-19 pandemic"[Title/Abstract] OR "strategies to cope with mental health issues during COVID-19 pandemic"[Title/Abstract])
+("impact of COVID-19 on mental health in Chinese population"[Title/Abstract] OR "mental health consequences in China during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for mental health issues in Chinese population during COVID-19 pandemic"[Title/Abstract] OR "interventions for mental health in Chinese population during COVID-19 pandemic"[Title/Abstract])
+("comparison of burnout in frontline and usual ward healthcare workers during COVID-19 pandemic"[Title/Abstract] OR "burnout frequency in Wuhan healthcare workers during COVID-19 pandemic"[Title/Abstract]) AND ("impact of COVID-19 on frontline healthcare workers"[Title/Abstract] OR "strategies to support mental health of healthcare workers during COVID-19 pandemic"[Title/Abstract])
+("COVID-19 impact on mental health and quality of life"[Title/Abstract] OR "psychological impact of COVID-19 in Liaoning Province, China"[Title/Abstract]) AND ("factors influencing mental health in Chinese residents during COVID-19 pandemic"[Title/Abstract] OR "strategies to improve mental health in Chinese population during COVID-19 pandemic"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Amir%Mohsenpour%amir.mohsenpour@uni-bielefeld.de%1,   Kayvan%Bozorgmehr%NULL%2,   Sven%Rohleder%NULL%2,   Jan%Stratil%NULL%1,   Diogo%Costa%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2" OR "COVID-19") AND ("prevalence" OR "incidence") AND ("homeless" OR "shelter") AND ("transmission" OR "spread") 
+("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("health outcomes" OR "morbidity" OR "mortality") 
+("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("control strategies" OR "prevention measures" OR "interventions") 
+("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("transmission dynamics" OR "outbreak investigation") 
+("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("vulnerable populations" OR "health disparities")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("transmission"[MeSH Terms] OR "transmission"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health outcomes"[MeSH Terms] OR "health outcomes"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
+("non-pharmaceutical interventions"[MeSH Terms] OR "non-pharmaceutical interventions"[All Fields]) AND ("infection prevention and control"[MeSH Terms] OR "infection prevention and control"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("homeless shelters"[MeSH Terms] OR "homeless shelters"[All Fields]) AND ("outbreaks"[MeSH Terms] OR "outbreaks"[All Fields])
+("qualitative studies"[MeSH Terms] OR "qualitative studies"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields]) AND ("shelter staff"[MeSH Terms] OR "shelter staff"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("SARS-CoV-2 prevalence in homeless shelters"[Title/Abstract] OR "COVID-19 transmission in homeless shelters"[Title/Abstract]) AND ("health-related outcomes in homeless shelters during COVID-19 pandemic"[Title/Abstract] OR "non-pharmaceutical interventions in homeless shelters"[Title/Abstract])
+("effectiveness of infection prevention and control strategies in homeless shelters"[Title/Abstract] OR "COVID-19 control measures in homeless shelters"[Title/Abstract]) AND ("meta-analysis of SARS-CoV-2 prevalence in homeless shelters"[Title/Abstract] OR "systematic review of COVID-19 transmission in homeless shelters"[Title/Abstract])
+("risk factors for SARS-CoV-2 infection in homeless shelters"[Title/Abstract] OR "COVID-19 risk factors in homeless populations"[Title/Abstract]) AND ("health outcomes of COVID-19 in homeless shelters' staff"[Title/Abstract] OR "non-pharmaceutical interventions' impact in homeless shelters during COVID-19 pandemic"[Title/Abstract])
+("prevalence of SARS-CoV-2 in people experiencing homelessness"[Title/Abstract] OR "COVID-19 transmission risk in homeless shelters"[Title/Abstract]) AND ("effectiveness of infection prevention measures in shelters for homeless individuals"[Title/Abstract] OR "health-related consequences of COVID-19 in homeless populations"[Title/Abstract])
+("systematic review and meta-analysis of COVID-19 prevalence in homeless shelters"[Title/Abstract] OR "SARS-CoV-2 transmission in shelters for people experiencing homelessness"[Title/Abstract]) AND ("control strategies for COVID-19 in homeless populations"[Title/Abstract] OR "non-pharmaceutical interventions' effectiveness in homeless shelters"[Title/Abstract])
+("risk factors for COVID-19 infection in homeless individuals"[Title/Abstract] OR "prevalence of SARS-CoV-2 in shelters for homeless people"[Title/Abstract]) AND ("health outcomes of COVID-19 in homeless populations"[Title/Abstract] OR "impact of non-pharmaceutical interventions in shelters for people experiencing homelessness"[Title/Abstract])
+("COVID-19 in homeless shelters: systematic review and meta-analysis"[Title/Abstract] OR "prevalence of SARS-CoV-2 in shelters for homeless populations"[Title/Abstract]) AND ("effectiveness of infection control strategies in homeless shelters"[Title/Abstract] OR "non-pharmaceutical interventions' outcomes in homeless populations during COVID-19 pandemic"[Title/Abstract])
+("transmission of SARS-CoV-2 in homeless shelters"[Title/Abstract] OR "COVID-19 prevalence in shelters for people experiencing homelessness"[Title/Abstract]) AND ("health-related consequences of COVID-19 in homeless individuals"[Title/Abstract] OR "non-pharmaceutical interventions in shelters for homeless during COVID-19 pandemic"[Title/Abstract])
+("health outcomes of COVID-19 in homeless shelters' staff"[Title/Abstract] OR "COVID-19 risk factors in homeless individuals"[Title/Abstract]) AND ("effectiveness of infection prevention and control measures in shelters for homeless people"[Title/Abstract] OR "impact of non-pharmaceutical interventions on COVID-19 transmission in homeless shelters"[Title/Abstract])
+("meta-analysis of SARS-CoV-2 prevalence in homeless shelters during COVID-19 pandemic"[Title/Abstract] OR "systematic review of COVID-19 transmission in shelters for homeless individuals"[Title/Abstract]) AND ("health-related outcomes in homeless populations"[Title/Abstract] OR "effectiveness of infection control strategies in homeless shelters during COVID-19 pandemic"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[João Locke%Ferreira de Araújo%NULL%1,   Diego%Menezes%NULL%2,   Diego%Menezes%NULL%0,   Julia Maria%Saraiva‐Duarte%NULL%2,   Julia Maria%Saraiva‐Duarte%NULL%0,   Luciana%de Lima Ferreira%NULL%2,   Luciana%de Lima Ferreira%NULL%0,   Renato%Santana de Aguiar%NULL%2,   Renato%Santana de Aguiar%NULL%0,   Renan%Pedra de Souza%renanrps@ufmg.br%2,   Renan%Pedra de Souza%renanrps@ufmg.br%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "genetic variants") AND ("prognosis" OR "clinical outcomes" OR "severity") 
+("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "genetic variants") AND ("susceptibility" OR "risk factors") 
+("COVID-19" OR "SARS-CoV-2") AND ("host genetic polymorphisms" OR "genetic markers") AND ("prognosis" OR "clinical outcomes" OR "severity") 
+("COVID-19" OR "SARS-CoV-2") AND ("host genetic variants" OR "genetic determinants") AND ("susceptibility" OR "risk factors") 
+("COVID-19" OR "SARS-CoV-2") AND ("genetic association studies" OR "genetic profiling") AND ("prognosis" OR "clinical outcomes" OR "severity")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prognosis"[MeSH Terms] OR "prognosis"[All Fields]) AND ("susceptibility"[MeSH Terms] OR "susceptibility"[All Fields]) AND ("genetic variation"[MeSH Terms] OR "genetic variation"[All Fields])
+("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("genetic association studies"[MeSH Terms] OR "genetic association studies"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
+("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("genetic association studies"[MeSH Terms] OR "genetic association studies"[All Fields]) AND ("COVID-19 susceptibility"[All Fields])
+("3p21.31 region"[MeSH Terms] OR "3p21.31 region"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
+("ABO locus"[MeSH Terms] OR "ABO locus"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Host genetic variants associated with COVID-19 prognosis"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review and meta-analysis of COVID-19 host genetic variants"[Title/Abstract] OR "genetic association studies in COVID-19 patients"[Title/Abstract])
+("genetic factors influencing COVID-19 severity"[Title/Abstract] OR "host genetic markers for COVID-19 prognosis"[Title/Abstract]) AND ("meta-analysis of genetic association studies in COVID-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
+("genetic association studies in Covid-19 outcome"[Title/Abstract] OR "host genetic variants and Covid-19 prognosis"[Title/Abstract]) AND ("meta-analysis of genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "systematic review of genetic markers in Covid-19"[Title/Abstract])
+("host genetic factors affecting Covid-19 severity"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19"[Title/Abstract] OR "meta-analysis of Covid-19 host genetic variants"[Title/Abstract])
+("genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "host genetic markers for Covid-19 prognosis"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19 patients"[Title/Abstract] OR "meta-analysis of Covid-19 genetic variants"[Title/Abstract])
+("genetic association studies in Covid-19 susceptibility"[Title/Abstract] OR "host genetic factors affecting Covid-19 outcome"[Title/Abstract]) AND ("meta-analysis of host genetic variants in Covid-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract])
+("genetic markers for Covid-19 prognosis"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("meta-analysis of genetic association studies in Covid-19 patients"[Title/Abstract] OR "systematic review of Covid-19 host genetic variants"[Title/Abstract])
+("genetic association studies in Covid-19 outcome"[Title/Abstract] OR "host genetic factors influencing Covid-19 severity"[Title/Abstract]) AND ("systematic review of Covid-19 genetic variants"[Title/Abstract] OR "meta-analysis of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
+("genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "host genetic markers for Covid-19 prognosis"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19 outcome"[Title/Abstract] OR "meta-analysis of Covid-19 genetic variants"[Title/Abstract])
+("genetic association studies in Covid-19 susceptibility"[Title/Abstract] OR "host genetic factors affecting Covid-19 prognosis"[Title/Abstract]) AND ("meta-analysis of host genetic variants in Covid-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Yufei%Li%NULL%11,   Nathaniel%Scherer%NULL%1,   Lambert%Felix%NULL%2,   Lambert%Felix%NULL%0,   Hannah%Kuper%NULL%2,   Hannah%Kuper%NULL%0,   Jakob%Pietschnig%NULL%2,   Jakob%Pietschnig%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("prevalence" OR "incidence") AND ("depression" OR "anxiety" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health" OR "psychological well-being") AND ("depression" OR "anxiety" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("psychological distress" OR "emotional well-being") AND ("depression" OR "anxiety" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health" OR "psychological well-being") AND ("prevalence" OR "incidence") AND ("depression" OR "anxiety" OR "PTSD") 
+("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health impact" OR "psychological impact") AND ("depression" OR "anxiety" OR "PTSD")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress disorders, post-traumatic"[MeSH Terms] OR "stress disorders, post-traumatic"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress disorders, post-traumatic"[MeSH Terms] OR "stress disorders, post-traumatic"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields]) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("post-traumatic stress disorders"[MeSH Terms] OR "post-traumatic stress disorders"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("prevalence of depression in health care workers"[Title/Abstract] OR "meta-analysis of anxiety among health care workers during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review of mental health in health care professionals during COVID-19"[Title/Abstract] OR "prevalence of PTSD in health care workers during pandemic"[Title/Abstract])
+("mental health outcomes in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of depression, anxiety, and PTSD in health care professionals"[Title/Abstract]) AND ("systematic review of mental health prevalence among health care workers"[Title/Abstract] OR "prevalence of mental disorders in COVID-19 health care workers"[Title/Abstract])
+("depression, anxiety, and PTSD in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of mental health prevalence in health care professionals"[Title/Abstract]) AND ("systematic review of mental health outcomes among health care workers"[Title/Abstract] OR "prevalence of mental disorders in COVID-19 frontline workers"[Title/Abstract])
+("prevalence of depression among health care workers during COVID-19"[Title/Abstract] OR "meta-analysis of anxiety in health care professionals during pandemic"[Title/Abstract]) AND ("systematic review of PTSD in health care workers during COVID-19"[Title/Abstract] OR "mental health outcomes in COVID-19 health care workers"[Title/Abstract])
+("systematic review and meta-analysis of mental health in health care workers during COVID-19"[Title/Abstract] OR "prevalence of anxiety and PTSD in health care professionals"[Title/Abstract]) AND ("depression prevalence in COVID-19 health care workers"[Title/Abstract] OR "mental health outcomes during pandemic in health care workers"[Title/Abstract])
+("prevalence of depression and anxiety in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of PTSD in COVID-19 health care workers"[Title/Abstract]) AND ("systematic review of mental health outcomes in health care professionals"[Title/Abstract] OR "prevalence of mental disorders in frontline health care workers"[Title/Abstract])
+("prevalence of depression, anxiety, and PTSD in health care workers during COVID-19"[Title/Abstract] OR "meta-analysis of mental health outcomes in health care professionals"[Title/Abstract]) AND ("systematic review of mental health prevalence during COVID-19 pandemic"[Title/Abstract] OR "prevalence of mental disorders in health care workers"[Title/Abstract])
+("meta-analysis of depression, anxiety, and PTSD prevalence in health care workers"[Title/Abstract] OR "prevalence of mental health outcomes in health care professionals during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review of mental disorders in COVID-19 health care workers"[Title/Abstract] OR "prevalence of depression among frontline health care workers"[Title/Abstract])
+("prevalence of depression, anxiety, and PTSD in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of mental health outcomes in health care professionals"[Title/Abstract]) AND ("systematic review of mental disorders in health care workers during pandemic"[Title/Abstract] OR "prevalence of mental health conditions in COVID-19 health care workers"[Title/Abstract])
+("prevalence of depression and anxiety in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of PTSD in health care professionals during pandemic"[Title/Abstract]) AND ("systematic review of mental health outcomes in health care workers during COVID-19"[Title/Abstract] OR "prevalence of mental disorders in frontline health care workers"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[A.%Bak%NULL%1,   M.A.%Mugglestone%NULL%1,   N.V.%Ratnaraja%NULL%1,   J.A.%Wilson%NULL%1,   L.%Rivett%NULL%1,   S.M.%Stoneham%NULL%1,   J.%Bostock%NULL%1,   S.E.%Moses%NULL%1,   J.R.%Price%NULL%1,   M.%Weinbren%NULL%1,   H.P.%Loveday%NULL%1,   J.%Islam%NULL%1,   A.P.R.%Wilson%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("betacoronaviruses" OR "beta-coronaviruses") AND ("human-to-human transmission" OR "interhuman transmission") 
+("MERS-CoV" OR "Middle East respiratory syndrome coronavirus") AND ("human transmission" OR "person-to-person transmission") 
+("SARS-CoV" OR "severe acute respiratory syndrome coronavirus") AND ("human transmission" OR "person-to-person transmission") 
+("SARS-CoV-2" OR "COVID-19" OR "novel coronavirus") AND ("human transmission" OR "person-to-person transmission") 
+("betacoronaviruses" OR "beta-coronaviruses") AND ("transmission dynamics" OR "epidemiology" OR "spread")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("betacoronaviruses transmission in humans"[Title/Abstract] OR "rapid systematic review of COVID-19 transmission"[Title/Abstract]) AND ("evidence-based recommendations for infection spread prevention"[Title/Abstract] OR "healthcare settings transmission prevention strategies"[Title/Abstract])
+("COVID-19 vertical transmission in pregnant women"[Title/Abstract] OR "in utero infection risk for neonates"[Title/Abstract]) AND ("severe COVID-19 cases during pregnancy"[Title/Abstract] OR "coronavirus infection in pregnancy outcomes"[Title/Abstract])
+("cluster of COVID-19 cases associated with shopping mall"[Title/Abstract] OR "indirect virus transmission in Wenzhou, China"[Title/Abstract]) AND ("coronavirus transmission from common objects"[Title/Abstract] OR "asymptomatic carriers virus spread"[Title/Abstract])
+("family cluster of pneumonia caused by novel coronavirus"[Title/Abstract] OR "person-to-person transmission of COVID-19 in families"[Title/Abstract]) AND ("coronavirus infection in family settings"[Title/Abstract] OR "nosocomial transmission of SARS-CoV-2"[Title/Abstract])
+("clinical characteristics of COVID-19 in pregnancy"[Title/Abstract] OR "intrauterine transmission potential of COVID-19"[Title/Abstract]) AND ("laboratory-confirmed COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "vertical transmission risk in pregnant COVID-19 patients"[Title/Abstract])
+("COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "retrospective review of COVID-19 medical records"[Title/Abstract]) AND ("intrauterine vertical transmission of SARS-CoV-2"[Title/Abstract] OR "infection potential in amniotic fluid and cord blood"[Title/Abstract])
+("clinical characteristics of COVID-19 in pregnancy"[Title/Abstract] OR "intrauterine transmission potential of COVID-19"[Title/Abstract]) AND ("amniotic fluid and cord blood testing for SARS-CoV-2"[Title/Abstract] OR "breastmilk samples testing in COVID-19 patients"[Title/Abstract])
+("vertical transmission risk in COVID-19 pregnant women"[Title/Abstract] OR "absence of intrauterine COVID-19 infection"[Title/Abstract]) AND ("pneumonia outcomes in late pregnancy"[Title/Abstract] OR "Apgar score in newborns with COVID-19 mothers"[Title/Abstract])
+("non-severe COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "clinical characteristics of COVID-19 pneumonia"[Title/Abstract]) AND ("absence of intrauterine vertical transmission"[Title/Abstract] OR "vertical transmission potential in COVID-19 pregnancies"[Title/Abstract])
+("coronavirus transmission prevention strategies"[Title/Abstract] OR "COVID-19 infection control measures"[Title/Abstract]) AND ("rapid systematic review of transmission in humans"[Title/Abstract] OR "betacoronaviruses transmission literature review"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Raymond%Chang%NULL%1,   Khaled Mossad%Elhusseiny%NULL%2,   Khaled Mossad%Elhusseiny%NULL%0,   Yu-Chang%Yeh%NULL%1,   Wei-Zen%Sun%NULL%1,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("clinical epidemiology" OR "clinical characteristics") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("outcomes" OR "prognosis" OR "mortality") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("systematic review" OR "meta-analysis") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("clinical outcomes" OR "complications") 
+("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("rapid review" OR "meta-analysis")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("outcome assessment (health care)"[MeSH Terms] OR "outcome assessment (health care)"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("epidemiology"[Subheading] OR "epidemiology"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19 ICU patient characteristics"[Title/Abstract] OR "mechanical ventilation rates in COVID-19 patients"[Title/Abstract]) AND ("clinical outcomes and regional differences"[Title/Abstract] OR "ICU resource planning and mortality risk"[Title/Abstract])
+("average length of stay in COVID-19 ICU patients"[Title/Abstract] OR "ICU_ALOS estimation methods for COVID-19"[Title/Abstract]) AND ("parametric method for time-to-event data"[Title/Abstract] OR "reliable estimates for critical bed occupancy"[Title/Abstract])
+("clinical outcomes of severe COVID-19 patients"[Title/Abstract] OR "prognostic risk factors for critically ill patients"[Title/Abstract]) AND ("short-term outcomes and clinical characteristics"[Title/Abstract] OR "COVID-19 patients in Wuhan ICU"[Title/Abstract])
+("clinical course and risk factors for COVID-19 mortality"[Title/Abstract] OR "viral shedding and length of stay in ICU"[Title/Abstract]) AND ("prognostic factors and in-hospital death"[Title/Abstract] OR "ICU outcomes in adult COVID-19 patients"[Title/Abstract])
+("ICU outcomes of COVID-19 patients in Guangdong Province"[Title/Abstract] OR "clinical features and treatment of ICU-admitted patients"[Title/Abstract]) AND ("critically ill COVID-19 patients outside Wuhan"[Title/Abstract] OR "multicenter observational study in China"[Title/Abstract])
+("clinical and laboratory characteristics of COVID-19 ICU patients"[Title/Abstract] OR "comparison of NIV and IMV outcomes"[Title/Abstract]) AND ("complications and ICU treatment for COVID-19"[Title/Abstract] OR "extracorporeal membrane oxygenation in COVID-19 patients"[Title/Abstract])
+("lymphocytopenia dynamics in COVID-19 ICU patients"[Title/Abstract] OR "plasma interleukin-6 levels in NIV and IMV cases"[Title/Abstract]) AND ("acute cardiac and kidney complications in IMV cases"[Title/Abstract] OR "ICU patient characteristics and clinical features"[Title/Abstract])
+("COVID-19 ICU outcomes and platelet levels"[Title/Abstract] OR "hemoglobin and D-dimer in NIV and IMV cases"[Title/Abstract]) AND ("prothrombin time and IL-6 in critically ill patients"[Title/Abstract] OR "blood urea nitrogen and lactate dehydrogenase in ICU patients"[Title/Abstract])
+("ICU_ALOS estimates and COVID-19 forecasting models"[Title/Abstract] OR "unbiased parameterization for critical bed occupancy"[Title/Abstract]) AND ("early estimation of ICU_ALOS in pandemic"[Title/Abstract] OR "simulation study for reliable estimates"[Title/Abstract])
+("ventilation strategies for COVID-19 ICU patients"[Title/Abstract] OR "ICU resource planning and mortality risk"[Title/Abstract]) AND ("region-specific protocols for ventilatory support"[Title/Abstract] OR "treatment outcomes and region discrepancies"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Omar Ariel%Espinosa%NULL%1,   Andernice dos Santos%Zanetti%NULL%2,   Andernice dos Santos%Zanetti%NULL%0,   Ednardo Fornanciari%Antunes%NULL%2,   Ednardo Fornanciari%Antunes%NULL%0,   Fabiana Gulin%Longhi%NULL%2,   Fabiana Gulin%Longhi%NULL%0,   Tatiane Amorim%de Matos%NULL%2,   Tatiane Amorim%de Matos%NULL%0,   Paula Franciene%Battaglini%NULL%2,   Paula Franciene%Battaglini%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("fatal cases" OR "mortality") 
+("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("patient outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("risk factors" OR "associations") AND ("patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("mortality" OR "fatalities") AND ("patients")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("intensive care units" [Title/Abstract]) AND ("geographical distribution" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("mortality rate" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("intensive care unit admission" [Title/Abstract]) AND ("association" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("odds ratio of death" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("prevalence of comorbidities in COVID-19 patients"[Title/Abstract] OR "geographical distribution of comorbidities in COVID-19 patients"[Title/Abstract]) AND ("mortality rate of COVID-19"[Title/Abstract] OR "odds ratio of death and comorbidities in COVID-19"[Title/Abstract])
+("clinical course and outcomes of critically ill patients with SARS-CoV-2 pneumonia"[Title/Abstract] OR "mortality in critically ill COVID-19 patients"[Title/Abstract]) AND ("retrospective observational study in Wuhan"[Title/Abstract] OR "characteristics of severe COVID-19 cases"[Title/Abstract])
+("clinical characteristics of laboratory-confirmed SARS-CoV-2 cases in Wuhan"[Title/Abstract] OR "imaging and clinical features of COVID-19 patients"[Title/Abstract]) AND ("radiological evolution and disease severity"[Title/Abstract] OR "CT manifestations in COVID-19 pneumonia"[Title/Abstract])
+("clinical and CT features associated with severe COVID-19 pneumonia"[Title/Abstract] OR "risk factors for severe and critical COVID-19"[Title/Abstract]) AND ("radiological findings and clinical symptoms in COVID-19 patients"[Title/Abstract] OR "CT score for disease severity in COVID-19"[Title/Abstract])
+("clinical course and imaging manifestations of COVID-19 in Wenzhou city"[Title/Abstract] OR "characteristics of hospitalized COVID-19 patients in Zhejiang, China"[Title/Abstract]) AND ("outcomes and symptoms in RT-PCR confirmed COVID-19 patients"[Title/Abstract] OR "chest CT imaging in COVID-19 pneumonia"[Title/Abstract])
+("clinical descriptions and mortality of COVID-19 patients"[Title/Abstract] OR "prevalence of comorbidities in fatal COVID-19 cases"[Title/Abstract]) AND ("pooled prevalence of comorbidities in COVID-19 patients"[Title/Abstract] OR "geographical distribution of COVID-19 comorbidities"[Title/Abstract])
+("imaging characteristics and laboratory tests in SARS-CoV-2 infection"[Title/Abstract] OR "diagnosis of COVID-19 based on chest CT examination"[Title/Abstract]) AND ("chest CT features and clinical manifestations in COVID-19 patients"[Title/Abstract] OR "typical CT imaging features of COVID-19 pneumonia"[Title/Abstract])
+("CT manifestations and clinical symptoms in COVID-19 patients outside Hubei"[Title/Abstract] OR "characteristics of hospitalized COVID-19 patients in Zhejiang"[Title/Abstract]) AND ("imaging pattern and disease onset in COVID-19"[Title/Abstract] OR "normal chest findings and positive COVID-19 test"[Title/Abstract])
+("clinical characteristics of critically ill COVID-19 patients in Wuhan"[Title/Abstract] OR "retrospective single-center analysis of COVID-19 cases"[Title/Abstract]) AND ("mortality and risk factors in severe/critical COVID-19 pneumonia"[Title/Abstract] OR "CT manifestations and severity of COVID-19 pneumonia"[Title/Abstract])
+("clinical course and outcomes of COVID-19 patients with comorbidities"[Title/Abstract] OR "odds ratio of death and comorbidities in critically ill COVID-19 patients"[Title/Abstract]) AND ("prevalence and mortality of COVID-19 in ICU patients"[Title/Abstract] OR "comorbidity rates in COVID-19 ICU admissions"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t>[Anastasios%Kollias%NULL%1,   Konstantinos G.%Kyriakoulis%NULL%1,   Ioannis G.%Kyriakoulis%NULL%1,   Thomas%Nitsotolis%NULL%1,   Garyphallia%Poulakou%NULL%1,   George S.%Stergiou%NULL%1,   Konstantinos%Syrigos%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("prevalence" OR "incidence") 
+("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("risk factors" OR "associations") 
+("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("diagnosis" OR "screening") 
+("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("treatment" OR "management") 
+("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("outcomes" OR "complications")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("venous thromboembolism" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("COVID-19-related mortality" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("adjusted hazard ratio" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("continuation of therapy" [Title/Abstract]) AND ("hospitalization" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("adjusted odds ratio" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("statin therapy" OR "statin treatment" OR "statin users" OR "statin therapy and COVID-19 mortality" OR "statins and COVID-19 outcomes") AND ("systematic review and meta-analysis" OR "COVID-19 mortality meta-analysis" OR "COVID-19 mortality systematic review")
+("retrospective cohort study" OR "Iranian COVID-19 patients" OR "statins in COVID-19" OR "statin use and COVID-19 mortality") AND ("beneficial effect of statins in COVID-19" OR "statin therapy and COVID-19 morbidity" OR "statins and mechanical ventilation in COVID-19")
+("association of statin use with COVID-19 outcomes" OR "statin use and in-hospital outcomes of COVID-19" OR "statin use and severe COVID-19 infection") AND ("retrospective study" OR "association between statins and COVID-19 mortality" OR "in-hospital outcomes of COVID-19 patients on statins")
+("statins and severe COVID-19 infection" OR "statin exposure and COVID-19 mortality" OR "statin use and COVID-19 all-cause mortality") AND ("nationwide cohort study" OR "statin use and COVID-19 outcomes in Denmark" OR "statins and severe COVID-19 infection in Denmark")
+("statin use in patients with diabetes and COVID-19" OR "statin therapy and in-hospital mortality in COVID-19 patients with diabetes") AND ("observational study" OR "statin use and COVID-19 mortality in Bronx, New York" OR "statins and in-hospital mortality in COVID-19 patients with diabetes")
+("COVID-19 related mortality" OR "COVID-19 death rate" OR "mortality risk in COVID-19 patients") AND ("statin users versus non-users" OR "statin therapy effect on COVID-19 mortality" OR "meta-analysis of statin therapy and COVID-19 outcomes")
+("statins and COVID-19 severity" OR "COVID-19 severity in statin users" OR "statin therapy and severe COVID-19 cases") AND ("statin therapy during hospitalization" OR "statin use and COVID-19 prognosis" OR "continuation of statins in hospitalized COVID-19 patients")
+("COVID-19 mortality risk factors" OR "factors associated with COVID-19 death" OR "predictors of mortality in COVID-19") AND ("adjusted hazard ratios for mortality" OR "odds ratios for COVID-19 mortality" OR "statins and COVID-19 death risk")
+("COVID-19 comorbidities and mortality" OR "impact of comorbidities on COVID-19 outcomes" OR "comorbidity-associated mortality in COVID-19") AND ("meta-regression analysis of COVID-19 mortality" OR "association of anthropometric characteristics with COVID-19 mortality" OR "comorbidities and COVID-19 death risk")
+("benefits of statin therapy in COVID-19 patients" OR "effect of statins on COVID-19 prognosis" OR "meta-analysis of statins and COVID-19 mortality") AND ("retrospective evidence of statin therapy in COVID-19" OR "statins and survival in hospitalized COVID-19 patients" OR "statin therapy and mortality risk in COVID-19")
+</t>
+  </si>
+  <si>
+    <t>[Jiawen%Deng%NULL%2,   Fangwen%Zhou%NULL%3,   Wenteng%Hou%NULL%3,   Zachary%Silver%NULL%2,   Chi Yi%Wong%NULL%3,   Oswin%Chang%NULL%2,   Anastasia%Drakos%NULL%1,   Qi Kang%Zuo%NULL%2,   Emma%Huang%NULL%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") 
+("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("anxiety" OR "depression") 
+("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("stress" OR "psychological distress") 
+("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") AND ("pandemic") 
+("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") AND ("impact" OR "effects")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("mental health disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("university students" [Title/Abstract]) AND ("college students" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("depressive symptoms" [Title/Abstract]) AND ("anxiety symptoms" [Title/Abstract]) AND ("sleep disturbances" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("mental health" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("mental illness" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("university students" [Title/Abstract]) AND ("college students" [Title/Abstract]) AND ("mental health screening" [Title/Abstract]) AND ("intervention" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("mental health disorders" OR "depressive symptoms" OR "anxiety symptoms" OR "sleep disturbances") AND ("university students" OR "college students" OR "higher education students" OR "students during COVID-19 pandemic") AND ("systematic review and meta-analysis" OR "prevalence of mental health disorders in students" OR "mental health in higher education during COVID-19")
+("mood states" OR "physical exercise" OR "nutrition choices" OR "nutritional habits") AND ("Italian college students" OR "students during COVID-19 home isolation" OR "impact of exercise on nutrition during lockdown") AND ("longitudinal observational study" OR "dietary habits and psychological states during COVID-19" OR "mood, exercise, and nutrition in college students")
+("perceived stress" OR "mental health problems" OR "students during COVID-19 pandemic" OR "psychological impact of COVID-19 on students") AND ("prevalence of perceived stress in students" OR "predictors of stress levels in students" OR "mental health in French students during COVID-19")
+("depressive symptoms" OR "mental health status" OR "change in living rhythms" OR "college students in China") AND ("prevalence of depressive symptoms in Chinese college students" OR "impact of COVID-19 on mental health of students" OR "large-scale survey on mental health in students during pandemic")
+("psychosocial correlates" OR "mental health outcomes" OR "Chinese college students" OR "COVID-19 pandemic") AND ("prevalence of mental health outcomes in Chinese students" OR "risk factors for poor mental health in students during COVID-19" OR "cross-sectional survey on mental health in university students")
+("anxiety symptoms" OR "French university students" OR "anxiety in COVID-19 affected area" OR "PIMS-CoV 19 study") AND ("higher prevalence of anxiety in French students during COVID-19" OR "anxiety levels in students in severely affected region" OR "psychological impact of COVID-19 on French students")
+("clinically-relevant posttraumatic stress disorder symptoms" OR "anxiety symptoms" OR "depressive symptoms" OR "posttraumatic growth" OR "Chinese university students" OR "COVID-19 pandemic") AND ("prevalence of mental health symptoms in Chinese students during COVID-19" OR "risk factors for poor mental health in Chinese university students" OR "nation-wide survey on mental health in Chinese students")
+("prevalence of depressive symptoms in college students" OR "impact of COVID-19 on mental health in college students" OR "prevalence of anxiety symptoms in students during pandemic") AND ("large-scale survey on mental health in Chinese students" OR "changes in mental health status during COVID-19 in students" OR "depressive symptoms and COVID-19 pandemic in college students")
+("prevalence of mental health disorders in college students" OR "sleep disturbances in university students during COVID-19" OR "impact of COVID-19 on mental health in higher education") AND ("systematic review on mental health disorders in students" OR "meta-analysis on mental health in college students during pandemic" OR "COVID-19 impact on sleep quality in university students")
+("psychological impact of COVID-19 on college students" OR "mental health status during pandemic" OR "depressive symptoms in higher education students" OR "anxiety symptoms in students during COVID-19") AND ("prevalence of mental health disorders in university students" OR "COVID-19 pandemic and mental health in college students" OR "systematic review on mental health in higher education during pandemic")
+</t>
+  </si>
+  <si>
+    <t>[Jiawen%Deng%dengj35@mcmaster.ca%0,   Fangwen%Zhou%NULL%0,   Fangwen%Zhou%NULL%0,   Wenteng%Hou%NULL%0,   Wenteng%Hou%NULL%0,   Zachary%Silver%NULL%0,   Chi Yi%Wong%NULL%0,   Chi Yi%Wong%NULL%0,   Oswin%Chang%NULL%0,   Emma%Huang%NULL%0,   Emma%Huang%NULL%0,   Qi Kang%Zuo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("prevalence" OR "incidence") AND ("patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("mental health" OR "psychological symptoms") AND ("patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("psychiatric comorbidities") AND ("patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("mental health outcomes") AND ("patients") 
+("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("prevalence" OR "incidence") AND ("psychological impact")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("psychiatric disorders" [Title/Abstract]) AND ("mental health" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("mental health disorders" [Title/Abstract]) AND ("depressive disorder" [Title/Abstract]) AND ("anxiety disorders" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("mental disorders" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("psychological disorders" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disturbances" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("depression" OR "anxiety" OR "sleep disorder" OR "mental health disorders") AND ("COVID-19 patients" OR "patients with confirmed COVID-19" OR "patients during disease outbreak") AND ("systematic review and meta-analysis" OR "prevalence of mental health disorders in COVID-19 patients" OR "psychiatric disorders in COVID-19")
+("psychological morbidities" OR "fatigue" OR "mental health" OR "psychometric questionnaires") AND ("patients with confirmed COVID-19 infection" OR "COVID-19 patients with psychological symptoms" OR "biopsychosocial risk factors in COVID-19 patients") AND ("prevalence and risk factors for psychological morbidities in COVID-19 patients" OR "psychological impact of COVID-19 on patients" OR "mental health status in patients during COVID-19")
+("detailed neurological manifestations" OR "neurological symptoms" OR "neurological findings" OR "neurological examination") AND ("patients with COVID-19" OR "COVID-19 inpatients" OR "neurological symptoms in COVID-19 patients") AND ("prospective clinical study on neurological manifestations in COVID-19 patients" OR "neurological complications of COVID-19" OR "neurological examination in patients with COVID-19")
+("headache" OR "dizziness" OR "impaired consciousness" OR "smell and gustation impairments" OR "cerebrovascular disorders" OR "epileptic seizures" OR "myalgia") AND ("neurological symptoms in COVID-19 patients" OR "neurological findings in patients with COVID-19" OR "neurological manifestations of SARS-CoV2 infection") AND ("prevalence of neurological symptoms in COVID-19 patients" OR "subjective neurological symptoms in SARS-CoV2 infection" OR "headache and COVID-19")
+("psychological distress" OR "quarantined patients" OR "COVID-19 patients" OR "immediate psychological symptoms") AND ("association with peripheral inflammation" OR "mixed-method study on psychological distress in COVID-19 patients" OR "psychological impact of quarantine on COVID-19 patients") AND ("depression and anxiety symptoms in quarantined COVID-19 patients" OR "psychological effects of COVID-19 quarantine" OR "mental health in COVID-19 quarantine")
+("psychological morbidities" OR "mental health disorders" OR "fatigue" OR "COVID-19 patients") AND ("prevalence of mental health disorders in patients with confirmed COVID-19" OR "psychiatric symptoms in COVID-19 patients" OR "psychological impact of COVID-19 on patients") AND ("systematic review and meta-analysis on mental health in COVID-19 patients" OR "prevalence of depression and anxiety in COVID-19 patients" OR "sleep disturbances in patients with COVID-19")
+("neurological symptoms" OR "psychological morbidities" OR "COVID-19 patients") AND ("prevalence of neurological symptoms in patients with confirmed COVID-19" OR "psychiatric disorders in COVID-19 patients" OR "mental health status in COVID-19 patients") AND ("systematic review and meta-analysis on neurological manifestations in COVID-19 patients" OR "neurological impact of COVID-19 on patients" OR "neurological disorders in patients with COVID-19")
+("COVID-19 pandemic" OR "mental health status" OR "psychological morbidities" OR "patients with COVID-19") AND ("prevalence of depression and anxiety in COVID-19 patients" OR "psychiatric symptoms in patients with confirmed COVID-19" OR "psychological impact of COVID-19 on mental health") AND ("systematic review and meta-analysis on mental health in COVID-19 pandemic" OR "prevalence of sleep disorders in COVID-19 patients" OR "psychological implications of COVID-19 infections")
+("psychological impact" OR "mental health status" OR "COVID-19 patients") AND ("prevalence of psychological morbidities in patients with confirmed COVID-19" OR "psychiatric symptoms in COVID-19 patients" OR "psychological well-being during COVID-19 pandemic") AND ("systematic review and meta-analysis on psychological symptoms in COVID-19 patients" OR "prevalence of depression and anxiety in COVID-19 patients" OR "sleep disturbances and COVID-19")
+("prevalence of depression" OR "anxiety" OR "sleep disturbances" OR "mental health disorders") AND ("COVID-19 patients" OR "patients with confirmed COVID-19 infection" OR "psychological impact of COVID-19 on patients") AND ("systematic review and meta-analysis on mental health in COVID-19 patients" OR "psychiatric disorders in patients during disease outbreak" OR "prevalence of mental health disorders in COVID-19 pandemic")
+</t>
+  </si>
+  <si>
+    <t>[David Franciole Oliveira%Silva%NULL%1,   Severina Carla Vieira Cunha%Lima%NULL%2,   Severina Carla Vieira Cunha%Lima%NULL%0,   Karine Cavalcanti Mauricio%Sena-Evangelista%NULL%1,   Dirce Maria%Marchioni%NULL%1,   Ricardo Ney%Cobucci%NULL%2,   Ricardo Ney%Cobucci%NULL%0,   Fábia Barbosa%de Andrade%NULL%2,   Fábia Barbosa%de Andrade%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutritional screening tools" OR "nutritional assessment tools") 
+("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition screening" OR "malnutrition screening") AND ("tools" OR "instruments") 
+("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition assessment" OR "malnutrition assessment") AND ("tools" OR "instruments") 
+("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutritional screening tools" OR "nutritional assessment tools") AND ("validation" OR "reliability") 
+("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition screening" OR "malnutrition screening") AND ("tools" OR "instruments") AND ("sensitivity" OR "specificity")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("nutritional screening" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("older patients" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("nutritional assessment" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("measurement properties" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("malnutrition" [Title/Abstract]) AND ("nutritional risk screening" [Title/Abstract]) AND ("older individuals" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("nutritional risk assessment" [Title/Abstract]) AND ("nutrition screening tools" [Title/Abstract]) AND ("older patients" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("nutritional screening tools" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("narrative synthesis" [Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("nutritional screening tools" OR "nutritional risk assessment" OR "malnutrition risk" OR "COVID-19 patients") AND ("older patients with COVID-19" OR "elderly patients with COVID-19" OR "nutrition assessment in COVID-19" OR "malnutrition in older adults with COVID-19") AND ("systematic review with narrative synthesis on nutritional screening tools" OR "measurement properties of nutritional screening tools in COVID-19" OR "nutritional risk assessment in older adults with COVID-19")
+("mNUTRIC score" OR "modified Nutrition Risk in the Critically ill score" OR "critical illness in COVID-19" OR "prognosis prediction in critically ill COVID-19 patients") AND ("nutritional risk assessment" OR "mortality prediction in COVID-19 patients" OR "critical care nutrition in COVID-19" OR "nutrition support in ICU COVID-19 patients") AND ("prospective study on mNUTRIC score in critically ill COVID-19 patients" OR "nutritional risk assessment in ICU COVID-19 patients" OR "prognostic value of mNUTRIC score in COVID-19 ICU patients")
+("Mini Nutritional Assessment" OR "MNA" OR "nutritional status assessment" OR "malnutrition risk assessment") AND ("elderly patients with COVID-19" OR "older patients with COVID-19" OR "nutrition assessment in COVID-19" OR "MNA in geriatric COVID-19 patients") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition prevalence in older adults with COVID-19" OR "related factors of malnutrition in COVID-19 patients")
+("malnutrition" OR "malnutrition risk" OR "nutritional status" OR "elderly patients with COVID-19") AND ("Mini Nutritional Assessment" OR "MNA" OR "malnutrition prevalence in COVID-19 patients" OR "nutritional risk assessment in geriatric COVID-19 patients") AND ("retrospective study on MNA in elderly COVID-19 patients" OR "nutritional status evaluation in older adults with COVID-19" OR "association between malnutrition and COVID-19 outcomes")
+("nutritional screening tools" OR "nutritional risk assessment" OR "malnutrition risk" OR "COVID-19 patients") AND ("modified Nutrition Risk in the Critically ill score" OR "mNUTRIC score" OR "critical care nutrition in COVID-19" OR "ICU nutrition support in COVID-19") AND ("systematic review with narrative synthesis on mNUTRIC score in critically ill COVID-19 patients" OR "measurement properties of mNUTRIC score in COVID-19" OR "mNUTRIC score applicability in ICU COVID-19 patients")
+("Mini Nutritional Assessment" OR "MNA" OR "nutrition assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in COVID-19 patients" OR "nutritional risk assessment in geriatric COVID-19 patients" OR "nutrition screening in older adults with COVID-19") AND ("cross-sectional study on MNA in elderly COVID-19 patients" OR "nutrition status evaluation in older patients with COVID-19" OR "association between malnutrition and COVID-19 outcomes")
+("modified Nutrition Risk in the Critically ill score" OR "mNUTRIC score" OR "nutrition risk assessment" OR "COVID-19 ICU patients") AND ("critical care nutrition in COVID-19" OR "prognosis prediction in critically ill COVID-19 patients" OR "mNUTRIC score and mortality in COVID-19") AND ("retrospective study on mNUTRIC score in COVID-19 ICU patients" OR "nutrition risk assessment in critically ill COVID-19 patients" OR "prognostic value of mNUTRIC score in ICU COVID-19 patients")
+("nutritional status" OR "malnutrition risk" OR "Mini Nutritional Assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in geriatric COVID-19 patients" OR "nutritional screening in older adults with COVID-19" OR "nutrition risk assessment in COVID-19") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition and COVID-19 outcomes" OR "related factors of malnutrition in COVID-19 patients")
+("mNUTRIC score" OR "modified Nutrition Risk in the Critically ill score" OR "nutrition risk assessment" OR "critical care nutrition in COVID-19") AND ("ICU nutrition support in COVID-19" OR "mortality prediction in critically ill COVID-19 patients" OR "mNUTRIC score and outcomes in COVID-19") AND ("retrospective study on mNUTRIC score in critically ill COVID-19 patients" OR "nutrition risk assessment in ICU COVID-19 patients" OR "prognostic value of mNUTRIC score in COVID-19 ICU patients")
+("malnutrition risk" OR "nutritional status assessment" OR "Mini Nutritional Assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in geriatric COVID-19 patients" OR "nutrition assessment in older adults with COVID-19" OR "MNA in COVID-19") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition and COVID-19 outcomes" OR "association between malnutrition and COVID-19 severity")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") 
+("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("intervention" OR "intervention study") 
+("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("randomized controlled trial" OR "RCT") 
+("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("systematic review" OR "meta-analysis") 
+("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("effectiveness" OR "efficacy")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("older adults" [Title/Abstract]) AND ("home-based exercise" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("healthy older adults" [Title/Abstract]) AND ("home-based exercise programmes" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("home-based exercise" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("older adults" [Title/Abstract]) AND ("home-based training" [Title/Abstract]) AND ("muscle strength" [Title/Abstract]) AND ("balance" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("home-based exercise programmes" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("home-based exercise programs" OR "home-based training" OR "home exercises" OR "home-based exercise intervention") AND ("physical fitness" OR "muscle strength" OR "muscle power" OR "muscular endurance" OR "balance") AND ("older adults" OR "elderly adults" OR "senior citizens" OR "healthy older adults")
+("Otago exercise program" OR "OEP" OR "fall prevention programs" OR "home-based exercise training program") AND ("elderly community dwellers" OR "fall prevention in elderly" OR "effectiveness of OEP in falls reduction") AND ("randomized control trial" OR "RCT" OR "effect of OEP on fall incidence in elderly")
+("calf-raise training" OR "explosive plantar flexion force" OR "neuromuscular adaptations" OR "balance performance") AND ("home-based calf-raise exercise" OR "home exercise program" OR "functional neuromuscular capacity" OR "mobility in elderly men") AND ("effect of calf-raise training on rapid force production" OR "balance ability in elderly men")
+("individualized home-based exercise" OR "nutrition interventions" OR "frailty in older adults" OR "reducing frailty in older adults") AND ("randomized controlled trial" OR "RCT" OR "effective interventions for frailty in elderly" OR "home-based interventions for frailty") AND ("frailty scores improvement" OR "physical performance improvement" OR "mental health improvement in frail older adults")
+("home exercise program" OR "home-based exercise" OR "physical function improvement in elderly" OR "sarcopenia prevention") AND ("community dwelling elderly" OR "pre-sarcopenia" OR "sarcopenia" OR "muscle function improvement in elderly") AND ("effect of home exercise on physical function" OR "effect of home-based exercise on sarcopenia")
+("exercise snacks" OR "unsupervised home-based exercise" OR "leg strength improvement in elderly" OR "muscle size improvement in healthy older adults") AND ("healthy older adults" OR "elderly participants" OR "home-based exercise intervention" OR "leg muscle function improvement") AND ("effect of exercise snacking on muscle size" OR "effect of home-based exercise on leg strength")
+("home-based training" OR "home exercises" OR "physical fitness" OR "muscle strength" OR "balance") AND ("healthy older adults" OR "elderly adults" OR "senior citizens" OR "home-based exercise interventions") AND ("systematic review on home-based exercise programs" OR "meta-analysis on home-based training in older adults" OR "effectiveness of home exercises in improving physical fitness")
+("Otago exercise program" OR "OEP" OR "fall prevention programs" OR "home-based exercise training program") AND ("elderly community dwellers" OR "fall prevention in elderly" OR "effectiveness of OEP in falls reduction") AND ("systematic review on Otago exercise program" OR "meta-analysis on fall prevention in elderly using OEP" OR "effectiveness of home-based exercise programs in falls reduction")
+("calf-raise training" OR "explosive plantar flexion force" OR "balance performance") AND ("home-based calf-raise exercise" OR "home exercise program" OR "functional neuromuscular capacity" OR "mobility in elderly men") AND ("systematic review on calf-raise training in elderly" OR "meta-analysis on home-based calf-raise exercise in older adults" OR "effect of calf-raise training on balance ability in elderly")
+("individualized home-based exercise" OR "nutrition interventions" OR "frailty in older adults" OR "reducing frailty in older adults") AND ("randomized controlled trial" OR "RCT" OR "effective interventions for frailty in elderly" OR "home-based interventions for frailty") AND ("systematic review on home-based exercise and nutrition interventions in older adults" OR "meta-analysis on reducing frailty in elderly using home-based interventions" OR "effect of individualized home-based exercise on physical frailty")
+</t>
+  </si>
+  <si>
+    <t>[Ines%Lakbar%NULL%1,   David%Luque-Paz%NULL%2,   David%Luque-Paz%NULL%0,   Jean-Louis%Mege%NULL%1,   Sharon%Einav%NULL%1,   Marc%Leone%NULL%1,   Andrea%Cortegiani%NULL%8,   Andrea%Cortegiani%NULL%0,   Andrea%Cortegiani%NULL%0,   Andrea%Cortegiani%NULL%0,   Andrea%Cortegiani%NULL%0,   Andrea%Cortegiani%NULL%0,   Andrea%Cortegiani%NULL%0,   Andrea%Cortegiani%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("gender differences" OR "sex differences") AND ("susceptibility" OR "vulnerability") 
+("COVID-19" OR "SARS-CoV-2") AND ("gender" OR "sex") AND ("outcomes" OR "clinical outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("gender disparities" OR "sex disparities") AND ("mortality" OR "hospitalization" OR "severe illness") 
+("COVID-19" OR "SARS-CoV-2") AND ("gender" OR "sex") AND ("prognosis" OR "survival") 
+("COVID-19" OR "SARS-CoV-2") AND ("gender differences" OR "sex differences") AND ("COVID-19 severity" OR "COVID-19 outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("gender susceptibility" [Title/Abstract]) AND ("outcomes" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("SARS-CoV-2" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("disease characteristics" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("severe disease" [Title/Abstract]) AND ("intensive care unit" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("men vs women" [Title/Abstract]) AND ("mortality rates" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("SARS-CoV-2" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("intensive care unit admission" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Gender"[MeSH Terms] OR "Sex"[MeSH Terms]) AND ("Outcomes"[MeSH Terms] OR "Mortality"[MeSH Terms]) AND ("Meta-Analysis as Topic"[MeSH Terms] OR "Systematic Reviews as Topic"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Gender"[MeSH Terms] OR "Sex"[MeSH Terms]) AND ("Severity of Illness Index"[MeSH Terms] OR "Disease Characteristics"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Risk Factors"[MeSH Terms] OR "Fatal Outcome"[MeSH Terms]) AND ("Multivariate Cox Regression Analysis"[MeSH Terms] OR "Nomogram"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("IL-2R"[MeSH Terms] OR "Lymphocytes"[MeSH Terms]) AND ("Clinical Progression"[MeSH Terms] OR "Disease Severity"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Interleukin-6"[MeSH Terms] OR "C-Reactive Protein"[MeSH Terms] OR "Procalcitonin"[MeSH Terms]) AND ("Prognostic Value"[MeSH Terms] OR "Patient Outcomes"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Clinical Characteristics"[MeSH Terms] OR "Laboratory Findings"[MeSH Terms]) AND ("Deceased Patients"[MeSH Terms] OR "Survival Analysis"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Epidemiological Differences"[MeSH Terms] OR "SARS-CoV-2"[MeSH Terms]) AND ("Infectivity"[MeSH Terms] OR "Disease Severity"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Age"[MeSH Terms] OR "Chronic Illness"[MeSH Terms]) AND ("Dyspnea"[MeSH Terms] OR "Laboratory Abnormalities"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Leukocytosis"[MeSH Terms] OR "Lymphopenia"[MeSH Terms]) AND ("Aspartate Aminotransferase"[MeSH Terms] OR "Cardiac Troponin I"[MeSH Terms]))
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Acute Respiratory Distress Syndrome"[MeSH Terms] OR "Multi-Organ Dysfunction Syndrome"[MeSH Terms]) AND ("Critical Complications"[MeSH Terms] OR "Exacerbation"[MeSH Terms]))
+</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%3,   Ayush%Gupta%NULL%1,   Anand Kumar%Maurya%NULL%2,   Anand Kumar%Maurya%NULL%0,   Amitava%Mukherjee%NULL%10,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0,   Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("pandemic") 
+("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("options" OR "methods") 
+("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("pandemic") AND ("efficacy" OR "effectiveness") 
+("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("safety" OR "health risk") 
+("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("guidelines" OR "recommendations")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("N95 filtering facepiece respirators" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("COVID-19" [Title/Abstract]) AND ("N95-FFRs" [Title/Abstract]) AND ("reprocessing" [Title/Abstract]) AND ("decontamination methods" [Title/Abstract]) AND ("original research" [Publication Type])
+("N95 respirators" [Title/Abstract]) AND ("reprocessing" [Title/Abstract]) AND ("decontamination methods" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("N95-FFRs" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("Ultraviolet irradiation" [Title/Abstract]) AND ("systematic review" [Publication Type])
+("N95-FFRs" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("Microwave generated steam" [Title/Abstract]) AND ("Hydrogen peroxide vapor" [Title/Abstract]) AND ("systematic review" [Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("N95 filtering facepiece respirators" OR "N95-FFRs" OR "N95 respirators" OR "N95 masks") AND ("decontamination methods" OR "reprocessing methods" OR "respirator disinfection" OR "respirator reuse") AND ("UVGI" OR "Ultraviolet germicidal irradiation" OR "Ultraviolet light" OR "UV irradiation")
+("respirator decontamination" OR "FFR disinfection" OR "respirator integrity" OR "FFR performance") AND ("ethylene oxide" OR "vaporized hydrogen peroxide" OR "microwave oven irradiation" OR "bleach" OR "chemical decontamination methods") AND ("NIOSH-certified N95 FFRs" OR "filtering facepiece respirators" OR "disposable respirators")
+("microwave steam bags" OR "steam decontamination" OR "microwave generated steam" OR "FFR decontamination protocol") AND ("water absorption of FFR" OR "FFR filtration efficiency" OR "FFR hydrophobicity" OR "bacteriophage MS2 decontamination") AND ("commercial steam bags for FFR decontamination" OR "steam decontamination efficacy")
+("UVGI on N95 respirators" OR "ultraviolet germicidal irradiation on N95 masks" OR "UV light effect on N95 FFRs" OR "influenza-contaminated N95 respirators") AND ("viable influenza reduction on FFRs" OR "influenza inactivation by UV light")
+("N95-FFRs reprocessing methods" OR "respirator reuse techniques" OR "decontamination of N95 respirators" OR "COVID-19 pandemic and N95-FFRs") AND ("evaluation of decontamination methods" OR "research on FFR reprocessing" OR "prior research on N95-FFR decontamination") AND ("UVGI for N95 respirators" OR "Microwave steam for FFRs" OR "Hydrogen peroxide vapor for respirators")
+("Ultraviolet germicidal irradiation" OR "UVGI" OR "UV light" OR "UV irradiation") AND ("filtration performance of N95 respirators" OR "structural integrity of N95 FFRs" OR "UV effects on respirator materials") AND ("degradation of disposable respirators by UVGI" OR "UVGI on N95 FFRs")
+("decontamination of FFRs" OR "filtering facepiece respirator reuse" OR "respirator disinfection methods" OR "N95-FFR reprocessing techniques") AND ("effect of decontamination on respirator performance" OR "respirator material integrity after decontamination" OR "respirator safety after reprocessing") AND ("evaluation of respirator decontamination methods" OR "study on FFR reuse during pandemic")
+("FFR decontamination efficacy" OR "effectiveness of N95 respirator disinfection" OR "biological decontamination of respirators" OR "respirator inactivation of pathogens") AND ("UVGI vs. Ethylene oxide" OR "comparison of different decontamination methods for FFRs" OR "effect of steam decontamination on N95-FFRs")
+("microwave oven irradiation on respirators" OR "microwave steam bags for FFR decontamination" OR "microwave-generated steam efficacy" OR "FFR integrity after microwave steam exposure") AND ("filtration efficiency of decontaminated FFRs" OR "bacteriophage inactivation by steam bags" OR "respirator disinfection using microwave steam") AND ("steam decontamination for N95 FFRs" OR "respirator reprocessing by microwave-generated steam")
+("respirator reprocessing during pandemic" OR "decontamination methods for N95 masks" OR "reuse of filtering facepiece respirators" OR "respirator decontamination to tackle PPE shortage") AND ("prior research on FFR decontamination" OR "systematic review of respirator reprocessing" OR "literature review on N95-FFR reuse") AND ("evaluation of N95-FFR decontamination methods" OR "efficacy of UVGI and Microwave steam on FFRs" OR "Hydrogen peroxide vapor as N95 respirator decontamination technique")
+</t>
+  </si>
+  <si>
+    <t>[Ana Luísa%Areia%NULL%1,   Anabela%Mota-Pinto%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("immunity" OR "immune response") AND ("infection" OR "transmission") 
+("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("immunity" OR "immune system") AND ("viral clearance" OR "viral load") 
+("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("maternal antibodies" OR "placental transfer") AND ("infection risk" OR "protection") 
+("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("adaptive immunity" OR "cellular immunity") AND ("clinical outcomes" OR "severity") 
+("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("innate immunity" OR "antiviral response") AND ("immunopathology" OR "complications")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("Immunity" [MeSH Terms] OR "immunity" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("Immunological Factors" [MeSH Terms] OR "Immunological Factors" [All Fields])
+("Maternal-Fetal Exchange" [MeSH Terms] OR "Maternal-Fetal Exchange" [All Fields]) AND ("Immune System" [MeSH Terms] OR "Immune System" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+("Immune Tolerance" [MeSH Terms] OR "Immune Tolerance" [All Fields]) AND ("Pregnancy Complications, Infectious" [MeSH Terms] OR "Pregnancy Complications, Infectious" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+("Adaptive Immunity" [MeSH Terms] OR "Adaptive Immunity" [All Fields]) AND ("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+("Innate Immunity" [MeSH Terms] OR "Innate Immunity" [All Fields]) AND ("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("immunity during pregnancy" OR "pregnancy-related immunity" OR "immune response in pregnant women") AND ("SARS-CoV-2 infection" OR "COVID-19 in pregnant women" OR "coronavirus infection during pregnancy")
+("COVID-19 and pregnancy" OR "maternal outcomes of COVID-19" OR "COVID-19 during childbirth" OR "pregnancy affected by COVID-19") AND ("clinical presentation of COVID-19 in pregnant women" OR "maternal outcomes in COVID-19" OR "perinatal outcomes in COVID-19" OR "neonatal outcomes of COVID-19")
+("COVID-19 infection in pregnant women" OR "severity of COVID-19 during pregnancy" OR "critical COVID-19 in pregnancy" OR "COVID-19 and maternal mortality") AND ("vaginal birth during COVID-19" OR "cesarean section in COVID-19" OR "COVID-19 and perinatal outcomes" OR "COVID-19 and neonatal outcomes")
+("effect of COVID-19 on pregnancy" OR "impact of coronavirus on pregnancy" OR "COVID-19 and pregnant women outcomes" OR "SARS-CoV-2 transmission during pregnancy") AND ("systematic review on COVID-19 in pregnancy" OR "published literature on COVID-19 and pregnancy" OR "maternal complications of COVID-19" OR "COVID-19 and vertical transmission")
+("pregnancy during COVID-19 pandemic" OR "neonatal outcome in COVID-19" OR "COVID-19 effect on perinatal health" OR "pregnancy outcomes in coronavirus disease") AND ("COVID-19 and maternal age" OR "gestational age and COVID-19" OR "COVID-19 symptoms in pregnant women" OR "severe pneumonia in COVID-19 pregnancy")
+("COVID-19 and maternal intensive care" OR "mechanical ventilation in pregnant women with COVID-19" OR "COVID-19 and maternal mortality" OR "COVID-19 and maternal critical cases") AND ("computed tomography chest findings in COVID-19 pregnancy" OR "SARS-CoV-2 detection in vaginal mucus during pregnancy" OR "breast milk and COVID-19 transmission" OR "spontaneous miscarriage and COVID-19")
+("COVID-19 and neonatal intensive care unit" OR "COVID-19 and neonatal asphyxia" OR "COVID-19 and neonatal deaths" OR "SARS-CoV-2 infection in neonates") AND ("COVID-19 and Cesarean section" OR "birth weight and COVID-19" OR "Apgar scores in COVID-19-affected neonates" OR "COVID-19 and neonatal outcomes")
+("systematic review on COVID-19 and pregnancy" OR "impact of COVID-19 on maternal outcomes" OR "COVID-19 and perinatal health" OR "neonatal complications of COVID-19") AND ("COVID-19 and fetal outcomes" OR "COVID-19 and maternal morbidity" OR "good-quality data on COVID-19 in pregnant women" OR "COVID-19 in pregnancies")
+("vertical transmission of SARS-CoV-2" OR "intrauterine transmission of coronavirus" OR "maternal-fetal transmission of COVID-19" OR "COVID-19 transmission to neonates") AND ("complications of COVID-19 in pregnant women" OR "COVID-19 in pregnancy systematic review" OR "coronavirus impact on neonatal health" OR "neonatal complications of COVID-19 infection")
+("COVID-19 and pregnancy case reports" OR "maternal deaths in severe COVID-19 cases" OR "COVID-19 infection in pregnant women case series" OR "impact of COVID-19 on pregnant women outcomes") AND ("incomplete outcome data on COVID-19 in pregnancy" OR "COVID-19 in pregnancy registry data" OR "research on COVID-19 impact in pregnant women" OR "COVID-19 and maternal outcomes reporting")
+</t>
+  </si>
+  <si>
+    <t>[Ana Karla G.%Melo%NULL%1,   Keilla M.%Milby%NULL%1,   Ana Luiza M. A.%Caparroz%NULL%1,   Ana Carolina P. N.%Pinto%NULL%1,   Rodolfo R. P.%Santos%NULL%2,   Rodolfo R. P.%Santos%NULL%0,   Aline P.%Rocha%NULL%1,   Gilda A.%Ferreira%NULL%1,   Viviane A.%Souza%NULL%1,   Lilian D. A.%Valadares%NULL%1,   Rejane M. R. A.%Vieira%NULL%1,   Gecilmara S.%Pileggi%NULL%2,   Gecilmara S.%Pileggi%NULL%0,   Virgínia F. M.%Trevisani%NULL%1,   Jeffrey%Chalmers%NULL%2,   Jeffrey%Chalmers%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("cytokine storm" OR "cytokine release syndrome") AND ("biomarkers" OR "serum markers") AND ("severe COVID-19" OR "fatal COVID-19") 
+("inflammatory markers" OR "cytokine markers") AND ("severe COVID-19" OR "fatal COVID-19") AND ("prognosis" OR "outcomes") 
+("cytokine storm" OR "cytokine release syndrome") AND ("severe COVID-19" OR "fatal COVID-19") AND ("biomarker panel" OR "signature") 
+("interleukin-6" OR "IL-6") AND ("severe COVID-19" OR "fatal COVID-19") AND ("prognostic value" OR "predictive value") 
+("TNF-alpha" OR "tumor necrosis factor-alpha") AND ("cytokine storm" OR "severe COVID-19" OR "fatal COVID-19")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Cytokine Release Syndrome" [MeSH Terms] OR "Cytokine Release Syndrome" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Severity of Illness Index" [MeSH Terms] OR "Severity of Illness Index" [All Fields])
+("Interleukin-6" [MeSH Terms] OR "Interleukin-6" [All Fields]) AND ("Ferritins" [MeSH Terms] OR "Ferritins" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Prognosis" [MeSH Terms] OR "Prognosis" [All Fields])
+("Lymphopenia" [MeSH Terms] OR "Lymphopenia" [All Fields]) AND ("Thrombocytopenia" [MeSH Terms] OR "Thrombocytopenia" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields])
+("D-Dimer" [MeSH Terms] OR "D-Dimer" [All Fields]) AND ("Aspartate Aminotransferases" [MeSH Terms] OR "Aspartate Aminotransferases" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Systemic Inflammatory Response Syndrome" [MeSH Terms] OR "Systemic Inflammatory Response Syndrome" [All Fields])
+("C-Reactive Protein" [MeSH Terms] OR "C-Reactive Protein" [All Fields]) AND ("Procalcitonin" [MeSH Terms] OR "Procalcitonin" [All Fields]) AND ("Lactate Dehydrogenase" [MeSH Terms] OR "Lactate Dehydrogenase" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("gastrointestinal symptoms" OR "digestive symptoms") AND ("fecal nucleic acid testing" OR "stool testing") AND ("children" OR "pediatric patients") AND ("2019 coronavirus disease" OR "COVID-19") 
+("gastrointestinal manifestations" OR "digestive symptoms") AND ("fecal viral shedding" OR "viral RNA in stool") AND ("pediatric COVID-19" OR "COVID-19 in children") 
+("fecal-oral transmission" OR "enteric transmission") AND ("gastrointestinal symptoms" OR "digestive symptoms") AND ("2019 coronavirus disease" OR "COVID-19") AND ("pediatric patients" OR "children") 
+("gastrointestinal manifestations" OR "digestive symptoms") AND ("fecal nucleic acid testing" OR "stool testing") AND ("SARS-CoV-2" OR "novel coronavirus") AND ("children" OR "pediatric patients") 
+("gastrointestinal symptoms" OR "digestive symptoms") AND ("stool viral load" OR "fecal viral shedding") AND ("pediatric COVID-19" OR "COVID-19 in children")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Gastrointestinal Diseases" [MeSH Terms] OR "Gastrointestinal Diseases" [All Fields]) AND ("Feces" [MeSH Terms] OR "Feces" [All Fields]) AND ("Polymerase Chain Reaction" [MeSH Terms] OR "Polymerase Chain Reaction" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Child" [MeSH Terms] OR "Child" [All Fields])
+("Vomiting" [MeSH Terms] OR "Vomiting" [All Fields]) AND ("Diarrhea" [MeSH Terms] OR "Diarrhea" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Epidemiology" [MeSH Terms] OR "Epidemiology" [All Fields])
+("Feces" [MeSH Terms] OR "Feces" [All Fields]) AND ("Nucleic Acids" [MeSH Terms] OR "Nucleic Acids" [All Fields]) AND ("Reverse Transcriptase Polymerase Chain Reaction" [MeSH Terms] OR "Reverse Transcriptase Polymerase Chain Reaction" [All Fields]) AND ("Child" [MeSH Terms] OR "Child" [All Fields])
+("Epidemiologic Studies" [MeSH Terms] OR "Epidemiologic Studies" [All Fields]) AND ("China" [MeSH Terms] OR "China" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Prevalence" [MeSH Terms] OR "Prevalence" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Pediatrics" [MeSH Terms] OR "Pediatrics" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields]) AND ("Gastrointestinal Diseases" [MeSH Terms] OR "Gastrointestinal Diseases" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("gastrointestinal symptoms" OR "COVID-19 in children" OR "pediatric COVID-19") AND ("fecal nucleic acid testing" OR "importance of fecal nucleic acid testing" OR "incidence of gastrointestinal symptoms in COVID-19 children")
+("vomiting in pediatric COVID-19" OR "diarrhea in COVID-19 children" OR "prevalence of gastrointestinal symptoms in COVID-19 children") AND ("gastrointestinal symptoms in children outside Wuhan" OR "incidence of COVID-19 gastrointestinal symptoms in different countries" OR "COVID-19 gastrointestinal symptoms meta-analysis")
+("fecal nucleic acid testing in pediatric COVID-19" OR "positive rate of fecal nucleic acid testing in COVID-19 children") AND ("respiratory tract specimens and fecal nucleic acid testing correlation" OR "duration of fecal nucleic acid positivity in COVID-19 children" OR "fecal nucleic acid detection in children with COVID-19")
+("clinical and CT features in pediatric patients with COVID-19" OR "chest CT findings in pediatric COVID-19" OR "procalcitonin elevation in pediatric COVID-19") AND ("clinical and laboratory characteristics of pediatric COVID-19" OR "COVID-19 in pediatric inpatients" OR "COVID-19 characteristics in children")
+("unilateral pulmonary lesions in pediatric COVID-19" OR "bilateral pulmonary lesions in children with COVID-19" OR "chest CT abnormalities in pediatric COVID-19") AND ("ground-glass opacities in pediatric COVID-19" OR "consolidation with surrounding halo sign in pediatric COVID-19" OR "chest CT findings in COVID-19 pediatric inpatients")
+("prospective case-control study on post-vaccination SARS-CoV-2 infection" OR "risk factors for post-vaccination COVID-19 infection" OR "disease profile of post-vaccination COVID-19") AND ("COVID-19 infection in vaccinated individuals" OR "vaccination and infection control measures" OR "post-vaccination era precautions")
+("frailty and post-vaccination SARS-CoV-2 infection" OR "risk factors for COVID-19 in older vaccinated adults" OR "deprivation and post-vaccination infection in adults") AND ("obesity and COVID-19 vaccination" OR "impact of BMI on post-vaccination infection" OR "post-vaccination infection in different age groups")
+("clinical characteristics of post-vaccination COVID-19" OR "symptoms and disease duration in vaccinated COVID-19 cases" OR "hospitalization and vaccination status in COVID-19 cases") AND ("asymptomatic vaccinated COVID-19 individuals" OR "vaccination impact on COVID-19 symptoms" OR "COVID-19 disease severity in vaccinated individuals")
+("children with COVID-19 in Changsha, China" OR "pediatric patients with 2019-nCoV infection" OR "clinical features of COVID-19 in children") AND ("family exposure and COVID-19 in children" OR "symptoms of COVID-19 in pediatric patients" OR "chest CT findings in children with COVID-19")
+("clinical course of COVID-19 in children" OR "SARS-CoV-2 infection in children" OR "COVID-19 in pediatric population") AND ("morbidity in pediatric COVID-19" OR "chest CT scans in COVID-19 children" OR "symptoms and signs in pediatric COVID-19")
+</t>
+  </si>
+  <si>
+    <t>[Hany Hasan%Elsayed%NULL%1,   Aly Sherif%Hassaballa%NULL%2,   Aly Sherif%Hassaballa%NULL%0,   Taha Aly%Ahmed%NULL%1,   Mohammed%Gumaa%NULL%1,   Hazem Youssef%Sharkawy%NULL%1,   Assem Adel%Moharram%NULL%1,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0,   Chiara%Lazzeri%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("acute respiratory distress syndrome" OR "ARDS") AND ("outcomes" OR "mortality" OR "survival") 
+("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("adult respiratory distress syndrome" OR "ARDS") AND ("clinical outcomes" OR "treatment outcomes") 
+("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("ARDS severity" OR "severity of respiratory failure") AND ("mortality" OR "survival" OR "prognosis") 
+("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("acute respiratory distress syndrome" OR "ARDS") AND ("ventilator-associated complications" OR "ventilator-associated pneumonia") 
+("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("adult respiratory distress syndrome" OR "ARDS") AND ("long-term outcomes" OR "functional outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Respiratory Distress Syndrome, Adult" [MeSH Terms] OR "Respiratory Distress Syndrome, Adult" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
+("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Respiratory Distress Syndrome, Adult" [MeSH Terms] OR "Respiratory Distress Syndrome, Adult" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Intensive Care Units" [MeSH Terms] OR "Intensive Care Units" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Regression Analysis" [MeSH Terms] OR "Meta-Regression Analysis" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Intensive Care Units" [MeSH Terms] OR "Intensive Care Units" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("respiratory distress syndrome, adult"[MeSH Terms] OR "respiratory distress syndrome, adult"[Title/Abstract]) AND "mechanical ventilation"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("respiratory distress syndrome, adult"[MeSH Terms] OR "respiratory distress syndrome, adult"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("adult respiratory distress syndrome"[MeSH Terms] OR "adult respiratory distress syndrome"[Title/Abstract]) AND "mortality"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation"[MeSH Terms] AND "mortality"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "ICU discharge"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "mechanical ventilation outcomes"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation mortality"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "adult respiratory distress syndrome outcome"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "respiratory failure"[MeSH Terms] AND "mechanical ventilation"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "mechanical ventilation mortality"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t>[Laura%Pasin%NULL%1,   Paolo%Navalesi%NULL%1,   Alberto%Zangrillo%NULL%2,   Artem%Kuzovlev%NULL%2,   Valery%Likhvantsev%NULL%2,   Ludhmila Abrahão%Hajjar%NULL%1,   Stefano%Fresilli%NULL%1,   Marcus Vinicius Guimaraes%Lacerda%NULL%1,   Giovanni%Landoni%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
+("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
+("methylprednisolone" [MeSH Terms] OR "methylprednisolone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
+("prednisone" [MeSH Terms] OR "prednisone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
+("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("coronavirus" [MeSH Terms] OR "coronavirus" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
+("Randomized Controlled Trials as Topic" [MeSH Terms] OR "Randomized Controlled Trials as Topic" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Oxygen Inhalation Therapy" [MeSH Terms] OR "Oxygen Inhalation Therapy" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Oxygen Inhalation Therapy" [MeSH Terms] OR "Oxygen Inhalation Therapy" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields])
+("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields]) AND ("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("acute hypoxemic failure" [MeSH Terms] OR "acute hypoxemic failure" [All Fields]) AND ("2019-nCoV" [MeSH Terms] OR "2019-nCoV" [All Fields]) AND ("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields])
+("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("hospitalized patients" [MeSH Terms] OR "hospitalized patients" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("glucocorticoids" [MeSH Terms] OR "glucocorticoids" [All Fields]) AND ("lung injury" [MeSH Terms] OR "lung injury" [All Fields]) AND ("respiratory failure" [MeSH Terms] OR "respiratory failure" [All Fields])
+("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("respiratory support" [MeSH Terms] OR "respiratory support" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields]) AND ("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("respiratory support" [MeSH Terms] OR "respiratory support" [All Fields])
+("invasive mechanical ventilation" [MeSH Terms] OR "invasive mechanical ventilation" [All Fields]) AND ("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Nadya%Johanna%NULL%2,   Henrico%Citrawijaya%NULL%1,   Grace%Wangge%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) 
+("community containment" [MeSH Terms] OR "community containment" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) 
+("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("community containment" [MeSH Terms] OR "community containment" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Incidence" [MeSH Terms] OR "Incidence" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Resource Allocation" [MeSH Terms] OR "Resource Allocation" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Transmission, Infectious" [MeSH Terms] OR "Transmission, Infectious" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
+("non-pharmacological interventions" [MeSH Terms] OR "non-pharmacological interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("control measures" [MeSH Terms] OR "control measures" [All Fields])
+("mass testing" [MeSH Terms] OR "mass testing" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("modeling studies" [MeSH Terms] OR "modeling studies" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("resource use" [MeSH Terms] OR "resource use" [All Fields])
+("mass testing" [MeSH Terms] OR "mass testing" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Lara Marleen%Fricke%NULL%1,   Stephan%Glöckner%NULL%1,   Maren%Dreier%NULL%1,   Berit%Lange%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) 
+("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) 
+("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("prevalence" [MeSH Terms] OR "prevalence" [All Fields]) 
+("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("morbidity" [MeSH Terms] OR "morbidity" [All Fields]) 
+("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("public health" [MeSH Terms] OR "public health" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Incidence" [MeSH Terms] OR "Incidence" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Epidemiological Monitoring" [MeSH Terms] OR "Epidemiological Monitoring" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Disease Outbreaks" [MeSH Terms] OR "Disease Outbreaks" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Public Health" [MeSH Terms] OR "Public Health" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("influenza incidence" [MeSH Terms] OR "influenza incidence" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
+("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("comparative study" [Publication Type] OR "comparative study" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("public health measures" [MeSH Terms] OR "public health measures" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("influenza virus infection" [MeSH Terms] OR "influenza virus infection" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
+("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("epidemic curve" [MeSH Terms] OR "epidemic curve" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
+("population behaviour" [MeSH Terms] OR "population behaviour" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("tele-eyecare" OR "tele-ophthalmology" OR "remote ophthalmic care") 
+("coronavirus" OR "pandemic") AND ("telemedicine" OR "teleophthalmology" OR "tele-eye care") AND ("impact" OR "effect") 
+("COVID-19" OR "SARS-CoV-2") AND ("telehealth" OR "virtual care") AND ("ophthalmology" OR "eye care") AND ("practice" OR "implementation") 
+("tele-ophthalmology" OR "tele-eye care") AND ("COVID-19" OR "coronavirus") AND ("challenges" OR "barriers") AND ("adoption" OR "uptake") 
+("tele-eyecare" OR "teleophthalmology") AND ("COVID-19" OR "pandemic") AND ("outcomes" OR "efficacy") AND ("patient satisfaction" OR "quality of care")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("tele-eyecare" [MeSH Terms] OR "tele-eyecare" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("remote patient care" [MeSH Terms] OR "remote patient care" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("India" [MeSH Terms] OR "India" [All Fields])
+("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
+("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("India" [MeSH Terms] OR "India" [All Fields])
+("remote patient care" [MeSH Terms] OR "remote patient care" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields])
+("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
+("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Sarah%Mitchell%NULL%1,   Victoria%Maynard%NULL%2,   Victoria%Maynard%NULL%0,   Victoria%Lyons%NULL%1,   Nicholas%Jones%NULL%1,   Clare%Gardiner%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("role" OR "responsibility") 
+("palliative care" OR "end-of-life care") AND ("primary care" OR "community nursing") AND ("epidemics" OR "pandemics") AND ("delivery" OR "provision") 
+("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("response" OR "preparedness") 
+("palliative care" OR "end-of-life care") AND ("primary care" OR "community nursing") AND ("epidemics" OR "pandemics") AND ("challenges" OR "barriers") 
+("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("best practices" OR "innovations")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
+("end of life care"[MeSH Terms] OR ("end"[All Fields] AND "life"[All Fields] AND "care"[All Fields])) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
+("rapid systematic review"[MeSH Terms] OR ("rapid"[All Fields] AND "systematic"[All Fields] AND "review"[All Fields])) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
+("observational study"[MeSH Terms] OR ("observational"[All Fields] AND "study"[All Fields])) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
+("research"[MeSH Terms] OR "research"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("hospices"[MeSH Terms] OR "hospices"[All Fields]) AND ("specialist palliative care"[MeSH Terms] OR ("specialist"[All Fields] AND "palliative"[All Fields] AND "care"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t>[Vanessa%De Rubeis%NULL%1,   Jinhee%Lee%NULL%2,   Jinhee%Lee%NULL%0,   Muhammad Saqib%Anwer%NULL%1,   Yulika%Yoshida-Montezuma%NULL%1,   Alessandra T%Andreacchi%NULL%1,   Erica%Stone%NULL%2,   Erica%Stone%NULL%0,   Saman%Iftikhar%NULL%1,   Jason D%Morgenstern%NULL%1,   Reid%Rebinsky%NULL%1,   Sarah E%Neil-Sztramko%NULL%1,   Elizabeth%Alvarez%NULL%2,   Elizabeth%Alvarez%NULL%0,   Emma%Apatu%NULL%2,   Emma%Apatu%NULL%0,   Laura N%Anderson%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("disasters" OR "pandemics") AND ("cardiometabolic outcomes" OR "cardiovascular outcomes") AND ("life-course" OR "lifespan") 
+("COVID-19" OR "coronavirus pandemic") AND ("cardiometabolic outcomes" OR "cardiovascular outcomes") AND ("life-course" OR "lifespan") 
+("disasters" OR "pandemics") AND ("cardiometabolic diseases" OR "cardiovascular diseases") AND ("long-term effects" OR "chronic conditions") 
+("COVID-19" OR "coronavirus pandemic") AND ("cardiometabolic health" OR "cardiovascular health") AND ("life-course" OR "lifespan") 
+("disasters" OR "pandemics") AND ("metabolic syndrome" OR "diabetes" OR "hypertension") AND ("life-course" OR "lifespan")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"disasters"[MeSH Terms] AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields]))
+("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("pregnancy"[MeSH Terms] OR "pregnancy"[All Fields] OR "childhood"[MeSH Terms] OR "childhood"[All Fields])
+("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("adulthood"[MeSH Terms] OR "adulthood"[All Fields])
+("biological mechanisms"[MeSH Terms] OR ("biological"[All Fields] AND "mechanisms"[All Fields]) OR "biological mechanisms"[All Fields]) AND ("high-risk"[All Fields] AND "subgroups"[All Fields]) AND ("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields]))
+("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("prevention and control"[Subheading] OR ("prevention"[All Fields] AND "control"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("disasters" [MeSH Terms] OR "disasters" [All Fields]) AND ("pandemics" [MeSH Terms] OR "pandemics" [All Fields]) AND ("cardiometabolic diseases" [MeSH Terms] OR "cardiometabolic diseases" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("floods" [MeSH Terms] OR "floods" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("cohort studies" [MeSH Terms] OR "cohort studies" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("African Americans" [MeSH Terms] OR "African Americans" [All Fields])
+("World Trade Center Disaster" [MeSH Terms] OR "World Trade Center Disaster" [All Fields]) AND ("posttraumatic stress disorder" [MeSH Terms] OR "posttraumatic stress disorder" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("diabetes mellitus" [MeSH Terms] OR "diabetes mellitus" [All Fields]) AND ("health care costs" [MeSH Terms] OR "health care costs" [All Fields])
+("floods" [MeSH Terms] OR "floods" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("Vietnam" [MeSH Terms] OR "Vietnam" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("health care disparities" [MeSH Terms] OR "health care disparities" [All Fields]) AND ("disaster preparation" [MeSH Terms] OR "disaster preparation" [All Fields])
+("September 11 Terrorist Attacks" [MeSH Terms] OR "September 11 Terrorist Attacks" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("natural disasters" [MeSH Terms] OR "natural disasters" [All Fields]) AND ("diabetes mellitus" [MeSH Terms] OR "diabetes mellitus" [All Fields]) AND ("disaster recovery" [MeSH Terms] OR "disaster recovery" [All Fields])
+("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("disaster management" [MeSH Terms] OR "disaster management" [All Fields]) AND ("vulnerable populations" [MeSH Terms] OR "vulnerable populations" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("prevalence" OR "incidence") 
+("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("impact" OR "outcomes") 
+("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("prognosis" OR "mortality") 
+("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("complications" OR "adverse events") 
+("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("risk factors" OR "predictors")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields]) AND ("prevalence" [MeSH Terms] OR "prevalence" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields]) AND ("outcomes" [MeSH Terms] OR "outcomes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("in-hospital death" [All Fields] OR "in-hospital mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("viral shedding" [MeSH Terms] OR "viral shedding" [All Fields]) AND ("non-survivors" [All Fields] OR "deceased" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intensive care unit" [MeSH Terms] OR "intensive care unit" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ARDS" [MeSH Terms] OR "ARDS" [All Fields]) AND ("acute myocardial injury" [MeSH Terms] OR "acute myocardial injury" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("d-dimer" [MeSH Terms] OR "d-dimer" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields]) AND ("myocardial injury" [MeSH Terms] OR "myocardial injury" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Finiki%Nearchou%NULL%1,   Clodagh%Flinn%NULL%2,   Clodagh%Flinn%NULL%0,   Rachel%Niland%NULL%1,   Sheena Siva%Subramaniam%NULL%1,   Eilis%Hennessy%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("children" OR "adolescents") 
+("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("pediatric" OR "youth") 
+("COVID-19" OR "coronavirus") AND ("mental health outcomes" OR "psychosocial impact") AND ("children" OR "adolescents") 
+("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("school-age" OR "teenagers") 
+("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("childhood" OR "youth")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
+("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
+("mixed methods"[MeSH Terms] OR ("mixed"[All Fields] AND "methods"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
+("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("methodological quality"[MeSH Terms] OR ("methodological"[All Fields] AND "quality"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("children" [MeSH Terms] OR "children" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields]) AND ("adolescent" [MeSH Terms] OR "adolescent" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("youth" [MeSH Terms] OR "youth" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("autism spectrum disorder" [MeSH Terms] OR "autism spectrum disorder" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological distress" [MeSH Terms] OR "psychological distress" [All Fields]) AND ("behavior problems" [MeSH Terms] OR "behavior problems" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("parent survey" [All Fields] OR "parent questionnaire" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("behavioral disorders" [MeSH Terms] OR "behavioral disorders" [All Fields]) AND ("children" [MeSH Terms] OR "children" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological health" [MeSH Terms] OR "psychological health" [All Fields]) AND ("Chinese adolescents" [All Fields] OR "youth" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("motivations" [MeSH Terms] OR "motivations" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Michael Anthonius%Lim%lim.michael.a@gmail.com%1,   Raymond%Pranata%raymond_pranata@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality" OR "death") 
+("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality risk" OR "mortality rate") 
+("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("outcome" OR "survival") 
+("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("COVID-19 impact" OR "COVID-19 association") 
+("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality increase" OR "mortality risk")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
+("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
+("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
+("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
+("risk"[MeSH Terms] OR "risk"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("meta-analysis" [Publication Type] OR "systematic review" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("mortality rate" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture surgery" [All Fields] OR "surgical treatment" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("prognostic factors" [MeSH Terms] OR "prognostic factors" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("New York City" [MeSH Terms] OR "New York City" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("oxygen demands" [MeSH Terms] OR "oxygen demands" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("early postoperative outcomes" [MeSH Terms] OR "early postoperative outcomes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality" OR "death") 
+("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality risk" OR "mortality rate") 
+("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("outcome" OR "survival") 
+("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality association" OR "mortality effect") 
+("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality impact" OR "mortality risk")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("odds ratio"[MeSH Terms] OR ("odds"[All Fields] AND "ratio"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields]) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+("ventilatory support"[MeSH Terms] OR ("ventilatory"[All Fields] AND "support"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields]) AND ("hypertension" [MeSH Terms] OR "hypertension" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE2" [MeSH Terms] OR "ACE2" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hypertension" [MeSH Terms] OR "hypertension" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical outcomes" [MeSH Terms] OR "clinical outcomes" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("CD3" [MeSH Terms] OR "CD3" [All Fields]) AND ("CD8" [MeSH Terms] OR "CD8" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("IL-6" [MeSH Terms] OR "IL-6" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("renal injury" [MeSH Terms] OR "renal injury" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospital admission" [MeSH Terms] OR "hospital admission" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Sujit Kumar%Tripathy%sujitortho@aiimsbhubaneswar.edu.in%1,   Paulson%Varghese%NULL%1,   Sibasish%Panigrahi%NULL%1,   Bijnya Birajita%Panda%NULL%1,   Anand%Srinivasan%NULL%1,   Ramesh Kumar%Sen%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("hip fractures" OR "femoral fractures") AND ("COVID-19" OR "coronavirus") AND ("perioperative mortality" OR "perioperative morbidity") 
+("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative outcomes" OR "surgical outcomes") 
+("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("COVID positive" OR "COVID-negative") AND ("perioperative mortality" OR "perioperative morbidity") 
+("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative complications" OR "surgical complications") 
+("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative risk" OR "surgical risk")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative complications"[MeSH Terms] OR "perioperative complications"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("postoperative complications"[MeSH Terms] OR "postoperative complications"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative care"[MeSH Terms] OR "perioperative care"[All Fields])
+("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative outcomes"[MeSH Terms] OR "perioperative outcomes"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("critical care" [MeSH Terms] OR "critical care" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("readmission" [MeSH Terms] OR "readmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("pneumonia" [MeSH Terms] OR "pneumonia" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("acute respiratory distress syndrome" [MeSH Terms] OR "acute respiratory distress syndrome" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("inpatient mortality" [MeSH Terms] OR "inpatient mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("critical care" [MeSH Terms] OR "critical care" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("pneumonia" [MeSH Terms] OR "pneumonia" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("pandemic" OR "lockdown") 
+("COVID-19" OR "coronavirus") AND ("nutrition" OR "diet") AND ("behavior change" OR "eating behavior") AND ("pandemic" OR "lockdown") 
+("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("psychological impact" OR "mental health") AND ("pandemic" OR "lockdown") 
+("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("nutrition" OR "diet") AND ("changes" OR "impact") AND ("pandemic" OR "lockdown") 
+("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("emotional eating" OR "stress eating") AND ("pandemic" OR "lockdown")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Eating behavior changes during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review"[Publication Type])
+("Eating behavior modifications"[Title/Abstract]) AND ("coronavirus disease 2019"[MeSH Terms] OR "pandemic"[MeSH Terms])
+("Longitudinal studies"[MeSH Terms]) AND ("changes in eating behavior"[Title/Abstract]) AND ("COVID-19 pandemic"[Title/Abstract])
+("Impact of COVID-19 pandemic on eating behavior"[Title/Abstract]) AND ("systematic review"[Publication Type])
+("Restrictive measures"[Title/Abstract]) AND ("disrupted lifestyles"[Title/Abstract]) AND ("eating behavior changes"[Title/Abstract]) AND ("COVID-19 pandemic"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("longitudinal studies" [MeSH Terms] OR "longitudinal studies" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("changes" [MeSH Terms] OR "changes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("dietary behavior" [MeSH Terms] OR "dietary behavior" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("lifestyle" [MeSH Terms] OR "lifestyle" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("well-being" [MeSH Terms] OR "well-being" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("longitudinal studies" [MeSH Terms] OR "longitudinal studies" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Jianghui%Cai%NULL%1,   Mi%Tang%NULL%1,   Yu%Gao%NULL%1,   Hongxi%Zhang%NULL%1,   Yanfeng%Yang%NULL%1,   Dan%Zhang%NULL%1,   Han%Wang%NULL%1,   Hua%Liang%NULL%1,   Rui%Zhang%NULL%1,   Bo%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pregnancy" OR "pregnant women") AND ("vertical transmission" OR "perinatal transmission") AND ("mode of delivery" OR "cesarean section" OR "vaginal delivery") 
+("COVID-19" OR "SARS-CoV-2") AND ("pregnant women" OR "maternal") AND ("neonate" OR "infant") AND ("vertical transmission" OR "perinatal transmission") AND ("cesarean section" OR "vaginal delivery") 
+("COVID-19" OR "SARS-CoV-2") AND ("pregnancy complications" OR "maternal-fetal transmission") AND ("delivery mode" OR "mode of delivery") AND ("cesarean section" OR "vaginal delivery") 
+("COVID-19" OR "SARS-CoV-2") AND ("vertical transmission" OR "perinatal transmission") AND ("mode of delivery" OR "cesarean section" OR "vaginal delivery") AND ("neonatal outcomes" OR "infant outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("pregnant women" OR "maternal") AND ("neonate" OR "infant") AND ("delivery mode" OR "mode of delivery") AND ("vertical transmission" OR "perinatal transmission")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("delivery, Obstetric"[MeSH Terms]) AND ("cesarean section"[MeSH Terms])
+("COVID-19 infection"[Title/Abstract]) AND ("pregnant women"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vaginal birth"[MeSH Terms])
+("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("delivery, Obstetric"[MeSH Terms]) AND ("cesarean section"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms])
+("COVID-19 infection"[Title/Abstract]) AND ("pregnant women"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("cesarean section"[MeSH Terms])
+("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vaginal birth"[MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("neonate" [MeSH Terms] OR "neonate" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("infant, newborn" [MeSH Terms] OR "infant, newborn" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields]) AND ("neonate" [MeSH Terms] OR "neonate" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Rina%La Distia Nora%NULL%1,   Ikhwanuliman%Putera%NULL%2,   Ikhwanuliman%Putera%NULL%0,   Dhiya Farah%Khalisha%NULL%1,   Indah%Septiana%NULL%1,   Asri Salima%Ridwan%NULL%1,   Ratna%Sitompul%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("ocular manifestations" OR "eye symptoms" OR "conjunctivitis")
+("COVID-19" OR "SARS-CoV-2") AND ("ocular involvement" OR "eye complications" OR "ocular manifestations")
+("COVID-19" OR "SARS-CoV-2") AND ("ocular symptoms" OR "conjunctival involvement" OR "eye signs")
+("COVID-19" OR "SARS-CoV-2") AND ("ophthalmologic findings" OR "eye abnormalities" OR "ocular manifestations")
+("COVID-19" OR "SARS-CoV-2") AND ("ocular transmission" OR "conjunctival shedding" OR "viral presence in eyes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("meta-analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("prevalence"[MeSH Terms])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("time association"[MeSH Terms]) AND ("systemic disease"[MeSH Terms])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("severity"[MeSH Terms]) AND ("association"[MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestations" [MeSH Terms] OR "ocular manifestations" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("ocular samples" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("systemic disease" [MeSH Terms] OR "systemic disease" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("PCR" [MeSH Terms] OR "PCR" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("severity" [MeSH Terms] OR "severity" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("PCR" [MeSH Terms] OR "PCR" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("time association" [MeSH Terms] OR "time association" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("time association" [MeSH Terms] OR "time association" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("conjunctival viral prevalence" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("conjunctival viral prevalence" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Maren%Hintermeier%NULL%2,   Hande%Gencer%NULL%1,   Katja%Kajikhina%NULL%1,   Sven%Rohleder%NULL%0,   Claudia%Hövener%NULL%1,   Marie%Tallarek%NULL%1,   Jacob%Spallek%NULL%1,   Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("prevalence" OR "incidence" OR "risk factors") 
+("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("healthcare access" OR "health disparities" OR "barriers to care") 
+("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("mental health" OR "psychosocial impact" OR "stress") 
+("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("public health response" OR "policies" OR "interventions") 
+("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("vaccination" OR "immunization" OR "vaccine hesitancy")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("rapid systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("risk of infection"[MeSH Terms] OR "transmission"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("lockdown measures"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("incidence risk"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("forcibly displaced populations" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("infection risk" [MeSH Terms] OR "infection risk" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("infection risk" [MeSH Terms] OR "infection risk" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("transmission risk" [MeSH Terms] OR "transmission risk" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("transmission risk" [MeSH Terms] OR "transmission risk" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("lockdown measures" [MeSH Terms] OR "lockdown measures" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+("lockdown measures" [MeSH Terms] OR "lockdown measures" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact on mental health" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Gilbert Sterling%Octavius%Sterlinggilbert613@hotmail.com%1,   Felicia Rusdi%Silviani%NULL%2,   Felicia Rusdi%Silviani%NULL%0,   Alicya%Lesmandjaja%NULL%1,   NULL%Angelina%NULL%1,   Andry%Juliansen%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("psychological impact" OR "mental health") 
+("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("anxiety" OR "depression" OR "stress") 
+("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("psychosocial well-being" OR "emotional well-being") 
+("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("mental health interventions" OR "supportive services" OR "counseling") 
+("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("social isolation" OR "loneliness" OR "peer relationships")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("psychological state"[MeSH Terms] OR "mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("impact"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("lockdown"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("risk factor"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("management"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("psychological state" [All Fields] OR "mental health" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("risk factors" [MeSH Terms] OR "risk factors" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("social distancing" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("OCD" [MeSH Terms] OR "OCD" [All Fields]) AND ("youth" [MeSH Terms] OR "youth" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("emotional reactivity" [MeSH Terms] OR "emotional reactivity" [All Fields]) AND ("experiential avoidance" [MeSH Terms] OR "experiential avoidance" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("social health" [MeSH Terms] OR "social health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Tommaso%Scquizzato%NULL%1,   Giovanni%Landoni%NULL%0,   Andrea%Paoli%NULL%1,   Rosalba%Lembo%NULL%1,   Evgeny%Fominskiy%NULL%1,   Artem%Kuzovlev%NULL%0,   Valery%Likhvantsev%NULL%0,   Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("mortality" OR "survival") 
+("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("resuscitation" OR "CPR") 
+("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("response time" OR "emergency medical services") 
+("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("pre-hospital care" OR "ambulance") 
+("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("public access defibrillation" OR "PAD")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("direct effects"[MeSH Terms] OR "indirect effects"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("return of spontaneous circulation"[MeSH Terms] OR "bystander-initiated cardiopulmonary resuscitation"[MeSH Terms] OR "survival to hospital discharge"[MeSH Terms] OR "survival with favourable neurological outcome"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("bystander-witnessed"[MeSH Terms] OR "bystander-initiated cardiopulmonary resuscitation"[MeSH Terms] OR "resuscitation attempted by emergency medical services"[MeSH Terms] OR "ambulance response times"[MeSH Terms] OR "patients presenting with non-shockable rhythms"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("SARS-CoV-2 positive"[MeSH Terms] OR "symptoms"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("Europe" [MeSH Terms] OR "Europe" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("ambulance response times" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("survival to hospital discharge" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("bystander-initiated cardiopulmonary resuscitation" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("emergency medical services" [MeSH Terms] OR "emergency medical services" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("healthcare systems" [MeSH Terms] OR "healthcare systems" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Hozaifa Khalil%Elsawah%Hiph.hozaifa@alexu.edu.eg%1,   Mohamed Ahmed%Elsokary%NULL%2,   Mohamed Ahmed%Elsokary%NULL%0,   Mahmoud Gamal%Elrazzaz%NULL%2,   Mahmoud Gamal%Elrazzaz%NULL%0,   Ahmed Hanei%Elshafie%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("treatment" OR "therapy") AND ("nonsevere" OR "mild" OR "moderate") 
+("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("efficacy" OR "effectiveness") AND ("nonsevere" OR "mild" OR "moderate") 
+("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("safety" OR "adverse events") AND ("nonsevere" OR "mild" OR "moderate") 
+("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("randomized controlled trial" OR "RCT") AND ("nonsevere" OR "mild" OR "moderate") 
+("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("clinical outcomes" OR "mortality" OR "hospitalization") AND ("nonsevere" OR "mild" OR "moderate")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
+("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("efficacy"[MeSH Terms] OR "efficacy"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
+("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("evidence strength"[MeSH Terms] OR "evidence strength"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
+("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("clinical evidence"[MeSH Terms] OR "clinical evidence"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
+("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("clinical trials"[MeSH Terms] OR "clinical trials"[All Fields]) AND ("reliable"[MeSH Terms] OR "reliable"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical trials as topic" [MeSH Terms] OR "clinical trials as topic" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment outcome" [MeSH Terms] OR "treatment outcome" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("safety" [MeSH Terms] OR "safety" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("efficacy" [MeSH Terms] OR "efficacy" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("adverse events" [MeSH Terms] OR "adverse events" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mild to moderate disease" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospital admission" [MeSH Terms] OR "hospital admission" [All Fields])
+("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intention to treat analysis" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Shinya%Yamamoto%NULL%1,   Makoto%Saito%NULL%2,   Makoto%Saito%NULL%0,   Azumi%Tamura%NULL%1,   Diki%Prawisuda%NULL%1,   Taketoshi%Mizutani%NULL%1,   Hiroshi%Yotsuyanagi%NULL%1,   Francois%Blachier%NULL%8,   Francois%Blachier%NULL%0,   Francois%Blachier%NULL%0,   Francois%Blachier%NULL%0,   Francois%Blachier%NULL%0,   Francois%Blachier%NULL%0,   Francois%Blachier%NULL%0,   Francois%Blachier%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("microbiome" OR "microbial") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
+("COVID-19" OR "SARS-CoV-2") AND ("gut microbiome" OR "intestinal microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
+("COVID-19" OR "SARS-CoV-2") AND ("respiratory microbiome" OR "lung microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
+("COVID-19" OR "SARS-CoV-2") AND ("oral microbiome" OR "saliva microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
+("COVID-19" OR "SARS-CoV-2") AND ("skin microbiome" OR "cutaneous microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("association"[MeSH Terms] OR "association"[All Fields])
+("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("microbiome dysbiosis"[MeSH Terms] OR "microbiome dysbiosis"[All Fields])
+("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("opportunistic pathogens"[MeSH Terms] OR "opportunistic pathogens"[All Fields])
+("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("fecal microbiome"[MeSH Terms] OR "fecal microbiome"[All Fields])
+("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("respiratory tract microbiome"[MeSH Terms] OR "respiratory tract microbiome"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("symbiosis" [MeSH Terms] OR "symbiosis" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("respiratory viral infection" [MeSH Terms] OR "respiratory viral infection" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("association" [MeSH Terms] OR "association" [All Fields])
+("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
+("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("disease severity" [MeSH Terms] OR "disease severity" [All Fields])
+("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("fecal shedding" [MeSH Terms] OR "fecal shedding" [All Fields])
+("fecal mycobiome" [MeSH Terms] OR "fecal mycobiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
+("fecal mycobiome" [MeSH Terms] OR "fecal mycobiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("disease progression" [MeSH Terms] OR "disease progression" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Imen%Ayouni%eman.layouni@gmail.com%1,   Jihen%Maatoug%NULL%1,   Wafa%Dhouib%NULL%1,   Nawel%Zammit%NULL%1,   Sihem Ben%Fredj%NULL%1,   Rim%Ghammam%NULL%1,   Hassen%Ghannem%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("public health measures" OR "interventions") AND ("mitigate" OR "prevent" OR "control" OR "reduce" OR "curb") AND ("spread" OR "transmission") 
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic response" OR "public health strategies") AND ("preventive measures" OR "interventions") AND ("spread" OR "transmission" OR "containment") 
+("COVID-19" OR "SARS-CoV-2") AND ("public health guidelines" OR "prevention measures") AND ("reducing transmission" OR "controlling the spread" OR "curbing the pandemic") 
+("COVID-19" OR "SARS-CoV-2") AND ("community interventions" OR "population-based measures") AND ("preventive actions" OR "control strategies") AND ("virus transmission" OR "spread prevention") 
+("COVID-19" OR "SARS-CoV-2") AND ("public health response" OR "pandemic control") AND ("preventive measures" OR "interventions") AND ("limiting transmission" OR "reducing spread" OR "containment strategies")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("travel restrictions"[MeSH Terms] OR "travel restrictions"[All Fields])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("quarantine"[MeSH Terms] OR "quarantine"[All Fields])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("social distancing"[MeSH Terms] OR "social distancing"[All Fields])
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("mask wearing"[MeSH Terms] OR "mask wearing"[All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("public health measures" [MeSH Terms] OR "public health measures" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("public health interventions" [MeSH Terms] OR "public health interventions" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("outbreak control" [MeSH Terms] OR "outbreak control" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("quarantine" [MeSH Terms] OR "quarantine" [All Fields]) AND ("effectiveness" [MeSH Terms] OR "effectiveness" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("travel restrictions" [MeSH Terms] OR "travel restrictions" [All Fields]) AND ("pandemic response" [MeSH Terms] OR "pandemic response" [All Fields])
+("digital tools" [MeSH Terms] OR "digital tools" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pandemic containment" [MeSH Terms] OR "pandemic containment" [All Fields])
+("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact assessment" [MeSH Terms] OR "impact assessment" [All Fields])
+("epidemiological characteristics" [MeSH Terms] OR "epidemiological characteristics" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("wartime control measures" [MeSH Terms] OR "wartime control measures" [All Fields])
+("population-level retrospective study" [MeSH Terms] OR "population-level retrospective study" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("transmission dynamics" [MeSH Terms] OR "transmission dynamics" [All Fields])
+("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("comparison study" [MeSH Terms] OR "comparison study" [All Fields])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("weather" OR "climate" OR "meteorological factors") AND ("mortality" OR "death rate" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("weather conditions" OR "seasonality" OR "temperature" OR "humidity") AND ("mortality" OR "death rate" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("weather impact" OR "climate influence" OR "meteorological variables") AND ("mortality" OR "death rate" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("weather patterns" OR "environmental factors" OR "seasonal variation") AND ("mortality" OR "death rate" OR "fatal outcomes") 
+("COVID-19" OR "SARS-CoV-2") AND ("weather-related effects" OR "climate-related impact" OR "meteorological conditions") AND ("mortality" OR "death rate" OR "fatal outcomes")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("effect of weather"[Title/Abstract]) OR ("impact of temperature and humidity"[Title/Abstract])) AND "COVID-19 mortality"[Title/Abstract]
+(("weather conditions"[Title/Abstract] OR temperature[Title/Abstract] OR humidity[Title/Abstract]) AND "SARS-CoV-2 transmission"[Title/Abstract]) AND "seasonal influenza"[Title/Abstract]
+(("observational epidemiological studies"[Title/Abstract] OR "observational study"[Title/Abstract] OR "observational research"[Title/Abstract]) AND "effect of weather"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract]
+("temperature and humidity"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "systematic review"[Title/Abstract]
+(("temperature"[Title/Abstract] OR "humidity"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "observational study"[Title/Abstract]) AND (("weather conditions"[Title/Abstract]) OR ("virus transmission"[Title/Abstract]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("weather" [MeSH Terms] OR "weather" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature" [MeSH Terms] OR "temperature" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("seasonal influenza" [MeSH Terms] OR "seasonal influenza" [All Fields]) AND ("virus transmission" [MeSH Terms] OR "virus transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature variation" [MeSH Terms] OR "temperature variation" [All Fields]) AND ("diurnal temperature range" [MeSH Terms] OR "diurnal temperature range" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meteorological parameters" [MeSH Terms] OR "meteorological parameters" [All Fields]) AND ("air pollutant" [MeSH Terms] OR "air pollutant" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("climate variables" [MeSH Terms] OR "climate variables" [All Fields]) AND ("SARS-CoV-2 transmission" [MeSH Terms] OR "SARS-CoV-2 transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("COVID-19 deaths" [MeSH Terms] OR "COVID-19 deaths" [All Fields]) AND ("meteorological conditions" [MeSH Terms] OR "meteorological conditions" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature" [MeSH Terms] OR "temperature" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("environmental factors" [MeSH Terms] OR "environmental factors" [All Fields]) AND ("COVID-19 transmission" [MeSH Terms] OR "COVID-19 transmission" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields]) AND ("sun exposure" [MeSH Terms] OR "sun exposure" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Bradley J.%Langford%NULL%1,   Miranda%So%NULL%1,   Sumit%Raybardhan%NULL%1,   Valerie%Leung%NULL%1,   Jean-Paul R.%Soucy%NULL%1,   Duncan%Westwood%NULL%1,   Nick%Daneman%NULL%1,   Derek R.%MacFadden%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("antibiotic prescribing" OR "antibiotic use" OR "antibiotic treatment") AND ("patients" OR "individuals" OR "population") 
+("COVID-19" OR "SARS-CoV-2") AND ("antibiotics" OR "antimicrobials") AND ("prescription patterns" OR "prescribing practices" OR "utilization") AND ("patients" OR "individuals" OR "population") 
+("COVID-19" OR "SARS-CoV-2") AND ("antibiotic therapy" OR "antibiotic administration" OR "antibiotic regimens") AND ("patients" OR "individuals" OR "population") 
+("COVID-19" OR "SARS-CoV-2") AND ("antibiotic treatment outcomes" OR "antibiotic effectiveness") AND ("patients" OR "individuals" OR "population") 
+("COVID-19" OR "SARS-CoV-2") AND ("antibiotic resistance" OR "resistant bacteria") AND ("antibiotic prescribing" OR "antibiotic use") AND ("patients" OR "individuals" OR "population")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "patients with COVID-19"[Title/Abstract]) AND ("rapid review"[Title/Abstract] OR "meta-analysis"[Title/Abstract])
+(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "SARS-CoV-2 infection"[Title/Abstract]) AND ("prevalence"[Title/Abstract] OR "proportion"[Title/Abstract])
+(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("age groups"[Title/Abstract] OR "severity of illness"[Title/Abstract])
+(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("geographical region"[Title/Abstract] OR "country"[Title/Abstract])
+(("bacterial co-infection"[Title/Abstract]) OR ("co-occurring bacterial infection"[Title/Abstract])) AND ("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("meta-analysis" [MeSH Terms] OR "meta-analysis" [All Fields])
+("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("patient harm" [MeSH Terms] OR "patient harm" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("associated factors" [MeSH Terms] OR "associated factors" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("geographical region" [MeSH Terms] OR "geographical region" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("severity of illness" [MeSH Terms] OR "severity of illness" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("patient age" [MeSH Terms] OR "patient age" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("bacterial co-infection" [MeSH Terms] OR "bacterial co-infection" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("unnecessary antibiotic use" [MeSH Terms] OR "unnecessary antibiotic use" [All Fields]) AND ("patients with COVID-19" [MeSH Terms] OR "patients with COVID-19" [All Fields])
+("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("global antibiotic resistance" [MeSH Terms] OR "global antibiotic resistance" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Kollengode%Ramanathan%ram_ramanathan@nuhs.edu.sg%1,   Kiran%Shekar%NULL%2,   Kiran%Shekar%NULL%0,   Ryan Ruiyang%Ling%NULL%1,   Ryan P.%Barbaro%NULL%1,   Suei Nee%Wong%NULL%1,   Chuen Seng%Tan%NULL%1,   Bram%Rochwerg%NULL%0,   Shannon M.%Fernando%NULL%1,   Shinhiro%Takeda%NULL%1,   Graeme%MacLaren%NULL%1,   Eddy%Fan%NULL%0,   Daniel%Brodie%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("severe acute respiratory distress syndrome" OR "ARDS") AND ("extracorporeal membrane oxygenation" OR "ECMO") AND ("venovenous" OR "VV-ECMO") 
+("COVID-19" OR "SARS-CoV-2") AND ("severe respiratory failure" OR "respiratory distress") AND ("venovenous extracorporeal membrane oxygenation" OR "VV-ECMO") AND ("clinical outcomes" OR "mortality") 
+("COVID-19" OR "SARS-CoV-2") AND ("severe ARDS" OR "acute respiratory failure") AND ("extracorporeal support" OR "ECMO therapy") AND ("venovenous" OR "VV-ECMO") 
+("COVID-19" OR "SARS-CoV-2") AND ("respiratory support" OR "lung support") AND ("extracorporeal life support" OR "ECLS") AND ("venovenous" OR "VV-ECMO") 
+("COVID-19" OR "SARS-CoV-2") AND ("severe lung injury" OR "respiratory dysfunction") AND ("extracorporeal oxygenation" OR "ECMO therapy") AND ("venovenous" OR "VV-ECMO")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("severe acute respiratory distress syndrome"[Title/Abstract] OR "ARDS"[Title/Abstract]) AND ("systematic review"[Title/Abstract] OR "meta-analysis"[Title/Abstract])
+(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract]
+(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "ECMO duration"[Title/Abstract]
+(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "weaning rate from ECMO"[Title/Abstract]
+(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "ECMO complications"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("severe acute respiratory distress syndrome" [MeSH Terms] OR "severe acute respiratory distress syndrome" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("systematic review" [Publication Type] OR "meta-analysis" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("in-hospital mortality" [MeSH Terms] OR "in-hospital mortality" [All Fields]) AND ("observational study" [Publication Type] OR "randomized clinical trial" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("ECMO complications" [MeSH Terms] OR "ECMO complications" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("venovenous ECMO" [MeSH Terms] OR "venovenous ECMO" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("duration of ECMO therapy" [MeSH Terms] OR "duration of ECMO therapy" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("ECMO weaning rate" [MeSH Terms] OR "ECMO weaning rate" [All Fields])
+("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("ECMO complications" [MeSH Terms] OR "ECMO complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("hospital course" [MeSH Terms] OR "hospital course" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("ECMO decision-making" [MeSH Terms] OR "ECMO decision-making" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("anticoagulation" [MeSH Terms] OR "anticoagulation" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Stephanie%Stockwell%NULL%1,   Mike%Trott%NULL%1,   Mark%Tully%NULL%2,   Mark%Tully%NULL%0,   Jae%Shin%NULL%1,   Yvonne%Barnett%NULL%1,   Laurie%Butler%NULL%1,   Daragh%McDermott%NULL%1,   Felipe%Schuch%NULL%1,   Lee%Smith%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("comparative study" OR "before-after study")
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("prevalence" OR "survey")
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("longitudinal study" OR "follow-up study")
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("behavior change" OR "behavioral response")
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("self-reported" OR "questionnaire")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "COVID-19 pandemic lockdown"[Title/Abstract]
+(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND ("lockdown"[Title/Abstract] OR "stay-at-home"[Title/Abstract])
+(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract]) AND ("before and during lockdown"[Title/Abstract] OR "pre and post-lockdown"[Title/Abstract])
+(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "changes during COVID-19 lockdown"[Title/Abstract]
+(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "impact of COVID-19 lockdown on activity levels"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("lockdown" [All Fields] OR "confinement" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("before and during" [All Fields] OR "pre and post" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("lockdown" [All Fields] OR "confinement" [All Fields]) AND ("changes" [MeSH Terms] OR "differences" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("device-based measures" [MeSH Terms] OR "self-report tools" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("health outcomes" [MeSH Terms] OR "mental benefits" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("populations" [MeSH Terms] OR "groups" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("children" [MeSH Terms] OR "patients" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("public health strategies" [MeSH Terms] OR "interventions" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("device-based measures" [MeSH Terms] OR "self-report tools" [All Fields]) AND ("risk of bias" [MeSH Terms] OR "Newcastle-Ottawa Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("interventions" [MeSH Terms] OR "public health strategies" [MeSH Terms]) AND ("lockdown" [All Fields] OR "confinement" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Audrey%Lebrasseur%NULL%1,   Noémie%Fortin-Bédard%NULL%1,   Josiane%Lettre%NULL%1,   Eve-Line%Bussières%NULL%1,   Krista%Best%NULL%1,   Normand%Boucher%NULL%1,   Mathieu%Hotton%NULL%1,   Simon%Beaulieu-Bonneau%NULL%1,   Catherine%Mercier%NULL%1,   Marie-Eve%Lamontagne%NULL%1,   François%Routhier%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("impact" OR "effects") AND ("health outcomes" OR "access to healthcare") 
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("mental health" OR "psychological well-being") 
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("social isolation" OR "loneliness") 
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("accessibility" OR "barriers") AND ("remote work" OR "telecommuting") 
+("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("rehabilitation" OR "therapy") AND ("service delivery" OR "access to services")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
+"impact of COVID-19 pandemic on people with physical disabilities"[Title/Abstract]
+("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("people with physical disabilities"[Title/Abstract] OR "disabled individuals"[Title/Abstract])
+("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("impact on daily functioning"[Title/Abstract] OR "access to healthcare"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
+("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("social impact"[Title/Abstract] OR "lifestyle changes"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("isolation" [MeSH Terms] OR "protective measures" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("people with disabilities" [MeSH Terms] OR "people with physical disabilities" [All Fields]) AND ("literature review" [Publication Type] OR "rapid review" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("daily functioning" [MeSH Terms] OR "access to healthcare" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("changes in lifestyle" [MeSH Terms] OR "mood changes" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("healthcare services" [MeSH Terms] OR "access to healthcare" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("social and lifestyle habits" [MeSH Terms] OR "physical activity" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("people with physical disabilities" [All Fields] OR "people with disabilities" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("public health recommendations" [MeSH Terms] OR "policy makers" [MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t>[Ji-gan%Wang%NULL%1,   Yu-fang%Mo%NULL%1,   Yu-heng%Su%NULL%1,   Li-chuan%Wang%NULL%1,   Guang-bing%Liu%NULL%1,   Meng%Li%NULL%1,   Qian-qiu%Qin%NULL%1,   Vasile Valeriu%Lupu.%NULL%2,   Vasile Valeriu%Lupu.%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT" OR "computed tomography") AND ("chest" OR "lung") AND ("features" OR "findings") 
+("COVID-19" OR "SARS-CoV-2") AND ("pediatric" OR "child" OR "children") AND ("computed tomography" OR "CT scan") AND ("pulmonary" OR "chest") AND ("radiological findings" OR "imaging characteristics") 
+("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT scan" OR "chest CT") AND ("radiological features" OR "pulmonary findings") 
+("COVID-19" OR "SARS-CoV-2") AND ("pediatric" OR "child" OR "children") AND ("chest CT" OR "computed tomography") AND ("imaging manifestations" OR "radiographic features") 
+("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT imaging" OR "chest CT scan") AND ("pulmonary involvement" OR "radiological presentation")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest computed tomography"[Title/Abstract] OR "CT imaging"[Title/Abstract]) AND "children"[Title/Abstract]
+"chest CT imaging features of children with COVID-19"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest CT findings"[Title/Abstract] OR "lung CT results"[Title/Abstract]) AND "children"[Title/Abstract]
+"meta-analysis of chest CT imaging features of children with COVID-19"[Title/Abstract]
+("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest CT abnormalities"[Title/Abstract] OR "lung lesions"[Title/Abstract]) AND "pediatric patients"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("meta-analysis" [Publication Type] OR "systematic review" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("lung lesions" [MeSH Terms] OR "ground-glass opacities" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "symptoms" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("patchy shadows" [All Fields] OR "ground-glass opacities" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("consolidation" [MeSH Terms] OR "lung lobe lesions" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("bilateral lung lesions" [MeSH Terms] OR "pleural effusion" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("pulmonary lesions" [MeSH Terms] OR "subpleural lamellar dense shadows" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("bronchial pneumonia-like changes" [All Fields] OR "patchy opacities" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("parenchymal bands" [All Fields] OR "pleural thickening" [MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t>[Young Joo%Suh%yshoka@gmail.com%1,   Hyunsook%Hong%NULL%2,   Hyunsook%Hong%NULL%0,   Mickaël%Ohana%NULL%2,   Mickaël%Ohana%NULL%0,   Florian%Bompard%NULL%2,   Florian%Bompard%NULL%0,   Marie-Pierre%Revel%NULL%2,   Marie-Pierre%Revel%NULL%0,   Clarissa%Valle%NULL%2,   Clarissa%Valle%NULL%0,   Alban%Gervaise%NULL%1,   Julien%Poissy%NULL%2,   Julien%Poissy%NULL%0,   Sophie%Susen%NULL%2,   Sophie%Susen%NULL%0,   Guillaume%Hékimian%NULL%1,   Mathieu%Artifoni%NULL%1,   Daniel%Periard%NULL%2,   Daniel%Periard%NULL%0,   Damien%Contou%NULL%2,   Damien%Contou%NULL%0,   Julie%Delaloye%NULL%2,   Julie%Delaloye%NULL%0,   Bienvenido%Sanchez%NULL%1,   Cheng%Fang%NULL%2,   Cheng%Fang%NULL%0,   Giorgio%Garzillo%NULL%2,   Giorgio%Garzillo%NULL%0,   Hasti%Robbie%NULL%2,   Hasti%Robbie%NULL%0,   Soon Ho%Yoon%NULL%2,   Soon Ho%Yoon%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("venous thromboembolism" OR "VTE") 
+("Coronavirus disease 2019" OR "COVID-19") AND ("pulmonary embolism" OR "PE") AND ("venous thromboembolism" OR "VTE") 
+("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("deep vein thrombosis" OR "DVT") 
+("Coronavirus disease 2019" OR "COVID-19") AND ("pulmonary embolism" OR "PE") AND ("deep vein thrombosis" OR "DVT") 
+("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("venous thrombosis" OR "thromboembolism")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("pulmonary embolism"[Title/Abstract] OR "PE"[Title/Abstract]) AND ("venous thromboembolism"[Title/Abstract] OR "VTE"[Title/Abstract]) AND "COVID-19"[Title/Abstract]
+"systematic review and meta-analysis of pulmonary embolism and venous thromboembolism in COVID-19"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("incidence of pulmonary embolism"[Title/Abstract] OR "deep vein thrombosis"[Title/Abstract]) AND "systematic review"[Title/Abstract]
+"diagnostic accuracy of D-dimer tests for pulmonary embolism in COVID-19: a systematic review and meta-analysis"[Title/Abstract]
+("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("pulmonary embolism incidence"[Title/Abstract] OR "DVT incidence"[Title/Abstract]) AND "meta-analysis"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pulmonary embolism" [MeSH Terms] OR "PE" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("deep vein thrombosis" [MeSH Terms] OR "DVT" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("D-dimer" [MeSH Terms] OR "diagnostic accuracy" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("incidence" [MeSH Terms] OR "meta-analysis" [Publication Type])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intensive care unit" [MeSH Terms] OR "ICU" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("CT pulmonary angiography" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("D-dimer levels" [MeSH Terms] OR "diagnostic accuracy" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("bleeding" [MeSH Terms] OR "thrombotic manifestations" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hemostatic complications" [MeSH Terms] OR "thrombotic complications" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("anticoagulated patients" [MeSH Terms] OR "severe COVID-19 patients" [All Fields])
+</t>
+  </si>
+  <si>
+    <t>[Ashley Elizabeth%Muller%aemu@fhi.no%1,   Jan Peter William%Himmels%NULL%2,   Jan Peter William%Himmels%NULL%0,   Stijn%Van de Velde%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("fear of COVID-19" OR "COVID-19 fear") AND ("diagnostic test accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value" OR "accuracy") 
+("fear of COVID-19" OR "COVID-19 fear") AND ("rapid diagnostic test" OR "point-of-care test") AND ("accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value") 
+("fear of COVID-19" OR "COVID-19 fear") AND ("scale" OR "measurement tool") AND ("diagnostic accuracy" OR "test performance" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value") 
+("fear of COVID-19" OR "COVID-19 fear") AND ("rapid test" OR "POCT" OR "point-of-care test") AND ("evaluation" OR "assessment" OR "accuracy" OR "performance") 
+("fear of COVID-19" OR "COVID-19 fear") AND ("screening tool" OR "questionnaire") AND ("diagnostic test" OR "test accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("fear of COVID-19 scales"[Title/Abstract] OR "COVID-19-related fear scales"[Title/Abstract]) AND "rapid diagnostic test accuracy review"[Title/Abstract]
+"systematic review of fear of COVID-19 scales: diagnostic test accuracy and validation studies"[Title/Abstract]
+("COVID-19 fear scale"[Title/Abstract] OR "fear of COVID-19 instrument"[Title/Abstract]) AND "systematic review and meta-analysis"[Title/Abstract]
+"validation and diagnostic accuracy of fear of COVID-19 scales: a rapid review"[Title/Abstract]
+("COVID-19-related fear"[Title/Abstract] OR "fear of COVID-19 measurement"[Title/Abstract]) AND "systematic review of diagnostic test accuracy"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("diagnostic test accuracy" [All Fields] OR "rapid diagnostic test" [All Fields] OR "fear of COVID-19 scales" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("fear" [MeSH Terms] OR "phobia" [MeSH Terms])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("instrument validation" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychometric properties" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological health" [MeSH Terms] OR "fear assessment" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("FCV-19S" [All Fields] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("US college students" [All Fields] OR "FCV-19S validation" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Fear of COVID-19 Scale" [All Fields] OR "psychometric testing" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental illness" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
+("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("assessment scale development" [MeSH Terms] OR "psychological distress" [MeSH Terms])
+</t>
+  </si>
+  <si>
+    <t>[Debjyoti%Dhar%NULL%1,   Treshita%Dey%NULL%1,   M. M.%Samim%msmondal788@gmail.com%1,   Hansashree%Padmanabha%NULL%1,   Aritra%Chatterjee%NULL%1,   Parvin%Naznin%NULL%1,   S. R.%Chandra%NULL%1,   K.%Mallesh%NULL%1,   Rutul%Shah%NULL%1,   Shahyan%Siddiqui%NULL%1,   K.%Pratik%NULL%1,   P.%Ameya%NULL%1,   G.%Abhishek%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("SARS-CoV-2" OR "COVID-19") AND ("children" OR "pediatric" OR "paediatric") 
+("MIS-C" OR "multisystem inflammatory syndrome in children") AND ("SARS-CoV-2" OR "COVID-19") AND ("pediatric" OR "paediatric") AND ("clinical features" OR "presentation" OR "symptoms") 
+("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("COVID-19" OR "SARS-CoV-2") AND ("diagnosis" OR "management" OR "treatment") AND ("pediatric" OR "paediatric") 
+("MIS-C" OR "multisystem inflammatory syndrome in children") AND ("SARS-CoV-2" OR "COVID-19") AND ("cardiac involvement" OR "myocardial dysfunction" OR "heart failure") AND ("pediatric" OR "paediatric") 
+("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("SARS-CoV-2" OR "COVID-19") AND ("complications" OR "outcomes" OR "prognosis") AND ("pediatric" OR "paediatric")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("multisystem inflammatory syndrome in children"[Title/Abstract] OR "MIS-C"[Title/Abstract]) AND "systematic review and meta-analysis"[Title/Abstract]
+"SISCoV study: systematic review and meta-analysis of multisystem inflammatory syndrome in children with SARS-CoV-2 infection"[Title/Abstract]
+("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children associated with COVID-19"[Title/Abstract]) AND "systematic review of demographic profile, clinical characteristics, and prognosis"[Title/Abstract]
+"systematic review and meta-analysis of multisystem inflammatory syndrome in children with COVID-19"[Title/Abstract]
+("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children caused by SARS-CoV-2"[Title/Abstract]) AND "systematic review on clinical features and management"[Title/Abstract]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "SARS-CoV-2" [MeSH Terms])
+("Kawasaki disease" [MeSH Terms] OR "Kawasaki-like disease" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "SARS-CoV-2" [MeSH Terms])
+("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("pregnancy" [MeSH Terms] OR "obstetricians" [All Fields])
+("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric intensive care units" [MeSH Terms])
+("gastrointestinal symptoms" [MeSH Terms] OR "gastrointestinal manifestations" [All Fields]) AND ("multisystem inflammatory syndrome" [All Fields] OR "MIS-C" [All Fields])
+("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields])
+("C-reactive protein" [MeSH Terms] OR "d-dimer" [MeSH Terms] OR "troponin" [MeSH Terms]) AND ("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields])
+("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields]) AND ("outbreak" [MeSH Terms] OR "incidence" [MeSH Terms])
+("immune response" [MeSH Terms] OR "immune response to virus" [All Fields]) AND ("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields])
+("left ventricular ejection fraction" [MeSH Terms] OR "cardiac involvement" [All Fields]) AND ("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -5444,7 +10380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5473,14 +10409,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5892,18 +10835,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5943,8 +10886,14 @@
       <c r="M1" s="3" t="s">
         <v>618</v>
       </c>
+      <c r="N1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" t="s">
+        <v>935</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>528</v>
       </c>
@@ -5954,7 +10903,7 @@
       <c r="C2" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>44075</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -5970,22 +10919,28 @@
         <v>529</v>
       </c>
       <c r="I2" t="s">
-        <v>630</v>
+        <v>1043</v>
       </c>
       <c r="J2" t="s">
         <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>631</v>
+        <v>1044</v>
       </c>
       <c r="L2" t="s">
         <v>617</v>
       </c>
       <c r="M2" t="s">
-        <v>632</v>
+        <v>1045</v>
+      </c>
+      <c r="N2" t="s">
+        <v>617</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1046</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5995,7 +10950,7 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>43942</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -6017,16 +10972,22 @@
         <v>633</v>
       </c>
       <c r="K3" t="s">
-        <v>634</v>
+        <v>1047</v>
       </c>
       <c r="L3" t="s">
         <v>617</v>
       </c>
       <c r="M3" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N3" t="s">
+        <v>617</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1049</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6036,7 +10997,7 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>44042</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -6052,22 +11013,28 @@
         <v>530</v>
       </c>
       <c r="I4" t="s">
-        <v>636</v>
+        <v>1050</v>
       </c>
       <c r="J4" t="s">
         <v>460</v>
       </c>
       <c r="K4" t="s">
-        <v>637</v>
+        <v>1051</v>
       </c>
       <c r="L4" t="s">
         <v>617</v>
       </c>
       <c r="M4" t="s">
-        <v>638</v>
+        <v>1052</v>
+      </c>
+      <c r="N4" t="s">
+        <v>617</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1053</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -6077,7 +11044,7 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>44105</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -6093,22 +11060,28 @@
         <v>531</v>
       </c>
       <c r="I5" t="s">
-        <v>639</v>
+        <v>1054</v>
       </c>
       <c r="J5" t="s">
         <v>461</v>
       </c>
       <c r="K5" t="s">
-        <v>640</v>
+        <v>1055</v>
       </c>
       <c r="L5" t="s">
         <v>617</v>
       </c>
       <c r="M5" t="s">
-        <v>641</v>
+        <v>1056</v>
+      </c>
+      <c r="N5" t="s">
+        <v>617</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1057</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6118,7 +11091,7 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>44005</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -6134,22 +11107,28 @@
         <v>532</v>
       </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>1058</v>
       </c>
       <c r="J6" t="s">
         <v>462</v>
       </c>
       <c r="K6" t="s">
-        <v>643</v>
+        <v>1059</v>
       </c>
       <c r="L6" t="s">
         <v>617</v>
       </c>
       <c r="M6" t="s">
-        <v>644</v>
+        <v>1060</v>
+      </c>
+      <c r="N6" t="s">
+        <v>617</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6159,7 +11138,7 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>44102</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -6181,16 +11160,22 @@
         <v>633</v>
       </c>
       <c r="K7" t="s">
-        <v>645</v>
+        <v>1062</v>
       </c>
       <c r="L7" t="s">
         <v>617</v>
       </c>
       <c r="M7" t="s">
-        <v>646</v>
+        <v>1063</v>
+      </c>
+      <c r="N7" t="s">
+        <v>617</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1064</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -6200,7 +11185,7 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>44286</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -6216,22 +11201,28 @@
         <v>619</v>
       </c>
       <c r="I8" t="s">
-        <v>647</v>
+        <v>1065</v>
       </c>
       <c r="J8" t="s">
         <v>463</v>
       </c>
       <c r="K8" t="s">
-        <v>648</v>
+        <v>1066</v>
       </c>
       <c r="L8" t="s">
         <v>617</v>
       </c>
       <c r="M8" t="s">
-        <v>649</v>
+        <v>1067</v>
+      </c>
+      <c r="N8" t="s">
+        <v>617</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1068</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -6241,7 +11232,7 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>44286</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -6257,22 +11248,28 @@
         <v>533</v>
       </c>
       <c r="I9" t="s">
-        <v>650</v>
+        <v>1069</v>
       </c>
       <c r="J9" t="s">
         <v>464</v>
       </c>
       <c r="K9" t="s">
-        <v>651</v>
+        <v>1070</v>
       </c>
       <c r="L9" t="s">
         <v>617</v>
       </c>
       <c r="M9" t="s">
-        <v>652</v>
+        <v>1071</v>
+      </c>
+      <c r="N9" t="s">
+        <v>617</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1072</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -6282,7 +11279,7 @@
       <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>44256</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -6298,22 +11295,28 @@
         <v>534</v>
       </c>
       <c r="I10" t="s">
-        <v>653</v>
+        <v>1073</v>
       </c>
       <c r="J10" t="s">
         <v>465</v>
       </c>
       <c r="K10" t="s">
-        <v>654</v>
+        <v>1074</v>
       </c>
       <c r="L10" t="s">
         <v>617</v>
       </c>
       <c r="M10" t="s">
-        <v>655</v>
+        <v>1075</v>
+      </c>
+      <c r="N10" t="s">
+        <v>617</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1076</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -6323,7 +11326,7 @@
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>44224</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -6339,22 +11342,28 @@
         <v>535</v>
       </c>
       <c r="I11" t="s">
-        <v>656</v>
+        <v>1077</v>
       </c>
       <c r="J11" t="s">
         <v>466</v>
       </c>
       <c r="K11" t="s">
-        <v>657</v>
+        <v>1078</v>
       </c>
       <c r="L11" t="s">
         <v>617</v>
       </c>
       <c r="M11" t="s">
-        <v>658</v>
+        <v>1079</v>
+      </c>
+      <c r="N11" t="s">
+        <v>617</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1080</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -6364,7 +11373,7 @@
       <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>44397</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -6380,22 +11389,28 @@
         <v>536</v>
       </c>
       <c r="I12" t="s">
-        <v>659</v>
+        <v>1081</v>
       </c>
       <c r="J12" t="s">
         <v>467</v>
       </c>
       <c r="K12" t="s">
-        <v>660</v>
+        <v>1082</v>
       </c>
       <c r="L12" t="s">
         <v>617</v>
       </c>
       <c r="M12" t="s">
-        <v>661</v>
+        <v>1083</v>
+      </c>
+      <c r="N12" t="s">
+        <v>617</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -6405,7 +11420,7 @@
       <c r="C13" s="2">
         <v>6</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>44615</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -6421,22 +11436,28 @@
         <v>537</v>
       </c>
       <c r="I13" t="s">
-        <v>662</v>
+        <v>1085</v>
       </c>
       <c r="J13" t="s">
         <v>468</v>
       </c>
       <c r="K13" t="s">
-        <v>663</v>
+        <v>1086</v>
       </c>
       <c r="L13" t="s">
         <v>617</v>
       </c>
       <c r="M13" t="s">
-        <v>664</v>
+        <v>1087</v>
+      </c>
+      <c r="N13" t="s">
+        <v>617</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1088</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -6446,7 +11467,7 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>44809</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -6462,22 +11483,28 @@
         <v>538</v>
       </c>
       <c r="I14" t="s">
-        <v>665</v>
+        <v>1089</v>
       </c>
       <c r="J14" t="s">
         <v>469</v>
       </c>
       <c r="K14" t="s">
-        <v>666</v>
+        <v>1090</v>
       </c>
       <c r="L14" t="s">
         <v>617</v>
       </c>
       <c r="M14" t="s">
-        <v>667</v>
+        <v>1091</v>
+      </c>
+      <c r="N14" t="s">
+        <v>617</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1092</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -6487,7 +11514,7 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>44280</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -6503,22 +11530,28 @@
         <v>539</v>
       </c>
       <c r="I15" t="s">
-        <v>668</v>
+        <v>1093</v>
       </c>
       <c r="J15" t="s">
         <v>470</v>
       </c>
       <c r="K15" t="s">
-        <v>669</v>
+        <v>1094</v>
       </c>
       <c r="L15" t="s">
         <v>617</v>
       </c>
       <c r="M15" t="s">
-        <v>670</v>
+        <v>1095</v>
+      </c>
+      <c r="N15" t="s">
+        <v>617</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -6528,7 +11561,7 @@
       <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>44469</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -6550,16 +11583,22 @@
         <v>633</v>
       </c>
       <c r="K16" t="s">
-        <v>671</v>
+        <v>1097</v>
       </c>
       <c r="L16" t="s">
         <v>617</v>
       </c>
       <c r="M16" t="s">
-        <v>672</v>
+        <v>1098</v>
+      </c>
+      <c r="N16" t="s">
+        <v>617</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1099</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -6569,7 +11608,7 @@
       <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>44621</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -6585,22 +11624,28 @@
         <v>540</v>
       </c>
       <c r="I17" t="s">
-        <v>673</v>
+        <v>1100</v>
       </c>
       <c r="J17" t="s">
         <v>471</v>
       </c>
       <c r="K17" t="s">
-        <v>674</v>
+        <v>1101</v>
       </c>
       <c r="L17" t="s">
         <v>617</v>
       </c>
       <c r="M17" t="s">
-        <v>675</v>
+        <v>1102</v>
+      </c>
+      <c r="N17" t="s">
+        <v>617</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1103</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -6610,7 +11655,7 @@
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>44179</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -6626,22 +11671,28 @@
         <v>541</v>
       </c>
       <c r="I18" t="s">
-        <v>676</v>
+        <v>1104</v>
       </c>
       <c r="J18" t="s">
         <v>470</v>
       </c>
       <c r="K18" t="s">
-        <v>677</v>
+        <v>1105</v>
       </c>
       <c r="L18" t="s">
         <v>617</v>
       </c>
       <c r="M18" t="s">
-        <v>678</v>
+        <v>1106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>617</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1107</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -6651,7 +11702,7 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>44125</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -6673,16 +11724,22 @@
         <v>633</v>
       </c>
       <c r="K19" t="s">
-        <v>679</v>
+        <v>1108</v>
       </c>
       <c r="L19" t="s">
         <v>617</v>
       </c>
       <c r="M19" t="s">
-        <v>680</v>
+        <v>1109</v>
+      </c>
+      <c r="N19" t="s">
+        <v>617</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1110</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -6692,13 +11749,13 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>44166</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="1" t="s">
         <v>438</v>
       </c>
@@ -6712,16 +11769,22 @@
         <v>633</v>
       </c>
       <c r="K20" t="s">
-        <v>681</v>
+        <v>1111</v>
       </c>
       <c r="L20" t="s">
         <v>617</v>
       </c>
       <c r="M20" t="s">
-        <v>682</v>
+        <v>1112</v>
+      </c>
+      <c r="N20" t="s">
+        <v>617</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1113</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -6731,7 +11794,7 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>44166</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -6747,22 +11810,28 @@
         <v>543</v>
       </c>
       <c r="I21" t="s">
-        <v>683</v>
+        <v>1114</v>
       </c>
       <c r="J21" t="s">
         <v>472</v>
       </c>
       <c r="K21" t="s">
-        <v>684</v>
+        <v>1115</v>
       </c>
       <c r="L21" t="s">
         <v>617</v>
       </c>
       <c r="M21" t="s">
-        <v>685</v>
+        <v>1116</v>
+      </c>
+      <c r="N21" t="s">
+        <v>617</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1117</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -6772,7 +11841,7 @@
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>44079</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -6788,22 +11857,28 @@
         <v>544</v>
       </c>
       <c r="I22" t="s">
-        <v>686</v>
+        <v>1118</v>
       </c>
       <c r="J22" t="s">
         <v>473</v>
       </c>
       <c r="K22" t="s">
-        <v>687</v>
+        <v>1119</v>
       </c>
       <c r="L22" t="s">
         <v>617</v>
       </c>
       <c r="M22" t="s">
-        <v>688</v>
+        <v>1120</v>
+      </c>
+      <c r="N22" t="s">
+        <v>617</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1121</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -6813,7 +11888,7 @@
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>43996</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -6835,16 +11910,22 @@
         <v>633</v>
       </c>
       <c r="K23" t="s">
-        <v>689</v>
+        <v>1122</v>
       </c>
       <c r="L23" t="s">
         <v>617</v>
       </c>
       <c r="M23" t="s">
-        <v>690</v>
+        <v>1123</v>
+      </c>
+      <c r="N23" t="s">
+        <v>617</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1124</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -6854,7 +11935,7 @@
       <c r="C24" s="2">
         <v>21</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>43973</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -6870,22 +11951,28 @@
         <v>545</v>
       </c>
       <c r="I24" t="s">
-        <v>691</v>
+        <v>1125</v>
       </c>
       <c r="J24" t="s">
         <v>474</v>
       </c>
       <c r="K24" t="s">
-        <v>692</v>
+        <v>1126</v>
       </c>
       <c r="L24" t="s">
         <v>617</v>
       </c>
       <c r="M24" t="s">
-        <v>693</v>
+        <v>1127</v>
+      </c>
+      <c r="N24" t="s">
+        <v>617</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1128</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -6895,7 +11982,7 @@
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>43983</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -6911,22 +11998,28 @@
         <v>546</v>
       </c>
       <c r="I25" t="s">
-        <v>694</v>
+        <v>1129</v>
       </c>
       <c r="J25" t="s">
         <v>475</v>
       </c>
       <c r="K25" t="s">
-        <v>695</v>
+        <v>1130</v>
       </c>
       <c r="L25" t="s">
         <v>617</v>
       </c>
       <c r="M25" t="s">
-        <v>696</v>
+        <v>1131</v>
+      </c>
+      <c r="N25" t="s">
+        <v>617</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1132</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -6936,7 +12029,7 @@
       <c r="C26" s="2">
         <v>6</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>44102</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -6952,22 +12045,28 @@
         <v>547</v>
       </c>
       <c r="I26" t="s">
-        <v>697</v>
+        <v>1133</v>
       </c>
       <c r="J26" t="s">
         <v>476</v>
       </c>
       <c r="K26" t="s">
-        <v>698</v>
+        <v>1134</v>
       </c>
       <c r="L26" t="s">
         <v>617</v>
       </c>
       <c r="M26" t="s">
-        <v>699</v>
+        <v>1135</v>
+      </c>
+      <c r="N26" t="s">
+        <v>617</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1136</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -6977,7 +12076,7 @@
       <c r="C27" s="2">
         <v>5</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>44044</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -6999,16 +12098,22 @@
         <v>633</v>
       </c>
       <c r="K27" t="s">
-        <v>700</v>
+        <v>1137</v>
       </c>
       <c r="L27" t="s">
         <v>617</v>
       </c>
       <c r="M27" t="s">
-        <v>701</v>
+        <v>1138</v>
+      </c>
+      <c r="N27" t="s">
+        <v>617</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1139</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -7018,7 +12123,7 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>43920</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -7034,22 +12139,28 @@
         <v>548</v>
       </c>
       <c r="I28" t="s">
-        <v>702</v>
+        <v>1140</v>
       </c>
       <c r="J28" t="s">
         <v>477</v>
       </c>
       <c r="K28" t="s">
-        <v>703</v>
+        <v>1141</v>
       </c>
       <c r="L28" t="s">
         <v>617</v>
       </c>
       <c r="M28" t="s">
-        <v>704</v>
+        <v>1142</v>
+      </c>
+      <c r="N28" t="s">
+        <v>617</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1143</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -7059,7 +12170,7 @@
       <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>44224</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -7075,22 +12186,28 @@
         <v>549</v>
       </c>
       <c r="I29" t="s">
-        <v>705</v>
+        <v>1144</v>
       </c>
       <c r="J29" t="s">
         <v>478</v>
       </c>
       <c r="K29" t="s">
-        <v>706</v>
+        <v>1145</v>
       </c>
       <c r="L29" t="s">
         <v>617</v>
       </c>
       <c r="M29" t="s">
-        <v>707</v>
+        <v>1146</v>
+      </c>
+      <c r="N29" t="s">
+        <v>617</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1147</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -7100,7 +12217,7 @@
       <c r="C30" s="2">
         <v>7</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>44133</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -7122,16 +12239,22 @@
         <v>633</v>
       </c>
       <c r="K30" t="s">
-        <v>708</v>
+        <v>1148</v>
       </c>
       <c r="L30" t="s">
         <v>617</v>
       </c>
       <c r="M30" t="s">
-        <v>709</v>
+        <v>1149</v>
+      </c>
+      <c r="N30" t="s">
+        <v>617</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1150</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -7141,7 +12264,7 @@
       <c r="C31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>44042</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -7157,22 +12280,28 @@
         <v>530</v>
       </c>
       <c r="I31" t="s">
-        <v>710</v>
+        <v>1151</v>
       </c>
       <c r="J31" t="s">
         <v>460</v>
       </c>
       <c r="K31" t="s">
-        <v>711</v>
+        <v>1152</v>
       </c>
       <c r="L31" t="s">
         <v>617</v>
       </c>
       <c r="M31" t="s">
-        <v>712</v>
+        <v>1153</v>
+      </c>
+      <c r="N31" t="s">
+        <v>617</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1154</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>92</v>
       </c>
@@ -7182,7 +12311,7 @@
       <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>44022</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -7198,22 +12327,28 @@
         <v>550</v>
       </c>
       <c r="I32" t="s">
-        <v>713</v>
+        <v>1155</v>
       </c>
       <c r="J32" t="s">
         <v>467</v>
       </c>
       <c r="K32" t="s">
-        <v>714</v>
+        <v>1156</v>
       </c>
       <c r="L32" t="s">
         <v>617</v>
       </c>
       <c r="M32" t="s">
-        <v>715</v>
+        <v>1157</v>
+      </c>
+      <c r="N32" t="s">
+        <v>617</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1158</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
@@ -7223,7 +12358,7 @@
       <c r="C33" s="2">
         <v>4</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>44015</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -7239,22 +12374,28 @@
         <v>551</v>
       </c>
       <c r="I33" t="s">
-        <v>716</v>
+        <v>1159</v>
       </c>
       <c r="J33" t="s">
         <v>479</v>
       </c>
       <c r="K33" t="s">
-        <v>717</v>
+        <v>1160</v>
       </c>
       <c r="L33" t="s">
         <v>617</v>
       </c>
       <c r="M33" t="s">
-        <v>718</v>
+        <v>1161</v>
+      </c>
+      <c r="N33" t="s">
+        <v>617</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1162</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -7264,7 +12405,7 @@
       <c r="C34" s="2">
         <v>5</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>44011</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -7280,22 +12421,28 @@
         <v>621</v>
       </c>
       <c r="I34" t="s">
-        <v>719</v>
+        <v>1163</v>
       </c>
       <c r="J34" t="s">
         <v>480</v>
       </c>
       <c r="K34" t="s">
-        <v>720</v>
+        <v>1164</v>
       </c>
       <c r="L34" t="s">
         <v>617</v>
       </c>
       <c r="M34" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N34" t="s">
+        <v>617</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1165</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -7305,7 +12452,7 @@
       <c r="C35" s="2">
         <v>4</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>44158</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -7321,22 +12468,28 @@
         <v>552</v>
       </c>
       <c r="I35" t="s">
-        <v>721</v>
+        <v>1166</v>
       </c>
       <c r="J35" t="s">
         <v>481</v>
       </c>
       <c r="K35" t="s">
-        <v>722</v>
+        <v>1167</v>
       </c>
       <c r="L35" t="s">
         <v>617</v>
       </c>
       <c r="M35" t="s">
-        <v>723</v>
+        <v>1168</v>
+      </c>
+      <c r="N35" t="s">
+        <v>617</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1169</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
@@ -7346,7 +12499,7 @@
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="10">
         <v>44136</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -7368,16 +12521,22 @@
         <v>633</v>
       </c>
       <c r="K36" t="s">
-        <v>724</v>
+        <v>1170</v>
       </c>
       <c r="L36" t="s">
         <v>617</v>
       </c>
       <c r="M36" t="s">
-        <v>725</v>
+        <v>1171</v>
+      </c>
+      <c r="N36" t="s">
+        <v>617</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1172</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -7387,7 +12546,7 @@
       <c r="C37" s="2">
         <v>3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>44138</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -7403,22 +12562,28 @@
         <v>553</v>
       </c>
       <c r="I37" t="s">
-        <v>726</v>
+        <v>1173</v>
       </c>
       <c r="J37" t="s">
         <v>467</v>
       </c>
       <c r="K37" t="s">
-        <v>727</v>
+        <v>1174</v>
       </c>
       <c r="L37" t="s">
         <v>617</v>
       </c>
       <c r="M37" t="s">
-        <v>728</v>
+        <v>1175</v>
+      </c>
+      <c r="N37" t="s">
+        <v>617</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1176</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>110</v>
       </c>
@@ -7428,7 +12593,7 @@
       <c r="C38" s="2">
         <v>6</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>44154</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -7444,22 +12609,28 @@
         <v>554</v>
       </c>
       <c r="I38" t="s">
-        <v>729</v>
+        <v>1177</v>
       </c>
       <c r="J38" t="s">
         <v>482</v>
       </c>
       <c r="K38" t="s">
-        <v>730</v>
+        <v>1178</v>
       </c>
       <c r="L38" t="s">
         <v>617</v>
       </c>
       <c r="M38" t="s">
-        <v>731</v>
+        <v>1179</v>
+      </c>
+      <c r="N38" t="s">
+        <v>617</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1180</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -7469,7 +12640,7 @@
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>44075</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -7485,22 +12656,28 @@
         <v>555</v>
       </c>
       <c r="I39" t="s">
-        <v>732</v>
+        <v>1181</v>
       </c>
       <c r="J39" t="s">
         <v>483</v>
       </c>
       <c r="K39" t="s">
-        <v>733</v>
+        <v>1182</v>
       </c>
       <c r="L39" t="s">
         <v>617</v>
       </c>
       <c r="M39" t="s">
-        <v>734</v>
+        <v>1183</v>
+      </c>
+      <c r="N39" t="s">
+        <v>617</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1184</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
@@ -7510,7 +12687,7 @@
       <c r="C40" s="2">
         <v>6</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>44064</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -7526,22 +12703,28 @@
         <v>556</v>
       </c>
       <c r="I40" t="s">
-        <v>735</v>
+        <v>1185</v>
       </c>
       <c r="J40" t="s">
         <v>484</v>
       </c>
       <c r="K40" t="s">
-        <v>736</v>
+        <v>1186</v>
       </c>
       <c r="L40" t="s">
         <v>617</v>
       </c>
       <c r="M40" t="s">
-        <v>737</v>
+        <v>1187</v>
+      </c>
+      <c r="N40" t="s">
+        <v>617</v>
+      </c>
+      <c r="O40" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -7551,7 +12734,7 @@
       <c r="C41" s="2">
         <v>4</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>44060</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -7573,16 +12756,22 @@
         <v>633</v>
       </c>
       <c r="K41" t="s">
-        <v>738</v>
+        <v>1188</v>
       </c>
       <c r="L41" t="s">
         <v>617</v>
       </c>
       <c r="M41" t="s">
-        <v>739</v>
+        <v>1189</v>
+      </c>
+      <c r="N41" t="s">
+        <v>617</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1190</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -7592,7 +12781,7 @@
       <c r="C42" s="2">
         <v>5</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>44322</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -7608,22 +12797,28 @@
         <v>558</v>
       </c>
       <c r="I42" t="s">
-        <v>740</v>
+        <v>1191</v>
       </c>
       <c r="J42" t="s">
         <v>485</v>
       </c>
       <c r="K42" t="s">
-        <v>741</v>
+        <v>1192</v>
       </c>
       <c r="L42" t="s">
         <v>617</v>
       </c>
       <c r="M42" t="s">
-        <v>742</v>
+        <v>1193</v>
+      </c>
+      <c r="N42" t="s">
+        <v>617</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1194</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>125</v>
       </c>
@@ -7633,7 +12828,7 @@
       <c r="C43" s="2">
         <v>4</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>43999</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -7655,16 +12850,22 @@
         <v>633</v>
       </c>
       <c r="K43" t="s">
-        <v>743</v>
+        <v>1195</v>
       </c>
       <c r="L43" t="s">
         <v>617</v>
       </c>
       <c r="M43" t="s">
-        <v>744</v>
+        <v>1196</v>
+      </c>
+      <c r="N43" t="s">
+        <v>617</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1197</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -7674,7 +12875,7 @@
       <c r="C44" s="2">
         <v>3</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="10">
         <v>44138</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -7690,22 +12891,28 @@
         <v>553</v>
       </c>
       <c r="I44" t="s">
-        <v>745</v>
+        <v>1198</v>
       </c>
       <c r="J44" t="s">
         <v>467</v>
       </c>
       <c r="K44" t="s">
-        <v>746</v>
+        <v>1199</v>
       </c>
       <c r="L44" t="s">
         <v>617</v>
       </c>
       <c r="M44" t="s">
-        <v>747</v>
+        <v>1200</v>
+      </c>
+      <c r="N44" t="s">
+        <v>617</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1201</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
@@ -7715,7 +12922,7 @@
       <c r="C45" s="2">
         <v>3</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <v>44652</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -7731,22 +12938,28 @@
         <v>560</v>
       </c>
       <c r="I45" t="s">
-        <v>748</v>
+        <v>1202</v>
       </c>
       <c r="J45" t="s">
         <v>486</v>
       </c>
       <c r="K45" t="s">
-        <v>749</v>
+        <v>1203</v>
       </c>
       <c r="L45" t="s">
         <v>617</v>
       </c>
       <c r="M45" t="s">
-        <v>750</v>
+        <v>1204</v>
+      </c>
+      <c r="N45" t="s">
+        <v>617</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1205</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -7756,7 +12969,7 @@
       <c r="C46" s="2">
         <v>5</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <v>44298</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -7772,22 +12985,28 @@
         <v>561</v>
       </c>
       <c r="I46" t="s">
-        <v>751</v>
+        <v>1206</v>
       </c>
       <c r="J46" t="s">
         <v>487</v>
       </c>
       <c r="K46" t="s">
-        <v>752</v>
+        <v>1207</v>
       </c>
       <c r="L46" t="s">
         <v>617</v>
       </c>
       <c r="M46" t="s">
-        <v>753</v>
+        <v>1208</v>
+      </c>
+      <c r="N46" t="s">
+        <v>617</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>135</v>
       </c>
@@ -7797,7 +13016,7 @@
       <c r="C47" s="2">
         <v>6</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="10">
         <v>44025</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -7813,22 +13032,28 @@
         <v>562</v>
       </c>
       <c r="I47" t="s">
-        <v>754</v>
+        <v>1210</v>
       </c>
       <c r="J47" t="s">
         <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>755</v>
+        <v>1211</v>
       </c>
       <c r="L47" t="s">
         <v>617</v>
       </c>
       <c r="M47" t="s">
-        <v>756</v>
+        <v>1212</v>
+      </c>
+      <c r="N47" t="s">
+        <v>617</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1213</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>138</v>
       </c>
@@ -7838,7 +13063,7 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="10">
         <v>44126</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -7854,22 +13079,28 @@
         <v>563</v>
       </c>
       <c r="I48" t="s">
-        <v>757</v>
+        <v>1214</v>
       </c>
       <c r="J48" t="s">
         <v>489</v>
       </c>
       <c r="K48" t="s">
-        <v>758</v>
+        <v>1215</v>
       </c>
       <c r="L48" t="s">
         <v>617</v>
       </c>
       <c r="M48" t="s">
-        <v>759</v>
+        <v>1216</v>
+      </c>
+      <c r="N48" t="s">
+        <v>617</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1217</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>141</v>
       </c>
@@ -7879,7 +13110,7 @@
       <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>43983</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -7895,22 +13126,28 @@
         <v>564</v>
       </c>
       <c r="I49" t="s">
-        <v>760</v>
+        <v>1218</v>
       </c>
       <c r="J49" t="s">
         <v>490</v>
       </c>
       <c r="K49" t="s">
-        <v>761</v>
+        <v>1219</v>
       </c>
       <c r="L49" t="s">
         <v>617</v>
       </c>
       <c r="M49" t="s">
-        <v>762</v>
+        <v>1220</v>
+      </c>
+      <c r="N49" t="s">
+        <v>617</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1221</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -7920,7 +13157,7 @@
       <c r="C50" s="2">
         <v>5</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="10">
         <v>44228</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -7936,22 +13173,28 @@
         <v>565</v>
       </c>
       <c r="I50" t="s">
-        <v>763</v>
+        <v>1222</v>
       </c>
       <c r="J50" t="s">
         <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>764</v>
+        <v>1223</v>
       </c>
       <c r="L50" t="s">
         <v>617</v>
       </c>
       <c r="M50" t="s">
-        <v>765</v>
+        <v>1224</v>
+      </c>
+      <c r="N50" t="s">
+        <v>617</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1225</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
@@ -7961,7 +13204,7 @@
       <c r="C51" s="2">
         <v>4</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="10">
         <v>44487</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -7983,16 +13226,22 @@
         <v>624</v>
       </c>
       <c r="K51" t="s">
-        <v>766</v>
+        <v>1226</v>
       </c>
       <c r="L51" t="s">
         <v>617</v>
       </c>
       <c r="M51" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N51" t="s">
+        <v>617</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1227</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
@@ -8002,7 +13251,7 @@
       <c r="C52" s="2">
         <v>4</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="10">
         <v>44415</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -8018,22 +13267,28 @@
         <v>566</v>
       </c>
       <c r="I52" t="s">
-        <v>767</v>
+        <v>1228</v>
       </c>
       <c r="J52" t="s">
         <v>492</v>
       </c>
       <c r="K52" t="s">
-        <v>768</v>
+        <v>1229</v>
       </c>
       <c r="L52" t="s">
         <v>617</v>
       </c>
       <c r="M52" t="s">
-        <v>769</v>
+        <v>1230</v>
+      </c>
+      <c r="N52" t="s">
+        <v>617</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1231</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -8043,7 +13298,7 @@
       <c r="C53" s="2">
         <v>5</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="10">
         <v>44348</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -8059,22 +13314,28 @@
         <v>567</v>
       </c>
       <c r="I53" t="s">
-        <v>770</v>
+        <v>1232</v>
       </c>
       <c r="J53" t="s">
         <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>771</v>
+        <v>1233</v>
       </c>
       <c r="L53" t="s">
         <v>617</v>
       </c>
       <c r="M53" t="s">
-        <v>772</v>
+        <v>1234</v>
+      </c>
+      <c r="N53" t="s">
+        <v>617</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1235</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
@@ -8084,7 +13345,7 @@
       <c r="C54" s="2">
         <v>11</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="10">
         <v>44182</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -8100,22 +13361,28 @@
         <v>568</v>
       </c>
       <c r="I54" t="s">
-        <v>773</v>
+        <v>1236</v>
       </c>
       <c r="J54" t="s">
         <v>494</v>
       </c>
       <c r="K54" t="s">
-        <v>774</v>
+        <v>1237</v>
       </c>
       <c r="L54" t="s">
         <v>617</v>
       </c>
       <c r="M54" t="s">
-        <v>775</v>
+        <v>1238</v>
+      </c>
+      <c r="N54" t="s">
+        <v>617</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1239</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -8125,7 +13392,7 @@
       <c r="C55" s="2">
         <v>5</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="10">
         <v>44344</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -8141,22 +13408,28 @@
         <v>569</v>
       </c>
       <c r="I55" t="s">
-        <v>776</v>
+        <v>1240</v>
       </c>
       <c r="J55" t="s">
         <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>777</v>
+        <v>1241</v>
       </c>
       <c r="L55" t="s">
         <v>617</v>
       </c>
       <c r="M55" t="s">
-        <v>778</v>
+        <v>1242</v>
+      </c>
+      <c r="N55" t="s">
+        <v>617</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1243</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>162</v>
       </c>
@@ -8166,7 +13439,7 @@
       <c r="C56" s="2">
         <v>5</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="10">
         <v>44078</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -8188,16 +13461,22 @@
         <v>633</v>
       </c>
       <c r="K56" t="s">
-        <v>779</v>
+        <v>1244</v>
       </c>
       <c r="L56" t="s">
         <v>617</v>
       </c>
       <c r="M56" t="s">
-        <v>780</v>
+        <v>1245</v>
+      </c>
+      <c r="N56" t="s">
+        <v>617</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1246</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -8207,7 +13486,7 @@
       <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="10">
         <v>43963</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -8223,22 +13502,28 @@
         <v>570</v>
       </c>
       <c r="I57" t="s">
-        <v>781</v>
+        <v>1247</v>
       </c>
       <c r="J57" t="s">
         <v>464</v>
       </c>
       <c r="K57" t="s">
-        <v>782</v>
+        <v>1248</v>
       </c>
       <c r="L57" t="s">
         <v>617</v>
       </c>
       <c r="M57" t="s">
-        <v>783</v>
+        <v>1249</v>
+      </c>
+      <c r="N57" t="s">
+        <v>617</v>
+      </c>
+      <c r="O57" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -8248,7 +13533,7 @@
       <c r="C58" s="2">
         <v>6</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="10">
         <v>44085</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -8270,16 +13555,22 @@
         <v>496</v>
       </c>
       <c r="K58" t="s">
-        <v>784</v>
+        <v>1250</v>
       </c>
       <c r="L58" t="s">
         <v>617</v>
       </c>
       <c r="M58" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N58" t="s">
+        <v>617</v>
+      </c>
+      <c r="O58" t="s">
+        <v>1251</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -8289,7 +13580,7 @@
       <c r="C59" s="2">
         <v>7</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="10">
         <v>44083</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -8305,22 +13596,28 @@
         <v>571</v>
       </c>
       <c r="I59" t="s">
-        <v>785</v>
+        <v>1252</v>
       </c>
       <c r="J59" t="s">
         <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>786</v>
+        <v>1253</v>
       </c>
       <c r="L59" t="s">
         <v>617</v>
       </c>
       <c r="M59" t="s">
-        <v>787</v>
+        <v>1254</v>
+      </c>
+      <c r="N59" t="s">
+        <v>617</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1255</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -8330,7 +13627,7 @@
       <c r="C60" s="2">
         <v>4</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="10">
         <v>44075</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -8346,22 +13643,28 @@
         <v>571</v>
       </c>
       <c r="I60" t="s">
-        <v>788</v>
+        <v>1256</v>
       </c>
       <c r="J60" t="s">
         <v>497</v>
       </c>
       <c r="K60" t="s">
-        <v>789</v>
+        <v>1257</v>
       </c>
       <c r="L60" t="s">
         <v>617</v>
       </c>
       <c r="M60" t="s">
-        <v>790</v>
+        <v>1258</v>
+      </c>
+      <c r="N60" t="s">
+        <v>617</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1259</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -8371,7 +13674,7 @@
       <c r="C61" s="2">
         <v>6</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="10">
         <v>44161</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -8387,22 +13690,28 @@
         <v>572</v>
       </c>
       <c r="I61" t="s">
-        <v>791</v>
+        <v>1260</v>
       </c>
       <c r="J61" t="s">
         <v>494</v>
       </c>
       <c r="K61" t="s">
-        <v>792</v>
+        <v>1261</v>
       </c>
       <c r="L61" t="s">
         <v>617</v>
       </c>
       <c r="M61" t="s">
-        <v>793</v>
+        <v>1262</v>
+      </c>
+      <c r="N61" t="s">
+        <v>617</v>
+      </c>
+      <c r="O61" t="s">
+        <v>1263</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -8412,7 +13721,7 @@
       <c r="C62" s="2">
         <v>4</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="10">
         <v>44044</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -8428,22 +13737,28 @@
         <v>626</v>
       </c>
       <c r="I62" t="s">
-        <v>794</v>
+        <v>1264</v>
       </c>
       <c r="J62" t="s">
         <v>498</v>
       </c>
       <c r="K62" t="s">
-        <v>795</v>
+        <v>1265</v>
       </c>
       <c r="L62" t="s">
         <v>617</v>
       </c>
       <c r="M62" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N62" t="s">
+        <v>617</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1266</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -8453,7 +13768,7 @@
       <c r="C63" s="2">
         <v>3</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="10">
         <v>44440</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -8469,22 +13784,28 @@
         <v>573</v>
       </c>
       <c r="I63" t="s">
-        <v>796</v>
+        <v>1267</v>
       </c>
       <c r="J63" t="s">
         <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>797</v>
+        <v>1268</v>
       </c>
       <c r="L63" t="s">
         <v>617</v>
       </c>
       <c r="M63" t="s">
-        <v>798</v>
+        <v>1269</v>
+      </c>
+      <c r="N63" t="s">
+        <v>617</v>
+      </c>
+      <c r="O63" t="s">
+        <v>1270</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -8494,7 +13815,7 @@
       <c r="C64" s="2">
         <v>8</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="10">
         <v>44081</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -8510,22 +13831,28 @@
         <v>574</v>
       </c>
       <c r="I64" t="s">
-        <v>799</v>
+        <v>1271</v>
       </c>
       <c r="J64" t="s">
         <v>500</v>
       </c>
       <c r="K64" t="s">
-        <v>800</v>
+        <v>1272</v>
       </c>
       <c r="L64" t="s">
         <v>617</v>
       </c>
       <c r="M64" t="s">
-        <v>801</v>
+        <v>1273</v>
+      </c>
+      <c r="N64" t="s">
+        <v>617</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1274</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>189</v>
       </c>
@@ -8535,7 +13862,7 @@
       <c r="C65" s="2">
         <v>2</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="10">
         <v>44075</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -8551,22 +13878,28 @@
         <v>575</v>
       </c>
       <c r="I65" t="s">
-        <v>802</v>
+        <v>1275</v>
       </c>
       <c r="J65" t="s">
         <v>501</v>
       </c>
       <c r="K65" t="s">
-        <v>803</v>
+        <v>1276</v>
       </c>
       <c r="L65" t="s">
         <v>617</v>
       </c>
       <c r="M65" t="s">
-        <v>804</v>
+        <v>1277</v>
+      </c>
+      <c r="N65" t="s">
+        <v>617</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1278</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>192</v>
       </c>
@@ -8576,7 +13909,7 @@
       <c r="C66" s="2">
         <v>3</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="10">
         <v>44250</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -8598,16 +13931,22 @@
         <v>633</v>
       </c>
       <c r="K66" t="s">
-        <v>805</v>
+        <v>1279</v>
       </c>
       <c r="L66" t="s">
         <v>617</v>
       </c>
       <c r="M66" t="s">
-        <v>806</v>
+        <v>1280</v>
+      </c>
+      <c r="N66" t="s">
+        <v>617</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1281</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>195</v>
       </c>
@@ -8617,7 +13956,7 @@
       <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="10">
         <v>44409</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -8633,22 +13972,28 @@
         <v>576</v>
       </c>
       <c r="I67" t="s">
-        <v>807</v>
+        <v>1282</v>
       </c>
       <c r="J67" t="s">
         <v>465</v>
       </c>
       <c r="K67" t="s">
-        <v>808</v>
+        <v>1283</v>
       </c>
       <c r="L67" t="s">
         <v>617</v>
       </c>
       <c r="M67" t="s">
-        <v>809</v>
+        <v>1284</v>
+      </c>
+      <c r="N67" t="s">
+        <v>617</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1285</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>198</v>
       </c>
@@ -8658,7 +14003,7 @@
       <c r="C68" s="2">
         <v>2</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="10">
         <v>44410</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -8674,22 +14019,28 @@
         <v>577</v>
       </c>
       <c r="I68" t="s">
-        <v>810</v>
+        <v>1286</v>
       </c>
       <c r="J68" t="s">
         <v>502</v>
       </c>
       <c r="K68" t="s">
-        <v>811</v>
+        <v>1287</v>
       </c>
       <c r="L68" t="s">
         <v>617</v>
       </c>
       <c r="M68" t="s">
-        <v>812</v>
+        <v>1288</v>
+      </c>
+      <c r="N68" t="s">
+        <v>617</v>
+      </c>
+      <c r="O68" t="s">
+        <v>1289</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>201</v>
       </c>
@@ -8699,7 +14050,7 @@
       <c r="C69" s="2">
         <v>11</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="10">
         <v>44265</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -8715,22 +14066,28 @@
         <v>578</v>
       </c>
       <c r="I69" t="s">
-        <v>813</v>
+        <v>1290</v>
       </c>
       <c r="J69" t="s">
         <v>467</v>
       </c>
       <c r="K69" t="s">
-        <v>814</v>
+        <v>1291</v>
       </c>
       <c r="L69" t="s">
         <v>617</v>
       </c>
       <c r="M69" t="s">
-        <v>815</v>
+        <v>1292</v>
+      </c>
+      <c r="N69" t="s">
+        <v>617</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1293</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
@@ -8740,7 +14097,7 @@
       <c r="C70" s="2">
         <v>2</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="10">
         <v>44409</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -8756,22 +14113,28 @@
         <v>627</v>
       </c>
       <c r="I70" t="s">
-        <v>816</v>
+        <v>1294</v>
       </c>
       <c r="J70" t="s">
         <v>503</v>
       </c>
       <c r="K70" t="s">
-        <v>817</v>
+        <v>1295</v>
       </c>
       <c r="L70" t="s">
         <v>617</v>
       </c>
       <c r="M70" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N70" t="s">
+        <v>617</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1296</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>207</v>
       </c>
@@ -8781,7 +14144,7 @@
       <c r="C71" s="2">
         <v>10</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="10">
         <v>44238</v>
       </c>
       <c r="E71" s="8" t="s">
@@ -8797,22 +14160,28 @@
         <v>579</v>
       </c>
       <c r="I71" t="s">
-        <v>818</v>
+        <v>1297</v>
       </c>
       <c r="J71" t="s">
         <v>467</v>
       </c>
       <c r="K71" t="s">
-        <v>819</v>
+        <v>1298</v>
       </c>
       <c r="L71" t="s">
         <v>617</v>
       </c>
       <c r="M71" t="s">
-        <v>820</v>
+        <v>1299</v>
+      </c>
+      <c r="N71" t="s">
+        <v>617</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1300</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>210</v>
       </c>
@@ -8822,7 +14191,7 @@
       <c r="C72" s="2">
         <v>5</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="10">
         <v>44004</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -8838,22 +14207,28 @@
         <v>580</v>
       </c>
       <c r="I72" t="s">
-        <v>821</v>
+        <v>1301</v>
       </c>
       <c r="J72" t="s">
         <v>504</v>
       </c>
       <c r="K72" t="s">
-        <v>822</v>
+        <v>1302</v>
       </c>
       <c r="L72" t="s">
         <v>617</v>
       </c>
       <c r="M72" t="s">
-        <v>823</v>
+        <v>1303</v>
+      </c>
+      <c r="N72" t="s">
+        <v>617</v>
+      </c>
+      <c r="O72" t="s">
+        <v>1304</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>213</v>
       </c>
@@ -8863,7 +14238,7 @@
       <c r="C73" s="2">
         <v>1</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="10">
         <v>44372</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -8879,22 +14254,28 @@
         <v>581</v>
       </c>
       <c r="I73" t="s">
-        <v>824</v>
+        <v>1305</v>
       </c>
       <c r="J73" t="s">
         <v>505</v>
       </c>
       <c r="K73" t="s">
-        <v>825</v>
+        <v>1306</v>
       </c>
       <c r="L73" t="s">
         <v>617</v>
       </c>
       <c r="M73" t="s">
-        <v>826</v>
+        <v>1307</v>
+      </c>
+      <c r="N73" t="s">
+        <v>617</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1308</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>216</v>
       </c>
@@ -8904,7 +14285,7 @@
       <c r="C74" s="2">
         <v>10</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="10">
         <v>44378</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -8920,22 +14301,28 @@
         <v>582</v>
       </c>
       <c r="I74" t="s">
-        <v>827</v>
+        <v>1309</v>
       </c>
       <c r="J74" t="s">
         <v>506</v>
       </c>
       <c r="K74" t="s">
-        <v>828</v>
+        <v>1310</v>
       </c>
       <c r="L74" t="s">
         <v>617</v>
       </c>
       <c r="M74" t="s">
-        <v>829</v>
+        <v>1311</v>
+      </c>
+      <c r="N74" t="s">
+        <v>617</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1312</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>219</v>
       </c>
@@ -8945,7 +14332,7 @@
       <c r="C75" s="2">
         <v>9</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="10">
         <v>44106</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -8961,22 +14348,28 @@
         <v>583</v>
       </c>
       <c r="I75" t="s">
-        <v>830</v>
+        <v>1313</v>
       </c>
       <c r="J75" t="s">
         <v>507</v>
       </c>
       <c r="K75" t="s">
-        <v>831</v>
+        <v>1314</v>
       </c>
       <c r="L75" t="s">
         <v>617</v>
       </c>
       <c r="M75" t="s">
-        <v>832</v>
+        <v>1315</v>
+      </c>
+      <c r="N75" t="s">
+        <v>617</v>
+      </c>
+      <c r="O75" t="s">
+        <v>1316</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>222</v>
       </c>
@@ -8986,7 +14379,7 @@
       <c r="C76" s="2">
         <v>3</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="10">
         <v>44101</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -9002,22 +14395,28 @@
         <v>584</v>
       </c>
       <c r="I76" t="s">
-        <v>833</v>
+        <v>1317</v>
       </c>
       <c r="J76" t="s">
         <v>508</v>
       </c>
       <c r="K76" t="s">
-        <v>834</v>
+        <v>1318</v>
       </c>
       <c r="L76" t="s">
         <v>617</v>
       </c>
       <c r="M76" t="s">
-        <v>835</v>
+        <v>1319</v>
+      </c>
+      <c r="N76" t="s">
+        <v>617</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1320</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>225</v>
       </c>
@@ -9027,7 +14426,7 @@
       <c r="C77" s="2">
         <v>3</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="10">
         <v>44235</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -9049,16 +14448,22 @@
         <v>633</v>
       </c>
       <c r="K77" t="s">
-        <v>836</v>
+        <v>1321</v>
       </c>
       <c r="L77" t="s">
         <v>617</v>
       </c>
       <c r="M77" t="s">
-        <v>837</v>
+        <v>1322</v>
+      </c>
+      <c r="N77" t="s">
+        <v>617</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1323</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>228</v>
       </c>
@@ -9068,7 +14473,7 @@
       <c r="C78" s="2">
         <v>4</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="10">
         <v>44138</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -9084,22 +14489,28 @@
         <v>585</v>
       </c>
       <c r="I78" t="s">
-        <v>838</v>
+        <v>1324</v>
       </c>
       <c r="J78" t="s">
         <v>467</v>
       </c>
       <c r="K78" t="s">
-        <v>839</v>
+        <v>1325</v>
       </c>
       <c r="L78" t="s">
         <v>617</v>
       </c>
       <c r="M78" t="s">
-        <v>840</v>
+        <v>1326</v>
+      </c>
+      <c r="N78" t="s">
+        <v>617</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1327</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>231</v>
       </c>
@@ -9109,7 +14520,7 @@
       <c r="C79" s="2">
         <v>6</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="10">
         <v>44155</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -9125,22 +14536,28 @@
         <v>586</v>
       </c>
       <c r="I79" t="s">
-        <v>841</v>
+        <v>1328</v>
       </c>
       <c r="J79" t="s">
         <v>467</v>
       </c>
       <c r="K79" t="s">
-        <v>842</v>
+        <v>1329</v>
       </c>
       <c r="L79" t="s">
         <v>617</v>
       </c>
       <c r="M79" t="s">
-        <v>843</v>
+        <v>1330</v>
+      </c>
+      <c r="N79" t="s">
+        <v>617</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1331</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
@@ -9150,7 +14567,7 @@
       <c r="C80" s="2">
         <v>6</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="10">
         <v>44120</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -9166,22 +14583,28 @@
         <v>587</v>
       </c>
       <c r="I80" t="s">
-        <v>844</v>
+        <v>1332</v>
       </c>
       <c r="J80" t="s">
         <v>509</v>
       </c>
       <c r="K80" t="s">
-        <v>845</v>
+        <v>1333</v>
       </c>
       <c r="L80" t="s">
         <v>617</v>
       </c>
       <c r="M80" t="s">
-        <v>846</v>
+        <v>1334</v>
+      </c>
+      <c r="N80" t="s">
+        <v>617</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1335</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>237</v>
       </c>
@@ -9191,7 +14614,7 @@
       <c r="C81" s="2">
         <v>8</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="10">
         <v>44376</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -9207,22 +14630,28 @@
         <v>588</v>
       </c>
       <c r="I81" t="s">
-        <v>847</v>
+        <v>1336</v>
       </c>
       <c r="J81" t="s">
         <v>467</v>
       </c>
       <c r="K81" t="s">
-        <v>848</v>
+        <v>1337</v>
       </c>
       <c r="L81" t="s">
         <v>617</v>
       </c>
       <c r="M81" t="s">
-        <v>849</v>
+        <v>1338</v>
+      </c>
+      <c r="N81" t="s">
+        <v>617</v>
+      </c>
+      <c r="O81" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>240</v>
       </c>
@@ -9232,7 +14661,7 @@
       <c r="C82" s="2">
         <v>6</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="10">
         <v>44090</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -9254,16 +14683,22 @@
         <v>633</v>
       </c>
       <c r="K82" t="s">
-        <v>850</v>
+        <v>1339</v>
       </c>
       <c r="L82" t="s">
         <v>617</v>
       </c>
       <c r="M82" t="s">
-        <v>851</v>
+        <v>1340</v>
+      </c>
+      <c r="N82" t="s">
+        <v>617</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1341</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>243</v>
       </c>
@@ -9273,7 +14708,7 @@
       <c r="C83" s="2">
         <v>3</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="10">
         <v>44351</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -9289,22 +14724,28 @@
         <v>589</v>
       </c>
       <c r="I83" t="s">
-        <v>852</v>
+        <v>1342</v>
       </c>
       <c r="J83" t="s">
         <v>467</v>
       </c>
       <c r="K83" t="s">
-        <v>853</v>
+        <v>1343</v>
       </c>
       <c r="L83" t="s">
         <v>617</v>
       </c>
       <c r="M83" t="s">
-        <v>854</v>
+        <v>1344</v>
+      </c>
+      <c r="N83" t="s">
+        <v>617</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1345</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>246</v>
       </c>
@@ -9314,7 +14755,7 @@
       <c r="C84" s="2">
         <v>4</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="10">
         <v>44163</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -9330,22 +14771,28 @@
         <v>590</v>
       </c>
       <c r="I84" t="s">
-        <v>855</v>
+        <v>1346</v>
       </c>
       <c r="J84" t="s">
         <v>510</v>
       </c>
       <c r="K84" t="s">
-        <v>856</v>
+        <v>1347</v>
       </c>
       <c r="L84" t="s">
         <v>617</v>
       </c>
       <c r="M84" t="s">
-        <v>857</v>
+        <v>1348</v>
+      </c>
+      <c r="N84" t="s">
+        <v>617</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1349</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>249</v>
       </c>
@@ -9355,7 +14802,7 @@
       <c r="C85" s="2">
         <v>14</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="10">
         <v>44678</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -9371,22 +14818,28 @@
         <v>591</v>
       </c>
       <c r="I85" t="s">
-        <v>858</v>
+        <v>1350</v>
       </c>
       <c r="J85" t="s">
         <v>511</v>
       </c>
       <c r="K85" t="s">
-        <v>859</v>
+        <v>1351</v>
       </c>
       <c r="L85" t="s">
         <v>617</v>
       </c>
       <c r="M85" t="s">
-        <v>860</v>
+        <v>1352</v>
+      </c>
+      <c r="N85" t="s">
+        <v>617</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1353</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>252</v>
       </c>
@@ -9396,7 +14849,7 @@
       <c r="C86" s="2">
         <v>5</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="10">
         <v>44197</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -9412,22 +14865,28 @@
         <v>592</v>
       </c>
       <c r="I86" t="s">
-        <v>861</v>
+        <v>1354</v>
       </c>
       <c r="J86" t="s">
         <v>512</v>
       </c>
       <c r="K86" t="s">
-        <v>862</v>
+        <v>1355</v>
       </c>
       <c r="L86" t="s">
         <v>617</v>
       </c>
       <c r="M86" t="s">
-        <v>863</v>
+        <v>1356</v>
+      </c>
+      <c r="N86" t="s">
+        <v>617</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1357</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>255</v>
       </c>
@@ -9437,7 +14896,7 @@
       <c r="C87" s="2">
         <v>6</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="10">
         <v>45030</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -9459,16 +14918,22 @@
         <v>633</v>
       </c>
       <c r="K87" t="s">
-        <v>864</v>
+        <v>1358</v>
       </c>
       <c r="L87" t="s">
         <v>617</v>
       </c>
       <c r="M87" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N87" t="s">
+        <v>617</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1359</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>258</v>
       </c>
@@ -9478,7 +14943,7 @@
       <c r="C88" s="2">
         <v>5</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="10">
         <v>44043</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -9494,22 +14959,28 @@
         <v>593</v>
       </c>
       <c r="I88" t="s">
-        <v>865</v>
+        <v>1360</v>
       </c>
       <c r="J88" t="s">
         <v>513</v>
       </c>
       <c r="K88" t="s">
-        <v>866</v>
+        <v>1361</v>
       </c>
       <c r="L88" t="s">
         <v>617</v>
       </c>
       <c r="M88" t="s">
-        <v>867</v>
+        <v>1362</v>
+      </c>
+      <c r="N88" t="s">
+        <v>617</v>
+      </c>
+      <c r="O88" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>261</v>
       </c>
@@ -9519,7 +14990,7 @@
       <c r="C89" s="2">
         <v>2</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="10">
         <v>44319</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -9535,22 +15006,28 @@
         <v>594</v>
       </c>
       <c r="I89" t="s">
-        <v>868</v>
+        <v>1363</v>
       </c>
       <c r="J89" t="s">
         <v>495</v>
       </c>
       <c r="K89" t="s">
-        <v>869</v>
+        <v>1364</v>
       </c>
       <c r="L89" t="s">
         <v>617</v>
       </c>
       <c r="M89" t="s">
-        <v>870</v>
+        <v>1365</v>
+      </c>
+      <c r="N89" t="s">
+        <v>617</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1366</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>264</v>
       </c>
@@ -9560,7 +15037,7 @@
       <c r="C90" s="2">
         <v>4</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="10">
         <v>44196</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -9582,16 +15059,22 @@
         <v>633</v>
       </c>
       <c r="K90" t="s">
-        <v>871</v>
+        <v>1367</v>
       </c>
       <c r="L90" t="s">
         <v>617</v>
       </c>
       <c r="M90" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N90" t="s">
+        <v>617</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1368</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>267</v>
       </c>
@@ -9601,7 +15084,7 @@
       <c r="C91" s="2">
         <v>8</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="10">
         <v>44128</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -9617,22 +15100,28 @@
         <v>595</v>
       </c>
       <c r="I91" t="s">
-        <v>872</v>
+        <v>1369</v>
       </c>
       <c r="J91" t="s">
         <v>514</v>
       </c>
       <c r="K91" t="s">
-        <v>873</v>
+        <v>1370</v>
       </c>
       <c r="L91" t="s">
         <v>617</v>
       </c>
       <c r="M91" t="s">
-        <v>874</v>
+        <v>1371</v>
+      </c>
+      <c r="N91" t="s">
+        <v>617</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1372</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>270</v>
       </c>
@@ -9642,7 +15131,7 @@
       <c r="C92" s="2">
         <v>3</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="10">
         <v>44197</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -9658,22 +15147,28 @@
         <v>596</v>
       </c>
       <c r="I92" t="s">
-        <v>875</v>
+        <v>1373</v>
       </c>
       <c r="J92" t="s">
         <v>515</v>
       </c>
       <c r="K92" t="s">
-        <v>876</v>
+        <v>1374</v>
       </c>
       <c r="L92" t="s">
         <v>617</v>
       </c>
       <c r="M92" t="s">
-        <v>877</v>
+        <v>1375</v>
+      </c>
+      <c r="N92" t="s">
+        <v>617</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1376</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>273</v>
       </c>
@@ -9683,7 +15178,7 @@
       <c r="C93" s="2">
         <v>3</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="10">
         <v>44127</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -9705,16 +15200,22 @@
         <v>633</v>
       </c>
       <c r="K93" t="s">
-        <v>878</v>
+        <v>1377</v>
       </c>
       <c r="L93" t="s">
         <v>617</v>
       </c>
       <c r="M93" t="s">
-        <v>879</v>
+        <v>1378</v>
+      </c>
+      <c r="N93" t="s">
+        <v>617</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1379</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>276</v>
       </c>
@@ -9724,7 +15225,7 @@
       <c r="C94" s="2">
         <v>3</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="10">
         <v>44336</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -9740,22 +15241,28 @@
         <v>598</v>
       </c>
       <c r="I94" t="s">
-        <v>880</v>
+        <v>1380</v>
       </c>
       <c r="J94" t="s">
         <v>516</v>
       </c>
       <c r="K94" t="s">
-        <v>881</v>
+        <v>1381</v>
       </c>
       <c r="L94" t="s">
         <v>617</v>
       </c>
       <c r="M94" t="s">
-        <v>882</v>
+        <v>1382</v>
+      </c>
+      <c r="N94" t="s">
+        <v>617</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1383</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>279</v>
       </c>
@@ -9765,7 +15272,7 @@
       <c r="C95" s="2">
         <v>6</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="10">
         <v>44365</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -9787,16 +15294,22 @@
         <v>633</v>
       </c>
       <c r="K95" t="s">
-        <v>883</v>
+        <v>1384</v>
       </c>
       <c r="L95" t="s">
         <v>617</v>
       </c>
       <c r="M95" t="s">
-        <v>884</v>
+        <v>1385</v>
+      </c>
+      <c r="N95" t="s">
+        <v>617</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1386</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>282</v>
       </c>
@@ -9806,7 +15319,7 @@
       <c r="C96" s="2">
         <v>6</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="10">
         <v>44244</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -9822,22 +15335,28 @@
         <v>599</v>
       </c>
       <c r="I96" t="s">
-        <v>885</v>
+        <v>1387</v>
       </c>
       <c r="J96" t="s">
         <v>462</v>
       </c>
       <c r="K96" t="s">
-        <v>886</v>
+        <v>1388</v>
       </c>
       <c r="L96" t="s">
         <v>617</v>
       </c>
       <c r="M96" t="s">
-        <v>887</v>
+        <v>1389</v>
+      </c>
+      <c r="N96" t="s">
+        <v>617</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1390</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>285</v>
       </c>
@@ -9847,7 +15366,7 @@
       <c r="C97" s="2">
         <v>3</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="10">
         <v>44080</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -9863,22 +15382,28 @@
         <v>600</v>
       </c>
       <c r="I97" t="s">
-        <v>888</v>
+        <v>1391</v>
       </c>
       <c r="J97" t="s">
         <v>517</v>
       </c>
       <c r="K97" t="s">
-        <v>889</v>
+        <v>1392</v>
       </c>
       <c r="L97" t="s">
         <v>617</v>
       </c>
       <c r="M97" t="s">
-        <v>890</v>
+        <v>1393</v>
+      </c>
+      <c r="N97" t="s">
+        <v>617</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1394</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>288</v>
       </c>
@@ -9888,7 +15413,7 @@
       <c r="C98" s="2">
         <v>4</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="10">
         <v>44363</v>
       </c>
       <c r="E98" s="8" t="s">
@@ -9904,22 +15429,28 @@
         <v>601</v>
       </c>
       <c r="I98" t="s">
-        <v>891</v>
+        <v>1395</v>
       </c>
       <c r="J98" t="s">
         <v>518</v>
       </c>
       <c r="K98" t="s">
-        <v>892</v>
+        <v>1396</v>
       </c>
       <c r="L98" t="s">
         <v>617</v>
       </c>
       <c r="M98" t="s">
-        <v>893</v>
+        <v>1397</v>
+      </c>
+      <c r="N98" t="s">
+        <v>617</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1398</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>291</v>
       </c>
@@ -9929,7 +15460,7 @@
       <c r="C99" s="2">
         <v>3</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="10">
         <v>44187</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -9945,22 +15476,28 @@
         <v>602</v>
       </c>
       <c r="I99" t="s">
-        <v>894</v>
+        <v>1399</v>
       </c>
       <c r="J99" t="s">
         <v>519</v>
       </c>
       <c r="K99" t="s">
-        <v>895</v>
+        <v>1400</v>
       </c>
       <c r="L99" t="s">
         <v>617</v>
       </c>
       <c r="M99" t="s">
-        <v>896</v>
+        <v>1401</v>
+      </c>
+      <c r="N99" t="s">
+        <v>617</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1402</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>294</v>
       </c>
@@ -9970,7 +15507,7 @@
       <c r="C100" s="2">
         <v>4</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="10">
         <v>44132</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -9986,22 +15523,28 @@
         <v>603</v>
       </c>
       <c r="I100" t="s">
-        <v>897</v>
+        <v>1403</v>
       </c>
       <c r="J100" t="s">
         <v>475</v>
       </c>
       <c r="K100" t="s">
-        <v>898</v>
+        <v>1404</v>
       </c>
       <c r="L100" t="s">
         <v>617</v>
       </c>
       <c r="M100" t="s">
-        <v>899</v>
+        <v>1405</v>
+      </c>
+      <c r="N100" t="s">
+        <v>617</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1406</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>297</v>
       </c>
@@ -10011,7 +15554,7 @@
       <c r="C101" s="2">
         <v>8</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="10">
         <v>44061</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -10027,22 +15570,28 @@
         <v>604</v>
       </c>
       <c r="I101" t="s">
-        <v>900</v>
+        <v>1407</v>
       </c>
       <c r="J101" t="s">
         <v>520</v>
       </c>
       <c r="K101" t="s">
-        <v>901</v>
+        <v>1408</v>
       </c>
       <c r="L101" t="s">
         <v>617</v>
       </c>
       <c r="M101" t="s">
-        <v>902</v>
+        <v>1409</v>
+      </c>
+      <c r="N101" t="s">
+        <v>617</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1410</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
@@ -10052,7 +15601,7 @@
       <c r="C102" s="2">
         <v>5</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="10">
         <v>44370</v>
       </c>
       <c r="E102" s="8" t="s">
@@ -10068,22 +15617,28 @@
         <v>605</v>
       </c>
       <c r="I102" t="s">
-        <v>903</v>
+        <v>1411</v>
       </c>
       <c r="J102" t="s">
         <v>467</v>
       </c>
       <c r="K102" t="s">
-        <v>904</v>
+        <v>1412</v>
       </c>
       <c r="L102" t="s">
         <v>617</v>
       </c>
       <c r="M102" t="s">
-        <v>905</v>
+        <v>1413</v>
+      </c>
+      <c r="N102" t="s">
+        <v>617</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1414</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>303</v>
       </c>
@@ -10093,7 +15648,7 @@
       <c r="C103" s="2">
         <v>2</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="10">
         <v>44345</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -10109,22 +15664,28 @@
         <v>606</v>
       </c>
       <c r="I103" t="s">
-        <v>906</v>
+        <v>1415</v>
       </c>
       <c r="J103" t="s">
         <v>521</v>
       </c>
       <c r="K103" t="s">
-        <v>907</v>
+        <v>1416</v>
       </c>
       <c r="L103" t="s">
         <v>617</v>
       </c>
       <c r="M103" t="s">
-        <v>908</v>
+        <v>1417</v>
+      </c>
+      <c r="N103" t="s">
+        <v>617</v>
+      </c>
+      <c r="O103" t="s">
+        <v>1418</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>306</v>
       </c>
@@ -10134,7 +15695,7 @@
       <c r="C104" s="2">
         <v>3</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="10">
         <v>44368</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -10156,16 +15717,22 @@
         <v>633</v>
       </c>
       <c r="K104" t="s">
-        <v>909</v>
+        <v>1419</v>
       </c>
       <c r="L104" t="s">
         <v>617</v>
       </c>
       <c r="M104" t="s">
-        <v>910</v>
+        <v>1420</v>
+      </c>
+      <c r="N104" t="s">
+        <v>617</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1421</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>309</v>
       </c>
@@ -10175,7 +15742,7 @@
       <c r="C105" s="2">
         <v>3</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="10">
         <v>44201</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -10191,22 +15758,28 @@
         <v>608</v>
       </c>
       <c r="I105" t="s">
-        <v>911</v>
+        <v>1422</v>
       </c>
       <c r="J105" t="s">
         <v>489</v>
       </c>
       <c r="K105" t="s">
-        <v>912</v>
+        <v>1423</v>
       </c>
       <c r="L105" t="s">
         <v>617</v>
       </c>
       <c r="M105" t="s">
-        <v>913</v>
+        <v>1424</v>
+      </c>
+      <c r="N105" t="s">
+        <v>617</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1425</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>312</v>
       </c>
@@ -10216,7 +15789,7 @@
       <c r="C106" s="2">
         <v>3</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="10">
         <v>44361</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -10232,22 +15805,28 @@
         <v>609</v>
       </c>
       <c r="I106" t="s">
-        <v>914</v>
+        <v>1426</v>
       </c>
       <c r="J106" t="s">
         <v>470</v>
       </c>
       <c r="K106" t="s">
-        <v>915</v>
+        <v>1427</v>
       </c>
       <c r="L106" t="s">
         <v>617</v>
       </c>
       <c r="M106" t="s">
-        <v>916</v>
+        <v>1428</v>
+      </c>
+      <c r="N106" t="s">
+        <v>617</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1429</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>315</v>
       </c>
@@ -10257,7 +15836,7 @@
       <c r="C107" s="2">
         <v>9</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="10">
         <v>44228</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -10273,22 +15852,28 @@
         <v>610</v>
       </c>
       <c r="I107" t="s">
-        <v>917</v>
+        <v>1430</v>
       </c>
       <c r="J107" t="s">
         <v>522</v>
       </c>
       <c r="K107" t="s">
-        <v>918</v>
+        <v>1431</v>
       </c>
       <c r="L107" t="s">
         <v>617</v>
       </c>
       <c r="M107" t="s">
-        <v>919</v>
+        <v>1432</v>
+      </c>
+      <c r="N107" t="s">
+        <v>617</v>
+      </c>
+      <c r="O107" t="s">
+        <v>1433</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>318</v>
       </c>
@@ -10298,7 +15883,7 @@
       <c r="C108" s="2">
         <v>6</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="10">
         <v>44136</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -10314,22 +15899,28 @@
         <v>611</v>
       </c>
       <c r="I108" t="s">
-        <v>920</v>
+        <v>1434</v>
       </c>
       <c r="J108" t="s">
         <v>523</v>
       </c>
       <c r="K108" t="s">
-        <v>921</v>
+        <v>1435</v>
       </c>
       <c r="L108" t="s">
         <v>617</v>
       </c>
       <c r="M108" t="s">
-        <v>922</v>
+        <v>1436</v>
+      </c>
+      <c r="N108" t="s">
+        <v>617</v>
+      </c>
+      <c r="O108" t="s">
+        <v>1437</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>321</v>
       </c>
@@ -10339,7 +15930,7 @@
       <c r="C109" s="2">
         <v>5</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="10">
         <v>44463</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -10355,22 +15946,28 @@
         <v>612</v>
       </c>
       <c r="I109" t="s">
-        <v>923</v>
+        <v>1438</v>
       </c>
       <c r="J109" t="s">
         <v>524</v>
       </c>
       <c r="K109" t="s">
-        <v>924</v>
+        <v>1439</v>
       </c>
       <c r="L109" t="s">
         <v>617</v>
       </c>
       <c r="M109" t="s">
-        <v>925</v>
+        <v>1440</v>
+      </c>
+      <c r="N109" t="s">
+        <v>617</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1441</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>324</v>
       </c>
@@ -10380,7 +15977,7 @@
       <c r="C110" s="2">
         <v>4</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="10">
         <v>44180</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -10396,22 +15993,28 @@
         <v>613</v>
       </c>
       <c r="I110" t="s">
-        <v>926</v>
+        <v>1442</v>
       </c>
       <c r="J110" t="s">
         <v>525</v>
       </c>
       <c r="K110" t="s">
-        <v>927</v>
+        <v>1443</v>
       </c>
       <c r="L110" t="s">
         <v>617</v>
       </c>
       <c r="M110" t="s">
-        <v>928</v>
+        <v>1444</v>
+      </c>
+      <c r="N110" t="s">
+        <v>617</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1445</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>327</v>
       </c>
@@ -10421,7 +16024,7 @@
       <c r="C111" s="2">
         <v>1</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="10">
         <v>44309</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -10437,22 +16040,28 @@
         <v>614</v>
       </c>
       <c r="I111" t="s">
-        <v>929</v>
+        <v>1446</v>
       </c>
       <c r="J111" t="s">
         <v>526</v>
       </c>
       <c r="K111" t="s">
-        <v>930</v>
+        <v>1447</v>
       </c>
       <c r="L111" t="s">
         <v>617</v>
       </c>
       <c r="M111" t="s">
-        <v>931</v>
+        <v>1448</v>
+      </c>
+      <c r="N111" t="s">
+        <v>617</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1449</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>330</v>
       </c>
@@ -10462,7 +16071,7 @@
       <c r="C112" s="2">
         <v>6</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="10">
         <v>44334</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -10478,19 +16087,25 @@
         <v>615</v>
       </c>
       <c r="I112" t="s">
-        <v>932</v>
+        <v>1450</v>
       </c>
       <c r="J112" t="s">
         <v>527</v>
       </c>
       <c r="K112" t="s">
-        <v>933</v>
+        <v>1451</v>
       </c>
       <c r="L112" t="s">
         <v>617</v>
       </c>
       <c r="M112" t="s">
-        <v>934</v>
+        <v>1452</v>
+      </c>
+      <c r="N112" t="s">
+        <v>617</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10511,13 +16126,19 @@
         <v>633</v>
       </c>
       <c r="K113" t="s">
-        <v>635</v>
+        <v>1048</v>
       </c>
       <c r="L113" t="s">
         <v>617</v>
       </c>
       <c r="M113" t="s">
-        <v>635</v>
+        <v>1048</v>
+      </c>
+      <c r="N113" t="s">
+        <v>617</v>
+      </c>
+      <c r="O113" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Covid_SLR_Dataset.xlsx
+++ b/Dataset/Covid_SLR_Dataset.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\FASS-SLR\FASS-SLR\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20532A48-B614-4CD5-8EE9-14AF150B71D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41584946-3A87-425E-B9BE-4FE429810BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1043">
   <si>
     <t>SLR Name</t>
   </si>
@@ -3100,3552 +3100,10 @@
 This was the first meta-analysis exploring the prevalence and impact of cardiac injury on COVID-19. Cardiac injury is common in hospitalized patients and advanced age and severe COVID-19 patients prone to experience more risk of cardiac injury. Furthermore, cardiac injury is associated with increased risk of all-cause mortality.</t>
   </si>
   <si>
-    <t>[You%Li%you.li2@ed.ac.uk%1,  Xin%Wang%xin.wang-2@ed.ac.uk%2,  Xin%Wang%xin.wang-2@ed.ac.uk%0,  Harish%Nair%NULL%2,  Harish%Nair%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Seasonal variation" OR "Seasonal patterns") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Epidemiology" OR "Prevalence" OR "Incidence") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Temporal distribution" OR "Temporal patterns" OR "Temporal trends") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Climate factors" OR "Weather conditions" OR "Meteorological parameters") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Transmission dynamics" OR "Spread patterns" OR "Seasonal outbreaks") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Geographic distribution" OR "Geographical variation" OR "Regional differences") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Longitudinal study" OR "Long-term analysis" OR "Time series analysis") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Seasonal patterns" OR "Seasonal trends") AND ("Human seasonal coronaviruses" OR "Human coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") AND ("Meta-analysis" OR "Systematic review") 
-(("Surveillance data" OR "Epidemiological records" OR "Public health databases") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") 
-(("Climatic factors" OR "Environmental conditions") AND ("Seasonal coronaviruses" OR "Human seasonal coronavirus infections")) AND ("Global" OR "Worldwide" OR "International") AND ("Multivariate analysis" OR "Regression analysis")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Human Coronaviruses"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Seasonal Variation"[Mesh] OR "Seasonal Epidemiology"[Mesh] OR "Seasonal Outbreaks"[Mesh]) AND ("Global Health"[Mesh] OR "Internationality"[Mesh])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Seasonal Pattern"[Mesh] OR "Seasonal Occurrence"[Mesh] OR "Seasonal Prevalence"[Mesh]) AND ("Respiratory Syncytial Viruses"[Mesh] OR "Influenza, Human"[Mesh])
-("Human Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Climate"[Mesh] OR "Weather"[Mesh] OR "Temperature"[Mesh] OR "Humidity"[Mesh]) AND ("Epidemiology"[Mesh] OR "Disease Outbreaks"[Mesh])
-("Seasonality"[Mesh] OR "Seasonal Variations"[Mesh] OR "Seasonal Patterns"[Mesh]) AND ("Human Coronaviruses"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Global Distribution"[Mesh] OR "Geographic Locations"[Mesh])
-("Coronaviruses, Human"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Postpandemic Period"[Mesh] OR "Recurrent Infections"[Mesh]) AND ("Epidemiology"[Mesh] OR "Public Health Preparedness"[Mesh])
-</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">(("Clinical features" OR "Symptoms" OR "Manifestations") AND "COVID-19") AND ("Severe" OR "Critical" OR "Severe disease course") 
-(("Risk factors" OR "Predictors" OR "Determinants") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19" 
-(("Prognostic factors" OR "Outcome predictors" OR "Clinical markers") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
-(("Clinical characteristics" OR "Clinical presentation" OR "Clinical profile") AND "COVID-19") AND ("Severe course" OR "Severe illness") 
-(("Disease severity" OR "Clinical progression" OR "Clinical deterioration") AND "COVID-19") AND ("Risk factors" OR "Predictive factors") 
-(("Complications" OR "Adverse outcomes" OR "Mortality") AND "COVID-19") AND ("Severe clinical course" OR "Severe disease course") 
-(("Demographic factors" OR "Patient characteristics" OR "Host factors") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
-(("Comorbidities" OR "Underlying conditions" OR "Coexisting diseases") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19" 
-(("Immunological factors" OR "Inflammatory markers" OR "Cytokine profile") AND ("Severe clinical course" OR "Severe disease outcome")) AND "COVID-19" 
-(("Treatment response" OR "Therapeutic interventions" OR "Clinical management") AND ("Severe clinical course" OR "Severe disease progression")) AND "COVID-19"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>[Dominika%Suchá%d.sucha@umcutrecht.nl%2,  Robbert W.%van Hamersvelt%NULL%4,  Robbert W.%van Hamersvelt%NULL%0,  Andor F.%van den Hoven%NULL%4,  Andor F.%van den Hoven%NULL%0,  Pim A.%de Jong%NULL%4,  Pim A.%de Jong%NULL%0,  Helena M.%Verkooijen%NULL%4,  Helena M.%Verkooijen%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation") AND ("Chest radiography" OR "Chest X-ray" OR "CT scan")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Quality assessment" OR "Risk of bias" OR "Methodological quality") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Systematic review" OR "Literature review" OR "Meta-analysis") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Bias assessment" OR "Risk of bias tool" OR "Study quality evaluation") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Suboptimal quality" OR "Low methodological quality" OR "Quality limitations") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Bias sources" OR "Study design limitations" OR "Methodological shortcomings") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Critical appraisal" OR "Methodological flaws" OR "Quality shortcomings") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Methodological challenges" OR "Limitations and biases" OR "Quality issues") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Critical analysis" OR "Study selection criteria" OR "Quality criteria") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department") 
-(("Study methodology" OR "Methodological assessment" OR "Quality evaluation") AND ("Diagnostic test accuracy" OR "Sensitivity and specificity" OR "Performance evaluation")) AND ("Chest radiography" OR "Chest X-ray" OR "CT scan") AND ("COVID-19" OR "SARS-CoV-2") AND ("Acute setting" OR "Emergency department")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Diagnostic Imaging"[Mesh] OR "Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh] OR "Ultrasonography"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Diagnostic Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh])
-("Reverse Transcriptase Polymerase Chain Reaction"[Mesh] OR "Clinical Consensus"[Mesh]) AND ("Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh] OR "Ultrasonography"[Mesh]) AND ("Diagnostic Test Accuracy"[Mesh] OR "Predictive Values"[Mesh])
-("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "STARD"[Mesh]) AND ("Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh] OR "QUADAS-2"[Mesh]) AND ("Reporting Quality"[Mesh] OR "Risk of Bias"[Mesh])
-("Diagnostic Test Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh] OR "Predictive Values"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019 Diagnosis"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("Reporting Guidelines"[Mesh] OR "Publication Bias"[Mesh]) AND ("Diagnostic Imaging"[Mesh] OR "Chest Radiography"[Mesh] OR "Computed Tomography"[Mesh]) AND ("COVID-19 Pandemic"[Mesh] OR "Public Health Emergency"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Mina%Ebrahimi%NULL%1,  Amal Saki%Malehi%NULL%2,  Amal Saki%Malehi%NULL%0,  Fakher%Rahim%NULL%2,  Fakher%Rahim%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") AND ("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND ("General population" OR "Non-medical population" OR "Community population") 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "COVID-19") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") AND ("General population" OR "Non-medical population" OR "Community population") AND ("Systematic review" OR "Meta-analysis") 
-(("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "COVID-19") AND ("General population" OR "Non-medical population" OR "Community population") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
-(("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND (("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND ("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes") 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis") AND ("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND ("General population" OR "Non-medical population" OR "Community population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) 
-(("Medical staff" OR "Healthcare workers" OR "Frontline workers") AND "General population") AND (("Laboratory findings" OR "Biomarkers" OR "Blood tests") AND ("Comorbidities" OR "Underlying conditions" OR "Medical history") AND ("Clinical outcomes" OR "Disease progression" OR "Patient outcomes")) AND (("COVID-19" OR "SARS-CoV-2") AND "Systematic review" AND "Meta-analysis")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Laboratory Findings"[Mesh] OR "Biomarkers"[Mesh]) AND ("Comorbidity"[Mesh] OR "Medical Staff"[Mesh] OR "Health Personnel"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Prognosis"[Mesh])
-("White Blood Cell Count"[Mesh] OR "Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh] OR "Procalcitonin"[Mesh] OR "Lactate Dehydrogenase"[Mesh] OR "Creatinine"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Disease Progression"[Mesh])
-("Mortality Rate"[Mesh] OR "Death Rate"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh]) AND ("Meta-Analysis as Topic"[Mesh] OR "Systematic Review"[Publication Type])
-("C-Reactive Protein"[Mesh] OR "Erythrocyte Sedimentation Rate"[Mesh] OR "Lactate Dehydrogenase"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Symptomatic Stage"[Mesh] OR "Early Stage"[Mesh]) AND ("Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh])
-("D-Dimer"[Mesh] OR "Fibrin Degradation Products"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Prognosis"[Mesh] OR "Clinical Outcome"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Thushara%Galbadage%NULL%1,  Brent M.%Peterson%NULL%1,  Joseph%Awada%NULL%1,  Alison S.%Buck%NULL%1,  Danny A.%Ramirez%NULL%1,  Jason%Wilson%NULL%1,  Richard S.%Gunasekera%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Clinical outcomes" OR "Disease outcomes" OR "Patient outcomes") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Clinical outcomes" OR "Disease outcomes" OR "Patient outcomes") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Sex-specific" OR "Gender-specific") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
-(("Sex disparities" OR "Gender disparities" OR "Sex differences") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex Factors"[Mesh] OR "Gender"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh] OR "Mortality"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex"[Mesh] OR "Gender"[Mesh]) AND ("Clinical Prognosis"[Mesh] OR "Patient Outcome Assessment"[Mesh]) AND ("Risk Factors"[Mesh] OR "Epidemiology"[Mesh])
-("Male"[Mesh] OR "Female"[Mesh]) AND ("COVID-19 Severity"[Mesh] OR "Clinical Outcome"[Mesh]) AND ("Meta-Analysis"[Publication Type] OR "Systematic Review"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Sex Characteristics"[Mesh] OR "Sex Distribution"[Mesh]) AND ("Disease Progression"[Mesh] OR "Mortality Rate"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Male"[Mesh] OR "Female"[Mesh]) AND ("Clinical Management"[Mesh] OR "Preventive Medicine"[Mesh]) AND ("Sex-Specific Differences"[Mesh] OR "Gender Disparities"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Tracheostomy" OR "Tracheotomy") AND ("Early" OR "Late")) AND ("COVID-19" OR "SARS-CoV-2") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Early tracheostomy" OR "Early tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Late tracheostomy" OR "Late tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Early versus late tracheostomy" OR "Early versus late tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Timing of tracheostomy" OR "Tracheostomy timing") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Tracheostomy" OR "Tracheotomy") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Early versus late" OR "Timing") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("Tracheostomy complications" OR "Tracheostomy adverse events") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Early versus late" OR "Timing") 
-(("Mechanical ventilation duration" OR "Ventilator days") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy")) 
-(("ICU length of stay" OR "Intensive care unit length of stay") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy")) 
-(("Mortality" OR "Survival rate" OR "Fatalities") AND ("COVID-19" OR "SARS-CoV-2")) AND (("Early tracheostomy" OR "Early tracheotomy") OR ("Late tracheostomy" OR "Late tracheotomy"))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Treatment Outcome"[Mesh]) AND ("Early Medical Intervention"[Mesh] OR "Delayed Diagnosis"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("Intensive Care Units"[Mesh] OR "Critical Care"[Mesh]) AND ("Mechanical Ventilation"[Mesh] OR "Respiratory Insufficiency"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh])
-("ICU Length of Stay"[Mesh] OR "Hospital Mortality"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-("Resource Utilization"[Mesh] OR "Health Resources"[Mesh]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Coronavirus Disease 2019 Patients"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Treatment Outcome"[Mesh])
-("Intubation, Intratracheal"[Mesh] OR "Mechanical Ventilation"[Mesh]) AND ("Early Versus Late Tracheostomy"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis as Topic"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Ranu%Baral%NULL%1,  Vasiliki%Tsampasian%NULL%1,  Maciej%Debski%NULL%1,  Brendan%Moran%NULL%1,  Pankaj%Garg%NULL%1,  Allan%Clark%NULL%1,  Vassilios S.%Vassiliou%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Mortality" OR "Death rate" OR "Fatalities")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Mortality" OR "Death rate" OR "Fatalities")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
-(("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
-(("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors" OR "Angiotensin receptor blockers" OR "ARBs") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events")
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system" OR "RAAS") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") OR ("angiotensin receptor blockers" OR "ARBs"))
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") OR ("angiotensin receptor blockers" OR "ARBs"))
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events")
-("COVID-19" OR "SARS-CoV-2") AND ("renin-angiotensin-aldosterone system inhibitors" OR "RAAS inhibitors") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse events") AND (("systematic review" OR "meta-analysis") OR ("observational study" OR "cohort study"))
-</t>
-  </si>
-  <si>
-    <t>[Ambrish%Singh%NULL%1,  Salman%Hussain%NULL%1,  Benny%Antony%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Clinical outcomes" OR "Patient outcomes" OR "Disease outcomes") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Liver injury" OR "Hepatic dysfunction" OR "Liver function tests") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Co-morbidities" OR "Underlying conditions" OR "Metabolic syndrome") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Prognosis" OR "Survival" OR "Outcomes") 
-(("Non-alcoholic fatty liver disease" OR "NAFLD") AND "COVID-19") AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
-(("NAFLD" OR "Fatty liver") AND "COVID-19") AND ("Therapeutic management" OR "Treatment outcomes" OR "Drug interactions")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND ("clinical outcomes" OR "disease severity") AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-("COVID-19" OR "SARS-CoV-2") AND ("Non-alcoholic fatty liver disease" OR NAFLD) AND ("clinical outcomes" OR "disease progression") AND epidemiological studies[Publication Type]
-("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND ("clinical outcomes" OR "severe COVID-19") AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-("COVID-19" OR "SARS-CoV-2") AND ("Non-alcoholic fatty liver disease" OR NAFLD) AND ("ICU admission" OR "intensive care unit") AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-("Non-alcoholic fatty liver disease" OR NAFLD) AND ("COVID-19" OR "SARS-CoV-2") AND mortality[Title/Abstract] AND odds ratio[Title/Abstract] AND (systematic review[Publication Type] OR meta-analysis[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Mohammad Rashidul%Hashan%NULL%1,  Nicolas%Smoll%NULL%1,  Catherine%King%NULL%1,  Hannah%Ockenden-Muldoon%NULL%1,  Jacina%Walker%NULL%1,  Andre%Wattiaux%NULL%1,  Julieanne%Graham%NULL%1,  Robert%Booy%NULL%1,  Gulam%Khandaker%gulam.khandaker@health.qld.gov.au%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Assisted living facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Long-term care facilities") AND ("Epidemiology" OR "Prevalence" OR "Incidence") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Assisted living facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Long-term care facilities") AND ("Clinical features" OR "Symptoms" OR "Presentation") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Aged care facilities") AND ("Risk factors" OR "Vulnerability" OR "Factors associated") 
-(("COVID-19 outbreaks" OR "COVID-19 clusters") AND "Nursing homes") AND ("Risk factors" OR "Vulnerability" OR "Factors associated")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("epidemiology" OR "outbreak investigations")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("attack rates" OR "case fatality rates")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("asymptomatic cases" OR "hospitalization rates")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("index case" OR "staff member")
-("COVID-19" OR "SARS-CoV-2") AND ("aged care facilities" OR "nursing homes" OR "long-term care facilities") AND ("clinical presentation" OR "vaccination priority")
-</t>
-  </si>
-  <si>
-    <t>[Ashraf%Roshdy%NULL%1,  Shroque%Zaher%NULL%1,  Hossam%Fayed%NULL%1,  John Gerry%Coghlan%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Post-mortem findings" OR "Pathological insights" OR "Diagnostic clues") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinical implications" OR "Medical knowledge" OR "Therapeutic implications") AND ("Post-mortem examination" OR "Pathological examination") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Lessons from the deceased" OR "Insights from post-mortem studies" OR "Learnings from autopsies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Disease mechanisms" OR "Pathophysiology" OR "Organ involvement") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Complications" OR "Co-morbidities" OR "Treatment implications") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Post-mortem analysis" OR "Pathological examination") AND ("Clinical correlations" OR "Association with clinical features" OR "Correlation with disease progression") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Diagnostic accuracy" OR "Diagnostic challenges" OR "Accuracy of clinical diagnosis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Therapeutic insights" OR "Treatment strategies" OR "Management implications") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Clinical decision-making" OR "Guidance for clinical practice" OR "Evidence-based medicine") 
-(("COVID-19" OR "SARS-CoV-2") AND "Autopsy") AND ("Clinician" OR "Physician" OR "Healthcare professional") AND ("Educational value" OR "Teaching tool" OR "Medical education")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("cardiac injury" OR "myocardial injury")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("tissue diagnosis" OR "pathological findings")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("postmortem studies" OR "postmortem findings")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("clinical implications" OR "management implications")
-("COVID-19" OR "SARS-CoV-2") AND autopsy AND ("mechanisms" OR "pathogenesis")
-</t>
-  </si>
-  <si>
-    <t>[Yaolin%Zhou%NULL%1,  Timothy J.%O’Leary%NULL%1,  Daniela Flavia%Hozbor%NULL%3,  Daniela Flavia%Hozbor%NULL%0,  Daniela Flavia%Hozbor%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Relative sensitivity" OR "Comparative sensitivity" OR "Diagnostic accuracy") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sensitivity comparison" OR "Swab performance" OR "Sampling method") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Diagnostic testing" OR "Viral detection" OR "PCR testing") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sampling site" OR "Swab location" OR "Nasal sampling") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Testing sensitivity" OR "Detection rate" OR "Sensitivity comparison") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Swab-based diagnostics" OR "Specimen collection" OR "Sampling technique") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Point-of-care testing" OR "Rapid diagnostic tests" OR "Pooled testing") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Diagnostic sensitivity" OR "Viral load" OR "False-negative rate") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Comparative performance" OR "Diagnostic accuracy" OR "Swab sensitivity") 
-(("SARS-CoV-2" OR "COVID-19") AND "Anterior nares swabs") AND ("Mid-turbinate swabs" OR "Nasopharyngeal swabs") AND ("Sample collection" OR "Specimen type" OR "Testing methodology")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV-2" OR "COVID-19") AND ("nasopharyngeal swabs" OR "NP swabs") AND sensitivity
-("SARS-CoV-2" OR "COVID-19") AND ("anterior nares swabs" OR "nasal swabs") AND sensitivity
-("SARS-CoV-2" OR "COVID-19") AND ("mid-turbinate swabs" OR "nasal swabs") AND sensitivity
-("SARS-CoV-2" OR "COVID-19") AND ("nasopharyngeal swabs" OR "NP swabs") AND sensitivity AND ("diagnosis" OR "detection")
-("SARS-CoV-2" OR "COVID-19") AND ("nasal swabs" OR "anterior nares swabs") AND sensitivity AND ("diagnosis" OR "detection")
-</t>
-  </si>
-  <si>
-    <t>[Adithan%Ganesh%adithanganesh321@gmail.com%1,  Michael D.%Randall%NULL%2,  Michael D.%Randall%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Mortality" OR "Death rate" OR "Fatalities") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("New-onset diabetes" OR "Newly diagnosed diabetes") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Pre-existing diabetes" OR "Known diabetes") AND ("Outcomes" OR "Clinical outcomes" OR "Patient outcomes") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Complications" OR "Long-term effects" OR "Post-COVID syndrome") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Therapeutic management" OR "Treatment outcomes" OR "Drug interactions") 
-(("Metformin" OR "Biguanides") AND ("COVID-19" OR "SARS-CoV-2")) AND ("Diabetes mellitus" OR "Diabetic patients") AND ("Renin-Angiotensin-Aldosterone System inhibitors" OR "RAAS inhibitors")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("systematic review" OR "meta-analysis")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("mortality" OR "outcomes")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("glycemic control" OR "blood glucose") AND ("immune response")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("randomized controlled trials" OR "RCTs")
-("metformin" OR "biguanides") AND ("COVID-19" OR "SARS-CoV-2") AND ("diabetes mellitus" OR "DM") AND ("drug repurposing" OR "therapeutic potential")
-</t>
-  </si>
-  <si>
-    <t>[Modesto M.%Maestre-Muñiz%NULL%1,  Ángel%Arias%NULL%2,  Ángel%Arias%NULL%0,  Alfredo J.%Lucendo%NULL%2,  Alfredo J.%Lucendo%NULL%0,  Melchor Álvarez%de Mon%NULL%3,  Melchor Álvarez%de Mon%NULL%0,  Melchor Álvarez%de Mon%NULL%0,  Miguel A.%Ortega%NULL%1,  José-Antonio%Girón-González%NULL%1,  Miguel A.%Alvarez-Mon%NULL%1,  Jorge%Monserrat%NULL%1,  Natalio%García-Honduvilla%NULL%1,  Luis G%Guijarro%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Systematic review" OR "Literature review") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical prediction rules" OR "Scoring systems" OR "Risk stratification") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("External validation" OR "Validation study" OR "Model validation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Prognostic factors" OR "Predictive markers" OR "Risk factors") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical outcomes" OR "Patient outcomes" OR "Fatalities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Machine learning" OR "Artificial intelligence" OR "Predictive modeling") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Prognostic accuracy" OR "Discrimination" OR "Calibration") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical variables" OR "Laboratory markers" OR "Radiological findings") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("Clinical decision support" OR "Risk assessment tools" OR "Clinical guidelines") 
-(("COVID-19" OR "SARS-CoV-2") AND "Mortality prediction") AND ("Severe cases" OR "Critically ill patients") AND ("External validation" OR "Generalizability" OR "Model performance")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("external validation")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("risk of bias" OR "applicability assessment")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("nomograms" OR "variables")
-("COVID-19" OR "SARS-CoV-2") AND ("mortality" OR "death") AND ("clinical prediction rules" OR "prediction models") AND ("external validation" OR "performance evaluation")
-</t>
-  </si>
-  <si>
-    <t>[Eleni%Papoutsi%NULL%1,  Vassilis G.%Giannakoulis%NULL%1,  Eleni%Xourgia%NULL%1,  Christina%Routsi%NULL%1,  Anastasia%Kotanidou%NULL%1,  Ilias I.%Siempos%isiempos@yahoo.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Systematic review" OR "Meta-analysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Intubation timing" OR "Early intubation" OR "Late intubation") AND ("Non-randomized cohort studies" OR "Observational studies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Intubation strategy" OR "Ventilation management" OR "Respiratory support") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Ventilator-associated complications" OR "Pneumonia" OR "Ventilator-induced lung injury") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Length of stay" OR "Hospitalization duration" OR "ICU stay") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Respiratory failure" OR "Acute respiratory distress syndrome" OR "Hypoxemia") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Mechanical ventilation" OR "Ventilator-free days" OR "Weaning success") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Complications" OR "Adverse events" OR "Morbidities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Timing of intubation") AND ("Critically ill patients" OR "Severely ill patients") AND ("Clinical guidelines" OR "Treatment recommendations" OR "Intubation protocols")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("non-randomized cohort studies" OR "observational studies")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("systematic review" OR "meta-analysis") AND ("ICU admission" OR "intensive care unit")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("clinical outcomes" OR "mortality" OR "morbidity") AND ("sensitivity analysis" OR "alternate definition")
-("COVID-19" OR "SARS-CoV-2") AND ("intubation" OR "mechanical ventilation") AND ("timing" OR "early" OR "late") AND ("wait-and-see approach" OR "update guidelines")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Clinical outcomes" OR "Patient outcomes") AND ("Protective effects" OR "Beneficial effects") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Complications" OR "Morbidity" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Inflammation" OR "Cytokine storm" OR "Immune response") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Cardiovascular outcomes" OR "Cardiac complications") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Renal outcomes" OR "Kidney function") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Risk stratification" OR "Treatment implications") 
-(("COVID-19" OR "SARS-CoV-2") AND ("Angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("Angiotensin receptor blockers" OR "ARBs")) AND ("Mechanisms of action" OR "Biological effects" OR "Pathophysiology")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("safety" OR "efficacy") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("pooled analysis" OR "meta-analysis") AND ("China" OR "Asia")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("treatment interruption" OR "therapy discontinuation") AND ("clinical outcomes" OR "mortality" OR "adverse outcomes")
-("COVID-19" OR "SARS-CoV-2") AND ("angiotensin-converting enzyme inhibitors" OR "ACE inhibitors") AND ("angiotensin receptor blockers" OR "ARBs") AND ("systematic review" OR "meta-analysis") AND ("risk reduction" OR "severity" OR "death outcomes")
-</t>
-  </si>
-  <si>
-    <t>[Chi-Kuei%Hsu%NULL%1,  Ching-Yi%Chen%NULL%1,  Wang-Chun%Chen%NULL%1,  Chih-Cheng%Lai%NULL%1,  Shun-Hsing%Hung%NULL%1,  Wei-Ting%Lin%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Efficacy" OR "Effectiveness" OR "Therapeutic effect") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Mortality" OR "Survival" OR "Death rate") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Disease severity" OR "Severe cases" OR "Critical cases") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Hospitalization" OR "Admission rate" OR "Critical care") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Complications" OR "Morbidity" OR "Adverse events") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Viral clearance" OR "Time to viral clearance") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Safety" OR "Side effects" OR "Adverse reactions") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Mechanisms of action" OR "Antiviral activity") AND ("Randomized controlled trials" OR "RCTs") 
-(("COVID-19" OR "SARS-CoV-2") AND "Sofosbuvir-based treatment") AND ("Treatment guidelines" OR "Clinical recommendations") AND ("Randomized controlled trials" OR "RCTs")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("randomized controlled trials" OR "RCTs") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical efficacy" OR "clinical recovery" OR "mechanical ventilation" OR "intensive care unit admission" OR "hospital length of stay" OR "recovery time") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND "antiviral treatment" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "sofosbuvir" AND ("clinical outcomes" OR "mortality" OR "adverse outcomes") AND ("efficacy" OR "safety") AND ("systematic review" OR "meta-analysis")
-</t>
-  </si>
-  <si>
-    <t>[Judith%van Paassen%NULL%1,  Jeroen S.%Vos%NULL%1,  Eva M.%Hoekstra%NULL%1,  Katinka M. I.%Neumann%NULL%1,  Pauline C.%Boot%NULL%1,  Sesmu M.%Arbous%marbous@lumc.nl%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Complications" OR "Morbidity" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Respiratory support" OR "Ventilator use") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Length of hospital stay" OR "Time to recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Mechanisms of action" OR "Anti-inflammatory effects") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Side effects" OR "Adverse reactions" OR "Safety") 
-(("COVID-19" OR "SARS-CoV-2") AND "Corticosteroids") AND ("Treatment guidelines" OR "Clinical recommendations")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("clinical outcomes" OR "mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("effectiveness" OR "safety") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("effectiveness" OR "safety" OR "clinical outcomes") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "corticosteroids" AND ("clinical outcomes" OR "mortality" OR "viral clearance" OR "mechanical ventilation" OR "oxygen therapy" OR "hospital stay" OR "infections") AND ("evidence" OR "benefit" OR "harm") AND ("systematic review" OR "meta-analysis")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Mortality" OR "Survival" OR "Death rate") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Disease severity" OR "Severe cases" OR "Critical cases") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Hospitalization" OR "Admission rate" OR "Critical care") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Complications" OR "Morbidity" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Respiratory support" OR "Ventilator use") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Delirium" OR "Cognitive decline" OR "Neurological symptoms") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Care setting" OR "Long-term care facilities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Treatment outcomes" OR "Response to therapy") 
-(("COVID-19" OR "SARS-CoV-2") AND "Dementia") AND ("Risk factors" OR "Prognostic factors")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("impact" OR "risk factor" OR "comorbidity") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("incidence" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "dementia" AND ("clinical outcome" OR "mortality" OR "prevalence") AND ("systematic review" OR "meta-analysis")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Clinical outcomes" OR "Patient outcomes")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Mortality" OR "Survival" OR "Death rate")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Disease severity" OR "Severe cases" OR "Critical cases")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Hospitalization" OR "Admission rate" OR "Critical care")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Complications" OR "Morbidity" OR "Adverse events")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Health disparities" OR "Inequalities")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Healthcare access" OR "Barriers to care")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Risk factors" OR "Vulnerability")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Biological factors" OR "Genetic factors")
-(("COVID-19" OR "SARS-CoV-2") AND "Ethnicity") AND ("Public health interventions" OR "Health policies")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnic minority" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnic minority" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("evidence" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "ethnicity" AND ("clinical outcomes" OR "mortality" OR "infection risk") AND ("systematic review" OR "meta-analysis")
-</t>
-  </si>
-  <si>
-    <t>[Amika%Achom%NULL%1,  Ranjita%Das%NULL%1,  Partha%Pakray%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Effects" OR "Impact" OR "Involvement") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Acute kidney injury" OR "AKI") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal dysfunction" OR "Renal impairment") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Proteinuria" OR "Hematuria" OR "Urinary abnormalities") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Nephropathy" OR "Glomerulopathy" OR "Tubular injury") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal replacement therapy" OR "Dialysis") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal complications" OR "Renal manifestations") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal function" OR "GFR" OR "Creatinine") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal imaging" OR "Ultrasound" OR "CT scan") 
-(("COVID-19" OR "SARS-CoV-2") AND "Renal system" OR "Kidney") AND ("Renal inflammation" OR "Cytokine storm" OR "Immunopathology")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "renal system" AND ("effect" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "kidney" AND ("effect" OR "impact") AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "nephropathy" AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "renal complications" AND ("systematic review" OR "meta-analysis")
-("COVID-19" OR "SARS-CoV-2") AND "acute kidney injury" AND ("systematic review" OR "meta-analysis")
-</t>
-  </si>
-  <si>
-    <t>[Alexander%Muacevic%NULL%6,  John R%Adler%NULL%1,  Sarah M%Elsayed%NULL%2,  Sarah M%Elsayed%NULL%0,  Mithun K%Reddy%NULL%1,  Pooja M%Murthy%NULL%1,  Ishita%Gupta%NULL%1,  Monika%Valiuskyte%NULL%1,  Diana F%Sánchez%NULL%1,  Mark Anthony%Diaz%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Recovered" OR "Previous recovery") AND ("Possibility" OR "Risk") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Causes" OR "Factors") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Reinfection" OR "Reactivation") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Immune response" OR "Immunity") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Viral persistence" OR "Viral reservoir") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Antibody response" OR "Neutralizing antibodies") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Viral mutation" OR "Variants") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Treatment failure" OR "Inadequate treatment") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Post-acute sequelae" OR "Long COVID") AND ("Recovered" OR "Previous recovery") 
-(("COVID-19" OR "SARS-CoV-2") AND "Relapse") AND ("Clinical surveillance" OR "Follow-up") AND ("Recovered" OR "Previous recovery")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Disease Susceptibility"[Mesh] OR "Disease Progression"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Virus Shedding"[Mesh] OR "Viral Load"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Convalescence"[Mesh] OR "Remission, Spontaneous"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Immunity"[Mesh] OR "Immunologic Memory"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Risk Factors"[Mesh] OR "Epidemiologic Factors"[Mesh]) AND ("Recurrence"[Mesh] OR "Relapse"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator support" OR "Respiratory support") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Mechanical ventilation" OR "Intubation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator-associated pneumonia" OR "VAP") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilator-induced lung injury" OR "VILI") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Ventilatory parameters" OR "Ventilation strategies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("ARDS" OR "Acute respiratory distress syndrome") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Complications" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Weaning" OR "Extubation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Invasive mechanical ventilation") AND ("Outcome predictors" OR "Prognostic factors")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Positive-Pressure Respiration"[Mesh] OR "Ventilators, Mechanical"[Mesh])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Invasive Mechanical Ventilation"[Title/Abstract] OR "IMV"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Positive-Pressure Respiration"[Mesh]) AND ("Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Invasive Mechanical Ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Title/Abstract] OR "Positive-Pressure Respiration"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Holger J.%Schünemann%NULL%1,  Joanne%Khabsa%NULL%1,  Karla%Solo%NULL%1,  Assem M.%Khamis%NULL%1,  Romina%Brignardello-Petersen%NULL%1,  Amena%El-Harakeh%NULL%1,  Andrea%Darzi%NULL%1,  Anisa%Hajizadeh%NULL%1,  Antonio%Bognanni%NULL%1,  Anna%Bak%NULL%1,  Ariel%Izcovich%NULL%1,  Carlos A.%Cuello-Garcia%NULL%1,  Chen%Chen%NULL%1,  Ewa%Borowiack%NULL%1,  Fatimah%Chamseddine%NULL%1,  Finn%Schünemann%NULL%1,  Gian Paolo%Morgano%NULL%1,  Giovanna E.U.%Muti-Schünemann%NULL%1,  Guang%Chen%NULL%1,  Hong%Zhao%NULL%1,  Ignacio%Neumann%NULL%1,  Jan%Brozek%NULL%1,  Joel%Schmidt%NULL%1,  Layal%Hneiny%NULL%1,  Leila%Harrison%NULL%1,  Marge%Reinap%NULL%1,  Mats%Junek%NULL%1,  Nancy%Santesso%NULL%1,  Rayane%El-Khoury%NULL%1,  Rebecca%Thomas%NULL%1,  Robby%Nieuwlaat%NULL%1,  Rosa%Stalteri%NULL%1,  Sally%Yaacoub%NULL%1,  Tamara%Lotfi%NULL%1,  Tejan%Baldeh%NULL%1,  Thomas%Piggott%NULL%1,  Yuan%Zhang%NULL%1,  Zahra%Saad%NULL%1,  Bram%Rochwerg%NULL%2,  Dan%Perri%NULL%1,  Eddy%Fan%NULL%2,  Florian%Stehling%NULL%1,  Imad Bou%Akl%NULL%1,  Mark%Loeb%NULL%1,  Paul%Garner%NULL%1,  Stephen%Aston%NULL%1,  Waleed%Alhazzani%NULL%1,  Wojciech%Szczeklik%NULL%1,  Derek K.%Chu%NULL%1,  Elie A.%Akl%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Clinical outcomes" OR "Patient outcomes") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Respiratory support" OR "Ventilatory support") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("CPAP" OR "Continuous positive airway pressure") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("BiPAP" OR "Bilevel positive airway pressure") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("High-flow nasal cannula" OR "HFNC") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Respiratory failure" OR "Hypoxemia") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Complications" OR "Adverse events") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Weaning" OR "Decannulation") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Trials" OR "Clinical studies") 
-(("COVID-19" OR "SARS-CoV-2") AND "Non-invasive ventilation") AND ("Guidelines" OR "Best practices")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Noninvasive Ventilation"[Mesh] OR "Respiration, Artificial"[Mesh])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Systematic Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Positive-Pressure Respiration"[Mesh]) AND ("Benefits and Harms"[Title/Abstract] OR "Mortality"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Transmission"[Mesh] OR "Health Personnel"[Mesh])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Noninvasive Ventilation"[Title/Abstract] OR "Respiration, Artificial"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Transmission"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Keith%Couper%NULL%1,  Sian%Taylor-Phillips%NULL%2,  Amy%Grove%NULL%1,  Karoline%Freeman%NULL%1,  Osemeke%Osokogu%NULL%3,  Rachel%Court%NULL%2,  Amin%Mehrabian%NULL%2,  Peter T.%Morley%NULL%1,  Jerry P.%Nolan%NULL%1,  Jasmeet%Soar%NULL%1,  Gavin D.%Perkins%g.d.perkins@warwick.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Infection risk" OR "Transmission risk") AND ("Rescuers" OR "First responders") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Personal protective equipment" OR "PPE") AND ("Rescuer safety" OR "Protection") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Aerosol-generating procedures" OR "AGPs") AND ("Rescuer exposure" OR "Viral particles") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Airway management" OR "CPR") AND ("Infection control" OR "Precautions") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Resuscitation guidelines" OR "Protocols") AND ("Risk mitigation" OR "Safety measures") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Disinfection" OR "Decontamination") AND ("Rescue equipment" OR "Ambulance") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Healthcare worker" OR "Rescuer") AND ("Infection prevention" OR "Safety training") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Viral load" OR "Infectiousness") AND ("Rescuer exposure" OR "Contamination") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Telemedicine" OR "Remote guidance") AND ("Rescuer protection" OR "Minimizing contact") 
-(("COVID-19" OR "SARS-CoV-2") AND "Cardiac arrest") AND ("Risk assessment" OR "Mitigation strategies") AND ("Rescuer well-being" OR "Occupational health")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "severe acute respiratory distress syndrome coronavirus 2"[Supplementary Concept]) AND ("Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Risk"[Title/Abstract] OR "Transmission"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Aerosol Generation"[Title/Abstract] OR "Airborne Infection Transmission"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Personal Protective Equipment"[Mesh]) AND ("Effectiveness"[Title/Abstract] OR "Strategies"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Chest Compressions"[Mesh] OR "Defibrillation"[Mesh]) AND ("Risk of Bias"[Mesh] OR "Evidence Certainty"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "severe acute respiratory distress syndrome coronavirus 2"[Title/Abstract]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh] OR "Defibrillation"[Mesh]) AND ("Evidence"[Mesh] OR "Studies"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Shuai%Shao%NULL%1,  Yishan%Wang%NULL%1,  Hanyujie%Kang%NULL%1,  Zhaohui%Tong%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Clinical outcomes" OR "Patient outcomes") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Antiviral effects" OR "Immunomodulatory effects") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Safety" OR "Adverse events") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Meta-analysis" OR "Systematic review") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Randomized controlled trial" OR "RCT") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Antibody levels" OR "Neutralizing antibodies") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Mechanisms of action" OR "Biological effects") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Dosage" OR "Administration" OR "Infusion") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Patient selection" OR "Criteria") 
-(("Convalescent blood products" OR "Convalescent plasma" OR "Convalescent serum") AND ("Severe acute respiratory infections" OR "SARI") AND ("Viral etiology" OR "Viral origin")) AND ("Long-term effects" OR "Follow-up")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Convalescent Blood Products"[Mesh] OR "Blood Transfusion"[Mesh]) AND ("Respiratory Tract Infections"[Mesh]) AND ("Survival"[Mesh] OR "Mortality"[Mesh])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Randomized Controlled Trials as Topic"[Mesh]) AND ("Mortality"[Mesh])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Adverse Events"[Mesh]) AND ("Risk"[Mesh])
-("Convalescent Blood Products"[Title/Abstract] OR "Blood Transfusion"[Title/Abstract]) AND ("Severe Acute Respiratory Infections"[Mesh]) AND ("Viral Infections"[Mesh]) AND ("Time Factors"[Mesh]) AND ("Mortality"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Clinical outcomes" OR "Maternal outcomes" OR "Fetal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vertical transmission" OR "Perinatal transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Maternal morbidity" OR "Maternal complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Neonatal outcomes" OR "Newborn outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Management guidelines" OR "Clinical recommendations") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Preterm birth" OR "Preterm delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Mode of delivery" OR "Cesarean section" OR "Vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vertical transmission" OR "Breastfeeding") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Maternal mortality" OR "Maternal death") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnancy" OR "Pregnant women") AND ("Vaccination" OR "Vaccine safety" OR "Vaccine efficacy")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Pregnancy"[Mesh]) AND ("Systematic Review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Maternal Complications"[Mesh] OR "Neonatal Complications"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Maternal Severity"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Mortality"[Mesh])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Preterm Birth"[Mesh] OR "Cesarean Section"[Mesh]) AND ("Rate"[Mesh])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Pregnancy"[Title/Abstract]) AND ("Vertical Transmission"[Mesh] OR "Neonatal Death"[Mesh]) AND ("Rate"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Israel Júnior%Borges do Nascimento%NULL%1,  Nensi%Cacic%NULL%2,  Nensi%Cacic%NULL%0,  Hebatullah Mohamed%Abdulazeem%NULL%1,  Thilo Caspar%von Groote%NULL%2,  Thilo Caspar%von Groote%NULL%0,  Umesh%Jayarajah%NULL%1,  Ishanka%Weerasekara%NULL%2,  Ishanka%Weerasekara%NULL%0,  Meisam Abdar%Esfahani%NULL%2,  Meisam Abdar%Esfahani%NULL%0,  Vinicius Tassoni%Civile%NULL%2,  Vinicius Tassoni%Civile%NULL%0,  Ana%Marusic%NULL%2,  Ana%Marusic%NULL%0,  Ana%Jeroncic%NULL%2,  Ana%Jeroncic%NULL%0,  Nelson%Carvas Junior%NULL%1,  Tina Poklepovic%Pericic%NULL%1,  Irena%Zakarija-Grkovic%NULL%2,  Irena%Zakarija-Grkovic%NULL%0,  Silvana Mangeon%Meirelles Guimarães%NULL%2,  Silvana Mangeon%Meirelles Guimarães%NULL%0,  Nicola%Luigi Bragazzi%NULL%1,  Maria%Bjorklund%NULL%2,  Maria%Bjorklund%NULL%0,  Ahmad%Sofi-Mahmudi%NULL%2,  Ahmad%Sofi-Mahmudi%NULL%0,  Mohammad%Altujjar%NULL%2,  Mohammad%Altujjar%NULL%0,  Maoyi%Tian%NULL%1,  Diana Maria Cespedes%Arcani%NULL%1,  Dónal P.%O’Mathúna%NULL%2,  Dónal P.%O’Mathúna%NULL%0,  Milena Soriano%Marcolino%NULL%2,  Milena Soriano%Marcolino%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Human infection" AND "Epidemiology" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Clinical manifestations" AND "Symptoms" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Transmission" AND "Modes of spread" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Pathogenesis" AND "Immune response" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Diagnosis" AND "Diagnostic methods" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Treatment" AND "Therapeutic options" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Prevention" AND "Public health measures" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Vaccination" AND "Vaccine development" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Risk factors" AND "Susceptibility" 
-("Novel coronavirus" OR "nCoV" OR "SARS-CoV-2") AND "Outbreak investigations" AND "Containment strategies"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Coronavirus, Human"[Mesh] OR "COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Clinical"[Mesh] OR "Epidemiological"[Mesh] OR "Laboratory"[Mesh] OR "Chest Imaging"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("Humans"[Mesh]) AND ("Clinical"[Mesh] OR "Epidemiological"[Mesh] OR "Laboratory"[Mesh] OR "Chest Imaging"[Mesh]) AND ("Scoping Review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[P. C.%Gronholm%NULL%1,  M.%Nosé%NULL%2,  M.%Nosé%NULL%0,  W. H.%van Brakel%NULL%1,  J.%Eaton%NULL%1,  B.%Ebenso%NULL%2,  B.%Ebenso%NULL%0,  K.%Fiekert%NULL%1,  M.%Milenova%NULL%1,  C.%Sunkel%NULL%1,  C.%Barbui%NULL%1,  G.%Thornicroft%NULL%2,  G.%Thornicroft%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Public health messaging" OR "Communication strategies") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Community engagement" OR "Social mobilization") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Education" OR "Awareness programs") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Media" OR "Social media") AND ("Role" OR "Influence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Healthcare settings" OR "Healthcare workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Policy" OR "Legal frameworks") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Mental health" OR "Psychosocial support") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Intersectionality" OR "Vulnerable populations") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Resilience" OR "Empowerment") 
-("COVID-19" OR "SARS-CoV-2") AND ("Stigma" OR "Discrimination") AND ("Research" OR "Evaluation") AND ("Interventions" OR "Programs")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("discrimination"[MeSH Terms] OR "discrimination"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("reducing stigma"[All Fields] OR "stigma reduction"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("interventions"[Subheading] OR "interventions"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("recommendations"[Subheading] OR "recommendations"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("public health interventions"[MeSH Terms] OR "public health interventions"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("stigma"[MeSH Terms] OR "stigma"[All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("Affected individuals" OR "Patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("Healthcare workers" OR "Frontline workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Mental health") AND ("General population" OR "Community") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("Affected individuals" OR "Patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("Healthcare workers" OR "Frontline workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Anxiety" OR "Depression") AND ("General population" OR "Community") 
-("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Affected individuals" OR "Patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Healthcare workers" OR "Frontline workers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("General population" OR "Community") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychosocial support" OR "Interventions") AND ("Affected individuals" OR "Patients" OR "Healthcare workers" OR "General population")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("psychological consequences"[MeSH Terms] OR "psychological consequences"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("affected individuals"[All Fields] OR "healthcare workers"[MeSH Terms] OR "general population"[MeSH Terms])
-("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields]) AND ("psychological health outcomes"[MeSH Terms] OR "psychological health outcomes"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("psychological health outcomes"[MeSH Terms] OR "psychological health outcomes"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("PTSD"[MeSH Terms] OR "PTSD"[All Fields] OR "post-traumatic stress disorder"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress"[MeSH Terms] OR "stress"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("mental health resources"[MeSH Terms] OR "mental health resources"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Dominika%Suchá%d.sucha@umcutrecht.nl%0,  Robbert W.%van Hamersvelt%NULL%0,  Robbert W.%van Hamersvelt%NULL%0,  Andor F.%van den Hoven%NULL%0,  Andor F.%van den Hoven%NULL%0,  Pim A.%de Jong%NULL%0,  Pim A.%de Jong%NULL%0,  Helena M.%Verkooijen%NULL%0,  Helena M.%Verkooijen%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospital setting") AND ("Diagnostic performance" OR "Accuracy") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic sensitivity" OR "Diagnostic specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospitalized patients") AND ("Diagnostic utility" OR "Performance evaluation") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Accuracy assessment" OR "Diagnostic value") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Inpatient setting") AND ("Diagnostic sensitivity" OR "Diagnostic specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Accuracy comparison" OR "Diagnostic performance") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospital-based study") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest X-ray" OR "CXR") AND ("Computed Tomography" OR "CT") AND ("Ultrasound") AND ("Diagnostic validity" OR "Performance characteristics") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chest imaging" OR "Radiological imaging") AND ("Hospitalized population") AND ("Diagnostic accuracy" OR "Sensitivity" OR "Specificity")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("diagnostic test accuracy"[MeSH Terms] OR "diagnostic test accuracy"[All Fields]) AND ("chest X-ray"[MeSH Terms] OR "chest X-ray"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields]) AND ("chest radiography"[MeSH Terms] OR "chest radiography"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("reverse-transcription polymerase chain reaction test"[MeSH Terms] OR "reverse-transcription polymerase chain reaction test"[All Fields]) AND ("clinical consensus"[MeSH Terms] OR "clinical consensus"[All Fields]) AND ("chest radiographic"[MeSH Terms] OR "chest radiographic"[All Fields]) AND ("CT"[MeSH Terms] OR "CT"[All Fields]) AND ("ultrasound"[MeSH Terms] OR "ultrasound"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("Standards for Reporting of Diagnostic Accuracy Studies"[MeSH Terms] OR "Standards for Reporting of Diagnostic Accuracy Studies"[All Fields]) AND ("Quality Assessment of Diagnostic Accuracy Studies-2"[MeSH Terms] OR "Quality Assessment of Diagnostic Accuracy Studies-2"[All Fields]) AND ("CT sensitivity"[All Fields] OR "CT specificity"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("adherence"[MeSH Terms] OR "adherence"[All Fields]) AND ("reporting guidelines"[MeSH Terms] OR "reporting guidelines"[All Fields]) AND ("high risk of bias"[MeSH Terms] OR "high risk of bias"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Semagn Mekonnen%Abate%NULL%1,  Siraj%Ahmed Ali%NULL%2,  Siraj%Ahmed Ali%NULL%0,  Bahiru%Mantfardo%NULL%1,  Bivash%Basu%NULL%1,  Chiara%Lazzeri%NULL%18,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Coronavirus" OR "Coronaviridae") AND ("Intensive care unit" OR "ICU") AND ("Admission rate" OR "Rate of admission") 
-("Coronavirus" OR "Coronaviridae") AND ("Intensive care unit" OR "ICU") AND ("Clinical outcomes" OR "Patient outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("Severe cases" OR "Critical cases") AND ("Intensive care unit" OR "ICU") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU admission" OR "Intensive care unit admission") AND ("Mortality rate" OR "Survival rate") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU utilization" OR "ICU occupancy") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("Intensive care" OR "Critical care") AND ("Hospitalized patients" OR "Inpatients") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU management" OR "ICU treatment") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU admission criteria" OR "ICU triage") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU length of stay" OR "ICU duration") AND ("Patient outcomes" OR "Clinical outcomes") 
-("Coronavirus" OR "Coronaviridae") AND ("ICU resource allocation" OR "ICU capacity") AND ("Patient outcomes" OR "Clinical outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("rate of intensive care unit admission"[MeSH Terms] OR "rate of intensive care unit admission"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("morbidity"[MeSH Terms] OR "morbidity"[All Fields]) AND ("complications"[MeSH Terms] OR "complications"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("observational studies"[MeSH Terms] OR "observational studies"[All Fields]) AND ("ICU admission"[All Fields] OR "intensive care unit admission"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("coronavirus"[MeSH Terms] OR "coronavirus"[All Fields])
-("intensive care unit"[MeSH Terms] OR "intensive care unit"[All Fields]) AND ("severe coronavirus disease"[All Fields] OR "severe COVID-19"[All Fields]) AND ("Meta-Analysis"[Publication Type] OR "Meta-Analysis"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Yudan%Ding%NULL%1,  Haohao%Yan%NULL%1,  Wenbin%Guo%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Clinical characteristics" OR "Symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Laboratory findings" OR "Biomarkers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Imaging characteristics" OR "Radiological findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Epidemiology" OR "Prevalence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Disease severity" OR "Clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Laboratory markers" OR "Inflammatory markers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Chest X-ray" OR "CT scan") AND ("Findings" OR "Abnormalities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Clinical management" OR "Treatment guidelines") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Risk factors" OR "Comorbidities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pediatric" OR "Children") AND ("Long-term effects" OR "Follow-up studies")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("clinical characteristics"[MeSH Terms] OR "clinical characteristics"[All Fields]) AND ("laboratory characteristics"[MeSH Terms] OR "laboratory characteristics"[All Fields]) AND ("imaging characteristics"[MeSH Terms] OR "imaging characteristics"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("novel coronavirus disease 2019"[MeSH Terms] OR "novel coronavirus disease 2019"[All Fields]) AND ("health care systems"[MeSH Terms] OR "health care systems"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("studies"[MeSH Terms] OR "studies"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("children"[MeSH Terms] OR "children"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Noémi%Zádori%NULL%1,  Szilárd%Váncsa%NULL%1,  Nelli%Farkas%NULL%1,  Péter%Hegyi%NULL%1,  Bálint%Erőss%eross.balint@pte.hu%1,  Lajos%Szakó%NULL%2,  Lajos%Szakó%NULL%0,  Nóra%Vörhendi%NULL%1,  Levente%Frim%NULL%1,  Zs. Réka%Dömötör%NULL%1,  Zsolt%Szakács%NULL%1,  Szabolcs%Kiss%NULL%1,  Mária%Földi%NULL%1,  Fanni%Dembrovszky%NULL%1,  Marcell%Imrei%NULL%1,  Zsolt%Molnár%NULL%1,  Zoltán%Péterfi%NULL%1,  Hussain%Alizadeh%NULL%1,  László%Czopf%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Underlying conditions") AND ("Disease course" OR "Clinical outcomes")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Medical conditions") AND ("Severity" OR "Complications")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Pre-existing conditions") AND ("Mortality" OR "Fatality rate")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Chronic diseases") AND ("Hospitalization" OR "Admission rate")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Risk factors") AND ("Intensive care" OR "Critical care")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Underlying conditions") AND ("Clinical course" OR "Prognosis")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Medical conditions") AND ("Recovery" OR "Outcome")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Pre-existing conditions") AND ("Disease severity" OR "Progression")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Chronic diseases") AND ("Complication rate" OR "Clinical manifestations")
-("SARS-CoV-2" OR "COVID-19") AND ("Comorbidities" OR "Risk factors") AND ("Disease course" OR "Treatment response")
-</t>
-  </si>
-  <si>
-    <t>[Bing-Cheng%Zhao%NULL%1,  Wei-Feng%Liu%NULL%1,  Shao-Hui%Lei%NULL%1,  Bo-Wei%Zhou%NULL%1,  Xiao%Yang%NULL%1,  Tong-Yi%Huang%NULL%1,  Qi-Wen%Deng%NULL%1,  Miao%Xu%NULL%1,  Cai%Li%NULL%1,  Ke-Xuan%Liu%liukexuan705@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Incidence" OR "Prevalence")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Prognostic associations" OR "Predictors")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Clinical outcomes" OR "Mortality")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Risk factors" OR "Comorbidities")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Biomarkers" OR "Troponin levels")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Cardiovascular complications" OR "Heart involvement")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Long-term outcomes" OR "Follow-up studies")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Echocardiography" OR "Cardiac imaging")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Intensive care unit" OR "ICU admission")
-("COVID-19" OR "SARS-CoV-2") AND ("Myocardial injury" OR "Cardiac injury") AND ("Mechanisms" OR "Pathophysiology")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("myocardial injury"[MeSH Terms] OR "myocardial injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("hospitalized"[MeSH Terms] OR "hospitalized"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("risk stratification"[MeSH Terms] OR "risk stratification"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("admission"[MeSH Terms] OR "admission"[All Fields]) AND ("prognostic value"[MeSH Terms] OR "prognostic value"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Incidence" OR "Prevalence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Biomarkers" OR "Troponin levels") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Risk factors" OR "Comorbidities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Echocardiography" OR "Cardiac imaging") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Mechanisms" OR "Pathophysiology") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Intensive care unit" OR "ICU admission") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute myocardial injury" OR "Cardiac complications") AND ("Mortality" OR "Fatality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Treatment strategies" OR "Interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Acute cardiac injury" OR "Cardiac damage") AND ("Long-term outcomes" OR "Follow-up studies")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("brain natriuretic peptide"[MeSH Terms] OR "brain natriuretic peptide"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("myocardial injury"[MeSH Terms] OR "myocardial injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("clinical status"[MeSH Terms] OR "clinical status"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("troponin"[MeSH Terms] OR "troponin"[All Fields]) AND ("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("brain natriuretic peptide"[MeSH Terms] OR "brain natriuretic peptide"[All Fields]) AND ("acute cardiac injury"[MeSH Terms] OR "acute cardiac injury"[All Fields]) AND ("coronavirus disease 2019"[MeSH Terms] OR "coronavirus disease 2019"[All Fields] OR "COVID-19"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Arthur Eumann%Mesas%NULL%2,  Iván%Cavero-Redondo%NULL%2,  Celia%Álvarez-Bueno%NULL%4,  Celia%Álvarez-Bueno%NULL%0,  Marcos Aparecido%Sarriá Cabrera%NULL%2,  Selma%Maffei de Andrade%NULL%2,  Irene%Sequí-Dominguez%NULL%2,  Vicente%Martínez-Vizcaíno%NULL%2,  Kristien%Verdonck%NULL%6,  Kristien%Verdonck%NULL%0,  Kristien%Verdonck%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Sociodemographic factors" OR "Demographic characteristics") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical risk factors" OR "Comorbidities") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory parameters" OR "Biomarkers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Treatment outcomes" OR "Therapeutic interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Age" OR "Elderly population") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Sex" OR "Gender differences") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Ethnicity" OR "Race") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical severity" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Immunosuppression" OR "Immune status") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Critical care" OR "Intensive care")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("age factors"[MeSH Terms] OR "age factors"[All Fields]) OR ("sex factors"[MeSH Terms] OR "sex factors"[All Fields]) OR ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]) OR ("treatment outcome"[MeSH Terms] OR "treatment outcome"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("dyspnea"[MeSH Terms] OR "dyspnea"[All Fields]) OR ("smoking"[MeSH Terms] OR "smoking"[All Fields]) OR ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]) OR ("treatment outcome"[MeSH Terms] OR "treatment outcome"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("age factors"[MeSH Terms] OR "age factors"[All Fields]) AND ("sex factors"[MeSH Terms] OR "sex factors"[All Fields]) AND ("health status"[MeSH Terms] OR "health status"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("kidney diseases"[MeSH Terms] OR "kidney diseases"[All Fields]) OR ("hypertension"[MeSH Terms] OR "hypertension"[All Fields]) OR ("diabetes mellitus"[MeSH Terms] OR "diabetes mellitus"[All Fields]) OR ("pulmonary disease, chronic obstructive"[MeSH Terms] OR "pulmonary disease, chronic obstructive"[All Fields]) OR ("laboratory parameters"[MeSH Terms] OR "laboratory parameters"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])) AND (("albumins"[MeSH Terms] OR "albumins"[All Fields]) OR ("bilirubin"[MeSH Terms] OR "bilirubin"[All Fields]) OR ("AST"[MeSH Terms] OR "AST"[All Fields]) OR ("ALT"[MeSH Terms] OR "ALT"[All Fields]) OR ("ferritins"[MeSH Terms] OR "ferritins"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t>[Rommy H.%Novoa%NULL%1,  Willy%Quintana%NULL%1,  Pedro%Llancarí%NULL%1,  Katherine%Urbina-Quispe%NULL%1,  Enrique%Guevara-Ríos%NULL%1,  Walter%Ventura%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Clinical characteristics" OR "Symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Perinatal outcomes" OR "Birth outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Maternal mortality" OR "Maternal complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Vertical transmission" OR "Fetal transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Neonatal outcomes" OR "Infant outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Preterm birth" OR "Preterm delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Fetal distress" OR "Intrauterine fetal death") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Mode of delivery" OR "Cesarean section") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Maternal morbidity" OR "Maternal hospitalization") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pregnant women" OR "Maternal") AND ("Antenatal care" OR "Prenatal management")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("maternal characteristics"[MeSH Terms] OR "maternal characteristics"[All Fields]) OR ("perinatal outcomes"[MeSH Terms] OR "perinatal outcomes"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND ("comorbidity"[MeSH Terms] OR "comorbidity"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("symptoms"[MeSH Terms] OR "symptoms"[All Fields]) OR ("fever"[MeSH Terms] OR "fever"[All Fields]) OR ("cough"[MeSH Terms] OR "cough"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("delivery, obstetric"[MeSH Terms] OR "delivery, obstetric"[All Fields]) OR ("premature birth"[MeSH Terms] OR "premature birth"[All Fields]) OR ("cesarean section"[MeSH Terms] OR "cesarean section"[All Fields]) OR ("vaginal delivery"[MeSH Terms] OR "vaginal delivery"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("pregnant women"[MeSH Terms] OR "pregnant women"[All Fields])) AND (("vertical transmission"[MeSH Terms] OR "vertical transmission"[All Fields]) OR ("breast milk"[MeSH Terms] OR "breast milk"[All Fields]) OR ("amniotic fluid"[MeSH Terms] OR "amniotic fluid"[All Fields]) OR ("placenta"[MeSH Terms] OR "placenta"[All Fields]) OR ("umbilical cord blood"[MeSH Terms] OR "umbilical cord blood"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t>[Anne%Alnor%NULL%1,  Maria B%Sandberg%NULL%1,  Charlotte%Gils%NULL%1,  Pernille J%Vinholt%pernille.vinholt@rsyd.dk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory parameters" OR "Biomarkers") AND ("Disease severity" OR "Clinical progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory findings" OR "Laboratory abnormalities") AND ("Mortality" OR "Death") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Risk factors" OR "Predictors") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory markers" OR "Laboratory investigations") AND ("Treatment outcomes" OR "Therapeutic response") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Coagulation abnormalities" OR "Thrombotic events") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory parameters" OR "Biomarkers") AND ("Inflammatory response" OR "Cytokine storm") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Organ dysfunction" OR "Multiorgan failure") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory markers" OR "Laboratory investigations") AND ("Viral load" OR "RNA detection") 
-("COVID-19" OR "SARS-CoV-2") AND ("Laboratory analysis" OR "Laboratory tests") AND ("Immune response" OR "Antibody levels")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND ("disease severity"[MeSH Terms] OR "disease severity"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("severe disease"[MeSH Terms] OR "severe disease"[All Fields])) AND (("white blood cell count"[MeSH Terms] OR "white blood cell count"[All Fields]) OR ("neutrophil count"[MeSH Terms] OR "neutrophil count"[All Fields]) OR ("C-reactive protein"[MeSH Terms] OR "C-reactive protein"[All Fields]) OR ("lactate dehydrogenase"[MeSH Terms] OR "lactate dehydrogenase"[All Fields]) OR ("D-dimer"[MeSH Terms] OR "D-dimer"[All Fields]) OR ("aspartate aminotransferase"[MeSH Terms] OR "aspartate aminotransferase"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("severe disease"[MeSH Terms] OR "severe disease"[All Fields])) AND (("lymphocyte count"[MeSH Terms] OR "lymphocyte count"[All Fields]) OR ("platelet count"[MeSH Terms] OR "platelet count"[All Fields]) OR ("haemoglobin"[MeSH Terms] OR "haemoglobin"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND (("disease severity"[MeSH Terms] OR "disease severity"[All Fields]) OR ("biomarkers"[MeSH Terms] OR "biomarkers"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("laboratory tests"[MeSH Terms] OR "laboratory tests"[All Fields])) AND (("mean difference"[MeSH Terms] OR "mean difference"[All Fields]) OR ("standard mean difference"[MeSH Terms] OR "standard mean difference"[All Fields]) OR ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t>[Ming%Liu%NULL%1,  Ya%Gao%NULL%1,  Yuan%Yuan%NULL%1,  Kelu%Yang%NULL%1,  Shuzhen%Shi%NULL%1,  Jinhui%Tian%tianjh@lzu.edu.cn%1,  Junhua%Zhang%zjhtcm@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Efficacy" OR "Effectiveness") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Safety" OR "Adverse effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Clinical trials" OR "Randomized controlled trials") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Antiviral activity" OR "Viral load") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Symptom relief" OR "Clinical improvement") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Mechanisms of action" OR "Mode of action") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Combination therapy" OR "Adjunctive treatment") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Immune response" OR "Immunomodulatory effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Lianhua Qingwen" OR "LHQW") AND ("Long-term outcomes" OR "Follow-up studies")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("efficacy"[MeSH Terms] OR "efficacy"[All Fields]) AND ("safety"[MeSH Terms] OR "safety"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("randomized controlled trials"[MeSH Terms] OR "randomized controlled trials"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields] OR "coronavirus"[All Fields]) AND ("Lianhuaqingwen"[MeSH Terms] OR "Lianhuaqingwen"[All Fields])) AND ("case control studies"[MeSH Terms] OR "case control studies"[All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Controversy" OR "Debate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Adults" OR "Adult population") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Lower respiratory tract infections" OR "LRTIs") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Safety" OR "Adverse effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Efficacy" OR "Effectiveness") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Guidelines" OR "Recommendations") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Inflammation" OR "Immunomodulation") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Mechanism of action" OR "Pharmacology") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Non-steroidal anti-inflammatory drugs" OR "NSAIDs") AND ("Meta-analysis" OR "Systematic review")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("cardiovascular complications"[MeSH Terms] OR "cardiovascular complications"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("respiratory complications"[MeSH Terms] OR "respiratory complications"[All Fields])
-(("acute lower respiratory tract infections"[MeSH Terms] OR "acute lower respiratory tract infections"[All Fields]) AND ("NSAIDs"[MeSH Terms] OR "NSAIDs"[All Fields])) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Askin%Gülsen%askin.guelsen@uksh.de%1,  Inke R.%König%NULL%2,  Inke R.%König%NULL%0,  Uta%Jappe%NULL%1,  Daniel%Drömann%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Comorbid pulmonary diseases" OR "Respiratory comorbidities") AND ("Disease severity" OR "Clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Comorbidities" OR "Underlying lung conditions") AND ("COVID-19 severity" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary comorbidities" OR "Respiratory disorders") AND ("Mortality" OR "Hospitalization") 
-("COVID-19" OR "SARS-CoV-2") AND ("Chronic obstructive pulmonary disease" OR "COPD") AND ("COVID-19 severity" OR "Clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Asthma" OR "Bronchial asthma") AND ("Disease severity" OR "Complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Interstitial lung disease" OR "ILD") AND ("COVID-19 severity" OR "Mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary hypertension" OR "PH") AND ("Clinical outcomes" OR "Prognosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary fibrosis" OR "PF") AND ("Disease severity" OR "Long-term outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Cystic fibrosis" OR "CF") AND ("COVID-19 severity" OR "Complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pulmonary comorbidities" OR "Respiratory diseases") AND ("Intensive care" OR "Ventilator support")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("pulmonary diseases, chronic obstructive"[MeSH Terms] OR "pulmonary diseases, chronic obstructive"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("asthma"[MeSH Terms] OR "asthma"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("chronic respiratory diseases"[MeSH Terms] OR "chronic respiratory diseases"[All Fields])) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("pulmonary diseases, chronic obstructive"[MeSH Terms] OR "pulmonary diseases, chronic obstructive"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("chronic respiratory diseases"[MeSH Terms] OR "chronic respiratory diseases"[All Fields])) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Invasive mechanical ventilation" OR "IMV") AND ("Case fatality rate" OR "Mortality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Ventilator support" OR "Mechanical ventilation") AND ("Death rate" OR "Survival rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Intensive care unit" OR "ICU") AND ("Mortality" OR "Fatal outcomes") AND ("Mechanical ventilation" OR "Ventilator therapy") 
-("COVID-19" OR "SARS-CoV-2") AND ("Ventilated patients" OR "Ventilated COVID-19 cases") AND ("Case fatality rate" OR "Mortality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Critical illness" OR "Severe disease") AND ("Mechanical ventilation" OR "Invasive ventilation") AND ("Fatality rate" OR "Survival rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Respiratory failure" OR "Acute respiratory distress syndrome") AND ("Mortality rate" OR "Death rate") AND ("Invasive mechanical ventilation" OR "IMV") 
-("COVID-19" OR "SARS-CoV-2") AND ("Ventilator-associated pneumonia" OR "VAP") AND ("Case fatality rate" OR "Mortality rate") AND ("Mechanical ventilation" OR "Ventilator support") 
-("COVID-19" OR "SARS-CoV-2") AND ("Intubated patients" OR "Intubation") AND ("Fatality rate" OR "Survival rate") AND ("Invasive mechanical ventilation" OR "IMV") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU mortality" OR "ICU death") AND ("Mechanical ventilation" OR "Ventilator therapy") AND ("Case fatality rate" OR "Mortality rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("Severe respiratory failure" OR "Hypoxemic respiratory failure") AND ("Death rate" OR "Survival rate") AND ("Invasive mechanical ventilation" OR "IMV")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract]) AND ("mechanical ventilation"[Title/Abstract]) AND ("meta-analysis"[Publication Type]) AND ("age factors"[MeSH Terms]) AND ("geographic locations"[MeSH Terms]) AND ("Newcastle-Ottawa Scale"[Title/Abstract]) AND ("hospital outcomes"[Title/Abstract]) AND ("reported CFR"[Title/Abstract]) AND ("outcome assessment"[Title/Abstract]))
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("age factors"[MeSH Terms])) AND ("geographic locations"[MeSH Terms])
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("meta-analysis"[Publication Type])) AND ("Newcastle-Ottawa Scale"[Title/Abstract])
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("hospital outcomes"[Title/Abstract])) AND ("reported CFR"[Title/Abstract])
-((((COVID-19[Title/Abstract]) AND ("case fatality rate"[Title/Abstract])) AND ("mechanical ventilation"[Title/Abstract])) AND ("outcome assessment"[Title/Abstract])) AND ("reported CFR"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>[Arthur Eumann%Mesas%NULL%0,  Iván%Cavero-Redondo%NULL%0,  Celia%Álvarez-Bueno%NULL%0,  Celia%Álvarez-Bueno%NULL%0,  Marcos Aparecido%Sarriá Cabrera%NULL%0,  Selma%Maffei de Andrade%NULL%0,  Irene%Sequí-Dominguez%NULL%0,  Vicente%Martínez-Vizcaíno%NULL%0,  Kristien%Verdonck%NULL%0,  Kristien%Verdonck%NULL%0,  Kristien%Verdonck%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Risk factors" OR "Predictors") AND ("Sociodemographic" OR "Demographic") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical risk factors" OR "Prognostic factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory parameters" OR "Biomarkers") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Comorbidities" OR "Underlying conditions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Treatment outcomes" OR "Therapeutic interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Age" OR "Gender" OR "Race" OR "Ethnicity") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Clinical severity" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Laboratory tests" OR "Blood markers" OR "Serum parameters") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Intensive care" OR "ICU admission") AND ("Ventilator support") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mortality" OR "Death") AND ("Antiviral treatment" OR "Immunomodulatory therapy")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Risk Factors"[Mesh] OR "Risk Factors"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Aged"[Mesh] OR "Aged"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Sex Factors"[Mesh] OR "Sex Factors"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-("Comorbidity"[Mesh] OR "Comorbidity"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields]) AND ("Meta-Analysis as Topic"[Mesh] OR "Meta-Analysis as Topic"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Mili Roopchand%Sahay%NULL%1,  Shubhankar%Dubey%NULL%1,  Rakesh Kumar%Sahoo%NULL%1,  Srikanta%Kanungo%NULL%1,  Krushna Chandra%Sahoo%NULL%1,  Sanghamitra%Pati%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women" OR "Females") AND ("Health challenges" OR "Health issues") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women" OR "Females") AND ("Coping strategies" OR "Adaptation") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's health" OR "Gender-specific health") AND ("Challenges" OR "Concerns") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's mental health" OR "Psychological well-being") AND ("Coping mechanisms" OR "Resilience") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's healthcare access" OR "Healthcare disparities") AND ("Health-related challenges" OR "Obstacles") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's reproductive health" OR "Maternal health") AND ("Adverse outcomes" OR "Pregnancy concerns") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Gender roles" OR "Sociocultural factors") AND ("Health challenges" OR "Coping strategies") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's employment" OR "Workforce impact") AND ("Work-life balance" OR "Job stress") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's social support" OR "Community resources") AND ("Coping strategies" OR "Psychosocial well-being") 
-("COVID-19" OR "SARS-CoV-2" OR "pandemic") AND ("Women's empowerment" OR "Gender equality") AND ("Health challenges" OR "Resilience")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
-("Challenges"[Mesh] OR "Challenges"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-("Psychosocial Factors"[Mesh] OR "Psychosocial Factors"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-("Gender-Based Violence"[Mesh] OR "Gender-Based Violence"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-("Reproductive Health"[Mesh] OR "Reproductive Health"[All Fields]) AND ("Women's Health"[Mesh] OR "Women's Health"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields] OR "Pandemics"[Mesh] OR "Pandemics"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Dan%Qiu%NULL%1,  Yilu%Li%NULL%1,  Ling%Li%NULL%1,  Jun%He%NULL%1,  Feiyun%Ouyang%NULL%1,  Shuiyuan%Xiao%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Post-traumatic stress disorder" OR "PTSD") AND ("Prevalence" OR "Incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mental health" OR "Psychological impact") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological distress" OR "Emotional trauma") AND ("PTSD prevalence" OR "PTSD symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Traumatic events" OR "Stressful experiences") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Psychological consequences" OR "Psychiatric disorders") AND ("PTSD prevalence" OR "PTSD incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("Mental health outcomes" OR "Psychological sequelae") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Trauma exposure" OR "Critical illness") AND ("PTSD prevalence" OR "PTSD symptoms") 
-("COVID-19" OR "SARS-CoV-2") AND ("Healthcare workers" OR "Frontline workers") AND ("Post-traumatic stress disorder" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("Community impact" OR "Population-based study") AND ("Prevalence of PTSD" OR "PTSD rates") 
-("COVID-19" OR "SARS-CoV-2") AND ("Long-term effects" OR "Chronic PTSD") AND ("PTSD prevalence" OR "PTSD incidence")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
-("Prevalence"[Mesh] OR "Prevalence"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Age Factors"[Mesh] OR "Age Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Sex Factors"[Mesh] OR "Sex Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Risk Factors"[Mesh] OR "Risk Factors"[All Fields]) AND ("Post-Traumatic Stress Disorders"[Mesh] OR "Post-Traumatic Stress Disorders"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Mohammad Mostafa%Ansari Ramandi%NULL%1,  Hossein%Yarmohammadi%NULL%2,  Hossein%Yarmohammadi%NULL%0,  Somayeh%Beikmohammadi%NULL%1,  Behzad Hassan%Hosseiny Fahimi%NULL%1,  Farbod%Hatami%NULL%1,  Hossein%Beydokhti%NULL%1,  Hooman%Bakhshandeh%NULL%1,  Nasim%Naderi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular presentations" OR "Cardiac manifestations") AND ("Complications" OR "Cardiovascular complications") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular outcomes" OR "Cardiac outcomes") AND ("Comparison" OR "Differences") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular involvement" OR "Cardiac involvement") AND ("Comparative analysis" OR "Contrast") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular diseases" OR "Heart diseases") AND ("Comparative study" OR "Differential analysis") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular complications" OR "Cardiac complications") AND ("Comparison between viruses" OR "Contrasting outcomes") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular manifestations" OR "Cardiac symptoms") AND ("Comparative evaluation" OR "Comparison of outcomes") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular comorbidities" OR "Heart-related conditions") AND ("Differences in outcomes" OR "Contrasting presentations") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular complications" OR "Cardiac complications") AND ("Comparative analysis" OR "Contrast between viruses") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular sequelae" OR "Heart-related outcomes") AND ("Comparison of infections" OR "Differential outcomes") 
-("Coronavirus" OR "COVID-19" OR "SARS-CoV-2") AND ("Cardiovascular morbidity" OR "Cardiac morbidity") AND ("Comparative study" OR "Comparison of viruses")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("Cardiovascular Diseases"[Mesh] OR "Cardiovascular Diseases"[All Fields]) AND ("Systematic Reviews as Topic"[Mesh] OR "Systematic Reviews as Topic"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("SARS Virus"[Mesh] OR "SARS Virus"[All Fields]) AND ("MERS Virus"[Mesh] OR "MERS Virus"[All Fields]) AND ("Cardiovascular Diseases"[Mesh] OR "Cardiovascular Diseases"[All Fields])
-("Cardiac Injuries"[Mesh] OR "Cardiac Injuries"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-("Thrombosis"[Mesh] OR "Thrombosis"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("SARS Virus"[Mesh] OR "SARS Virus"[All Fields])
-("Disease Progression"[Mesh] OR "Disease Progression"[All Fields]) AND ("Coronavirus Infections"[Mesh] OR "Coronavirus Infections"[All Fields]) AND ("COVID-19"[Mesh] OR "COVID-19"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Rodrigo B.%Serafim%NULL%2,  Pedro%Póvoa%NULL%1,  Vicente%Souza-Dantas%NULL%1,  André C.%Kalil%NULL%1,  Jorge I.F.%Salluh%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia" OR "Respiratory infection") AND ("ICU admission" OR "Intensive care unit") AND ("Clinical course" OR "Disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia" OR "Respiratory infection") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Severe pneumonia" OR "Critical illness") AND ("ICU management" OR "Intensive care unit management") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia severity" OR "Disease severity") AND ("ICU mortality" OR "Intensive care unit mortality") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Clinical characteristics" OR "Patient characteristics") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia complications" OR "Respiratory complications") AND ("ICU admission" OR "Intensive care unit admission") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU interventions" OR "Intensive care unit interventions") AND ("Clinical outcomes" OR "Patient outcomes") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia management" OR "Respiratory management") AND ("ICU length of stay" OR "Intensive care unit length of stay") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia mortality" OR "Respiratory mortality") AND ("ICU outcomes" OR "Intensive care unit outcomes") AND ("Systematic review" OR "Meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Pneumonia prognosis" OR "Respiratory prognosis") AND ("ICU admission" OR "Intensive care unit admission") AND ("Systematic review" OR "Meta-analysis")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Patient Admission"[Mesh] OR "Patient Admission"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Treatment Outcome"[Mesh] OR "Treatment Outcome"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Mortality"[Mesh] OR "Mortality"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Mechanical Ventilators"[Mesh] OR "Mechanical Ventilators"[All Fields])
-("COVID-19"[Mesh] OR "COVID-19"[All Fields]) AND ("Pneumonia, Viral"[Mesh] OR "Pneumonia, Viral"[All Fields]) AND ("Intensive Care Units"[Mesh] OR "Intensive Care Units"[All Fields]) AND ("Length of Stay"[Mesh] OR "Length of Stay"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Emilio%Di Maria%emilio.dimaria@unige.it%1,  Andrea%Latini%NULL%2,  Andrea%Latini%NULL%0,  Paola%Borgiani%NULL%1,  Giuseppe%Novelli%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV" OR "SARS coronavirus") AND ("genetic variants" OR "polymorphisms" OR "mutations") AND ("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "host factors" OR "host variation") AND ("phenotype" OR "clinical outcomes" OR "disease severity" OR "susceptibility") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("host genetic variants" OR "host polymorphisms" OR "host mutations") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotype" OR "clinical outcomes" OR "disease severity" OR "susceptibility") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("genetic variations" OR "polymorphic variants" OR "mutation profiles") AND ("COVID-19" OR "SARS-CoV-2") AND ("host genotype" OR "host variation" OR "host genetics") AND ("phenotypic expression" OR "clinical manifestations" OR "disease course") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("host genome variations" OR "host genomic polymorphisms" OR "host mutation profiles") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotypic outcomes" OR "clinical characteristics" OR "disease progression") AND ("SaGe-HP") 
-("SARS-CoV" OR "SARS coronavirus") AND ("host genetic diversity" OR "host genomic variability" OR "host mutation patterns") AND ("COVID-19" OR "SARS-CoV-2") AND ("phenotypic variations" OR "clinical features" OR "disease outcomes") AND ("SaGe-HP")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV-2"[Mesh] OR "COVID-19"[Mesh]) AND ("Host Genetics"[Mesh] OR "Genetic Variation"[Mesh]) AND ("Phenotype"[Mesh] OR "Disease Susceptibility"[Mesh])
-("Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh] OR "COVID-19"[Mesh]) AND ("Host-Pathogen Interactions"[Mesh] OR "Host-Pathogen Interaction"[Mesh]) AND ("Genetic Predisposition to Disease"[Mesh] OR "Genetic Background"[Mesh])
-("Coronavirus Infections"[Mesh] OR "SARS Virus"[Mesh]) AND ("Host Genetics"[Mesh] OR "Host Genetic Factors"[Mesh]) AND ("Disease Progression"[Mesh] OR "Clinical Manifestations"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Human Genome"[Mesh] OR "Genetic Variation"[Mesh]) AND ("Disease Severity"[Mesh] OR "Phenotypic Variation"[Mesh])
-("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Genome-Wide Association Study"[Mesh] OR "Genetic Markers"[Mesh]) AND ("Clinical Phenotype"[Mesh] OR "Disease Outcome"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Karine%Kahil%NULL%2,  Mohamad Ali%Cheaito%NULL%1,  Rawad%El Hayek%NULL%1,  Marwa%Nofal%NULL%1,  Sarah%El Halabi%NULL%1,  Kundadak Ganesh%Kudva%NULL%1,  Victor%Pereira-Sanchez%NULL%1,  Samer%El Hayek%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide" OR "suicidal behavior" OR "self-harm") AND ("psychological impact" OR "mental health" OR "psychiatric disorders") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide rate" OR "suicidality") AND ("psychosocial factors" OR "psychological distress" OR "psychiatric morbidity") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide risk" OR "suicidal ideation" OR "self-inflicted harm") AND ("mental health consequences" OR "psychological outcomes" OR "emotional well-being") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide prevention" OR "suicide intervention" OR "suicide mitigation") AND ("psychosocial support" OR "mental health services" OR "crisis helplines") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory outbreak" OR "pandemic") AND ("suicide epidemiology" OR "suicide patterns" OR "suicide trends") AND ("mental health impact" OR "psychological consequences" OR "emotional distress")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Suicide"[Mesh] OR "Suicidal Ideation"[Mesh]) AND ("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Suicide"[Mesh] OR "Suicidal Behavior"[Mesh])
-("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh]) AND ("Suicidal Ideation"[Mesh] OR "Suicidal Behavior"[Mesh]) AND ("Literature Review"[Publication Type] OR "Systematic Review"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND ("Suicide Rate"[Mesh] OR "Suicidal Outcome"[Mesh]) AND ("Global Health"[Mesh] OR "Internationality"[Mesh])
-("Suicidal Behavior"[Mesh] OR "Suicidal Ideation"[Mesh]) AND ("Respiratory Tract Infections"[Mesh] OR "Pandemics"[Mesh]) AND ("Literature"[Mesh] OR "Systematic Review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("clinical outcomes" OR "disease severity" OR "complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("immunosuppression" OR "immunocompromised") AND ("risk factors" OR "susceptibility") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("graft rejection" OR "graft dysfunction") AND ("treatment outcomes" OR "management strategies") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("transplant recipients" OR "donor-recipient interaction") AND ("infection control" OR "prevention measures") 
-("COVID-19" OR "SARS-CoV-2") AND ("solid organ transplantation" OR "organ transplant") AND ("long-term effects" OR "recovery" OR "quality of life")
-</t>
-  </si>
-  <si>
-    <t>[Abhijit%Dutta%NULL%1,  Avinash%Sharma%NULL%1,  Rodrigo%Torres-Castro%NULL%1,  Hariom%Pachori%NULL%1,  SukhDev%Mishra%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("healthcare professionals" OR "medical personnel" OR "health workers") AND ("mental health" OR "psychological well-being" OR "emotional distress") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare providers" OR "medical staff" OR "clinicians") AND ("mental health disorders" OR "psychiatric symptoms" OR "psychological impact") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "hospital staff" OR "nurses" OR "doctors") AND ("burnout" OR "stress" OR "anxiety" OR "depression") 
-("COVID-19" OR "SARS-CoV-2") AND ("health professionals" OR "medical personnel" OR "caregivers") AND ("psychological consequences" OR "mental health challenges" OR "psychosocial support") 
-("COVID-19" OR "SARS-CoV-2") AND ("frontline healthcare workers" OR "emergency responders" OR "pandemic response teams") AND ("occupational stress" OR "work-related stress" OR "compassion fatigue")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis"[Publication Type])
-("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Depression"[Mesh] OR "Anxiety"[Mesh] OR "Insomnia"[Mesh] OR "Stress, Psychological"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Mental Health"[Mesh] OR "Mental Disorders"[Mesh]) AND ("Meta-Analysis as Topic"[Mesh] OR "Systematic Review as Topic"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh])
-("Health Personnel"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Psychological Distress"[Mesh] OR "Sleep Initiation and Maintenance Disorders"[Mesh]) AND ("Systematic Review"[Publication Type] OR "Meta-Analysis"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Elia%Gabarron%NULL%1,  Sunday Oluwafemi%Oyeyemi%NULL%1,  Rolf%Wynn%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("misinformation" OR "false information" OR "rumors") AND ("social media" OR "online platforms") AND ("effects" OR "consequences" OR "impacts") 
-("COVID-19" OR "SARS-CoV-2") AND ("misinformation" OR "fake news" OR "disinformation") AND ("social networking" OR "online communities" OR "virtual platforms") AND ("public perception" OR "belief systems" OR "attitude change") 
-("COVID-19" OR "SARS-CoV-2") AND ("misinformation dissemination" OR "infodemic" OR "misinformation campaigns") AND ("social media platforms" OR "online information sharing") AND ("knowledge gaps" OR "misperceptions" OR "health behavior") 
-("COVID-19" OR "SARS-CoV-2") AND ("misinformation on social media" OR "spread of false information" OR "rumor propagation") AND ("public health communication" OR "health literacy" OR "risk perception") 
-("COVID-19" OR "SARS-CoV-2") AND ("infodemic management" OR "misinformation control" OR "fact-checking") AND ("social media impact" OR "information credibility" OR "media literacy")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Rapid Review"[Publication Type])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Effects"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Prevalence"[Mesh] OR "Epidemiology"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Risk Factors"[Mesh] OR "Bias (Epidemiology)"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Misinformation"[Mesh] OR "Disinformation"[Mesh]) AND ("Social Media"[Mesh]) AND ("Qualitative Research"[Mesh]) AND ("Systematic Review as Topic"[Mesh] OR "Meta-Analysis as Topic"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>[Ramy Mohamed%Ghazy%NULL%1,  Abdallah%Almaghraby%Dr.maghraby@gmail.com%1,  Ramy%Shaaban%NULL%1,  Ahmed%Kamal%NULL%1,  Hatem%Beshir%NULL%1,  Amr%Moursi%NULL%1,  Ahmed%Ramadan%NULL%1,  Sarah Hamed N.%Taha%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("treatment effectiveness" OR "clinical outcomes" OR "therapeutic efficacy") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("safety" OR "adverse effects" OR "toxicity") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("randomized controlled trial" OR "clinical trial" OR "observational study") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("mortality" OR "hospitalization" OR "intensive care unit admission") 
-("COVID-19" OR "SARS-CoV-2") AND ("chloroquine" OR "hydroxychloroquine") AND ("azithromycin" OR "macrolide") AND ("virological clearance" OR "viral load" OR "antiviral activity")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Mortality"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Hospitalization"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Mechanical Ventilation"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Chloroquine"[Mesh] OR "Hydroxychloroquine"[Mesh]) AND ("Azithromycin"[Mesh]) AND ("COVID-19"[Mesh]) AND ("Adverse Effects"[Mesh]) AND ("Systematic Review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Amy%Grove%NULL%1,  Osemeke%Osokogu%NULL%0,  Osemeke%Osokogu%NULL%0,  Lena%Al-Khudairy%NULL%1,  Amin%Mehrabian%NULL%0,  Mandana%Zanganeh%NULL%2,  Mandana%Zanganeh%NULL%0,  Anna%Brown%NULL%1,  Rachel%Court%NULL%0,  Sian%Taylor-Phillips%NULL%0,  Olalekan A%Uthman%NULL%2,  Olalekan A%Uthman%NULL%0,  Noel%McCarthy%NULL%2,  Noel%McCarthy%NULL%0,  Sudhesh%Kumar%NULL%1,  Aileen%Clarke%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("supplementation" OR "intake" OR "levels") AND ("susceptibility" OR "infection risk" OR "viral transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("clinical outcomes" OR "disease severity" OR "morbidity" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D supplementation" OR "vitamin D levels" OR "vitamin D status") AND ("clinical course" OR "progression" OR "complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D" OR "cholecalciferol" OR "calcitriol") AND ("mortality" OR "fatality" OR "survival") AND ("outcomes" OR "prognosis" OR "survival rate") 
-("COVID-19" OR "SARS-CoV-2") AND ("vitamin D supplementation" OR "vitamin D levels" OR "vitamin D status") AND ("immune response" OR "inflammatory markers" OR "cytokine storm")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2"[Mesh] OR "COVID-19"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Clinical Course"[Mesh]) AND ("Morbidity"[Mesh]) AND ("Mortality"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Vitamin D Supplementation"[Mesh]) AND ("Systematic Review"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Vitamin D Levels"[Mesh]) AND ("Severity of Illness Index"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("Vitamin D"[Mesh] OR "Vitamin D Deficiency"[Mesh]) AND ("SARS-CoV-2 Infections"[Mesh] OR "COVID-19"[Mesh]) AND ("Randomized Controlled Trials as Topic"[Mesh]) AND ("Systematic Review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("perioperative management" OR "surgical procedures" OR "surgical care") AND ("confirmed cases" OR "suspected cases" OR "diagnosed patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative protocols" OR "surgical guidelines" OR "surgical pathways") AND ("patient safety" OR "infection control" OR "risk assessment") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative complications" OR "surgical outcomes" OR "postoperative morbidity") AND ("COVID-19 positive" OR "COVID-19 negative" OR "COVID-19 status") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative anesthesia" OR "anesthetic management" OR "anesthesia considerations") AND ("respiratory support" OR "ventilation strategies" OR "intubation") 
-("COVID-19" OR "SARS-CoV-2") AND ("perioperative testing" OR "preoperative screening" OR "diagnostic methods") AND ("operating room" OR "surgical environment" OR "personal protective equipment")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("clinical outcomes"[Title/Abstract] OR "mortality"[Title/Abstract] OR "neonatal outcomes"[Title/Abstract]) OR "duration of surgery"[Title/Abstract])
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND "personal protective equipment"[Title/Abstract]
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("testing"[Title/Abstract] OR "diagnosis"[Title/Abstract]) AND "non-urgent surgery"[Title/Abstract])
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("HCWs"[Title/Abstract] OR "healthcare workers"[Title/Abstract]) AND ("level 3 PPE"[Title/Abstract] OR "personal protective equipment"[Title/Abstract]))
-("perioperative management"[Title/Abstract] AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])) AND (("long-term outcomes"[Title/Abstract] OR "follow-up"[Title/Abstract]) OR "prognosis"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>[Alice%Tamara%NULL%1,  Dicky L.%Tahapary%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "body mass index" OR "adiposity") AND ("prognosis" OR "clinical outcomes" OR "disease severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "overweight" OR "obese patients") AND ("mortality" OR "hospitalization" OR "intensive care unit admission") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "obese individuals" OR "adipose tissue") AND ("complications" OR "co-morbidities" OR "cardiovascular diseases") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "body mass index" OR "adiposity") AND ("inflammatory response" OR "cytokine storm" OR "immune dysregulation") 
-("COVID-19" OR "SARS-CoV-2") AND ("obesity" OR "overweight" OR "obese patients") AND ("respiratory failure" OR "ventilatory support" OR "oxygen requirements")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "prognosis"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND ("disease severity"[Title/Abstract] OR "medical care"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND "mortality rate"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "obesity"[Title/Abstract] AND ("treatment aggression"[Title/Abstract] OR "disease prevention"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("clinical presentation" OR "disease manifestation" OR "oral findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral health" OR "oral hygiene" OR "oral care") AND ("complications" OR "oral complications" OR "oral sequelae") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral cavity" OR "mouth" OR "oral mucosa") AND ("inflammation" OR "ulceration" OR "mucosal changes") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("diagnostic criteria" OR "clinical diagnosis" OR "differential diagnosis") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral manifestations" OR "oral symptoms" OR "oral lesions") AND ("prevalence" OR "incidence" OR "epidemiology")
-</t>
-  </si>
-  <si>
-    <t>[Wenwen%Cheng%NULL%2,  Yufeng%Li%NULL%2,  Liyan%Cui%NULL%2,  Ying%Chen%NULL%2,  Sharui%Shan%NULL%2,  Duan%Xiao%NULL%2,  Xiaoyun%Chen%NULL%2,  Zhuoming%Chen%NULL%2,  Anding%Xu%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("efficacy" OR "effectiveness" OR "therapeutic outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("safety" OR "adverse events" OR "side effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("clinical trials" OR "randomized controlled trials" OR "systematic review") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("mortality" OR "hospitalization" OR "disease progression") 
-("COVID-19" OR "SARS-CoV-2") AND ("corticosteroids" OR "steroids" OR "glucocorticoids") AND ("respiratory support" OR "oxygenation" OR "ventilatory management")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND ("efficacy"[Title/Abstract] OR "effectiveness"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND ("safety"[Title/Abstract] OR "adverse events"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "clinical improvement"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "ICU hospitalization"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND "corticosteroid therapy"[Title/Abstract] AND "mortality"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Wenwen%Cheng%NULL%0,  Yufeng%Li%NULL%0,  Liyan%Cui%NULL%0,  Ying%Chen%NULL%0,  Sharui%Shan%NULL%0,  Duan%Xiao%NULL%0,  Xiaoyun%Chen%NULL%0,  Zhuoming%Chen%NULL%0,  Anding%Xu%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("gustatory dysfunction" OR "ageusia" OR "hypogeusia") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory disorders" OR "gustatory disorders" OR "smell and taste disorders") AND ("prevalence" OR "incidence" OR "epidemiology") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("clinical presentation" OR "symptoms" OR "manifestations") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("recovery" OR "duration" OR "long-term effects") 
-("COVID-19" OR "SARS-CoV-2") AND ("olfactory dysfunction" OR "anosmia" OR "hyposmia") AND ("diagnosis" OR "assessment" OR "evaluation")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "prevalence"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "clinical characteristics"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("olfactory dysfunction"[Title/Abstract] OR "gustatory dysfunction"[Title/Abstract]) AND "COVID-19 severity"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Mahalul%Azam%mahalul.azam@mail.unnes.ac.id%1,  Rina%Sulistiana%NULL%1,  Martha%Ratnawati%NULL%1,  Arulita Ika%Fibriana%NULL%1,  Udin%Bahrudin%NULL%1,  Dian%Widyaningrum%NULL%1,  Syed Mohamed%Aljunid%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("recurrence" OR "reinfection" OR "relapse") AND ("prevalence" OR "incidence" OR "frequency") 
-("COVID-19" OR "SARS-CoV-2") AND ("recurrent infection" OR "persistent infection" OR "chronic infection") AND ("clinical characteristics" OR "demographic characteristics" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("reinfection" OR "relapse" OR "recurrence") AND ("viral dynamics" OR "viral shedding" OR "viral load") 
-("COVID-19" OR "SARS-CoV-2") AND ("positive PCR after recovery" OR "positive test after clearance" OR "positive test after discharge") 
-("COVID-19" OR "SARS-CoV-2") AND ("recurrence" OR "reinfection" OR "relapse") AND ("long-term effects" OR "complications" OR "clinical outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("recurrence"[Title/Abstract] OR "reinfection"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("recurrent positivity"[Title/Abstract] OR "recurrent RNA positivity"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("incidence"[Title/Abstract] OR "prevalence"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND "factors associated with recurrent positivity"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND "risk factors for recurrent positivity"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Johanna%Signer%NULL%1,  Hulda R.%Jonsdottir%hulda-run.jonsdottir@babs.admin.ch%1,  Werner C.%Albrich%NULL%1,  Marc%Strasser%NULL%1,  Roland%Züst%NULL%1,  Sarah%Ryter%NULL%1,  Rahel%Ackermann-Gäumann%NULL%1,  Nicole%Lenz%NULL%1,  Denise%Siegrist%NULL%1,  Andreas%Suter%NULL%1,  Roland%Schoop%NULL%1,  Olivier B.%Engler%olivier.engler@babs.admin.ch%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("prevention" OR "treatment" OR "prophylaxis") 
-("respiratory tract infections" OR "common cold" OR "influenza") AND ("Echinacea" OR "Echinacea purpurea") AND ("efficacy" OR "effectiveness" OR "clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("immunomodulatory effects" OR "immune response" OR "antiviral activity") 
-("Echinacea" OR "Echinacea purpurea") AND ("respiratory tract infections" OR "common cold" OR "influenza") AND ("systematic review" OR "meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("Echinacea" OR "Echinacea purpurea") AND ("safety" OR "adverse events" OR "side effects")
-</t>
-  </si>
-  <si>
-    <t>[C.R.%Foster%NULL%1,  F.%Campbell%NULL%1,  L.%Blank%NULL%1,  A.J.%Cantrell%NULL%1,  M.%Black%NULL%1,  A.C.K.%Lee%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("population testing" OR "mass testing" OR "community testing") AND ("implementation" OR "rollout" OR "execution") 
-("COVID-19" OR "SARS-CoV-2") AND ("population screening" OR "mass screening" OR "community screening") AND ("experiences" OR "lessons learned" OR "challenges") 
-("COVID-19" OR "SARS-CoV-2") AND ("testing strategy" OR "testing program" OR "testing campaign") AND ("implementation" OR "execution" OR "feasibility") 
-("COVID-19" OR "SARS-CoV-2") AND ("population-based testing" OR "large-scale testing" OR "surveillance testing") AND ("implementation" OR "process" OR "logistics") 
-("COVID-19" OR "SARS-CoV-2") AND ("testing initiatives" OR "testing interventions" OR "testing programs") AND ("experiences" OR "lessons learned" OR "best practices")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract]) AND ("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract])
-("SARS-CoV-2"[Title/Abstract] OR "severe acute respiratory syndrome coronavirus 2"[Title/Abstract]) AND ("implementation experiences"[Title/Abstract] OR "implementation challenges"[Title/Abstract]) AND ("population testing"[Title/Abstract] OR "mass testing"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("drive-through testing"[Title/Abstract] OR "walk-through testing"[Title/Abstract] OR "mobile testing"[Title/Abstract] OR "home visiting testing"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("population testing outcomes"[Title/Abstract] OR "population testing evaluation"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>[Daniel Martin%Simadibrata%NULL%1,  Anna Mira%Lubis%NULL%2,  Anna Mira%Lubis%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("admission" OR "baseline" OR "initial") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("in-hospital" OR "hospitalized") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("prognosis" OR "outcome") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("risk factors" OR "predictors") AND ("mortality" OR "death" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("D-dimer" OR "fibrin D-dimer") AND ("severity" OR "complications") AND ("mortality" OR "death" OR "fatal outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("admission"[Title/Abstract] OR "in-hospital"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract]) AND ("meta-analysis"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("on-admission"[Title/Abstract] OR "baseline"[Title/Abstract]) AND ("mortality risk"[Title/Abstract] OR "mortality rate"[Title/Abstract])
-("D-dimer"[Title/Abstract] OR "D dimer"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("prognosis"[Title/Abstract] OR "predictive value"[Title/Abstract]) AND ("all-cause mortality"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>[Roengrudee%Patanavanich%NULL%1,  Stanton A%Glantz%Stanton.Glantz@ucsf.edu%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("disease progression" OR "clinical outcomes" OR "severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("mortality" OR "hospitalization" OR "intensive care") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("complications" OR "respiratory failure" OR "organ dysfunction") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("viral load" OR "immune response" OR "inflammation") 
-("COVID-19" OR "SARS-CoV-2") AND ("smoking" OR "tobacco use") AND ("risk factors" OR "prognosis" OR "outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("progression"[Title/Abstract] OR "severity"[Title/Abstract] OR "outcomes"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("disease progression"[Title/Abstract] OR "disease severity"[Title/Abstract] OR "clinical outcomes"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("meta-analysis"[Title/Abstract] OR "systematic review"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("association"[Title/Abstract] OR "relationship"[Title/Abstract]) AND ("disease progression"[Title/Abstract] OR "severity"[Title/Abstract])
-("smoking"[Title/Abstract] OR "smoker*"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract]) AND ("risk factor"[Title/Abstract] OR "predictor"[Title/Abstract]) AND ("progression"[Title/Abstract] OR "severity"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("prevalence" OR "incidence") AND ("risk factors" OR "predictors") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "psychological well-being") AND ("anxiety" OR "depression" OR "fear") AND ("pandemic" OR "outbreak") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "psychological well-being") AND ("prevalence" OR "incidence") AND ("anxiety" OR "depression" OR "fear") 
-("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("interventions" OR "strategies" OR "interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("anxiety" OR "depression" OR "fear") AND ("prevention" OR "management" OR "treatment") AND ("strategies" OR "interventions")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("risk factors"[MeSH Terms] OR "risk factors"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("strategies"[Subheading] OR "strategies"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("fear"[MeSH Terms] OR "fear"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("psychological well-being"[MeSH Terms] OR "psychological well-being"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("psychological morbidity"[MeSH Terms] OR "psychological morbidity"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Amir%Mohsenpour%amir.mohsenpour@uni-bielefeld.de%1,  Kayvan%Bozorgmehr%NULL%2,  Sven%Rohleder%NULL%2,  Jan%Stratil%NULL%1,  Diogo%Costa%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV-2" OR "COVID-19") AND ("prevalence" OR "incidence") AND ("homeless" OR "shelter") AND ("transmission" OR "spread") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("health outcomes" OR "morbidity" OR "mortality") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("control strategies" OR "prevention measures" OR "interventions") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("transmission dynamics" OR "outbreak investigation") 
-("SARS-CoV-2" OR "COVID-19") AND ("homeless" OR "shelter") AND ("vulnerable populations" OR "health disparities")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("transmission"[MeSH Terms] OR "transmission"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health outcomes"[MeSH Terms] OR "health outcomes"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
-("non-pharmaceutical interventions"[MeSH Terms] OR "non-pharmaceutical interventions"[All Fields]) AND ("infection prevention and control"[MeSH Terms] OR "infection prevention and control"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("homeless shelters"[MeSH Terms] OR "homeless shelters"[All Fields]) AND ("outbreaks"[MeSH Terms] OR "outbreaks"[All Fields])
-("qualitative studies"[MeSH Terms] OR "qualitative studies"[All Fields]) AND ("homeless persons"[MeSH Terms] OR "homeless persons"[All Fields]) AND ("shelter staff"[MeSH Terms] OR "shelter staff"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[João Locke%Ferreira de Araújo%NULL%1,  Diego%Menezes%NULL%2,  Diego%Menezes%NULL%0,  Julia Maria%Saraiva‐Duarte%NULL%2,  Julia Maria%Saraiva‐Duarte%NULL%0,  Luciana%de Lima Ferreira%NULL%2,  Luciana%de Lima Ferreira%NULL%0,  Renato%Santana de Aguiar%NULL%2,  Renato%Santana de Aguiar%NULL%0,  Renan%Pedra de Souza%renanrps@ufmg.br%2,  Renan%Pedra de Souza%renanrps@ufmg.br%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "genetic variants") AND ("prognosis" OR "clinical outcomes" OR "severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("host genetics" OR "genetic variants") AND ("susceptibility" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("host genetic polymorphisms" OR "genetic markers") AND ("prognosis" OR "clinical outcomes" OR "severity") 
-("COVID-19" OR "SARS-CoV-2") AND ("host genetic variants" OR "genetic determinants") AND ("susceptibility" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("genetic association studies" OR "genetic profiling") AND ("prognosis" OR "clinical outcomes" OR "severity")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prognosis"[MeSH Terms] OR "prognosis"[All Fields]) AND ("susceptibility"[MeSH Terms] OR "susceptibility"[All Fields]) AND ("genetic variation"[MeSH Terms] OR "genetic variation"[All Fields])
-("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("genetic association studies"[MeSH Terms] OR "genetic association studies"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
-("SARS-CoV-2"[MeSH Terms] OR "SARS-CoV-2"[All Fields]) AND ("genetic association studies"[MeSH Terms] OR "genetic association studies"[All Fields]) AND ("COVID-19 susceptibility"[All Fields])
-("3p21.31 region"[MeSH Terms] OR "3p21.31 region"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
-("ABO locus"[MeSH Terms] OR "ABO locus"[All Fields]) AND ("COVID-19 prognosis"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Yufei%Li%NULL%11,  Nathaniel%Scherer%NULL%1,  Lambert%Felix%NULL%2,  Lambert%Felix%NULL%0,  Hannah%Kuper%NULL%2,  Hannah%Kuper%NULL%0,  Jakob%Pietschnig%NULL%2,  Jakob%Pietschnig%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("prevalence" OR "incidence") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health" OR "psychological well-being") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("psychological distress" OR "emotional well-being") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health" OR "psychological well-being") AND ("prevalence" OR "incidence") AND ("depression" OR "anxiety" OR "PTSD") 
-("COVID-19" OR "SARS-CoV-2") AND ("healthcare workers" OR "medical professionals") AND ("mental health impact" OR "psychological impact") AND ("depression" OR "anxiety" OR "PTSD")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress disorders, post-traumatic"[MeSH Terms] OR "stress disorders, post-traumatic"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("stress disorders, post-traumatic"[MeSH Terms] OR "stress disorders, post-traumatic"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields]) AND ("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("post-traumatic stress disorders"[MeSH Terms] OR "post-traumatic stress disorders"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("health personnel"[MeSH Terms] OR "health personnel"[All Fields]) AND ("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("systematic review"[MeSH Terms] OR "systematic review"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[A.%Bak%NULL%1,  M.A.%Mugglestone%NULL%1,  N.V.%Ratnaraja%NULL%1,  J.A.%Wilson%NULL%1,  L.%Rivett%NULL%1,  S.M.%Stoneham%NULL%1,  J.%Bostock%NULL%1,  S.E.%Moses%NULL%1,  J.R.%Price%NULL%1,  M.%Weinbren%NULL%1,  H.P.%Loveday%NULL%1,  J.%Islam%NULL%1,  A.P.R.%Wilson%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("betacoronaviruses" OR "beta-coronaviruses") AND ("human-to-human transmission" OR "interhuman transmission") 
-("MERS-CoV" OR "Middle East respiratory syndrome coronavirus") AND ("human transmission" OR "person-to-person transmission") 
-("SARS-CoV" OR "severe acute respiratory syndrome coronavirus") AND ("human transmission" OR "person-to-person transmission") 
-("SARS-CoV-2" OR "COVID-19" OR "novel coronavirus") AND ("human transmission" OR "person-to-person transmission") 
-("betacoronaviruses" OR "beta-coronaviruses") AND ("transmission dynamics" OR "epidemiology" OR "spread")
-</t>
-  </si>
-  <si>
-    <t>[Raymond%Chang%NULL%1,  Khaled Mossad%Elhusseiny%NULL%2,  Khaled Mossad%Elhusseiny%NULL%0,  Yu-Chang%Yeh%NULL%1,  Wei-Zen%Sun%NULL%1,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("clinical epidemiology" OR "clinical characteristics") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("outcomes" OR "prognosis" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("systematic review" OR "meta-analysis") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("clinical outcomes" OR "complications") 
-("COVID-19" OR "SARS-CoV-2") AND ("ICU" OR "intensive care unit") AND ("mechanical ventilation" OR "invasive ventilation") AND ("rapid review" OR "meta-analysis")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("outcome assessment (health care)"[MeSH Terms] OR "outcome assessment (health care)"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("meta-analysis"[Publication Type] OR "meta-analysis"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("systematic review"[Publication Type] OR "systematic review"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intensive care units"[MeSH Terms] OR "intensive care units"[All Fields]) AND ("mechanical ventilation"[MeSH Terms] OR "mechanical ventilation"[All Fields]) AND ("epidemiology"[Subheading] OR "epidemiology"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Omar Ariel%Espinosa%NULL%1,  Andernice dos Santos%Zanetti%NULL%2,  Andernice dos Santos%Zanetti%NULL%0,  Ednardo Fornanciari%Antunes%NULL%2,  Ednardo Fornanciari%Antunes%NULL%0,  Fabiana Gulin%Longhi%NULL%2,  Fabiana Gulin%Longhi%NULL%0,  Tatiane Amorim%de Matos%NULL%2,  Tatiane Amorim%de Matos%NULL%0,  Paula Franciene%Battaglini%NULL%2,  Paula Franciene%Battaglini%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("fatal cases" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("prevalence" OR "incidence") AND ("patient outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("risk factors" OR "associations") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("comorbidities" OR "preexisting conditions") AND ("mortality" OR "fatalities") AND ("patients")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("intensive care units" [Title/Abstract]) AND ("geographical distribution" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("mortality rate" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("intensive care unit admission" [Title/Abstract]) AND ("association" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("comorbidities" [Title/Abstract]) AND ("odds ratio of death" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Anastasios%Kollias%NULL%1,  Konstantinos G.%Kyriakoulis%NULL%1,  Ioannis G.%Kyriakoulis%NULL%1,  Thomas%Nitsotolis%NULL%1,  Garyphallia%Poulakou%NULL%1,  George S.%Stergiou%NULL%1,  Konstantinos%Syrigos%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("prevalence" OR "incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("risk factors" OR "associations") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("diagnosis" OR "screening") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("treatment" OR "management") 
-("COVID-19" OR "SARS-CoV-2") AND ("venous thromboembolism" OR "VTE") AND ("outcomes" OR "complications")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("venous thromboembolism" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("COVID-19-related mortality" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("adjusted hazard ratio" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("continuation of therapy" [Title/Abstract]) AND ("hospitalization" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("statin therapy" [Title/Abstract]) AND ("adjusted odds ratio" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Jiawen%Deng%NULL%2,  Fangwen%Zhou%NULL%3,  Wenteng%Hou%NULL%3,  Zachary%Silver%NULL%2,  Chi Yi%Wong%NULL%3,  Oswin%Chang%NULL%2,  Anastasia%Drakos%NULL%1,  Qi Kang%Zuo%NULL%2,  Emma%Huang%NULL%3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("anxiety" OR "depression") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("stress" OR "psychological distress") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") AND ("pandemic") 
-("COVID-19" OR "SARS-CoV-2") AND ("mental health" OR "mental disorders") AND ("university students" OR "college students") AND ("prevalence" OR "incidence") AND ("impact" OR "effects")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("mental health disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("university students" [Title/Abstract]) AND ("college students" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("depressive symptoms" [Title/Abstract]) AND ("anxiety symptoms" [Title/Abstract]) AND ("sleep disturbances" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("mental health" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("higher education students" [Title/Abstract]) AND ("mental illness" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("university students" [Title/Abstract]) AND ("college students" [Title/Abstract]) AND ("mental health screening" [Title/Abstract]) AND ("intervention" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Jiawen%Deng%dengj35@mcmaster.ca%0,  Fangwen%Zhou%NULL%0,  Fangwen%Zhou%NULL%0,  Wenteng%Hou%NULL%0,  Wenteng%Hou%NULL%0,  Zachary%Silver%NULL%0,  Chi Yi%Wong%NULL%0,  Chi Yi%Wong%NULL%0,  Oswin%Chang%NULL%0,  Emma%Huang%NULL%0,  Emma%Huang%NULL%0,  Qi Kang%Zuo%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("prevalence" OR "incidence") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("mental health" OR "psychological symptoms") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("psychiatric comorbidities") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("mental health outcomes") AND ("patients") 
-("COVID-19" OR "SARS-CoV-2") AND ("depression" OR "anxiety" OR "sleep disorder") AND ("prevalence" OR "incidence") AND ("psychological impact")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("psychiatric disorders" [Title/Abstract]) AND ("mental health" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("mental health disorders" [Title/Abstract]) AND ("depressive disorder" [Title/Abstract]) AND ("anxiety disorders" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("mental disorders" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disorders" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("psychological disorders" [Title/Abstract]) AND ("depression" [Title/Abstract]) AND ("anxiety" [Title/Abstract]) AND ("sleep disturbances" [Title/Abstract]) AND ("prevalence" [Title/Abstract]) AND ("systematic review" [Publication Type]) AND ("meta-analysis" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[David Franciole Oliveira%Silva%NULL%1,  Severina Carla Vieira Cunha%Lima%NULL%2,  Severina Carla Vieira Cunha%Lima%NULL%0,  Karine Cavalcanti Mauricio%Sena-Evangelista%NULL%1,  Dirce Maria%Marchioni%NULL%1,  Ricardo Ney%Cobucci%NULL%2,  Ricardo Ney%Cobucci%NULL%0,  Fábia Barbosa%de Andrade%NULL%2,  Fábia Barbosa%de Andrade%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutritional screening tools" OR "nutritional assessment tools") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition screening" OR "malnutrition screening") AND ("tools" OR "instruments") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition assessment" OR "malnutrition assessment") AND ("tools" OR "instruments") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutritional screening tools" OR "nutritional assessment tools") AND ("validation" OR "reliability") 
-("COVID-19" OR "SARS-CoV-2") AND ("older adults" OR "elderly patients") AND ("nutritional risk" OR "malnutrition risk") AND ("nutrition screening" OR "malnutrition screening") AND ("tools" OR "instruments") AND ("sensitivity" OR "specificity")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("nutritional screening" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("older patients" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("nutritional assessment" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("measurement properties" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("malnutrition" [Title/Abstract]) AND ("nutritional risk screening" [Title/Abstract]) AND ("older individuals" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("nutritional risk assessment" [Title/Abstract]) AND ("nutrition screening tools" [Title/Abstract]) AND ("older patients" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("nutritional risk" [Title/Abstract]) AND ("nutritional screening tools" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("narrative synthesis" [Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("intervention" OR "intervention study") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("randomized controlled trial" OR "RCT") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("systematic review" OR "meta-analysis") 
-("home-based exercise" OR "exercise program") AND ("older adults" OR "elderly") AND ("physical fitness" OR "functional fitness") AND ("COVID-19" OR "SARS-CoV-2") AND ("effectiveness" OR "efficacy")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("older adults" [Title/Abstract]) AND ("home-based exercise" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("healthy older adults" [Title/Abstract]) AND ("home-based exercise programmes" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("home-based exercise" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("older adults" [Title/Abstract]) AND ("home-based training" [Title/Abstract]) AND ("muscle strength" [Title/Abstract]) AND ("balance" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("home-based exercise programmes" [Title/Abstract]) AND ("physical fitness" [Title/Abstract]) AND ("older adults" [Title/Abstract]) AND ("meta-analysis" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Ines%Lakbar%NULL%1,  David%Luque-Paz%NULL%2,  David%Luque-Paz%NULL%0,  Jean-Louis%Mege%NULL%1,  Sharon%Einav%NULL%1,  Marc%Leone%NULL%1,  Andrea%Cortegiani%NULL%8,  Andrea%Cortegiani%NULL%0,  Andrea%Cortegiani%NULL%0,  Andrea%Cortegiani%NULL%0,  Andrea%Cortegiani%NULL%0,  Andrea%Cortegiani%NULL%0,  Andrea%Cortegiani%NULL%0,  Andrea%Cortegiani%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("gender differences" OR "sex differences") AND ("susceptibility" OR "vulnerability") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender" OR "sex") AND ("outcomes" OR "clinical outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender disparities" OR "sex disparities") AND ("mortality" OR "hospitalization" OR "severe illness") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender" OR "sex") AND ("prognosis" OR "survival") 
-("COVID-19" OR "SARS-CoV-2") AND ("gender differences" OR "sex differences") AND ("COVID-19 severity" OR "COVID-19 outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [Title/Abstract]) AND ("gender susceptibility" [Title/Abstract]) AND ("outcomes" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("SARS-CoV-2" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("disease characteristics" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("severe disease" [Title/Abstract]) AND ("intensive care unit" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("men vs women" [Title/Abstract]) AND ("mortality rates" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("SARS-CoV-2" [Title/Abstract]) AND ("gender differences" [Title/Abstract]) AND ("intensive care unit admission" [Title/Abstract]) AND ("mortality" [Title/Abstract]) AND ("observational study" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Diptanu%Paul%NULL%3,  Ayush%Gupta%NULL%1,  Anand Kumar%Maurya%NULL%2,  Anand Kumar%Maurya%NULL%0,  Amitava%Mukherjee%NULL%10,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0,  Amitava%Mukherjee%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("pandemic") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("options" OR "methods") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("pandemic") AND ("efficacy" OR "effectiveness") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("safety" OR "health risk") 
-("N95 respirator" OR "N95 mask" OR "filtering facepiece respirator") AND ("reprocessing" OR "decontamination") AND ("COVID-19" OR "SARS-CoV-2") AND ("guidelines" OR "recommendations")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("N95 filtering facepiece respirators" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("COVID-19" [Title/Abstract]) AND ("N95-FFRs" [Title/Abstract]) AND ("reprocessing" [Title/Abstract]) AND ("decontamination methods" [Title/Abstract]) AND ("original research" [Publication Type])
-("N95 respirators" [Title/Abstract]) AND ("reprocessing" [Title/Abstract]) AND ("decontamination methods" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("N95-FFRs" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("Ultraviolet irradiation" [Title/Abstract]) AND ("systematic review" [Publication Type])
-("N95-FFRs" [Title/Abstract]) AND ("reprocessing methods" [Title/Abstract]) AND ("Microwave generated steam" [Title/Abstract]) AND ("Hydrogen peroxide vapor" [Title/Abstract]) AND ("systematic review" [Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Ana Luísa%Areia%NULL%1,  Anabela%Mota-Pinto%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("immunity" OR "immune response") AND ("infection" OR "transmission") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("immunity" OR "immune system") AND ("viral clearance" OR "viral load") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("maternal antibodies" OR "placental transfer") AND ("infection risk" OR "protection") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("adaptive immunity" OR "cellular immunity") AND ("clinical outcomes" OR "severity") 
-("pregnancy" OR "pregnant women") AND ("SARS-CoV-2" OR "COVID-19") AND ("innate immunity" OR "antiviral response") AND ("immunopathology" OR "complications")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("Immunity" [MeSH Terms] OR "immunity" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("Immunological Factors" [MeSH Terms] OR "Immunological Factors" [All Fields])
-("Maternal-Fetal Exchange" [MeSH Terms] OR "Maternal-Fetal Exchange" [All Fields]) AND ("Immune System" [MeSH Terms] OR "Immune System" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("Immune Tolerance" [MeSH Terms] OR "Immune Tolerance" [All Fields]) AND ("Pregnancy Complications, Infectious" [MeSH Terms] OR "Pregnancy Complications, Infectious" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("Adaptive Immunity" [MeSH Terms] OR "Adaptive Immunity" [All Fields]) AND ("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("Innate Immunity" [MeSH Terms] OR "Innate Immunity" [All Fields]) AND ("Pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Ana Karla G.%Melo%NULL%1,  Keilla M.%Milby%NULL%1,  Ana Luiza M. A.%Caparroz%NULL%1,  Ana Carolina P. N.%Pinto%NULL%1,  Rodolfo R. P.%Santos%NULL%2,  Rodolfo R. P.%Santos%NULL%0,  Aline P.%Rocha%NULL%1,  Gilda A.%Ferreira%NULL%1,  Viviane A.%Souza%NULL%1,  Lilian D. A.%Valadares%NULL%1,  Rejane M. R. A.%Vieira%NULL%1,  Gecilmara S.%Pileggi%NULL%2,  Gecilmara S.%Pileggi%NULL%0,  Virgínia F. M.%Trevisani%NULL%1,  Jeffrey%Chalmers%NULL%2,  Jeffrey%Chalmers%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("cytokine storm" OR "cytokine release syndrome") AND ("biomarkers" OR "serum markers") AND ("severe COVID-19" OR "fatal COVID-19") 
-("inflammatory markers" OR "cytokine markers") AND ("severe COVID-19" OR "fatal COVID-19") AND ("prognosis" OR "outcomes") 
-("cytokine storm" OR "cytokine release syndrome") AND ("severe COVID-19" OR "fatal COVID-19") AND ("biomarker panel" OR "signature") 
-("interleukin-6" OR "IL-6") AND ("severe COVID-19" OR "fatal COVID-19") AND ("prognostic value" OR "predictive value") 
-("TNF-alpha" OR "tumor necrosis factor-alpha") AND ("cytokine storm" OR "severe COVID-19" OR "fatal COVID-19")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Cytokine Release Syndrome" [MeSH Terms] OR "Cytokine Release Syndrome" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Severity of Illness Index" [MeSH Terms] OR "Severity of Illness Index" [All Fields])
-("Interleukin-6" [MeSH Terms] OR "Interleukin-6" [All Fields]) AND ("Ferritins" [MeSH Terms] OR "Ferritins" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Prognosis" [MeSH Terms] OR "Prognosis" [All Fields])
-("Lymphopenia" [MeSH Terms] OR "Lymphopenia" [All Fields]) AND ("Thrombocytopenia" [MeSH Terms] OR "Thrombocytopenia" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields])
-("D-Dimer" [MeSH Terms] OR "D-Dimer" [All Fields]) AND ("Aspartate Aminotransferases" [MeSH Terms] OR "Aspartate Aminotransferases" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Systemic Inflammatory Response Syndrome" [MeSH Terms] OR "Systemic Inflammatory Response Syndrome" [All Fields])
-("C-Reactive Protein" [MeSH Terms] OR "C-Reactive Protein" [All Fields]) AND ("Procalcitonin" [MeSH Terms] OR "Procalcitonin" [All Fields]) AND ("Lactate Dehydrogenase" [MeSH Terms] OR "Lactate Dehydrogenase" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Biomarkers" [MeSH Terms] OR "Biomarkers" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("gastrointestinal symptoms" OR "digestive symptoms") AND ("fecal nucleic acid testing" OR "stool testing") AND ("children" OR "pediatric patients") AND ("2019 coronavirus disease" OR "COVID-19") 
-("gastrointestinal manifestations" OR "digestive symptoms") AND ("fecal viral shedding" OR "viral RNA in stool") AND ("pediatric COVID-19" OR "COVID-19 in children") 
-("fecal-oral transmission" OR "enteric transmission") AND ("gastrointestinal symptoms" OR "digestive symptoms") AND ("2019 coronavirus disease" OR "COVID-19") AND ("pediatric patients" OR "children") 
-("gastrointestinal manifestations" OR "digestive symptoms") AND ("fecal nucleic acid testing" OR "stool testing") AND ("SARS-CoV-2" OR "novel coronavirus") AND ("children" OR "pediatric patients") 
-("gastrointestinal symptoms" OR "digestive symptoms") AND ("stool viral load" OR "fecal viral shedding") AND ("pediatric COVID-19" OR "COVID-19 in children")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Gastrointestinal Diseases" [MeSH Terms] OR "Gastrointestinal Diseases" [All Fields]) AND ("Feces" [MeSH Terms] OR "Feces" [All Fields]) AND ("Polymerase Chain Reaction" [MeSH Terms] OR "Polymerase Chain Reaction" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Child" [MeSH Terms] OR "Child" [All Fields])
-("Vomiting" [MeSH Terms] OR "Vomiting" [All Fields]) AND ("Diarrhea" [MeSH Terms] OR "Diarrhea" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Epidemiology" [MeSH Terms] OR "Epidemiology" [All Fields])
-("Feces" [MeSH Terms] OR "Feces" [All Fields]) AND ("Nucleic Acids" [MeSH Terms] OR "Nucleic Acids" [All Fields]) AND ("Reverse Transcriptase Polymerase Chain Reaction" [MeSH Terms] OR "Reverse Transcriptase Polymerase Chain Reaction" [All Fields]) AND ("Child" [MeSH Terms] OR "Child" [All Fields])
-("Epidemiologic Studies" [MeSH Terms] OR "Epidemiologic Studies" [All Fields]) AND ("China" [MeSH Terms] OR "China" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Prevalence" [MeSH Terms] OR "Prevalence" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Pediatrics" [MeSH Terms] OR "Pediatrics" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields]) AND ("Gastrointestinal Diseases" [MeSH Terms] OR "Gastrointestinal Diseases" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Hany Hasan%Elsayed%NULL%1,  Aly Sherif%Hassaballa%NULL%2,  Aly Sherif%Hassaballa%NULL%0,  Taha Aly%Ahmed%NULL%1,  Mohammed%Gumaa%NULL%1,  Hazem Youssef%Sharkawy%NULL%1,  Assem Adel%Moharram%NULL%1,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0,  Chiara%Lazzeri%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("acute respiratory distress syndrome" OR "ARDS") AND ("outcomes" OR "mortality" OR "survival") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("adult respiratory distress syndrome" OR "ARDS") AND ("clinical outcomes" OR "treatment outcomes") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("ARDS severity" OR "severity of respiratory failure") AND ("mortality" OR "survival" OR "prognosis") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("acute respiratory distress syndrome" OR "ARDS") AND ("ventilator-associated complications" OR "ventilator-associated pneumonia") 
-("mechanical ventilation" OR "ventilatory support") AND ("COVID-19" OR "SARS-CoV-2") AND ("adult respiratory distress syndrome" OR "ARDS") AND ("long-term outcomes" OR "functional outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Respiratory Distress Syndrome, Adult" [MeSH Terms] OR "Respiratory Distress Syndrome, Adult" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Respiratory Distress Syndrome, Adult" [MeSH Terms] OR "Respiratory Distress Syndrome, Adult" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Intensive Care Units" [MeSH Terms] OR "Intensive Care Units" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Regression Analysis" [MeSH Terms] OR "Meta-Regression Analysis" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Intensive Care Units" [MeSH Terms] OR "Intensive Care Units" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Laura%Pasin%NULL%1,  Paolo%Navalesi%NULL%1,  Alberto%Zangrillo%NULL%2,  Artem%Kuzovlev%NULL%2,  Valery%Likhvantsev%NULL%2,  Ludhmila Abrahão%Hajjar%NULL%1,  Stefano%Fresilli%NULL%1,  Marcus Vinicius Guimaraes%Lacerda%NULL%1,  Giovanni%Landoni%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("methylprednisolone" [MeSH Terms] OR "methylprednisolone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("prednisone" [MeSH Terms] OR "prednisone" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields]) 
-("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("coronavirus" [MeSH Terms] OR "coronavirus" [All Fields]) AND ("treatment" [MeSH Terms] OR "treatment" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("Randomized Controlled Trials as Topic" [MeSH Terms] OR "Randomized Controlled Trials as Topic" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Oxygen Inhalation Therapy" [MeSH Terms] OR "Oxygen Inhalation Therapy" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Meta-Analysis as Topic" [MeSH Terms] OR "Meta-Analysis as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Corticosteroids" [MeSH Terms] OR "Corticosteroids" [All Fields]) AND ("Mechanical Ventilators" [MeSH Terms] OR "Mechanical Ventilators" [All Fields]) AND ("Oxygen Inhalation Therapy" [MeSH Terms] OR "Oxygen Inhalation Therapy" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Nadya%Johanna%NULL%2,  Henrico%Citrawijaya%NULL%1,  Grace%Wangge%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) 
-("community containment" [MeSH Terms] OR "community containment" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) 
-("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("community containment" [MeSH Terms] OR "community containment" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Incidence" [MeSH Terms] OR "Incidence" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Resource Allocation" [MeSH Terms] OR "Resource Allocation" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND (("Mass Screening" [MeSH Terms] OR "Mass Screening" [All Fields]) AND ("Lockdown" [MeSH Terms] OR "Lockdown" [All Fields])) AND ("Transmission, Infectious" [MeSH Terms] OR "Transmission, Infectious" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Lara Marleen%Fricke%NULL%1,  Stephan%Glöckner%NULL%1,  Maren%Dreier%NULL%1,  Berit%Lange%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("prevalence" [MeSH Terms] OR "prevalence" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("morbidity" [MeSH Terms] OR "morbidity" [All Fields]) 
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("public health" [MeSH Terms] OR "public health" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Incidence" [MeSH Terms] OR "Incidence" [All Fields]) AND ("Mortality" [MeSH Terms] OR "Mortality" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Epidemiological Monitoring" [MeSH Terms] OR "Epidemiological Monitoring" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Disease Outbreaks" [MeSH Terms] OR "Disease Outbreaks" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Influenza, Human" [MeSH Terms] OR "Influenza, Human" [All Fields]) AND ("Non-pharmaceutical Interventions" [MeSH Terms] OR "Non-pharmaceutical Interventions" [All Fields]) AND ("Public Health" [MeSH Terms] OR "Public Health" [All Fields]) AND ("Systematic Reviews as Topic" [MeSH Terms] OR "Systematic Reviews as Topic" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("tele-eyecare" OR "tele-ophthalmology" OR "remote ophthalmic care") 
-("coronavirus" OR "pandemic") AND ("telemedicine" OR "teleophthalmology" OR "tele-eye care") AND ("impact" OR "effect") 
-("COVID-19" OR "SARS-CoV-2") AND ("telehealth" OR "virtual care") AND ("ophthalmology" OR "eye care") AND ("practice" OR "implementation") 
-("tele-ophthalmology" OR "tele-eye care") AND ("COVID-19" OR "coronavirus") AND ("challenges" OR "barriers") AND ("adoption" OR "uptake") 
-("tele-eyecare" OR "teleophthalmology") AND ("COVID-19" OR "pandemic") AND ("outcomes" OR "efficacy") AND ("patient satisfaction" OR "quality of care")
-</t>
-  </si>
-  <si>
-    <t>[Sarah%Mitchell%NULL%1,  Victoria%Maynard%NULL%2,  Victoria%Maynard%NULL%0,  Victoria%Lyons%NULL%1,  Nicholas%Jones%NULL%1,  Clare%Gardiner%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("role" OR "responsibility") 
-("palliative care" OR "end-of-life care") AND ("primary care" OR "community nursing") AND ("epidemics" OR "pandemics") AND ("delivery" OR "provision") 
-("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("response" OR "preparedness") 
-("palliative care" OR "end-of-life care") AND ("primary care" OR "community nursing") AND ("epidemics" OR "pandemics") AND ("challenges" OR "barriers") 
-("primary care" OR "community nursing") AND ("palliative care" OR "end-of-life care") AND ("epidemics" OR "pandemics") AND ("best practices" OR "innovations")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("end of life care"[MeSH Terms] OR ("end"[All Fields] AND "life"[All Fields] AND "care"[All Fields])) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("rapid systematic review"[MeSH Terms] OR ("rapid"[All Fields] AND "systematic"[All Fields] AND "review"[All Fields])) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("observational study"[MeSH Terms] OR ("observational"[All Fields] AND "study"[All Fields])) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("epidemics"[MeSH Terms] OR "epidemics"[All Fields]) AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields])
-("research"[MeSH Terms] OR "research"[All Fields]) AND ("primary health care"[MeSH Terms] OR "primary health care"[All Fields]) AND ("community nursing"[MeSH Terms] OR "community nursing"[All Fields]) AND ("palliative care"[MeSH Terms] OR "palliative care"[All Fields]) AND ("hospices"[MeSH Terms] OR "hospices"[All Fields]) AND ("specialist palliative care"[MeSH Terms] OR ("specialist"[All Fields] AND "palliative"[All Fields] AND "care"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t>[Vanessa%De Rubeis%NULL%1,  Jinhee%Lee%NULL%2,  Jinhee%Lee%NULL%0,  Muhammad Saqib%Anwer%NULL%1,  Yulika%Yoshida-Montezuma%NULL%1,  Alessandra T%Andreacchi%NULL%1,  Erica%Stone%NULL%2,  Erica%Stone%NULL%0,  Saman%Iftikhar%NULL%1,  Jason D%Morgenstern%NULL%1,  Reid%Rebinsky%NULL%1,  Sarah E%Neil-Sztramko%NULL%1,  Elizabeth%Alvarez%NULL%2,  Elizabeth%Alvarez%NULL%0,  Emma%Apatu%NULL%2,  Emma%Apatu%NULL%0,  Laura N%Anderson%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("disasters" OR "pandemics") AND ("cardiometabolic outcomes" OR "cardiovascular outcomes") AND ("life-course" OR "lifespan") 
-("COVID-19" OR "coronavirus pandemic") AND ("cardiometabolic outcomes" OR "cardiovascular outcomes") AND ("life-course" OR "lifespan") 
-("disasters" OR "pandemics") AND ("cardiometabolic diseases" OR "cardiovascular diseases") AND ("long-term effects" OR "chronic conditions") 
-("COVID-19" OR "coronavirus pandemic") AND ("cardiometabolic health" OR "cardiovascular health") AND ("life-course" OR "lifespan") 
-("disasters" OR "pandemics") AND ("metabolic syndrome" OR "diabetes" OR "hypertension") AND ("life-course" OR "lifespan")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"disasters"[MeSH Terms] AND ("pandemics"[MeSH Terms] OR "pandemics"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields]))
-("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("pregnancy"[MeSH Terms] OR "pregnancy"[All Fields] OR "childhood"[MeSH Terms] OR "childhood"[All Fields])
-("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("adulthood"[MeSH Terms] OR "adulthood"[All Fields])
-("biological mechanisms"[MeSH Terms] OR ("biological"[All Fields] AND "mechanisms"[All Fields]) OR "biological mechanisms"[All Fields]) AND ("high-risk"[All Fields] AND "subgroups"[All Fields]) AND ("disasters"[MeSH Terms] OR "disasters"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields]))
-("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("cardiometabolic diseases"[MeSH Terms] OR ("cardiometabolic"[All Fields] AND "diseases"[All Fields])) AND ("prevention and control"[Subheading] OR ("prevention"[All Fields] AND "control"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("prevalence" OR "incidence") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("impact" OR "outcomes") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("prognosis" OR "mortality") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("complications" OR "adverse events") 
-("COVID-19" OR "coronavirus") AND ("cardiac injury" OR "myocardial injury") AND ("risk factors" OR "predictors")
-</t>
-  </si>
-  <si>
-    <t>[Finiki%Nearchou%NULL%1,  Clodagh%Flinn%NULL%2,  Clodagh%Flinn%NULL%0,  Rachel%Niland%NULL%1,  Sheena Siva%Subramaniam%NULL%1,  Eilis%Hennessy%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("children" OR "adolescents") 
-("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("pediatric" OR "youth") 
-("COVID-19" OR "coronavirus") AND ("mental health outcomes" OR "psychosocial impact") AND ("children" OR "adolescents") 
-("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("school-age" OR "teenagers") 
-("COVID-19" OR "coronavirus") AND ("mental health" OR "psychological well-being") AND ("childhood" OR "youth")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-("mixed methods"[MeSH Terms] OR ("mixed"[All Fields] AND "methods"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-("depression"[MeSH Terms] OR "depression"[All Fields]) AND ("anxiety"[MeSH Terms] OR "anxiety"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("methodological quality"[MeSH Terms] OR ("methodological"[All Fields] AND "quality"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mental health"[MeSH Terms] OR ("mental"[All Fields] AND "health"[All Fields])) AND ("child"[MeSH Terms] OR "child"[All Fields]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Michael Anthonius%Lim%lim.michael.a@gmail.com%1,  Raymond%Pranata%raymond_pranata@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality" OR "death") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality risk" OR "mortality rate") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("outcome" OR "survival") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("COVID-19 impact" OR "COVID-19 association") 
-("COVID-19" OR "coronavirus") AND ("hip fracture" OR "femoral fracture") AND ("mortality increase" OR "mortality risk")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("prevalence"[MeSH Terms] OR "prevalence"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-("risk"[MeSH Terms] OR "risk"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("hip fractures"[MeSH Terms] OR ("hip"[All Fields] AND "fractures"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality" OR "death") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality risk" OR "mortality rate") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("outcome" OR "survival") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality association" OR "mortality effect") 
-("ACE inhibitors" OR "angiotensin converting enzyme inhibitors") AND ("ARBs" OR "angiotensin receptor blockers") AND ("COVID-19" OR "coronavirus") AND ("mortality impact" OR "mortality risk")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("systematic review"[MeSH Terms] OR ("systematic"[All Fields] AND "review"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("odds ratio"[MeSH Terms] OR ("odds"[All Fields] AND "ratio"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("meta-analysis"[MeSH Terms] OR "meta-analysis"[All Fields]) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-("ventilatory support"[MeSH Terms] OR ("ventilatory"[All Fields] AND "support"[All Fields])) AND ("Angiotensin-Converting Enzyme Inhibitors"[MeSH Terms] OR ("Angiotensin-Converting"[All Fields] AND "Enzyme"[All Fields] AND "Inhibitors"[All Fields]) OR "ACEIs"[All Fields] OR "Angiotensin-Converting Enzyme Inhibitors"[All Fields]) AND ("Angiotensin Receptor Antagonists"[MeSH Terms] OR ("Angiotensin"[All Fields] AND "Receptor"[All Fields] AND "Blockers"[All Fields]) OR "ARBs"[All Fields] OR "Angiotensin Receptor Blockers"[All Fields]) AND ("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Sujit Kumar%Tripathy%sujitortho@aiimsbhubaneswar.edu.in%1,  Paulson%Varghese%NULL%1,  Sibasish%Panigrahi%NULL%1,  Bijnya Birajita%Panda%NULL%1,  Anand%Srinivasan%NULL%1,  Ramesh Kumar%Sen%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("hip fractures" OR "femoral fractures") AND ("COVID-19" OR "coronavirus") AND ("perioperative mortality" OR "perioperative morbidity") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative outcomes" OR "surgical outcomes") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("COVID positive" OR "COVID-negative") AND ("perioperative mortality" OR "perioperative morbidity") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative complications" OR "surgical complications") 
-("COVID-19" OR "coronavirus") AND ("hip fractures" OR "femoral fractures") AND ("perioperative risk" OR "surgical risk")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative complications"[MeSH Terms] OR "perioperative complications"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("mortality"[MeSH Terms] OR "mortality"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("postoperative complications"[MeSH Terms] OR "postoperative complications"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative care"[MeSH Terms] OR "perioperative care"[All Fields])
-("COVID-19"[MeSH Terms] OR "COVID"[All Fields] OR "COVID-19"[All Fields] OR "SARS-CoV-2"[All Fields] OR "Corona"[All Fields] OR "pandemic"[All Fields]) AND ("hip fractures"[MeSH Terms] OR "hip fractures"[All Fields]) AND ("perioperative outcomes"[MeSH Terms] OR "perioperative outcomes"[All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("nutrition" OR "diet") AND ("behavior change" OR "eating behavior") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("psychological impact" OR "mental health") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("nutrition" OR "diet") AND ("changes" OR "impact") AND ("pandemic" OR "lockdown") 
-("COVID-19" OR "coronavirus") AND ("eating behavior" OR "eating habits") AND ("emotional eating" OR "stress eating") AND ("pandemic" OR "lockdown")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Eating behavior changes during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review"[Publication Type])
-("Eating behavior modifications"[Title/Abstract]) AND ("coronavirus disease 2019"[MeSH Terms] OR "pandemic"[MeSH Terms])
-("Longitudinal studies"[MeSH Terms]) AND ("changes in eating behavior"[Title/Abstract]) AND ("COVID-19 pandemic"[Title/Abstract])
-("Impact of COVID-19 pandemic on eating behavior"[Title/Abstract]) AND ("systematic review"[Publication Type])
-("Restrictive measures"[Title/Abstract]) AND ("disrupted lifestyles"[Title/Abstract]) AND ("eating behavior changes"[Title/Abstract]) AND ("COVID-19 pandemic"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>[Jianghui%Cai%NULL%1,  Mi%Tang%NULL%1,  Yu%Gao%NULL%1,  Hongxi%Zhang%NULL%1,  Yanfeng%Yang%NULL%1,  Dan%Zhang%NULL%1,  Han%Wang%NULL%1,  Hua%Liang%NULL%1,  Rui%Zhang%NULL%1,  Bo%Wu%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pregnancy" OR "pregnant women") AND ("vertical transmission" OR "perinatal transmission") AND ("mode of delivery" OR "cesarean section" OR "vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("pregnant women" OR "maternal") AND ("neonate" OR "infant") AND ("vertical transmission" OR "perinatal transmission") AND ("cesarean section" OR "vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("pregnancy complications" OR "maternal-fetal transmission") AND ("delivery mode" OR "mode of delivery") AND ("cesarean section" OR "vaginal delivery") 
-("COVID-19" OR "SARS-CoV-2") AND ("vertical transmission" OR "perinatal transmission") AND ("mode of delivery" OR "cesarean section" OR "vaginal delivery") AND ("neonatal outcomes" OR "infant outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("pregnant women" OR "maternal") AND ("neonate" OR "infant") AND ("delivery mode" OR "mode of delivery") AND ("vertical transmission" OR "perinatal transmission")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("delivery, Obstetric"[MeSH Terms]) AND ("cesarean section"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnant women"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vaginal birth"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("delivery, Obstetric"[MeSH Terms]) AND ("cesarean section"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnant women"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vertical transmission"[MeSH Terms]) AND ("cesarean section"[MeSH Terms])
-("COVID-19 infection"[Title/Abstract]) AND ("pregnancy"[MeSH Terms]) AND ("neonatal infection"[MeSH Terms]) AND ("mode of delivery"[MeSH Terms]) AND ("vaginal birth"[MeSH Terms])
-</t>
-  </si>
-  <si>
-    <t>[Rina%La Distia Nora%NULL%1,  Ikhwanuliman%Putera%NULL%2,  Ikhwanuliman%Putera%NULL%0,  Dhiya Farah%Khalisha%NULL%1,  Indah%Septiana%NULL%1,  Asri Salima%Ridwan%NULL%1,  Ratna%Sitompul%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("ocular manifestations" OR "eye symptoms" OR "conjunctivitis")
-("COVID-19" OR "SARS-CoV-2") AND ("ocular involvement" OR "eye complications" OR "ocular manifestations")
-("COVID-19" OR "SARS-CoV-2") AND ("ocular symptoms" OR "conjunctival involvement" OR "eye signs")
-("COVID-19" OR "SARS-CoV-2") AND ("ophthalmologic findings" OR "eye abnormalities" OR "ocular manifestations")
-("COVID-19" OR "SARS-CoV-2") AND ("ocular transmission" OR "conjunctival shedding" OR "viral presence in eyes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("prevalence"[MeSH Terms])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("time association"[MeSH Terms]) AND ("systemic disease"[MeSH Terms])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("ocular manifestation"[MeSH Terms]) AND ("polymerase chain reaction"[MeSH Terms]) AND ("severity"[MeSH Terms]) AND ("association"[MeSH Terms])
-</t>
-  </si>
-  <si>
-    <t>[Maren%Hintermeier%NULL%2,  Hande%Gencer%NULL%1,  Katja%Kajikhina%NULL%1,  Sven%Rohleder%NULL%0,  Claudia%Hövener%NULL%1,  Marie%Tallarek%NULL%1,  Jacob%Spallek%NULL%1,  Kayvan%Bozorgmehr%kayvan.bozorgmehr@uni-bielefeld.de%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("prevalence" OR "incidence" OR "risk factors") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("healthcare access" OR "health disparities" OR "barriers to care") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("mental health" OR "psychosocial impact" OR "stress") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("public health response" OR "policies" OR "interventions") 
-("COVID-19" OR "SARS-CoV-2") AND ("refugees" OR "migrants") AND ("vaccination" OR "immunization" OR "vaccine hesitancy")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("rapid systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("risk of infection"[MeSH Terms] OR "transmission"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("lockdown measures"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("incidence risk"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("refugees"[MeSH Terms] OR "migrants"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Gilbert Sterling%Octavius%Sterlinggilbert613@hotmail.com%1,  Felicia Rusdi%Silviani%NULL%2,  Felicia Rusdi%Silviani%NULL%0,  Alicya%Lesmandjaja%NULL%1,  NULL%Angelina%NULL%1,  Andry%Juliansen%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("psychological impact" OR "mental health") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("anxiety" OR "depression" OR "stress") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("psychosocial well-being" OR "emotional well-being") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("mental health interventions" OR "supportive services" OR "counseling") 
-("COVID-19" OR "SARS-CoV-2") AND "adolescents" AND ("social isolation" OR "loneliness" OR "peer relationships")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("psychological state"[MeSH Terms] OR "mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("impact"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("lockdown"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("risk factor"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("adolescent"[MeSH Terms] OR "adolescent"[All Fields]) AND ("management"[MeSH Terms]) AND ("mental health"[MeSH Terms]) AND ("systematic review"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Tommaso%Scquizzato%NULL%1,  Giovanni%Landoni%NULL%0,  Andrea%Paoli%NULL%1,  Rosalba%Lembo%NULL%1,  Evgeny%Fominskiy%NULL%1,  Artem%Kuzovlev%NULL%0,  Valery%Likhvantsev%NULL%0,  Alberto%Zangrillo%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("mortality" OR "survival") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("resuscitation" OR "CPR") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("response time" OR "emergency medical services") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("pre-hospital care" OR "ambulance") 
-("COVID-19" OR "SARS-CoV-2") AND ("out-of-hospital cardiac arrest" OR "OHCA") AND ("public access defibrillation" OR "PAD")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("direct effects"[MeSH Terms] OR "indirect effects"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("return of spontaneous circulation"[MeSH Terms] OR "bystander-initiated cardiopulmonary resuscitation"[MeSH Terms] OR "survival to hospital discharge"[MeSH Terms] OR "survival with favourable neurological outcome"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("bystander-witnessed"[MeSH Terms] OR "bystander-initiated cardiopulmonary resuscitation"[MeSH Terms] OR "resuscitation attempted by emergency medical services"[MeSH Terms] OR "ambulance response times"[MeSH Terms] OR "patients presenting with non-shockable rhythms"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND ("out-of-hospital cardiac arrest"[MeSH Terms] OR "out-of-hospital cardiac arrest"[All Fields]) AND ("SARS-CoV-2 positive"[MeSH Terms] OR "symptoms"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-</t>
-  </si>
-  <si>
-    <t>[Hozaifa Khalil%Elsawah%Hiph.hozaifa@alexu.edu.eg%1,  Mohamed Ahmed%Elsokary%NULL%2,  Mohamed Ahmed%Elsokary%NULL%0,  Mahmoud Gamal%Elrazzaz%NULL%2,  Mahmoud Gamal%Elrazzaz%NULL%0,  Ahmed Hanei%Elshafie%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("treatment" OR "therapy") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("efficacy" OR "effectiveness") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("safety" OR "adverse events") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("randomized controlled trial" OR "RCT") AND ("nonsevere" OR "mild" OR "moderate") 
-("COVID-19" OR "SARS-CoV-2") AND ("hydroxychloroquine" OR "HCQ") AND ("clinical outcomes" OR "mortality" OR "hospitalization") AND ("nonsevere" OR "mild" OR "moderate")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("efficacy"[MeSH Terms] OR "efficacy"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("evidence strength"[MeSH Terms] OR "evidence strength"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("clinical evidence"[MeSH Terms] OR "clinical evidence"[All Fields]) AND ("controlled clinical trials"[MeSH Terms] OR "controlled clinical trials"[All Fields])
-("hydroxychloroquine"[Title/Abstract] OR "HCQ"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type]) AND ("clinical trials"[MeSH Terms] OR "clinical trials"[All Fields]) AND ("reliable"[MeSH Terms] OR "reliable"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Shinya%Yamamoto%NULL%1,  Makoto%Saito%NULL%2,  Makoto%Saito%NULL%0,  Azumi%Tamura%NULL%1,  Diki%Prawisuda%NULL%1,  Taketoshi%Mizutani%NULL%1,  Hiroshi%Yotsuyanagi%NULL%1,  Francois%Blachier%NULL%8,  Francois%Blachier%NULL%0,  Francois%Blachier%NULL%0,  Francois%Blachier%NULL%0,  Francois%Blachier%NULL%0,  Francois%Blachier%NULL%0,  Francois%Blachier%NULL%0,  Francois%Blachier%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("microbiome" OR "microbial") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("gut microbiome" OR "intestinal microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory microbiome" OR "lung microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("oral microbiome" OR "saliva microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host") 
-("COVID-19" OR "SARS-CoV-2") AND ("skin microbiome" OR "cutaneous microbiota") AND ("alteration" OR "changes" OR "dysbiosis") AND ("human" OR "host")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("association"[MeSH Terms] OR "association"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("microbiome dysbiosis"[MeSH Terms] OR "microbiome dysbiosis"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("opportunistic pathogens"[MeSH Terms] OR "opportunistic pathogens"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("fecal microbiome"[MeSH Terms] OR "fecal microbiome"[All Fields])
-("human microbiome"[Title/Abstract] OR "microbiota"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("respiratory tract microbiome"[MeSH Terms] OR "respiratory tract microbiome"[All Fields])
-</t>
-  </si>
-  <si>
-    <t>[Imen%Ayouni%eman.layouni@gmail.com%1,  Jihen%Maatoug%NULL%1,  Wafa%Dhouib%NULL%1,  Nawel%Zammit%NULL%1,  Sihem Ben%Fredj%NULL%1,  Rim%Ghammam%NULL%1,  Hassen%Ghannem%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("public health measures" OR "interventions") AND ("mitigate" OR "prevent" OR "control" OR "reduce" OR "curb") AND ("spread" OR "transmission") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic response" OR "public health strategies") AND ("preventive measures" OR "interventions") AND ("spread" OR "transmission" OR "containment") 
-("COVID-19" OR "SARS-CoV-2") AND ("public health guidelines" OR "prevention measures") AND ("reducing transmission" OR "controlling the spread" OR "curbing the pandemic") 
-("COVID-19" OR "SARS-CoV-2") AND ("community interventions" OR "population-based measures") AND ("preventive actions" OR "control strategies") AND ("virus transmission" OR "spread prevention") 
-("COVID-19" OR "SARS-CoV-2") AND ("public health response" OR "pandemic control") AND ("preventive measures" OR "interventions") AND ("limiting transmission" OR "reducing spread" OR "containment strategies")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("travel restrictions"[MeSH Terms] OR "travel restrictions"[All Fields])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("quarantine"[MeSH Terms] OR "quarantine"[All Fields])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("social distancing"[MeSH Terms] OR "social distancing"[All Fields])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("public health interventions"[Title/Abstract] OR "public health measures"[Title/Abstract]) AND ("systematic review"[Publication Type]) AND ("mask wearing"[MeSH Terms] OR "mask wearing"[All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("weather" OR "climate" OR "meteorological factors") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather conditions" OR "seasonality" OR "temperature" OR "humidity") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather impact" OR "climate influence" OR "meteorological variables") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather patterns" OR "environmental factors" OR "seasonal variation") AND ("mortality" OR "death rate" OR "fatal outcomes") 
-("COVID-19" OR "SARS-CoV-2") AND ("weather-related effects" OR "climate-related impact" OR "meteorological conditions") AND ("mortality" OR "death rate" OR "fatal outcomes")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("effect of weather"[Title/Abstract]) OR ("impact of temperature and humidity"[Title/Abstract])) AND "COVID-19 mortality"[Title/Abstract]
-(("weather conditions"[Title/Abstract] OR temperature[Title/Abstract] OR humidity[Title/Abstract]) AND "SARS-CoV-2 transmission"[Title/Abstract]) AND "seasonal influenza"[Title/Abstract]
-(("observational epidemiological studies"[Title/Abstract] OR "observational study"[Title/Abstract] OR "observational research"[Title/Abstract]) AND "effect of weather"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract]
-("temperature and humidity"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "systematic review"[Title/Abstract]
-(("temperature"[Title/Abstract] OR "humidity"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "observational study"[Title/Abstract]) AND (("weather conditions"[Title/Abstract]) OR ("virus transmission"[Title/Abstract]))
-</t>
-  </si>
-  <si>
-    <t>[Bradley J.%Langford%NULL%1,  Miranda%So%NULL%1,  Sumit%Raybardhan%NULL%1,  Valerie%Leung%NULL%1,  Jean-Paul R.%Soucy%NULL%1,  Duncan%Westwood%NULL%1,  Nick%Daneman%NULL%1,  Derek R.%MacFadden%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("antibiotic prescribing" OR "antibiotic use" OR "antibiotic treatment") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotics" OR "antimicrobials") AND ("prescription patterns" OR "prescribing practices" OR "utilization") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotic therapy" OR "antibiotic administration" OR "antibiotic regimens") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotic treatment outcomes" OR "antibiotic effectiveness") AND ("patients" OR "individuals" OR "population") 
-("COVID-19" OR "SARS-CoV-2") AND ("antibiotic resistance" OR "resistant bacteria") AND ("antibiotic prescribing" OR "antibiotic use") AND ("patients" OR "individuals" OR "population")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "patients with COVID-19"[Title/Abstract]) AND ("rapid review"[Title/Abstract] OR "meta-analysis"[Title/Abstract])
-(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "SARS-CoV-2 infection"[Title/Abstract]) AND ("prevalence"[Title/Abstract] OR "proportion"[Title/Abstract])
-(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("age groups"[Title/Abstract] OR "severity of illness"[Title/Abstract])
-(("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("geographical region"[Title/Abstract] OR "country"[Title/Abstract])
-(("bacterial co-infection"[Title/Abstract]) OR ("co-occurring bacterial infection"[Title/Abstract])) AND ("antibiotic prescribing"[Title/Abstract] OR "prescription of antibiotics"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Kollengode%Ramanathan%ram_ramanathan@nuhs.edu.sg%1,  Kiran%Shekar%NULL%2,  Kiran%Shekar%NULL%0,  Ryan Ruiyang%Ling%NULL%1,  Ryan P.%Barbaro%NULL%1,  Suei Nee%Wong%NULL%1,  Chuen Seng%Tan%NULL%1,  Bram%Rochwerg%NULL%0,  Shannon M.%Fernando%NULL%1,  Shinhiro%Takeda%NULL%1,  Graeme%MacLaren%NULL%1,  Eddy%Fan%NULL%0,  Daniel%Brodie%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("severe acute respiratory distress syndrome" OR "ARDS") AND ("extracorporeal membrane oxygenation" OR "ECMO") AND ("venovenous" OR "VV-ECMO") 
-("COVID-19" OR "SARS-CoV-2") AND ("severe respiratory failure" OR "respiratory distress") AND ("venovenous extracorporeal membrane oxygenation" OR "VV-ECMO") AND ("clinical outcomes" OR "mortality") 
-("COVID-19" OR "SARS-CoV-2") AND ("severe ARDS" OR "acute respiratory failure") AND ("extracorporeal support" OR "ECMO therapy") AND ("venovenous" OR "VV-ECMO") 
-("COVID-19" OR "SARS-CoV-2") AND ("respiratory support" OR "lung support") AND ("extracorporeal life support" OR "ECLS") AND ("venovenous" OR "VV-ECMO") 
-("COVID-19" OR "SARS-CoV-2") AND ("severe lung injury" OR "respiratory dysfunction") AND ("extracorporeal oxygenation" OR "ECMO therapy") AND ("venovenous" OR "VV-ECMO")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND ("severe acute respiratory distress syndrome"[Title/Abstract] OR "ARDS"[Title/Abstract]) AND ("systematic review"[Title/Abstract] OR "meta-analysis"[Title/Abstract])
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract]
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "ECMO duration"[Title/Abstract]
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "weaning rate from ECMO"[Title/Abstract]
-(("extracorporeal membrane oxygenation"[Title/Abstract] OR "ECMO"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract]) AND "ECMO complications"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Stephanie%Stockwell%NULL%1,  Mike%Trott%NULL%1,  Mark%Tully%NULL%2,  Mark%Tully%NULL%0,  Jae%Shin%NULL%1,  Yvonne%Barnett%NULL%1,  Laurie%Butler%NULL%1,  Daragh%McDermott%NULL%1,  Felipe%Schuch%NULL%1,  Lee%Smith%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("comparative study" OR "before-after study")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("prevalence" OR "survey")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("longitudinal study" OR "follow-up study")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("behavior change" OR "behavioral response")
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical activity" OR "exercise") AND ("sedentary behavior" OR "inactivity") AND ("self-reported" OR "questionnaire")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "COVID-19 pandemic lockdown"[Title/Abstract]
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND ("lockdown"[Title/Abstract] OR "stay-at-home"[Title/Abstract])
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract]) AND ("before and during lockdown"[Title/Abstract] OR "pre and post-lockdown"[Title/Abstract])
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "changes during COVID-19 lockdown"[Title/Abstract]
-(("physical activity"[Title/Abstract] OR "exercise"[Title/Abstract]) AND "sedentary behavior"[Title/Abstract]) AND "impact of COVID-19 lockdown on activity levels"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Audrey%Lebrasseur%NULL%1,  Noémie%Fortin-Bédard%NULL%1,  Josiane%Lettre%NULL%1,  Eve-Line%Bussières%NULL%1,  Krista%Best%NULL%1,  Normand%Boucher%NULL%1,  Mathieu%Hotton%NULL%1,  Simon%Beaulieu-Bonneau%NULL%1,  Catherine%Mercier%NULL%1,  Marie-Eve%Lamontagne%NULL%1,  François%Routhier%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("impact" OR "effects") AND ("health outcomes" OR "access to healthcare") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("mental health" OR "psychological well-being") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("social isolation" OR "loneliness") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("accessibility" OR "barriers") AND ("remote work" OR "telecommuting") 
-("COVID-19" OR "SARS-CoV-2") AND ("pandemic" OR "lockdown") AND ("physical disabilities" OR "disability") AND ("rehabilitation" OR "therapy") AND ("service delivery" OR "access to services")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
-"impact of COVID-19 pandemic on people with physical disabilities"[Title/Abstract]
-("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("people with physical disabilities"[Title/Abstract] OR "disabled individuals"[Title/Abstract])
-("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("impact on daily functioning"[Title/Abstract] OR "access to healthcare"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
-("COVID-19 pandemic"[Title/Abstract] OR "coronavirus pandemic"[Title/Abstract]) AND ("social impact"[Title/Abstract] OR "lifestyle changes"[Title/Abstract]) AND ("physical disabilities"[Title/Abstract] OR "disability"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>[Ji-gan%Wang%NULL%1,  Yu-fang%Mo%NULL%1,  Yu-heng%Su%NULL%1,  Li-chuan%Wang%NULL%1,  Guang-bing%Liu%NULL%1,  Meng%Li%NULL%1,  Qian-qiu%Qin%NULL%1,  Vasile Valeriu%Lupu.%NULL%2,  Vasile Valeriu%Lupu.%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT" OR "computed tomography") AND ("chest" OR "lung") AND ("features" OR "findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("pediatric" OR "child" OR "children") AND ("computed tomography" OR "CT scan") AND ("pulmonary" OR "chest") AND ("radiological findings" OR "imaging characteristics") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT scan" OR "chest CT") AND ("radiological features" OR "pulmonary findings") 
-("COVID-19" OR "SARS-CoV-2") AND ("pediatric" OR "child" OR "children") AND ("chest CT" OR "computed tomography") AND ("imaging manifestations" OR "radiographic features") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("children" OR "pediatric") AND ("CT imaging" OR "chest CT scan") AND ("pulmonary involvement" OR "radiological presentation")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest computed tomography"[Title/Abstract] OR "CT imaging"[Title/Abstract]) AND "children"[Title/Abstract]
-"chest CT imaging features of children with COVID-19"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest CT findings"[Title/Abstract] OR "lung CT results"[Title/Abstract]) AND "children"[Title/Abstract]
-"meta-analysis of chest CT imaging features of children with COVID-19"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("chest CT abnormalities"[Title/Abstract] OR "lung lesions"[Title/Abstract]) AND "pediatric patients"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Young Joo%Suh%yshoka@gmail.com%1,  Hyunsook%Hong%NULL%2,  Hyunsook%Hong%NULL%0,  Mickaël%Ohana%NULL%2,  Mickaël%Ohana%NULL%0,  Florian%Bompard%NULL%2,  Florian%Bompard%NULL%0,  Marie-Pierre%Revel%NULL%2,  Marie-Pierre%Revel%NULL%0,  Clarissa%Valle%NULL%2,  Clarissa%Valle%NULL%0,  Alban%Gervaise%NULL%1,  Julien%Poissy%NULL%2,  Julien%Poissy%NULL%0,  Sophie%Susen%NULL%2,  Sophie%Susen%NULL%0,  Guillaume%Hékimian%NULL%1,  Mathieu%Artifoni%NULL%1,  Daniel%Periard%NULL%2,  Daniel%Periard%NULL%0,  Damien%Contou%NULL%2,  Damien%Contou%NULL%0,  Julie%Delaloye%NULL%2,  Julie%Delaloye%NULL%0,  Bienvenido%Sanchez%NULL%1,  Cheng%Fang%NULL%2,  Cheng%Fang%NULL%0,  Giorgio%Garzillo%NULL%2,  Giorgio%Garzillo%NULL%0,  Hasti%Robbie%NULL%2,  Hasti%Robbie%NULL%0,  Soon Ho%Yoon%NULL%2,  Soon Ho%Yoon%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("venous thromboembolism" OR "VTE") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("pulmonary embolism" OR "PE") AND ("venous thromboembolism" OR "VTE") 
-("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("deep vein thrombosis" OR "DVT") 
-("Coronavirus disease 2019" OR "COVID-19") AND ("pulmonary embolism" OR "PE") AND ("deep vein thrombosis" OR "DVT") 
-("COVID-19" OR "SARS-CoV-2") AND ("pulmonary embolism" OR "PE") AND ("venous thrombosis" OR "thromboembolism")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("pulmonary embolism"[Title/Abstract] OR "PE"[Title/Abstract]) AND ("venous thromboembolism"[Title/Abstract] OR "VTE"[Title/Abstract]) AND "COVID-19"[Title/Abstract]
-"systematic review and meta-analysis of pulmonary embolism and venous thromboembolism in COVID-19"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("incidence of pulmonary embolism"[Title/Abstract] OR "deep vein thrombosis"[Title/Abstract]) AND "systematic review"[Title/Abstract]
-"diagnostic accuracy of D-dimer tests for pulmonary embolism in COVID-19: a systematic review and meta-analysis"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("pulmonary embolism incidence"[Title/Abstract] OR "DVT incidence"[Title/Abstract]) AND "meta-analysis"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Ashley Elizabeth%Muller%aemu@fhi.no%1,  Jan Peter William%Himmels%NULL%2,  Jan Peter William%Himmels%NULL%0,  Stijn%Van de Velde%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("fear of COVID-19" OR "COVID-19 fear") AND ("diagnostic test accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value" OR "accuracy") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("rapid diagnostic test" OR "point-of-care test") AND ("accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("scale" OR "measurement tool") AND ("diagnostic accuracy" OR "test performance" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("rapid test" OR "POCT" OR "point-of-care test") AND ("evaluation" OR "assessment" OR "accuracy" OR "performance") 
-("fear of COVID-19" OR "COVID-19 fear") AND ("screening tool" OR "questionnaire") AND ("diagnostic test" OR "test accuracy" OR "sensitivity" OR "specificity" OR "positive predictive value" OR "negative predictive value")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("fear of COVID-19 scales"[Title/Abstract] OR "COVID-19-related fear scales"[Title/Abstract]) AND "rapid diagnostic test accuracy review"[Title/Abstract]
-"systematic review of fear of COVID-19 scales: diagnostic test accuracy and validation studies"[Title/Abstract]
-("COVID-19 fear scale"[Title/Abstract] OR "fear of COVID-19 instrument"[Title/Abstract]) AND "systematic review and meta-analysis"[Title/Abstract]
-"validation and diagnostic accuracy of fear of COVID-19 scales: a rapid review"[Title/Abstract]
-("COVID-19-related fear"[Title/Abstract] OR "fear of COVID-19 measurement"[Title/Abstract]) AND "systematic review of diagnostic test accuracy"[Title/Abstract]
-</t>
-  </si>
-  <si>
-    <t>[Debjyoti%Dhar%NULL%1,  Treshita%Dey%NULL%1,  M. M.%Samim%msmondal788@gmail.com%1,  Hansashree%Padmanabha%NULL%1,  Aritra%Chatterjee%NULL%1,  Parvin%Naznin%NULL%1,  S. R.%Chandra%NULL%1,  K.%Mallesh%NULL%1,  Rutul%Shah%NULL%1,  Shahyan%Siddiqui%NULL%1,  K.%Pratik%NULL%1,  P.%Ameya%NULL%1,  G.%Abhishek%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("SARS-CoV-2" OR "COVID-19") AND ("children" OR "pediatric" OR "paediatric") 
-("MIS-C" OR "multisystem inflammatory syndrome in children") AND ("SARS-CoV-2" OR "COVID-19") AND ("pediatric" OR "paediatric") AND ("clinical features" OR "presentation" OR "symptoms") 
-("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("COVID-19" OR "SARS-CoV-2") AND ("diagnosis" OR "management" OR "treatment") AND ("pediatric" OR "paediatric") 
-("MIS-C" OR "multisystem inflammatory syndrome in children") AND ("SARS-CoV-2" OR "COVID-19") AND ("cardiac involvement" OR "myocardial dysfunction" OR "heart failure") AND ("pediatric" OR "paediatric") 
-("multisystem inflammatory syndrome in children" OR "MIS-C") AND ("SARS-CoV-2" OR "COVID-19") AND ("complications" OR "outcomes" OR "prognosis") AND ("pediatric" OR "paediatric")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("multisystem inflammatory syndrome in children"[Title/Abstract] OR "MIS-C"[Title/Abstract]) AND "systematic review and meta-analysis"[Title/Abstract]
-"SISCoV study: systematic review and meta-analysis of multisystem inflammatory syndrome in children with SARS-CoV-2 infection"[Title/Abstract]
-("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children associated with COVID-19"[Title/Abstract]) AND "systematic review of demographic profile, clinical characteristics, and prognosis"[Title/Abstract]
-"systematic review and meta-analysis of multisystem inflammatory syndrome in children with COVID-19"[Title/Abstract]
-("MIS-C"[Title/Abstract] OR "multisystem inflammatory syndrome in children caused by SARS-CoV-2"[Title/Abstract]) AND "systematic review on clinical features and management"[Title/Abstract]
-</t>
-  </si>
-  <si>
     <t>ChatGPT +Related works</t>
-  </si>
-  <si>
-    <t>("Global Seasonality of Human Seasonal Coronaviruses" OR "sCoV seasonality") AND ("Severe Acute Respiratory Syndrome Coronavirus 2" OR "SARS-CoV-2" OR "COVID-19")
-("Viral aetiology of acute respiratory infections" OR "respiratory syncytial virus" OR "human seasonal coronaviruses") AND ("southern China" OR "Shantou")
-("Clinical and Etiological Characteristics of Influenza-Like Illness" OR "ILI outpatients") AND ("Shanghai" OR "southern temperate region" OR "influenza A virus")
-("Prevalence and Seasonal Distribution of Respiratory Viruses" OR "ARTI in Istanbul" OR "respiratory syncytial virus A/B") AND ("children" OR "adults" OR "nasopharyngeal swab")
-("The Role of Human Coronaviruses in Children Hospitalized" OR "acute bronchiolitis" OR "acute gastroenteritis") AND ("febrile seizures" OR "HCoV associations" OR "prospective study")
-("Respiratory syncytial virus epidemics in 15 European countries" OR "RSV seasonality" OR "lower respiratory tract infections") AND ("infants" OR "young children" OR "sentinel RSV laboratory diagnoses")
-("Influenza virus" OR "respiratory syncytial virus" OR "human metapneumovirus") AND ("temperature" OR "humidity" OR "wind velocity")
-("Coronavirus disease 2019" OR "COVID-19" OR "postpandemic preparedness") AND ("seasonal outbreaks" OR "circulating pattern" OR "knowledge pool")
-("Acute respiratory infections" OR "respiratory viruses" OR "multiplex real-time PCR") AND ("children" OR "nasal/throat-flocked swabs" OR "meteorological factors")
-("Seasonality and geographical spread of respiratory syncytial virus" OR "RSV infection" OR "lower respiratory tract infections") AND ("European Union" OR "European Economic Area" OR "surveillance systems")</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("clinical features"[Title/Abstract] OR "manifestations"[Title/Abstract])
-("severe clinical course"[Title/Abstract] OR "critical illness"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("risk factors"[Title/Abstract] OR "associated factors"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("demographic characteristics"[Title/Abstract] OR "patient characteristics"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("laboratory findings"[Title/Abstract] OR "biomarkers"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("comorbidities"[Title/Abstract] OR "underlying diseases"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("clinical outcomes"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("meta-analysis"[Publication Type] OR "systematic review"[Publication Type]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("pandemic"[Title/Abstract] OR "global outbreak"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])
-("healthcare resource allocation"[Title/Abstract] OR "resource management"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh])</t>
-  </si>
-  <si>
-    <t>("Diagnostic Test Accuracy"[Mesh] OR "Sensitivity and Specificity"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Tomography, X-Ray Computed"[Mesh] OR "Ultrasonography"[Mesh])
-("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract])
-("Suboptimal Reporting"[Mesh] OR "Bias"[Mesh]) AND ("Chest Radiography"[Mesh] OR "Tomography, X-Ray Computed"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract])
-("Radiologists"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tomography, X-Ray Computed"[Mesh] OR "Sensitivity and Specificity"[Mesh])
-("Reverse-Transcription Polymerase Chain Reaction"[Mesh] OR "Clinical Consensus"[Title/Abstract]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Ultrasonography"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Diagnostic Accuracy"[Mesh] OR "Chest CT"[Title/Abstract] OR "CT Scans"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Radiological Features"[Mesh] OR "Clinical Manifestations"[Mesh])
-("Sensitivity and Specificity"[Mesh]) AND ("Viral Pneumonia"[Mesh] OR "Respiratory Pathogen Panel"[Title/Abstract]) AND ("Radiologists"[Mesh])
-("Chest CT"[Mesh] OR "Radiological Semantics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Features"[Mesh])
-("Quantitative CT"[Mesh] OR "Opacity Visibility"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chest Radiography"[Mesh] OR "Radiographs"[Mesh])</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Comorbidity"[Mesh] OR "Clinical Outcomes"[Mesh]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
-("White Blood Cell Count"[Mesh] OR "Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh] OR "Procalcitonin"[Mesh] OR "Lactate Dehydrogenase"[Mesh] OR "Creatinine"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
-("Mortality"[Mesh] OR "Death"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Staff"[Mesh] OR "General Population"[Mesh])
-("C-Reactive Protein"[Mesh] OR "Erythrocyte Sedimentation Rate"[Mesh] OR "Lactate Dehydrogenase"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Symptomatic"[Mesh])
-("Lymphocyte Count"[Mesh] OR "Platelet Count"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Symptomatic Stage"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Comorbidity"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Medical Staff"[Mesh])
-("D-Dimer"[Mesh] OR "Fibrin Degradation Products"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prognosis"[Mesh] OR "Poor Prognosis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intrauterine Infection"[Mesh] OR "Vertical Transmission"[Mesh]) AND ("Pregnancy"[Mesh] OR "Pregnant Women"[Mesh])
-("ICU Admission"[Mesh] OR "Mortality"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Spectrum of Disease"[Mesh] OR "Clinical Outcomes"[Mesh])
-("SARS-CoV-2"[Mesh] OR "COVID-19"[Title/Abstract]) AND ("Symptoms"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Zhejiang Province"[Mesh] OR "China"[Mesh])</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Sex"[Mesh] OR "Sex-Specific"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh] OR "Mortality"[Mesh])
-("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Title/Abstract]) AND ("Survival"[Mesh] OR "Mortality"[Mesh]) AND ("Spain"[Mesh])
-("Covid-19"[Title/Abstract]) AND ("Critically Ill Patients"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Seattle"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Progression"[Mesh] OR "Disease Course"[Mesh]) AND ("Shanghai"[Mesh] OR "China"[Mesh])
-("2019-nCoV"[Mesh] OR "Novel Coronavirus"[Mesh] OR "COVID-19"[Title/Abstract]) AND ("Epidemiological Characteristics"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Pneumonia"[Mesh] OR "Respiratory Diseases"[Mesh]) AND ("Wuhan"[Mesh] OR "China"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Deceased Patients"[Mesh] OR "Mortality"[Mesh]) AND ("Clinical Characteristics"[Mesh] OR "Laboratory Findings"[Mesh]) AND ("Wuhan"[Mesh] OR "China"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Title/Abstract]) AND ("Mechanical Ventilation"[Mesh] OR "Hypoxemic Respiratory Failure"[Mesh]) AND ("Vasopressors"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Male Sex"[Mesh] OR "Gender Differences"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Disease Severity"[Mesh]) AND ("Meta-Analysis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Older Patients"[Mesh] OR "Elderly"[Mesh] OR "Comorbidities"[Mesh]) AND ("Mortality"[Mesh] OR "Life-Saving"[Title/Abstract]) AND ("Seattle"[Mesh])
-("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Cardiovascular Complications"[Mesh] OR "Multi-Organ Dysfunction"[Mesh]) AND ("Acute Respiratory Distress Syndrome"[Mesh] OR "Sepsis"[Mesh]) AND ("Risk Factors"[Mesh] OR "High-Risk Patients"[Mesh])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("Clinical Outcomes"[Mesh] OR "Resource Utilization"[Mesh]) AND ("Early Versus Late"[Title/Abstract] OR "Timing"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh]) AND ("Meta-Analysis"[Mesh] OR "Systematic Review"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Mortality Rate"[Mesh] OR "ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Timing"[Mesh] OR "Optimal Timing"[Mesh]) AND ("Outcomes"[Mesh] OR "Complications"[Mesh]) AND ("European Intensive Care Units"[Mesh] OR "European Countries"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Survival Rate"[Mesh] OR "ICU Length of Stay"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy"[Mesh] OR "Tracheotomy"[Mesh]) AND ("APACHE-II Score"[Mesh]) AND ("Prospective Observational Study"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Early Tracheostomy"[Mesh] OR "Late Tracheostomy"[Mesh]) AND ("Ventilation Duration"[Mesh] OR "ICU Length of Stay"[Mesh]) AND ("Timing"[Mesh] OR "Prospective Cohort Study"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Complications"[Mesh] OR "Infection Risk"[Mesh]) AND ("Dedicated Airway Team"[Title/Abstract] OR "Education Programme"[Title/Abstract]) AND ("Outcomes"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Timing of Tracheostomy"[Mesh] OR "Effect on Survival"[Mesh]) AND ("Multicenter Study"[Mesh] OR "Retrospective Study"[Mesh]) AND ("Percutaneous Tracheostomy"[Mesh] OR "Surgical Tracheostomy"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Tracheostomy Safety"[Mesh] OR "30-day Outcomes"[Mesh]) AND ("Prospective Observational Cohort Study"[Mesh] OR "Mechanical Ventilation"[Mesh]) AND ("Birmingham"[Mesh] OR "UK"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Renin-Angiotensin-Aldosterone System Inhibitors"[Mesh] OR "RAAS Inhibitors"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Meta-analysis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Ramipril"[Mesh] OR "ACE Inhibitors"[Mesh]) AND ("High-Risk Patients"[Mesh] OR "Cardiovascular Disease"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Outpatients"[Mesh] OR "Hospital Admission"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Severe Infection"[Mesh] OR "Mortality"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("UK"[Mesh] OR "United Kingdom"[Mesh]) AND ("Acute Hospital Trust"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Epidemiological Features"[Mesh] OR "Demographic Characteristics"[Mesh]) AND ("Treatment Outcome"[Mesh] OR "Blood Pressure Control"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("ACE Inhibitors"[Mesh] OR "ARB"[Mesh]) AND ("Continuation"[Mesh] OR "Discontinuation"[Mesh]) AND ("Blood Pressure Control"[Mesh] OR "Mortality"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Severe Cases"[Mesh] OR "Severe Infection"[Mesh]) AND ("Epidemiological Features"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("Therapeutic Features"[Mesh] OR "Treatment Outcome"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Severe Cases"[Mesh] OR "Severe Infection"[Mesh]) AND ("Predictors of Mortality"[Mesh] OR "Survival Prediction"[Mesh]) AND ("Cardiovascular Disease"[Mesh] OR "NLR"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Angiotensin-Converting Enzyme Inhibitors"[Mesh] OR "Angiotensin II Receptor Blockers"[Mesh]) AND ("Beneficial Effect"[Mesh] OR "Cardiovascular Disease"[Mesh]) AND ("Arbidol"[Mesh] OR "Ribavirin"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Non-alcoholic Fatty Liver Disease"[Mesh] OR "NAFLD"[Title/Abstract]) AND ("Clinical Outcomes"[Mesh] OR "Meta-analysis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chronic Liver Disease"[Mesh] OR "CLD"[Title/Abstract]) AND ("Hospitalized Patients"[Mesh] OR "United States"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Hepatic Steatosis"[Mesh] OR "Liver Injury"[Mesh]) AND ("Disease Severity"[Mesh] OR "Michigan Medicine"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD/NASH"[Title/Abstract] OR "Non-alcoholic Steatohepatitis"[Mesh]) AND ("Hospitalization Risk"[Mesh] OR "Logistic Regression"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Features"[Mesh] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Jiangsu Province"[Mesh] OR "China"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Liver Injury"[Mesh] OR "Hepatic Steatosis Index"[Mesh]) AND ("Obesity"[Mesh] OR "Disease Severity"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Risk of Hospitalization"[Mesh] OR "Abnormal Liver Function"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Chronic Liver Diseases"[Mesh] OR "Liver Function"[Mesh]) AND ("HSI"[Title/Abstract] OR "Hepatic Steatosis Index"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Age"[Mesh] OR "Risk Factors"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NAFLD"[Title/Abstract] OR "Nonalcoholic Fatty Liver Disease"[Mesh]) AND ("Liver Injury"[Mesh] OR "ALT Elevation"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Epidemiology"[Mesh] OR "Meta-Analysis"[Publication Type])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Devastating Consequences"[Title/Abstract] OR "Case Fatality Rates"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Distinct Vulnerable Population"[Title/Abstract] OR "Single-Facility Attack Rates"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Asymptomatic Cases"[Mesh] OR "Rate of Hospitalization"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Aged Care Facilities"[Mesh] OR "Long-Term Care Facilities"[Mesh]) AND ("Index Case"[Mesh] OR "Staff Member"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Temperature Screening"[Mesh] OR "Fever Threshold"[Title/Abstract])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Universal Testing"[Mesh] OR "Infection Control Measures"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Risk Factors"[Mesh] OR "Clinical Characteristics"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Frailty"[Mesh] OR "Staff Residence"[Mesh])
-("COVID-19 Outbreak"[Mesh] OR "SARS-CoV-2 Outbreak"[Title/Abstract]) AND ("Long-Term Care Facilities"[Mesh] OR "Nursing Home Residents"[Mesh]) AND ("Case Investigation"[Mesh] OR "Infection Prevention and Control"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Autopsy"[Mesh] OR "Postmortem Studies"[Mesh]) AND ("Cardiac Injury"[Title/Abstract] OR "Tissue Diagnosis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Ultrasound-Guided Minimally Invasive Autopsy"[Title/Abstract] OR "Systemic Involvement"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Autopsy Findings"[Mesh] OR "Cardiopulmonary Pathology"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Medical Examiner"[Mesh] OR "Coroner Offices"[Mesh]) AND ("Autopsy Protocol"[Mesh] OR "Biosafety Guidance"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Diffuse Alveolar Damage"[Mesh] OR "Microthrombotic Vascular Phenomena"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("In-Corpore Technique"[Title/Abstract] OR "Postmortem Findings"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Respiratory Failure"[Mesh] OR "Diffuse Alveolar Damage"[Mesh]) AND ("Massive Capillary Congestion"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Bronchopneumonia"[Mesh] OR "Pulmonary Embolism"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Pulmonary Thrombotic Microangiopathy"[Mesh] OR "Cardiac Amyloidosis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Hypertensive Patients"[Mesh] OR "Severe Cardiovascular Comorbidities"[Mesh]) AND ("Blood Group A"[Mesh] OR "Mortality Rates"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("SARS-CoV-2"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Mid-Turbinate Swabs"[Mesh]) AND ("Sensitivity and Specificity"[Mesh] OR "Meta-Analysis"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "MRSA Swabs"[Mesh]) AND ("SARS-CoV-2"[Title/Abstract] OR "PCR Testing"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swab Sampling"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "Viral Loads"[Mesh]) AND ("Sensitivity and Specificity"[Mesh] OR "Concordance"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NP Swabs"[Mesh] OR "Nasal Swab Collection"[Title/Abstract]) AND ("Viral Transport Media"[Mesh] OR "Dry Swabs"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swabs"[Mesh]) AND ("Abbott SARS-CoV-2 RealTime EUA"[Title/Abstract] OR "RT-PCR"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("NP Swabs"[Mesh] OR "Nasal Testing"[Title/Abstract]) AND ("Screening"[Mesh] OR "Low-Prevalence Populations"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "NP Swabs"[Mesh]) AND ("Specimen Types"[Mesh] OR "Saliva Stabilization Solutions"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Nasal Swabs"[Mesh] OR "Viral Swabs"[Mesh]) AND ("SARS-CoV-2 PCR Testing"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("SARS-CoV-2 Detection"[Mesh] OR "Diagnostic Testing"[Mesh]) AND ("Nasopharyngeal Swabs"[Mesh] OR "Nasal Swabs"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Diabetes Mellitus"[Mesh] OR "Type 2 Diabetes Mellitus"[Mesh]) AND ("Meta-Analysis"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Susceptibility"[Mesh] OR "Outcomes"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Inflammatory Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Prognosis"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Mortality"[Mesh] OR "ARDS Incidence"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Cohort Studies"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Mortality"[Mesh] OR "ARDS Incidence"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Retrospective Studies"[Publication Type])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Safety and Efficacy"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Acidosis"[Mesh] OR "Kidney Function"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Incidence"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Heart Failure"[Mesh] OR "Inflammation"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Clinical Evidence"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("COVID-19-Related Mortality"[Mesh] OR "Prognosis"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Gender"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Metformin"[Mesh] OR "Anti-Diabetic Agents"[Mesh]) AND ("Severe COVID-19"[Mesh] OR "Acidosis"[Mesh]) AND ("Type 2 Diabetes Mellitus"[Mesh]) AND ("Incidence"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Mortality Prediction"[Title/Abstract] OR "Clinical Prediction Rules"[Mesh]) AND ("Severe COVID-19"[Title/Abstract] OR "Severe SARS-CoV-2 Infection"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality Prediction"[Title/Abstract] OR "Prognostic Model"[Title/Abstract]) AND ("Nomogram"[Mesh] OR "Risk Factors"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality Prediction"[Title/Abstract] OR "Clinical Prediction Model"[Title/Abstract]) AND ("Machine Learning"[Mesh] OR "Artificial Intelligence"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Mortality"[Mesh] OR "Survival Probability"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Clinical Features"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prediction Model"[Title/Abstract] OR "Outcome Prediction"[Title/Abstract]) AND ("Multicenter Study"[Mesh] OR "Retrospective Cohort Study"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Prognostic Nutritional Index"[Mesh] OR "PNI"[Title/Abstract]) AND ("Wuhan, China"[Title/Abstract] OR "Prognostic Nomogram"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("De Ritis Ratio"[Mesh] OR "AST/ALT Ratio"[Title/Abstract]) AND ("In-Hospital Mortality"[Mesh] OR "Predictive Biomarker"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Clinical Prediction Model"[Title/Abstract] OR "Cox Regression Analysis"[Mesh]) AND ("Age"[Mesh] AND "Oxygen Saturation"[Mesh])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Laboratory Findings"[Mesh] OR "Biomarkers"[Mesh]) AND ("Prognostic Model"[Title/Abstract] OR "Survival Probability"[Title/Abstract])
-("COVID-19"[Mesh] OR "Coronavirus Disease 2019"[Title/Abstract]) AND ("Risk Factors"[Mesh] OR "Prognostication"[Title/Abstract]) AND ("Machine Learning"[Mesh] OR "Predictive Modeling"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("intubation, intratracheal"[MeSH Terms] OR "intubation, intratracheal"[All Fields]) AND ("Time Factors"[MeSH Terms] OR "Time Factors"[All Fields]))
-(("Severe Acute Respiratory Syndrome Coronavirus 2"[MeSH Terms] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[All Fields] OR "SARS-CoV-2"[All Fields] OR "COVID-19"[All Fields]) AND ("Intensive Care Units"[MeSH Terms] OR "Intensive Care Units"[All Fields] OR "Critical Illness"[MeSH Terms] OR "Critical Illness"[All Fields]) AND ("Italy"[MeSH Terms] OR "Italy"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Respiratory Insufficiency"[MeSH Terms] OR "Respiratory Insufficiency"[All Fields]) AND ("Patient Admission"[MeSH Terms] OR "Patient Admission"[All Fields]) AND ("Tomography, X-Ray Computed"[MeSH Terms] OR "Tomography, X-Ray Computed"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Intensive Care Units"[MeSH Terms] OR "Intensive Care Units"[All Fields]) AND ("Tunisia"[MeSH Terms] OR "Tunisia"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Observational Study"[Publication Type] OR "Observational Study"[All Fields]) AND ("Intubation, Intratracheal"[MeSH Terms] OR "Intubation, Intratracheal"[All Fields]) AND ("Disease Outbreaks"[MeSH Terms] OR "Disease Outbreaks"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Ventilators, Mechanical"[MeSH Terms] OR "Ventilators, Mechanical"[All Fields]) AND ("Germany"[MeSH Terms] OR "Germany"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Acute Respiratory Distress Syndrome"[MeSH Terms] OR "Acute Respiratory Distress Syndrome"[All Fields]) AND ("Prospective Studies"[MeSH Terms] OR "Prospective Studies"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("ICU Length of Stay"[MeSH Terms] OR "ICU Length of Stay"[All Fields]) AND ("France"[MeSH Terms] OR "France"[All Fields] OR "Belgium"[MeSH Terms] OR "Belgium"[All Fields] OR "Switzerland"[MeSH Terms] OR "Switzerland"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("ARDS"[MeSH Terms] OR "ARDS"[All Fields]) AND ("Mechanical Ventilation"[MeSH Terms] OR "Mechanical Ventilation"[All Fields]) AND ("Predictive Factors"[MeSH Terms] OR "Predictive Factors"[All Fields]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[All Fields]) AND ("Mortality"[MeSH Terms] OR "Mortality"[All Fields]) AND ("Clinical Decision-Making"[MeSH Terms] OR "Clinical Decision-Making"[All Fields]) AND ("Resource Planning"[MeSH Terms] OR "Resource Planning"[All Fields]))
-</t>
-  </si>
-  <si>
-    <t>(("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND ("angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND ("clinical outcomes"[Title/Abstract] OR "severe outcome"[Title/Abstract]))
-(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND ("safety"[Title/Abstract] OR "efficacy"[Title/Abstract]))
-(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "COVID-19"[Title/Abstract])
-(("renin-angiotensin-aldosterone system inhibitors"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "Covid-19"[Title/Abstract])
-(("angiotensin receptor blockers"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract]) AND "risk of Covid-19"[Title/Abstract])
-(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "coronavirus disease 2019"[Title/Abstract])
-(("renin-angiotensin-aldosterone system blockers"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "Covid-19"[Title/Abstract] AND "meta-analysis"[Title/Abstract])
-(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ACE inhibitors"[Title/Abstract] AND "severe outcome"[Title/Abstract])
-(("ACE inhibitors"[Title/Abstract] OR "ARBs"[Title/Abstract]) AND "clinical outcomes"[Title/Abstract] AND "systematic review"[Title/Abstract])
-(("renin-angiotensin-aldosterone system inhibitors"[Title/Abstract] OR "angiotensin-converting enzyme inhibitors"[Title/Abstract] OR "angiotensin receptor blockers"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "sofosbuvir-based treatment"[Title/Abstract] AND "randomized controlled trials"[Publication Type])
-(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract] OR "ribavirin"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "hospitalized patients"[Title/Abstract] AND "moderate disease"[Title/Abstract])
-(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract] OR "SOF/LDP"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract])
-(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract]) AND "COVID-19 outpatients"[Title/Abstract] AND "double-blind"[Title/Abstract])
-(("sofosbuvir"[Title/Abstract] OR "daclatasvir"[Title/Abstract]) AND "COVID-19 severe cases"[Title/Abstract])
-(("sofosbuvir"[Title/Abstract] OR "ledipasvir"[Title/Abstract]) AND "treatment of patients with COVID-19"[Title/Abstract])
-(("sofosbuvir"[Title/Abstract] OR "velpatasvir"[Title/Abstract]) AND "hospitalized with COVID-19"[Title/Abstract] AND "randomized controlled trial"[Publication Type])
-(("SOF/LDP"[Title/Abstract] OR "sofosbuvir"[Title/Abstract]) AND "mild to moderate COVID-19"[Title/Abstract])
-(("SOF/VEL"[Title/Abstract] OR "sofosbuvir"[Title/Abstract]) AND "moderate to severe COVID-19"[Title/Abstract])
-(("SOF/VEL"[Title/Abstract] OR "sofosbuvir"[Title/Abstract] OR "velpatasvir"[Title/Abstract]) AND "national standard of care"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroid use"[Title/Abstract] AND "systematic review"[Publication Type])
-(("corticosteroids"[Title/Abstract] OR "dexamethasone"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "mortality"[Title/Abstract])
-(("corticosteroid treatment"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "viral clearance"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract])
-(("corticosteroids"[Title/Abstract] OR "methylprednisolone"[Title/Abstract]) AND "severe COVID-19 pneumonia"[Title/Abstract])
-(("corticosteroid therapy"[Title/Abstract] OR "COVID-19 outcomes"[Title/Abstract]) AND "acute respiratory distress syndrome"[Title/Abstract])
-(("corticosteroid treatment"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "hospital length of stay"[Title/Abstract] AND "duration of symptoms"[Title/Abstract])
-(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroids"[Title/Abstract] AND "observational studies"[Publication Type])
-(("corticosteroid use"[Title/Abstract] OR "dexamethasone"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "viral clearance time"[Title/Abstract])
-(("prolonged low-dose methylprednisolone"[Title/Abstract] OR "severe COVID-19 pneumonia"[Title/Abstract]) AND "ICU referral"[Title/Abstract] AND "intubation"[Title/Abstract])
-(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "corticosteroids"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "dementia comorbidities"[Title/Abstract] AND "meta-analysis"[Publication Type])
-(("preexisting dementia"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "incidence"[Title/Abstract] AND "mortality"[Title/Abstract])
-(("dementia comorbidities"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "fixed-effect model"[Title/Abstract] AND "forest plots"[Title/Abstract])
-(("COVID-19 mortality"[Title/Abstract] OR "dementia comorbidities"[Title/Abstract]) AND "statistical data"[Title/Abstract] AND "prevalence"[Title/Abstract])
-(("preexisting dementia"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "risk factors"[Title/Abstract] AND "mortality rate"[Title/Abstract])
-(("COVID-19 clinical presentation"[Title/Abstract] OR "dementia patients"[Title/Abstract]) AND "outcomes"[Title/Abstract] AND "hospitalization"[Title/Abstract])
-(("clinical symptoms of COVID-19"[Title/Abstract] OR "dementia comorbidities"[Title/Abstract]) AND "retrospective study"[Publication Type])
-(("COVID-19 prognosis in dementia patients"[Title/Abstract] OR "mortality risk factors"[Title/Abstract]) AND "single-center study"[Publication Type])
-(("preexisting comorbidities"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "frailty"[Title/Abstract] AND "short-term mortality"[Title/Abstract])
-(("COVID-19 risk stratification"[Title/Abstract] OR "prognostic factors"[Title/Abstract]) AND "older adults aged 80 years and above"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ethnicity"[Title/Abstract] AND "clinical outcomes"[Title/Abstract])
-(("COVID-19 infection risk"[Title/Abstract] OR "ethnicity"[Title/Abstract]) AND "meta-analysis"[Publication Type])
-(("COVID-19 infection risk"[Title/Abstract] OR "ethnicity"[Title/Abstract]) AND "peer-reviewed studies"[Publication Type])
-(("Asian ethnicity"[Title/Abstract] OR "Black ethnicity"[Title/Abstract]) AND "COVID-19 infection risk"[Title/Abstract])
-(("ethnicity and COVID-19 mortality"[Title/Abstract] OR "clinical outcomes in COVID-19"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
-(("COVID-19 hospitalization risk"[Title/Abstract] OR "intensive therapy unit admission"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
-(("ethnicity and COVID-19 death risk"[Title/Abstract] OR "COVID-19 meta-analysis"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
-(("COVID-19 clinical outcomes"[Title/Abstract] OR "ethnicity and COVID-19 risk factors"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
-(("COVID-19 prevalence in ethnicity"[Title/Abstract] OR "ethnic disparities in COVID-19"[Title/Abstract]) AND "Asian ethnicity"[Title/Abstract])
-(("ethnicity and COVID-19 morbidity"[Title/Abstract] OR "COVID-19 mortality risk factors"[Title/Abstract]) AND "Black ethnicity"[Title/Abstract])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Kidney"[Mesh] OR "Renal System"[tiab])
-("SARS-CoV-2 spike protein"[tiab] OR "Angiotensin-converting enzyme 2"[tiab] OR "TMPRSS2 protein, human"[tiab]) AND ("Viral Receptors"[Mesh] OR "Membrane Proteins"[Mesh])
-("Grey wolf optimizer"[tiab] OR "GWO algorithm"[tiab]) AND ("Viral Receptors"[Mesh] OR "Membrane Proteins"[Mesh])
-("ACE2 protein"[tiab] OR "TMPRSS2 protein, human"[tiab]) AND ("Single-Cell Analysis"[Mesh] OR "Mass Spectrometry"[Mesh] OR "Immunohistochemistry"[Mesh])
-("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Acute Kidney Injury"[Mesh] OR "Kidney Proximal Tubule Cells"[Mesh])
-("Coronavirus disease 2019"[Mesh] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mortality"[Mesh] OR "Intensive Care Units"[Mesh])
-("Severe acute respiratory syndrome coronavirus"[tiab] OR "SARS-CoV"[tiab]) AND ("ICU admission"[tiab] OR "High mortality"[tiab])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Blood Urea Nitrogen"[Mesh] OR "Creatinine"[Mesh] OR "Albuminuria"[Mesh])
-("2019 novel coronavirus"[tiab] OR "COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Acute Kidney Injury"[Mesh] OR "Renal Function"[Mesh])
-("Clinical Characteristics"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("SARS-CoV-2 RNA"[Mesh] OR "Renal Function"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Relapse"[Mesh] OR "Disease Recurrence"[Mesh])
-("Severe acute respiratory syndrome coronavirus 2"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Reactivation"[Mesh] OR "Virus Activation"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Medical Staff"[Mesh] OR "Recovered Patients"[Mesh]) AND ("Surveillance"[Mesh] OR "Virus Detection"[Mesh])
-("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Viral Load"[Mesh] OR "Serum Antibodies"[Mesh]) AND ("Observational Cohort Study"[Mesh] OR "Cohort Analysis"[Mesh])
-("SARS-CoV-2 spike glycoprotein"[tiab] OR "COVID-19 Convalescent Patients"[Mesh]) AND ("Immunodominant Regions"[Mesh] OR "Neutralising Antibodies"[Mesh])
-("2019-nCoV"[tiab] OR "COVID-19"[tiab]) AND ("Shedding Routes"[Mesh] OR "Transmission Routes"[Mesh]) AND ("Oral Swabs"[Mesh] OR "Anal Swabs"[Mesh])
-("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Respiratory Viral Load"[Mesh] OR "Serial Viral Load"[Mesh]) AND ("Posterior Oropharyngeal Saliva"[Mesh] OR "Throat Swabs"[Mesh])
-("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Seropositivity"[Mesh] OR "Antibody Levels"[Mesh]) AND ("Virus Neutralisation"[Mesh] OR "Antiviral Agents"[Mesh])
-("COVID-19 Convalescent Patients"[Mesh] OR "COVID-19 Vaccines"[Mesh]) AND ("Immunogenic Targets"[Mesh] OR "B-Cell Epitopes"[Mesh])
-("SARS-CoV-2"[tiab] OR "COVID-19"[tiab]) AND ("Multiple Shedding Routes"[Mesh] OR "Oral-Fecal Route"[Mesh]) AND ("Virus Detection"[Mesh] OR "Serology Test"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Invasive Mechanical Ventilation"[Mesh] OR "Mechanical Ventilation"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Elderly Patients"[Mesh] OR "Aged Patients"[Mesh] OR "Older Patients"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cardiovascular Disease"[Mesh] OR "Myocardial Injury"[Mesh] OR "Fatal Outcomes"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cluster of Severe Respiratory Illness"[Mesh] OR "ICU Admission"[Mesh] OR "Mortality"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Epidemiological Characteristics"[Mesh] OR "Clinical Characteristics"[Mesh] OR "2019-nCoV Pneumonia"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Viral Infection"[Mesh] OR "Respiratory Symptoms"[Mesh] OR "Pneumonitis"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Practices"[Mesh] OR "IMV Devices"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("NIH Quality Assessment Tool"[Mesh] OR "Cohort Studies"[Mesh] OR "Cross-Sectional Studies"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Symptoms Onset"[Mesh] OR "Mechanical Ventilation Duration"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Hypoxemic Respiratory Failure"[Mesh] OR "Hypotension"[Mesh] OR "Vasopressor Treatment"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Non-Invasive Ventilation"[Mesh] OR "Oxygenation Approaches"[Mesh] OR "Respiratory Failure"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Benefits"[Mesh] OR "Mechanical Ventilation Harms"[Mesh] OR "Ventilation Techniques"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Mortality"[Mesh] OR "COVID-19 Transmission"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Severe Acute Respiratory Syndrome Mortality"[Mesh] OR "Middle East Respiratory Syndrome Mortality"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Noninvasive Ventilation Mortality"[Mesh] OR "Invasive Mechanical Ventilation Mortality"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mechanical Ventilation Risk of Transmission"[Mesh] OR "Aerosol-Generating Procedures"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Healthcare Worker Infection Risk"[Mesh] OR "Transmission to Healthcare Workers"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Non-Invasive Ventilation vs. Invasive Mechanical Ventilation"[Mesh] OR "NIV vs. IMV"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Mortality Reduction with Noninvasive Ventilation"[Mesh] OR "COVID-19 Healthcare Worker Transmission"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Systematic Reviews"[Mesh] OR "COVID-19 Certainty of Evidence"[Mesh] OR "GRADE Assessment"[Mesh])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Cardiac Arrest"[Mesh] OR "Cardiopulmonary Resuscitation"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("COVID-19 Transmission"[Mesh] OR "Infection Risk"[Mesh] OR "Healthcare Worker Infection"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Aerosol Generation in CPR"[Mesh] OR "Aerosol Transmission"[Mesh] OR "Airborne Infection Transmission"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Personal Protective Equipment Strategies"[Mesh] OR "PPE for Rescuers"[Mesh] OR "PPE Delay in Treatment Delivery"[Mesh])
-("Middle East Respiratory Syndrome"[tiab] OR "MERS"[tiab]) AND ("Healthcare Worker Infections"[Mesh] OR "MERS Transmission during CPR"[Mesh])
-("Severe Acute Respiratory Syndrome"[tiab] OR "SARS"[tiab]) AND ("SARS-CoV Infection Transmission"[Mesh] OR "SARS Transmission during Resuscitation"[Mesh])
-("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("Infection Risk in Healthcare Workers"[Mesh] OR "SARS Transmission Routes"[Mesh])
-("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("Healthcare Worker Infections"[Mesh] OR "SARS Transmission during Intubation"[Mesh])
-("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("SARS-CoV Infection Prevention"[Mesh] OR "Healthcare Worker PPE Use"[Mesh])
-("SARS-CoV"[tiab] OR "SARS Coronavirus"[tiab]) AND ("SARS-CoV Transmission Factors"[Mesh] OR "SARS-CoV Transmission Control"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Convalescent Blood Products"[Mesh] OR "Convalescent Plasma"[Mesh]) AND ("Severe Acute Respiratory Infections"[Mesh] OR "Viral Infections"[Mesh])
-("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Survival Advantage"[Mesh] OR "All-Cause Mortality"[Mesh])
-("Convalescent Blood Products"[tiab] OR "Convalescent Plasma"[tiab]) AND ("Randomized Controlled Trials as Topic"[Mesh] OR "RCTs on Viral Infections"[Mesh])
-("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Adverse Events"[Mesh] OR "Safety of CBPs"[Mesh])
-("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Early Initiation of Therapy"[Mesh] OR "Mortality Reduction"[Mesh])
-("Influenza, Human"[Mesh] OR "Severe Influenza"[Mesh]) AND ("Immune Plasma Treatment"[Mesh] OR "Neutralizing Antibodies"[Mesh])
-("Severe Influenza"[tiab] OR "Severe SARS-CoV-2 Infection"[tiab]) AND ("Convalescent Plasma"[tiab] OR "Neutralizing Antibodies"[tiab])
-("Convalescent Plasma"[tiab] OR "Convalescent Blood Products"[tiab]) AND ("Moderate COVID-19"[Mesh] OR "COVID-19 Treatment in Adults"[Mesh])
-("Severe Influenza"[tiab] OR "Pandemic Influenza A(H1N1) 2009"[tiab]) AND ("Convalescent Plasma Treatment"[Mesh] OR "Viral Load Suppression"[Mesh])
-("Severe Acute Respiratory Syndrome"[Mesh] OR "SARS-CoV-2"[tiab]) AND ("Convalescent Plasma"[tiab] OR "Methylprednisolone Treatment"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19"[Mesh] OR "Severe Acute Respiratory Syndrome Coronavirus 2"[Mesh]) AND ("Pregnancy Complications"[Mesh] OR "Maternal Complications"[Mesh])
-("Anesthesia, Epidural"[Mesh] OR "General Anesthesia"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Parturients with SARS-CoV-2 Infection"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Pregnancy Outcomes"[Mesh] OR "Healthcare Workers"[Mesh])
-("COVID-19 Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("Pregnant Patients"[Mesh] OR "Chest CT"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Clinical Characteristics"[Mesh] OR "Outcomes in Pregnancy"[Mesh])
-("COVID-19 Pneumonia"[Mesh] OR "COVID-19 Clinical Characteristics"[Mesh]) AND ("CT Absorption"[Mesh] OR "Symptomatic Pregnant Patients"[Mesh])
-("COVID-19 Pneumonia"[Mesh] OR "COVID-19 in Pregnant Women"[Mesh]) AND ("Vertical Transmission"[Mesh] OR "SARS-CoV-2 in Neonates"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Clinical Characteristics"[Mesh] OR "Pregnant Women in Wuhan"[Mesh])
-("COVID-19"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Clinical Characteristics"[Mesh] OR "Outcomes in Pregnancy"[Mesh])
-("COVID-19"[tiab] OR "SARS-CoV-2"[tiab]) AND ("Vertical Transmission"[Mesh] OR "Outcomes in Pregnant Women"[Mesh])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Novel Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Coagulation Parameters"[Mesh] OR "Prognosis"[Mesh])
-("Novel Coronavirus Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("CT Findings"[Mesh] OR "Temporal Changes"[Mesh])
-("Epidemiological Data"[Mesh] OR "Population-level Study"[Mesh]) AND ("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh])
-("Clinical Indexes"[Mesh] OR "Biochemical Parameters"[Mesh]) AND ("2019-nCoV Infection"[Mesh] OR "Viral Loads"[Mesh] OR "Lung Injury"[Mesh])
-("Chest CT"[Mesh] OR "CT Findings"[Mesh]) AND ("Duration of Infection"[Mesh] OR "Time Between Symptom Onset and CT Scan"[Mesh])
-("Novel Coronavirus Pneumonia"[Mesh] OR "COVID-19 Imaging"[Mesh]) AND ("Characteristics of Pneumonia"[Mesh] OR "Imaging Features"[Mesh])
-("News Media"[Mesh] OR "Social Networks"[Mesh]) AND ("Epidemiological Data"[Mesh] OR "Patient-level Data"[Mesh])
-("Novel Coronavirus"[Mesh] OR "SARS-CoV-2"[Mesh]) AND ("Clinical Symptoms"[Mesh] OR "Laboratory Findings"[Mesh])
-("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND ("Patient Mortality"[Mesh] OR "Mortality Rate"[Mesh])
-("Coronavirus Disease 2019"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND ("Epidemiology"[Mesh] OR "Outbreak Progression"[Mesh])
-</t>
-  </si>
-  <si>
-    <t>("COVID-19 Stigma"[Mesh] OR "COVID-19 Discrimination"[Mesh]) AND ("Stigma Reduction Interventions"[Mesh] OR "Discrimination Reduction Strategies"[Mesh])
-("HIV-related Stigma"[Mesh] OR "HIV Discrimination"[Mesh]) AND ("Healthcare Settings"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("Quantitative Evidence"[Mesh] OR "Randomized Controlled Trials"[Mesh])
-("Self-stigma in Mental Illness"[Mesh] OR "Self-stigmatization"[Mesh]) AND ("Workplace Interventions"[Mesh] OR "Mental Health Stigma Reduction"[Mesh])
-("Mental Illness Stigma"[Mesh] OR "Stigma Reduction Interventions"[Mesh]) AND ("Primary Health Care in LMICs"[Mesh] OR "Low and Middle-Income Countries"[Mesh])
-("Self-stigma in People Living with HIV"[Mesh] OR "Internalized Stigma"[Mesh]) AND ("Interventions to Address Self-stigma"[Mesh] OR "Self-stigma Reduction"[Mesh])
-("Stigma Reduction Strategies"[Mesh] OR "Discrimination Prevention"[Mesh]) AND ("Mental Health Interventions"[Mesh] OR "Mental Health Promotion"[Mesh])
-("HIV Stigma Interventions"[Mesh] OR "Stigma Reduction Programs"[Mesh]) AND ("Low and Middle-Income Countries"[Mesh] OR "Global Public Health"[Mesh])
-("HIV/AIDS Stigma"[Mesh] OR "Internalized Stigma"[Mesh]) AND ("Stigma Reduction in Key Populations"[Mesh] OR "Stigma Reduction in Pregnant Women"[Mesh])
-("HIV-related Discrimination"[Mesh] OR "HIV and Health Services"[Mesh]) AND ("Structural Interventions"[Mesh] OR "Scale-up of Antiretroviral Treatment"[Mesh])
-("Structural Interventions for Self-stigma"[Mesh] OR "Social Empowerment Programs"[Mesh]) AND ("Economic Strengthening Initiatives"[Mesh] OR "Reduction of Medication Stockouts"[Mesh])</t>
-  </si>
-  <si>
-    <t>("Posttraumatic Stress Disorder"[Mesh] OR "PTSD Symptoms"[Mesh]) AND ("Crisis Mental Health Services"[Mesh] OR "Psychological Services"[Mesh]) AND ("COVID-19 Patients"[Mesh] OR "Clinically Stable COVID-19 Individuals"[Mesh]) AND "China"[Mesh]
-("Psychological Impact"[Mesh] OR "Coping Strategies"[Mesh]) AND ("Frontline Medical Staff"[Mesh] OR "Healthcare Workers"[Mesh]) AND ("COVID-19 Outbreak"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hubei"[Mesh] AND "Hunan"[Mesh]
-("Basic Needs"[Mesh] OR "Psychological Wellbeing"[Mesh]) AND ("Medical Workers"[Mesh] OR "Healthcare Professionals"[Mesh]) AND ("Fever Clinic"[Mesh] OR "COVID-19 Outbreak"[Mesh]) AND "Beijing"[Mesh]
-("Psychological Impact"[Mesh] OR "Mental Health Impact"[Mesh]) AND ("College Students"[Mesh] OR "University Students"[Mesh]) AND "China"[Mesh] AND "COVID-19 Epidemic"[Mesh]
-("Mental Health Problems"[Mesh] OR "Depression"[Mesh] OR "Anxiety"[Mesh]) AND ("Social Media Exposure"[Mesh] OR "Online Media Exposure"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Wuhan"[Mesh] AND "China"[Mesh]
-("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Affected Individuals"[Mesh]
-("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Healthcare Workers"[Mesh]
-("Prevalence"[Mesh] OR "Psychological Health Outcomes"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "General Population"[Mesh]
-("Symptoms of PTSD"[Mesh] OR "Posttraumatic Stress Disorder"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "Healthcare Workers"[Mesh]
-("Depression"[Mesh] OR "Anxiety"[Mesh]) AND "COVID-19 Outbreak"[Mesh] AND "College Students"[Mesh] AND "China"[Mesh]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Intensive Care Units"[Mesh] OR "ICU Admission"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Systematic Review"[Publication Type]
-("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Systematic Review"[Publication Type]
-("PubMed"[Mesh] OR "MEDLINE"[Mesh]) AND ("Science Direct"[Mesh] OR "LILACS"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Observational Study"[Publication Type] AND ("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh])
-("Meta-Analysis"[Publication Type]) AND ("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "ICU Admission"[Mesh]
-("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh]) AND ("Mortality"[Mesh] OR "Morbidity"[Mesh] OR "Complications"[Mesh]) AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Meta-Analysis"[Publication Type]
-("ICU Admission"[Mesh] OR "Intensive Care Units"[Mesh]) AND "Mortality"[Mesh] AND ("Coronavirus Infections"[Mesh] OR "COVID-19"[Mesh]) AND "Meta-Analysis"[Publication Type]
-("Systematic Review"[Publication Type]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Coronavirus Infections"[Mesh]
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Meta-Analysis"[Publication Type]
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Mortality"[Mesh] AND "Systematic Review"[Publication Type]
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "ICU Admission"[Mesh] AND "Meta-Analysis"[Publication Type] AND "Morbidity"[Mesh]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Children"[Mesh] OR "Pediatrics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
-("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Children"[Mesh]
-("Clinical Characteristics"[Mesh] OR "Laboratory Characteristics"[Mesh] OR "Imaging Characteristics"[Mesh]) AND ("Children"[Mesh] OR "Pediatrics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
-("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Observational Study"[Publication Type]
-("Clinical Features"[Mesh] OR "Demographic Data"[Mesh] OR "Symptoms"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
-("Cytokine Storm"[Mesh] OR "Immunologic Factors"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
-("Epidemiologic Factors"[Mesh] OR "Transmission"[Mesh] OR "Spread"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Undocumented Infections"[Mesh]
-("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND ("Intensive Care Units"[Mesh] OR "ICU"[Mesh]) AND "COVID-19"[Mesh]
-("Clinical Outcomes"[Mesh] OR "Prognosis"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
-("Clinical Features"[Mesh] OR "Symptoms"[Mesh] OR "Imaging"[Mesh]) AND ("Severe Pediatric Patients"[Mesh] OR "Critically Ill Pediatric Patients"[Mesh]) AND "COVID-19"[Mesh]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Comorbidity"[Mesh] OR "Comorbidities"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
-("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidity"[Mesh]
-("Hypertension"[Mesh] OR "Obesity"[Mesh] OR "Diabetes Mellitus"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
-("Cancer"[Mesh] OR "Chronic Kidney Disease"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
-("Obesity"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
-("Global Health"[Mesh] OR "Epidemics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidity"[Mesh]
-("Cox Regression Analysis"[Mesh] OR "Nomogram Model"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Fatal Outcome"[Mesh]
-("Clinical Features"[Mesh] OR "Laboratory Findings"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Multivariate Analysis"[Mesh]
-("Kaplan-Meier Analysis"[Mesh] OR "Cox Proportional Hazards Model"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Risk Factors"[Mesh]
-("Prognosis"[Mesh] OR "High-Risk Groups"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Comorbidities"[Mesh]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Troponin"[Mesh] OR "Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
-("Meta-Analysis"[Publication Type]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Myocardial Injury"[Mesh]
-("Troponin"[Mesh] OR "Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Mortality"[Mesh]
-("Hospital Admission"[Mesh] OR "Critical Illness"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Risk Factors"[Mesh]
-("Black Patients"[Mesh] OR "White Patients"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Hospitalization"[Mesh]
-("Cardiac Injury"[Mesh] OR "High-Sensitivity Troponin-I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Morbidity and Mortality"[Mesh]
-("Outcomes"[Mesh] OR "Clinical Characteristics"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Louisiana"[Mesh]
-("Multivariate Analysis"[Mesh] OR "Logistic Regression"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Clinical Outcomes"[Mesh]
-("Cardiac Troponin I"[Mesh] OR "Clinical Outcomes"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Elevated Troponin"[Mesh]
-("Myocardial Injury"[Mesh] OR "Cardiac Troponin I"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Hospitalized Patients"[Mesh]
-</t>
-  </si>
-  <si>
-    <t>("Acute cardiac injury"[Title/Abstract] OR "troponin"[Title/Abstract] OR "brain natriuretic peptide"[Title/Abstract]) AND "COVID-19"[Title/Abstract]
-("Severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "2019 novel coronavirus"[Title/Abstract]) AND "clinical features"[Title/Abstract]
-("2019 novel coronavirus"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "predictors of mortality"[Title/Abstract]
-("Critically ill patients"[Title/Abstract] OR "SARS-CoV-2 pneumonia"[Title/Abstract]) AND "clinical outcomes"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "intensive care unit"[Title/Abstract]
-("Troponin"[Mesh] OR "Brain Natriuretic Peptide"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Systematic Review"[Publication Type]
-("Troponin"[Mesh] OR "COVID-19"[Mesh]) AND "Incidence"[Mesh]
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Myocardial Injury"[Mesh]
-("Troponin"[Mesh] OR "Brain Natriuretic Peptide"[Mesh]) AND ("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Clinical Status"[Mesh]
-("COVID-19"[Mesh] OR "Coronavirus Infections"[Mesh]) AND "Cardiac Biomarkers"[Mesh]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("risk factors"[Title/Abstract] OR "clinical risk factors"[Title/Abstract]) AND "mortality"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "age"[Title/Abstract] AND "sex"[Title/Abstract] AND "health conditions"[Title/Abstract] AND "mortality"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "systematic review"[Publication Type]
-("dyspnoea"[Title/Abstract] OR "smoking"[Title/Abstract] OR "comorbidities"[Title/Abstract] OR "laboratory parameters"[Title/Abstract]) AND "mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("age"[Title/Abstract] OR "sex"[Title/Abstract] OR "health conditions"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract] AND "COVID-19"[Title/Abstract]
-("clinical features"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract] AND "case-control study"[Publication Type]
-("hospitalized patients"[Title/Abstract] OR "baseline characteristics"[Title/Abstract]) AND "COVID-19 mortality"[Title/Abstract] AND "observational study"[Publication Type]
-("severe COVID-19"[Title/Abstract] OR "in-hospital deaths"[Title/Abstract]) AND "risk factors"[Title/Abstract] AND "scoring system"[Title/Abstract]
-("age"[Title/Abstract] OR "diabetes mellitus"[Title/Abstract] OR "SatO2/FiO2 ratio"[Title/Abstract]) AND "inpatient death"[Title/Abstract] AND "COVID-19"[Title/Abstract]
-("older age"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract] OR "continuous renal replacement therapy"[Title/Abstract]) AND "inpatient mortality"[Title/Abstract] AND "COVID-19"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "maternal clinical characteristics"[Title/Abstract] AND "perinatal outcomes"[Title/Abstract] AND "pregnant women"[Title/Abstract]
-("SARS-CoV-2"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "infection in pregnant women"[Title/Abstract] AND "perinatal outcomes"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "asymptomatic pregnant women"[Title/Abstract] AND "symptomatic pregnant women"[Title/Abstract] AND "New York City hospitals"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "cardiomyopathy in pregnancy"[Title/Abstract] AND "viral myocarditis"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "labor and delivery screening"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "severe acute respiratory distress syndrome"[Title/Abstract] AND "pregnancy"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "uncomplicated delivery"[Title/Abstract] AND "patient with Covid-19"[Title/Abstract]
-("pregnant women"[Title/Abstract] OR "maternal-fetal surveillance"[Title/Abstract]) AND "coronavirus disease 2019"[Title/Abstract] AND "intensive care procedures"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "perinatal outcomes"[Title/Abstract] AND "echocardiogram in pregnancy"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "laboratory analysis"[Title/Abstract] AND "outcome"[Title/Abstract] AND "systematic review"[Publication Type]
-("severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "routine laboratory tests"[Title/Abstract] AND "disease severity"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "meta-analysis"[Publication Type] AND "laboratory tests"[Title/Abstract] AND "outcome"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "coagulation parameters"[Title/Abstract] AND "prognosis"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "platelet-to-lymphocyte ratio"[Title/Abstract] AND "prognosis"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "clinical course"[Title/Abstract] AND "mortality"[Title/Abstract] AND "Wuhan, China"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "abnormal coagulation parameters"[Title/Abstract] AND "novel coronavirus pneumonia"[Title/Abstract]
-("2019 novel coronavirus"[Title/Abstract] OR "2019-nCoV"[Title/Abstract]) AND "clinical features"[Title/Abstract] AND "Wuhan, China"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "viral shedding"[Title/Abstract] AND "disease severity"[Title/Abstract]
-("severe acute respiratory syndrome coronavirus 2"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "clinical and biochemical indexes"[Title/Abstract] AND "lung injury"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "non-steroidal anti-inflammatory drugs"[Title/Abstract] AND "acute lower respiratory tract infections"[Title/Abstract] AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "respiratory complications"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "all-cause mortality"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "pleuro-pulmonary complications"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
-("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular outcomes"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "NSAIDs"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract] AND "organ failure"[Title/Abstract] AND ("acute lower respiratory tract infections"[Title/Abstract] OR "pneumonia"[Title/Abstract] OR "influenza"[Title/Abstract] OR "acute bronchitis"[Title/Abstract])
-("acute bronchitis"[Title/Abstract] OR "lower respiratory tract infections"[Title/Abstract]) AND "anti-inflammatory treatment"[Title/Abstract] AND "antibiotic therapy"[Title/Abstract] AND "placebo"[Title/Abstract] AND "clinical effectiveness"[Title/Abstract]
-("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "respiratory complications"[Title/Abstract] AND "acute lower respiratory tract infections"[Title/Abstract]
-("acute bronchitis"[Title/Abstract] OR "lower respiratory tract infections"[Title/Abstract]) AND "anti-inflammatory treatment"[Title/Abstract] AND "antibiotic therapy"[Title/Abstract] AND "placebo"[Title/Abstract] AND "clinical trial"[Publication Type]
-("NSAIDs"[Title/Abstract] OR "non-steroidal anti-inflammatory drugs"[Title/Abstract]) AND "acute lower respiratory tract infections"[Title/Abstract] AND "meta-analysis"[Publication Type]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("comorbid pulmonary diseases"[Title/Abstract] OR "chronic obstructive pulmonary diseases"[Title/Abstract] OR "COPD"[Title/Abstract] OR "asthma"[Title/Abstract] OR "chronic respiratory diseases"[Title/Abstract] OR "CRD"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-("severe COVID-19"[Title/Abstract] OR "severe coronavirus disease 2019"[Title/Abstract]) AND ("comorbid COPD"[Title/Abstract] OR "comorbid chronic obstructive pulmonary diseases"[Title/Abstract] OR "comorbid asthma"[Title/Abstract] OR "comorbid chronic respiratory diseases"[Title/Abstract]) AND "meta-analysis"[Publication Type]
-("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("chronic obstructive pulmonary diseases"[Title/Abstract] OR "COPD"[Title/Abstract]) AND "meta-analysis"[Publication Type]
-("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("chronic respiratory diseases"[Title/Abstract] OR "CRD"[Title/Abstract]) AND "meta-analysis"[Publication Type]
-("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND "asthma"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid COPD"[Title/Abstract] OR "comorbid chronic obstructive pulmonary diseases"[Title/Abstract]) AND "systematic review"[Publication Type]
-("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid asthma"[Title/Abstract] OR "asthma patients"[Title/Abstract]) AND "systematic review"[Publication Type]
-("COVID-19 severity"[Title/Abstract] OR "coronavirus disease 2019 severity"[Title/Abstract]) AND ("comorbid chronic respiratory diseases"[Title/Abstract] OR "chronic respiratory disease patients"[Title/Abstract]) AND "systematic review"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ICU mortality"[Title/Abstract] AND ("critically ill adults"[Title/Abstract] OR "severe COVID-19 patients"[Title/Abstract])
-("COVID-19 mortality"[Title/Abstract] OR "coronavirus disease 2019 mortality"[Title/Abstract]) AND ("hospitalized patients"[Title/Abstract] OR "COVID-19 hospital admissions"[Title/Abstract]) AND "Seattle"[Affiliation]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("case fatality rates"[Title/Abstract] OR "CFR"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "case fatality rates"[Title/Abstract] AND ("age-stratified CFR"[Title/Abstract] OR "age-specific CFR"[Title/Abstract]) AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("invasive mechanical ventilation"[Title/Abstract] OR "IMV"[Title/Abstract]) AND "definitive hospital CFR"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND ("CFR by patient age"[Title/Abstract] OR "CFR in different age groups"[Title/Abstract]) AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "CFR by geographic region"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "CFR by study quality"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "heterogeneity of CFR"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "severe COVID-19"[Title/Abstract] AND "mechanical ventilation support"[Title/Abstract] AND "ICU resources"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "ECMO for COVID-19"[Title/Abstract] AND "mortality rate"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "hospital-related transmission"[Title/Abstract] AND "mechanical ventilation"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "sociodemographic"[Title/Abstract] AND "clinical risk factors"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "age-specific mortality"[Title/Abstract] AND "sex-specific mortality"[Title/Abstract] AND "health condition-specific mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "dyspnoea"[Title/Abstract] AND "smoking"[Title/Abstract] AND "comorbidities"[Title/Abstract] AND "laboratory parameters"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND ("in-hospital mortality"[Title/Abstract] OR "death outcome"[Title/Abstract]) AND "age-stratified mortality"[Title/Abstract] AND "sex-stratified mortality"[Title/Abstract] AND "health condition-stratified mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "prognostic effect"[Title/Abstract] AND "clinical conditions"[Title/Abstract] AND "mortality predictors"[Title/Abstract] AND "mean age of patients"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "predictors of COVID-19 mortality"[Title/Abstract] AND "age, sex, and health conditions"[Title/Abstract] AND "systematic review"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "mortality risk factors"[Title/Abstract] AND "odds ratio"[Title/Abstract] AND "effect size"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "in-hospital mortality"[Title/Abstract] AND "age-specific predictors"[Title/Abstract] AND "sex-specific predictors"[Title/Abstract] AND "health condition-specific predictors"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "clinical features of severe COVID-19"[Title/Abstract] AND "mortality predictors"[Title/Abstract] AND "prognostic effect"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "age-stratified mortality predictors"[Title/Abstract] AND "sex-stratified mortality predictors"[Title/Abstract] AND "health condition-stratified mortality predictors"[Title/Abstract] AND "meta-analysis"[Publication Type]</t>
-  </si>
-  <si>
-    <t>("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "health-related challenges"[Title/Abstract] AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "systematic review"[Publication Type]
-("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "health challenges"[Title/Abstract] AND "pandemic provisions"[Title/Abstract] AND "anxiety"[Title/Abstract] AND "fear"[Title/Abstract] AND "stress"[Title/Abstract]
-("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "healthcare access"[Title/Abstract] AND "information"[Title/Abstract] AND "government response"[Title/Abstract]
-("women"[Title/Abstract] OR "gender"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "SDGs 5"[Title/Abstract] AND "equal rights"[Title/Abstract] AND "women empowerment"[Title/Abstract]
-("women's health"[Title/Abstract] OR "reproductive health"[Title/Abstract] OR "psychosocial health"[Title/Abstract] OR "gender-based violence"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "pandemics"[Title/Abstract] AND "women engagement"[Title/Abstract] AND "pandemic-related services"[Title/Abstract]
-("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "women"[Title/Abstract] AND "public health response"[Title/Abstract] AND "epidemiological surveillance"[Title/Abstract] AND "social-ecological framework"[Title/Abstract]
-("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "contraception"[Title/Abstract] AND "post-abortion care"[Title/Abstract] AND "Honduras"[Title/Abstract] AND "Zika outbreak"[Title/Abstract]
-("Zika virus"[Title/Abstract] OR "ZIKV"[Title/Abstract]) AND "pregnant women"[Title/Abstract] AND "accessing healthcare services"[Title/Abstract] AND "Colombia"[Title/Abstract] AND "Zika epidemic"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "coronavirus disease 2019"[Title/Abstract]) AND "privately practising midwives"[Title/Abstract] AND "healthcare services planning"[Title/Abstract] AND "health system integration"[Title/Abstract] AND "midwifery care"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("post-traumatic stress disorder"[Title/Abstract] OR "PTSD"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "prevalence"[Title/Abstract] AND "systematic review"[Publication Type]
-("post-traumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "meta-analysis"[Publication Type] AND "risk factors"[Title/Abstract]
-("mental illness"[Title/Abstract] OR "depression"[Title/Abstract] OR "anxiety"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "hospital discharged patients"[Title/Abstract] AND "Wuhan"[Title/Abstract] AND "China"[Title/Abstract]
-("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "trauma survivors"[Title/Abstract]
-("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "early convalescence"[Title/Abstract] AND "Shenzhen"[Title/Abstract] AND "China"[Title/Abstract]
-("posttraumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "crisis mental health services"[Title/Abstract] AND "clinically stable patients"[Title/Abstract] AND "China"[Title/Abstract]
-("psychological impact"[Title/Abstract] OR "mental health impact"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract] AND "Philippines"[Title/Abstract]
-("post-traumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19 outbreak"[Title/Abstract] AND "pooled prevalence"[Title/Abstract] AND "meta-regression"[Title/Abstract]
-("psychological distress"[Title/Abstract] OR "psychiatric symptomatology"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "predictor factors"[Title/Abstract] AND "early recovery stage"[Title/Abstract] AND "Shenzhen"[Title/Abstract] AND "China"[Title/Abstract]
-("posttraumatic stress symptoms"[Title/Abstract] OR "PTSS"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "clinically stable patients"[Title/Abstract] AND "China"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("cardiovascular presentations"[Title/Abstract] OR "cardiovascular manifestations"[Title/Abstract]) AND "coronavirus"[Title/Abstract] AND "systematic review"[Publication Type]
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "fatal outcomes"[Title/Abstract] AND "case series"[Publication Type]
-("clinical features"[Title/Abstract] OR "treatment"[Title/Abstract]) AND "COVID-19 patients"[Title/Abstract] AND "Chongqing"[Title/Abstract]
-("risk factors"[Title/Abstract] OR "mortality"[Title/Abstract]) AND "COVID-19 inpatients"[Title/Abstract] AND "Wuhan"[Title/Abstract] AND "retrospective cohort study"[Publication Type]
-("cardiac injury"[Title/Abstract] OR "myocardial injury"[Title/Abstract]) AND "fatal outcomes"[Title/Abstract] AND "COVID-19 patients"[Title/Abstract] AND "case series"[Publication Type]
-("viral shedding"[Title/Abstract] OR "prognosis"[Title/Abstract]) AND "COVID-19 survivors"[Title/Abstract] AND "duration"[Title/Abstract]
-("SARS-CoV-2"[Title/Abstract] OR "COVID-19"[Title/Abstract]) AND "ACE2 expression"[Title/Abstract] AND "heart injury"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiac injury"[Title/Abstract] AND "severe cases"[Title/Abstract] AND "pericytes"[Title/Abstract]
-("coronavirus family"[Title/Abstract] OR "coronavirus"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "acute cardiac injury"[Title/Abstract] AND "arrhythmias"[Title/Abstract]
-("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "cardiovascular complications"[Title/Abstract] AND "outcomes"[Title/Abstract] AND "meta-analysis"[Publication Type]</t>
-  </si>
-  <si>
-    <t>("COVID-19 pneumonia"[Title/Abstract] OR "COVID-19 infection"[Title/Abstract]) AND "ICU admission"[Title/Abstract] AND "systematic review"[Publication Type]
-("ICU mortality"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 pneumonia"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("clinical course"[Title/Abstract] OR "outcomes"[Title/Abstract]) AND "critically ill patients"[Title/Abstract] AND "COVID-19 pneumonia"[Title/Abstract] AND "systematic review"[Publication Type]
-("intensive care unit"[Title/Abstract] OR "ICU stay"[Title/Abstract]) AND "COVID-19 infection"[Title/Abstract] AND "mortality"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("mechanical ventilation duration"[Title/Abstract] OR "ICU stay length"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("vasopressors"[Title/Abstract] OR "renal replacement therapy"[Title/Abstract]) AND "COVID-19 ICU admission"[Title/Abstract] AND "systematic review"[Publication Type]
-("ICU mortality"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "case series"[Publication Type]
-("COVID-19 pneumonia"[Title/Abstract] OR "COVID-19 infection"[Title/Abstract]) AND "ICU outcomes"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("ICU stay duration"[Title/Abstract] OR "mechanical ventilation"[Title/Abstract]) AND "COVID-19 pneumonia outcomes"[Title/Abstract] AND "systematic review"[Publication Type]
-("vasopressors"[Title/Abstract] OR "renal replacement therapy"[Title/Abstract]) AND "COVID-19 critically ill patients"[Title/Abstract] AND "case series"[Publication Type]</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "genetic variants"[Title/Abstract] AND "host genetics"[Title/Abstract] AND "rapid review"[Publication Type]
-("COVID-19 phenotype"[Title/Abstract] OR "SARS-CoV-2 infection outcomes"[Title/Abstract]) AND "host genetic background"[Title/Abstract] AND "rapid review"[Publication Type]
-("HLA class I"[Title/Abstract] OR "HLA class II"[Title/Abstract]) AND "severe acute respiratory syndrome coronavirus infection"[Title/Abstract] AND "genetic association"[Title/Abstract]
-("ACE1 polymorphism"[Title/Abstract] OR "ACE insertion/deletion polymorphism"[Title/Abstract]) AND "SARS progression"[Title/Abstract] AND "genetic predisposition"[Title/Abstract]
-("angiotensin converting enzyme polymorphism"[Title/Abstract] OR "ACE I/D polymorphism"[Title/Abstract]) AND "adult respiratory distress syndrome"[Title/Abstract] AND "SARS coronavirus infection"[Title/Abstract]
-("OAS-1 gene polymorphism"[Title/Abstract] OR "MxA gene polymorphism"[Title/Abstract]) AND "Vietnamese SARS patients"[Title/Abstract] AND "IFN-inducible genes"[Title/Abstract]
-("mannose-binding lectin"[Title/Abstract] OR "MBL gene polymorphism"[Title/Abstract]) AND "severe acute respiratory syndrome coronavirus infection"[Title/Abstract] AND "innate immunity"[Title/Abstract]
-("serum levels of MBL"[Title/Abstract] OR "MBL deficiency"[Title/Abstract]) AND "SARS-CoV infection"[Title/Abstract] AND "host defense mechanisms"[Title/Abstract]
-("genetic susceptibility to SARS"[Title/Abstract] OR "SARS-CoV-2 genetic background"[Title/Abstract]) AND "MxA gene polymorphism"[Title/Abstract] AND "host immune response"[Title/Abstract]
-("OAS-1 gene SNP"[Title/Abstract] OR "MxA gene SNP"[Title/Abstract]) AND "SARS-CoV infection susceptibility"[Title/Abstract] AND "IFN-inducible genes polymorphism"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19 pandemic"[Title/Abstract] OR "respiratory outbreaks"[Title/Abstract]) AND "suicidal outcomes"[Title/Abstract] AND "systematic review"[Publication Type]
-("suicide during COVID-19"[Title/Abstract] OR "COVID-19 and mental health"[Title/Abstract]) AND "major respiratory outbreaks"[Title/Abstract] AND "systematic review"[Publication Type]
-("COVID-19 fear"[Title/Abstract] OR "COVID-19 xenophobia"[Title/Abstract]) AND "suicide case in India"[Title/Abstract]
-("COVID-19 suicide case"[Title/Abstract] OR "suicide prevention strategies"[Title/Abstract]) AND "Bangladesh"[Title/Abstract]
-("self-harm"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "suicidal cases in India"[Title/Abstract]
-("severe acute respiratory syndrome"[Title/Abstract] OR "SARS outbreak impact"[Title/Abstract]) AND "emergency department medical resources"[Title/Abstract]
-("SARS epidemic demographic characteristics"[Title/Abstract] OR "SARS outbreak clinical characteristics"[Title/Abstract]) AND "emergency department attendances"[Title/Abstract]
-("influenza seropositivity"[Title/Abstract] OR "coronavirus seropositivity"[Title/Abstract]) AND "mood disorders history"[Title/Abstract] AND "suicide attempts"[Title/Abstract]
-("influenza A seropositivity"[Title/Abstract] OR "influenza B seropositivity"[Title/Abstract]) AND "history of recurrent mood disorders"[Title/Abstract] AND "psychotic symptoms"[Title/Abstract]
-("coronaviruses seropositivity"[Title/Abstract] OR "mood disorders association"[Title/Abstract]) AND "bipolarity"[Title/Abstract] AND "suicidal behavior"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "solid organ transplantation"[Title/Abstract] AND "systematic review"[Publication Type]
-("COVID-19 infection"[Title/Abstract] OR "SARS-CoV-2 infection"[Title/Abstract]) AND "solid organ transplant recipients"[Title/Abstract] AND "clinical characteristics"[Title/Abstract]
-("COVID-19 pneumonia"[Title/Abstract] OR "SARS-CoV-2 pneumonia"[Title/Abstract]) AND "kidney transplant recipient"[Title/Abstract] AND "drug interaction"[Title/Abstract]
-("coronavirus disease 2019"[Title/Abstract] OR "COVID-19 pandemic"[Title/Abstract]) AND "renal transplant recipient"[Title/Abstract] AND "clinical course"[Title/Abstract]
-("SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 case report"[Title/Abstract]) AND "renai transplant recipient outcome"[Title/Abstract] AND "immunosuppressive therapy"[Title/Abstract]
-("COVID-19 clinical characteristics"[Title/Abstract] OR "SARS-CoV-2 management in transplant recipients"[Title/Abstract]) AND "solid organ transplantation recipients"[Title/Abstract] AND "clinical presentation"[Title/Abstract]
-("SARS-CoV-2 outbreak"[Title/Abstract] OR "COVID-19 pharmacological therapies"[Title/Abstract]) AND "renal transplant recipient prognosis"[Title/Abstract] AND "corticosteroid therapy"[Title/Abstract]
-("COVID-19 in solid organ transplantation"[Title/Abstract] OR "SARS-CoV-2 in transplant recipients"[Title/Abstract]) AND "patient outcome"[Title/Abstract] AND "cyclosporine monitoring"[Title/Abstract]
-("COVID-19 clinical course"[Title/Abstract] OR "SARS-CoV-2 outcome"[Title/Abstract]) AND "kidney transplant recipient therapy"[Title/Abstract] AND "tacrolimus levels"[Title/Abstract]
-("COVID-19 kidney transplant"[Title/Abstract] OR "SARS-CoV-2 renal transplant patient"[Title/Abstract]) AND "clinical management"[Title/Abstract] AND "immunosuppressive therapy impact"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("COVID-19"[Title/Abstract] OR "SARS-CoV-2"[Title/Abstract]) AND "healthcare professionals"[Title/Abstract] AND "mental health conditions"[Title/Abstract] AND "systematic review"[Publication Type]
-("COVID-19 pandemic"[Title/Abstract] OR "SARS-CoV-2 outbreak"[Title/Abstract]) AND "psychological impact"[Title/Abstract] AND "health-care workers"[Title/Abstract] AND "meta-analysis"[Publication Type]
-("mental health problems"[Title/Abstract] OR "psychological symptoms"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "healthcare workers"[Title/Abstract] AND "prevalence"[Title/Abstract]
-("depression prevalence"[Title/Abstract] OR "anxiety prevalence"[Title/Abstract]) AND "frontline healthcare workers"[Title/Abstract] AND "COVID-19 outbreak"[Title/Abstract] AND "cross-sectional study"[Publication Type]
-("sleep disturbances"[Title/Abstract] OR "insomnia prevalence"[Title/Abstract]) AND "Chinese frontline medical workers"[Title/Abstract] AND "coronavirus disease 2019"[Title/Abstract] AND "comparison study"[Publication Type]
-("psychological status"[Title/Abstract] OR "mental health state"[Title/Abstract]) AND "medical workforce during COVID-19"[Title/Abstract] AND "cross-sectional study"[Publication Type]
-("anxiety factors"[Title/Abstract] OR "depression risk factors"[Title/Abstract]) AND "health care workers in Wuhan"[Title/Abstract] AND "COVID-19 treatment"[Title/Abstract] AND "cross-sectional study"[Publication Type]
-("sleep quality assessment"[Title/Abstract] OR "sleep disturbances in healthcare workers"[Title/Abstract]) AND "coronavirus disease 2019 outbreak"[Title/Abstract] AND "Pittsburgh Sleep Quality Index"[Title/Abstract]
-("anxiety prevalence"[Title/Abstract] OR "depression prevalence"[Title/Abstract]) AND "medical staff in Hubei Province"[Title/Abstract] AND "COVID-19 pandemic"[Title/Abstract] AND "Zung Self-rating Anxiety Scale"[Title/Abstract]
-("mental health interventions"[Title/Abstract] OR "psychological support for healthcare workers"[Title/Abstract]) AND "COVID-19 mental health consequences"[Title/Abstract] AND "systematic review"[Publication Type]</t>
-  </si>
-  <si>
-    <t>("misinformation"[Title/Abstract] OR "false information"[Title/Abstract]) AND "COVID-19"[Title/Abstract] AND "social media"[Title/Abstract] AND "rapid review"[Publication Type]
-("countering misinformation"[Title/Abstract] OR "combatting COVID-19 myths"[Title/Abstract]) AND "social media"[Title/Abstract] AND "health communication"[Title/Abstract] AND "empirical study"[Publication Type]
-("COVID-19 misinformation prevalence"[Title/Abstract] OR "inaccurate information on social media"[Title/Abstract]) AND "first phase of pandemic"[Title/Abstract] AND "qualitative synthesis"[Publication Type]
-("misinformation effects on public health"[Title/Abstract] OR "infodemic impact"[Title/Abstract]) AND "COVID-19 pandemic"[Title/Abstract] AND "social media analysis"[Title/Abstract] AND "risk of bias assessment"[Title/Abstract]
-("information dissemination in pandemic"[Title/Abstract] OR "rapid communication on COVID-19"[Title/Abstract]) AND "Twitter"[Title/Abstract] AND "public health measures"[Title/Abstract] AND "content analysis"[Publication Type]
-("opinions of medical professionals on COVID-19"[Title/Abstract] OR "healthcare workers discussions on coronavirus"[Title/Abstract]) AND "Twitter social medial platform"[Title/Abstract] AND "mixed methods analysis"[Publication Type]
-("informational problems in healthcare sector"[Title/Abstract] OR "misleading data on COVID-19"[Title/Abstract]) AND "Russian healthcare system"[Title/Abstract] AND "informational crisis"[Title/Abstract] AND "content analysis of social networks"[Title/Abstract]
-("COVID-19 misinformation impact on healthcare workers"[Title/Abstract] OR "misinformation-induced fear in medical personnel"[Title/Abstract]) AND "healthcare system sustainability"[Title/Abstract] AND "Russian medical personnel survey"[Title/Abstract]
-("rapid information dissemination during pandemic"[Title/Abstract] OR "COVID-19-related queries on WhatsApp"[Title/Abstract]) AND "oncology patients"[Title/Abstract] AND "fears and actions taken"[Title/Abstract] AND "descriptive investigation"[Publication Type]
-("patients with cancer during COVID-19 pandemic"[Title/Abstract] OR "COVID-19 queries from cancer patients"[Title/Abstract]) AND "WhatsApp messenger-based survey"[Title/Abstract] AND "treatment delays"[Title/Abstract] AND "communication with oncology units"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("Chloroquine"[Title/Abstract] OR "Hydroxychloroquine"[Title/Abstract]) AND "COVID-19 treatment"[Title/Abstract] AND "mono-therapy"[Title/Abstract] AND "Azithromycin"[Title/Abstract] AND "Systematic Review"[Publication Type]
-("effectiveness of Chloroquine in COVID-19"[Title/Abstract] OR "Hydroxychloroquine safety in COVID-19"[Title/Abstract]) AND "meta-analysis of observational studies"[Title/Abstract]
-("mortality rate in COVID-19 patients"[Title/Abstract] OR "duration of hospital stay in coronavirus patients"[Title/Abstract]) AND "Chloroquine vs. Hydroxychloroquine"[Title/Abstract] AND "Azithromycin combination"[Title/Abstract]
-("virologic cure rate in COVID-19 patients"[Title/Abstract] OR "time to negative viral PCR in coronavirus patients"[Title/Abstract]) AND "Hydroxychloroquine vs. Standard care"[Title/Abstract] AND "meta-regression analysis"[Title/Abstract]
-("radiological progression in COVID-19 patients"[Title/Abstract] OR "drug side effects in coronavirus patients"[Title/Abstract]) AND "Hydroxychloroquine + Azithromycin group"[Title/Abstract] AND "clinical worsening in COVID-19 patients"[Title/Abstract]
-("observational comparative study of Hydroxychloroquine"[Title/Abstract] OR "effectiveness of Hydroxychloroquine in COVID-19 pneumonia"[Title/Abstract]) AND "routine care data analysis"[Title/Abstract]
-("hydroxychloroquine use in COVID-19 patients"[Title/Abstract] OR "mortality risk with hydroxychloroquine"[Title/Abstract]) AND "propensity score adjustment"[Title/Abstract] AND "mechanical ventilation in coronavirus patients"[Title/Abstract]
-("hydroxychloroquine and azithromycin in COVID-19 treatment"[Title/Abstract] OR "HCQ combination safety in COVID-19 patients"[Title/Abstract]) AND "retrospective study of electronic health records"[Title/Abstract]
-("chloroquine treatment in COVID-19 patients"[Title/Abstract] OR "effectiveness of HCQ+AZM in COVID-19 therapy"[Title/Abstract]) AND "follow-up of positive cases in LTCFs"[Title/Abstract] AND "SARS-CoV-2 PCR-based screening campaigns"[Title/Abstract]
-("elderly residents with SARS-CoV-2 infection"[Title/Abstract] OR "COVID-19 in long-term care facilities"[Title/Abstract]) AND "staff vs. residents comparison"[Title/Abstract] AND "results of PCR-based screening"[Title/Abstract]</t>
-  </si>
-  <si>
-    <t>("Vitamin D supplementation"[Title/Abstract] OR "serum vitamin D level"[Title/Abstract]) AND ("SARS-CoV-2 infection susceptibility"[Title/Abstract] OR "COVID-19 clinical course"[Title/Abstract])
-("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D and COVID-19 mortality"[Title/Abstract]) AND ("systematic review of vitamin D"[Title/Abstract] OR "vitamin D levels in COVID-19 patients"[Title/Abstract])
-("association between vitamin D and COVID-19 severity"[Title/Abstract] OR "vitamin D supplementation efficacy in COVID-19"[Title/Abstract]) AND ("serum vitamin D level and SARS-CoV-2 infection"[Title/Abstract])
-("vitamin D levels in patients with COVID-19"[Title/Abstract] OR "vitamin D deficiency in COVID-19 patients"[Title/Abstract]) AND ("vitamin D and COVID-19 mortality"[Title/Abstract] OR "vitamin D supplementation and COVID-19 clinical course"[Title/Abstract])
-("vitamin D and susceptibility to SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 morbidity"[Title/Abstract]) AND ("vitamin D levels in COVID-19 patients"[Title/Abstract] OR "vitamin D and COVID-19 severity"[Title/Abstract])
-("vitamin D supplementation in COVID-19"[Title/Abstract] OR "vitamin D level and COVID-19 clinical course"[Title/Abstract]) AND ("systematic review of vitamin D and SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 mortality outcomes"[Title/Abstract])
-("vitamin D and COVID-19 infection risk"[Title/Abstract] OR "vitamin D levels in COVID-19 patients"[Title/Abstract]) AND ("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D supplementation efficacy in COVID-19"[Title/Abstract])
-("association between vitamin D and SARS-CoV-2 infection"[Title/Abstract] OR "vitamin D and COVID-19 clinical course"[Title/Abstract]) AND ("vitamin D level and COVID-19 mortality"[Title/Abstract] OR "vitamin D deficiency in COVID-19 patients"[Title/Abstract])
-("vitamin D supplementation efficacy in COVID-19 patients"[Title/Abstract] OR "vitamin D and COVID-19 severity"[Title/Abstract]) AND ("systematic review of vitamin D levels and SARS-CoV-2"[Title/Abstract] OR "vitamin D and COVID-19 mortality outcomes"[Title/Abstract])
-("vitamin D and COVID-19 morbidity"[Title/Abstract] OR "vitamin D and susceptibility to SARS-CoV-2"[Title/Abstract]) AND ("serum vitamin D level in COVID-19 patients"[Title/Abstract] OR "vitamin D supplementation and COVID-19 clinical course"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("perioperative management"[Title/Abstract] OR "perioperative care"[Title/Abstract]) AND ("COVID-19"[Title/Abstract] OR "coronavirus disease 19"[Title/Abstract])
-("perioperative management guidelines"[Title/Abstract] OR "perioperative clinical outcomes"[Title/Abstract]) AND ("COVID-19 rapid review"[Title/Abstract] OR "COVID-19 literature review"[Title/Abstract])
-("perioperative management in COVID-19 patients"[Title/Abstract] OR "COVID-19 impact on surgery"[Title/Abstract]) AND ("retrospective cohort analysis"[Title/Abstract] OR "COVID-19 pandemic cohort study"[Title/Abstract])
-("perioperative care recommendations in COVID-19"[Title/Abstract] OR "COVID-19 effect on surgery outcomes"[Title/Abstract]) AND ("case reports of COVID-19 patients"[Title/Abstract] OR "COVID-19 case series"[Title/Abstract])
-("perioperative management evidence-based guidelines"[Title/Abstract] OR "COVID-19 perioperative protocols"[Title/Abstract]) AND ("Caesarean section during COVID-19 pandemic"[Title/Abstract] OR "COVID-19 maternal and neonatal outcomes"[Title/Abstract])
-("regional anesthesia in COVID-19 patients"[Title/Abstract] OR "personal protective equipment use in healthcare workers"[Title/Abstract]) AND ("COVID-19 perioperative precautions"[Title/Abstract] OR "perioperative PPE for COVID-19"[Title/Abstract])
-("perioperative management of suspected COVID-19 patients"[Title/Abstract] OR "emergency surgery in COVID-19"[Title/Abstract]) AND ("perioperative hypotension in COVID-19"[Title/Abstract] OR "COVID-19 and regional anesthesia"[Title/Abstract])
-("perioperative oxygen therapy in COVID-19 patients"[Title/Abstract] OR "COVID-19 hospital stay duration"[Title/Abstract]) AND ("neonatal outcomes in COVID-19"[Title/Abstract] OR "COVID-19 neonatal testing"[Title/Abstract])
-("level 3 PPE use perioperatively in COVID-19"[Title/Abstract] OR "COVID-19 infection in healthcare workers"[Title/Abstract]) AND ("perioperative COVID-19 transmission risk"[Title/Abstract] OR "COVID-19 perioperative safety"[Title/Abstract])
-("perioperative COVID-19 testing guidelines"[Title/Abstract] OR "COVID-19 testing before surgery"[Title/Abstract]) AND ("perioperative outcomes in COVID-19 patients"[Title/Abstract] OR "perioperative management of suspected COVID-19"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("oral manifestations in COVID-19 patients"[Title/Abstract] OR "oral signs and symptoms in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of oral manifestations in COVID-19"[Title/Abstract] OR "living systematic review of oral signs in COVID-19"[Title/Abstract])
-("oral symptoms in COVID-19 patients"[Title/Abstract] OR "oral manifestations of coronavirus infection"[Title/Abstract]) AND ("PRISMA checklist for living systematic reviews"[Title/Abstract] OR "GRADE assessment of evidence in COVID-19"[Title/Abstract])
-("Gustatory impairment in COVID-19 patients"[Title/Abstract] OR "taste disorders in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of gustatory impairment in COVID-19"[Title/Abstract] OR "oral taste disorders in COVID-19 patients"[Title/Abstract])
-("dysgeusia in COVID-19 patients"[Title/Abstract] OR "hypogeusia in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of dysgeusia in COVID-19"[Title/Abstract] OR "taste disorders association with COVID-19"[Title/Abstract])
-("ageusia in COVID-19 patients"[Title/Abstract] OR "loss of taste in coronavirus disease 2019"[Title/Abstract]) AND ("prevalence of ageusia in COVID-19"[Title/Abstract] OR "taste disorders and COVID-19 severity"[Title/Abstract])
-("oral mucosal lesions in COVID-19"[Title/Abstract] OR "mucosal involvement in coronavirus disease 2019"[Title/Abstract]) AND ("clinical aspects of oral mucosal lesions in COVID-19"[Title/Abstract] OR "oral lesions and COVID-19 progression"[Title/Abstract])
-("oral mucosal lesions in mild COVID-19 cases"[Title/Abstract] OR "oral manifestations in severe COVID-19"[Title/Abstract]) AND ("oral mucosal lesions timing in COVID-19"[Title/Abstract] OR "COVID-19 and oral health complications"[Title/Abstract])
-("COVID-19 taste disorders and gender"[Title/Abstract] OR "female patients and gustatory impairment in COVID-19"[Title/Abstract]) AND ("COVID-19 taste disorders and severity"[Title/Abstract] OR "oral manifestations in COVID-19 female patients"[Title/Abstract])
-("acute onset smell disorders in COVID-19"[Title/Abstract] OR "COVID-19 and taste disorders"[Title/Abstract]) AND ("COVID-19 smell and taste disorders prevalence"[Title/Abstract] OR "self-reported smell and taste disorders in COVID-19"[Title/Abstract])
-("recovery from COVID-19 taste disorders"[Title/Abstract] OR "taste disorders duration in COVID-19"[Title/Abstract]) AND ("COVID-19 taste disorders recovery time"[Title/Abstract] OR "taste disorders assessment in COVID-19 patients"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("efficacy of corticosteroid therapy in COVID-19 patients"[Title/Abstract] OR "corticosteroid treatment of SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review and meta-analysis of corticosteroids in COVID-19"[Title/Abstract] OR "corticosteroid therapy and COVID-19 outcome"[Title/Abstract])
-("corticosteroid therapy in severe COVID-19 patients"[Title/Abstract] OR "clinical improvement with corticosteroids in coronavirus disease 2019"[Title/Abstract]) AND ("mortality and corticosteroid treatment in COVID-19"[Title/Abstract] OR "ICU hospitalization and corticosteroid therapy in COVID-19"[Title/Abstract])
-("adverse events of corticosteroid therapy in COVID-19"[Title/Abstract] OR "safety of corticosteroids in coronavirus disease 2019"[Title/Abstract]) AND ("virus clearance time and corticosteroids in COVID-19"[Title/Abstract] OR "mechanical ventilation and corticosteroid treatment in COVID-19"[Title/Abstract])
-("duration of symptoms and corticosteroids in COVID-19"[Title/Abstract] OR "effectiveness of corticosteroid therapy in COVID-19 patients"[Title/Abstract]) AND ("low quality of evidence for corticosteroid treatment in COVID-19"[Title/Abstract] OR "GRADE approach for corticosteroid efficacy in COVID-19"[Title/Abstract])
-("early corticosteroid therapy in moderate to severe COVID-19 patients"[Title/Abstract] OR "methylprednisolone treatment for coronavirus disease 2019"[Title/Abstract]) AND ("clinical outcomes with early corticosteroid in COVID-19"[Title/Abstract] OR "mechanical ventilation reduction with early corticosteroids"[Title/Abstract])
-("viral clearance and corticosteroid therapy in COVID-19"[Title/Abstract] OR "effect of corticosteroids on viral RNA in SARS-CoV-2 patients"[Title/Abstract]) AND ("glucocorticoid treatment and viral clearance in COVID-19 patients"[Title/Abstract] OR "CD4+ T lymphocytes and viral RNA clearance in COVID-19"[Title/Abstract])
-("corticosteroid treatment in convalescent COVID-19 patients"[Title/Abstract] OR "viral RNA clearance in post-recovery COVID-19 patients"[Title/Abstract]) AND ("viral RNA detection in feces during COVID-19 convalescence"[Title/Abstract] OR "glucocorticoid therapy and COVID-19 treatment outcome"[Title/Abstract])
-("efficacy of low-dose corticosteroid therapy in COVID-19"[Title/Abstract] OR "viral clearance and low-dose corticosteroids in COVID-19 patients"[Title/Abstract]) AND ("host cell immunity and duration of RNA detection in COVID-19"[Title/Abstract] OR "inflammatory indicators and viral RNA clearance in COVID-19 patients"[Title/Abstract])
-("retrospective cohort study on corticosteroid therapy in COVID-19"[Title/Abstract] OR "case studies on corticosteroid treatment and COVID-19"[Title/Abstract]) AND ("clinical recovery and corticosteroid therapy in COVID-19"[Title/Abstract] OR "length of ICU hospitalization with corticosteroids in COVID-19"[Title/Abstract])
-("adjuvant corticosteroid therapy in critically ill COVID-19 patients"[Title/Abstract] OR "use of corticosteroids in severe coronavirus disease 2019"[Title/Abstract]) AND ("effect of corticosteroid treatment on COVID-19 outcome"[Title/Abstract] OR "corticosteroids and critically ill COVID-19 patients"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("olfactory and gustatory dysfunctions in COVID-19"[Title/Abstract] OR "anosmia and ageusia in coronavirus disease 2019"[Title/Abstract]) AND ("systematic review and meta-analysis of olfactory and gustatory impairments"[Title/Abstract] OR "olfactory and gustatory symptoms in SARS-CoV-2 infection"[Title/Abstract])
-("self-reported olfactory loss in COVID-19"[Title/Abstract] OR "outpatient clinical course and anosmia in coronavirus disease 2019"[Title/Abstract]) AND ("clinical outcomes with olfactory impairment in COVID-19"[Title/Abstract] OR "predictors of hospital admission in anosmic COVID-19 patients"[Title/Abstract])
-("new-onset smell and taste disorders in COVID-19 patients"[Title/Abstract] OR "COVID-19 and influenza patients with smell and taste impairments"[Title/Abstract]) AND ("acute onset olfactory and gustatory dysfunctions"[Title/Abstract] OR "initial manifestation of anosmia and ageusia in COVID-19"[Title/Abstract])
-("hyposmia and hypogeusia for COVID-19 diagnosis"[Title/Abstract] OR "olfactory and gustatory tests as diagnostic indicators in SARS-CoV-2 infection"[Title/Abstract]) AND ("utility of anosmia and ageusia in COVID-19 detection"[Title/Abstract] OR "olfactory and gustatory symptoms as COVID-19 markers"[Title/Abstract])
-("self-reported olfactory and taste disorders in severe COVID-19 patients"[Title/Abstract] OR "olfactory impairment and clinical course in severe coronavirus disease 2019"[Title/Abstract]) AND ("respiratory failure and anosmia in COVID-19"[Title/Abstract] OR "chest radiograph findings and hospital admission in anosmic patients"[Title/Abstract])
-("prevalence and features of anosmia in COVID-19 patients"[Title/Abstract] OR "anosmia and ageusia in patients with SARS-CoV-2 infection"[Title/Abstract]) AND ("COVID-19 and olfactory impairment characteristics"[Title/Abstract] OR "duration of anosmia and gustatory dysfunction in coronavirus disease 2019"[Title/Abstract])
-("olfactory and taste disorders in COVID-19 patients: a cross-sectional study"[Title/Abstract] OR "features of anosmia in patients with SARS-CoV-2 infection"[Title/Abstract]) AND ("COVID-19 and prevalence of anosmia and ageusia"[Title/Abstract] OR "characteristics of anosmia in European COVID-19 patients"[Title/Abstract])
-("anosmia prevalence in confirmed COVID-19 cases"[Title/Abstract] OR "olfactory and gustatory symptoms in SARS-CoV-2 positive patients"[Title/Abstract]) AND ("COVID-19 and dysgeusia association"[Title/Abstract] OR "anosmia duration and recovery in coronavirus disease 2019 patients"[Title/Abstract])
-("self-reported smell and taste impairments in COVID-19 patients"[Title/Abstract] OR "COVID-19 and anosmia characteristics"[Title/Abstract]) AND ("European COVID-19 patients with anosmia and dysgeusia"[Title/Abstract] OR "pneumonia and olfactory impairment in coronavirus disease 2019"[Title/Abstract])
-("COVID-19 and smell and taste disorders"[Title/Abstract] OR "olfactory and gustatory dysfunctions in SARS-CoV-2 patients"[Title/Abstract]) AND ("duration of anosmia and taste dysfunction in COVID-19"[Title/Abstract] OR "COVID-19 and recovery from anosmia and ageusia"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("prevalence of positive SARS-CoV-2 recurrence in COVID-19 patients"[Title/Abstract] OR "incidence of re-detectable SARS-CoV-2 RNA after COVID-19 recovery"[Title/Abstract]) AND ("systematic review and meta-analysis of recurrent COVID-19"[Title/Abstract] OR "factors associated with SARS-CoV-2 RNA positivity after COVID-19 discharge"[Title/Abstract])
-("clinical characteristics of recovered COVID-19 patients with positive RNA test"[Title/Abstract] OR "re-detectable positive SARS-CoV-2 in discharged COVID-19 patients"[Title/Abstract]) AND ("characterization at re-admission of patients with recurrent SARS-CoV-2"[Title/Abstract] OR "potential cause of positive COVID-19 diagnoses in recovered patients"[Title/Abstract])
-("clinical course and risk factors for recurrence of positive SARS-CoV-2 RNA"[Title/Abstract] OR "recurrent SARS-CoV-2 positivity in COVID-19 patients from Wuhan"[Title/Abstract]) AND ("retrospective cohort study on re-detectable SARS-CoV-2 RNA"[Title/Abstract] OR "risk factors for SARS-CoV-2 RNA positivity after COVID-19 recovery"[Title/Abstract])
-("impact of COVID-19 nonpharmaceutical interventions on influenza"[Title/Abstract] OR "reduction of respiratory viral infections during COVID-19 pandemic"[Title/Abstract]) AND ("surveillance of influenza and respiratory viral infections in New Zealand"[Title/Abstract] OR "parallel reduction of respiratory viral infections during pandemic"[Title/Abstract])
-("predictive diagnosis of chronic obstructive pulmonary disease using serum metabolic biomarkers"[Title/Abstract] OR "serum metabolic features in COPD patients"[Title/Abstract]) AND ("biofluid-based biomarkers for COPD diagnosis"[Title/Abstract] OR "least-squares support vector machine for COPD prediction"[Title/Abstract])
-("incidence and characteristics of recurrent SARS-CoV-2 RNA in COVID-19 patients"[Title/Abstract] OR "prevalence of re-detectable SARS-CoV-2 in COVID-19 recovery"[Title/Abstract]) AND ("meta-analysis of SARS-CoV-2 RNA positivity after COVID-19"[Title/Abstract] OR "factors associated with recurrent SARS-CoV-2 in discharged patients"[Title/Abstract])
-("characterization of patients with re-detectable positive SARS-CoV-2"[Title/Abstract] OR "mild and moderate COVID-19 patients with recurrent RNA positivity"[Title/Abstract]) AND ("plasma antibody levels and symptoms in COVID-19 recovery"[Title/Abstract] OR "no severe cases among patients with re-detectable SARS-CoV-2"[Title/Abstract])
-("risk factors for SARS-CoV-2 RNA recurrence in discharged COVID-19 patients"[Title/Abstract] OR "duration from illness onset to recurrent SARS-CoV-2 RNA"[Title/Abstract]) AND ("multivariate regression analysis of COVID-19 recurrence risk factors"[Title/Abstract] OR "immune response and virus toxicity in recurrent SARS-CoV-2"[Title/Abstract])
-("potential carriers of SARS-CoV-2 after recovery from COVID-19"[Title/Abstract] OR "viral RNA detection in recovered COVID-19 patients"[Title/Abstract]) AND ("asymptomatic COVID-19 carriers post-discharge"[Title/Abstract] OR "close contacts of patients with re-detectable SARS-CoV-2"[Title/Abstract])
-("monitoring re-detectable SARS-CoV-2 RNA in convalescent COVID-19 patients"[Title/Abstract] OR "management of COVID-19 patients with recurrent RNA positivity"[Title/Abstract]) AND ("more sensitive RNA detection methods for COVID-19 patients"[Title/Abstract] OR "observational measures for patients with recurrent SARS-CoV-2"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("Echinacea for prevention of COVID-19"[Title/Abstract] OR "Echinacea for treatment of respiratory tract infections"[Title/Abstract]) AND ("rapid review of Echinacea in humans"[Title/Abstract] OR "meta-analysis of Echinacea in respiratory infections"[Title/Abstract])
-("effectiveness of Echinacea supplementation in respiratory tract infections"[Title/Abstract] OR "efficacy and safety of Echinacea in COVID-19 prevention"[Title/Abstract]) AND ("double-blind placebo-controlled trial of Echinacea"[Title/Abstract] OR "randomized clinical trial of Echinacea for respiratory symptoms"[Title/Abstract])
-("Echinacea supplementation and duration of acute respiratory infections"[Title/Abstract] OR "Echinacea for common cold symptoms in humans"[Title/Abstract]) AND ("preventive efficacy of Echinacea in respiratory infections"[Title/Abstract] OR "Echinacea supplementation for acute respiratory tract infections"[Title/Abstract])
-("safety profile of Echinacea purpurea in respiratory infections"[Title/Abstract] OR "adverse events from Echinacea supplementation in humans"[Title/Abstract]) AND ("risk-benefit analysis of Echinacea in COVID-19"[Title/Abstract] OR "Echinacea in the prevention of common cold episodes"[Title/Abstract])
-("Echinacea for COVID-19 treatment and immune function"[Title/Abstract] OR "effects of Echinacea on immune system activation"[Title/Abstract]) AND ("cytokine storm and Echinacea supplementation in humans"[Title/Abstract] OR "Echinacea and immune molecules in respiratory infections"[Title/Abstract])
-("therapeutic effects of Echinacea in cytokine storm"[Title/Abstract] OR "Echinacea for management of cytokine storm in COVID-19"[Title/Abstract]) AND ("human trials of Echinacea on cytokine levels"[Title/Abstract] OR "Echinacea and cytokine storm in acute respiratory distress syndrome"[Title/Abstract])
-("prophylactic treatment with Echinacea purpurea in upper respiratory tract infections"[Title/Abstract] OR "Echinacea for prevention of cold episodes in humans"[Title/Abstract]) AND ("randomized clinical trial of Echinacea in respiratory symptoms"[Title/Abstract] OR "preventive efficacy of Echinacea in common cold"[Title/Abstract])
-("efficacy of Echinacea purpurea extract in common cold prevention"[Title/Abstract] OR "Echinacea for reducing cold episodes and pain-medication use"[Title/Abstract]) AND ("preventive effects of Echinacea on virally confirmed colds"[Title/Abstract] OR "Echinacea and recurrent infections in respiratory tract"[Title/Abstract])
-("risk to benefit ratio of Echinacea supplementation in humans"[Title/Abstract] OR "prophylactic intake of Echinacea in respiratory infections"[Title/Abstract]) AND ("positive effects of Echinacea on preventive therapy compliance"[Title/Abstract] OR "compliant prophylactic intake of Echinacea for 4-month period"[Title/Abstract])
-("Echinacea for prevention of respiratory symptoms during travel"[Title/Abstract] OR "efficacy of Echinacea tablets on long-haul flight-related symptoms"[Title/Abstract]) AND ("standardized Echinacea formulation and upper respiratory symptoms"[Title/Abstract] OR "Echinacea and prevention of long-haul flight respiratory issues"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("population testing for SARS-CoV-2 implementation experiences"[Title/Abstract] OR "implementing drive-through, walk-through, and home visiting testing programs for COVID-19"[Title/Abstract]) AND ("scoping review of population testing for SARS-CoV-2"[Title/Abstract] OR "literature overview of COVID-19 testing modalities"[Title/Abstract])
-("early experiences of off-site COVID-19 testing centers"[Title/Abstract] OR "considerations for off-site COVID-19 testing centers"[Title/Abstract]) AND ("challenges in setting up off-site COVID-19 testing centers"[Title/Abstract] OR "guidance for healthcare organizations on off-site testing"[Title/Abstract])
-("feasibility of high-throughput SARS-CoV-2 testing"[Title/Abstract] OR "PCR and antibody testing for entire rural community"[Title/Abstract]) AND ("high-volume comprehensive testing in non-urban areas"[Title/Abstract] OR "efficiency of community-led drive-through testing"[Title/Abstract])
-("drive-through system and conventional screening for SARS-CoV-2"[Title/Abstract] OR "efficiency of drive-through screening during COVID-19 outbreak"[Title/Abstract]) AND ("comparison of DT and conventional screening systems"[Title/Abstract] OR "number of tests using drive-through system"[Title/Abstract])
-("drive-through COVID-19 testing for pediatric patients"[Title/Abstract] OR "safe and efficient model for pediatric COVID-19 testing"[Title/Abstract]) AND ("scalable drive-through testing for health care workers"[Title/Abstract] OR "efficiency of drive-through testing during pandemic"[Title/Abstract])
-("efficacy of population testing for COVID-19"[Title/Abstract] OR "experience of drive-through testing for SARS-CoV-2"[Title/Abstract]) AND ("evaluation of testing modalities for COVID-19"[Title/Abstract] OR "advantages and limitations of population testing"[Title/Abstract])
-("implementation of population testing for COVID-19"[Title/Abstract] OR "COVID-19 testing modalities and resource outcomes"[Title/Abstract]) AND ("high quality studies on population testing for SARS-CoV-2"[Title/Abstract] OR "evidence base for COVID-19 testing strategies"[Title/Abstract])
-("literature review of COVID-19 testing experiences"[Title/Abstract] OR "process indicators for SARS-CoV-2 testing modalities"[Title/Abstract]) AND ("quality outcomes of population testing for COVID-19"[Title/Abstract] OR "resource outcomes of drive-through testing"[Title/Abstract])
-("COVID-19 pandemic and drive-through testing programs"[Title/Abstract] OR "home visiting programs for SARS-CoV-2 testing"[Title/Abstract]) AND ("overview of testing modalities for COVID-19"[Title/Abstract] OR "literature on population testing implementation"[Title/Abstract])
-("grey literature search on population testing for SARS-CoV-2"[Title/Abstract] OR "indicators of process, quality, and resource outcomes in population testing"[Title/Abstract]) AND ("evaluation of different testing modalities for COVID-19"[Title/Abstract] OR "literature on implementing drive-through testing for COVID-19"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("D-dimer levels on admission"[Title/Abstract] OR "on-admission D-dimer levels and COVID-19 mortality"[Title/Abstract]) AND ("systematic review of D-dimer levels and COVID-19 mortality"[Title/Abstract] OR "association between D-dimer levels and all-cause mortality in COVID-19 patients"[Title/Abstract])
-("COVID-19 in-hospital mortality risk"[Title/Abstract] OR "predictors of mortality in COVID-19 patients"[Title/Abstract]) AND ("meta-analysis of D-dimer levels and mortality in COVID-19"[Title/Abstract] OR "pooled risk ratio for all-cause mortality in COVID-19 patients"[Title/Abstract])
-("elevated D-dimer levels and COVID-19 mortality"[Title/Abstract] OR "D-dimer cutoff value for predicting COVID-19 mortality"[Title/Abstract]) AND ("retrospective cohort study on D-dimer and COVID-19 in-hospital death"[Title/Abstract] OR "predictive value of D-dimer level in COVID-19 patients"[Title/Abstract])
-("COVID-19 mortality and D-dimer levels on admission"[Title/Abstract] OR "prognostic role of on-admission D-dimer levels in COVID-19"[Title/Abstract]) AND ("D-dimer as a biomarker for COVID-19 mortality"[Title/Abstract] OR "risk factors for COVID-19 death and D-dimer level"[Title/Abstract])
-("D-dimer levels on admission and COVID-19 patient outcomes"[Title/Abstract] OR "association between D-dimer and all-cause mortality in COVID-19"[Title/Abstract]) AND ("multivariable analysis of D-dimer and COVID-19 mortality risk"[Title/Abstract] OR "Chinese and non-Chinese studies on D-dimer and COVID-19 mortality"[Title/Abstract])
-("clinical course and risk factors for COVID-19 mortality"[Title/Abstract] OR "predictors of in-hospital death in COVID-19 patients"[Title/Abstract]) AND ("detailed clinical course of COVID-19 patients"[Title/Abstract] OR "risk factors associated with COVID-19 death"[Title/Abstract])
-("D-dimer levels as predictor of COVID-19 in-hospital mortality"[Title/Abstract] OR "early and effective predictors of COVID-19 outcomes"[Title/Abstract]) AND ("prospective cohort study on predictors of COVID-19 mortality"[Title/Abstract] OR "retrospective analysis of COVID-19 patients and death events"[Title/Abstract])
-("D-dimer level cutoff for predicting COVID-19 mortality"[Title/Abstract] OR "in-hospital mortality risk in patients with elevated D-dimer"[Title/Abstract]) AND ("sensitivity and specificity of D-dimer in predicting COVID-19 death"[Title/Abstract] OR "hazard ratio for in-hospital death and D-dimer level"[Title/Abstract])
-("COVID-19 and D-dimer levels on admission"[Title/Abstract] OR "prognostic value of elevated D-dimer in COVID-19"[Title/Abstract]) AND ("early and helpful marker for COVID-19 management"[Title/Abstract] OR "early identification of poor prognosis in COVID-19 patients"[Title/Abstract])
-("d-dimer greater than 2.0 µg/mL and COVID-19 mortality"[Title/Abstract] OR "fourfold increase in D-dimer and in-hospital mortality in COVID-19"[Title/Abstract]) AND ("predictive value of D-dimer in COVID-19 patients"[Title/Abstract] OR "early marker to improve COVID-19 patient management"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("smoking and COVID-19 disease progression"[Title/Abstract] OR "association between smoking and COVID-19 progression"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 disease progression"[Title/Abstract] OR "risk factors for COVID-19 progression in smokers"[Title/Abstract])
-("smoking behavior of COVID-19 patients"[Title/Abstract] OR "history of smoking and COVID-19 progression"[Title/Abstract]) AND ("progression of COVID-19 in smokers"[Title/Abstract] OR "relationship between smoking and COVID-19 severity"[Title/Abstract])
-("association between smoking and severe COVID-19 disease"[Title/Abstract] OR "odds of COVID-19 progression in smokers"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 severity"[Title/Abstract] OR "effect of smoking on COVID-19 outcomes"[Title/Abstract])
-("COVID-19 disease progression in smokers"[Title/Abstract] OR "risk of COVID-19 progression in smokers"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 risk"[Title/Abstract] OR "association between smoking and COVID-19 outcome"[Title/Abstract])
-("history of smoking and COVID-19 disease progression"[Title/Abstract] OR "smoking as a risk factor for COVID-19 progression"[Title/Abstract]) AND ("association between smoking and COVID-19 prognosis"[Title/Abstract] OR "meta-analysis of smoking and COVID-19 prognosis"[Title/Abstract])
-("smoking and COVID-19 outcome"[Title/Abstract] OR "risk of COVID-19 progression in smokers"[Title/Abstract]) AND ("smoking behavior and COVID-19 severity"[Title/Abstract] OR "association between smoking and COVID-19 complications"[Title/Abstract])
-("COVID-19 progression in smokers"[Title/Abstract] OR "relationship between smoking and severe COVID-19 outcomes"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 complications"[Title/Abstract] OR "smoking as a risk factor for severe COVID-19"[Title/Abstract])
-("smoking and COVID-19 prognosis"[Title/Abstract] OR "progression of COVID-19 in smokers"[Title/Abstract]) AND ("effect of smoking on COVID-19 outcomes"[Title/Abstract] OR "association between smoking and COVID-19 mortality"[Title/Abstract])
-("history of smoking and COVID-19 risk"[Title/Abstract] OR "smoking behavior and COVID-19 severity"[Title/Abstract]) AND ("meta-analysis of smoking and COVID-19 mortality risk"[Title/Abstract] OR "relationship between smoking and COVID-19 mortality"[Title/Abstract])
-("COVID-19 disease progression and smoking history"[Title/Abstract] OR "association between smoking and COVID-19 patient outcomes"[Title/Abstract]) AND ("effect of smoking on COVID-19 progression"[Title/Abstract] OR "meta-analysis of smoking and COVID-19 patient outcomes"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("prevalence of anxiety and depression during COVID-19 pandemic"[Title/Abstract] OR "psychological morbidity during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for anxiety and depression during COVID-19 pandemic"[Title/Abstract] OR "strategies to address anxiety and depression during COVID-19 pandemic"[Title/Abstract])
-("COVID-related fear prevalence during pandemic"[Title/Abstract] OR "fear of disease during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for COVID-related fear"[Title/Abstract] OR "strategies to address fear during COVID-19 pandemic"[Title/Abstract])
-("psychological well-being during COVID-19 pandemic"[Title/Abstract] OR "impact of COVID-19 on mental health"[Title/Abstract]) AND ("risk factors for psychological morbidity during COVID-19 pandemic"[Title/Abstract] OR "protective factors for mental health during COVID-19 pandemic"[Title/Abstract])
-("anxiety prevalence during COVID-19 pandemic"[Title/Abstract] OR "depression prevalence during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for anxiety and depression in specific populations"[Title/Abstract] OR "interventions for anxiety and depression during COVID-19 pandemic"[Title/Abstract])
-("COVID-19 pandemic" AND "psychological well-being" AND "PRISMA systematic review"[Title/Abstract])
-("psychological morbidity in health professionals during COVID-19 pandemic"[Title/Abstract] OR "burnout frequency in healthcare workers during COVID-19 pandemic"[Title/Abstract]) AND ("impact of COVID-19 on health professionals"[Title/Abstract] OR "strategies to address burnout in healthcare workers during COVID-19 pandemic"[Title/Abstract])
-("prevalence of psychological distress during COVID-19 pandemic"[Title/Abstract] OR "coping styles during COVID-19 pandemic"[Title/Abstract]) AND ("factors associated with psychological distress in COVID-19 pandemic"[Title/Abstract] OR "strategies to cope with mental health issues during COVID-19 pandemic"[Title/Abstract])
-("impact of COVID-19 on mental health in Chinese population"[Title/Abstract] OR "mental health consequences in China during COVID-19 pandemic"[Title/Abstract]) AND ("risk factors for mental health issues in Chinese population during COVID-19 pandemic"[Title/Abstract] OR "interventions for mental health in Chinese population during COVID-19 pandemic"[Title/Abstract])
-("comparison of burnout in frontline and usual ward healthcare workers during COVID-19 pandemic"[Title/Abstract] OR "burnout frequency in Wuhan healthcare workers during COVID-19 pandemic"[Title/Abstract]) AND ("impact of COVID-19 on frontline healthcare workers"[Title/Abstract] OR "strategies to support mental health of healthcare workers during COVID-19 pandemic"[Title/Abstract])
-("COVID-19 impact on mental health and quality of life"[Title/Abstract] OR "psychological impact of COVID-19 in Liaoning Province, China"[Title/Abstract]) AND ("factors influencing mental health in Chinese residents during COVID-19 pandemic"[Title/Abstract] OR "strategies to improve mental health in Chinese population during COVID-19 pandemic"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("SARS-CoV-2 prevalence in homeless shelters"[Title/Abstract] OR "COVID-19 transmission in homeless shelters"[Title/Abstract]) AND ("health-related outcomes in homeless shelters during COVID-19 pandemic"[Title/Abstract] OR "non-pharmaceutical interventions in homeless shelters"[Title/Abstract])
-("effectiveness of infection prevention and control strategies in homeless shelters"[Title/Abstract] OR "COVID-19 control measures in homeless shelters"[Title/Abstract]) AND ("meta-analysis of SARS-CoV-2 prevalence in homeless shelters"[Title/Abstract] OR "systematic review of COVID-19 transmission in homeless shelters"[Title/Abstract])
-("risk factors for SARS-CoV-2 infection in homeless shelters"[Title/Abstract] OR "COVID-19 risk factors in homeless populations"[Title/Abstract]) AND ("health outcomes of COVID-19 in homeless shelters' staff"[Title/Abstract] OR "non-pharmaceutical interventions' impact in homeless shelters during COVID-19 pandemic"[Title/Abstract])
-("prevalence of SARS-CoV-2 in people experiencing homelessness"[Title/Abstract] OR "COVID-19 transmission risk in homeless shelters"[Title/Abstract]) AND ("effectiveness of infection prevention measures in shelters for homeless individuals"[Title/Abstract] OR "health-related consequences of COVID-19 in homeless populations"[Title/Abstract])
-("systematic review and meta-analysis of COVID-19 prevalence in homeless shelters"[Title/Abstract] OR "SARS-CoV-2 transmission in shelters for people experiencing homelessness"[Title/Abstract]) AND ("control strategies for COVID-19 in homeless populations"[Title/Abstract] OR "non-pharmaceutical interventions' effectiveness in homeless shelters"[Title/Abstract])
-("risk factors for COVID-19 infection in homeless individuals"[Title/Abstract] OR "prevalence of SARS-CoV-2 in shelters for homeless people"[Title/Abstract]) AND ("health outcomes of COVID-19 in homeless populations"[Title/Abstract] OR "impact of non-pharmaceutical interventions in shelters for people experiencing homelessness"[Title/Abstract])
-("COVID-19 in homeless shelters: systematic review and meta-analysis"[Title/Abstract] OR "prevalence of SARS-CoV-2 in shelters for homeless populations"[Title/Abstract]) AND ("effectiveness of infection control strategies in homeless shelters"[Title/Abstract] OR "non-pharmaceutical interventions' outcomes in homeless populations during COVID-19 pandemic"[Title/Abstract])
-("transmission of SARS-CoV-2 in homeless shelters"[Title/Abstract] OR "COVID-19 prevalence in shelters for people experiencing homelessness"[Title/Abstract]) AND ("health-related consequences of COVID-19 in homeless individuals"[Title/Abstract] OR "non-pharmaceutical interventions in shelters for homeless during COVID-19 pandemic"[Title/Abstract])
-("health outcomes of COVID-19 in homeless shelters' staff"[Title/Abstract] OR "COVID-19 risk factors in homeless individuals"[Title/Abstract]) AND ("effectiveness of infection prevention and control measures in shelters for homeless people"[Title/Abstract] OR "impact of non-pharmaceutical interventions on COVID-19 transmission in homeless shelters"[Title/Abstract])
-("meta-analysis of SARS-CoV-2 prevalence in homeless shelters during COVID-19 pandemic"[Title/Abstract] OR "systematic review of COVID-19 transmission in shelters for homeless individuals"[Title/Abstract]) AND ("health-related outcomes in homeless populations"[Title/Abstract] OR "effectiveness of infection control strategies in homeless shelters during COVID-19 pandemic"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("Host genetic variants associated with COVID-19 prognosis"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review and meta-analysis of COVID-19 host genetic variants"[Title/Abstract] OR "genetic association studies in COVID-19 patients"[Title/Abstract])
-("genetic factors influencing COVID-19 severity"[Title/Abstract] OR "host genetic markers for COVID-19 prognosis"[Title/Abstract]) AND ("meta-analysis of genetic association studies in COVID-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
-("genetic association studies in Covid-19 outcome"[Title/Abstract] OR "host genetic variants and Covid-19 prognosis"[Title/Abstract]) AND ("meta-analysis of genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "systematic review of genetic markers in Covid-19"[Title/Abstract])
-("host genetic factors affecting Covid-19 severity"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19"[Title/Abstract] OR "meta-analysis of Covid-19 host genetic variants"[Title/Abstract])
-("genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "host genetic markers for Covid-19 prognosis"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19 patients"[Title/Abstract] OR "meta-analysis of Covid-19 genetic variants"[Title/Abstract])
-("genetic association studies in Covid-19 susceptibility"[Title/Abstract] OR "host genetic factors affecting Covid-19 outcome"[Title/Abstract]) AND ("meta-analysis of host genetic variants in Covid-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract])
-("genetic markers for Covid-19 prognosis"[Title/Abstract] OR "genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract]) AND ("meta-analysis of genetic association studies in Covid-19 patients"[Title/Abstract] OR "systematic review of Covid-19 host genetic variants"[Title/Abstract])
-("genetic association studies in Covid-19 outcome"[Title/Abstract] OR "host genetic factors influencing Covid-19 severity"[Title/Abstract]) AND ("systematic review of Covid-19 genetic variants"[Title/Abstract] OR "meta-analysis of genetic susceptibility to SARS-CoV-2"[Title/Abstract])
-("genetic susceptibility to SARS-CoV-2 infection"[Title/Abstract] OR "host genetic markers for Covid-19 prognosis"[Title/Abstract]) AND ("systematic review of genetic association studies in Covid-19 outcome"[Title/Abstract] OR "meta-analysis of Covid-19 genetic variants"[Title/Abstract])
-("genetic association studies in Covid-19 susceptibility"[Title/Abstract] OR "host genetic factors affecting Covid-19 prognosis"[Title/Abstract]) AND ("meta-analysis of host genetic variants in Covid-19"[Title/Abstract] OR "systematic review of genetic susceptibility to SARS-CoV-2"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("prevalence of depression in health care workers"[Title/Abstract] OR "meta-analysis of anxiety among health care workers during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review of mental health in health care professionals during COVID-19"[Title/Abstract] OR "prevalence of PTSD in health care workers during pandemic"[Title/Abstract])
-("mental health outcomes in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of depression, anxiety, and PTSD in health care professionals"[Title/Abstract]) AND ("systematic review of mental health prevalence among health care workers"[Title/Abstract] OR "prevalence of mental disorders in COVID-19 health care workers"[Title/Abstract])
-("depression, anxiety, and PTSD in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of mental health prevalence in health care professionals"[Title/Abstract]) AND ("systematic review of mental health outcomes among health care workers"[Title/Abstract] OR "prevalence of mental disorders in COVID-19 frontline workers"[Title/Abstract])
-("prevalence of depression among health care workers during COVID-19"[Title/Abstract] OR "meta-analysis of anxiety in health care professionals during pandemic"[Title/Abstract]) AND ("systematic review of PTSD in health care workers during COVID-19"[Title/Abstract] OR "mental health outcomes in COVID-19 health care workers"[Title/Abstract])
-("systematic review and meta-analysis of mental health in health care workers during COVID-19"[Title/Abstract] OR "prevalence of anxiety and PTSD in health care professionals"[Title/Abstract]) AND ("depression prevalence in COVID-19 health care workers"[Title/Abstract] OR "mental health outcomes during pandemic in health care workers"[Title/Abstract])
-("prevalence of depression and anxiety in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of PTSD in COVID-19 health care workers"[Title/Abstract]) AND ("systematic review of mental health outcomes in health care professionals"[Title/Abstract] OR "prevalence of mental disorders in frontline health care workers"[Title/Abstract])
-("prevalence of depression, anxiety, and PTSD in health care workers during COVID-19"[Title/Abstract] OR "meta-analysis of mental health outcomes in health care professionals"[Title/Abstract]) AND ("systematic review of mental health prevalence during COVID-19 pandemic"[Title/Abstract] OR "prevalence of mental disorders in health care workers"[Title/Abstract])
-("meta-analysis of depression, anxiety, and PTSD prevalence in health care workers"[Title/Abstract] OR "prevalence of mental health outcomes in health care professionals during COVID-19 pandemic"[Title/Abstract]) AND ("systematic review of mental disorders in COVID-19 health care workers"[Title/Abstract] OR "prevalence of depression among frontline health care workers"[Title/Abstract])
-("prevalence of depression, anxiety, and PTSD in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of mental health outcomes in health care professionals"[Title/Abstract]) AND ("systematic review of mental disorders in health care workers during pandemic"[Title/Abstract] OR "prevalence of mental health conditions in COVID-19 health care workers"[Title/Abstract])
-("prevalence of depression and anxiety in health care workers during COVID-19 pandemic"[Title/Abstract] OR "meta-analysis of PTSD in health care professionals during pandemic"[Title/Abstract]) AND ("systematic review of mental health outcomes in health care workers during COVID-19"[Title/Abstract] OR "prevalence of mental disorders in frontline health care workers"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("betacoronaviruses transmission in humans"[Title/Abstract] OR "rapid systematic review of COVID-19 transmission"[Title/Abstract]) AND ("evidence-based recommendations for infection spread prevention"[Title/Abstract] OR "healthcare settings transmission prevention strategies"[Title/Abstract])
-("COVID-19 vertical transmission in pregnant women"[Title/Abstract] OR "in utero infection risk for neonates"[Title/Abstract]) AND ("severe COVID-19 cases during pregnancy"[Title/Abstract] OR "coronavirus infection in pregnancy outcomes"[Title/Abstract])
-("cluster of COVID-19 cases associated with shopping mall"[Title/Abstract] OR "indirect virus transmission in Wenzhou, China"[Title/Abstract]) AND ("coronavirus transmission from common objects"[Title/Abstract] OR "asymptomatic carriers virus spread"[Title/Abstract])
-("family cluster of pneumonia caused by novel coronavirus"[Title/Abstract] OR "person-to-person transmission of COVID-19 in families"[Title/Abstract]) AND ("coronavirus infection in family settings"[Title/Abstract] OR "nosocomial transmission of SARS-CoV-2"[Title/Abstract])
-("clinical characteristics of COVID-19 in pregnancy"[Title/Abstract] OR "intrauterine transmission potential of COVID-19"[Title/Abstract]) AND ("laboratory-confirmed COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "vertical transmission risk in pregnant COVID-19 patients"[Title/Abstract])
-("COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "retrospective review of COVID-19 medical records"[Title/Abstract]) AND ("intrauterine vertical transmission of SARS-CoV-2"[Title/Abstract] OR "infection potential in amniotic fluid and cord blood"[Title/Abstract])
-("clinical characteristics of COVID-19 in pregnancy"[Title/Abstract] OR "intrauterine transmission potential of COVID-19"[Title/Abstract]) AND ("amniotic fluid and cord blood testing for SARS-CoV-2"[Title/Abstract] OR "breastmilk samples testing in COVID-19 patients"[Title/Abstract])
-("vertical transmission risk in COVID-19 pregnant women"[Title/Abstract] OR "absence of intrauterine COVID-19 infection"[Title/Abstract]) AND ("pneumonia outcomes in late pregnancy"[Title/Abstract] OR "Apgar score in newborns with COVID-19 mothers"[Title/Abstract])
-("non-severe COVID-19 pneumonia in pregnant women"[Title/Abstract] OR "clinical characteristics of COVID-19 pneumonia"[Title/Abstract]) AND ("absence of intrauterine vertical transmission"[Title/Abstract] OR "vertical transmission potential in COVID-19 pregnancies"[Title/Abstract])
-("coronavirus transmission prevention strategies"[Title/Abstract] OR "COVID-19 infection control measures"[Title/Abstract]) AND ("rapid systematic review of transmission in humans"[Title/Abstract] OR "betacoronaviruses transmission literature review"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("COVID-19 ICU patient characteristics"[Title/Abstract] OR "mechanical ventilation rates in COVID-19 patients"[Title/Abstract]) AND ("clinical outcomes and regional differences"[Title/Abstract] OR "ICU resource planning and mortality risk"[Title/Abstract])
-("average length of stay in COVID-19 ICU patients"[Title/Abstract] OR "ICU_ALOS estimation methods for COVID-19"[Title/Abstract]) AND ("parametric method for time-to-event data"[Title/Abstract] OR "reliable estimates for critical bed occupancy"[Title/Abstract])
-("clinical outcomes of severe COVID-19 patients"[Title/Abstract] OR "prognostic risk factors for critically ill patients"[Title/Abstract]) AND ("short-term outcomes and clinical characteristics"[Title/Abstract] OR "COVID-19 patients in Wuhan ICU"[Title/Abstract])
-("clinical course and risk factors for COVID-19 mortality"[Title/Abstract] OR "viral shedding and length of stay in ICU"[Title/Abstract]) AND ("prognostic factors and in-hospital death"[Title/Abstract] OR "ICU outcomes in adult COVID-19 patients"[Title/Abstract])
-("ICU outcomes of COVID-19 patients in Guangdong Province"[Title/Abstract] OR "clinical features and treatment of ICU-admitted patients"[Title/Abstract]) AND ("critically ill COVID-19 patients outside Wuhan"[Title/Abstract] OR "multicenter observational study in China"[Title/Abstract])
-("clinical and laboratory characteristics of COVID-19 ICU patients"[Title/Abstract] OR "comparison of NIV and IMV outcomes"[Title/Abstract]) AND ("complications and ICU treatment for COVID-19"[Title/Abstract] OR "extracorporeal membrane oxygenation in COVID-19 patients"[Title/Abstract])
-("lymphocytopenia dynamics in COVID-19 ICU patients"[Title/Abstract] OR "plasma interleukin-6 levels in NIV and IMV cases"[Title/Abstract]) AND ("acute cardiac and kidney complications in IMV cases"[Title/Abstract] OR "ICU patient characteristics and clinical features"[Title/Abstract])
-("COVID-19 ICU outcomes and platelet levels"[Title/Abstract] OR "hemoglobin and D-dimer in NIV and IMV cases"[Title/Abstract]) AND ("prothrombin time and IL-6 in critically ill patients"[Title/Abstract] OR "blood urea nitrogen and lactate dehydrogenase in ICU patients"[Title/Abstract])
-("ICU_ALOS estimates and COVID-19 forecasting models"[Title/Abstract] OR "unbiased parameterization for critical bed occupancy"[Title/Abstract]) AND ("early estimation of ICU_ALOS in pandemic"[Title/Abstract] OR "simulation study for reliable estimates"[Title/Abstract])
-("ventilation strategies for COVID-19 ICU patients"[Title/Abstract] OR "ICU resource planning and mortality risk"[Title/Abstract]) AND ("region-specific protocols for ventilatory support"[Title/Abstract] OR "treatment outcomes and region discrepancies"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t>("prevalence of comorbidities in COVID-19 patients"[Title/Abstract] OR "geographical distribution of comorbidities in COVID-19 patients"[Title/Abstract]) AND ("mortality rate of COVID-19"[Title/Abstract] OR "odds ratio of death and comorbidities in COVID-19"[Title/Abstract])
-("clinical course and outcomes of critically ill patients with SARS-CoV-2 pneumonia"[Title/Abstract] OR "mortality in critically ill COVID-19 patients"[Title/Abstract]) AND ("retrospective observational study in Wuhan"[Title/Abstract] OR "characteristics of severe COVID-19 cases"[Title/Abstract])
-("clinical characteristics of laboratory-confirmed SARS-CoV-2 cases in Wuhan"[Title/Abstract] OR "imaging and clinical features of COVID-19 patients"[Title/Abstract]) AND ("radiological evolution and disease severity"[Title/Abstract] OR "CT manifestations in COVID-19 pneumonia"[Title/Abstract])
-("clinical and CT features associated with severe COVID-19 pneumonia"[Title/Abstract] OR "risk factors for severe and critical COVID-19"[Title/Abstract]) AND ("radiological findings and clinical symptoms in COVID-19 patients"[Title/Abstract] OR "CT score for disease severity in COVID-19"[Title/Abstract])
-("clinical course and imaging manifestations of COVID-19 in Wenzhou city"[Title/Abstract] OR "characteristics of hospitalized COVID-19 patients in Zhejiang, China"[Title/Abstract]) AND ("outcomes and symptoms in RT-PCR confirmed COVID-19 patients"[Title/Abstract] OR "chest CT imaging in COVID-19 pneumonia"[Title/Abstract])
-("clinical descriptions and mortality of COVID-19 patients"[Title/Abstract] OR "prevalence of comorbidities in fatal COVID-19 cases"[Title/Abstract]) AND ("pooled prevalence of comorbidities in COVID-19 patients"[Title/Abstract] OR "geographical distribution of COVID-19 comorbidities"[Title/Abstract])
-("imaging characteristics and laboratory tests in SARS-CoV-2 infection"[Title/Abstract] OR "diagnosis of COVID-19 based on chest CT examination"[Title/Abstract]) AND ("chest CT features and clinical manifestations in COVID-19 patients"[Title/Abstract] OR "typical CT imaging features of COVID-19 pneumonia"[Title/Abstract])
-("CT manifestations and clinical symptoms in COVID-19 patients outside Hubei"[Title/Abstract] OR "characteristics of hospitalized COVID-19 patients in Zhejiang"[Title/Abstract]) AND ("imaging pattern and disease onset in COVID-19"[Title/Abstract] OR "normal chest findings and positive COVID-19 test"[Title/Abstract])
-("clinical characteristics of critically ill COVID-19 patients in Wuhan"[Title/Abstract] OR "retrospective single-center analysis of COVID-19 cases"[Title/Abstract]) AND ("mortality and risk factors in severe/critical COVID-19 pneumonia"[Title/Abstract] OR "CT manifestations and severity of COVID-19 pneumonia"[Title/Abstract])
-("clinical course and outcomes of COVID-19 patients with comorbidities"[Title/Abstract] OR "odds ratio of death and comorbidities in critically ill COVID-19 patients"[Title/Abstract]) AND ("prevalence and mortality of COVID-19 in ICU patients"[Title/Abstract] OR "comorbidity rates in COVID-19 ICU admissions"[Title/Abstract])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("statin therapy" OR "statin treatment" OR "statin users" OR "statin therapy and COVID-19 mortality" OR "statins and COVID-19 outcomes") AND ("systematic review and meta-analysis" OR "COVID-19 mortality meta-analysis" OR "COVID-19 mortality systematic review")
-("retrospective cohort study" OR "Iranian COVID-19 patients" OR "statins in COVID-19" OR "statin use and COVID-19 mortality") AND ("beneficial effect of statins in COVID-19" OR "statin therapy and COVID-19 morbidity" OR "statins and mechanical ventilation in COVID-19")
-("association of statin use with COVID-19 outcomes" OR "statin use and in-hospital outcomes of COVID-19" OR "statin use and severe COVID-19 infection") AND ("retrospective study" OR "association between statins and COVID-19 mortality" OR "in-hospital outcomes of COVID-19 patients on statins")
-("statins and severe COVID-19 infection" OR "statin exposure and COVID-19 mortality" OR "statin use and COVID-19 all-cause mortality") AND ("nationwide cohort study" OR "statin use and COVID-19 outcomes in Denmark" OR "statins and severe COVID-19 infection in Denmark")
-("statin use in patients with diabetes and COVID-19" OR "statin therapy and in-hospital mortality in COVID-19 patients with diabetes") AND ("observational study" OR "statin use and COVID-19 mortality in Bronx, New York" OR "statins and in-hospital mortality in COVID-19 patients with diabetes")
-("COVID-19 related mortality" OR "COVID-19 death rate" OR "mortality risk in COVID-19 patients") AND ("statin users versus non-users" OR "statin therapy effect on COVID-19 mortality" OR "meta-analysis of statin therapy and COVID-19 outcomes")
-("statins and COVID-19 severity" OR "COVID-19 severity in statin users" OR "statin therapy and severe COVID-19 cases") AND ("statin therapy during hospitalization" OR "statin use and COVID-19 prognosis" OR "continuation of statins in hospitalized COVID-19 patients")
-("COVID-19 mortality risk factors" OR "factors associated with COVID-19 death" OR "predictors of mortality in COVID-19") AND ("adjusted hazard ratios for mortality" OR "odds ratios for COVID-19 mortality" OR "statins and COVID-19 death risk")
-("COVID-19 comorbidities and mortality" OR "impact of comorbidities on COVID-19 outcomes" OR "comorbidity-associated mortality in COVID-19") AND ("meta-regression analysis of COVID-19 mortality" OR "association of anthropometric characteristics with COVID-19 mortality" OR "comorbidities and COVID-19 death risk")
-("benefits of statin therapy in COVID-19 patients" OR "effect of statins on COVID-19 prognosis" OR "meta-analysis of statins and COVID-19 mortality") AND ("retrospective evidence of statin therapy in COVID-19" OR "statins and survival in hospitalized COVID-19 patients" OR "statin therapy and mortality risk in COVID-19")
-</t>
-  </si>
-  <si>
-    <t>("mental health disorders" OR "depressive symptoms" OR "anxiety symptoms" OR "sleep disturbances") AND ("university students" OR "college students" OR "higher education students" OR "students during COVID-19 pandemic") AND ("systematic review and meta-analysis" OR "prevalence of mental health disorders in students" OR "mental health in higher education during COVID-19")
-("mood states" OR "physical exercise" OR "nutrition choices" OR "nutritional habits") AND ("Italian college students" OR "students during COVID-19 home isolation" OR "impact of exercise on nutrition during lockdown") AND ("longitudinal observational study" OR "dietary habits and psychological states during COVID-19" OR "mood, exercise, and nutrition in college students")
-("perceived stress" OR "mental health problems" OR "students during COVID-19 pandemic" OR "psychological impact of COVID-19 on students") AND ("prevalence of perceived stress in students" OR "predictors of stress levels in students" OR "mental health in French students during COVID-19")
-("depressive symptoms" OR "mental health status" OR "change in living rhythms" OR "college students in China") AND ("prevalence of depressive symptoms in Chinese college students" OR "impact of COVID-19 on mental health of students" OR "large-scale survey on mental health in students during pandemic")
-("psychosocial correlates" OR "mental health outcomes" OR "Chinese college students" OR "COVID-19 pandemic") AND ("prevalence of mental health outcomes in Chinese students" OR "risk factors for poor mental health in students during COVID-19" OR "cross-sectional survey on mental health in university students")
-("anxiety symptoms" OR "French university students" OR "anxiety in COVID-19 affected area" OR "PIMS-CoV 19 study") AND ("higher prevalence of anxiety in French students during COVID-19" OR "anxiety levels in students in severely affected region" OR "psychological impact of COVID-19 on French students")
-("clinically-relevant posttraumatic stress disorder symptoms" OR "anxiety symptoms" OR "depressive symptoms" OR "posttraumatic growth" OR "Chinese university students" OR "COVID-19 pandemic") AND ("prevalence of mental health symptoms in Chinese students during COVID-19" OR "risk factors for poor mental health in Chinese university students" OR "nation-wide survey on mental health in Chinese students")
-("prevalence of depressive symptoms in college students" OR "impact of COVID-19 on mental health in college students" OR "prevalence of anxiety symptoms in students during pandemic") AND ("large-scale survey on mental health in Chinese students" OR "changes in mental health status during COVID-19 in students" OR "depressive symptoms and COVID-19 pandemic in college students")
-("prevalence of mental health disorders in college students" OR "sleep disturbances in university students during COVID-19" OR "impact of COVID-19 on mental health in higher education") AND ("systematic review on mental health disorders in students" OR "meta-analysis on mental health in college students during pandemic" OR "COVID-19 impact on sleep quality in university students")
-("psychological impact of COVID-19 on college students" OR "mental health status during pandemic" OR "depressive symptoms in higher education students" OR "anxiety symptoms in students during COVID-19") AND ("prevalence of mental health disorders in university students" OR "COVID-19 pandemic and mental health in college students" OR "systematic review on mental health in higher education during pandemic")</t>
-  </si>
-  <si>
-    <t>("depression" OR "anxiety" OR "sleep disorder" OR "mental health disorders") AND ("COVID-19 patients" OR "patients with confirmed COVID-19" OR "patients during disease outbreak") AND ("systematic review and meta-analysis" OR "prevalence of mental health disorders in COVID-19 patients" OR "psychiatric disorders in COVID-19")
-("psychological morbidities" OR "fatigue" OR "mental health" OR "psychometric questionnaires") AND ("patients with confirmed COVID-19 infection" OR "COVID-19 patients with psychological symptoms" OR "biopsychosocial risk factors in COVID-19 patients") AND ("prevalence and risk factors for psychological morbidities in COVID-19 patients" OR "psychological impact of COVID-19 on patients" OR "mental health status in patients during COVID-19")
-("detailed neurological manifestations" OR "neurological symptoms" OR "neurological findings" OR "neurological examination") AND ("patients with COVID-19" OR "COVID-19 inpatients" OR "neurological symptoms in COVID-19 patients") AND ("prospective clinical study on neurological manifestations in COVID-19 patients" OR "neurological complications of COVID-19" OR "neurological examination in patients with COVID-19")
-("headache" OR "dizziness" OR "impaired consciousness" OR "smell and gustation impairments" OR "cerebrovascular disorders" OR "epileptic seizures" OR "myalgia") AND ("neurological symptoms in COVID-19 patients" OR "neurological findings in patients with COVID-19" OR "neurological manifestations of SARS-CoV2 infection") AND ("prevalence of neurological symptoms in COVID-19 patients" OR "subjective neurological symptoms in SARS-CoV2 infection" OR "headache and COVID-19")
-("psychological distress" OR "quarantined patients" OR "COVID-19 patients" OR "immediate psychological symptoms") AND ("association with peripheral inflammation" OR "mixed-method study on psychological distress in COVID-19 patients" OR "psychological impact of quarantine on COVID-19 patients") AND ("depression and anxiety symptoms in quarantined COVID-19 patients" OR "psychological effects of COVID-19 quarantine" OR "mental health in COVID-19 quarantine")
-("psychological morbidities" OR "mental health disorders" OR "fatigue" OR "COVID-19 patients") AND ("prevalence of mental health disorders in patients with confirmed COVID-19" OR "psychiatric symptoms in COVID-19 patients" OR "psychological impact of COVID-19 on patients") AND ("systematic review and meta-analysis on mental health in COVID-19 patients" OR "prevalence of depression and anxiety in COVID-19 patients" OR "sleep disturbances in patients with COVID-19")
-("neurological symptoms" OR "psychological morbidities" OR "COVID-19 patients") AND ("prevalence of neurological symptoms in patients with confirmed COVID-19" OR "psychiatric disorders in COVID-19 patients" OR "mental health status in COVID-19 patients") AND ("systematic review and meta-analysis on neurological manifestations in COVID-19 patients" OR "neurological impact of COVID-19 on patients" OR "neurological disorders in patients with COVID-19")
-("COVID-19 pandemic" OR "mental health status" OR "psychological morbidities" OR "patients with COVID-19") AND ("prevalence of depression and anxiety in COVID-19 patients" OR "psychiatric symptoms in patients with confirmed COVID-19" OR "psychological impact of COVID-19 on mental health") AND ("systematic review and meta-analysis on mental health in COVID-19 pandemic" OR "prevalence of sleep disorders in COVID-19 patients" OR "psychological implications of COVID-19 infections")
-("psychological impact" OR "mental health status" OR "COVID-19 patients") AND ("prevalence of psychological morbidities in patients with confirmed COVID-19" OR "psychiatric symptoms in COVID-19 patients" OR "psychological well-being during COVID-19 pandemic") AND ("systematic review and meta-analysis on psychological symptoms in COVID-19 patients" OR "prevalence of depression and anxiety in COVID-19 patients" OR "sleep disturbances and COVID-19")
-("prevalence of depression" OR "anxiety" OR "sleep disturbances" OR "mental health disorders") AND ("COVID-19 patients" OR "patients with confirmed COVID-19 infection" OR "psychological impact of COVID-19 on patients") AND ("systematic review and meta-analysis on mental health in COVID-19 patients" OR "psychiatric disorders in patients during disease outbreak" OR "prevalence of mental health disorders in COVID-19 pandemic")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("nutritional screening tools" OR "nutritional risk assessment" OR "malnutrition risk" OR "COVID-19 patients") AND ("older patients with COVID-19" OR "elderly patients with COVID-19" OR "nutrition assessment in COVID-19" OR "malnutrition in older adults with COVID-19") AND ("systematic review with narrative synthesis on nutritional screening tools" OR "measurement properties of nutritional screening tools in COVID-19" OR "nutritional risk assessment in older adults with COVID-19")
-("mNUTRIC score" OR "modified Nutrition Risk in the Critically ill score" OR "critical illness in COVID-19" OR "prognosis prediction in critically ill COVID-19 patients") AND ("nutritional risk assessment" OR "mortality prediction in COVID-19 patients" OR "critical care nutrition in COVID-19" OR "nutrition support in ICU COVID-19 patients") AND ("prospective study on mNUTRIC score in critically ill COVID-19 patients" OR "nutritional risk assessment in ICU COVID-19 patients" OR "prognostic value of mNUTRIC score in COVID-19 ICU patients")
-("Mini Nutritional Assessment" OR "MNA" OR "nutritional status assessment" OR "malnutrition risk assessment") AND ("elderly patients with COVID-19" OR "older patients with COVID-19" OR "nutrition assessment in COVID-19" OR "MNA in geriatric COVID-19 patients") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition prevalence in older adults with COVID-19" OR "related factors of malnutrition in COVID-19 patients")
-("malnutrition" OR "malnutrition risk" OR "nutritional status" OR "elderly patients with COVID-19") AND ("Mini Nutritional Assessment" OR "MNA" OR "malnutrition prevalence in COVID-19 patients" OR "nutritional risk assessment in geriatric COVID-19 patients") AND ("retrospective study on MNA in elderly COVID-19 patients" OR "nutritional status evaluation in older adults with COVID-19" OR "association between malnutrition and COVID-19 outcomes")
-("nutritional screening tools" OR "nutritional risk assessment" OR "malnutrition risk" OR "COVID-19 patients") AND ("modified Nutrition Risk in the Critically ill score" OR "mNUTRIC score" OR "critical care nutrition in COVID-19" OR "ICU nutrition support in COVID-19") AND ("systematic review with narrative synthesis on mNUTRIC score in critically ill COVID-19 patients" OR "measurement properties of mNUTRIC score in COVID-19" OR "mNUTRIC score applicability in ICU COVID-19 patients")
-("Mini Nutritional Assessment" OR "MNA" OR "nutrition assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in COVID-19 patients" OR "nutritional risk assessment in geriatric COVID-19 patients" OR "nutrition screening in older adults with COVID-19") AND ("cross-sectional study on MNA in elderly COVID-19 patients" OR "nutrition status evaluation in older patients with COVID-19" OR "association between malnutrition and COVID-19 outcomes")
-("modified Nutrition Risk in the Critically ill score" OR "mNUTRIC score" OR "nutrition risk assessment" OR "COVID-19 ICU patients") AND ("critical care nutrition in COVID-19" OR "prognosis prediction in critically ill COVID-19 patients" OR "mNUTRIC score and mortality in COVID-19") AND ("retrospective study on mNUTRIC score in COVID-19 ICU patients" OR "nutrition risk assessment in critically ill COVID-19 patients" OR "prognostic value of mNUTRIC score in ICU COVID-19 patients")
-("nutritional status" OR "malnutrition risk" OR "Mini Nutritional Assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in geriatric COVID-19 patients" OR "nutritional screening in older adults with COVID-19" OR "nutrition risk assessment in COVID-19") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition and COVID-19 outcomes" OR "related factors of malnutrition in COVID-19 patients")
-("mNUTRIC score" OR "modified Nutrition Risk in the Critically ill score" OR "nutrition risk assessment" OR "critical care nutrition in COVID-19") AND ("ICU nutrition support in COVID-19" OR "mortality prediction in critically ill COVID-19 patients" OR "mNUTRIC score and outcomes in COVID-19") AND ("retrospective study on mNUTRIC score in critically ill COVID-19 patients" OR "nutrition risk assessment in ICU COVID-19 patients" OR "prognostic value of mNUTRIC score in COVID-19 ICU patients")
-("malnutrition risk" OR "nutritional status assessment" OR "Mini Nutritional Assessment" OR "elderly patients with COVID-19") AND ("malnutrition prevalence in geriatric COVID-19 patients" OR "nutrition assessment in older adults with COVID-19" OR "MNA in COVID-19") AND ("cross-sectional study on nutritional status in elderly COVID-19 patients" OR "malnutrition and COVID-19 outcomes" OR "association between malnutrition and COVID-19 severity")
-</t>
-  </si>
-  <si>
-    <t>("home-based exercise programs" OR "home-based training" OR "home exercises" OR "home-based exercise intervention") AND ("physical fitness" OR "muscle strength" OR "muscle power" OR "muscular endurance" OR "balance") AND ("older adults" OR "elderly adults" OR "senior citizens" OR "healthy older adults")
-("Otago exercise program" OR "OEP" OR "fall prevention programs" OR "home-based exercise training program") AND ("elderly community dwellers" OR "fall prevention in elderly" OR "effectiveness of OEP in falls reduction") AND ("randomized control trial" OR "RCT" OR "effect of OEP on fall incidence in elderly")
-("calf-raise training" OR "explosive plantar flexion force" OR "neuromuscular adaptations" OR "balance performance") AND ("home-based calf-raise exercise" OR "home exercise program" OR "functional neuromuscular capacity" OR "mobility in elderly men") AND ("effect of calf-raise training on rapid force production" OR "balance ability in elderly men")
-("individualized home-based exercise" OR "nutrition interventions" OR "frailty in older adults" OR "reducing frailty in older adults") AND ("randomized controlled trial" OR "RCT" OR "effective interventions for frailty in elderly" OR "home-based interventions for frailty") AND ("frailty scores improvement" OR "physical performance improvement" OR "mental health improvement in frail older adults")
-("home exercise program" OR "home-based exercise" OR "physical function improvement in elderly" OR "sarcopenia prevention") AND ("community dwelling elderly" OR "pre-sarcopenia" OR "sarcopenia" OR "muscle function improvement in elderly") AND ("effect of home exercise on physical function" OR "effect of home-based exercise on sarcopenia")
-("exercise snacks" OR "unsupervised home-based exercise" OR "leg strength improvement in elderly" OR "muscle size improvement in healthy older adults") AND ("healthy older adults" OR "elderly participants" OR "home-based exercise intervention" OR "leg muscle function improvement") AND ("effect of exercise snacking on muscle size" OR "effect of home-based exercise on leg strength")
-("home-based training" OR "home exercises" OR "physical fitness" OR "muscle strength" OR "balance") AND ("healthy older adults" OR "elderly adults" OR "senior citizens" OR "home-based exercise interventions") AND ("systematic review on home-based exercise programs" OR "meta-analysis on home-based training in older adults" OR "effectiveness of home exercises in improving physical fitness")
-("Otago exercise program" OR "OEP" OR "fall prevention programs" OR "home-based exercise training program") AND ("elderly community dwellers" OR "fall prevention in elderly" OR "effectiveness of OEP in falls reduction") AND ("systematic review on Otago exercise program" OR "meta-analysis on fall prevention in elderly using OEP" OR "effectiveness of home-based exercise programs in falls reduction")
-("calf-raise training" OR "explosive plantar flexion force" OR "balance performance") AND ("home-based calf-raise exercise" OR "home exercise program" OR "functional neuromuscular capacity" OR "mobility in elderly men") AND ("systematic review on calf-raise training in elderly" OR "meta-analysis on home-based calf-raise exercise in older adults" OR "effect of calf-raise training on balance ability in elderly")
-("individualized home-based exercise" OR "nutrition interventions" OR "frailty in older adults" OR "reducing frailty in older adults") AND ("randomized controlled trial" OR "RCT" OR "effective interventions for frailty in elderly" OR "home-based interventions for frailty") AND ("systematic review on home-based exercise and nutrition interventions in older adults" OR "meta-analysis on reducing frailty in elderly using home-based interventions" OR "effect of individualized home-based exercise on physical frailty")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("N95 filtering facepiece respirators" OR "N95-FFRs" OR "N95 respirators" OR "N95 masks") AND ("decontamination methods" OR "reprocessing methods" OR "respirator disinfection" OR "respirator reuse") AND ("UVGI" OR "Ultraviolet germicidal irradiation" OR "Ultraviolet light" OR "UV irradiation")
-("respirator decontamination" OR "FFR disinfection" OR "respirator integrity" OR "FFR performance") AND ("ethylene oxide" OR "vaporized hydrogen peroxide" OR "microwave oven irradiation" OR "bleach" OR "chemical decontamination methods") AND ("NIOSH-certified N95 FFRs" OR "filtering facepiece respirators" OR "disposable respirators")
-("microwave steam bags" OR "steam decontamination" OR "microwave generated steam" OR "FFR decontamination protocol") AND ("water absorption of FFR" OR "FFR filtration efficiency" OR "FFR hydrophobicity" OR "bacteriophage MS2 decontamination") AND ("commercial steam bags for FFR decontamination" OR "steam decontamination efficacy")
-("UVGI on N95 respirators" OR "ultraviolet germicidal irradiation on N95 masks" OR "UV light effect on N95 FFRs" OR "influenza-contaminated N95 respirators") AND ("viable influenza reduction on FFRs" OR "influenza inactivation by UV light")
-("N95-FFRs reprocessing methods" OR "respirator reuse techniques" OR "decontamination of N95 respirators" OR "COVID-19 pandemic and N95-FFRs") AND ("evaluation of decontamination methods" OR "research on FFR reprocessing" OR "prior research on N95-FFR decontamination") AND ("UVGI for N95 respirators" OR "Microwave steam for FFRs" OR "Hydrogen peroxide vapor for respirators")
-("Ultraviolet germicidal irradiation" OR "UVGI" OR "UV light" OR "UV irradiation") AND ("filtration performance of N95 respirators" OR "structural integrity of N95 FFRs" OR "UV effects on respirator materials") AND ("degradation of disposable respirators by UVGI" OR "UVGI on N95 FFRs")
-("decontamination of FFRs" OR "filtering facepiece respirator reuse" OR "respirator disinfection methods" OR "N95-FFR reprocessing techniques") AND ("effect of decontamination on respirator performance" OR "respirator material integrity after decontamination" OR "respirator safety after reprocessing") AND ("evaluation of respirator decontamination methods" OR "study on FFR reuse during pandemic")
-("FFR decontamination efficacy" OR "effectiveness of N95 respirator disinfection" OR "biological decontamination of respirators" OR "respirator inactivation of pathogens") AND ("UVGI vs. Ethylene oxide" OR "comparison of different decontamination methods for FFRs" OR "effect of steam decontamination on N95-FFRs")
-("microwave oven irradiation on respirators" OR "microwave steam bags for FFR decontamination" OR "microwave-generated steam efficacy" OR "FFR integrity after microwave steam exposure") AND ("filtration efficiency of decontaminated FFRs" OR "bacteriophage inactivation by steam bags" OR "respirator disinfection using microwave steam") AND ("steam decontamination for N95 FFRs" OR "respirator reprocessing by microwave-generated steam")
-("respirator reprocessing during pandemic" OR "decontamination methods for N95 masks" OR "reuse of filtering facepiece respirators" OR "respirator decontamination to tackle PPE shortage") AND ("prior research on FFR decontamination" OR "systematic review of respirator reprocessing" OR "literature review on N95-FFR reuse") AND ("evaluation of N95-FFR decontamination methods" OR "efficacy of UVGI and Microwave steam on FFRs" OR "Hydrogen peroxide vapor as N95 respirator decontamination technique")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("immunity during pregnancy" OR "pregnancy-related immunity" OR "immune response in pregnant women") AND ("SARS-CoV-2 infection" OR "COVID-19 in pregnant women" OR "coronavirus infection during pregnancy")
-("COVID-19 and pregnancy" OR "maternal outcomes of COVID-19" OR "COVID-19 during childbirth" OR "pregnancy affected by COVID-19") AND ("clinical presentation of COVID-19 in pregnant women" OR "maternal outcomes in COVID-19" OR "perinatal outcomes in COVID-19" OR "neonatal outcomes of COVID-19")
-("COVID-19 infection in pregnant women" OR "severity of COVID-19 during pregnancy" OR "critical COVID-19 in pregnancy" OR "COVID-19 and maternal mortality") AND ("vaginal birth during COVID-19" OR "cesarean section in COVID-19" OR "COVID-19 and perinatal outcomes" OR "COVID-19 and neonatal outcomes")
-("effect of COVID-19 on pregnancy" OR "impact of coronavirus on pregnancy" OR "COVID-19 and pregnant women outcomes" OR "SARS-CoV-2 transmission during pregnancy") AND ("systematic review on COVID-19 in pregnancy" OR "published literature on COVID-19 and pregnancy" OR "maternal complications of COVID-19" OR "COVID-19 and vertical transmission")
-("pregnancy during COVID-19 pandemic" OR "neonatal outcome in COVID-19" OR "COVID-19 effect on perinatal health" OR "pregnancy outcomes in coronavirus disease") AND ("COVID-19 and maternal age" OR "gestational age and COVID-19" OR "COVID-19 symptoms in pregnant women" OR "severe pneumonia in COVID-19 pregnancy")
-("COVID-19 and maternal intensive care" OR "mechanical ventilation in pregnant women with COVID-19" OR "COVID-19 and maternal mortality" OR "COVID-19 and maternal critical cases") AND ("computed tomography chest findings in COVID-19 pregnancy" OR "SARS-CoV-2 detection in vaginal mucus during pregnancy" OR "breast milk and COVID-19 transmission" OR "spontaneous miscarriage and COVID-19")
-("COVID-19 and neonatal intensive care unit" OR "COVID-19 and neonatal asphyxia" OR "COVID-19 and neonatal deaths" OR "SARS-CoV-2 infection in neonates") AND ("COVID-19 and Cesarean section" OR "birth weight and COVID-19" OR "Apgar scores in COVID-19-affected neonates" OR "COVID-19 and neonatal outcomes")
-("systematic review on COVID-19 and pregnancy" OR "impact of COVID-19 on maternal outcomes" OR "COVID-19 and perinatal health" OR "neonatal complications of COVID-19") AND ("COVID-19 and fetal outcomes" OR "COVID-19 and maternal morbidity" OR "good-quality data on COVID-19 in pregnant women" OR "COVID-19 in pregnancies")
-("vertical transmission of SARS-CoV-2" OR "intrauterine transmission of coronavirus" OR "maternal-fetal transmission of COVID-19" OR "COVID-19 transmission to neonates") AND ("complications of COVID-19 in pregnant women" OR "COVID-19 in pregnancy systematic review" OR "coronavirus impact on neonatal health" OR "neonatal complications of COVID-19 infection")
-("COVID-19 and pregnancy case reports" OR "maternal deaths in severe COVID-19 cases" OR "COVID-19 infection in pregnant women case series" OR "impact of COVID-19 on pregnant women outcomes") AND ("incomplete outcome data on COVID-19 in pregnancy" OR "COVID-19 in pregnancy registry data" OR "research on COVID-19 impact in pregnant women" OR "COVID-19 and maternal outcomes reporting")
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("gastrointestinal symptoms" OR "COVID-19 in children" OR "pediatric COVID-19") AND ("fecal nucleic acid testing" OR "importance of fecal nucleic acid testing" OR "incidence of gastrointestinal symptoms in COVID-19 children")
-("vomiting in pediatric COVID-19" OR "diarrhea in COVID-19 children" OR "prevalence of gastrointestinal symptoms in COVID-19 children") AND ("gastrointestinal symptoms in children outside Wuhan" OR "incidence of COVID-19 gastrointestinal symptoms in different countries" OR "COVID-19 gastrointestinal symptoms meta-analysis")
-("fecal nucleic acid testing in pediatric COVID-19" OR "positive rate of fecal nucleic acid testing in COVID-19 children") AND ("respiratory tract specimens and fecal nucleic acid testing correlation" OR "duration of fecal nucleic acid positivity in COVID-19 children" OR "fecal nucleic acid detection in children with COVID-19")
-("clinical and CT features in pediatric patients with COVID-19" OR "chest CT findings in pediatric COVID-19" OR "procalcitonin elevation in pediatric COVID-19") AND ("clinical and laboratory characteristics of pediatric COVID-19" OR "COVID-19 in pediatric inpatients" OR "COVID-19 characteristics in children")
-("unilateral pulmonary lesions in pediatric COVID-19" OR "bilateral pulmonary lesions in children with COVID-19" OR "chest CT abnormalities in pediatric COVID-19") AND ("ground-glass opacities in pediatric COVID-19" OR "consolidation with surrounding halo sign in pediatric COVID-19" OR "chest CT findings in COVID-19 pediatric inpatients")
-("prospective case-control study on post-vaccination SARS-CoV-2 infection" OR "risk factors for post-vaccination COVID-19 infection" OR "disease profile of post-vaccination COVID-19") AND ("COVID-19 infection in vaccinated individuals" OR "vaccination and infection control measures" OR "post-vaccination era precautions")
-("frailty and post-vaccination SARS-CoV-2 infection" OR "risk factors for COVID-19 in older vaccinated adults" OR "deprivation and post-vaccination infection in adults") AND ("obesity and COVID-19 vaccination" OR "impact of BMI on post-vaccination infection" OR "post-vaccination infection in different age groups")
-("clinical characteristics of post-vaccination COVID-19" OR "symptoms and disease duration in vaccinated COVID-19 cases" OR "hospitalization and vaccination status in COVID-19 cases") AND ("asymptomatic vaccinated COVID-19 individuals" OR "vaccination impact on COVID-19 symptoms" OR "COVID-19 disease severity in vaccinated individuals")
-("children with COVID-19 in Changsha, China" OR "pediatric patients with 2019-nCoV infection" OR "clinical features of COVID-19 in children") AND ("family exposure and COVID-19 in children" OR "symptoms of COVID-19 in pediatric patients" OR "chest CT findings in children with COVID-19")
-("clinical course of COVID-19 in children" OR "SARS-CoV-2 infection in children" OR "COVID-19 in pediatric population") AND ("morbidity in pediatric COVID-19" OR "chest CT scans in COVID-19 children" OR "symptoms and signs in pediatric COVID-19")
-</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("respiratory distress syndrome, adult"[MeSH Terms] OR "respiratory distress syndrome, adult"[Title/Abstract]) AND "mechanical ventilation"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("respiratory distress syndrome, adult"[MeSH Terms] OR "respiratory distress syndrome, adult"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("adult respiratory distress syndrome"[MeSH Terms] OR "adult respiratory distress syndrome"[Title/Abstract]) AND "mortality"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation"[MeSH Terms] AND "mortality"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation"[Title/Abstract] AND "ICU discharge"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "mechanical ventilation outcomes"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "invasive mechanical ventilation mortality"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "adult respiratory distress syndrome outcome"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "respiratory failure"[MeSH Terms] AND "mechanical ventilation"[MeSH Terms]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND "mechanical ventilation mortality"[Title/Abstract]) AND ("systematic review"[Publication Type] OR "meta-analysis"[Publication Type])</t>
-  </si>
-  <si>
-    <t>("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields])
-("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields]) AND ("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("acute hypoxemic failure" [MeSH Terms] OR "acute hypoxemic failure" [All Fields]) AND ("2019-nCoV" [MeSH Terms] OR "2019-nCoV" [All Fields]) AND ("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields])
-("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("corticosteroids" [MeSH Terms] OR "corticosteroids" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("hospitalized patients" [MeSH Terms] OR "hospitalized patients" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("glucocorticoids" [MeSH Terms] OR "glucocorticoids" [All Fields]) AND ("lung injury" [MeSH Terms] OR "lung injury" [All Fields]) AND ("respiratory failure" [MeSH Terms] OR "respiratory failure" [All Fields])
-("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("respiratory support" [MeSH Terms] OR "respiratory support" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields]) AND ("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("respiratory support" [MeSH Terms] OR "respiratory support" [All Fields])
-("invasive mechanical ventilation" [MeSH Terms] OR "invasive mechanical ventilation" [All Fields]) AND ("dexamethasone" [MeSH Terms] OR "dexamethasone" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])</t>
-  </si>
-  <si>
-    <t>("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
-("non-pharmacological interventions" [MeSH Terms] OR "non-pharmacological interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("control measures" [MeSH Terms] OR "control measures" [All Fields])
-("mass testing" [MeSH Terms] OR "mass testing" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("modeling studies" [MeSH Terms] OR "modeling studies" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("resource use" [MeSH Terms] OR "resource use" [All Fields])
-("mass testing" [MeSH Terms] OR "mass testing" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("lockdown" [MeSH Terms] OR "lockdown" [All Fields]) AND ("mass screening" [MeSH Terms] OR "mass screening" [All Fields]) AND ("incidence" [MeSH Terms] OR "incidence" [All Fields])</t>
-  </si>
-  <si>
-    <t>("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
-("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
-("influenza incidence" [MeSH Terms] OR "influenza incidence" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
-("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("comparative study" [Publication Type] OR "comparative study" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("public health measures" [MeSH Terms] OR "public health measures" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
-("influenza virus infection" [MeSH Terms] OR "influenza virus infection" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
-("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
-("epidemic curve" [MeSH Terms] OR "epidemic curve" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("influenza" [MeSH Terms] OR "influenza" [All Fields])
-("population behaviour" [MeSH Terms] OR "population behaviour" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])</t>
-  </si>
-  <si>
-    <t>("tele-eyecare" [MeSH Terms] OR "tele-eyecare" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
-("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("remote patient care" [MeSH Terms] OR "remote patient care" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("India" [MeSH Terms] OR "India" [All Fields])
-("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
-("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])
-("telemedicine" [MeSH Terms] OR "telemedicine" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("India" [MeSH Terms] OR "India" [All Fields])
-("remote patient care" [MeSH Terms] OR "remote patient care" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields])
-("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("electronic medical records" [MeSH Terms] OR "electronic medical records" [All Fields]) AND ("lockdown" [MeSH Terms] OR "lockdown" [All Fields])
-("ophthalmology" [MeSH Terms] OR "ophthalmology" [All Fields]) AND ("tele-consultations" [MeSH Terms] OR "tele-consultations" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields])</t>
-  </si>
-  <si>
-    <t>("disasters" [MeSH Terms] OR "disasters" [All Fields]) AND ("pandemics" [MeSH Terms] OR "pandemics" [All Fields]) AND ("cardiometabolic diseases" [MeSH Terms] OR "cardiometabolic diseases" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
-("floods" [MeSH Terms] OR "floods" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("cohort studies" [MeSH Terms] OR "cohort studies" [All Fields])
-("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("African Americans" [MeSH Terms] OR "African Americans" [All Fields])
-("World Trade Center Disaster" [MeSH Terms] OR "World Trade Center Disaster" [All Fields]) AND ("posttraumatic stress disorder" [MeSH Terms] OR "posttraumatic stress disorder" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
-("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("diabetes mellitus" [MeSH Terms] OR "diabetes mellitus" [All Fields]) AND ("health care costs" [MeSH Terms] OR "health care costs" [All Fields])
-("floods" [MeSH Terms] OR "floods" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("Vietnam" [MeSH Terms] OR "Vietnam" [All Fields])
-("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("health care disparities" [MeSH Terms] OR "health care disparities" [All Fields]) AND ("disaster preparation" [MeSH Terms] OR "disaster preparation" [All Fields])
-("September 11 Terrorist Attacks" [MeSH Terms] OR "September 11 Terrorist Attacks" [All Fields]) AND ("cardiovascular diseases" [MeSH Terms] OR "cardiovascular diseases" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
-("natural disasters" [MeSH Terms] OR "natural disasters" [All Fields]) AND ("diabetes mellitus" [MeSH Terms] OR "diabetes mellitus" [All Fields]) AND ("disaster recovery" [MeSH Terms] OR "disaster recovery" [All Fields])
-("Hurricane Katrina" [MeSH Terms] OR "Hurricane Katrina" [All Fields]) AND ("disaster management" [MeSH Terms] OR "disaster management" [All Fields]) AND ("vulnerable populations" [MeSH Terms] OR "vulnerable populations" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields]) AND ("prevalence" [MeSH Terms] OR "prevalence" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields]) AND ("outcomes" [MeSH Terms] OR "outcomes" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("in-hospital death" [All Fields] OR "in-hospital mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("viral shedding" [MeSH Terms] OR "viral shedding" [All Fields]) AND ("non-survivors" [All Fields] OR "deceased" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intensive care unit" [MeSH Terms] OR "intensive care unit" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ARDS" [MeSH Terms] OR "ARDS" [All Fields]) AND ("acute myocardial injury" [MeSH Terms] OR "acute myocardial injury" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("d-dimer" [MeSH Terms] OR "d-dimer" [All Fields]) AND ("cardiac injury" [MeSH Terms] OR "cardiac injury" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields]) AND ("myocardial injury" [MeSH Terms] OR "myocardial injury" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("children" [MeSH Terms] OR "children" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields]) AND ("adolescent" [MeSH Terms] OR "adolescent" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("youth" [MeSH Terms] OR "youth" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("autism spectrum disorder" [MeSH Terms] OR "autism spectrum disorder" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological distress" [MeSH Terms] OR "psychological distress" [All Fields]) AND ("behavior problems" [MeSH Terms] OR "behavior problems" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("parent survey" [All Fields] OR "parent questionnaire" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("behavioral disorders" [MeSH Terms] OR "behavioral disorders" [All Fields]) AND ("children" [MeSH Terms] OR "children" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological health" [MeSH Terms] OR "psychological health" [All Fields]) AND ("Chinese adolescents" [All Fields] OR "youth" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("motivations" [MeSH Terms] OR "motivations" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("meta-analysis" [Publication Type] OR "systematic review" [Publication Type])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("mortality rate" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture surgery" [All Fields] OR "surgical treatment" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("prognostic factors" [MeSH Terms] OR "prognostic factors" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("New York City" [MeSH Terms] OR "New York City" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("oxygen demands" [MeSH Terms] OR "oxygen demands" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("early postoperative outcomes" [MeSH Terms] OR "early postoperative outcomes" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fracture" [MeSH Terms] OR "hip fracture" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "clinical characteristics" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE inhibitors" [MeSH Terms] OR "ACE inhibitors" [All Fields] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields]) AND ("hypertension" [MeSH Terms] OR "hypertension" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ACE2" [MeSH Terms] OR "ACE2" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hypertension" [MeSH Terms] OR "hypertension" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical outcomes" [MeSH Terms] OR "clinical outcomes" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("CD3" [MeSH Terms] OR "CD3" [All Fields]) AND ("CD8" [MeSH Terms] OR "CD8" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("IL-6" [MeSH Terms] OR "IL-6" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("renal injury" [MeSH Terms] OR "renal injury" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospital admission" [MeSH Terms] OR "hospital admission" [All Fields]) AND ("angiotensin-converting enzyme inhibitors" [MeSH Terms] OR "angiotensin-converting enzyme inhibitors" [All Fields]) AND ("angiotensin receptor blockers" [MeSH Terms] OR "angiotensin receptor blockers" [All Fields] OR "ARBs" [All Fields])</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("critical care" [MeSH Terms] OR "critical care" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("readmission" [MeSH Terms] OR "readmission" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("pneumonia" [MeSH Terms] OR "pneumonia" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("acute respiratory distress syndrome" [MeSH Terms] OR "acute respiratory distress syndrome" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("inpatient mortality" [MeSH Terms] OR "inpatient mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("complications" [MeSH Terms] OR "complications" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("critical care" [MeSH Terms] OR "critical care" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hip fractures" [MeSH Terms] OR "hip fractures" [All Fields]) AND ("pneumonia" [MeSH Terms] OR "pneumonia" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("longitudinal studies" [MeSH Terms] OR "longitudinal studies" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("impact" [MeSH Terms] OR "impact" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating behavior" [MeSH Terms] OR "eating behavior" [All Fields]) AND ("changes" [MeSH Terms] OR "changes" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("dietary behavior" [MeSH Terms] OR "dietary behavior" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("lifestyle" [MeSH Terms] OR "lifestyle" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("nutrition" [MeSH Terms] OR "nutrition" [All Fields]) AND ("well-being" [MeSH Terms] OR "well-being" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("eating habits" [MeSH Terms] OR "eating habits" [All Fields]) AND ("longitudinal studies" [MeSH Terms] OR "longitudinal studies" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("pregnancy" [MeSH Terms] OR "pregnancy" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("neonate" [MeSH Terms] OR "neonate" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vertical transmission" [MeSH Terms] OR "vertical transmission" [All Fields]) AND ("infant, newborn" [MeSH Terms] OR "infant, newborn" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields]) AND ("neonate" [MeSH Terms] OR "neonate" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pregnant women" [MeSH Terms] OR "pregnant women" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("cesarean section" [MeSH Terms] OR "cesarean section" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("vaginal birth after cesarean" [MeSH Terms] OR "vaginal birth after cesarean" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("neonatal infection" [MeSH Terms] OR "neonatal infection" [All Fields]) AND ("delivery, obstetric/methods" [MeSH Terms] OR "delivery, obstetric/methods" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestations" [MeSH Terms] OR "ocular manifestations" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("ocular samples" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("systemic disease" [MeSH Terms] OR "systemic disease" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("PCR" [MeSH Terms] OR "PCR" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("severity" [MeSH Terms] OR "severity" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("PCR" [MeSH Terms] OR "PCR" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular manifestation" [MeSH Terms] OR "ocular manifestation" [All Fields]) AND ("time association" [MeSH Terms] OR "time association" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("time association" [MeSH Terms] OR "time association" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("conjunctival viral prevalence" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("ocular samples" [All Fields]) AND ("conjunctival viral prevalence" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("forcibly displaced populations" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("infection risk" [MeSH Terms] OR "infection risk" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("infection risk" [MeSH Terms] OR "infection risk" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("transmission risk" [MeSH Terms] OR "transmission risk" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("transmission risk" [MeSH Terms] OR "transmission risk" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
-("lockdown measures" [MeSH Terms] OR "lockdown measures" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
-("lockdown measures" [MeSH Terms] OR "lockdown measures" [All Fields]) AND ("refugees" [MeSH Terms] OR "refugees" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact on mental health" [All Fields]) AND ("migrants" [MeSH Terms] OR "migrants" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("psychological state" [All Fields] OR "mental health" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("lockdown" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("risk factors" [MeSH Terms] OR "risk factors" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields]) AND ("social distancing" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("OCD" [MeSH Terms] OR "OCD" [All Fields]) AND ("youth" [MeSH Terms] OR "youth" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("emotional reactivity" [MeSH Terms] OR "emotional reactivity" [All Fields]) AND ("experiential avoidance" [MeSH Terms] OR "experiential avoidance" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("depression" [MeSH Terms] OR "depression" [All Fields]) AND ("anxiety" [MeSH Terms] OR "anxiety" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental health" [MeSH Terms] OR "mental health" [All Fields]) AND ("social health" [MeSH Terms] OR "social health" [All Fields]) AND ("adolescents" [MeSH Terms] OR "adolescents" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("Europe" [MeSH Terms] OR "Europe" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("ambulance response times" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("survival to hospital discharge" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("bystander-initiated cardiopulmonary resuscitation" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("emergency medical services" [MeSH Terms] OR "emergency medical services" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("out-of-hospital cardiac arrest" [All Fields]) AND ("healthcare systems" [MeSH Terms] OR "healthcare systems" [All Fields])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meta-analysis" [Publication Type] OR "meta-analysis" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("clinical trials as topic" [MeSH Terms] OR "clinical trials as topic" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("treatment outcome" [MeSH Terms] OR "treatment outcome" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("safety" [MeSH Terms] OR "safety" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("efficacy" [MeSH Terms] OR "efficacy" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("adverse events" [MeSH Terms] OR "adverse events" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("randomized controlled trial" [Publication Type] OR "randomized controlled trial" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mild to moderate disease" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospital admission" [MeSH Terms] OR "hospital admission" [All Fields])
-("Hydroxychloroquine" [MeSH Terms] OR "Hydroxychloroquine" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intention to treat analysis" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
-("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("symbiosis" [MeSH Terms] OR "symbiosis" [All Fields])
-("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("respiratory viral infection" [MeSH Terms] OR "respiratory viral infection" [All Fields])
-("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("association" [MeSH Terms] OR "association" [All Fields])
-("human microbiome" [MeSH Terms] OR "human microbiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pandemic" [MeSH Terms] OR "pandemic" [All Fields])
-("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
-("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("disease severity" [MeSH Terms] OR "disease severity" [All Fields])
-("gut microbiota" [MeSH Terms] OR "gut microbiota" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("fecal shedding" [MeSH Terms] OR "fecal shedding" [All Fields])
-("fecal mycobiome" [MeSH Terms] OR "fecal mycobiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hospitalization" [MeSH Terms] OR "hospitalization" [All Fields])
-("fecal mycobiome" [MeSH Terms] OR "fecal mycobiome" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("disease progression" [MeSH Terms] OR "disease progression" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("public health measures" [MeSH Terms] OR "public health measures" [All Fields]) AND ("systematic review" [Publication Type] OR "systematic review" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("public health interventions" [MeSH Terms] OR "public health interventions" [All Fields]) AND ("transmission" [MeSH Terms] OR "transmission" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("non-pharmaceutical interventions" [MeSH Terms] OR "non-pharmaceutical interventions" [All Fields]) AND ("outbreak control" [MeSH Terms] OR "outbreak control" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("quarantine" [MeSH Terms] OR "quarantine" [All Fields]) AND ("effectiveness" [MeSH Terms] OR "effectiveness" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("travel restrictions" [MeSH Terms] OR "travel restrictions" [All Fields]) AND ("pandemic response" [MeSH Terms] OR "pandemic response" [All Fields])
-("digital tools" [MeSH Terms] OR "digital tools" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pandemic containment" [MeSH Terms] OR "pandemic containment" [All Fields])
-("social distancing" [MeSH Terms] OR "social distancing" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact assessment" [MeSH Terms] OR "impact assessment" [All Fields])
-("epidemiological characteristics" [MeSH Terms] OR "epidemiological characteristics" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("wartime control measures" [MeSH Terms] OR "wartime control measures" [All Fields])
-("population-level retrospective study" [MeSH Terms] OR "population-level retrospective study" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("transmission dynamics" [MeSH Terms] OR "transmission dynamics" [All Fields])
-("influenza" [MeSH Terms] OR "influenza" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("comparison study" [MeSH Terms] OR "comparison study" [All Fields])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("weather" [MeSH Terms] OR "weather" [All Fields]) AND ("mortality" [MeSH Terms] OR "mortality" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature" [MeSH Terms] OR "temperature" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("seasonal influenza" [MeSH Terms] OR "seasonal influenza" [All Fields]) AND ("virus transmission" [MeSH Terms] OR "virus transmission" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature variation" [MeSH Terms] OR "temperature variation" [All Fields]) AND ("diurnal temperature range" [MeSH Terms] OR "diurnal temperature range" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("meteorological parameters" [MeSH Terms] OR "meteorological parameters" [All Fields]) AND ("air pollutant" [MeSH Terms] OR "air pollutant" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("climate variables" [MeSH Terms] OR "climate variables" [All Fields]) AND ("SARS-CoV-2 transmission" [MeSH Terms] OR "SARS-CoV-2 transmission" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("COVID-19 deaths" [MeSH Terms] OR "COVID-19 deaths" [All Fields]) AND ("meteorological conditions" [MeSH Terms] OR "meteorological conditions" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("temperature" [MeSH Terms] OR "temperature" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("environmental factors" [MeSH Terms] OR "environmental factors" [All Fields]) AND ("COVID-19 transmission" [MeSH Terms] OR "COVID-19 transmission" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("humidity" [MeSH Terms] OR "humidity" [All Fields]) AND ("sun exposure" [MeSH Terms] OR "sun exposure" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("meta-analysis" [MeSH Terms] OR "meta-analysis" [All Fields])
-("SARS-CoV-2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("patient harm" [MeSH Terms] OR "patient harm" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("associated factors" [MeSH Terms] OR "associated factors" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("geographical region" [MeSH Terms] OR "geographical region" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("severity of illness" [MeSH Terms] OR "severity of illness" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("patient age" [MeSH Terms] OR "patient age" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("mechanical ventilation" [MeSH Terms] OR "mechanical ventilation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("bacterial co-infection" [MeSH Terms] OR "bacterial co-infection" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("unnecessary antibiotic use" [MeSH Terms] OR "unnecessary antibiotic use" [All Fields]) AND ("patients with COVID-19" [MeSH Terms] OR "patients with COVID-19" [All Fields])
-("antibiotic prescribing" [MeSH Terms] OR "antibiotic prescribing" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("global antibiotic resistance" [MeSH Terms] OR "global antibiotic resistance" [All Fields])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("severe acute respiratory distress syndrome" [MeSH Terms] OR "severe acute respiratory distress syndrome" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("systematic review" [Publication Type] OR "meta-analysis" [Publication Type])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("in-hospital mortality" [MeSH Terms] OR "in-hospital mortality" [All Fields]) AND ("observational study" [Publication Type] OR "randomized clinical trial" [Publication Type])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("ECMO complications" [MeSH Terms] OR "ECMO complications" [All Fields])
-("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("venovenous ECMO" [MeSH Terms] OR "venovenous ECMO" [All Fields])
-("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("duration of ECMO therapy" [MeSH Terms] OR "duration of ECMO therapy" [All Fields])
-("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("ECMO weaning rate" [MeSH Terms] OR "ECMO weaning rate" [All Fields])
-("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("COVID-19 patients" [MeSH Terms] OR "COVID-19 patients" [All Fields]) AND ("ECMO complications" [MeSH Terms] OR "ECMO complications" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("hospital course" [MeSH Terms] OR "hospital course" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("ECMO decision-making" [MeSH Terms] OR "ECMO decision-making" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("extracorporeal membrane oxygenation" [MeSH Terms] OR "extracorporeal membrane oxygenation" [All Fields]) AND ("anticoagulation" [MeSH Terms] OR "anticoagulation" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("lockdown" [All Fields] OR "confinement" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("before and during" [All Fields] OR "pre and post" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("lockdown" [All Fields] OR "confinement" [All Fields]) AND ("changes" [MeSH Terms] OR "differences" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("device-based measures" [MeSH Terms] OR "self-report tools" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("health outcomes" [MeSH Terms] OR "mental benefits" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("populations" [MeSH Terms] OR "groups" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("children" [MeSH Terms] OR "patients" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("public health strategies" [MeSH Terms] OR "interventions" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("device-based measures" [MeSH Terms] OR "self-report tools" [All Fields]) AND ("risk of bias" [MeSH Terms] OR "Newcastle-Ottawa Scale" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("sedentary behavior" [MeSH Terms] OR "sedentary behavior" [All Fields]) AND ("physical activity" [MeSH Terms] OR "physical activity" [All Fields]) AND ("interventions" [MeSH Terms] OR "public health strategies" [MeSH Terms]) AND ("lockdown" [All Fields] OR "confinement" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("isolation" [MeSH Terms] OR "protective measures" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("people with disabilities" [MeSH Terms] OR "people with physical disabilities" [All Fields]) AND ("literature review" [Publication Type] OR "rapid review" [Publication Type])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("daily functioning" [MeSH Terms] OR "access to healthcare" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("changes in lifestyle" [MeSH Terms] OR "mood changes" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("healthcare services" [MeSH Terms] OR "access to healthcare" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("social and lifestyle habits" [MeSH Terms] OR "physical activity" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("impact" [All Fields] OR "effects" [All Fields]) AND ("people with physical disabilities" [All Fields] OR "people with disabilities" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("physical disabilities" [MeSH Terms] OR "physical disabilities" [All Fields]) AND ("public health recommendations" [MeSH Terms] OR "policy makers" [MeSH Terms])
-</t>
-  </si>
-  <si>
-    <t>("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("meta-analysis" [Publication Type] OR "systematic review" [Publication Type])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("lung lesions" [MeSH Terms] OR "ground-glass opacities" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric patients" [All Fields]) AND ("clinical characteristics" [MeSH Terms] OR "symptoms" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("patchy shadows" [All Fields] OR "ground-glass opacities" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("consolidation" [MeSH Terms] OR "lung lobe lesions" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("bilateral lung lesions" [MeSH Terms] OR "pleural effusion" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("pulmonary lesions" [MeSH Terms] OR "subpleural lamellar dense shadows" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("bronchial pneumonia-like changes" [All Fields] OR "patchy opacities" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("chest CT" [MeSH Terms] OR "computed tomography" [MeSH Terms]) AND ("parenchymal bands" [All Fields] OR "pleural thickening" [MeSH Terms])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("pulmonary embolism" [MeSH Terms] OR "PE" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("deep vein thrombosis" [MeSH Terms] OR "DVT" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("D-dimer" [MeSH Terms] OR "diagnostic accuracy" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("incidence" [MeSH Terms] OR "meta-analysis" [Publication Type])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("intensive care unit" [MeSH Terms] OR "ICU" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("CT pulmonary angiography" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("D-dimer levels" [MeSH Terms] OR "diagnostic accuracy" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("bleeding" [MeSH Terms] OR "thrombotic manifestations" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("hemostatic complications" [MeSH Terms] OR "thrombotic complications" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("anticoagulated patients" [MeSH Terms] OR "severe COVID-19 patients" [All Fields])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("diagnostic test accuracy" [All Fields] OR "rapid diagnostic test" [All Fields] OR "fear of COVID-19 scales" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("fear" [MeSH Terms] OR "phobia" [MeSH Terms])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("instrument validation" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychometric properties" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("psychological health" [MeSH Terms] OR "fear assessment" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("FCV-19S" [All Fields] OR "Fear of COVID-19 Scale" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("US college students" [All Fields] OR "FCV-19S validation" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("Fear of COVID-19 Scale" [All Fields] OR "psychometric testing" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("mental illness" [MeSH Terms] OR "Fear of COVID-19 Scale" [All Fields])
-("COVID-19" [MeSH Terms] OR "COVID-19" [All Fields]) AND ("assessment scale development" [MeSH Terms] OR "psychological distress" [MeSH Terms])
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "SARS-CoV-2" [MeSH Terms])
-("Kawasaki disease" [MeSH Terms] OR "Kawasaki-like disease" [All Fields]) AND ("COVID-19" [MeSH Terms] OR "SARS-CoV-2" [MeSH Terms])
-("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("pregnancy" [MeSH Terms] OR "obstetricians" [All Fields])
-("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields]) AND ("children" [MeSH Terms] OR "pediatric intensive care units" [MeSH Terms])
-("gastrointestinal symptoms" [MeSH Terms] OR "gastrointestinal manifestations" [All Fields]) AND ("multisystem inflammatory syndrome" [All Fields] OR "MIS-C" [All Fields])
-("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields]) AND ("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields])
-("C-reactive protein" [MeSH Terms] OR "d-dimer" [MeSH Terms] OR "troponin" [MeSH Terms]) AND ("multisystem inflammatory syndrome" [MeSH Terms] OR "MIS-C" [All Fields])
-("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields]) AND ("outbreak" [MeSH Terms] OR "incidence" [MeSH Terms])
-("immune response" [MeSH Terms] OR "immune response to virus" [All Fields]) AND ("Kawasaki-like disease" [All Fields] OR "Kawasaki disease" [All Fields])
-("left ventricular ejection fraction" [MeSH Terms] OR "cardiac involvement" [All Fields]) AND ("severe acute respiratory syndrome coronavirus 2" [MeSH Terms] OR "SARS-CoV-2" [All Fields])
-</t>
-  </si>
-  <si>
-    <t>(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Gender"[MeSH Terms] OR "Sex"[MeSH Terms]) AND ("Outcomes"[MeSH Terms] OR "Mortality"[MeSH Terms]) AND ("Meta-Analysis as Topic"[MeSH Terms] OR "Systematic Reviews as Topic"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Gender"[MeSH Terms] OR "Sex"[MeSH Terms]) AND ("Severity of Illness Index"[MeSH Terms] OR "Disease Characteristics"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Risk Factors"[MeSH Terms] OR "Fatal Outcome"[MeSH Terms]) AND ("Multivariate Cox Regression Analysis"[MeSH Terms] OR "Nomogram"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("IL-2R"[MeSH Terms] OR "Lymphocytes"[MeSH Terms]) AND ("Clinical Progression"[MeSH Terms] OR "Disease Severity"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Interleukin-6"[MeSH Terms] OR "C-Reactive Protein"[MeSH Terms] OR "Procalcitonin"[MeSH Terms]) AND ("Prognostic Value"[MeSH Terms] OR "Patient Outcomes"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Clinical Characteristics"[MeSH Terms] OR "Laboratory Findings"[MeSH Terms]) AND ("Deceased Patients"[MeSH Terms] OR "Survival Analysis"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Epidemiological Differences"[MeSH Terms] OR "SARS-CoV-2"[MeSH Terms]) AND ("Infectivity"[MeSH Terms] OR "Disease Severity"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Age"[MeSH Terms] OR "Chronic Illness"[MeSH Terms]) AND ("Dyspnea"[MeSH Terms] OR "Laboratory Abnormalities"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Leukocytosis"[MeSH Terms] OR "Lymphopenia"[MeSH Terms]) AND ("Aspartate Aminotransferase"[MeSH Terms] OR "Cardiac Troponin I"[MeSH Terms]))
-(("COVID-19"[MeSH Terms] OR "COVID-19"[Title/Abstract]) AND ("Acute Respiratory Distress Syndrome"[MeSH Terms] OR "Multi-Organ Dysfunction Syndrome"[MeSH Terms]) AND ("Critical Complications"[MeSH Terms] OR "Exacerbation"[MeSH Terms]))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
-("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
-("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND ("COVID-19 Diagnosis"[Mesh] OR "Coronavirus Disease 2019"[Mesh]) AND "Hospital Setting"[Mesh]
-("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
-("Standards for Reporting of Diagnostic Accuracy Studies"[Mesh] OR "STARD Guidelines"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
-("Quality Assessment of Diagnostic Accuracy Studies-2"[Mesh] OR "QUADAS-2"[Mesh]) AND ("Chest X-Ray"[Mesh] OR "Chest Radiography"[Mesh]) AND ("CT Scan"[Mesh] OR "Computed Tomography"[Mesh]) AND ("Ultrasound"[Mesh] OR "Sonography"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
-("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
-("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "CT Scan"[Mesh] AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
-("Diagnostic Test Accuracy"[Mesh] OR "Diagnostic Accuracy Study"[Mesh]) AND "Ultrasound"[Mesh] AND "COVID-19 Diagnosis"[Mesh] AND "Hospital Setting"[Mesh]
-("Receiver Operating Characteristic"[Mesh] OR "ROC Curve"[Mesh]) AND "Chest CT"[Mesh] AND "RT-PCR"[Mesh] AND "COVID-19 Diagnosis"[Mesh]
-</t>
   </si>
   <si>
     <t>[You%Li%you.li2@ed.ac.uk%1,   Xin%Wang%xin.wang-2@ed.ac.uk%2,   Xin%Wang%xin.wang-2@ed.ac.uk%0,   Harish%Nair%NULL%2,   Harish%Nair%NULL%0]</t>
@@ -10380,7 +6838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10415,10 +6873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10837,13 +7291,13 @@
   </sheetPr>
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S69" sqref="S69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10890,7 +7344,7 @@
         <v>617</v>
       </c>
       <c r="O1" t="s">
-        <v>935</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10919,25 +7373,25 @@
         <v>529</v>
       </c>
       <c r="I2" t="s">
-        <v>1043</v>
+        <v>632</v>
       </c>
       <c r="J2" t="s">
         <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>1044</v>
+        <v>633</v>
       </c>
       <c r="L2" t="s">
         <v>617</v>
       </c>
-      <c r="M2" t="s">
-        <v>1045</v>
+      <c r="M2" s="11" t="s">
+        <v>634</v>
       </c>
       <c r="N2" t="s">
         <v>617</v>
       </c>
-      <c r="O2" t="s">
-        <v>1046</v>
+      <c r="O2" s="11" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10969,22 +7423,22 @@
         <v>442</v>
       </c>
       <c r="J3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K3" t="s">
-        <v>1047</v>
+        <v>636</v>
       </c>
       <c r="L3" t="s">
         <v>617</v>
       </c>
       <c r="M3" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N3" t="s">
         <v>617</v>
       </c>
       <c r="O3" t="s">
-        <v>1049</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11013,25 +7467,25 @@
         <v>530</v>
       </c>
       <c r="I4" t="s">
-        <v>1050</v>
+        <v>639</v>
       </c>
       <c r="J4" t="s">
         <v>460</v>
       </c>
       <c r="K4" t="s">
-        <v>1051</v>
+        <v>640</v>
       </c>
       <c r="L4" t="s">
         <v>617</v>
       </c>
       <c r="M4" t="s">
-        <v>1052</v>
+        <v>641</v>
       </c>
       <c r="N4" t="s">
         <v>617</v>
       </c>
       <c r="O4" t="s">
-        <v>1053</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11060,25 +7514,25 @@
         <v>531</v>
       </c>
       <c r="I5" t="s">
-        <v>1054</v>
+        <v>643</v>
       </c>
       <c r="J5" t="s">
         <v>461</v>
       </c>
       <c r="K5" t="s">
-        <v>1055</v>
+        <v>644</v>
       </c>
       <c r="L5" t="s">
         <v>617</v>
       </c>
       <c r="M5" t="s">
-        <v>1056</v>
+        <v>645</v>
       </c>
       <c r="N5" t="s">
         <v>617</v>
       </c>
       <c r="O5" t="s">
-        <v>1057</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11107,25 +7561,25 @@
         <v>532</v>
       </c>
       <c r="I6" t="s">
-        <v>1058</v>
+        <v>647</v>
       </c>
       <c r="J6" t="s">
         <v>462</v>
       </c>
       <c r="K6" t="s">
-        <v>1059</v>
+        <v>648</v>
       </c>
       <c r="L6" t="s">
         <v>617</v>
       </c>
       <c r="M6" t="s">
-        <v>1060</v>
+        <v>649</v>
       </c>
       <c r="N6" t="s">
         <v>617</v>
       </c>
       <c r="O6" t="s">
-        <v>1061</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11157,22 +7611,22 @@
         <v>442</v>
       </c>
       <c r="J7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K7" t="s">
-        <v>1062</v>
+        <v>651</v>
       </c>
       <c r="L7" t="s">
         <v>617</v>
       </c>
       <c r="M7" t="s">
-        <v>1063</v>
+        <v>652</v>
       </c>
       <c r="N7" t="s">
         <v>617</v>
       </c>
       <c r="O7" t="s">
-        <v>1064</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11201,25 +7655,25 @@
         <v>619</v>
       </c>
       <c r="I8" t="s">
-        <v>1065</v>
+        <v>654</v>
       </c>
       <c r="J8" t="s">
         <v>463</v>
       </c>
       <c r="K8" t="s">
-        <v>1066</v>
+        <v>655</v>
       </c>
       <c r="L8" t="s">
         <v>617</v>
       </c>
       <c r="M8" t="s">
-        <v>1067</v>
+        <v>656</v>
       </c>
       <c r="N8" t="s">
         <v>617</v>
       </c>
       <c r="O8" t="s">
-        <v>1068</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11248,25 +7702,25 @@
         <v>533</v>
       </c>
       <c r="I9" t="s">
-        <v>1069</v>
+        <v>658</v>
       </c>
       <c r="J9" t="s">
         <v>464</v>
       </c>
       <c r="K9" t="s">
-        <v>1070</v>
+        <v>659</v>
       </c>
       <c r="L9" t="s">
         <v>617</v>
       </c>
       <c r="M9" t="s">
-        <v>1071</v>
+        <v>660</v>
       </c>
       <c r="N9" t="s">
         <v>617</v>
       </c>
       <c r="O9" t="s">
-        <v>1072</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11295,25 +7749,25 @@
         <v>534</v>
       </c>
       <c r="I10" t="s">
-        <v>1073</v>
+        <v>662</v>
       </c>
       <c r="J10" t="s">
         <v>465</v>
       </c>
       <c r="K10" t="s">
-        <v>1074</v>
+        <v>663</v>
       </c>
       <c r="L10" t="s">
         <v>617</v>
       </c>
       <c r="M10" t="s">
-        <v>1075</v>
+        <v>664</v>
       </c>
       <c r="N10" t="s">
         <v>617</v>
       </c>
       <c r="O10" t="s">
-        <v>1076</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11342,25 +7796,25 @@
         <v>535</v>
       </c>
       <c r="I11" t="s">
-        <v>1077</v>
+        <v>666</v>
       </c>
       <c r="J11" t="s">
         <v>466</v>
       </c>
       <c r="K11" t="s">
-        <v>1078</v>
+        <v>667</v>
       </c>
       <c r="L11" t="s">
         <v>617</v>
       </c>
       <c r="M11" t="s">
-        <v>1079</v>
+        <v>668</v>
       </c>
       <c r="N11" t="s">
         <v>617</v>
       </c>
       <c r="O11" t="s">
-        <v>1080</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11389,25 +7843,25 @@
         <v>536</v>
       </c>
       <c r="I12" t="s">
-        <v>1081</v>
+        <v>670</v>
       </c>
       <c r="J12" t="s">
         <v>467</v>
       </c>
       <c r="K12" t="s">
-        <v>1082</v>
+        <v>671</v>
       </c>
       <c r="L12" t="s">
         <v>617</v>
       </c>
       <c r="M12" t="s">
-        <v>1083</v>
+        <v>672</v>
       </c>
       <c r="N12" t="s">
         <v>617</v>
       </c>
       <c r="O12" t="s">
-        <v>1084</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11436,25 +7890,25 @@
         <v>537</v>
       </c>
       <c r="I13" t="s">
-        <v>1085</v>
+        <v>674</v>
       </c>
       <c r="J13" t="s">
         <v>468</v>
       </c>
       <c r="K13" t="s">
-        <v>1086</v>
+        <v>675</v>
       </c>
       <c r="L13" t="s">
         <v>617</v>
       </c>
       <c r="M13" t="s">
-        <v>1087</v>
+        <v>676</v>
       </c>
       <c r="N13" t="s">
         <v>617</v>
       </c>
       <c r="O13" t="s">
-        <v>1088</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11483,25 +7937,25 @@
         <v>538</v>
       </c>
       <c r="I14" t="s">
-        <v>1089</v>
+        <v>678</v>
       </c>
       <c r="J14" t="s">
         <v>469</v>
       </c>
       <c r="K14" t="s">
-        <v>1090</v>
+        <v>679</v>
       </c>
       <c r="L14" t="s">
         <v>617</v>
       </c>
       <c r="M14" t="s">
-        <v>1091</v>
+        <v>680</v>
       </c>
       <c r="N14" t="s">
         <v>617</v>
       </c>
       <c r="O14" t="s">
-        <v>1092</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11530,25 +7984,25 @@
         <v>539</v>
       </c>
       <c r="I15" t="s">
-        <v>1093</v>
+        <v>682</v>
       </c>
       <c r="J15" t="s">
         <v>470</v>
       </c>
       <c r="K15" t="s">
-        <v>1094</v>
+        <v>683</v>
       </c>
       <c r="L15" t="s">
         <v>617</v>
       </c>
       <c r="M15" t="s">
-        <v>1095</v>
+        <v>684</v>
       </c>
       <c r="N15" t="s">
         <v>617</v>
       </c>
       <c r="O15" t="s">
-        <v>1096</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11580,22 +8034,22 @@
         <v>442</v>
       </c>
       <c r="J16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K16" t="s">
-        <v>1097</v>
+        <v>686</v>
       </c>
       <c r="L16" t="s">
         <v>617</v>
       </c>
       <c r="M16" t="s">
-        <v>1098</v>
+        <v>687</v>
       </c>
       <c r="N16" t="s">
         <v>617</v>
       </c>
       <c r="O16" t="s">
-        <v>1099</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11624,25 +8078,25 @@
         <v>540</v>
       </c>
       <c r="I17" t="s">
-        <v>1100</v>
+        <v>689</v>
       </c>
       <c r="J17" t="s">
         <v>471</v>
       </c>
       <c r="K17" t="s">
-        <v>1101</v>
+        <v>690</v>
       </c>
       <c r="L17" t="s">
         <v>617</v>
       </c>
       <c r="M17" t="s">
-        <v>1102</v>
+        <v>691</v>
       </c>
       <c r="N17" t="s">
         <v>617</v>
       </c>
       <c r="O17" t="s">
-        <v>1103</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11671,25 +8125,25 @@
         <v>541</v>
       </c>
       <c r="I18" t="s">
-        <v>1104</v>
+        <v>693</v>
       </c>
       <c r="J18" t="s">
         <v>470</v>
       </c>
       <c r="K18" t="s">
-        <v>1105</v>
+        <v>694</v>
       </c>
       <c r="L18" t="s">
         <v>617</v>
       </c>
       <c r="M18" t="s">
-        <v>1106</v>
+        <v>695</v>
       </c>
       <c r="N18" t="s">
         <v>617</v>
       </c>
       <c r="O18" t="s">
-        <v>1107</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11721,22 +8175,22 @@
         <v>442</v>
       </c>
       <c r="J19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K19" t="s">
-        <v>1108</v>
+        <v>697</v>
       </c>
       <c r="L19" t="s">
         <v>617</v>
       </c>
       <c r="M19" t="s">
-        <v>1109</v>
+        <v>698</v>
       </c>
       <c r="N19" t="s">
         <v>617</v>
       </c>
       <c r="O19" t="s">
-        <v>1110</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11752,10 +8206,10 @@
       <c r="D20" s="10">
         <v>44166</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="1" t="s">
         <v>438</v>
       </c>
@@ -11766,22 +8220,22 @@
         <v>442</v>
       </c>
       <c r="J20" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K20" t="s">
-        <v>1111</v>
+        <v>700</v>
       </c>
       <c r="L20" t="s">
         <v>617</v>
       </c>
       <c r="M20" t="s">
-        <v>1112</v>
+        <v>701</v>
       </c>
       <c r="N20" t="s">
         <v>617</v>
       </c>
       <c r="O20" t="s">
-        <v>1113</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11810,25 +8264,25 @@
         <v>543</v>
       </c>
       <c r="I21" t="s">
-        <v>1114</v>
+        <v>703</v>
       </c>
       <c r="J21" t="s">
         <v>472</v>
       </c>
       <c r="K21" t="s">
-        <v>1115</v>
+        <v>704</v>
       </c>
       <c r="L21" t="s">
         <v>617</v>
       </c>
       <c r="M21" t="s">
-        <v>1116</v>
+        <v>705</v>
       </c>
       <c r="N21" t="s">
         <v>617</v>
       </c>
       <c r="O21" t="s">
-        <v>1117</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11857,25 +8311,25 @@
         <v>544</v>
       </c>
       <c r="I22" t="s">
-        <v>1118</v>
+        <v>707</v>
       </c>
       <c r="J22" t="s">
         <v>473</v>
       </c>
       <c r="K22" t="s">
-        <v>1119</v>
+        <v>708</v>
       </c>
       <c r="L22" t="s">
         <v>617</v>
       </c>
       <c r="M22" t="s">
-        <v>1120</v>
+        <v>709</v>
       </c>
       <c r="N22" t="s">
         <v>617</v>
       </c>
       <c r="O22" t="s">
-        <v>1121</v>
+        <v>710</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11907,22 +8361,22 @@
         <v>442</v>
       </c>
       <c r="J23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K23" t="s">
-        <v>1122</v>
+        <v>711</v>
       </c>
       <c r="L23" t="s">
         <v>617</v>
       </c>
       <c r="M23" t="s">
-        <v>1123</v>
+        <v>712</v>
       </c>
       <c r="N23" t="s">
         <v>617</v>
       </c>
       <c r="O23" t="s">
-        <v>1124</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11951,25 +8405,25 @@
         <v>545</v>
       </c>
       <c r="I24" t="s">
-        <v>1125</v>
+        <v>714</v>
       </c>
       <c r="J24" t="s">
         <v>474</v>
       </c>
       <c r="K24" t="s">
-        <v>1126</v>
+        <v>715</v>
       </c>
       <c r="L24" t="s">
         <v>617</v>
       </c>
       <c r="M24" t="s">
-        <v>1127</v>
+        <v>716</v>
       </c>
       <c r="N24" t="s">
         <v>617</v>
       </c>
       <c r="O24" t="s">
-        <v>1128</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11998,25 +8452,25 @@
         <v>546</v>
       </c>
       <c r="I25" t="s">
-        <v>1129</v>
+        <v>718</v>
       </c>
       <c r="J25" t="s">
         <v>475</v>
       </c>
       <c r="K25" t="s">
-        <v>1130</v>
+        <v>719</v>
       </c>
       <c r="L25" t="s">
         <v>617</v>
       </c>
       <c r="M25" t="s">
-        <v>1131</v>
+        <v>720</v>
       </c>
       <c r="N25" t="s">
         <v>617</v>
       </c>
       <c r="O25" t="s">
-        <v>1132</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12045,25 +8499,25 @@
         <v>547</v>
       </c>
       <c r="I26" t="s">
-        <v>1133</v>
+        <v>722</v>
       </c>
       <c r="J26" t="s">
         <v>476</v>
       </c>
       <c r="K26" t="s">
-        <v>1134</v>
+        <v>723</v>
       </c>
       <c r="L26" t="s">
         <v>617</v>
       </c>
       <c r="M26" t="s">
-        <v>1135</v>
+        <v>724</v>
       </c>
       <c r="N26" t="s">
         <v>617</v>
       </c>
       <c r="O26" t="s">
-        <v>1136</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12095,22 +8549,22 @@
         <v>442</v>
       </c>
       <c r="J27" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K27" t="s">
-        <v>1137</v>
+        <v>726</v>
       </c>
       <c r="L27" t="s">
         <v>617</v>
       </c>
       <c r="M27" t="s">
-        <v>1138</v>
+        <v>727</v>
       </c>
       <c r="N27" t="s">
         <v>617</v>
       </c>
       <c r="O27" t="s">
-        <v>1139</v>
+        <v>728</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12139,25 +8593,25 @@
         <v>548</v>
       </c>
       <c r="I28" t="s">
-        <v>1140</v>
+        <v>729</v>
       </c>
       <c r="J28" t="s">
         <v>477</v>
       </c>
       <c r="K28" t="s">
-        <v>1141</v>
+        <v>730</v>
       </c>
       <c r="L28" t="s">
         <v>617</v>
       </c>
       <c r="M28" t="s">
-        <v>1142</v>
+        <v>731</v>
       </c>
       <c r="N28" t="s">
         <v>617</v>
       </c>
       <c r="O28" t="s">
-        <v>1143</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12186,25 +8640,25 @@
         <v>549</v>
       </c>
       <c r="I29" t="s">
-        <v>1144</v>
+        <v>733</v>
       </c>
       <c r="J29" t="s">
         <v>478</v>
       </c>
       <c r="K29" t="s">
-        <v>1145</v>
+        <v>734</v>
       </c>
       <c r="L29" t="s">
         <v>617</v>
       </c>
       <c r="M29" t="s">
-        <v>1146</v>
+        <v>735</v>
       </c>
       <c r="N29" t="s">
         <v>617</v>
       </c>
       <c r="O29" t="s">
-        <v>1147</v>
+        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12236,22 +8690,22 @@
         <v>442</v>
       </c>
       <c r="J30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K30" t="s">
-        <v>1148</v>
+        <v>737</v>
       </c>
       <c r="L30" t="s">
         <v>617</v>
       </c>
       <c r="M30" t="s">
-        <v>1149</v>
+        <v>738</v>
       </c>
       <c r="N30" t="s">
         <v>617</v>
       </c>
       <c r="O30" t="s">
-        <v>1150</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12280,25 +8734,25 @@
         <v>530</v>
       </c>
       <c r="I31" t="s">
-        <v>1151</v>
+        <v>740</v>
       </c>
       <c r="J31" t="s">
         <v>460</v>
       </c>
       <c r="K31" t="s">
-        <v>1152</v>
+        <v>741</v>
       </c>
       <c r="L31" t="s">
         <v>617</v>
       </c>
       <c r="M31" t="s">
-        <v>1153</v>
+        <v>742</v>
       </c>
       <c r="N31" t="s">
         <v>617</v>
       </c>
       <c r="O31" t="s">
-        <v>1154</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12327,25 +8781,25 @@
         <v>550</v>
       </c>
       <c r="I32" t="s">
-        <v>1155</v>
+        <v>744</v>
       </c>
       <c r="J32" t="s">
         <v>467</v>
       </c>
       <c r="K32" t="s">
-        <v>1156</v>
+        <v>745</v>
       </c>
       <c r="L32" t="s">
         <v>617</v>
       </c>
       <c r="M32" t="s">
-        <v>1157</v>
+        <v>746</v>
       </c>
       <c r="N32" t="s">
         <v>617</v>
       </c>
       <c r="O32" t="s">
-        <v>1158</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12374,25 +8828,25 @@
         <v>551</v>
       </c>
       <c r="I33" t="s">
-        <v>1159</v>
+        <v>748</v>
       </c>
       <c r="J33" t="s">
         <v>479</v>
       </c>
       <c r="K33" t="s">
-        <v>1160</v>
+        <v>749</v>
       </c>
       <c r="L33" t="s">
         <v>617</v>
       </c>
       <c r="M33" t="s">
-        <v>1161</v>
+        <v>750</v>
       </c>
       <c r="N33" t="s">
         <v>617</v>
       </c>
       <c r="O33" t="s">
-        <v>1162</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12421,25 +8875,25 @@
         <v>621</v>
       </c>
       <c r="I34" t="s">
-        <v>1163</v>
+        <v>752</v>
       </c>
       <c r="J34" t="s">
         <v>480</v>
       </c>
       <c r="K34" t="s">
-        <v>1164</v>
+        <v>753</v>
       </c>
       <c r="L34" t="s">
         <v>617</v>
       </c>
       <c r="M34" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N34" t="s">
         <v>617</v>
       </c>
       <c r="O34" t="s">
-        <v>1165</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12468,25 +8922,25 @@
         <v>552</v>
       </c>
       <c r="I35" t="s">
-        <v>1166</v>
+        <v>755</v>
       </c>
       <c r="J35" t="s">
         <v>481</v>
       </c>
       <c r="K35" t="s">
-        <v>1167</v>
+        <v>756</v>
       </c>
       <c r="L35" t="s">
         <v>617</v>
       </c>
       <c r="M35" t="s">
-        <v>1168</v>
+        <v>757</v>
       </c>
       <c r="N35" t="s">
         <v>617</v>
       </c>
       <c r="O35" t="s">
-        <v>1169</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12518,22 +8972,22 @@
         <v>442</v>
       </c>
       <c r="J36" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K36" t="s">
-        <v>1170</v>
+        <v>759</v>
       </c>
       <c r="L36" t="s">
         <v>617</v>
       </c>
       <c r="M36" t="s">
-        <v>1171</v>
+        <v>760</v>
       </c>
       <c r="N36" t="s">
         <v>617</v>
       </c>
       <c r="O36" t="s">
-        <v>1172</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12562,25 +9016,25 @@
         <v>553</v>
       </c>
       <c r="I37" t="s">
-        <v>1173</v>
+        <v>762</v>
       </c>
       <c r="J37" t="s">
         <v>467</v>
       </c>
       <c r="K37" t="s">
-        <v>1174</v>
+        <v>763</v>
       </c>
       <c r="L37" t="s">
         <v>617</v>
       </c>
       <c r="M37" t="s">
-        <v>1175</v>
+        <v>764</v>
       </c>
       <c r="N37" t="s">
         <v>617</v>
       </c>
       <c r="O37" t="s">
-        <v>1176</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12609,25 +9063,25 @@
         <v>554</v>
       </c>
       <c r="I38" t="s">
-        <v>1177</v>
+        <v>766</v>
       </c>
       <c r="J38" t="s">
         <v>482</v>
       </c>
       <c r="K38" t="s">
-        <v>1178</v>
+        <v>767</v>
       </c>
       <c r="L38" t="s">
         <v>617</v>
       </c>
       <c r="M38" t="s">
-        <v>1179</v>
+        <v>768</v>
       </c>
       <c r="N38" t="s">
         <v>617</v>
       </c>
       <c r="O38" t="s">
-        <v>1180</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12656,25 +9110,25 @@
         <v>555</v>
       </c>
       <c r="I39" t="s">
-        <v>1181</v>
+        <v>770</v>
       </c>
       <c r="J39" t="s">
         <v>483</v>
       </c>
       <c r="K39" t="s">
-        <v>1182</v>
+        <v>771</v>
       </c>
       <c r="L39" t="s">
         <v>617</v>
       </c>
       <c r="M39" t="s">
-        <v>1183</v>
+        <v>772</v>
       </c>
       <c r="N39" t="s">
         <v>617</v>
       </c>
       <c r="O39" t="s">
-        <v>1184</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12703,25 +9157,25 @@
         <v>556</v>
       </c>
       <c r="I40" t="s">
-        <v>1185</v>
+        <v>774</v>
       </c>
       <c r="J40" t="s">
         <v>484</v>
       </c>
       <c r="K40" t="s">
-        <v>1186</v>
+        <v>775</v>
       </c>
       <c r="L40" t="s">
         <v>617</v>
       </c>
       <c r="M40" t="s">
-        <v>1187</v>
+        <v>776</v>
       </c>
       <c r="N40" t="s">
         <v>617</v>
       </c>
       <c r="O40" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12753,22 +9207,22 @@
         <v>442</v>
       </c>
       <c r="J41" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K41" t="s">
-        <v>1188</v>
+        <v>777</v>
       </c>
       <c r="L41" t="s">
         <v>617</v>
       </c>
       <c r="M41" t="s">
-        <v>1189</v>
+        <v>778</v>
       </c>
       <c r="N41" t="s">
         <v>617</v>
       </c>
       <c r="O41" t="s">
-        <v>1190</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12797,25 +9251,25 @@
         <v>558</v>
       </c>
       <c r="I42" t="s">
-        <v>1191</v>
+        <v>780</v>
       </c>
       <c r="J42" t="s">
         <v>485</v>
       </c>
       <c r="K42" t="s">
-        <v>1192</v>
+        <v>781</v>
       </c>
       <c r="L42" t="s">
         <v>617</v>
       </c>
       <c r="M42" t="s">
-        <v>1193</v>
+        <v>782</v>
       </c>
       <c r="N42" t="s">
         <v>617</v>
       </c>
       <c r="O42" t="s">
-        <v>1194</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12847,22 +9301,22 @@
         <v>442</v>
       </c>
       <c r="J43" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K43" t="s">
-        <v>1195</v>
+        <v>784</v>
       </c>
       <c r="L43" t="s">
         <v>617</v>
       </c>
       <c r="M43" t="s">
-        <v>1196</v>
+        <v>785</v>
       </c>
       <c r="N43" t="s">
         <v>617</v>
       </c>
       <c r="O43" t="s">
-        <v>1197</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12891,25 +9345,25 @@
         <v>553</v>
       </c>
       <c r="I44" t="s">
-        <v>1198</v>
+        <v>787</v>
       </c>
       <c r="J44" t="s">
         <v>467</v>
       </c>
       <c r="K44" t="s">
-        <v>1199</v>
+        <v>788</v>
       </c>
       <c r="L44" t="s">
         <v>617</v>
       </c>
       <c r="M44" t="s">
-        <v>1200</v>
+        <v>789</v>
       </c>
       <c r="N44" t="s">
         <v>617</v>
       </c>
       <c r="O44" t="s">
-        <v>1201</v>
+        <v>790</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12938,25 +9392,25 @@
         <v>560</v>
       </c>
       <c r="I45" t="s">
-        <v>1202</v>
+        <v>791</v>
       </c>
       <c r="J45" t="s">
         <v>486</v>
       </c>
       <c r="K45" t="s">
-        <v>1203</v>
+        <v>792</v>
       </c>
       <c r="L45" t="s">
         <v>617</v>
       </c>
       <c r="M45" t="s">
-        <v>1204</v>
+        <v>793</v>
       </c>
       <c r="N45" t="s">
         <v>617</v>
       </c>
       <c r="O45" t="s">
-        <v>1205</v>
+        <v>794</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12985,25 +9439,25 @@
         <v>561</v>
       </c>
       <c r="I46" t="s">
-        <v>1206</v>
+        <v>795</v>
       </c>
       <c r="J46" t="s">
         <v>487</v>
       </c>
       <c r="K46" t="s">
-        <v>1207</v>
+        <v>796</v>
       </c>
       <c r="L46" t="s">
         <v>617</v>
       </c>
       <c r="M46" t="s">
-        <v>1208</v>
+        <v>797</v>
       </c>
       <c r="N46" t="s">
         <v>617</v>
       </c>
       <c r="O46" t="s">
-        <v>1209</v>
+        <v>798</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13032,25 +9486,25 @@
         <v>562</v>
       </c>
       <c r="I47" t="s">
-        <v>1210</v>
+        <v>799</v>
       </c>
       <c r="J47" t="s">
         <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>1211</v>
+        <v>800</v>
       </c>
       <c r="L47" t="s">
         <v>617</v>
       </c>
       <c r="M47" t="s">
-        <v>1212</v>
+        <v>801</v>
       </c>
       <c r="N47" t="s">
         <v>617</v>
       </c>
       <c r="O47" t="s">
-        <v>1213</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13079,25 +9533,25 @@
         <v>563</v>
       </c>
       <c r="I48" t="s">
-        <v>1214</v>
+        <v>803</v>
       </c>
       <c r="J48" t="s">
         <v>489</v>
       </c>
       <c r="K48" t="s">
-        <v>1215</v>
+        <v>804</v>
       </c>
       <c r="L48" t="s">
         <v>617</v>
       </c>
       <c r="M48" t="s">
-        <v>1216</v>
+        <v>805</v>
       </c>
       <c r="N48" t="s">
         <v>617</v>
       </c>
       <c r="O48" t="s">
-        <v>1217</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13126,25 +9580,25 @@
         <v>564</v>
       </c>
       <c r="I49" t="s">
-        <v>1218</v>
+        <v>807</v>
       </c>
       <c r="J49" t="s">
         <v>490</v>
       </c>
       <c r="K49" t="s">
-        <v>1219</v>
+        <v>808</v>
       </c>
       <c r="L49" t="s">
         <v>617</v>
       </c>
       <c r="M49" t="s">
-        <v>1220</v>
+        <v>809</v>
       </c>
       <c r="N49" t="s">
         <v>617</v>
       </c>
       <c r="O49" t="s">
-        <v>1221</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13173,25 +9627,25 @@
         <v>565</v>
       </c>
       <c r="I50" t="s">
-        <v>1222</v>
+        <v>811</v>
       </c>
       <c r="J50" t="s">
         <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>1223</v>
+        <v>812</v>
       </c>
       <c r="L50" t="s">
         <v>617</v>
       </c>
       <c r="M50" t="s">
-        <v>1224</v>
+        <v>813</v>
       </c>
       <c r="N50" t="s">
         <v>617</v>
       </c>
       <c r="O50" t="s">
-        <v>1225</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13226,19 +9680,19 @@
         <v>624</v>
       </c>
       <c r="K51" t="s">
-        <v>1226</v>
+        <v>815</v>
       </c>
       <c r="L51" t="s">
         <v>617</v>
       </c>
       <c r="M51" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N51" t="s">
         <v>617</v>
       </c>
       <c r="O51" t="s">
-        <v>1227</v>
+        <v>816</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13267,25 +9721,25 @@
         <v>566</v>
       </c>
       <c r="I52" t="s">
-        <v>1228</v>
+        <v>817</v>
       </c>
       <c r="J52" t="s">
         <v>492</v>
       </c>
       <c r="K52" t="s">
-        <v>1229</v>
+        <v>818</v>
       </c>
       <c r="L52" t="s">
         <v>617</v>
       </c>
       <c r="M52" t="s">
-        <v>1230</v>
+        <v>819</v>
       </c>
       <c r="N52" t="s">
         <v>617</v>
       </c>
       <c r="O52" t="s">
-        <v>1231</v>
+        <v>820</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13314,25 +9768,25 @@
         <v>567</v>
       </c>
       <c r="I53" t="s">
-        <v>1232</v>
+        <v>821</v>
       </c>
       <c r="J53" t="s">
         <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>1233</v>
+        <v>822</v>
       </c>
       <c r="L53" t="s">
         <v>617</v>
       </c>
       <c r="M53" t="s">
-        <v>1234</v>
+        <v>823</v>
       </c>
       <c r="N53" t="s">
         <v>617</v>
       </c>
       <c r="O53" t="s">
-        <v>1235</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13361,25 +9815,25 @@
         <v>568</v>
       </c>
       <c r="I54" t="s">
-        <v>1236</v>
+        <v>825</v>
       </c>
       <c r="J54" t="s">
         <v>494</v>
       </c>
       <c r="K54" t="s">
-        <v>1237</v>
+        <v>826</v>
       </c>
       <c r="L54" t="s">
         <v>617</v>
       </c>
       <c r="M54" t="s">
-        <v>1238</v>
+        <v>827</v>
       </c>
       <c r="N54" t="s">
         <v>617</v>
       </c>
       <c r="O54" t="s">
-        <v>1239</v>
+        <v>828</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13408,25 +9862,25 @@
         <v>569</v>
       </c>
       <c r="I55" t="s">
-        <v>1240</v>
+        <v>829</v>
       </c>
       <c r="J55" t="s">
         <v>495</v>
       </c>
       <c r="K55" t="s">
-        <v>1241</v>
+        <v>830</v>
       </c>
       <c r="L55" t="s">
         <v>617</v>
       </c>
       <c r="M55" t="s">
-        <v>1242</v>
+        <v>831</v>
       </c>
       <c r="N55" t="s">
         <v>617</v>
       </c>
       <c r="O55" t="s">
-        <v>1243</v>
+        <v>832</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13458,22 +9912,22 @@
         <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K56" t="s">
-        <v>1244</v>
+        <v>833</v>
       </c>
       <c r="L56" t="s">
         <v>617</v>
       </c>
       <c r="M56" t="s">
-        <v>1245</v>
+        <v>834</v>
       </c>
       <c r="N56" t="s">
         <v>617</v>
       </c>
       <c r="O56" t="s">
-        <v>1246</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13502,25 +9956,25 @@
         <v>570</v>
       </c>
       <c r="I57" t="s">
-        <v>1247</v>
+        <v>836</v>
       </c>
       <c r="J57" t="s">
         <v>464</v>
       </c>
       <c r="K57" t="s">
-        <v>1248</v>
+        <v>837</v>
       </c>
       <c r="L57" t="s">
         <v>617</v>
       </c>
       <c r="M57" t="s">
-        <v>1249</v>
+        <v>838</v>
       </c>
       <c r="N57" t="s">
         <v>617</v>
       </c>
       <c r="O57" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13555,19 +10009,19 @@
         <v>496</v>
       </c>
       <c r="K58" t="s">
-        <v>1250</v>
+        <v>839</v>
       </c>
       <c r="L58" t="s">
         <v>617</v>
       </c>
       <c r="M58" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N58" t="s">
         <v>617</v>
       </c>
       <c r="O58" t="s">
-        <v>1251</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13596,25 +10050,25 @@
         <v>571</v>
       </c>
       <c r="I59" t="s">
-        <v>1252</v>
+        <v>841</v>
       </c>
       <c r="J59" t="s">
         <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>1253</v>
+        <v>842</v>
       </c>
       <c r="L59" t="s">
         <v>617</v>
       </c>
       <c r="M59" t="s">
-        <v>1254</v>
+        <v>843</v>
       </c>
       <c r="N59" t="s">
         <v>617</v>
       </c>
       <c r="O59" t="s">
-        <v>1255</v>
+        <v>844</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13643,25 +10097,25 @@
         <v>571</v>
       </c>
       <c r="I60" t="s">
-        <v>1256</v>
+        <v>845</v>
       </c>
       <c r="J60" t="s">
         <v>497</v>
       </c>
       <c r="K60" t="s">
-        <v>1257</v>
+        <v>846</v>
       </c>
       <c r="L60" t="s">
         <v>617</v>
       </c>
       <c r="M60" t="s">
-        <v>1258</v>
+        <v>847</v>
       </c>
       <c r="N60" t="s">
         <v>617</v>
       </c>
       <c r="O60" t="s">
-        <v>1259</v>
+        <v>848</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13690,25 +10144,25 @@
         <v>572</v>
       </c>
       <c r="I61" t="s">
-        <v>1260</v>
+        <v>849</v>
       </c>
       <c r="J61" t="s">
         <v>494</v>
       </c>
       <c r="K61" t="s">
-        <v>1261</v>
+        <v>850</v>
       </c>
       <c r="L61" t="s">
         <v>617</v>
       </c>
       <c r="M61" t="s">
-        <v>1262</v>
+        <v>851</v>
       </c>
       <c r="N61" t="s">
         <v>617</v>
       </c>
       <c r="O61" t="s">
-        <v>1263</v>
+        <v>852</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13737,25 +10191,25 @@
         <v>626</v>
       </c>
       <c r="I62" t="s">
-        <v>1264</v>
+        <v>853</v>
       </c>
       <c r="J62" t="s">
         <v>498</v>
       </c>
       <c r="K62" t="s">
-        <v>1265</v>
+        <v>854</v>
       </c>
       <c r="L62" t="s">
         <v>617</v>
       </c>
       <c r="M62" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N62" t="s">
         <v>617</v>
       </c>
       <c r="O62" t="s">
-        <v>1266</v>
+        <v>855</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13784,25 +10238,25 @@
         <v>573</v>
       </c>
       <c r="I63" t="s">
-        <v>1267</v>
+        <v>856</v>
       </c>
       <c r="J63" t="s">
         <v>499</v>
       </c>
       <c r="K63" t="s">
-        <v>1268</v>
+        <v>857</v>
       </c>
       <c r="L63" t="s">
         <v>617</v>
       </c>
       <c r="M63" t="s">
-        <v>1269</v>
+        <v>858</v>
       </c>
       <c r="N63" t="s">
         <v>617</v>
       </c>
       <c r="O63" t="s">
-        <v>1270</v>
+        <v>859</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13831,25 +10285,25 @@
         <v>574</v>
       </c>
       <c r="I64" t="s">
-        <v>1271</v>
+        <v>860</v>
       </c>
       <c r="J64" t="s">
         <v>500</v>
       </c>
       <c r="K64" t="s">
-        <v>1272</v>
+        <v>861</v>
       </c>
       <c r="L64" t="s">
         <v>617</v>
       </c>
       <c r="M64" t="s">
-        <v>1273</v>
+        <v>862</v>
       </c>
       <c r="N64" t="s">
         <v>617</v>
       </c>
       <c r="O64" t="s">
-        <v>1274</v>
+        <v>863</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13878,25 +10332,25 @@
         <v>575</v>
       </c>
       <c r="I65" t="s">
-        <v>1275</v>
+        <v>864</v>
       </c>
       <c r="J65" t="s">
         <v>501</v>
       </c>
       <c r="K65" t="s">
-        <v>1276</v>
+        <v>865</v>
       </c>
       <c r="L65" t="s">
         <v>617</v>
       </c>
       <c r="M65" t="s">
-        <v>1277</v>
+        <v>866</v>
       </c>
       <c r="N65" t="s">
         <v>617</v>
       </c>
       <c r="O65" t="s">
-        <v>1278</v>
+        <v>867</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13928,22 +10382,22 @@
         <v>442</v>
       </c>
       <c r="J66" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K66" t="s">
-        <v>1279</v>
+        <v>868</v>
       </c>
       <c r="L66" t="s">
         <v>617</v>
       </c>
       <c r="M66" t="s">
-        <v>1280</v>
+        <v>869</v>
       </c>
       <c r="N66" t="s">
         <v>617</v>
       </c>
       <c r="O66" t="s">
-        <v>1281</v>
+        <v>870</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -13972,25 +10426,25 @@
         <v>576</v>
       </c>
       <c r="I67" t="s">
-        <v>1282</v>
+        <v>871</v>
       </c>
       <c r="J67" t="s">
         <v>465</v>
       </c>
       <c r="K67" t="s">
-        <v>1283</v>
+        <v>872</v>
       </c>
       <c r="L67" t="s">
         <v>617</v>
       </c>
       <c r="M67" t="s">
-        <v>1284</v>
+        <v>873</v>
       </c>
       <c r="N67" t="s">
         <v>617</v>
       </c>
       <c r="O67" t="s">
-        <v>1285</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14019,25 +10473,25 @@
         <v>577</v>
       </c>
       <c r="I68" t="s">
-        <v>1286</v>
+        <v>875</v>
       </c>
       <c r="J68" t="s">
         <v>502</v>
       </c>
       <c r="K68" t="s">
-        <v>1287</v>
+        <v>876</v>
       </c>
       <c r="L68" t="s">
         <v>617</v>
       </c>
       <c r="M68" t="s">
-        <v>1288</v>
+        <v>877</v>
       </c>
       <c r="N68" t="s">
         <v>617</v>
       </c>
       <c r="O68" t="s">
-        <v>1289</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14066,25 +10520,25 @@
         <v>578</v>
       </c>
       <c r="I69" t="s">
-        <v>1290</v>
+        <v>879</v>
       </c>
       <c r="J69" t="s">
         <v>467</v>
       </c>
       <c r="K69" t="s">
-        <v>1291</v>
+        <v>880</v>
       </c>
       <c r="L69" t="s">
         <v>617</v>
       </c>
       <c r="M69" t="s">
-        <v>1292</v>
+        <v>881</v>
       </c>
       <c r="N69" t="s">
         <v>617</v>
       </c>
       <c r="O69" t="s">
-        <v>1293</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14113,25 +10567,25 @@
         <v>627</v>
       </c>
       <c r="I70" t="s">
-        <v>1294</v>
+        <v>883</v>
       </c>
       <c r="J70" t="s">
         <v>503</v>
       </c>
       <c r="K70" t="s">
-        <v>1295</v>
+        <v>884</v>
       </c>
       <c r="L70" t="s">
         <v>617</v>
       </c>
       <c r="M70" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N70" t="s">
         <v>617</v>
       </c>
       <c r="O70" t="s">
-        <v>1296</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14160,25 +10614,25 @@
         <v>579</v>
       </c>
       <c r="I71" t="s">
-        <v>1297</v>
+        <v>886</v>
       </c>
       <c r="J71" t="s">
         <v>467</v>
       </c>
       <c r="K71" t="s">
-        <v>1298</v>
+        <v>887</v>
       </c>
       <c r="L71" t="s">
         <v>617</v>
       </c>
       <c r="M71" t="s">
-        <v>1299</v>
+        <v>888</v>
       </c>
       <c r="N71" t="s">
         <v>617</v>
       </c>
       <c r="O71" t="s">
-        <v>1300</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14207,25 +10661,25 @@
         <v>580</v>
       </c>
       <c r="I72" t="s">
-        <v>1301</v>
+        <v>890</v>
       </c>
       <c r="J72" t="s">
         <v>504</v>
       </c>
       <c r="K72" t="s">
-        <v>1302</v>
+        <v>891</v>
       </c>
       <c r="L72" t="s">
         <v>617</v>
       </c>
       <c r="M72" t="s">
-        <v>1303</v>
+        <v>892</v>
       </c>
       <c r="N72" t="s">
         <v>617</v>
       </c>
       <c r="O72" t="s">
-        <v>1304</v>
+        <v>893</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14254,25 +10708,25 @@
         <v>581</v>
       </c>
       <c r="I73" t="s">
-        <v>1305</v>
+        <v>894</v>
       </c>
       <c r="J73" t="s">
         <v>505</v>
       </c>
       <c r="K73" t="s">
-        <v>1306</v>
+        <v>895</v>
       </c>
       <c r="L73" t="s">
         <v>617</v>
       </c>
       <c r="M73" t="s">
-        <v>1307</v>
+        <v>896</v>
       </c>
       <c r="N73" t="s">
         <v>617</v>
       </c>
       <c r="O73" t="s">
-        <v>1308</v>
+        <v>897</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14301,25 +10755,25 @@
         <v>582</v>
       </c>
       <c r="I74" t="s">
-        <v>1309</v>
+        <v>898</v>
       </c>
       <c r="J74" t="s">
         <v>506</v>
       </c>
       <c r="K74" t="s">
-        <v>1310</v>
+        <v>899</v>
       </c>
       <c r="L74" t="s">
         <v>617</v>
       </c>
       <c r="M74" t="s">
-        <v>1311</v>
+        <v>900</v>
       </c>
       <c r="N74" t="s">
         <v>617</v>
       </c>
       <c r="O74" t="s">
-        <v>1312</v>
+        <v>901</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14348,25 +10802,25 @@
         <v>583</v>
       </c>
       <c r="I75" t="s">
-        <v>1313</v>
+        <v>902</v>
       </c>
       <c r="J75" t="s">
         <v>507</v>
       </c>
       <c r="K75" t="s">
-        <v>1314</v>
+        <v>903</v>
       </c>
       <c r="L75" t="s">
         <v>617</v>
       </c>
       <c r="M75" t="s">
-        <v>1315</v>
+        <v>904</v>
       </c>
       <c r="N75" t="s">
         <v>617</v>
       </c>
       <c r="O75" t="s">
-        <v>1316</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14395,25 +10849,25 @@
         <v>584</v>
       </c>
       <c r="I76" t="s">
-        <v>1317</v>
+        <v>906</v>
       </c>
       <c r="J76" t="s">
         <v>508</v>
       </c>
       <c r="K76" t="s">
-        <v>1318</v>
+        <v>907</v>
       </c>
       <c r="L76" t="s">
         <v>617</v>
       </c>
       <c r="M76" t="s">
-        <v>1319</v>
+        <v>908</v>
       </c>
       <c r="N76" t="s">
         <v>617</v>
       </c>
       <c r="O76" t="s">
-        <v>1320</v>
+        <v>909</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14445,22 +10899,22 @@
         <v>442</v>
       </c>
       <c r="J77" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K77" t="s">
-        <v>1321</v>
+        <v>910</v>
       </c>
       <c r="L77" t="s">
         <v>617</v>
       </c>
       <c r="M77" t="s">
-        <v>1322</v>
+        <v>911</v>
       </c>
       <c r="N77" t="s">
         <v>617</v>
       </c>
       <c r="O77" t="s">
-        <v>1323</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14489,25 +10943,25 @@
         <v>585</v>
       </c>
       <c r="I78" t="s">
-        <v>1324</v>
+        <v>913</v>
       </c>
       <c r="J78" t="s">
         <v>467</v>
       </c>
       <c r="K78" t="s">
-        <v>1325</v>
+        <v>914</v>
       </c>
       <c r="L78" t="s">
         <v>617</v>
       </c>
       <c r="M78" t="s">
-        <v>1326</v>
+        <v>915</v>
       </c>
       <c r="N78" t="s">
         <v>617</v>
       </c>
       <c r="O78" t="s">
-        <v>1327</v>
+        <v>916</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14536,25 +10990,25 @@
         <v>586</v>
       </c>
       <c r="I79" t="s">
-        <v>1328</v>
+        <v>917</v>
       </c>
       <c r="J79" t="s">
         <v>467</v>
       </c>
       <c r="K79" t="s">
-        <v>1329</v>
+        <v>918</v>
       </c>
       <c r="L79" t="s">
         <v>617</v>
       </c>
       <c r="M79" t="s">
-        <v>1330</v>
+        <v>919</v>
       </c>
       <c r="N79" t="s">
         <v>617</v>
       </c>
       <c r="O79" t="s">
-        <v>1331</v>
+        <v>920</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14583,25 +11037,25 @@
         <v>587</v>
       </c>
       <c r="I80" t="s">
-        <v>1332</v>
+        <v>921</v>
       </c>
       <c r="J80" t="s">
         <v>509</v>
       </c>
       <c r="K80" t="s">
-        <v>1333</v>
+        <v>922</v>
       </c>
       <c r="L80" t="s">
         <v>617</v>
       </c>
       <c r="M80" t="s">
-        <v>1334</v>
+        <v>923</v>
       </c>
       <c r="N80" t="s">
         <v>617</v>
       </c>
       <c r="O80" t="s">
-        <v>1335</v>
+        <v>924</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14630,25 +11084,25 @@
         <v>588</v>
       </c>
       <c r="I81" t="s">
-        <v>1336</v>
+        <v>925</v>
       </c>
       <c r="J81" t="s">
         <v>467</v>
       </c>
       <c r="K81" t="s">
-        <v>1337</v>
+        <v>926</v>
       </c>
       <c r="L81" t="s">
         <v>617</v>
       </c>
       <c r="M81" t="s">
-        <v>1338</v>
+        <v>927</v>
       </c>
       <c r="N81" t="s">
         <v>617</v>
       </c>
       <c r="O81" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14680,22 +11134,22 @@
         <v>442</v>
       </c>
       <c r="J82" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K82" t="s">
-        <v>1339</v>
+        <v>928</v>
       </c>
       <c r="L82" t="s">
         <v>617</v>
       </c>
       <c r="M82" t="s">
-        <v>1340</v>
+        <v>929</v>
       </c>
       <c r="N82" t="s">
         <v>617</v>
       </c>
       <c r="O82" t="s">
-        <v>1341</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14724,25 +11178,25 @@
         <v>589</v>
       </c>
       <c r="I83" t="s">
-        <v>1342</v>
+        <v>931</v>
       </c>
       <c r="J83" t="s">
         <v>467</v>
       </c>
       <c r="K83" t="s">
-        <v>1343</v>
+        <v>932</v>
       </c>
       <c r="L83" t="s">
         <v>617</v>
       </c>
       <c r="M83" t="s">
-        <v>1344</v>
+        <v>933</v>
       </c>
       <c r="N83" t="s">
         <v>617</v>
       </c>
       <c r="O83" t="s">
-        <v>1345</v>
+        <v>934</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14771,25 +11225,25 @@
         <v>590</v>
       </c>
       <c r="I84" t="s">
-        <v>1346</v>
+        <v>935</v>
       </c>
       <c r="J84" t="s">
         <v>510</v>
       </c>
       <c r="K84" t="s">
-        <v>1347</v>
+        <v>936</v>
       </c>
       <c r="L84" t="s">
         <v>617</v>
       </c>
       <c r="M84" t="s">
-        <v>1348</v>
+        <v>937</v>
       </c>
       <c r="N84" t="s">
         <v>617</v>
       </c>
       <c r="O84" t="s">
-        <v>1349</v>
+        <v>938</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14818,25 +11272,25 @@
         <v>591</v>
       </c>
       <c r="I85" t="s">
-        <v>1350</v>
+        <v>939</v>
       </c>
       <c r="J85" t="s">
         <v>511</v>
       </c>
       <c r="K85" t="s">
-        <v>1351</v>
+        <v>940</v>
       </c>
       <c r="L85" t="s">
         <v>617</v>
       </c>
       <c r="M85" t="s">
-        <v>1352</v>
+        <v>941</v>
       </c>
       <c r="N85" t="s">
         <v>617</v>
       </c>
       <c r="O85" t="s">
-        <v>1353</v>
+        <v>942</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14865,25 +11319,25 @@
         <v>592</v>
       </c>
       <c r="I86" t="s">
-        <v>1354</v>
+        <v>943</v>
       </c>
       <c r="J86" t="s">
         <v>512</v>
       </c>
       <c r="K86" t="s">
-        <v>1355</v>
+        <v>944</v>
       </c>
       <c r="L86" t="s">
         <v>617</v>
       </c>
       <c r="M86" t="s">
-        <v>1356</v>
+        <v>945</v>
       </c>
       <c r="N86" t="s">
         <v>617</v>
       </c>
       <c r="O86" t="s">
-        <v>1357</v>
+        <v>946</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14909,28 +11363,28 @@
         <v>438</v>
       </c>
       <c r="H87" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I87" t="s">
         <v>442</v>
       </c>
       <c r="J87" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K87" t="s">
-        <v>1358</v>
+        <v>947</v>
       </c>
       <c r="L87" t="s">
         <v>617</v>
       </c>
       <c r="M87" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N87" t="s">
         <v>617</v>
       </c>
       <c r="O87" t="s">
-        <v>1359</v>
+        <v>948</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14959,25 +11413,25 @@
         <v>593</v>
       </c>
       <c r="I88" t="s">
-        <v>1360</v>
+        <v>949</v>
       </c>
       <c r="J88" t="s">
         <v>513</v>
       </c>
       <c r="K88" t="s">
-        <v>1361</v>
+        <v>950</v>
       </c>
       <c r="L88" t="s">
         <v>617</v>
       </c>
       <c r="M88" t="s">
-        <v>1362</v>
+        <v>951</v>
       </c>
       <c r="N88" t="s">
         <v>617</v>
       </c>
       <c r="O88" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15006,25 +11460,25 @@
         <v>594</v>
       </c>
       <c r="I89" t="s">
-        <v>1363</v>
+        <v>952</v>
       </c>
       <c r="J89" t="s">
         <v>495</v>
       </c>
       <c r="K89" t="s">
-        <v>1364</v>
+        <v>953</v>
       </c>
       <c r="L89" t="s">
         <v>617</v>
       </c>
       <c r="M89" t="s">
-        <v>1365</v>
+        <v>954</v>
       </c>
       <c r="N89" t="s">
         <v>617</v>
       </c>
       <c r="O89" t="s">
-        <v>1366</v>
+        <v>955</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15056,22 +11510,22 @@
         <v>442</v>
       </c>
       <c r="J90" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K90" t="s">
-        <v>1367</v>
+        <v>956</v>
       </c>
       <c r="L90" t="s">
         <v>617</v>
       </c>
       <c r="M90" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N90" t="s">
         <v>617</v>
       </c>
       <c r="O90" t="s">
-        <v>1368</v>
+        <v>957</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15100,25 +11554,25 @@
         <v>595</v>
       </c>
       <c r="I91" t="s">
-        <v>1369</v>
+        <v>958</v>
       </c>
       <c r="J91" t="s">
         <v>514</v>
       </c>
       <c r="K91" t="s">
-        <v>1370</v>
+        <v>959</v>
       </c>
       <c r="L91" t="s">
         <v>617</v>
       </c>
       <c r="M91" t="s">
-        <v>1371</v>
+        <v>960</v>
       </c>
       <c r="N91" t="s">
         <v>617</v>
       </c>
       <c r="O91" t="s">
-        <v>1372</v>
+        <v>961</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15147,25 +11601,25 @@
         <v>596</v>
       </c>
       <c r="I92" t="s">
-        <v>1373</v>
+        <v>962</v>
       </c>
       <c r="J92" t="s">
         <v>515</v>
       </c>
       <c r="K92" t="s">
-        <v>1374</v>
+        <v>963</v>
       </c>
       <c r="L92" t="s">
         <v>617</v>
       </c>
       <c r="M92" t="s">
-        <v>1375</v>
+        <v>964</v>
       </c>
       <c r="N92" t="s">
         <v>617</v>
       </c>
       <c r="O92" t="s">
-        <v>1376</v>
+        <v>965</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15197,22 +11651,22 @@
         <v>442</v>
       </c>
       <c r="J93" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K93" t="s">
-        <v>1377</v>
+        <v>966</v>
       </c>
       <c r="L93" t="s">
         <v>617</v>
       </c>
       <c r="M93" t="s">
-        <v>1378</v>
+        <v>967</v>
       </c>
       <c r="N93" t="s">
         <v>617</v>
       </c>
       <c r="O93" t="s">
-        <v>1379</v>
+        <v>968</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15241,25 +11695,25 @@
         <v>598</v>
       </c>
       <c r="I94" t="s">
-        <v>1380</v>
+        <v>969</v>
       </c>
       <c r="J94" t="s">
         <v>516</v>
       </c>
       <c r="K94" t="s">
-        <v>1381</v>
+        <v>970</v>
       </c>
       <c r="L94" t="s">
         <v>617</v>
       </c>
       <c r="M94" t="s">
-        <v>1382</v>
+        <v>971</v>
       </c>
       <c r="N94" t="s">
         <v>617</v>
       </c>
       <c r="O94" t="s">
-        <v>1383</v>
+        <v>972</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15291,22 +11745,22 @@
         <v>442</v>
       </c>
       <c r="J95" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K95" t="s">
-        <v>1384</v>
+        <v>973</v>
       </c>
       <c r="L95" t="s">
         <v>617</v>
       </c>
       <c r="M95" t="s">
-        <v>1385</v>
+        <v>974</v>
       </c>
       <c r="N95" t="s">
         <v>617</v>
       </c>
       <c r="O95" t="s">
-        <v>1386</v>
+        <v>975</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15335,25 +11789,25 @@
         <v>599</v>
       </c>
       <c r="I96" t="s">
-        <v>1387</v>
+        <v>976</v>
       </c>
       <c r="J96" t="s">
         <v>462</v>
       </c>
       <c r="K96" t="s">
-        <v>1388</v>
+        <v>977</v>
       </c>
       <c r="L96" t="s">
         <v>617</v>
       </c>
       <c r="M96" t="s">
-        <v>1389</v>
+        <v>978</v>
       </c>
       <c r="N96" t="s">
         <v>617</v>
       </c>
       <c r="O96" t="s">
-        <v>1390</v>
+        <v>979</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15382,25 +11836,25 @@
         <v>600</v>
       </c>
       <c r="I97" t="s">
-        <v>1391</v>
+        <v>980</v>
       </c>
       <c r="J97" t="s">
         <v>517</v>
       </c>
       <c r="K97" t="s">
-        <v>1392</v>
+        <v>981</v>
       </c>
       <c r="L97" t="s">
         <v>617</v>
       </c>
       <c r="M97" t="s">
-        <v>1393</v>
+        <v>982</v>
       </c>
       <c r="N97" t="s">
         <v>617</v>
       </c>
       <c r="O97" t="s">
-        <v>1394</v>
+        <v>983</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15429,25 +11883,25 @@
         <v>601</v>
       </c>
       <c r="I98" t="s">
-        <v>1395</v>
+        <v>984</v>
       </c>
       <c r="J98" t="s">
         <v>518</v>
       </c>
       <c r="K98" t="s">
-        <v>1396</v>
+        <v>985</v>
       </c>
       <c r="L98" t="s">
         <v>617</v>
       </c>
       <c r="M98" t="s">
-        <v>1397</v>
+        <v>986</v>
       </c>
       <c r="N98" t="s">
         <v>617</v>
       </c>
       <c r="O98" t="s">
-        <v>1398</v>
+        <v>987</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15476,25 +11930,25 @@
         <v>602</v>
       </c>
       <c r="I99" t="s">
-        <v>1399</v>
+        <v>988</v>
       </c>
       <c r="J99" t="s">
         <v>519</v>
       </c>
       <c r="K99" t="s">
-        <v>1400</v>
+        <v>989</v>
       </c>
       <c r="L99" t="s">
         <v>617</v>
       </c>
       <c r="M99" t="s">
-        <v>1401</v>
+        <v>990</v>
       </c>
       <c r="N99" t="s">
         <v>617</v>
       </c>
       <c r="O99" t="s">
-        <v>1402</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15523,25 +11977,25 @@
         <v>603</v>
       </c>
       <c r="I100" t="s">
-        <v>1403</v>
+        <v>992</v>
       </c>
       <c r="J100" t="s">
         <v>475</v>
       </c>
       <c r="K100" t="s">
-        <v>1404</v>
+        <v>993</v>
       </c>
       <c r="L100" t="s">
         <v>617</v>
       </c>
       <c r="M100" t="s">
-        <v>1405</v>
+        <v>994</v>
       </c>
       <c r="N100" t="s">
         <v>617</v>
       </c>
       <c r="O100" t="s">
-        <v>1406</v>
+        <v>995</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15570,25 +12024,25 @@
         <v>604</v>
       </c>
       <c r="I101" t="s">
-        <v>1407</v>
+        <v>996</v>
       </c>
       <c r="J101" t="s">
         <v>520</v>
       </c>
       <c r="K101" t="s">
-        <v>1408</v>
+        <v>997</v>
       </c>
       <c r="L101" t="s">
         <v>617</v>
       </c>
       <c r="M101" t="s">
-        <v>1409</v>
+        <v>998</v>
       </c>
       <c r="N101" t="s">
         <v>617</v>
       </c>
       <c r="O101" t="s">
-        <v>1410</v>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15617,25 +12071,25 @@
         <v>605</v>
       </c>
       <c r="I102" t="s">
-        <v>1411</v>
+        <v>1000</v>
       </c>
       <c r="J102" t="s">
         <v>467</v>
       </c>
       <c r="K102" t="s">
-        <v>1412</v>
+        <v>1001</v>
       </c>
       <c r="L102" t="s">
         <v>617</v>
       </c>
       <c r="M102" t="s">
-        <v>1413</v>
+        <v>1002</v>
       </c>
       <c r="N102" t="s">
         <v>617</v>
       </c>
       <c r="O102" t="s">
-        <v>1414</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15664,25 +12118,25 @@
         <v>606</v>
       </c>
       <c r="I103" t="s">
-        <v>1415</v>
+        <v>1004</v>
       </c>
       <c r="J103" t="s">
         <v>521</v>
       </c>
       <c r="K103" t="s">
-        <v>1416</v>
+        <v>1005</v>
       </c>
       <c r="L103" t="s">
         <v>617</v>
       </c>
       <c r="M103" t="s">
-        <v>1417</v>
+        <v>1006</v>
       </c>
       <c r="N103" t="s">
         <v>617</v>
       </c>
       <c r="O103" t="s">
-        <v>1418</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15714,22 +12168,22 @@
         <v>442</v>
       </c>
       <c r="J104" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K104" t="s">
-        <v>1419</v>
+        <v>1008</v>
       </c>
       <c r="L104" t="s">
         <v>617</v>
       </c>
       <c r="M104" t="s">
-        <v>1420</v>
+        <v>1009</v>
       </c>
       <c r="N104" t="s">
         <v>617</v>
       </c>
       <c r="O104" t="s">
-        <v>1421</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15758,25 +12212,25 @@
         <v>608</v>
       </c>
       <c r="I105" t="s">
-        <v>1422</v>
+        <v>1011</v>
       </c>
       <c r="J105" t="s">
         <v>489</v>
       </c>
       <c r="K105" t="s">
-        <v>1423</v>
+        <v>1012</v>
       </c>
       <c r="L105" t="s">
         <v>617</v>
       </c>
       <c r="M105" t="s">
-        <v>1424</v>
+        <v>1013</v>
       </c>
       <c r="N105" t="s">
         <v>617</v>
       </c>
       <c r="O105" t="s">
-        <v>1425</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15805,25 +12259,25 @@
         <v>609</v>
       </c>
       <c r="I106" t="s">
-        <v>1426</v>
+        <v>1015</v>
       </c>
       <c r="J106" t="s">
         <v>470</v>
       </c>
       <c r="K106" t="s">
-        <v>1427</v>
+        <v>1016</v>
       </c>
       <c r="L106" t="s">
         <v>617</v>
       </c>
       <c r="M106" t="s">
-        <v>1428</v>
+        <v>1017</v>
       </c>
       <c r="N106" t="s">
         <v>617</v>
       </c>
       <c r="O106" t="s">
-        <v>1429</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15852,25 +12306,25 @@
         <v>610</v>
       </c>
       <c r="I107" t="s">
-        <v>1430</v>
+        <v>1019</v>
       </c>
       <c r="J107" t="s">
         <v>522</v>
       </c>
       <c r="K107" t="s">
-        <v>1431</v>
+        <v>1020</v>
       </c>
       <c r="L107" t="s">
         <v>617</v>
       </c>
       <c r="M107" t="s">
-        <v>1432</v>
+        <v>1021</v>
       </c>
       <c r="N107" t="s">
         <v>617</v>
       </c>
       <c r="O107" t="s">
-        <v>1433</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15899,25 +12353,25 @@
         <v>611</v>
       </c>
       <c r="I108" t="s">
-        <v>1434</v>
+        <v>1023</v>
       </c>
       <c r="J108" t="s">
         <v>523</v>
       </c>
       <c r="K108" t="s">
-        <v>1435</v>
+        <v>1024</v>
       </c>
       <c r="L108" t="s">
         <v>617</v>
       </c>
       <c r="M108" t="s">
-        <v>1436</v>
+        <v>1025</v>
       </c>
       <c r="N108" t="s">
         <v>617</v>
       </c>
       <c r="O108" t="s">
-        <v>1437</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15946,25 +12400,25 @@
         <v>612</v>
       </c>
       <c r="I109" t="s">
-        <v>1438</v>
+        <v>1027</v>
       </c>
       <c r="J109" t="s">
         <v>524</v>
       </c>
       <c r="K109" t="s">
-        <v>1439</v>
+        <v>1028</v>
       </c>
       <c r="L109" t="s">
         <v>617</v>
       </c>
       <c r="M109" t="s">
-        <v>1440</v>
+        <v>1029</v>
       </c>
       <c r="N109" t="s">
         <v>617</v>
       </c>
       <c r="O109" t="s">
-        <v>1441</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15993,25 +12447,25 @@
         <v>613</v>
       </c>
       <c r="I110" t="s">
-        <v>1442</v>
+        <v>1031</v>
       </c>
       <c r="J110" t="s">
         <v>525</v>
       </c>
       <c r="K110" t="s">
-        <v>1443</v>
+        <v>1032</v>
       </c>
       <c r="L110" t="s">
         <v>617</v>
       </c>
       <c r="M110" t="s">
-        <v>1444</v>
+        <v>1033</v>
       </c>
       <c r="N110" t="s">
         <v>617</v>
       </c>
       <c r="O110" t="s">
-        <v>1445</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16040,25 +12494,25 @@
         <v>614</v>
       </c>
       <c r="I111" t="s">
-        <v>1446</v>
+        <v>1035</v>
       </c>
       <c r="J111" t="s">
         <v>526</v>
       </c>
       <c r="K111" t="s">
-        <v>1447</v>
+        <v>1036</v>
       </c>
       <c r="L111" t="s">
         <v>617</v>
       </c>
       <c r="M111" t="s">
-        <v>1448</v>
+        <v>1037</v>
       </c>
       <c r="N111" t="s">
         <v>617</v>
       </c>
       <c r="O111" t="s">
-        <v>1449</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16087,28 +12541,28 @@
         <v>615</v>
       </c>
       <c r="I112" t="s">
-        <v>1450</v>
+        <v>1039</v>
       </c>
       <c r="J112" t="s">
         <v>527</v>
       </c>
       <c r="K112" t="s">
-        <v>1451</v>
+        <v>1040</v>
       </c>
       <c r="L112" t="s">
         <v>617</v>
       </c>
       <c r="M112" t="s">
-        <v>1452</v>
+        <v>1041</v>
       </c>
       <c r="N112" t="s">
         <v>617</v>
       </c>
       <c r="O112" t="s">
-        <v>1453</v>
+        <v>1042</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -16117,28 +12571,28 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I113" t="s">
         <v>442</v>
       </c>
       <c r="J113" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K113" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="L113" t="s">
         <v>617</v>
       </c>
       <c r="M113" t="s">
-        <v>1048</v>
+        <v>637</v>
       </c>
       <c r="N113" t="s">
         <v>617</v>
       </c>
       <c r="O113" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
